--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/29-04-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/30-04-20_reporte_matutino_covid_19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -93,20 +93,23 @@
   </si>
   <si>
     <t xml:space="preserve">We construct a time series of the cumulative number of tests performed to date using data provided by the Australian Government Department of Health through [daily health alerts](https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers) and [weekly epidemiological reports](https://www1.health.gov.au/internet/main/publishing.nsf/Content/novel_coronavirus_2019_ncov_weekly_epidemiology_reports_australia_2020.htm).
-The weekly epidemiological reports make it clear that the figures relate to diagnostic testing, suggesting that these include only PCR tests. It is unclear whether the reported figures include pending test results. It is also unclear when the first test was conducted, since we have not been able to find official data prior to March 22nd 2020 (at which point 143,056 tests had been performed).
+The weekly epidemiological reports make it clear that the figures relate to diagnostic testing. It is unclear whether the reported figures include pending test results. It is also unclear when the first test was conducted, since we have not been able to find official data prior to March 22nd 2020 (at which point 143,056 tests had been performed).
 The daily health alerts have provided testing figures since April 5th 2020, whereas the weekly epidemiological reports have provided testing figures since March 22nd 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. The entire collection of these infographics dating back to April 5th 2020 can be viewed [here](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection).</t>
   </si>
   <si>
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145322/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian Ministry for Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria Health Ministry</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austrian Ministry for Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria Health Ministry</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed</t>
@@ -114,20 +117,23 @@
   <si>
     <t xml:space="preserve">The Ministry for Health publishes daily updates of the COVID-19 situation [here](https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html), which include data on the cumulative number of tests performed to date. We construct a daily time series using [Web Archive snapshots](http://web.archive.org/web/*/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html) of these updates.
 It is unclear whether the reported figures include pending test results.
-A footnote explains that "The number 'testing' is the total number of all Covid tests carried out. The data for this are largely reported by the performing laboratories." Whilst the available documentation is not explicit, this suggests that all tests (or at least the large majority of tests) relate to PCR.
+A footnote explains that "The number 'testing' is the total number of all Covid tests carried out. The data for this are largely reported by the performing laboratories."
 The same figures are also provided by the Ministry for Health in [this official dashboard](https://info.gesundheitsministerium.at/dashboard_Hosp.html?l=en).</t>
   </si>
   <si>
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145324/https://www.moh.gov.bh/COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain Ministry of Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.moh.gov.bh/COVID19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">The source reports the 'number of assessments' conducted. It is unclear whether this refers to the total number of tests conducted, or the number of people tested.</t>
@@ -160,7 +166,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200428151015/http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-28-krasavika-vypisanyya-1993-patsyenta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-28-krasavika-vypisanyya-1993-patsyenta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -189,8 +195,7 @@
     <t xml:space="preserve">The data is described both as the number of tests performed and as the number of tested patients.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is some ambiguity as to the units. The testing data are labelled as 'the number of tests performed'. But in the [codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) provided alongside the data the testing series is described as 'the number of tested patients'. The date of is the date of laboratory diagnosis, or when not available, the date of sampling is used.
-It is not explicitly stated that only PCR tests are included but this is implied by references in the codebook to 'laboratory diagnosis'.</t>
+    <t xml:space="preserve">There is some ambiguity as to the units. The testing data are labelled as 'the number of tests performed'. But in the [codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) provided alongside the data the testing series is described as 'the number of tested patients'. The date of is the date of laboratory diagnosis, or when not available, the date of sampling is used.</t>
   </si>
   <si>
     <t xml:space="preserve">Bolivia - cases tested</t>
@@ -215,7 +220,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200429110342/https://coronavirus.bg/</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200501112313/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -235,10 +240,13 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501081525/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Canada</t>
   </si>
   <si>
     <t xml:space="preserve">The number of people tested.</t>
@@ -246,7 +254,7 @@
   <si>
     <t xml:space="preserve">The Government of Canada provides daily updates of the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which report the cumulative number of people tested to date. 
 We construct a daily time series of the cumulative number of people tested to date using [Web Archive snapshots](http://web.archive.org/web/*/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html) of these daily updates. The figures include positive and negative test results, while excluding pending test results.
-The figures relate to diagnostic testing completed in laboratories, which suggests that only PCR tests are included.
+The figures relate to diagnostic testing completed in laboratories.
 We only report data since March 18th 2020 due to a large jump in the time series that occurred between March 17th ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and March 18th ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to March 18th 2020.</t>
   </si>
   <si>
@@ -308,7 +316,7 @@
     <t xml:space="preserve">Croatia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145333/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -353,7 +361,7 @@
     <t xml:space="preserve">https://onemocneni-aktualne.mzcr.cz/api/v1/covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health publishes a data set containing incremental and cumulative daily numbers of COVID-19 tests performed according to laboratory reports. The fact that figures relate to laboratory reports suggests that only PCR tests are included. It is updated daily and accessible in CSV and JSON format.</t>
+    <t xml:space="preserve">The Ministry of Health publishes a data set containing incremental and cumulative daily numbers of COVID-19 tests performed according to laboratory reports. It is updated daily and accessible in CSV and JSON format. No other information about the figures could be found.</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark - People tested</t>
@@ -377,14 +385,13 @@
     <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each.
 It provides daily statistics on the number of people tested for COVID-19, and the number and share of people that tested positive.
 The most recent epidemiological status reports provides the daily data for the previous two weeks with a cumulative figure from 13 Jan given prior to that. We construct a longer time series by referring to earlier versions of this table, accessed via web archive.
-The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport).
-There is no explicit mention of whether the figures include only PCR tests or other kinds of test.</t>
+The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport).</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/04/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-29042020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/04/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-30042020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -471,7 +478,6 @@
 - "Public and private sector laboratories report to THL (health authority) the number of samples tested per hospital district"
 - "The actual number of infections in Finland is probably higher than reported, as not all mild symptoms have been tested so far and no information is available on the number of asymptomatic infections."
 - "Coronavirus testing is performed in both the public and private sectors in several laboratories."
-The fact that the figures relate to laboratory testing suggests that they relate to PCR tests only.
 The data description notes that tests are being rationed and allocated according to the following strategy: "Samples are taken primarily from patients with severe symptoms of respiratory infection and from health and social care staff to ensure staff health and labor adequacy....Attention has also been paid to vulnerable groups of patients with some underlying disease and to those over 70 years of age."
 This data series extends to the 27th February, when test figures were very low (9 tests per day). It is likely this is was the first day, or close to the first day of testing.</t>
   </si>
@@ -492,8 +498,7 @@
   </si>
   <si>
     <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 24th April, was published on the 23rd April. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
-The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.
-The fact that these figures relate to tests conducted in hospitals and laboratories suggests that the figures refer only to PCR tests.</t>
+The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
   </si>
   <si>
     <t xml:space="preserve">Germany - tests performed</t>
@@ -525,20 +530,22 @@
 – For calendar week 11 (which ends on 15 March), 114 labs reported 127457 samples tested.
 – Up to and including calendar week 10 (which ends on 8 March), 90 labs reported 124,716 samples tested.
 By subtracting each weekly change from the cumulative total, we retrospectively work out the cumulative totals by the end of each week.
-Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.
-The fact that these figures relate to tests conducted in laboratories suggests that they refer only to PCR tests. (See also in the [22 April update](https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-04-22-de.pdf?__blob=publicationFile), that the table in which the testing figures are presesnted are immediately followed by a table that relates explicitly to PCR testing capacity).</t>
+Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/archive.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbreak Response Management Situation Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbreak Response Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outbreak Response Management Situation Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outbreak Response Management</t>
   </si>
   <si>
     <t xml:space="preserve">The units are unclear. Some press releases mention "people tested", while others give figures for "samples tested".</t>
@@ -546,7 +553,8 @@
   <si>
     <t xml:space="preserve">Outbreak Response Management provides daily situation updates on the total number of people or total samples tested for the coronavirus.
 Using web archives, we reconstruct a time series. Situation updates report the total number of people tested from 28th March, then the total number of samples tested from 18th April. However, the figures given from one period to the other seem to line up correctly, thus we are not certain what the true units are.
-On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data.</t>
+On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data. 
+We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provide a breakdown of the total number of tests.</t>
   </si>
   <si>
     <t xml:space="preserve">Greece - tests performed</t>
@@ -568,7 +576,6 @@
 The report refers to its testing data as the number of people who have tested positive and negative since January 1: this means figures represent the number of people tested, excluding those pending results.
 More recent reports are explicit that the figures relate to samples tested rather than the number of people: The note mentioned that the figures are "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε").
 It is not totally explicit whether the figures cover all testing in Greece: the figures are labelled as "Samples that have been tested in the laboratories cooperating with EODY" ("Δείγματα που έχουν ελεγχθεί στα συνεργαζόμενα με τον ΕΟΔΥ εργαστήρια").
-The fact that these figures relate to tests conducted in laboratories suggests that the figures refer only to PCR tests.
 The official website provides a [list of daily reports](https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). Unfortunately many reports are missing meaning a full daily time-series cannot be constructed. It is unclear how far back testing extends; the earliest available report is on 20th March when 7172 people had been tested.</t>
   </si>
   <si>
@@ -611,7 +618,6 @@
   </si>
   <si>
     <t xml:space="preserve">A figure for the 'number of samples tested in an accredited laboratory' ("akkreditált laboratóriumban vizsgált minták száma") is provided in a graphic in the govenrment's coronavirus information website. No other information about the data is provided.
-The fact that these figures relate to tests conducted in laboratories suggests that the figures refer only to PCR tests.
 We use these official data as collected by the [visual and data journalism team](https://atlo.team/koronamonitor/) of Budapest-based investigative center Atlatszo, made accessible in a [public spreadsheet](https://docs.google.com/spreadsheets/d/1e4VEZL1xvsALoOIq9V2SQuICeQrT5MtWfBm32ad7i8Q/edit#gid=311133316). We have cross-checked a sample of the figures in this unofficial spreadsheet against official figures.</t>
   </si>
   <si>
@@ -654,7 +660,7 @@
     <t xml:space="preserve">Indonesia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.disiplin.id/</t>
+    <t xml:space="preserve">https://web.archive.org</t>
   </si>
   <si>
     <t xml:space="preserve">Emerging infections, Indonesian Ministry of Health</t>
@@ -698,7 +704,7 @@
   <si>
     <t xml:space="preserve">The Irish Department of Health publishes daily press releases, which sometimes (about once a week) include an updated cumulative total for national tests.
 The [10 March release](https://www.gov.ie/en/press-release/a4016f-statement-from-the-national-public-health-emergency-team-tuesday-10-/) was unclear as to the units: It states both that "1,784 people have been tested" and that "There have been 1,784 suspected cases tested in Ireland, to date - an increase of 1,387 tests in one week." Subsequent releases refer to "tests carried out". Overall it remains unclear whether the figures relate to people tested or the number of tests performed.
-Occassionally, the press release states that these figures relate to tests "carried out in laboratories across the country". This suggests that the figures relate to PCR tests and that all laboratories are included.
+Occassionally, the press release states that these figures relate to tests "carried out in laboratories across the country".
 No other details about what the numbers refer to are known.</t>
   </si>
   <si>
@@ -770,7 +776,7 @@
     <t xml:space="preserve">https://www.mhlw.go.jp/stf/houdou/houdou_list_202004.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
+    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy. Daily changes in the number of people tested are included in parentheses. For the 3rd April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
 This includes two cases where the cumulative number of people tested falls: (1) 19/03 and (2) 25/03. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote.
 It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
@@ -785,7 +791,7 @@
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
   </si>
   <si>
-    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the data on which results were determined" (via Google translate).
+    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy.
 With each update, some daily totals are revised from earlier releases of the time series. 
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
@@ -836,10 +842,13 @@
     <t xml:space="preserve">Collected from the Latvian Open Data Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">The Center for Disease Prevention and Control publishes the number of laboratory tests performed to detect SARS-CoV-2 virus ("Veikto laboratorisko testu skaits, lai noteiktu SARS-CoV-2 vīrusu") on the Latvian Government's Open Data Portal. This suggests that the figures relate to PCR tests only. No information is given on the geographical scope and number of labs included.</t>
+    <t xml:space="preserve">The Center for Disease Prevention and Control publishes the number of laboratory tests performed to detect SARS-CoV-2 virus ("Veikto laboratorisko testu skaits, lai noteiktu SARS-CoV-2 vīrusu") on the Latvian Government's Open Data Portal. No information is given on the geographical scope and number of labs included.</t>
   </si>
   <si>
     <t xml:space="preserve">Lithuania - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501082406/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -864,16 +873,19 @@
     <t xml:space="preserve">The Luxembourg government provides a daily situation update listing the 'number of persons tested since the beginning of the crisis'.
 Using web archives, we construct a time series by looking at earlier snapshots of the website. Gaps in the series are due to the lack of archived pages for those particular dates. Archives dating back to April 1st are available.
 Earlier updates listed their figures as 'tests carried out'. Given that there is no visible break in the series, we assume that the figures have always related to the number of people tested and the change in label reflects only a clarification of this.
-In the FAQs beneath the figures, the website states that "Only a test on respiratory secretions is currently available to detect the presence of the new coronavirus." This suggests that the figures relate to PCR tests only.</t>
+In the FAQs beneath the figures, the website states that "Only a test on respiratory secretions is currently available to detect the presence of the new coronavirus."</t>
   </si>
   <si>
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145427/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health Malaysia</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health Malaysia</t>
   </si>
   <si>
     <t xml:space="preserve">The number of cases tested, including pending.</t>
@@ -896,8 +908,7 @@
     <t xml:space="preserve">The Mexican Health Secretary publishes a dataset on [datos.gob.mx](https://datos.gob.mx/busca/dataset/informacion-referente-a-casos-covid-19-en-mexico), the open data platform of the Mexican government.
 The file can be downloaded in CSV format, and gives detailed information on each case (1 row per case). The RESULTADO column gives the status of the case, with 1 = CONFIRMED and 2 = NEGATIVE. The resulting tally can also be found on the [government's COVID-19 dashboard](https://coronavirus.gob.mx/datos/).
 While geographical coverage is complete, there is a time lag in the publication of the data, and recent days systematically show temporary low figures. Data starts on 1 January 2020; we do now know if this is because tests started on that date or because earlier data is not available.
-The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector". (via Google translate)
-The latter note suggests that the figures relate only to PCR tests.</t>
+The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector". (via Google translate)</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco - people tested</t>
@@ -973,8 +984,7 @@
   <si>
     <t xml:space="preserve">The Dutch National Institute for Public Health and the Environment releases daily epidemiological reports of the COVID-19 situation. The reports contain a weekly time series of the number of persons tested per week since March 9th 2020. The reports also include the number of persons tested per day in the current week.
 There appear to be reporting lags, such that the number of labs reporting for days in the current week tend to be lower than for the previous week. As a result, the reported figures are updated retrospectively as additional labs report their results. The figures we display are based on the latest available epidemiological report.
-The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.
-The fact that these figures relate to diagnostic tests conducted in laboratories suggests that the they refer only to PCR tests.</t>
+The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand - tests performed</t>
@@ -1032,10 +1042,13 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501082450/http://www.covid.gov.pk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Pakistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.covid.gov.pk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">The government of Pakistan publishes a [dashboard showing up-to-date national data](http://www.covid.gov.pk/).
@@ -1121,7 +1134,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.04.30.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.01.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1136,7 +1149,7 @@
     <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
   </si>
   <si>
-    <t xml:space="preserve">The Polish Ministry of Health ([@MZ_GOV_PL](https://twitter.com/MZ_GOV_PL)) tweets daily reports of the cumulative number of samples tested ("liczba przebadanych próbek"). These figures are broken down into positive and negative test results (implying that tests pending results are not included in the total). The figures reported in these tweets are collected by an [unofficial source](https://github.com/anuszka/COVID-19-MZ_GOV_PL), from which we take our figures, but regularly audit for accuracy.
+    <t xml:space="preserve">The Polish Ministry of Health ([@MZ_GOV_PL](https://twitter.com/MZ_GOV_PL)) tweets daily reports of the cumulative number of samples tested ("liczba przebadanych próbek"). The figures reported in these tweets are collected by an [unofficial source](https://github.com/anuszka/COVID-19-MZ_GOV_PL), from which we take our figures, but regularly audit for accuracy.
 The first date for which we have found data is March 3rd 2020, in which 559 cumulative samples were tested since an unknown date.
 No other information about the figures is known.</t>
   </si>
@@ -1160,7 +1173,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200430155406/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145525/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1192,7 +1205,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14359</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14368</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1282,13 +1295,16 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501082509/https://www.korona.gov.sk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.korona.gov.sk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
   </si>
   <si>
     <t xml:space="preserve">The number of completed laboratory tests.</t>
@@ -1317,7 +1333,7 @@
   <si>
     <t xml:space="preserve">The Government information website provides figures for the number of tests completed ("Opravljeni testi"). A time series of both cumulative and daily tests is available to download. This date back to the 12 March, where 3863 tests are reported to have already been performed (it is not known from which date this first cumulative figure dates back to).
 The same cumulative figure is published each day by the [National Insitute for Public Health (NIJZ)](https://www.nijz.si/sl/dnevno-spremljanje-okuzb-s-sars-cov-2-covid-19). Here they clarify that figures relate to the number of tests – including those for people who were tested several times.
-A footnote states that the figures relate to "Laboratory tests performed as part of routine testing and the COVID-19 National Survey are included." The later appears to refer to the prevalence study described on this [Government page](https://www.gov.si/en/news/2020-04-24-national-covid-19-prevalence-survey/). The description of the study states that "The survey is being conducted on a random sample of 3,000 persons" and that people will be tested with both a PCR and a serological test. Thus there is the possibility that included in the figures we present are a small number of non PCR tests.
+A footnote states that the figures relate to "Laboratory tests performed as part of routine testing and the COVID-19 National Survey are included." The later appears to refer to the prevalence study described on this [Government page](https://www.gov.si/en/news/2020-04-24-national-covid-19-prevalence-survey/). The description of the study states that "The survey is being conducted on a random sample of 3,000 persons" and that people will be tested with both a PCR and a serological test.
 The volunteer-led [Sledilnik.org project](https://covid-19.sledilnik.org/#/) also presents the official data in a helpful website.</t>
   </si>
   <si>
@@ -1344,7 +1360,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367053&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367062&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1393,7 +1409,7 @@
     <t xml:space="preserve">Public Health Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">The weekly report gives the cumulative total of individuals "analyzed for the virus that causes covid-19 in Sweden", along with weekly totals. The discription suggests that the figures relate to PCR tests.
+    <t xml:space="preserve">The weekly report gives the cumulative total of individuals "analyzed for the virus that causes covid-19 in Sweden", along with weekly totals.
 By subtracting each weekly change from the cumulative total, we can retrospectively work out the cumulative totals by the end of each week.
 Figures are often rounded off to the nearest hundred, indicating that they might not be extremely precise. The report does not indicate whether pending tests are included in the counts.
 A note is provided at the same website indicating that the testing strategy has changed over time: "Initially, people who were living in areas with known spread of covid-19 were sampled. But since mid-March, people with symptoms consistent with covid-19 infection who are in need of inpatient hospital care, healthcare personnel and elderly care, and people who are being tested in sentinel testing are primarily being tested. This means that people with mild symptoms are not asked to contact the health care and therefore do not end up in the statistics of reported cases." (via Google Translate)</t>
@@ -1415,13 +1431,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Federal Office of Public Health presents a time series of daily positive and negative tests as a graphic. The data can be accessed by downloading the graphic software file. The graphic notes that "Since several tests can be taken and reported per person, the number of positive tests is higher than the number of positively tested people". (via Googl translate).
-The Federal Office of Public Health also publishes a [daily report](https://www.bag.admin.ch/bag/de/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/situation-schweiz-und-international.html#316168418) on the epidemiological situation, in which very similar cumulative figures are provided, but often rounded-off. These reports present the figures as "The number of tests carried out on SARS-CoV-2, the causative agent of COVID-19". This suggests that they relate to PCR tests only.</t>
+The Federal Office of Public Health also publishes a [daily report](https://www.bag.admin.ch/bag/de/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/situation-schweiz-und-international.html#316168418) on the epidemiological situation, in which very similar cumulative figures are provided, but often rounded-off. These reports present the figures as "The number of tests carried out on SARS-CoV-2, the causative agent of COVID-19".</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/gu4Xy8NSvNN8jtDBCjtmpw?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/Xu8MOuQTDD1uAXvY9riyRw?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1441,7 +1457,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501145612/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1500,7 +1516,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1255595307993313285</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1255973076493369344</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1549,7 +1565,13 @@
   </si>
   <si>
     <t xml:space="preserve">A time series is not yet released. The figures we provide relate to the daily updates provided for the cumulative total and daily number of people tested. It is not clear the exact date that the cumulative figures date back to.
-We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.</t>
+We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.
+The UK now provides its figures according to the 'pillars' of it's testing strategy, as follows:
+Pillar 1: swab testing in PHE labs and NHS hospitals for those with a clinical need, and health and care workers
+Pillar 2: swab testing for health, social care and other essential workers and their households
+Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
+As of 30 April, there were no people tested under Pillar 4 included in this series.
+(As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above).</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom - tests performed</t>
@@ -1559,7 +1581,13 @@
   </si>
   <si>
     <t xml:space="preserve">A time series is not yet released. The figures we provide relate to the daily updates provided for the cumulative total and daily number of tests performed. It is not clear the exact date that the cumulative figures date back to.
-We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.</t>
+We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.
+The UK now provides its figures according to the 'pillars' of it's testing strategy, as follows:
+Pillar 1: swab testing in PHE labs and NHS hospitals for those with a clinical need, and health and care workers
+Pillar 2: swab testing for health, social care and other essential workers and their households
+Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
+ As of 30 April, around 10% of the total number of tests were reported under Pillar 4. How these further breakdown between serology and swab testing is not known.
+As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above.</t>
   </si>
   <si>
     <t xml:space="preserve">United States - inconsistent units (COVID Tracking Project)</t>
@@ -1613,7 +1641,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-10</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-11</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1656,7 +1684,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results. It is not clear how many people have been tested, since the reported figures refer only to the number of tests conducted rather than the number of people tested.
-The wording of the press releases strongly imply that the reported figures only include PCR tests.
 The earliest reported figure that we have been able to find is from March 15th 2020, at which point 14 tests had been conducted.</t>
   </si>
 </sst>
@@ -2050,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2060,26 +2087,18 @@
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>56058</v>
+        <v>58685</v>
       </c>
       <c r="H2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2458</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.045</v>
-      </c>
+        <v>1.298</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2" t="s">
         <v>18</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2156,99 +2175,99 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="n">
-        <v>256399</v>
+        <v>264079</v>
       </c>
       <c r="H4" t="n">
-        <v>28.469</v>
+        <v>29.321</v>
       </c>
       <c r="I4" t="n">
-        <v>8645</v>
+        <v>7680</v>
       </c>
       <c r="J4" t="n">
-        <v>0.96</v>
+        <v>0.853</v>
       </c>
       <c r="K4" t="n">
-        <v>7954</v>
+        <v>8167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.883</v>
+        <v>0.907</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>129694</v>
+        <v>134082</v>
       </c>
       <c r="H5" t="n">
-        <v>76.22</v>
+        <v>78.798</v>
       </c>
       <c r="I5" t="n">
-        <v>2789</v>
+        <v>4388</v>
       </c>
       <c r="J5" t="n">
-        <v>1.639</v>
+        <v>2.579</v>
       </c>
       <c r="K5" t="n">
-        <v>3965.667</v>
+        <v>4125.333</v>
       </c>
       <c r="L5" t="n">
-        <v>2.33</v>
+        <v>2.424</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
@@ -2273,267 +2292,263 @@
         <v>0.029</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>161288</v>
+        <v>161028</v>
       </c>
       <c r="H7" t="n">
-        <v>17.069</v>
+        <v>17.041</v>
       </c>
       <c r="I7" t="n">
-        <v>7488</v>
+        <v>7228</v>
       </c>
       <c r="J7" t="n">
-        <v>0.792</v>
+        <v>0.765</v>
       </c>
       <c r="K7" t="n">
-        <v>7331</v>
+        <v>7244.333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.776</v>
+        <v>0.767</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>233081</v>
+        <v>306936</v>
       </c>
       <c r="H8" t="n">
-        <v>20.111</v>
+        <v>26.484</v>
       </c>
       <c r="I8" t="n">
-        <v>6726</v>
+        <v>19120</v>
       </c>
       <c r="J8" t="n">
-        <v>0.58</v>
+        <v>1.65</v>
       </c>
       <c r="K8" t="n">
-        <v>6014</v>
+        <v>16904.333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.519</v>
+        <v>1.459</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>6409</v>
+        <v>6551</v>
       </c>
       <c r="H9" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="I9" t="n">
-        <v>288</v>
-      </c>
+        <v>0.561</v>
+      </c>
+      <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="K9" t="n">
-        <v>206</v>
-      </c>
+        <v>0.012</v>
+      </c>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>45208</v>
+        <v>46510</v>
       </c>
       <c r="H10" t="n">
-        <v>6.506</v>
+        <v>6.694</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>788283</v>
+        <v>806449</v>
       </c>
       <c r="H11" t="n">
-        <v>20.886</v>
+        <v>21.367</v>
       </c>
       <c r="I11" t="n">
-        <v>29871</v>
+        <v>18166</v>
       </c>
       <c r="J11" t="n">
-        <v>0.791</v>
+        <v>0.481</v>
       </c>
       <c r="K11" t="n">
-        <v>23610.667</v>
+        <v>21863.333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.625</v>
+        <v>0.579</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
@@ -2557,74 +2572,78 @@
         <v>0.336</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>100157</v>
+        <v>104657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.968</v>
-      </c>
-      <c r="I13"/>
+        <v>2.057</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2520</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="K13"/>
+        <v>0.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3073</v>
+      </c>
       <c r="L13" t="n">
         <v>0.06</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
@@ -2645,81 +2664,81 @@
         <v>0.027</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
         <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>36221</v>
+        <v>36917</v>
       </c>
       <c r="H15" t="n">
-        <v>8.823</v>
+        <v>8.993</v>
       </c>
       <c r="I15" t="n">
-        <v>1745</v>
+        <v>2441</v>
       </c>
       <c r="J15" t="n">
-        <v>0.425</v>
+        <v>0.595</v>
       </c>
       <c r="K15" t="n">
-        <v>1134.667</v>
+        <v>1366.667</v>
       </c>
       <c r="L15" t="n">
-        <v>0.276</v>
+        <v>0.333</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" t="n">
         <v>39</v>
@@ -2743,81 +2762,81 @@
         <v>0.168</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="n">
-        <v>242088</v>
+        <v>249634</v>
       </c>
       <c r="H17" t="n">
-        <v>22.606</v>
+        <v>23.311</v>
       </c>
       <c r="I17" t="n">
-        <v>7023</v>
+        <v>7250</v>
       </c>
       <c r="J17" t="n">
-        <v>0.656</v>
+        <v>0.677</v>
       </c>
       <c r="K17" t="n">
-        <v>7833.333</v>
+        <v>7771.333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.732</v>
+        <v>0.726</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
         <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F18" t="n">
         <v>42</v>
@@ -2837,77 +2856,83 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>52185</v>
+        <v>52848</v>
       </c>
       <c r="H19" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="I19"/>
+        <v>2.995</v>
+      </c>
+      <c r="I19" t="n">
+        <v>663</v>
+      </c>
       <c r="J19" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19"/>
+        <v>0.038</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1518.667</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.086</v>
+      </c>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -2923,78 +2948,78 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" t="n">
-        <v>52741</v>
+        <v>53767</v>
       </c>
       <c r="H21" t="n">
-        <v>39.758</v>
+        <v>40.532</v>
       </c>
       <c r="I21" t="n">
-        <v>1563</v>
+        <v>1031</v>
       </c>
       <c r="J21" t="n">
-        <v>1.178</v>
+        <v>0.777</v>
       </c>
       <c r="K21" t="n">
-        <v>1448.333</v>
+        <v>1421</v>
       </c>
       <c r="L21" t="n">
-        <v>1.092</v>
+        <v>1.071</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
@@ -3019,77 +3044,77 @@
         <v>0.009</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" t="n">
-        <v>93866</v>
+        <v>97593</v>
       </c>
       <c r="H23" t="n">
-        <v>16.941</v>
+        <v>17.614</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>0.206</v>
+        <v>0.187</v>
       </c>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>0.38</v>
+        <v>0.445</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -3105,33 +3130,33 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O24" t="s">
         <v>20</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F25" t="n">
         <v>8</v>
@@ -3147,77 +3172,77 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43940</v>
+        <v>43949</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>68591</v>
+        <v>113497</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207</v>
+        <v>3.653</v>
       </c>
       <c r="I26" t="n">
-        <v>7675</v>
+        <v>7407</v>
       </c>
       <c r="J26" t="n">
-        <v>0.247</v>
+        <v>0.238</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F27" t="n">
         <v>40</v>
@@ -3241,30 +3266,30 @@
         <v>0.29</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
@@ -3281,131 +3306,131 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>72951</v>
+        <v>76331</v>
       </c>
       <c r="H29" t="n">
-        <v>7.552</v>
+        <v>7.901</v>
       </c>
       <c r="I29" t="n">
-        <v>2651</v>
+        <v>3380</v>
       </c>
       <c r="J29" t="n">
-        <v>0.274</v>
+        <v>0.35</v>
       </c>
       <c r="K29" t="n">
-        <v>2442</v>
+        <v>3053</v>
       </c>
       <c r="L29" t="n">
-        <v>0.253</v>
+        <v>0.316</v>
       </c>
       <c r="M29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" t="n">
-        <v>48372</v>
+        <v>49094</v>
       </c>
       <c r="H30" t="n">
-        <v>141.749</v>
+        <v>143.865</v>
       </c>
       <c r="I30" t="n">
-        <v>840</v>
+        <v>722</v>
       </c>
       <c r="J30" t="n">
-        <v>2.462</v>
+        <v>2.116</v>
       </c>
       <c r="K30" t="n">
-        <v>678.667</v>
+        <v>690</v>
       </c>
       <c r="L30" t="n">
-        <v>1.989</v>
+        <v>2.022</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F31" t="n">
         <v>24</v>
@@ -3425,128 +3450,128 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N31" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C32" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>43951</v>
-      </c>
-      <c r="C32" t="s">
-        <v>185</v>
-      </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="n">
-        <v>830201</v>
+        <v>902654</v>
       </c>
       <c r="H32" t="n">
-        <v>0.602</v>
+        <v>0.654</v>
       </c>
       <c r="I32" t="n">
-        <v>59437</v>
+        <v>72453</v>
       </c>
       <c r="J32" t="n">
-        <v>0.043</v>
+        <v>0.053</v>
       </c>
       <c r="K32" t="n">
-        <v>54794</v>
+        <v>61973.667</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="M32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" t="n">
-        <v>72351</v>
+        <v>76538</v>
       </c>
       <c r="H33" t="n">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>4567</v>
+        <v>4187</v>
       </c>
       <c r="J33" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4664.667</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.017</v>
       </c>
-      <c r="K33" t="n">
-        <v>4314</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.016</v>
-      </c>
       <c r="M33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
@@ -3567,30 +3592,30 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
         <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="n">
@@ -3607,33 +3632,33 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F36" t="n">
         <v>68</v>
@@ -3657,33 +3682,33 @@
         <v>1.146</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O36" t="s">
         <v>20</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
         <v>12</v>
@@ -3707,33 +3732,33 @@
         <v>0.648</v>
       </c>
       <c r="M37" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F38" t="n">
         <v>67</v>
@@ -3757,75 +3782,75 @@
         <v>1.045</v>
       </c>
       <c r="M38" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O38" t="s">
         <v>20</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F39" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G39" t="n">
-        <v>164255</v>
+        <v>174150</v>
       </c>
       <c r="H39" t="n">
-        <v>1.299</v>
+        <v>1.377</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F40" t="n">
         <v>71</v>
@@ -3849,30 +3874,30 @@
         <v>0.036</v>
       </c>
       <c r="M40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O40" t="s">
         <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
@@ -3897,30 +3922,30 @@
         <v>0.781</v>
       </c>
       <c r="M41" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N41" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O41" t="s">
         <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
@@ -3941,128 +3966,128 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O42" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F43" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G43" t="n">
-        <v>57886</v>
+        <v>61120</v>
       </c>
       <c r="H43" t="n">
-        <v>30.689</v>
+        <v>32.404</v>
       </c>
       <c r="I43" t="n">
-        <v>3075</v>
+        <v>3234</v>
       </c>
       <c r="J43" t="n">
-        <v>1.63</v>
+        <v>1.715</v>
       </c>
       <c r="K43" t="n">
-        <v>2901.667</v>
+        <v>3186.333</v>
       </c>
       <c r="L43" t="n">
-        <v>1.538</v>
+        <v>1.689</v>
       </c>
       <c r="M43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O43" t="s">
         <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="n">
-        <v>125555</v>
+        <v>132768</v>
       </c>
       <c r="H44" t="n">
-        <v>46.121</v>
+        <v>48.771</v>
       </c>
       <c r="I44" t="n">
-        <v>7354</v>
+        <v>7213</v>
       </c>
       <c r="J44" t="n">
-        <v>2.701</v>
+        <v>2.65</v>
       </c>
       <c r="K44" t="n">
-        <v>6260</v>
+        <v>6986.333</v>
       </c>
       <c r="L44" t="n">
-        <v>2.299</v>
+        <v>2.566</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
@@ -4083,88 +4108,80 @@
         <v>1.886</v>
       </c>
       <c r="M45" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O45" t="s">
         <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" t="n">
-        <v>154203</v>
+        <v>168784</v>
       </c>
       <c r="H46" t="n">
-        <v>4.764</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7404</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7570.667</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.234</v>
-      </c>
+        <v>5.215</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N46" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O46" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G47" t="n">
-        <v>68649</v>
+        <v>71852</v>
       </c>
       <c r="H47" t="n">
-        <v>0.532</v>
+        <v>0.557</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="n">
@@ -4175,80 +4192,80 @@
         <v>0.003</v>
       </c>
       <c r="M47" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N47" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F48" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>32930</v>
+        <v>34841</v>
       </c>
       <c r="H48" t="n">
-        <v>0.892</v>
+        <v>0.944</v>
       </c>
       <c r="I48" t="n">
-        <v>1680</v>
+        <v>1911</v>
       </c>
       <c r="J48" t="n">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="K48" t="n">
-        <v>1843.667</v>
+        <v>1862.333</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="M48" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N48" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
@@ -4273,80 +4290,80 @@
         <v>0.007</v>
       </c>
       <c r="M49" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N49" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C50" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F50" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G50" t="n">
-        <v>11524</v>
+        <v>12011</v>
       </c>
       <c r="H50" t="n">
-        <v>0.396</v>
+        <v>0.412</v>
       </c>
       <c r="I50" t="n">
-        <v>717</v>
+        <v>487</v>
       </c>
       <c r="J50" t="n">
-        <v>0.025</v>
+        <v>0.017</v>
       </c>
       <c r="K50" t="n">
-        <v>531</v>
+        <v>513.333</v>
       </c>
       <c r="L50" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="M50" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N50" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="n">
@@ -4371,78 +4388,78 @@
         <v>0.222</v>
       </c>
       <c r="M51" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N51" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>134570</v>
+        <v>139898</v>
       </c>
       <c r="H52" t="n">
-        <v>27.906</v>
+        <v>29.011</v>
       </c>
       <c r="I52" t="n">
-        <v>5867</v>
+        <v>5328</v>
       </c>
       <c r="J52" t="n">
-        <v>1.217</v>
+        <v>1.105</v>
       </c>
       <c r="K52" t="n">
-        <v>3550</v>
+        <v>4610.667</v>
       </c>
       <c r="L52" t="n">
-        <v>0.736</v>
+        <v>0.956</v>
       </c>
       <c r="M52" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N52" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s">
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
@@ -4463,30 +4480,30 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N53" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="O53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="n">
@@ -4511,178 +4528,178 @@
         <v>0.509</v>
       </c>
       <c r="M54" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O54" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C55" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G55" t="n">
-        <v>174160</v>
+        <v>182131</v>
       </c>
       <c r="H55" t="n">
-        <v>0.788</v>
+        <v>0.825</v>
       </c>
       <c r="I55" t="n">
-        <v>8249</v>
+        <v>7971</v>
       </c>
       <c r="J55" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K55" t="n">
+        <v>8302.667</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.037</v>
       </c>
-      <c r="K55" t="n">
-        <v>7801.333</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.035</v>
-      </c>
       <c r="M55" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N55" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O55" t="s">
         <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F56" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G56" t="n">
-        <v>29837</v>
+        <v>30749</v>
       </c>
       <c r="H56" t="n">
-        <v>6.915</v>
+        <v>7.126</v>
       </c>
       <c r="I56" t="n">
-        <v>1042</v>
+        <v>912</v>
       </c>
       <c r="J56" t="n">
-        <v>0.241</v>
+        <v>0.211</v>
       </c>
       <c r="K56" t="n">
-        <v>1065</v>
+        <v>971.667</v>
       </c>
       <c r="L56" t="n">
-        <v>0.247</v>
+        <v>0.225</v>
       </c>
       <c r="M56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="O56" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G57" t="n">
-        <v>9439</v>
+        <v>9888</v>
       </c>
       <c r="H57" t="n">
-        <v>1.323</v>
+        <v>1.386</v>
       </c>
       <c r="I57" t="n">
-        <v>563</v>
+        <v>449</v>
       </c>
       <c r="J57" t="n">
-        <v>0.079</v>
+        <v>0.063</v>
       </c>
       <c r="K57" t="n">
-        <v>509.667</v>
+        <v>486.333</v>
       </c>
       <c r="L57" t="n">
-        <v>0.072</v>
+        <v>0.068</v>
       </c>
       <c r="M57" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C58" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
@@ -4703,318 +4720,318 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="N58" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="O58" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P58" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="n">
-        <v>93387</v>
+        <v>97349</v>
       </c>
       <c r="H59" t="n">
-        <v>0.852</v>
+        <v>0.888</v>
       </c>
       <c r="I59" t="n">
-        <v>4518</v>
+        <v>3962</v>
       </c>
       <c r="J59" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N59" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P59" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F60" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60" t="n">
-        <v>338027</v>
+        <v>354628</v>
       </c>
       <c r="H60" t="n">
-        <v>8.932</v>
+        <v>9.37</v>
       </c>
       <c r="I60" t="n">
-        <v>13500</v>
+        <v>16601</v>
       </c>
       <c r="J60" t="n">
-        <v>0.357</v>
+        <v>0.439</v>
       </c>
       <c r="K60" t="n">
-        <v>13389.333</v>
+        <v>14628</v>
       </c>
       <c r="L60" t="n">
-        <v>0.354</v>
+        <v>0.387</v>
       </c>
       <c r="M60" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N60" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P60" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" t="n">
-        <v>395771</v>
+        <v>409961</v>
       </c>
       <c r="H61" t="n">
-        <v>38.814</v>
+        <v>40.205</v>
       </c>
       <c r="I61" t="n">
-        <v>15209</v>
+        <v>13922</v>
       </c>
       <c r="J61" t="n">
-        <v>1.492</v>
+        <v>1.365</v>
       </c>
       <c r="K61" t="n">
-        <v>11858.667</v>
+        <v>13844.333</v>
       </c>
       <c r="L61" t="n">
-        <v>1.163</v>
+        <v>1.357</v>
       </c>
       <c r="M61" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N61" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O61" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P61" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C62" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D62" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62" t="n">
-        <v>94500</v>
+        <v>97726</v>
       </c>
       <c r="H62" t="n">
-        <v>32.8</v>
+        <v>33.92</v>
       </c>
       <c r="I62" t="n">
-        <v>3085</v>
+        <v>3226</v>
       </c>
       <c r="J62" t="n">
-        <v>1.071</v>
+        <v>1.12</v>
       </c>
       <c r="K62" t="n">
-        <v>2930.333</v>
+        <v>3039.667</v>
       </c>
       <c r="L62" t="n">
-        <v>1.017</v>
+        <v>1.055</v>
       </c>
       <c r="M62" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N62" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G63" t="n">
-        <v>175374</v>
+        <v>183688</v>
       </c>
       <c r="H63" t="n">
-        <v>9.116</v>
+        <v>9.548</v>
       </c>
       <c r="I63" t="n">
-        <v>8381</v>
+        <v>8314</v>
       </c>
       <c r="J63" t="n">
-        <v>0.436</v>
+        <v>0.432</v>
       </c>
       <c r="K63" t="n">
-        <v>10513.333</v>
+        <v>11126.333</v>
       </c>
       <c r="L63" t="n">
-        <v>0.547</v>
+        <v>0.578</v>
       </c>
       <c r="M63" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="O63" t="s">
         <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C64" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>3498308</v>
+        <v>3723807</v>
       </c>
       <c r="H64" t="n">
-        <v>23.972</v>
+        <v>25.517</v>
       </c>
       <c r="I64" t="n">
-        <v>194591</v>
+        <v>225499</v>
       </c>
       <c r="J64" t="n">
-        <v>1.333</v>
+        <v>1.545</v>
       </c>
       <c r="K64" t="n">
-        <v>159624.667</v>
+        <v>194849.667</v>
       </c>
       <c r="L64" t="n">
-        <v>1.094</v>
+        <v>1.335</v>
       </c>
       <c r="M64" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="O64" t="s">
         <v>20</v>
       </c>
       <c r="P64" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D65" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
@@ -5039,130 +5056,130 @@
         <v>0.114</v>
       </c>
       <c r="M65" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N65" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P65" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D66" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E66" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F66" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G66" t="n">
-        <v>11869</v>
+        <v>12770</v>
       </c>
       <c r="H66" t="n">
-        <v>0.709</v>
+        <v>0.763</v>
       </c>
       <c r="I66" t="n">
-        <v>1161</v>
+        <v>901</v>
       </c>
       <c r="J66" t="n">
-        <v>0.069</v>
+        <v>0.054</v>
       </c>
       <c r="K66" t="n">
-        <v>944.667</v>
+        <v>954</v>
       </c>
       <c r="L66" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="M66" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N66" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O66" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P66" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F67" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G67" t="n">
-        <v>85645</v>
+        <v>91551</v>
       </c>
       <c r="H67" t="n">
-        <v>12.586</v>
+        <v>13.454</v>
       </c>
       <c r="I67" t="n">
-        <v>6703</v>
+        <v>5906</v>
       </c>
       <c r="J67" t="n">
-        <v>0.985</v>
+        <v>0.868</v>
       </c>
       <c r="K67" t="n">
-        <v>5909.333</v>
+        <v>6062.667</v>
       </c>
       <c r="L67" t="n">
-        <v>0.868</v>
+        <v>0.891</v>
       </c>
       <c r="M67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P67" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
@@ -5179,30 +5196,30 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P68" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C69" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="n">
@@ -5219,129 +5236,129 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="O69" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P69" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C70" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="n">
-        <v>85922</v>
+        <v>91072</v>
       </c>
       <c r="H70" t="n">
-        <v>15.738</v>
+        <v>16.681</v>
       </c>
       <c r="I70" t="n">
-        <v>4584</v>
+        <v>5150</v>
       </c>
       <c r="J70" t="n">
-        <v>0.84</v>
+        <v>0.943</v>
       </c>
       <c r="K70" t="n">
-        <v>3941</v>
+        <v>5068.667</v>
       </c>
       <c r="L70" t="n">
-        <v>0.722</v>
+        <v>0.928</v>
       </c>
       <c r="M70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N70" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="O70" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P70" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C71" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>52948</v>
+        <v>54300</v>
       </c>
       <c r="H71" t="n">
-        <v>25.469</v>
+        <v>26.119</v>
       </c>
       <c r="I71" t="n">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="J71" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="K71" t="n">
-        <v>1113.667</v>
+        <v>1336.667</v>
       </c>
       <c r="L71" t="n">
-        <v>0.536</v>
+        <v>0.643</v>
       </c>
       <c r="M71" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N71" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="O71" t="s">
         <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E72" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F72" t="n">
         <v>60</v>
@@ -5365,81 +5382,81 @@
         <v>0.163</v>
       </c>
       <c r="M72" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="N72" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P72" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C73" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D73" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G73" t="n">
-        <v>619881</v>
+        <v>623069</v>
       </c>
       <c r="H73" t="n">
-        <v>12.091</v>
+        <v>12.153</v>
       </c>
       <c r="I73" t="n">
-        <v>5684</v>
+        <v>3188</v>
       </c>
       <c r="J73" t="n">
-        <v>0.111</v>
+        <v>0.062</v>
       </c>
       <c r="K73" t="n">
-        <v>6073.667</v>
+        <v>4851.667</v>
       </c>
       <c r="L73" t="n">
-        <v>0.119</v>
+        <v>0.095</v>
       </c>
       <c r="M73" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N73" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C74" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -5455,30 +5472,30 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="N74" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O74" t="s">
         <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C75" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D75" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
@@ -5495,30 +5512,30 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="N75" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D76" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
@@ -5539,174 +5556,174 @@
         <v>0.345</v>
       </c>
       <c r="M76" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N76" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="O76" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P76" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D77" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G77" t="n">
-        <v>62844</v>
+        <v>63340</v>
       </c>
       <c r="H77" t="n">
-        <v>2.639</v>
+        <v>2.659</v>
       </c>
       <c r="I77" t="n">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="K77" t="n">
-        <v>629.333</v>
+        <v>552</v>
       </c>
       <c r="L77" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="M77" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="N77" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="O77" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P77" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C78" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D78" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G78" t="n">
-        <v>66371</v>
+        <v>70535</v>
       </c>
       <c r="H78" t="n">
-        <v>0.951</v>
+        <v>1.011</v>
       </c>
       <c r="I78" t="n">
-        <v>4353</v>
+        <v>4164</v>
       </c>
       <c r="J78" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="K78" t="n">
-        <v>3628.333</v>
+        <v>4204.333</v>
       </c>
       <c r="L78" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="M78" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N78" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O78" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P78" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C79" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D79" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G79" t="n">
-        <v>22062</v>
+        <v>22957</v>
       </c>
       <c r="H79" t="n">
-        <v>1.867</v>
+        <v>1.942</v>
       </c>
       <c r="I79" t="n">
-        <v>585</v>
+        <v>895</v>
       </c>
       <c r="J79" t="n">
-        <v>0.049</v>
+        <v>0.076</v>
       </c>
       <c r="K79" t="n">
-        <v>414.667</v>
+        <v>625.333</v>
       </c>
       <c r="L79" t="n">
-        <v>0.035</v>
+        <v>0.053</v>
       </c>
       <c r="M79" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="N79" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="O79" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P79" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C80" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="n">
@@ -5731,80 +5748,80 @@
         <v>0.454</v>
       </c>
       <c r="M80" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="N80" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="O80" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P80" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C81" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D81" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E81" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G81" t="n">
-        <v>29277</v>
+        <v>31348</v>
       </c>
       <c r="H81" t="n">
-        <v>0.64</v>
+        <v>0.685</v>
       </c>
       <c r="I81" t="n">
-        <v>2002</v>
+        <v>2071</v>
       </c>
       <c r="J81" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="K81" t="n">
-        <v>2319.667</v>
+        <v>2157.667</v>
       </c>
       <c r="L81" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="M81" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N81" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="O81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P81" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C82" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D82" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
@@ -5829,30 +5846,30 @@
         <v>0.14</v>
       </c>
       <c r="M82" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N82" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O82" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="P82" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
@@ -5877,30 +5894,30 @@
         <v>0.578</v>
       </c>
       <c r="M83" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="N83" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P83" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C84" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D84" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
@@ -5925,78 +5942,78 @@
         <v>0.872</v>
       </c>
       <c r="M84" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="N84" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="O84" t="s">
         <v>20</v>
       </c>
       <c r="P84" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C85" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D85" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G85" t="n">
-        <v>6024625</v>
+        <v>6231182</v>
       </c>
       <c r="H85" t="n">
-        <v>18.201</v>
+        <v>18.825</v>
       </c>
       <c r="I85" t="n">
-        <v>231463</v>
+        <v>206557</v>
       </c>
       <c r="J85" t="n">
-        <v>0.699</v>
+        <v>0.624</v>
       </c>
       <c r="K85" t="n">
-        <v>207191</v>
+        <v>212562.333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.626</v>
+        <v>0.642</v>
       </c>
       <c r="M85" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="N85" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="O85" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P85" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>43943</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D86" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
@@ -6021,78 +6038,78 @@
         <v>0.052</v>
       </c>
       <c r="M86" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="N86" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="O86" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P86" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C87" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n">
-        <v>19016</v>
+        <v>19747</v>
       </c>
       <c r="H87" t="n">
-        <v>5.474</v>
+        <v>5.685</v>
       </c>
       <c r="I87" t="n">
-        <v>876</v>
+        <v>731</v>
       </c>
       <c r="J87" t="n">
-        <v>0.252</v>
+        <v>0.21</v>
       </c>
       <c r="K87" t="n">
-        <v>651</v>
+        <v>747.333</v>
       </c>
       <c r="L87" t="n">
-        <v>0.187</v>
+        <v>0.215</v>
       </c>
       <c r="M87" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N87" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="O87" t="s">
         <v>20</v>
       </c>
       <c r="P87" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D88" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
@@ -6109,30 +6126,30 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="N88" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="O88" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P88" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D89" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="n">
@@ -6157,16 +6174,16 @@
         <v>0.028</v>
       </c>
       <c r="M89" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N89" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="O89" t="s">
         <v>20</v>
       </c>
       <c r="P89" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/04/coronavirus-covid-19-at-a-glance-30-april-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-1-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145322/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151038/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145324/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151040/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-28-krasavika-vypisanyya-1993-patsyenta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-2918-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200501112313/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151045/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501081525/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501173328/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Croatia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145333/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151051/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 11:08pm local time on 2020-04-29.</t>
+    <t xml:space="preserve">updated at 10:58am local time on 2020-05-01.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200502/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Organization of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Organization of Public Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Organization of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available on Github by Covid-19 Response Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Organization of Public Health</t>
   </si>
   <si>
     <t xml:space="preserve">The Greek National Organization of Public Health publishes daily COVID-19 reports on confirmed cases, deaths and samples tested. 
@@ -582,7 +582,7 @@
     <t xml:space="preserve">Hong Kong - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://data.gov.hk/en-data/dataset/hk-dh-chpsebcddr-novel-infectious-agent/resource/a88635eb-1a6d-4dba-952f-f37cb165c24f</t>
+    <t xml:space="preserve">https://data.gov.hk/en-data/dataset/hk-dh-chpsebcddr-novel-infectious-agent/resource/000cc801-6294-4ea9-b505-f5f1633a53b9</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Health</t>
@@ -813,7 +813,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1255840194357604352</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1256225780822093824</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501082406/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151129/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -861,7 +861,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502161051/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -879,7 +879,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145427/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151137/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -940,6 +940,9 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
+    <t xml:space="preserve">This figure is taken from the live dashboard and should be updated using the PDF Situation Report once it is available</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
@@ -970,10 +973,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-04/COVID-19_WebSite_rapport_20200430_1215.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 30 April 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200501_1150.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 1 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1003,7 +1006,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200430195121/http://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501155337/http://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1042,7 +1045,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501082450/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151159/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1099,7 +1102,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143118-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-36-976-en-el-peru-comunicado-n-82</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143593-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-40-459-en-el-peru-comunicado-n-84</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1173,7 +1176,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145525/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151207/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1205,7 +1208,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14368</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14371</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1222,7 +1225,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1255573506294767619</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1255954649879851009</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1295,7 +1298,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501082509/https://www.korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151233/https://www.korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1360,7 +1363,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367062&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367066&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1437,7 +1440,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/Xu8MOuQTDD1uAXvY9riyRw?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/bJVsQHE6lCY1CMTi1gMcpQ?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1457,7 +1460,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501145612/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151250/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1498,10 +1501,13 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200501173455/https://covid19.saglik.gov.tr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish Ministry of Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.saglik.gov.tr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">The total number of tests.</t>
@@ -1536,7 +1542,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200430155239/https://covid19.gov.ua/en/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200502151255/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1555,7 +1561,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200430190452/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501173458/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1571,13 +1577,17 @@
 Pillar 2: swab testing for health, social care and other essential workers and their households
 Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
 As of 30 April, there were no people tested under Pillar 4 included in this series.
-(As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above).</t>
+(As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above).
+The Health Service Journal highlighted in [an article published on 1 May 2020](https://www.hsj.co.uk/quality-and-performance/revealed-how-government-changed-the-rules-to-hit-100000-tests-target/7027544.article) that “the Department of Health and Social Care [was] now including tests that have been posted or delivered to people’s homes in its figures. This means tests which are sent to people are counted before the recipient has provided and returned their sample to a laboratory.” No data is made available by the UK government on how many of these mailed tests have been returned and processed, but this could represent a significant number for recent days. As far as we know, the “People tested” figures are not affected by this issue.</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200430190453/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200501173558/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
   </si>
   <si>
     <t xml:space="preserve">A time series is not yet released. The figures we provide relate to the daily updates provided for the cumulative total and daily number of tests performed. It is not clear the exact date that the cumulative figures date back to.
@@ -1586,8 +1596,9 @@
 Pillar 1: swab testing in PHE labs and NHS hospitals for those with a clinical need, and health and care workers
 Pillar 2: swab testing for health, social care and other essential workers and their households
 Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
- As of 30 April, around 10% of the total number of tests were reported under Pillar 4. How these further breakdown between serology and swab testing is not known.
-As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above.</t>
+As of 30 April, around 10% of the total number of tests were reported under Pillar 4. How these further breakdown between serology and swab testing is not known.
+As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above.
+The Health Service Journal highlighted in [an article published on 1 May 2020](https://www.hsj.co.uk/quality-and-performance/revealed-how-government-changed-the-rules-to-hit-100000-tests-target/7027544.article) that “the Department of Health and Social Care [was] now including tests that have been posted or delivered to people’s homes in its figures. This means tests which are sent to people are counted before the recipient has provided and returned their sample to a laboratory.” No data is made available by the UK government on how many of these mailed tests have been returned and processed, but this could represent a significant number for recent days. As far as we know, the “People tested” figures are not affected by this issue.</t>
   </si>
   <si>
     <t xml:space="preserve">United States - inconsistent units (COVID Tracking Project)</t>
@@ -1641,7 +1652,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-11</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-12</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1674,7 +1685,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1255674098446974983</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1256124142803353600</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2117,7 +2128,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2127,25 +2138,25 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>563641</v>
+        <v>588868</v>
       </c>
       <c r="H3" t="n">
-        <v>22.104</v>
+        <v>23.093</v>
       </c>
       <c r="I3" t="n">
-        <v>19231</v>
+        <v>25227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.754</v>
+        <v>0.989</v>
       </c>
       <c r="K3" t="n">
-        <v>15526</v>
+        <v>19396.333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.609</v>
+        <v>0.76</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -2165,7 +2176,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2175,25 +2186,25 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="n">
-        <v>264079</v>
+        <v>269619</v>
       </c>
       <c r="H4" t="n">
-        <v>29.321</v>
+        <v>29.936</v>
       </c>
       <c r="I4" t="n">
-        <v>7680</v>
+        <v>5540</v>
       </c>
       <c r="J4" t="n">
-        <v>0.853</v>
+        <v>0.615</v>
       </c>
       <c r="K4" t="n">
-        <v>8167</v>
+        <v>7288.333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.907</v>
+        <v>0.809</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -2213,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -2223,25 +2234,25 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>134082</v>
+        <v>138278</v>
       </c>
       <c r="H5" t="n">
-        <v>78.798</v>
+        <v>81.264</v>
       </c>
       <c r="I5" t="n">
-        <v>4388</v>
+        <v>4196</v>
       </c>
       <c r="J5" t="n">
-        <v>2.579</v>
+        <v>2.466</v>
       </c>
       <c r="K5" t="n">
-        <v>4125.333</v>
+        <v>3791</v>
       </c>
       <c r="L5" t="n">
-        <v>2.424</v>
+        <v>2.228</v>
       </c>
       <c r="M5" t="s">
         <v>37</v>
@@ -2261,7 +2272,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -2271,25 +2282,25 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="n">
-        <v>64666</v>
+        <v>70239</v>
       </c>
       <c r="H6" t="n">
-        <v>0.393</v>
+        <v>0.426</v>
       </c>
       <c r="I6" t="n">
-        <v>4965</v>
+        <v>5573</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="K6" t="n">
-        <v>4789.667</v>
+        <v>5168.667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
@@ -2309,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43949</v>
+        <v>43952</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -2319,26 +2330,18 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>161028</v>
+        <v>186262</v>
       </c>
       <c r="H7" t="n">
-        <v>17.041</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7228</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7244.333</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.767</v>
-      </c>
+        <v>19.712</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" t="s">
         <v>49</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -2367,25 +2370,25 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="n">
-        <v>306936</v>
+        <v>327653</v>
       </c>
       <c r="H8" t="n">
-        <v>26.484</v>
+        <v>28.271</v>
       </c>
       <c r="I8" t="n">
-        <v>19120</v>
+        <v>20718</v>
       </c>
       <c r="J8" t="n">
-        <v>1.65</v>
+        <v>1.788</v>
       </c>
       <c r="K8" t="n">
-        <v>16904.333</v>
+        <v>19130</v>
       </c>
       <c r="L8" t="n">
-        <v>1.459</v>
+        <v>1.651</v>
       </c>
       <c r="M8" t="s">
         <v>54</v>
@@ -2405,7 +2408,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -2417,21 +2420,21 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>6551</v>
+        <v>6613</v>
       </c>
       <c r="H9" t="n">
-        <v>0.561</v>
+        <v>0.567</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="M9" t="s">
         <v>36</v>
@@ -2451,7 +2454,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -2461,16 +2464,20 @@
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>46510</v>
+        <v>47636</v>
       </c>
       <c r="H10" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>6.856</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1126</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.162</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10" t="s">
@@ -2504,22 +2511,22 @@
         <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>806449</v>
+        <v>832222</v>
       </c>
       <c r="H11" t="n">
-        <v>21.367</v>
+        <v>22.05</v>
       </c>
       <c r="I11" t="n">
-        <v>18166</v>
+        <v>43939</v>
       </c>
       <c r="J11" t="n">
-        <v>0.481</v>
+        <v>1.164</v>
       </c>
       <c r="K11" t="n">
-        <v>21863.333</v>
+        <v>30454.333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.579</v>
+        <v>0.807</v>
       </c>
       <c r="M11" t="s">
         <v>72</v>
@@ -2539,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -2551,25 +2558,25 @@
         <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>180517</v>
+        <v>189433</v>
       </c>
       <c r="H12" t="n">
-        <v>9.443</v>
+        <v>9.91</v>
       </c>
       <c r="I12" t="n">
-        <v>7898</v>
+        <v>8916</v>
       </c>
       <c r="J12" t="n">
-        <v>0.413</v>
+        <v>0.466</v>
       </c>
       <c r="K12" t="n">
-        <v>6427.333</v>
+        <v>7756</v>
       </c>
       <c r="L12" t="n">
-        <v>0.336</v>
+        <v>0.406</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -2589,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
@@ -2602,22 +2609,22 @@
         <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>104657</v>
+        <v>108950</v>
       </c>
       <c r="H13" t="n">
-        <v>2.057</v>
+        <v>2.141</v>
       </c>
       <c r="I13" t="n">
-        <v>2520</v>
+        <v>4293</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05</v>
+        <v>0.084</v>
       </c>
       <c r="K13" t="n">
-        <v>3073</v>
+        <v>4621.667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06</v>
+        <v>0.091</v>
       </c>
       <c r="M13" t="s">
         <v>84</v>
@@ -2637,7 +2644,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -2647,21 +2654,25 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>9335</v>
+        <v>9502</v>
       </c>
       <c r="H14" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="I14"/>
+        <v>1.865</v>
+      </c>
+      <c r="I14" t="n">
+        <v>167</v>
+      </c>
       <c r="J14" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="K14"/>
+        <v>0.033</v>
+      </c>
+      <c r="K14" t="n">
+        <v>171</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="M14" t="s">
         <v>90</v>
@@ -2681,7 +2692,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -2691,26 +2702,18 @@
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>36917</v>
+        <v>37557</v>
       </c>
       <c r="H15" t="n">
-        <v>8.993</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2441</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1366.667</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.333</v>
-      </c>
+        <v>9.148</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15" t="s">
         <v>95</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
@@ -2741,25 +2744,25 @@
         <v>102</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>47347</v>
+        <v>49409</v>
       </c>
       <c r="H16" t="n">
-        <v>4.18</v>
+        <v>4.362</v>
       </c>
       <c r="I16" t="n">
-        <v>2003</v>
+        <v>2062</v>
       </c>
       <c r="J16" t="n">
-        <v>0.177</v>
+        <v>0.182</v>
       </c>
       <c r="K16" t="n">
-        <v>1898.667</v>
+        <v>1967</v>
       </c>
       <c r="L16" t="n">
-        <v>0.168</v>
+        <v>0.174</v>
       </c>
       <c r="M16" t="s">
         <v>101</v>
@@ -2779,7 +2782,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -2789,25 +2792,25 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>249634</v>
+        <v>253826</v>
       </c>
       <c r="H17" t="n">
-        <v>23.311</v>
+        <v>23.702</v>
       </c>
       <c r="I17" t="n">
-        <v>7250</v>
+        <v>4192</v>
       </c>
       <c r="J17" t="n">
-        <v>0.677</v>
+        <v>0.391</v>
       </c>
       <c r="K17" t="n">
-        <v>7771.333</v>
+        <v>6253.667</v>
       </c>
       <c r="L17" t="n">
-        <v>0.726</v>
+        <v>0.584</v>
       </c>
       <c r="M17" t="s">
         <v>36</v>
@@ -2923,7 +2926,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
@@ -2935,13 +2938,13 @@
         <v>125</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>24057</v>
+        <v>25492</v>
       </c>
       <c r="H20" t="n">
-        <v>3.709</v>
+        <v>3.93</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2965,7 +2968,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
@@ -2975,25 +2978,25 @@
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" t="n">
-        <v>53767</v>
+        <v>54464</v>
       </c>
       <c r="H21" t="n">
-        <v>40.532</v>
+        <v>41.057</v>
       </c>
       <c r="I21" t="n">
-        <v>1031</v>
+        <v>697</v>
       </c>
       <c r="J21" t="n">
-        <v>0.777</v>
+        <v>0.525</v>
       </c>
       <c r="K21" t="n">
-        <v>1421</v>
+        <v>1096.333</v>
       </c>
       <c r="L21" t="n">
-        <v>1.071</v>
+        <v>0.826</v>
       </c>
       <c r="M21" t="s">
         <v>130</v>
@@ -3189,7 +3192,7 @@
         <v>157</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43949</v>
+        <v>43952</v>
       </c>
       <c r="C26" t="s">
         <v>158</v>
@@ -3199,20 +3202,16 @@
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>113497</v>
+        <v>117049</v>
       </c>
       <c r="H26" t="n">
-        <v>3.653</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7407</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.238</v>
-      </c>
+        <v>3.767</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" t="s">
@@ -3233,7 +3232,7 @@
         <v>164</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="C27" t="s">
         <v>165</v>
@@ -3241,35 +3240,29 @@
       <c r="D27" t="s">
         <v>166</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27"/>
+      <c r="F27" t="n">
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>78207</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="M27" t="s">
         <v>167</v>
       </c>
-      <c r="F27" t="n">
-        <v>40</v>
-      </c>
-      <c r="G27" t="n">
-        <v>75170</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7.212</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3040</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3025.333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>168</v>
-      </c>
-      <c r="N27" t="s">
-        <v>165</v>
       </c>
       <c r="O27" t="s">
         <v>74</v>
@@ -3323,7 +3316,7 @@
         <v>176</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C29" t="s">
         <v>177</v>
@@ -3335,25 +3328,25 @@
         <v>179</v>
       </c>
       <c r="F29" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>76331</v>
+        <v>79551</v>
       </c>
       <c r="H29" t="n">
-        <v>7.901</v>
+        <v>8.235</v>
       </c>
       <c r="I29" t="n">
-        <v>3380</v>
+        <v>3220</v>
       </c>
       <c r="J29" t="n">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="K29" t="n">
-        <v>3053</v>
+        <v>3083.667</v>
       </c>
       <c r="L29" t="n">
-        <v>0.316</v>
+        <v>0.319</v>
       </c>
       <c r="M29" t="s">
         <v>178</v>
@@ -3373,7 +3366,7 @@
         <v>183</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C30" t="s">
         <v>184</v>
@@ -3383,25 +3376,25 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" t="n">
-        <v>49094</v>
+        <v>49961</v>
       </c>
       <c r="H30" t="n">
-        <v>143.865</v>
+        <v>146.406</v>
       </c>
       <c r="I30" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="J30" t="n">
-        <v>2.116</v>
+        <v>2.541</v>
       </c>
       <c r="K30" t="n">
-        <v>690</v>
+        <v>809.667</v>
       </c>
       <c r="L30" t="n">
-        <v>2.022</v>
+        <v>2.373</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -3467,7 +3460,7 @@
         <v>193</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C32" t="s">
         <v>189</v>
@@ -3479,25 +3472,25 @@
         <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="n">
-        <v>902654</v>
+        <v>976363</v>
       </c>
       <c r="H32" t="n">
-        <v>0.654</v>
+        <v>0.708</v>
       </c>
       <c r="I32" t="n">
-        <v>72453</v>
+        <v>73709</v>
       </c>
       <c r="J32" t="n">
         <v>0.053</v>
       </c>
       <c r="K32" t="n">
-        <v>61973.667</v>
+        <v>68533</v>
       </c>
       <c r="L32" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="M32" t="s">
         <v>190</v>
@@ -3517,7 +3510,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C33" t="s">
         <v>195</v>
@@ -3527,25 +3520,25 @@
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="n">
-        <v>76538</v>
+        <v>79868</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.292</v>
       </c>
       <c r="I33" t="n">
-        <v>4187</v>
+        <v>3330</v>
       </c>
       <c r="J33" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4028</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.015</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4664.667</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.017</v>
       </c>
       <c r="M33" t="s">
         <v>196</v>
@@ -3649,7 +3642,7 @@
         <v>209</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43949</v>
+        <v>43953</v>
       </c>
       <c r="C36" t="s">
         <v>210</v>
@@ -3661,25 +3654,25 @@
         <v>212</v>
       </c>
       <c r="F36" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>354857</v>
+        <v>392660</v>
       </c>
       <c r="H36" t="n">
-        <v>40.998</v>
+        <v>45.365</v>
       </c>
       <c r="I36" t="n">
-        <v>10476</v>
+        <v>6738</v>
       </c>
       <c r="J36" t="n">
-        <v>1.21</v>
+        <v>0.778</v>
       </c>
       <c r="K36" t="n">
-        <v>9916.667</v>
+        <v>8899.667</v>
       </c>
       <c r="L36" t="n">
-        <v>1.146</v>
+        <v>1.028</v>
       </c>
       <c r="M36" t="s">
         <v>36</v>
@@ -3699,7 +3692,7 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C37" t="s">
         <v>216</v>
@@ -3711,25 +3704,25 @@
         <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>1354901</v>
+        <v>1398633</v>
       </c>
       <c r="H37" t="n">
-        <v>22.409</v>
+        <v>23.132</v>
       </c>
       <c r="I37" t="n">
-        <v>41441</v>
+        <v>43732</v>
       </c>
       <c r="J37" t="n">
-        <v>0.685</v>
+        <v>0.723</v>
       </c>
       <c r="K37" t="n">
-        <v>39194.667</v>
+        <v>41254</v>
       </c>
       <c r="L37" t="n">
-        <v>0.648</v>
+        <v>0.682</v>
       </c>
       <c r="M37" t="s">
         <v>219</v>
@@ -3749,7 +3742,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C38" t="s">
         <v>216</v>
@@ -3761,25 +3754,25 @@
         <v>218</v>
       </c>
       <c r="F38" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>1979217</v>
+        <v>2053425</v>
       </c>
       <c r="H38" t="n">
-        <v>32.735</v>
+        <v>33.962</v>
       </c>
       <c r="I38" t="n">
-        <v>68456</v>
+        <v>74208</v>
       </c>
       <c r="J38" t="n">
-        <v>1.132</v>
+        <v>1.227</v>
       </c>
       <c r="K38" t="n">
-        <v>63185</v>
+        <v>68830.333</v>
       </c>
       <c r="L38" t="n">
-        <v>1.045</v>
+        <v>1.138</v>
       </c>
       <c r="M38" t="s">
         <v>219</v>
@@ -3799,7 +3792,7 @@
         <v>224</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C39" t="s">
         <v>225</v>
@@ -3811,13 +3804,13 @@
         <v>227</v>
       </c>
       <c r="F39" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" t="n">
-        <v>174150</v>
+        <v>181527</v>
       </c>
       <c r="H39" t="n">
-        <v>1.377</v>
+        <v>1.435</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -3891,7 +3884,7 @@
         <v>234</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C41" t="s">
         <v>235</v>
@@ -3901,25 +3894,25 @@
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>249527</v>
+        <v>268534</v>
       </c>
       <c r="H41" t="n">
-        <v>13.289</v>
+        <v>14.301</v>
       </c>
       <c r="I41" t="n">
-        <v>17112</v>
+        <v>19007</v>
       </c>
       <c r="J41" t="n">
-        <v>0.911</v>
+        <v>1.012</v>
       </c>
       <c r="K41" t="n">
-        <v>14655.667</v>
+        <v>17419.333</v>
       </c>
       <c r="L41" t="n">
-        <v>0.781</v>
+        <v>0.928</v>
       </c>
       <c r="M41" t="s">
         <v>236</v>
@@ -3939,7 +3932,7 @@
         <v>238</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="s">
         <v>239</v>
@@ -3949,22 +3942,26 @@
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>20268</v>
+        <v>21702</v>
       </c>
       <c r="H42" t="n">
-        <v>0.377</v>
+        <v>0.404</v>
       </c>
       <c r="I42" t="n">
-        <v>2433</v>
+        <v>1434</v>
       </c>
       <c r="J42" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
+        <v>0.027</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1458.333</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.027</v>
+      </c>
       <c r="M42" t="s">
         <v>36</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>244</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C43" t="s">
         <v>245</v>
@@ -3995,25 +3992,25 @@
         <v>247</v>
       </c>
       <c r="F43" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G43" t="n">
-        <v>61120</v>
+        <v>63102</v>
       </c>
       <c r="H43" t="n">
-        <v>32.404</v>
+        <v>33.455</v>
       </c>
       <c r="I43" t="n">
-        <v>3234</v>
+        <v>1982</v>
       </c>
       <c r="J43" t="n">
-        <v>1.715</v>
+        <v>1.051</v>
       </c>
       <c r="K43" t="n">
-        <v>3186.333</v>
+        <v>2763.667</v>
       </c>
       <c r="L43" t="n">
-        <v>1.689</v>
+        <v>1.465</v>
       </c>
       <c r="M43" t="s">
         <v>246</v>
@@ -4033,7 +4030,7 @@
         <v>249</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C44" t="s">
         <v>250</v>
@@ -4043,25 +4040,25 @@
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="n">
-        <v>132768</v>
+        <v>138270</v>
       </c>
       <c r="H44" t="n">
-        <v>48.771</v>
+        <v>50.792</v>
       </c>
       <c r="I44" t="n">
-        <v>7213</v>
+        <v>5502</v>
       </c>
       <c r="J44" t="n">
-        <v>2.65</v>
+        <v>2.021</v>
       </c>
       <c r="K44" t="n">
-        <v>6986.333</v>
+        <v>6689.667</v>
       </c>
       <c r="L44" t="n">
-        <v>2.566</v>
+        <v>2.457</v>
       </c>
       <c r="M44" t="s">
         <v>36</v>
@@ -4081,7 +4078,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="C45" t="s">
         <v>254</v>
@@ -4091,21 +4088,25 @@
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G45" t="n">
-        <v>42643</v>
+        <v>47460</v>
       </c>
       <c r="H45" t="n">
-        <v>68.122</v>
-      </c>
-      <c r="I45"/>
+        <v>75.818</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2565</v>
+      </c>
       <c r="J45" t="n">
-        <v>1.414</v>
-      </c>
-      <c r="K45"/>
+        <v>4.098</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1900.667</v>
+      </c>
       <c r="L45" t="n">
-        <v>1.886</v>
+        <v>3.037</v>
       </c>
       <c r="M45" t="s">
         <v>255</v>
@@ -4125,7 +4126,7 @@
         <v>258</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C46" t="s">
         <v>259</v>
@@ -4135,16 +4136,20 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" t="n">
-        <v>168784</v>
+        <v>184213</v>
       </c>
       <c r="H46" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
+        <v>5.692</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15429</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.477</v>
+      </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
@@ -4165,7 +4170,7 @@
         <v>264</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C47" t="s">
         <v>265</v>
@@ -4175,13 +4180,13 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G47" t="n">
-        <v>71852</v>
+        <v>75742</v>
       </c>
       <c r="H47" t="n">
-        <v>0.557</v>
+        <v>0.587</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="n">
@@ -4209,7 +4214,7 @@
         <v>268</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C48" t="s">
         <v>269</v>
@@ -4221,25 +4226,25 @@
         <v>271</v>
       </c>
       <c r="F48" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G48" t="n">
-        <v>34841</v>
+        <v>37006</v>
       </c>
       <c r="H48" t="n">
-        <v>0.944</v>
+        <v>1.003</v>
       </c>
       <c r="I48" t="n">
-        <v>1911</v>
+        <v>2165</v>
       </c>
       <c r="J48" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1918.667</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.052</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1862.333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.051</v>
       </c>
       <c r="M48" t="s">
         <v>270</v>
@@ -4259,7 +4264,7 @@
         <v>274</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C49" t="s">
         <v>275</v>
@@ -4267,243 +4272,241 @@
       <c r="D49" t="s">
         <v>276</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" t="s">
+        <v>277</v>
+      </c>
       <c r="F49" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G49" t="n">
-        <v>7890</v>
+        <v>8281</v>
       </c>
       <c r="H49" t="n">
-        <v>0.145</v>
+        <v>0.152</v>
       </c>
       <c r="I49" t="n">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K49" t="n">
-        <v>404</v>
+        <v>224.333</v>
       </c>
       <c r="L49" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="M49" t="s">
         <v>276</v>
       </c>
       <c r="N49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" t="n">
+        <v>71</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12577</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="I50" t="n">
+        <v>566</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K50" t="n">
+        <v>590</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M50" t="s">
         <v>282</v>
       </c>
-      <c r="F50" t="n">
-        <v>70</v>
-      </c>
-      <c r="G50" t="n">
-        <v>12011</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="I50" t="n">
-        <v>487</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="K50" t="n">
-        <v>513.333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="M50" t="s">
-        <v>281</v>
-      </c>
       <c r="N50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s">
         <v>74</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>219744</v>
+        <v>225899</v>
       </c>
       <c r="H51" t="n">
-        <v>12.824</v>
+        <v>13.184</v>
       </c>
       <c r="I51" t="n">
-        <v>4575</v>
+        <v>4057</v>
       </c>
       <c r="J51" t="n">
-        <v>0.267</v>
+        <v>0.237</v>
       </c>
       <c r="K51" t="n">
-        <v>3803</v>
+        <v>4519.667</v>
       </c>
       <c r="L51" t="n">
-        <v>0.222</v>
+        <v>0.264</v>
       </c>
       <c r="M51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O51" t="s">
         <v>74</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52" t="n">
-        <v>139898</v>
+        <v>145589</v>
       </c>
       <c r="H52" t="n">
-        <v>29.011</v>
+        <v>30.191</v>
       </c>
       <c r="I52" t="n">
-        <v>5328</v>
+        <v>5691</v>
       </c>
       <c r="J52" t="n">
-        <v>1.105</v>
+        <v>1.18</v>
       </c>
       <c r="K52" t="n">
-        <v>4610.667</v>
+        <v>5628.667</v>
       </c>
       <c r="L52" t="n">
-        <v>0.956</v>
+        <v>1.167</v>
       </c>
       <c r="M52" t="s">
+        <v>294</v>
+      </c>
+      <c r="N52" t="s">
         <v>293</v>
-      </c>
-      <c r="N52" t="s">
-        <v>292</v>
       </c>
       <c r="O52" t="s">
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>12828</v>
+        <v>15759</v>
       </c>
       <c r="H53" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I53" t="n">
-        <v>824</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.004</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O53" t="s">
         <v>45</v>
       </c>
       <c r="P53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="n">
@@ -4528,222 +4531,222 @@
         <v>0.509</v>
       </c>
       <c r="M54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="n">
-        <v>182131</v>
+        <v>193859</v>
       </c>
       <c r="H55" t="n">
-        <v>0.825</v>
+        <v>0.878</v>
       </c>
       <c r="I55" t="n">
-        <v>7971</v>
+        <v>11728</v>
       </c>
       <c r="J55" t="n">
-        <v>0.036</v>
+        <v>0.053</v>
       </c>
       <c r="K55" t="n">
-        <v>8302.667</v>
+        <v>9316</v>
       </c>
       <c r="L55" t="n">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="M55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O55" t="s">
         <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D56" t="s">
         <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G56" t="n">
-        <v>30749</v>
+        <v>31895</v>
       </c>
       <c r="H56" t="n">
-        <v>7.126</v>
+        <v>7.392</v>
       </c>
       <c r="I56" t="n">
-        <v>912</v>
+        <v>1146</v>
       </c>
       <c r="J56" t="n">
-        <v>0.211</v>
+        <v>0.266</v>
       </c>
       <c r="K56" t="n">
-        <v>971.667</v>
+        <v>1033.333</v>
       </c>
       <c r="L56" t="n">
-        <v>0.225</v>
+        <v>0.239</v>
       </c>
       <c r="M56" t="s">
         <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O56" t="s">
         <v>103</v>
       </c>
       <c r="P56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F57" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G57" t="n">
-        <v>9888</v>
+        <v>10327</v>
       </c>
       <c r="H57" t="n">
-        <v>1.386</v>
+        <v>1.448</v>
       </c>
       <c r="I57" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="J57" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="K57" t="n">
-        <v>486.333</v>
+        <v>483.667</v>
       </c>
       <c r="L57" t="n">
         <v>0.068</v>
       </c>
       <c r="M57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O57" t="s">
         <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D58" t="s">
         <v>36</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G58" t="n">
-        <v>318252</v>
+        <v>342498</v>
       </c>
       <c r="H58" t="n">
-        <v>9.652</v>
-      </c>
-      <c r="I58" t="n">
-        <v>50640</v>
-      </c>
+        <v>10.388</v>
+      </c>
+      <c r="I58"/>
       <c r="J58" t="n">
-        <v>1.536</v>
+        <v>0.735</v>
       </c>
       <c r="K58"/>
-      <c r="L58"/>
+      <c r="L58" t="n">
+        <v>1.041</v>
+      </c>
       <c r="M58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C59" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
@@ -4767,30 +4770,30 @@
         <v>172</v>
       </c>
       <c r="N59" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O59" t="s">
         <v>74</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F60" t="n">
         <v>58</v>
@@ -4814,325 +4817,325 @@
         <v>0.387</v>
       </c>
       <c r="M60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O60" t="s">
         <v>45</v>
       </c>
       <c r="P60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D61" t="s">
         <v>36</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G61" t="n">
-        <v>409961</v>
+        <v>426836</v>
       </c>
       <c r="H61" t="n">
-        <v>40.205</v>
+        <v>41.86</v>
       </c>
       <c r="I61" t="n">
-        <v>13922</v>
+        <v>16061</v>
       </c>
       <c r="J61" t="n">
-        <v>1.365</v>
+        <v>1.575</v>
       </c>
       <c r="K61" t="n">
-        <v>13844.333</v>
+        <v>15421.333</v>
       </c>
       <c r="L61" t="n">
-        <v>1.357</v>
+        <v>1.512</v>
       </c>
       <c r="M61" t="s">
+        <v>343</v>
+      </c>
+      <c r="N61" t="s">
         <v>342</v>
       </c>
-      <c r="N61" t="s">
-        <v>341</v>
-      </c>
       <c r="O61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62" t="n">
-        <v>97726</v>
+        <v>101728</v>
       </c>
       <c r="H62" t="n">
-        <v>33.92</v>
+        <v>35.309</v>
       </c>
       <c r="I62" t="n">
-        <v>3226</v>
+        <v>4002</v>
       </c>
       <c r="J62" t="n">
-        <v>1.12</v>
+        <v>1.389</v>
       </c>
       <c r="K62" t="n">
-        <v>3039.667</v>
+        <v>3437.667</v>
       </c>
       <c r="L62" t="n">
-        <v>1.055</v>
+        <v>1.193</v>
       </c>
       <c r="M62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O62" t="s">
         <v>74</v>
       </c>
       <c r="P62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D63" t="s">
+        <v>353</v>
+      </c>
+      <c r="E63" t="s">
+        <v>354</v>
+      </c>
+      <c r="F63" t="n">
+        <v>52</v>
+      </c>
+      <c r="G63" t="n">
+        <v>190540</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.905</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6852</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7849</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="M63" t="s">
+        <v>353</v>
+      </c>
+      <c r="N63" t="s">
         <v>352</v>
-      </c>
-      <c r="E63" t="s">
-        <v>353</v>
-      </c>
-      <c r="F63" t="n">
-        <v>51</v>
-      </c>
-      <c r="G63" t="n">
-        <v>183688</v>
-      </c>
-      <c r="H63" t="n">
-        <v>9.548</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8314</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="K63" t="n">
-        <v>11126.333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="M63" t="s">
-        <v>352</v>
-      </c>
-      <c r="N63" t="s">
-        <v>351</v>
       </c>
       <c r="O63" t="s">
         <v>20</v>
       </c>
       <c r="P63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G64" t="n">
-        <v>3723807</v>
+        <v>3945518</v>
       </c>
       <c r="H64" t="n">
-        <v>25.517</v>
+        <v>27.036</v>
       </c>
       <c r="I64" t="n">
-        <v>225499</v>
+        <v>221711</v>
       </c>
       <c r="J64" t="n">
-        <v>1.545</v>
+        <v>1.519</v>
       </c>
       <c r="K64" t="n">
-        <v>194849.667</v>
+        <v>213933.667</v>
       </c>
       <c r="L64" t="n">
-        <v>1.335</v>
+        <v>1.466</v>
       </c>
       <c r="M64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O64" t="s">
         <v>20</v>
       </c>
       <c r="P64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" t="n">
-        <v>24005</v>
+        <v>25145</v>
       </c>
       <c r="H65" t="n">
-        <v>1.853</v>
+        <v>1.941</v>
       </c>
       <c r="I65" t="n">
-        <v>1705</v>
+        <v>1140</v>
       </c>
       <c r="J65" t="n">
-        <v>0.132</v>
+        <v>0.088</v>
       </c>
       <c r="K65" t="n">
-        <v>1474.667</v>
+        <v>1450</v>
       </c>
       <c r="L65" t="n">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="M65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N65" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O65" t="s">
         <v>45</v>
       </c>
       <c r="P65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F66" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G66" t="n">
-        <v>12770</v>
+        <v>13960</v>
       </c>
       <c r="H66" t="n">
-        <v>0.763</v>
+        <v>0.834</v>
       </c>
       <c r="I66" t="n">
-        <v>901</v>
+        <v>1190</v>
       </c>
       <c r="J66" t="n">
-        <v>0.054</v>
+        <v>0.071</v>
       </c>
       <c r="K66" t="n">
-        <v>954</v>
+        <v>1084</v>
       </c>
       <c r="L66" t="n">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="M66" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P66" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F67" t="n">
         <v>65</v>
@@ -5159,24 +5162,24 @@
         <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O67" t="s">
         <v>74</v>
       </c>
       <c r="P67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C68" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D68" t="s">
         <v>36</v>
@@ -5199,24 +5202,24 @@
         <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O68" t="s">
         <v>74</v>
       </c>
       <c r="P68" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C69" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
         <v>36</v>
@@ -5239,224 +5242,224 @@
         <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P69" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C70" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D70" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="n">
-        <v>91072</v>
+        <v>94770</v>
       </c>
       <c r="H70" t="n">
-        <v>16.681</v>
+        <v>17.358</v>
       </c>
       <c r="I70" t="n">
-        <v>5150</v>
+        <v>3698</v>
       </c>
       <c r="J70" t="n">
-        <v>0.943</v>
+        <v>0.677</v>
       </c>
       <c r="K70" t="n">
-        <v>5068.667</v>
+        <v>4477.333</v>
       </c>
       <c r="L70" t="n">
-        <v>0.928</v>
+        <v>0.82</v>
       </c>
       <c r="M70" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N70" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O70" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P70" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G71" t="n">
-        <v>54300</v>
+        <v>55020</v>
       </c>
       <c r="H71" t="n">
-        <v>26.119</v>
+        <v>26.466</v>
       </c>
       <c r="I71" t="n">
-        <v>1352</v>
+        <v>720</v>
       </c>
       <c r="J71" t="n">
-        <v>0.65</v>
+        <v>0.346</v>
       </c>
       <c r="K71" t="n">
-        <v>1336.667</v>
+        <v>1137.667</v>
       </c>
       <c r="L71" t="n">
-        <v>0.643</v>
+        <v>0.547</v>
       </c>
       <c r="M71" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O71" t="s">
         <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D72" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
+        <v>400</v>
+      </c>
+      <c r="F72" t="n">
+        <v>61</v>
+      </c>
+      <c r="G72" t="n">
+        <v>217522</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.668</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9992</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="K72" t="n">
+        <v>10675</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M72" t="s">
         <v>399</v>
       </c>
-      <c r="F72" t="n">
-        <v>60</v>
-      </c>
-      <c r="G72" t="n">
-        <v>207530</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.499</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10403</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9686.667</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="M72" t="s">
-        <v>398</v>
-      </c>
       <c r="N72" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O72" t="s">
         <v>74</v>
       </c>
       <c r="P72" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C73" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G73" t="n">
-        <v>623069</v>
+        <v>627562</v>
       </c>
       <c r="H73" t="n">
-        <v>12.153</v>
+        <v>12.241</v>
       </c>
       <c r="I73" t="n">
-        <v>3188</v>
+        <v>4493</v>
       </c>
       <c r="J73" t="n">
-        <v>0.062</v>
+        <v>0.088</v>
       </c>
       <c r="K73" t="n">
-        <v>4851.667</v>
+        <v>4455</v>
       </c>
       <c r="L73" t="n">
-        <v>0.095</v>
+        <v>0.087</v>
       </c>
       <c r="M73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O73" t="s">
         <v>62</v>
       </c>
       <c r="P73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E74" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -5472,30 +5475,30 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N74" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O74" t="s">
         <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
@@ -5512,30 +5515,30 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="s">
+        <v>417</v>
+      </c>
+      <c r="N75" t="s">
         <v>416</v>
-      </c>
-      <c r="N75" t="s">
-        <v>415</v>
       </c>
       <c r="O75" t="s">
         <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C76" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
@@ -5556,225 +5559,225 @@
         <v>0.345</v>
       </c>
       <c r="M76" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N76" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O76" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P76" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D77" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G77" t="n">
-        <v>63340</v>
+        <v>63713</v>
       </c>
       <c r="H77" t="n">
-        <v>2.659</v>
+        <v>2.675</v>
       </c>
       <c r="I77" t="n">
-        <v>496</v>
+        <v>373</v>
       </c>
       <c r="J77" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="K77" t="n">
-        <v>552</v>
+        <v>448.333</v>
       </c>
       <c r="L77" t="n">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
       <c r="M77" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N77" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O77" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P77" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G78" t="n">
-        <v>70535</v>
+        <v>72745</v>
       </c>
       <c r="H78" t="n">
-        <v>1.011</v>
+        <v>1.042</v>
       </c>
       <c r="I78" t="n">
-        <v>4164</v>
+        <v>2210</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="K78" t="n">
-        <v>4204.333</v>
+        <v>3575.667</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06</v>
+        <v>0.051</v>
       </c>
       <c r="M78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N78" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O78" t="s">
         <v>74</v>
       </c>
       <c r="P78" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G79" t="n">
-        <v>22957</v>
+        <v>23526</v>
       </c>
       <c r="H79" t="n">
-        <v>1.942</v>
+        <v>1.991</v>
       </c>
       <c r="I79" t="n">
-        <v>895</v>
+        <v>569</v>
       </c>
       <c r="J79" t="n">
-        <v>0.076</v>
+        <v>0.048</v>
       </c>
       <c r="K79" t="n">
-        <v>625.333</v>
+        <v>683</v>
       </c>
       <c r="L79" t="n">
-        <v>0.053</v>
+        <v>0.058</v>
       </c>
       <c r="M79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O79" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P79" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C80" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G80" t="n">
-        <v>1033617</v>
+        <v>1075048</v>
       </c>
       <c r="H80" t="n">
-        <v>12.255</v>
+        <v>12.747</v>
       </c>
       <c r="I80" t="n">
-        <v>42004</v>
+        <v>41431</v>
       </c>
       <c r="J80" t="n">
-        <v>0.498</v>
+        <v>0.491</v>
       </c>
       <c r="K80" t="n">
-        <v>38244</v>
+        <v>42311</v>
       </c>
       <c r="L80" t="n">
-        <v>0.454</v>
+        <v>0.502</v>
       </c>
       <c r="M80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N80" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O80" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P80" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D81" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F81" t="n">
         <v>24</v>
@@ -5798,318 +5801,318 @@
         <v>0.047</v>
       </c>
       <c r="M81" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N81" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O81" t="s">
         <v>45</v>
       </c>
       <c r="P81" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D82" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G82" t="n">
-        <v>111859</v>
+        <v>122752</v>
       </c>
       <c r="H82" t="n">
-        <v>2.558</v>
+        <v>2.807</v>
       </c>
       <c r="I82" t="n">
-        <v>7315</v>
+        <v>4207</v>
       </c>
       <c r="J82" t="n">
-        <v>0.167</v>
+        <v>0.096</v>
       </c>
       <c r="K82" t="n">
-        <v>6113.333</v>
+        <v>6069.333</v>
       </c>
       <c r="L82" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="M82" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N82" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O82" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C83" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D83" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G83" t="n">
-        <v>687369</v>
+        <v>762279</v>
       </c>
       <c r="H83" t="n">
-        <v>10.125</v>
+        <v>11.229</v>
       </c>
       <c r="I83" t="n">
-        <v>54575</v>
+        <v>73191</v>
       </c>
       <c r="J83" t="n">
-        <v>0.804</v>
+        <v>1.078</v>
       </c>
       <c r="K83" t="n">
-        <v>39200.333</v>
+        <v>53740.333</v>
       </c>
       <c r="L83" t="n">
-        <v>0.578</v>
+        <v>0.792</v>
       </c>
       <c r="M83" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N83" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O83" t="s">
         <v>74</v>
       </c>
       <c r="P83" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C84" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G84" t="n">
-        <v>901905</v>
+        <v>1023824</v>
       </c>
       <c r="H84" t="n">
-        <v>13.286</v>
+        <v>15.082</v>
       </c>
       <c r="I84" t="n">
-        <v>81611</v>
+        <v>122347</v>
       </c>
       <c r="J84" t="n">
-        <v>1.202</v>
+        <v>1.802</v>
       </c>
       <c r="K84" t="n">
-        <v>59201</v>
+        <v>85462.333</v>
       </c>
       <c r="L84" t="n">
-        <v>0.872</v>
+        <v>1.259</v>
       </c>
       <c r="M84" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N84" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O84" t="s">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="P84" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D85" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G85" t="n">
-        <v>6231182</v>
+        <v>6551810</v>
       </c>
       <c r="H85" t="n">
-        <v>18.825</v>
+        <v>19.794</v>
       </c>
       <c r="I85" t="n">
-        <v>206557</v>
+        <v>305118</v>
       </c>
       <c r="J85" t="n">
-        <v>0.624</v>
+        <v>0.922</v>
       </c>
       <c r="K85" t="n">
-        <v>212562.333</v>
+        <v>252027.333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.642</v>
+        <v>0.761</v>
       </c>
       <c r="M85" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N85" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O85" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P85" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C86" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D86" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G86" t="n">
-        <v>475478</v>
+        <v>498015</v>
       </c>
       <c r="H86" t="n">
-        <v>1.436</v>
+        <v>1.505</v>
       </c>
       <c r="I86" t="n">
-        <v>19923</v>
+        <v>21420</v>
       </c>
       <c r="J86" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="K86" t="n">
-        <v>17110</v>
+        <v>19322</v>
       </c>
       <c r="L86" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="M86" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N86" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="O86" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P86" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C87" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D87" t="s">
         <v>101</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="n">
-        <v>19747</v>
+        <v>20554</v>
       </c>
       <c r="H87" t="n">
-        <v>5.685</v>
+        <v>5.917</v>
       </c>
       <c r="I87" t="n">
-        <v>731</v>
+        <v>807</v>
       </c>
       <c r="J87" t="n">
-        <v>0.21</v>
+        <v>0.232</v>
       </c>
       <c r="K87" t="n">
-        <v>747.333</v>
+        <v>804.667</v>
       </c>
       <c r="L87" t="n">
-        <v>0.215</v>
+        <v>0.231</v>
       </c>
       <c r="M87" t="s">
         <v>101</v>
       </c>
       <c r="N87" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="O87" t="s">
         <v>20</v>
       </c>
       <c r="P87" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C88" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D88" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
@@ -6126,64 +6129,64 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N88" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O88" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P88" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C89" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D89" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="n">
-        <v>7642</v>
+        <v>8314</v>
       </c>
       <c r="H89" t="n">
-        <v>0.514</v>
+        <v>0.559</v>
       </c>
       <c r="I89" t="n">
-        <v>355</v>
+        <v>672</v>
       </c>
       <c r="J89" t="n">
-        <v>0.024</v>
+        <v>0.045</v>
       </c>
       <c r="K89" t="n">
-        <v>415.667</v>
+        <v>493.333</v>
       </c>
       <c r="L89" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="M89" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N89" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O89" t="s">
         <v>20</v>
       </c>
       <c r="P89" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151038/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141230/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151040/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141232/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151045/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141236/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501173328/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141238/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Croatia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151051/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141652/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/04/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-30042020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-02052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -404,7 +404,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18th March; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29th February.
-The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.</t>
+The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.
+On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.</t>
   </si>
   <si>
     <t xml:space="preserve">El Salvador - tests performed</t>
@@ -554,7 +555,7 @@
     <t xml:space="preserve">Outbreak Response Management provides daily situation updates on the total number of people or total samples tested for the coronavirus.
 Using web archives, we reconstruct a time series. Situation updates report the total number of people tested from 28th March, then the total number of samples tested from 18th April. However, the figures given from one period to the other seem to line up correctly, thus we are not certain what the true units are.
 On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data. 
-We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provide a breakdown of the total number of tests.</t>
+We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provides a breakdown of the total number of tests.</t>
   </si>
   <si>
     <t xml:space="preserve">Greece - tests performed</t>
@@ -785,7 +786,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000626512.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627446.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -848,7 +849,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151129/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141813/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -879,7 +880,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151137/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141827/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1006,7 +1007,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501155337/http://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141847/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1045,7 +1046,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151159/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141854/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1102,7 +1103,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143593-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-40-459-en-el-peru-comunicado-n-84</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143615-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-42-534-comunicado-n-85</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1137,7 +1138,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.01.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.03.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1176,7 +1177,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151207/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141907/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1208,7 +1209,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14371</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14373</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1298,7 +1299,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151233/https://www.korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141916/https://www.korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1363,7 +1364,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367066&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367070&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1380,13 +1381,13 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/en/gabinete/notasPrensa.do?metodo=detalle&amp;id=4883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press release from the Ministerio de Sanidad, Consumo y Bienestar Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparing these figures with those collected from Autonomous Communities by CIVIO, the estimate for Madrid included in these figures appears to date back to 14 April (see https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/).</t>
+    <t xml:space="preserve">https://www.abc.es/espana/abci-sanchez-somos-quinto-pais-mundo-numero-test-realizados-202005021736_video.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press conference by Prime Minister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure given directly by the Prime Minister in a press conference on 2 May 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1440,7 +1441,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/bJVsQHE6lCY1CMTi1gMcpQ?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/aAUzPjvwik0ZcghByRkokA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1460,7 +1461,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151250/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503141951/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1501,7 +1502,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501173455/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503142006/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1522,7 +1523,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1255973076493369344</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1256338138646994944</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1542,7 +1543,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502151255/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503142012/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1561,7 +1562,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501173458/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503142018/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1584,7 +1585,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200501173558/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200503142022/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1652,7 +1653,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-12</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-13</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2176,7 +2177,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2186,25 +2187,25 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>269619</v>
+        <v>274355</v>
       </c>
       <c r="H4" t="n">
-        <v>29.936</v>
+        <v>30.462</v>
       </c>
       <c r="I4" t="n">
-        <v>5540</v>
+        <v>4736</v>
       </c>
       <c r="J4" t="n">
-        <v>0.615</v>
+        <v>0.526</v>
       </c>
       <c r="K4" t="n">
-        <v>7288.333</v>
+        <v>5985.333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.809</v>
+        <v>0.665</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -2224,7 +2225,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -2234,25 +2235,25 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>138278</v>
+        <v>143030</v>
       </c>
       <c r="H5" t="n">
-        <v>81.264</v>
+        <v>84.057</v>
       </c>
       <c r="I5" t="n">
-        <v>4196</v>
+        <v>4752</v>
       </c>
       <c r="J5" t="n">
-        <v>2.466</v>
+        <v>2.793</v>
       </c>
       <c r="K5" t="n">
-        <v>3791</v>
+        <v>4445.333</v>
       </c>
       <c r="L5" t="n">
-        <v>2.228</v>
+        <v>2.613</v>
       </c>
       <c r="M5" t="s">
         <v>37</v>
@@ -2360,7 +2361,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -2370,25 +2371,25 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>327653</v>
+        <v>347936</v>
       </c>
       <c r="H8" t="n">
-        <v>28.271</v>
+        <v>30.021</v>
       </c>
       <c r="I8" t="n">
-        <v>20718</v>
+        <v>21165</v>
       </c>
       <c r="J8" t="n">
-        <v>1.788</v>
+        <v>1.826</v>
       </c>
       <c r="K8" t="n">
-        <v>19130</v>
+        <v>20849</v>
       </c>
       <c r="L8" t="n">
-        <v>1.651</v>
+        <v>1.799</v>
       </c>
       <c r="M8" t="s">
         <v>54</v>
@@ -2408,7 +2409,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -2420,21 +2421,25 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>6613</v>
+        <v>7556</v>
       </c>
       <c r="H9" t="n">
-        <v>0.567</v>
-      </c>
-      <c r="I9"/>
+        <v>0.647</v>
+      </c>
+      <c r="I9" t="n">
+        <v>943</v>
+      </c>
       <c r="J9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K9"/>
+        <v>0.081</v>
+      </c>
+      <c r="K9" t="n">
+        <v>382.333</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.014</v>
+        <v>0.033</v>
       </c>
       <c r="M9" t="s">
         <v>36</v>
@@ -2454,7 +2459,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -2464,19 +2469,19 @@
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>47636</v>
+        <v>48618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.856</v>
+        <v>6.997</v>
       </c>
       <c r="I10" t="n">
-        <v>1126</v>
+        <v>982</v>
       </c>
       <c r="J10" t="n">
-        <v>0.162</v>
+        <v>0.141</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -2498,7 +2503,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -2508,26 +2513,18 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
-        <v>832222</v>
+        <v>862080</v>
       </c>
       <c r="H11" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>43939</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.164</v>
-      </c>
-      <c r="K11" t="n">
-        <v>30454.333</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.807</v>
-      </c>
+        <v>22.841</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>72</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -2558,25 +2555,25 @@
         <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>189433</v>
+        <v>199400</v>
       </c>
       <c r="H12" t="n">
-        <v>9.91</v>
+        <v>10.431</v>
       </c>
       <c r="I12" t="n">
-        <v>8916</v>
+        <v>9967</v>
       </c>
       <c r="J12" t="n">
-        <v>0.466</v>
+        <v>0.521</v>
       </c>
       <c r="K12" t="n">
-        <v>7756</v>
+        <v>8927</v>
       </c>
       <c r="L12" t="n">
-        <v>0.406</v>
+        <v>0.467</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -2596,7 +2593,7 @@
         <v>82</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
@@ -2606,25 +2603,25 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="n">
-        <v>108950</v>
+        <v>114602</v>
       </c>
       <c r="H13" t="n">
-        <v>2.141</v>
+        <v>2.252</v>
       </c>
       <c r="I13" t="n">
-        <v>4293</v>
+        <v>5652</v>
       </c>
       <c r="J13" t="n">
-        <v>0.084</v>
+        <v>0.111</v>
       </c>
       <c r="K13" t="n">
-        <v>4621.667</v>
+        <v>4816.333</v>
       </c>
       <c r="L13" t="n">
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="M13" t="s">
         <v>84</v>
@@ -2644,7 +2641,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -2654,25 +2651,25 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" t="n">
-        <v>9502</v>
+        <v>9593</v>
       </c>
       <c r="H14" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="I14" t="n">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="J14" t="n">
-        <v>0.033</v>
+        <v>0.018</v>
       </c>
       <c r="K14" t="n">
-        <v>171</v>
+        <v>122.333</v>
       </c>
       <c r="L14" t="n">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
       <c r="M14" t="s">
         <v>90</v>
@@ -2692,7 +2689,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -2702,16 +2699,20 @@
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>37557</v>
+        <v>38084</v>
       </c>
       <c r="H15" t="n">
-        <v>9.148</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
+        <v>9.277</v>
+      </c>
+      <c r="I15" t="n">
+        <v>527</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.128</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
@@ -2732,7 +2733,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
@@ -2744,25 +2745,25 @@
         <v>102</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>49409</v>
+        <v>51506</v>
       </c>
       <c r="H16" t="n">
-        <v>4.362</v>
+        <v>4.547</v>
       </c>
       <c r="I16" t="n">
-        <v>2062</v>
+        <v>2097</v>
       </c>
       <c r="J16" t="n">
-        <v>0.182</v>
+        <v>0.185</v>
       </c>
       <c r="K16" t="n">
-        <v>1967</v>
+        <v>2054</v>
       </c>
       <c r="L16" t="n">
-        <v>0.174</v>
+        <v>0.181</v>
       </c>
       <c r="M16" t="s">
         <v>101</v>
@@ -2782,7 +2783,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -2792,25 +2793,25 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="n">
-        <v>253826</v>
+        <v>257678</v>
       </c>
       <c r="H17" t="n">
-        <v>23.702</v>
+        <v>24.062</v>
       </c>
       <c r="I17" t="n">
-        <v>4192</v>
+        <v>3862</v>
       </c>
       <c r="J17" t="n">
-        <v>0.391</v>
+        <v>0.361</v>
       </c>
       <c r="K17" t="n">
-        <v>6253.667</v>
+        <v>5098</v>
       </c>
       <c r="L17" t="n">
-        <v>0.584</v>
+        <v>0.476</v>
       </c>
       <c r="M17" t="s">
         <v>36</v>
@@ -2876,7 +2877,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="C19" t="s">
         <v>117</v>
@@ -2888,25 +2889,25 @@
         <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>52848</v>
+        <v>38924</v>
       </c>
       <c r="H19" t="n">
-        <v>2.995</v>
+        <v>2.206</v>
       </c>
       <c r="I19" t="n">
-        <v>663</v>
+        <v>1863</v>
       </c>
       <c r="J19" t="n">
-        <v>0.038</v>
+        <v>0.106</v>
       </c>
       <c r="K19" t="n">
-        <v>1518.667</v>
+        <v>1746.667</v>
       </c>
       <c r="L19" t="n">
-        <v>0.086</v>
+        <v>0.099</v>
       </c>
       <c r="M19" t="s">
         <v>118</v>
@@ -2968,7 +2969,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
@@ -2978,25 +2979,25 @@
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" t="n">
-        <v>54464</v>
+        <v>55206</v>
       </c>
       <c r="H21" t="n">
-        <v>41.057</v>
+        <v>41.617</v>
       </c>
       <c r="I21" t="n">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="J21" t="n">
-        <v>0.525</v>
+        <v>0.56</v>
       </c>
       <c r="K21" t="n">
-        <v>1096.333</v>
+        <v>823.333</v>
       </c>
       <c r="L21" t="n">
-        <v>0.826</v>
+        <v>0.62</v>
       </c>
       <c r="M21" t="s">
         <v>130</v>
@@ -3064,7 +3065,7 @@
         <v>139</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C23" t="s">
         <v>140</v>
@@ -3074,21 +3075,25 @@
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" t="n">
-        <v>97593</v>
+        <v>101750</v>
       </c>
       <c r="H23" t="n">
-        <v>17.614</v>
-      </c>
-      <c r="I23"/>
+        <v>18.364</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2153</v>
+      </c>
       <c r="J23" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="K23"/>
+        <v>0.389</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2860</v>
+      </c>
       <c r="L23" t="n">
-        <v>0.445</v>
+        <v>0.516</v>
       </c>
       <c r="M23" t="s">
         <v>142</v>
@@ -3316,7 +3321,7 @@
         <v>176</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C29" t="s">
         <v>177</v>
@@ -3328,25 +3333,25 @@
         <v>179</v>
       </c>
       <c r="F29" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" t="n">
-        <v>79551</v>
+        <v>82010</v>
       </c>
       <c r="H29" t="n">
-        <v>8.235</v>
+        <v>8.489</v>
       </c>
       <c r="I29" t="n">
-        <v>3220</v>
+        <v>2459</v>
       </c>
       <c r="J29" t="n">
-        <v>0.333</v>
+        <v>0.255</v>
       </c>
       <c r="K29" t="n">
-        <v>3083.667</v>
+        <v>3019.667</v>
       </c>
       <c r="L29" t="n">
-        <v>0.319</v>
+        <v>0.313</v>
       </c>
       <c r="M29" t="s">
         <v>178</v>
@@ -3366,7 +3371,7 @@
         <v>183</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C30" t="s">
         <v>184</v>
@@ -3376,25 +3381,21 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G30" t="n">
-        <v>49961</v>
+        <v>50365</v>
       </c>
       <c r="H30" t="n">
-        <v>146.406</v>
-      </c>
-      <c r="I30" t="n">
-        <v>867</v>
-      </c>
+        <v>147.59</v>
+      </c>
+      <c r="I30"/>
       <c r="J30" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="K30" t="n">
-        <v>809.667</v>
-      </c>
+        <v>1.184</v>
+      </c>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>2.373</v>
+        <v>1.947</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -3460,7 +3461,7 @@
         <v>193</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C32" t="s">
         <v>189</v>
@@ -3472,25 +3473,25 @@
         <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>976363</v>
+        <v>1046450</v>
       </c>
       <c r="H32" t="n">
-        <v>0.708</v>
+        <v>0.758</v>
       </c>
       <c r="I32" t="n">
-        <v>73709</v>
+        <v>70087</v>
       </c>
       <c r="J32" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="K32" t="n">
-        <v>68533</v>
+        <v>72083</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="M32" t="s">
         <v>190</v>
@@ -3510,7 +3511,7 @@
         <v>194</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C33" t="s">
         <v>195</v>
@@ -3520,25 +3521,25 @@
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>79868</v>
+        <v>83012</v>
       </c>
       <c r="H33" t="n">
-        <v>0.292</v>
+        <v>0.303</v>
       </c>
       <c r="I33" t="n">
-        <v>3330</v>
+        <v>3144</v>
       </c>
       <c r="J33" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K33" t="n">
-        <v>4028</v>
+        <v>3553.667</v>
       </c>
       <c r="L33" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="M33" t="s">
         <v>196</v>
@@ -3692,7 +3693,7 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C37" t="s">
         <v>216</v>
@@ -3704,25 +3705,25 @@
         <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>1398633</v>
+        <v>1429864</v>
       </c>
       <c r="H37" t="n">
-        <v>23.132</v>
+        <v>23.649</v>
       </c>
       <c r="I37" t="n">
-        <v>43732</v>
+        <v>31231</v>
       </c>
       <c r="J37" t="n">
-        <v>0.723</v>
+        <v>0.517</v>
       </c>
       <c r="K37" t="n">
-        <v>41254</v>
+        <v>38801.333</v>
       </c>
       <c r="L37" t="n">
-        <v>0.682</v>
+        <v>0.642</v>
       </c>
       <c r="M37" t="s">
         <v>219</v>
@@ -3742,7 +3743,7 @@
         <v>222</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C38" t="s">
         <v>216</v>
@@ -3754,25 +3755,25 @@
         <v>218</v>
       </c>
       <c r="F38" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G38" t="n">
-        <v>2053425</v>
+        <v>2108837</v>
       </c>
       <c r="H38" t="n">
-        <v>33.962</v>
+        <v>34.879</v>
       </c>
       <c r="I38" t="n">
-        <v>74208</v>
+        <v>55412</v>
       </c>
       <c r="J38" t="n">
-        <v>1.227</v>
+        <v>0.916</v>
       </c>
       <c r="K38" t="n">
-        <v>68830.333</v>
+        <v>66025.333</v>
       </c>
       <c r="L38" t="n">
-        <v>1.138</v>
+        <v>1.092</v>
       </c>
       <c r="M38" t="s">
         <v>219</v>
@@ -3792,7 +3793,7 @@
         <v>224</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C39" t="s">
         <v>225</v>
@@ -3804,13 +3805,13 @@
         <v>227</v>
       </c>
       <c r="F39" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" t="n">
-        <v>181527</v>
+        <v>183251</v>
       </c>
       <c r="H39" t="n">
-        <v>1.435</v>
+        <v>1.449</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
@@ -3834,7 +3835,7 @@
         <v>230</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="C40" t="s">
         <v>231</v>
@@ -3846,25 +3847,25 @@
         <v>232</v>
       </c>
       <c r="F40" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40" t="n">
-        <v>254703</v>
+        <v>273854</v>
       </c>
       <c r="H40" t="n">
-        <v>2.014</v>
+        <v>2.165</v>
       </c>
       <c r="I40" t="n">
-        <v>4149</v>
+        <v>6636</v>
       </c>
       <c r="J40" t="n">
-        <v>0.033</v>
+        <v>0.052</v>
       </c>
       <c r="K40" t="n">
-        <v>4564.333</v>
+        <v>7305</v>
       </c>
       <c r="L40" t="n">
-        <v>0.036</v>
+        <v>0.058</v>
       </c>
       <c r="M40" t="s">
         <v>226</v>
@@ -3980,7 +3981,7 @@
         <v>244</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C43" t="s">
         <v>245</v>
@@ -3992,25 +3993,25 @@
         <v>247</v>
       </c>
       <c r="F43" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G43" t="n">
-        <v>63102</v>
+        <v>64245</v>
       </c>
       <c r="H43" t="n">
-        <v>33.455</v>
+        <v>34.061</v>
       </c>
       <c r="I43" t="n">
-        <v>1982</v>
+        <v>1143</v>
       </c>
       <c r="J43" t="n">
-        <v>1.051</v>
+        <v>0.606</v>
       </c>
       <c r="K43" t="n">
-        <v>2763.667</v>
+        <v>2119.667</v>
       </c>
       <c r="L43" t="n">
-        <v>1.465</v>
+        <v>1.124</v>
       </c>
       <c r="M43" t="s">
         <v>246</v>
@@ -4030,7 +4031,7 @@
         <v>249</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C44" t="s">
         <v>250</v>
@@ -4040,25 +4041,25 @@
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>138270</v>
+        <v>141678</v>
       </c>
       <c r="H44" t="n">
-        <v>50.792</v>
+        <v>52.044</v>
       </c>
       <c r="I44" t="n">
-        <v>5502</v>
+        <v>3408</v>
       </c>
       <c r="J44" t="n">
-        <v>2.021</v>
+        <v>1.252</v>
       </c>
       <c r="K44" t="n">
-        <v>6689.667</v>
+        <v>5374.333</v>
       </c>
       <c r="L44" t="n">
-        <v>2.457</v>
+        <v>1.974</v>
       </c>
       <c r="M44" t="s">
         <v>36</v>
@@ -4126,7 +4127,7 @@
         <v>258</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C46" t="s">
         <v>259</v>
@@ -4136,19 +4137,19 @@
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" t="n">
-        <v>184213</v>
+        <v>195833</v>
       </c>
       <c r="H46" t="n">
-        <v>5.692</v>
+        <v>6.051</v>
       </c>
       <c r="I46" t="n">
-        <v>15429</v>
+        <v>11620</v>
       </c>
       <c r="J46" t="n">
-        <v>0.477</v>
+        <v>0.359</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
@@ -4183,18 +4184,18 @@
         <v>122</v>
       </c>
       <c r="G47" t="n">
-        <v>75742</v>
+        <v>79255</v>
       </c>
       <c r="H47" t="n">
-        <v>0.587</v>
+        <v>0.615</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="M47" t="s">
         <v>266</v>
@@ -4314,7 +4315,7 @@
         <v>280</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C50" t="s">
         <v>281</v>
@@ -4326,25 +4327,25 @@
         <v>283</v>
       </c>
       <c r="F50" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G50" t="n">
-        <v>12577</v>
+        <v>13098</v>
       </c>
       <c r="H50" t="n">
-        <v>0.432</v>
+        <v>0.45</v>
       </c>
       <c r="I50" t="n">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="J50" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="K50" t="n">
-        <v>590</v>
+        <v>524.667</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="M50" t="s">
         <v>282</v>
@@ -4412,7 +4413,7 @@
         <v>292</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C52" t="s">
         <v>293</v>
@@ -4422,25 +4423,25 @@
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" t="n">
-        <v>145589</v>
+        <v>150223</v>
       </c>
       <c r="H52" t="n">
-        <v>30.191</v>
+        <v>31.152</v>
       </c>
       <c r="I52" t="n">
-        <v>5691</v>
+        <v>4634</v>
       </c>
       <c r="J52" t="n">
-        <v>1.18</v>
+        <v>0.961</v>
       </c>
       <c r="K52" t="n">
-        <v>5628.667</v>
+        <v>5217.667</v>
       </c>
       <c r="L52" t="n">
-        <v>1.167</v>
+        <v>1.082</v>
       </c>
       <c r="M52" t="s">
         <v>294</v>
@@ -4460,7 +4461,7 @@
         <v>296</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C53" t="s">
         <v>297</v>
@@ -4470,13 +4471,13 @@
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
-        <v>15759</v>
+        <v>16588</v>
       </c>
       <c r="H53" t="n">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -4548,7 +4549,7 @@
         <v>307</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C55" t="s">
         <v>308</v>
@@ -4558,25 +4559,25 @@
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55" t="n">
-        <v>193859</v>
+        <v>203025</v>
       </c>
       <c r="H55" t="n">
-        <v>0.878</v>
+        <v>0.919</v>
       </c>
       <c r="I55" t="n">
-        <v>11728</v>
+        <v>9166</v>
       </c>
       <c r="J55" t="n">
-        <v>0.053</v>
+        <v>0.041</v>
       </c>
       <c r="K55" t="n">
-        <v>9316</v>
+        <v>9621.667</v>
       </c>
       <c r="L55" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="M55" t="s">
         <v>309</v>
@@ -4596,7 +4597,7 @@
         <v>312</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C56" t="s">
         <v>313</v>
@@ -4608,25 +4609,25 @@
         <v>314</v>
       </c>
       <c r="F56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" t="n">
-        <v>31895</v>
+        <v>33354</v>
       </c>
       <c r="H56" t="n">
-        <v>7.392</v>
+        <v>7.73</v>
       </c>
       <c r="I56" t="n">
-        <v>1146</v>
+        <v>1459</v>
       </c>
       <c r="J56" t="n">
-        <v>0.266</v>
+        <v>0.338</v>
       </c>
       <c r="K56" t="n">
-        <v>1033.333</v>
+        <v>1172.333</v>
       </c>
       <c r="L56" t="n">
-        <v>0.239</v>
+        <v>0.272</v>
       </c>
       <c r="M56" t="s">
         <v>36</v>
@@ -4696,7 +4697,7 @@
         <v>324</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C58" t="s">
         <v>325</v>
@@ -4706,22 +4707,18 @@
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>342498</v>
+        <v>355604</v>
       </c>
       <c r="H58" t="n">
-        <v>10.388</v>
+        <v>10.785</v>
       </c>
       <c r="I58"/>
-      <c r="J58" t="n">
-        <v>0.735</v>
-      </c>
+      <c r="J58"/>
       <c r="K58"/>
-      <c r="L58" t="n">
-        <v>1.041</v>
-      </c>
+      <c r="L58"/>
       <c r="M58" t="s">
         <v>326</v>
       </c>
@@ -4740,7 +4737,7 @@
         <v>330</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C59" t="s">
         <v>331</v>
@@ -4750,22 +4747,26 @@
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>97349</v>
+        <v>103197</v>
       </c>
       <c r="H59" t="n">
-        <v>0.888</v>
+        <v>0.942</v>
       </c>
       <c r="I59" t="n">
-        <v>3962</v>
+        <v>5848</v>
       </c>
       <c r="J59" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59"/>
+        <v>0.053</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4776</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.043</v>
+      </c>
       <c r="M59" t="s">
         <v>172</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>334</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C60" t="s">
         <v>335</v>
@@ -4796,25 +4797,25 @@
         <v>337</v>
       </c>
       <c r="F60" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G60" t="n">
-        <v>354628</v>
+        <v>375948</v>
       </c>
       <c r="H60" t="n">
-        <v>9.37</v>
+        <v>9.933</v>
       </c>
       <c r="I60" t="n">
-        <v>16601</v>
+        <v>9935</v>
       </c>
       <c r="J60" t="n">
-        <v>0.439</v>
+        <v>0.263</v>
       </c>
       <c r="K60" t="n">
-        <v>14628</v>
+        <v>12640.333</v>
       </c>
       <c r="L60" t="n">
-        <v>0.387</v>
+        <v>0.334</v>
       </c>
       <c r="M60" t="s">
         <v>338</v>
@@ -4882,7 +4883,7 @@
         <v>346</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C62" t="s">
         <v>347</v>
@@ -4892,25 +4893,25 @@
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="n">
-        <v>101728</v>
+        <v>104435</v>
       </c>
       <c r="H62" t="n">
-        <v>35.309</v>
+        <v>36.249</v>
       </c>
       <c r="I62" t="n">
-        <v>4002</v>
+        <v>2707</v>
       </c>
       <c r="J62" t="n">
-        <v>1.389</v>
+        <v>0.94</v>
       </c>
       <c r="K62" t="n">
-        <v>3437.667</v>
+        <v>3311.667</v>
       </c>
       <c r="L62" t="n">
-        <v>1.193</v>
+        <v>1.15</v>
       </c>
       <c r="M62" t="s">
         <v>348</v>
@@ -4980,7 +4981,7 @@
         <v>356</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C64" t="s">
         <v>357</v>
@@ -4990,25 +4991,25 @@
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G64" t="n">
-        <v>3945518</v>
+        <v>4099999</v>
       </c>
       <c r="H64" t="n">
-        <v>27.036</v>
+        <v>28.095</v>
       </c>
       <c r="I64" t="n">
-        <v>221711</v>
+        <v>154481</v>
       </c>
       <c r="J64" t="n">
-        <v>1.519</v>
+        <v>1.059</v>
       </c>
       <c r="K64" t="n">
-        <v>213933.667</v>
+        <v>200563.667</v>
       </c>
       <c r="L64" t="n">
-        <v>1.466</v>
+        <v>1.374</v>
       </c>
       <c r="M64" t="s">
         <v>358</v>
@@ -5126,7 +5127,7 @@
         <v>374</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C67" t="s">
         <v>375</v>
@@ -5138,25 +5139,25 @@
         <v>376</v>
       </c>
       <c r="F67" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G67" t="n">
-        <v>91551</v>
+        <v>96637</v>
       </c>
       <c r="H67" t="n">
-        <v>13.454</v>
+        <v>14.202</v>
       </c>
       <c r="I67" t="n">
-        <v>5906</v>
+        <v>5086</v>
       </c>
       <c r="J67" t="n">
-        <v>0.868</v>
+        <v>0.747</v>
       </c>
       <c r="K67" t="n">
-        <v>6062.667</v>
+        <v>5898.333</v>
       </c>
       <c r="L67" t="n">
-        <v>0.891</v>
+        <v>0.867</v>
       </c>
       <c r="M67" t="s">
         <v>36</v>
@@ -5256,7 +5257,7 @@
         <v>384</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C70" t="s">
         <v>385</v>
@@ -5266,25 +5267,21 @@
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="n">
-        <v>94770</v>
+        <v>96220</v>
       </c>
       <c r="H70" t="n">
-        <v>17.358</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3698</v>
-      </c>
+        <v>17.624</v>
+      </c>
+      <c r="I70"/>
       <c r="J70" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4477.333</v>
-      </c>
+        <v>0.266</v>
+      </c>
+      <c r="K70"/>
       <c r="L70" t="n">
-        <v>0.82</v>
+        <v>0.629</v>
       </c>
       <c r="M70" t="s">
         <v>387</v>
@@ -5304,7 +5301,7 @@
         <v>391</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C71" t="s">
         <v>392</v>
@@ -5314,25 +5311,25 @@
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G71" t="n">
-        <v>55020</v>
+        <v>55520</v>
       </c>
       <c r="H71" t="n">
-        <v>26.466</v>
+        <v>26.706</v>
       </c>
       <c r="I71" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="J71" t="n">
-        <v>0.346</v>
+        <v>0.241</v>
       </c>
       <c r="K71" t="n">
-        <v>1137.667</v>
+        <v>857.333</v>
       </c>
       <c r="L71" t="n">
-        <v>0.547</v>
+        <v>0.412</v>
       </c>
       <c r="M71" t="s">
         <v>394</v>
@@ -5352,7 +5349,7 @@
         <v>397</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C72" t="s">
         <v>398</v>
@@ -5364,25 +5361,25 @@
         <v>400</v>
       </c>
       <c r="F72" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G72" t="n">
-        <v>217522</v>
+        <v>230686</v>
       </c>
       <c r="H72" t="n">
-        <v>3.668</v>
+        <v>3.89</v>
       </c>
       <c r="I72" t="n">
-        <v>9992</v>
+        <v>13164</v>
       </c>
       <c r="J72" t="n">
-        <v>0.168</v>
+        <v>0.222</v>
       </c>
       <c r="K72" t="n">
-        <v>10675</v>
+        <v>11186.333</v>
       </c>
       <c r="L72" t="n">
-        <v>0.18</v>
+        <v>0.188</v>
       </c>
       <c r="M72" t="s">
         <v>399</v>
@@ -5402,7 +5399,7 @@
         <v>403</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C73" t="s">
         <v>404</v>
@@ -5412,25 +5409,25 @@
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G73" t="n">
-        <v>627562</v>
+        <v>630973</v>
       </c>
       <c r="H73" t="n">
-        <v>12.241</v>
+        <v>12.307</v>
       </c>
       <c r="I73" t="n">
-        <v>4493</v>
+        <v>3411</v>
       </c>
       <c r="J73" t="n">
-        <v>0.088</v>
+        <v>0.067</v>
       </c>
       <c r="K73" t="n">
-        <v>4455</v>
+        <v>3697.333</v>
       </c>
       <c r="L73" t="n">
-        <v>0.087</v>
+        <v>0.072</v>
       </c>
       <c r="M73" t="s">
         <v>405</v>
@@ -5450,7 +5447,7 @@
         <v>408</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="C74" t="s">
         <v>409</v>
@@ -5462,13 +5459,13 @@
         <v>411</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>1035522</v>
+        <v>1351130</v>
       </c>
       <c r="H74" t="n">
-        <v>22.148</v>
+        <v>28.898</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
@@ -5576,7 +5573,7 @@
         <v>425</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C77" t="s">
         <v>426</v>
@@ -5586,25 +5583,25 @@
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G77" t="n">
-        <v>63713</v>
+        <v>64094</v>
       </c>
       <c r="H77" t="n">
-        <v>2.675</v>
+        <v>2.691</v>
       </c>
       <c r="I77" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J77" t="n">
         <v>0.016</v>
       </c>
       <c r="K77" t="n">
-        <v>448.333</v>
+        <v>416.667</v>
       </c>
       <c r="L77" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="M77" t="s">
         <v>427</v>
@@ -5624,7 +5621,7 @@
         <v>431</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C78" t="s">
         <v>432</v>
@@ -5634,25 +5631,25 @@
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G78" t="n">
-        <v>72745</v>
+        <v>75268</v>
       </c>
       <c r="H78" t="n">
-        <v>1.042</v>
+        <v>1.078</v>
       </c>
       <c r="I78" t="n">
-        <v>2210</v>
+        <v>2523</v>
       </c>
       <c r="J78" t="n">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="K78" t="n">
-        <v>3575.667</v>
+        <v>2965.667</v>
       </c>
       <c r="L78" t="n">
-        <v>0.051</v>
+        <v>0.043</v>
       </c>
       <c r="M78" t="s">
         <v>434</v>
@@ -5672,7 +5669,7 @@
         <v>437</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C79" t="s">
         <v>438</v>
@@ -5682,25 +5679,25 @@
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G79" t="n">
-        <v>23526</v>
+        <v>24055</v>
       </c>
       <c r="H79" t="n">
-        <v>1.991</v>
+        <v>2.035</v>
       </c>
       <c r="I79" t="n">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="J79" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="K79" t="n">
-        <v>683</v>
+        <v>664.333</v>
       </c>
       <c r="L79" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="M79" t="s">
         <v>439</v>
@@ -5720,7 +5717,7 @@
         <v>443</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C80" t="s">
         <v>444</v>
@@ -5730,26 +5727,18 @@
       </c>
       <c r="E80"/>
       <c r="F80" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="n">
-        <v>1075048</v>
+        <v>1111366</v>
       </c>
       <c r="H80" t="n">
-        <v>12.747</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41431</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="K80" t="n">
-        <v>42311</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.502</v>
-      </c>
+        <v>13.177</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
       <c r="M80" t="s">
         <v>445</v>
       </c>
@@ -5768,7 +5757,7 @@
         <v>449</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C81" t="s">
         <v>450</v>
@@ -5780,25 +5769,25 @@
         <v>452</v>
       </c>
       <c r="F81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>31348</v>
+        <v>33802</v>
       </c>
       <c r="H81" t="n">
-        <v>0.685</v>
+        <v>0.739</v>
       </c>
       <c r="I81" t="n">
-        <v>2071</v>
+        <v>2454</v>
       </c>
       <c r="J81" t="n">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
       <c r="K81" t="n">
-        <v>2157.667</v>
+        <v>2175.667</v>
       </c>
       <c r="L81" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="M81" t="s">
         <v>451</v>
@@ -5818,7 +5807,7 @@
         <v>455</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C82" t="s">
         <v>456</v>
@@ -5828,25 +5817,25 @@
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" t="n">
-        <v>122752</v>
+        <v>129723</v>
       </c>
       <c r="H82" t="n">
-        <v>2.807</v>
+        <v>2.966</v>
       </c>
       <c r="I82" t="n">
-        <v>4207</v>
+        <v>6971</v>
       </c>
       <c r="J82" t="n">
-        <v>0.096</v>
+        <v>0.159</v>
       </c>
       <c r="K82" t="n">
-        <v>6069.333</v>
+        <v>5954.667</v>
       </c>
       <c r="L82" t="n">
-        <v>0.139</v>
+        <v>0.136</v>
       </c>
       <c r="M82" t="s">
         <v>457</v>
@@ -5866,7 +5855,7 @@
         <v>461</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C83" t="s">
         <v>462</v>
@@ -5876,25 +5865,25 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G83" t="n">
-        <v>762279</v>
+        <v>825946</v>
       </c>
       <c r="H83" t="n">
-        <v>11.229</v>
+        <v>12.167</v>
       </c>
       <c r="I83" t="n">
-        <v>73191</v>
+        <v>63667</v>
       </c>
       <c r="J83" t="n">
-        <v>1.078</v>
+        <v>0.938</v>
       </c>
       <c r="K83" t="n">
-        <v>53740.333</v>
+        <v>63811</v>
       </c>
       <c r="L83" t="n">
-        <v>0.792</v>
+        <v>0.94</v>
       </c>
       <c r="M83" t="s">
         <v>463</v>
@@ -5914,7 +5903,7 @@
         <v>466</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C84" t="s">
         <v>467</v>
@@ -5924,25 +5913,25 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G84" t="n">
-        <v>1023824</v>
+        <v>1129907</v>
       </c>
       <c r="H84" t="n">
-        <v>15.082</v>
+        <v>16.644</v>
       </c>
       <c r="I84" t="n">
-        <v>122347</v>
+        <v>105937</v>
       </c>
       <c r="J84" t="n">
-        <v>1.802</v>
+        <v>1.561</v>
       </c>
       <c r="K84" t="n">
-        <v>85462.333</v>
+        <v>103298.333</v>
       </c>
       <c r="L84" t="n">
-        <v>1.259</v>
+        <v>1.522</v>
       </c>
       <c r="M84" t="s">
         <v>463</v>
@@ -5962,7 +5951,7 @@
         <v>470</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C85" t="s">
         <v>471</v>
@@ -5972,25 +5961,25 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G85" t="n">
-        <v>6551810</v>
+        <v>6816347</v>
       </c>
       <c r="H85" t="n">
-        <v>19.794</v>
+        <v>20.593</v>
       </c>
       <c r="I85" t="n">
-        <v>305118</v>
+        <v>264537</v>
       </c>
       <c r="J85" t="n">
-        <v>0.922</v>
+        <v>0.799</v>
       </c>
       <c r="K85" t="n">
-        <v>252027.333</v>
+        <v>263392.333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.761</v>
+        <v>0.796</v>
       </c>
       <c r="M85" t="s">
         <v>472</v>
@@ -6010,7 +5999,7 @@
         <v>476</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C86" t="s">
         <v>477</v>
@@ -6020,25 +6009,25 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G86" t="n">
-        <v>498015</v>
+        <v>526054</v>
       </c>
       <c r="H86" t="n">
-        <v>1.505</v>
+        <v>1.589</v>
       </c>
       <c r="I86" t="n">
-        <v>21420</v>
+        <v>23835</v>
       </c>
       <c r="J86" t="n">
-        <v>0.065</v>
+        <v>0.072</v>
       </c>
       <c r="K86" t="n">
-        <v>19322</v>
+        <v>22180.333</v>
       </c>
       <c r="L86" t="n">
-        <v>0.058</v>
+        <v>0.067</v>
       </c>
       <c r="M86" t="s">
         <v>479</v>
@@ -6058,7 +6047,7 @@
         <v>483</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C87" t="s">
         <v>484</v>
@@ -6068,25 +6057,25 @@
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87" t="n">
-        <v>20554</v>
+        <v>21164</v>
       </c>
       <c r="H87" t="n">
-        <v>5.917</v>
+        <v>6.093</v>
       </c>
       <c r="I87" t="n">
-        <v>807</v>
+        <v>610</v>
       </c>
       <c r="J87" t="n">
-        <v>0.232</v>
+        <v>0.176</v>
       </c>
       <c r="K87" t="n">
-        <v>804.667</v>
+        <v>716</v>
       </c>
       <c r="L87" t="n">
-        <v>0.231</v>
+        <v>0.206</v>
       </c>
       <c r="M87" t="s">
         <v>101</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -50,6 +50,12 @@
     <t xml:space="preserve">3-day rolling mean daily change per thousand</t>
   </si>
   <si>
+    <t xml:space="preserve">7-day rolling mean daily change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-day rolling mean daily change per thousand</t>
+  </si>
+  <si>
     <t xml:space="preserve">General source label</t>
   </si>
   <si>
@@ -83,7 +89,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-1-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-4-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -100,7 +106,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141230/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171204/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -124,7 +130,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141232/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504191152/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -166,7 +172,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-2918-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-4-maya-vyzdoroveli-i-vypisany-3259-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -220,7 +226,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141236/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171421/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -240,7 +246,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141238/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504191158/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -316,7 +322,7 @@
     <t xml:space="preserve">Croatia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141652/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171429/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -367,13 +373,13 @@
     <t xml:space="preserve">Denmark - People tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-30042020-2h7d</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-04052020-hu28</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative total begins from 13 Jan</t>
+    <t xml:space="preserve">Cumulative total begins from 27 Jan</t>
   </si>
   <si>
     <t xml:space="preserve">Danish Health Authority</t>
@@ -391,7 +397,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-02052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-03052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -417,7 +423,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 10:58am local time on 2020-05-01.</t>
+    <t xml:space="preserve">updated at 9:22pm local time on 2020-05-03.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -448,7 +454,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_April-30_-ENG-V3.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release_May-4_-ENG-v2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -561,7 +567,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200502/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200504/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -678,7 +684,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200430160018/http://irangov.ir/detail/338393</t>
+    <t xml:space="preserve">http://irangov.ir/detail/338630</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -780,7 +786,7 @@
     <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy. Daily changes in the number of people tested are included in parentheses. For the 3rd April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
 This includes two cases where the cumulative number of people tested falls: (1) 19/03 and (2) 25/03. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote.
 It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
-Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
+Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - tests performed</t>
@@ -814,7 +820,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1256225780822093824</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1256977670937739264</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -849,7 +855,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141813/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171543/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -862,7 +868,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200502161051/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171547/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -880,7 +886,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141827/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171558/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -941,7 +947,7 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
-    <t xml:space="preserve">This figure is taken from the live dashboard and should be updated using the PDF Situation Report once it is available</t>
+    <t xml:space="preserve">This figure is taken from the live dashboard (updated at 7am local time) and should be updated using the PDF Situation Report once it is available</t>
   </si>
   <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
@@ -974,10 +980,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200501_1150.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 1 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200504_1052_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 4 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1007,7 +1013,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141847/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171634/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1024,7 +1030,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.04.30-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.04-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1046,7 +1052,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141854/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171652/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1103,7 +1109,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143615-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-42-534-comunicado-n-85</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143693-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-47-372-en-el-peru-comunicado-n-87</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1138,7 +1144,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.03.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.04.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1177,7 +1183,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141907/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171707/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1209,7 +1215,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14373</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14379</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1226,7 +1232,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1255954649879851009</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1257005201896230913</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1299,7 +1305,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141916/https://www.korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171728/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1364,7 +1370,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367070&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367074&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1381,13 +1387,10 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.abc.es/espana/abci-sanchez-somos-quinto-pais-mundo-numero-test-realizados-202005021736_video.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press conference by Prime Minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure given directly by the Prime Minister in a press conference on 2 May 2020</t>
+    <t xml:space="preserve">https://twitter.com/sanidadgob/status/1256993737340747782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1396,12 +1399,12 @@
     <t xml:space="preserve">https://www.mscbs.gob.es/gabinete/notasPrensa.do</t>
   </si>
   <si>
-    <t xml:space="preserve">Official data covering the whole of Spain has only been published sporadically to date.
-We include two estimates. The first comes from a Ministry of Health press release, quoting Salvador Illa, Minister of Health: "From the beginning of the crisis and until April 13, the total number of PCR carried out in Spain is 930,230." The press release is [here](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=detalle&amp;id=4864).
-The second is another Ministry of Health press release released on 27 April and relating to testing conducted up to 23 April. It provides a breakdown across Autonomous Communities (regions), with a total for Spain of 1,035,522 PCR tests. The same release provides a figure of 310,038 antibody tests conducted nationwide. These are different to the PCR tests, as we discuss [here](https://ourworldindata.org/covid-testing#different-types-of-tests-for-covid-19). Our database aims to not include antibody tests. So in order to provide the data that is most comparable to the other countries in our database, we include only the PCR tests count for this observation.
-No other details about the figures are provided in the press release.
-One aspect of the most recent Ministry of Health release that is not totally clear is whether the figures provided for each Autonomous Community relate to the 23 April. Comparing the regional breakdowns provided in the Ministry of Health release to those collected from official sources by CIVIO (as of 28 April) suggests that the figure of 203,892 provided for Madrid in the Ministry of Health update –ostensibly dating to the 23 April – may date back to 14 April.
-[CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions). We do not report these figures because their data are not complete: For some autonomous communities, figures are available only irregular intervals. The figures they provide are broadly in-line with those of the 27 April Ministry of Health release, although with somewhat lower figures for some Autonomous Communities. This may be due to the Ministry of Health having access to more recent estimates for these Autonomous Communities.</t>
+    <t xml:space="preserve">Official data covering the whole of Spain was only published sporadically until the end of April 2020.
+The first estimate in our time series comes from a Ministry of Health press release, quoting Salvador Illa, Minister of Health: "From the beginning of the crisis and until April 13, the total number of PCR carried out in Spain is 930,230." The press release is [here](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=detalle&amp;id=4864).
+The second is another Ministry of Health press release published on 27 April and relating to testing conducted up to 23 April. It provides a breakdown across Autonomous Communities (regions), with a total for Spain of 1,035,522 PCR tests. The same release provides a figure of 310,038 antibody tests conducted nationwide. These are different to the PCR tests, as we discuss [here](https://ourworldindata.org/covid-testing#different-types-of-tests-for-covid-19). Our database aims to not include antibody tests. So in order to provide the data that is most comparable to the other countries in our database, we include only the PCR tests count for this observation.
+One aspect of the 27 April press release that is not totally clear is whether the figures provided for each Autonomous Community relate to the 23 April. Comparing the regional breakdowns provided in the Ministry of Health release to those collected from official sources by CIVIO (as of 28 April) suggests that the figure of 203,892 provided for Madrid in the Ministry of Health update—ostensibly dating to the 23 April—may date back to 14 April.
+Further data points are collected from the [Ministry of Health's press releases](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=verHistorico) or [its Twitter account](https://twitter.com/sanidadgob).
+[CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions). We do not report these figures because their data are not complete: For some autonomous communities, figures are available only irregular intervals. The figures they provide are broadly in-line with those of the Ministry of Health releases, although with somewhat lower figures for some Autonomous Communities. This may be due to the Ministry of Health having access to more recent estimates for these Autonomous Communities.</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden - people tested</t>
@@ -1441,7 +1444,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/aAUzPjvwik0ZcghByRkokA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/j67ZbD8CoBNDk4Sv7Qt07A?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1461,7 +1464,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503141951/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171807/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1502,7 +1505,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503142006/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504191503/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1523,7 +1526,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1256338138646994944</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257044476373151747</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1543,7 +1546,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503142012/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504171821/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1562,7 +1565,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503142018/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504191508/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1585,7 +1588,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200503142022/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200504191509/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1653,7 +1656,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-13</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-14</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1686,7 +1689,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1256124142803353600</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257116645996322816</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2083,19 +2086,25 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
@@ -2111,107 +2120,115 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
       </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>588868</v>
+        <v>650214</v>
       </c>
       <c r="H3" t="n">
-        <v>23.093</v>
+        <v>25.499</v>
       </c>
       <c r="I3" t="n">
-        <v>25227</v>
+        <v>17107</v>
       </c>
       <c r="J3" t="n">
-        <v>0.989</v>
+        <v>0.671</v>
       </c>
       <c r="K3" t="n">
-        <v>19396.333</v>
+        <v>20448.667</v>
       </c>
       <c r="L3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
+        <v>0.802</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19021.571</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.746</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="n">
-        <v>274355</v>
+        <v>279071</v>
       </c>
       <c r="H4" t="n">
-        <v>30.462</v>
+        <v>30.986</v>
       </c>
       <c r="I4" t="n">
-        <v>4736</v>
+        <v>4716</v>
       </c>
       <c r="J4" t="n">
-        <v>0.526</v>
+        <v>0.524</v>
       </c>
       <c r="K4" t="n">
-        <v>5985.333</v>
+        <v>4997.333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
+        <v>0.555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6647.714</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.738</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -2219,47 +2236,53 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>143030</v>
+        <v>149586</v>
       </c>
       <c r="H5" t="n">
-        <v>84.057</v>
+        <v>87.91</v>
       </c>
       <c r="I5" t="n">
-        <v>4752</v>
+        <v>5431</v>
       </c>
       <c r="J5" t="n">
-        <v>2.793</v>
+        <v>3.192</v>
       </c>
       <c r="K5" t="n">
-        <v>4445.333</v>
+        <v>5168</v>
       </c>
       <c r="L5" t="n">
-        <v>2.613</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
+        <v>3.037</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4541.286</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.669</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
@@ -2267,47 +2290,53 @@
       <c r="P5" t="s">
         <v>40</v>
       </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G6" t="n">
-        <v>70239</v>
+        <v>87698</v>
       </c>
       <c r="H6" t="n">
-        <v>0.426</v>
+        <v>0.533</v>
       </c>
       <c r="I6" t="n">
-        <v>5573</v>
+        <v>6244</v>
       </c>
       <c r="J6" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="K6" t="n">
-        <v>5168.667</v>
+        <v>5819.667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
+        <v>0.035</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5343</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.032</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
@@ -2315,87 +2344,95 @@
       <c r="P6" t="s">
         <v>46</v>
       </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>186262</v>
+        <v>211369</v>
       </c>
       <c r="H7" t="n">
-        <v>19.712</v>
+        <v>22.369</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
+      <c r="M7"/>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" t="n">
-        <v>347936</v>
+        <v>361573</v>
       </c>
       <c r="H8" t="n">
-        <v>30.021</v>
+        <v>31.198</v>
       </c>
       <c r="I8" t="n">
-        <v>21165</v>
+        <v>14476</v>
       </c>
       <c r="J8" t="n">
-        <v>1.826</v>
+        <v>1.249</v>
       </c>
       <c r="K8" t="n">
-        <v>20849</v>
+        <v>19117.667</v>
       </c>
       <c r="L8" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
+        <v>1.649</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17333.714</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.496</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -2403,231 +2440,255 @@
       <c r="P8" t="s">
         <v>57</v>
       </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>7556</v>
+        <v>7680</v>
       </c>
       <c r="H9" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="I9" t="n">
-        <v>943</v>
-      </c>
+        <v>0.658</v>
+      </c>
+      <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="K9" t="n">
-        <v>382.333</v>
-      </c>
+        <v>0.011</v>
+      </c>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>61</v>
+        <v>0.032</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" t="n">
+        <v>0.023</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
       </c>
+      <c r="Q9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>48618</v>
+        <v>49145</v>
       </c>
       <c r="H10" t="n">
-        <v>6.997</v>
+        <v>7.073</v>
       </c>
       <c r="I10" t="n">
-        <v>982</v>
+        <v>527</v>
       </c>
       <c r="J10" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s">
-        <v>68</v>
-      </c>
+        <v>0.076</v>
+      </c>
+      <c r="K10" t="n">
+        <v>878.333</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="n">
-        <v>862080</v>
+        <v>919368</v>
       </c>
       <c r="H11" t="n">
-        <v>22.841</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
+        <v>24.359</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25878</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.686</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>73</v>
-      </c>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11" t="s">
         <v>74</v>
       </c>
       <c r="P11" t="s">
         <v>75</v>
       </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>199400</v>
+        <v>206218</v>
       </c>
       <c r="H12" t="n">
-        <v>10.431</v>
+        <v>10.788</v>
       </c>
       <c r="I12" t="n">
-        <v>9967</v>
+        <v>6818</v>
       </c>
       <c r="J12" t="n">
-        <v>0.521</v>
+        <v>0.357</v>
       </c>
       <c r="K12" t="n">
-        <v>8927</v>
+        <v>8567</v>
       </c>
       <c r="L12" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>80</v>
+        <v>0.448</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7177.571</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.375</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>114602</v>
+        <v>118801</v>
       </c>
       <c r="H13" t="n">
-        <v>2.252</v>
+        <v>2.335</v>
       </c>
       <c r="I13" t="n">
-        <v>5652</v>
+        <v>4199</v>
       </c>
       <c r="J13" t="n">
-        <v>0.111</v>
+        <v>0.083</v>
       </c>
       <c r="K13" t="n">
-        <v>4816.333</v>
+        <v>4714.667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" t="s">
-        <v>85</v>
+        <v>0.093</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4527.857</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.089</v>
       </c>
       <c r="O13" t="s">
         <v>86</v>
@@ -2635,375 +2696,415 @@
       <c r="P13" t="s">
         <v>87</v>
       </c>
+      <c r="Q13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
-        <v>9593</v>
+        <v>9713</v>
       </c>
       <c r="H14" t="n">
-        <v>1.883</v>
+        <v>1.907</v>
       </c>
       <c r="I14" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="J14" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="K14" t="n">
-        <v>122.333</v>
+        <v>126</v>
       </c>
       <c r="L14" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M14" t="n">
+        <v>120.143</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.024</v>
       </c>
-      <c r="M14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" t="s">
-        <v>91</v>
-      </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>38084</v>
+        <v>39040</v>
       </c>
       <c r="H15" t="n">
-        <v>9.277</v>
+        <v>9.51</v>
       </c>
       <c r="I15" t="n">
-        <v>527</v>
+        <v>956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.128</v>
+        <v>0.233</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" t="s">
-        <v>96</v>
-      </c>
+      <c r="M15"/>
+      <c r="N15"/>
       <c r="O15" t="s">
         <v>97</v>
       </c>
       <c r="P15" t="s">
         <v>98</v>
       </c>
+      <c r="Q15" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>51506</v>
+        <v>55542</v>
       </c>
       <c r="H16" t="n">
-        <v>4.547</v>
+        <v>4.904</v>
       </c>
       <c r="I16" t="n">
-        <v>2097</v>
+        <v>1997</v>
       </c>
       <c r="J16" t="n">
-        <v>0.185</v>
+        <v>0.176</v>
       </c>
       <c r="K16" t="n">
-        <v>2054</v>
+        <v>2044.333</v>
       </c>
       <c r="L16" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="M16" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" t="s">
-        <v>100</v>
+        <v>0.18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1984.429</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.175</v>
       </c>
       <c r="O16" t="s">
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" t="n">
-        <v>257678</v>
+        <v>261548</v>
       </c>
       <c r="H17" t="n">
-        <v>24.062</v>
+        <v>24.423</v>
       </c>
       <c r="I17" t="n">
-        <v>3862</v>
+        <v>3667</v>
       </c>
       <c r="J17" t="n">
-        <v>0.361</v>
+        <v>0.342</v>
       </c>
       <c r="K17" t="n">
-        <v>5098</v>
+        <v>3968</v>
       </c>
       <c r="L17" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" t="s">
-        <v>107</v>
+        <v>0.371</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6137.143</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.573</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>193165</v>
+        <v>244791</v>
       </c>
       <c r="H18" t="n">
-        <v>33.349</v>
+        <v>42.262</v>
       </c>
       <c r="I18" t="n">
-        <v>13103</v>
+        <v>10992</v>
       </c>
       <c r="J18" t="n">
-        <v>2.262</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" t="s">
-        <v>113</v>
-      </c>
-      <c r="N18" t="s">
-        <v>114</v>
-      </c>
+        <v>1.898</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12738.333</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>38924</v>
+        <v>62437</v>
       </c>
       <c r="H19" t="n">
-        <v>2.206</v>
+        <v>3.539</v>
       </c>
       <c r="I19" t="n">
-        <v>1863</v>
+        <v>23513</v>
       </c>
       <c r="J19" t="n">
-        <v>0.106</v>
+        <v>1.333</v>
       </c>
       <c r="K19" t="n">
-        <v>1746.667</v>
+        <v>9363.333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="M19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N19" t="s">
+        <v>0.531</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" t="s">
         <v>120</v>
       </c>
-      <c r="O19" t="s">
-        <v>62</v>
-      </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>25492</v>
+        <v>30387</v>
       </c>
       <c r="H20" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
+        <v>4.685</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1791</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.276</v>
+      </c>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" t="s">
-        <v>123</v>
-      </c>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" t="n">
-        <v>55206</v>
+        <v>55784</v>
       </c>
       <c r="H21" t="n">
-        <v>41.617</v>
+        <v>42.052</v>
       </c>
       <c r="I21" t="n">
-        <v>743</v>
+        <v>580</v>
       </c>
       <c r="J21" t="n">
-        <v>0.56</v>
+        <v>0.437</v>
       </c>
       <c r="K21" t="n">
-        <v>823.333</v>
+        <v>672.667</v>
       </c>
       <c r="L21" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M21" t="s">
-        <v>130</v>
-      </c>
-      <c r="N21" t="s">
-        <v>131</v>
+        <v>0.507</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1055.571</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.796</v>
       </c>
       <c r="O21" t="s">
         <v>132</v>
@@ -3011,118 +3112,118 @@
       <c r="P21" t="s">
         <v>133</v>
       </c>
+      <c r="Q21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>17842</v>
+        <v>24088</v>
       </c>
       <c r="H22" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1408</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1084.667</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="M22" t="s">
-        <v>136</v>
-      </c>
-      <c r="N22" t="s">
-        <v>137</v>
-      </c>
+        <v>0.21</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G23" t="n">
-        <v>101750</v>
+        <v>103445</v>
       </c>
       <c r="H23" t="n">
-        <v>18.364</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2153</v>
-      </c>
+        <v>18.67</v>
+      </c>
+      <c r="I23"/>
       <c r="J23" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2860</v>
-      </c>
+        <v>0.073</v>
+      </c>
+      <c r="K23"/>
       <c r="L23" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="M23" t="s">
+        <v>0.232</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="s">
         <v>142</v>
       </c>
-      <c r="N23" t="s">
-        <v>140</v>
-      </c>
-      <c r="O23" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" t="s">
-        <v>143</v>
+      <c r="Q23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -3137,34 +3238,36 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" t="s">
-        <v>146</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24" t="s">
         <v>148</v>
       </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" t="n">
         <v>8</v>
@@ -3179,31 +3282,33 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" t="s">
-        <v>152</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="s">
         <v>154</v>
-      </c>
-      <c r="O25" t="s">
-        <v>155</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
       </c>
+      <c r="Q25" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
@@ -3219,75 +3324,87 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" t="s">
-        <v>161</v>
-      </c>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26" t="s">
         <v>162</v>
       </c>
       <c r="P26" t="s">
         <v>163</v>
       </c>
+      <c r="Q26" t="s">
+        <v>164</v>
+      </c>
+      <c r="R26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>78207</v>
+        <v>80951</v>
       </c>
       <c r="H27" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="I27"/>
+        <v>7.767</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1619</v>
+      </c>
       <c r="J27" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="K27"/>
+        <v>0.155</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1233.333</v>
+      </c>
       <c r="L27" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="M27" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" t="s">
-        <v>168</v>
+        <v>0.118</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2122.429</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.204</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
@@ -3303,128 +3420,140 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" t="s">
-        <v>173</v>
-      </c>
-      <c r="N28" t="s">
-        <v>174</v>
-      </c>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F29" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>82010</v>
+        <v>83958</v>
       </c>
       <c r="H29" t="n">
-        <v>8.489</v>
+        <v>8.691</v>
       </c>
       <c r="I29" t="n">
-        <v>2459</v>
+        <v>1948</v>
       </c>
       <c r="J29" t="n">
-        <v>0.255</v>
+        <v>0.202</v>
       </c>
       <c r="K29" t="n">
-        <v>3019.667</v>
+        <v>2542.333</v>
       </c>
       <c r="L29" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="M29" t="s">
-        <v>178</v>
-      </c>
-      <c r="N29" t="s">
+        <v>0.263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2619</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="O29" t="s">
         <v>180</v>
-      </c>
-      <c r="O29" t="s">
-        <v>181</v>
       </c>
       <c r="P29" t="s">
         <v>182</v>
       </c>
+      <c r="Q29" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" t="n">
-        <v>50365</v>
+        <v>50436</v>
       </c>
       <c r="H30" t="n">
-        <v>147.59</v>
+        <v>147.798</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>1.184</v>
+        <v>0.208</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1.947</v>
-      </c>
-      <c r="M30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N30" t="s">
-        <v>184</v>
+        <v>1.311</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" t="n">
+        <v>1.717</v>
       </c>
       <c r="O30" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" t="s">
         <v>186</v>
       </c>
-      <c r="P30" t="s">
-        <v>187</v>
+      <c r="Q30" t="s">
+        <v>188</v>
+      </c>
+      <c r="R30" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F31" t="n">
         <v>24</v>
@@ -3443,34 +3572,36 @@
       </c>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" t="s">
-        <v>190</v>
-      </c>
-      <c r="N31" t="s">
-        <v>189</v>
-      </c>
+      <c r="M31"/>
+      <c r="N31"/>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43954</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F32" t="n">
         <v>40</v>
@@ -3493,123 +3624,141 @@
       <c r="L32" t="n">
         <v>0.052</v>
       </c>
-      <c r="M32" t="s">
-        <v>190</v>
-      </c>
-      <c r="N32" t="s">
-        <v>189</v>
+      <c r="M32" t="n">
+        <v>60163</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.044</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" t="n">
-        <v>83012</v>
+        <v>86061</v>
       </c>
       <c r="H33" t="n">
-        <v>0.303</v>
+        <v>0.315</v>
       </c>
       <c r="I33" t="n">
-        <v>3144</v>
+        <v>3049</v>
       </c>
       <c r="J33" t="n">
         <v>0.011</v>
       </c>
       <c r="K33" t="n">
-        <v>3553.667</v>
+        <v>3174.333</v>
       </c>
       <c r="L33" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="M33" t="s">
-        <v>196</v>
-      </c>
-      <c r="N33" t="s">
-        <v>197</v>
+        <v>0.011</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3807.429</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.014</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>463295</v>
+        <v>508288</v>
       </c>
       <c r="H34" t="n">
-        <v>5.516</v>
+        <v>6.052</v>
       </c>
       <c r="I34" t="n">
-        <v>9909</v>
+        <v>12015</v>
       </c>
       <c r="J34" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34" t="s">
-        <v>201</v>
-      </c>
-      <c r="N34" t="s">
-        <v>202</v>
-      </c>
+        <v>0.143</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11088.333</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="O34" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="n">
@@ -3625,226 +3774,242 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" t="s">
-        <v>172</v>
-      </c>
-      <c r="N35" t="s">
-        <v>206</v>
-      </c>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="P35" t="s">
         <v>208</v>
       </c>
+      <c r="Q35" t="s">
+        <v>209</v>
+      </c>
+      <c r="R35" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" t="n">
-        <v>392660</v>
+        <v>403408</v>
       </c>
       <c r="H36" t="n">
-        <v>45.365</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6738</v>
-      </c>
+        <v>46.607</v>
+      </c>
+      <c r="I36"/>
       <c r="J36" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8899.667</v>
-      </c>
+        <v>0.242</v>
+      </c>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="M36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" t="s">
-        <v>213</v>
+        <v>0.673</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" t="n">
+        <v>0.974</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>1429864</v>
+        <v>1479910</v>
       </c>
       <c r="H37" t="n">
-        <v>23.649</v>
+        <v>24.477</v>
       </c>
       <c r="I37" t="n">
-        <v>31231</v>
+        <v>22999</v>
       </c>
       <c r="J37" t="n">
-        <v>0.517</v>
+        <v>0.38</v>
       </c>
       <c r="K37" t="n">
-        <v>38801.333</v>
+        <v>27092.333</v>
       </c>
       <c r="L37" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="M37" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" t="s">
-        <v>220</v>
+        <v>0.448</v>
+      </c>
+      <c r="M37" t="n">
+        <v>34656.143</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.573</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="n">
+        <v>71</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2191403</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36.244</v>
+      </c>
+      <c r="I38" t="n">
+        <v>37631</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="K38" t="n">
+        <v>45992.667</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M38" t="n">
+        <v>57391.571</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="O38" t="s">
+        <v>221</v>
+      </c>
+      <c r="P38" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" t="s">
-        <v>217</v>
-      </c>
-      <c r="E38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F38" t="n">
-        <v>69</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2108837</v>
-      </c>
-      <c r="H38" t="n">
-        <v>34.879</v>
-      </c>
-      <c r="I38" t="n">
-        <v>55412</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="K38" t="n">
-        <v>66025.333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.092</v>
-      </c>
-      <c r="M38" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" t="s">
-        <v>220</v>
-      </c>
-      <c r="O38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" t="s">
-        <v>223</v>
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F39" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
-        <v>183251</v>
+        <v>184586</v>
       </c>
       <c r="H39" t="n">
-        <v>1.449</v>
+        <v>1.459</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" t="s">
-        <v>226</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39" t="s">
         <v>228</v>
       </c>
-      <c r="O39" t="s">
-        <v>74</v>
-      </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F40" t="n">
         <v>73</v>
@@ -3867,327 +4032,359 @@
       <c r="L40" t="n">
         <v>0.058</v>
       </c>
-      <c r="M40" t="s">
-        <v>226</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="n">
+        <v>6755.286</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O40" t="s">
         <v>228</v>
       </c>
-      <c r="O40" t="s">
-        <v>20</v>
-      </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G41" t="n">
-        <v>268534</v>
+        <v>306861</v>
       </c>
       <c r="H41" t="n">
-        <v>14.301</v>
+        <v>16.343</v>
       </c>
       <c r="I41" t="n">
-        <v>19007</v>
+        <v>10725</v>
       </c>
       <c r="J41" t="n">
-        <v>1.012</v>
+        <v>0.571</v>
       </c>
       <c r="K41" t="n">
-        <v>17419.333</v>
+        <v>12775.667</v>
       </c>
       <c r="L41" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="M41" t="s">
-        <v>236</v>
-      </c>
-      <c r="N41" t="s">
-        <v>235</v>
+        <v>0.68</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14471.571</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.771</v>
       </c>
       <c r="O41" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="P41" t="s">
         <v>237</v>
       </c>
+      <c r="Q41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="n">
+        <v>23780</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="I42" t="n">
+        <v>883</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1170.667</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42" t="s">
         <v>38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>21702</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1434</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1458.333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M42" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" t="s">
-        <v>241</v>
-      </c>
-      <c r="O42" t="s">
-        <v>242</v>
       </c>
       <c r="P42" t="s">
         <v>243</v>
       </c>
+      <c r="Q42" t="s">
+        <v>244</v>
+      </c>
+      <c r="R42" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" t="n">
+        <v>66</v>
+      </c>
+      <c r="G43" t="n">
+        <v>65464</v>
+      </c>
+      <c r="H43" t="n">
+        <v>34.707</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1219</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1448</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2326.143</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="O43" t="s">
+        <v>248</v>
+      </c>
+      <c r="P43" t="s">
         <v>247</v>
       </c>
-      <c r="F43" t="n">
-        <v>65</v>
-      </c>
-      <c r="G43" t="n">
-        <v>64245</v>
-      </c>
-      <c r="H43" t="n">
-        <v>34.061</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1143</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2119.667</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.124</v>
-      </c>
-      <c r="M43" t="s">
-        <v>246</v>
-      </c>
-      <c r="N43" t="s">
-        <v>245</v>
-      </c>
-      <c r="O43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" t="s">
-        <v>248</v>
+      <c r="Q43" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>141678</v>
+        <v>144029</v>
       </c>
       <c r="H44" t="n">
-        <v>52.044</v>
+        <v>52.907</v>
       </c>
       <c r="I44" t="n">
-        <v>3408</v>
+        <v>2351</v>
       </c>
       <c r="J44" t="n">
-        <v>1.252</v>
+        <v>0.864</v>
       </c>
       <c r="K44" t="n">
-        <v>5374.333</v>
+        <v>3753.667</v>
       </c>
       <c r="L44" t="n">
-        <v>1.974</v>
-      </c>
-      <c r="M44" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" t="s">
-        <v>251</v>
+        <v>1.379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5322</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.955</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n">
-        <v>47460</v>
+        <v>48339</v>
       </c>
       <c r="H45" t="n">
-        <v>75.818</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2565</v>
-      </c>
+        <v>77.222</v>
+      </c>
+      <c r="I45"/>
       <c r="J45" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1900.667</v>
-      </c>
+        <v>0.353</v>
+      </c>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="M45" t="s">
-        <v>255</v>
-      </c>
-      <c r="N45" t="s">
-        <v>256</v>
+        <v>1.834</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45" t="n">
+        <v>2.108</v>
       </c>
       <c r="O45" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G46" t="n">
-        <v>195833</v>
+        <v>205598</v>
       </c>
       <c r="H46" t="n">
-        <v>6.051</v>
+        <v>6.352</v>
       </c>
       <c r="I46" t="n">
-        <v>11620</v>
+        <v>9765</v>
       </c>
       <c r="J46" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46" t="s">
-        <v>260</v>
-      </c>
-      <c r="N46" t="s">
-        <v>261</v>
-      </c>
+        <v>0.302</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12271.333</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
       <c r="O46" t="s">
         <v>262</v>
       </c>
       <c r="P46" t="s">
         <v>263</v>
       </c>
+      <c r="Q46" t="s">
+        <v>264</v>
+      </c>
+      <c r="R46" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G47" t="n">
-        <v>79255</v>
+        <v>83175</v>
       </c>
       <c r="H47" t="n">
-        <v>0.615</v>
+        <v>0.645</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="n">
@@ -4195,36 +4392,40 @@
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M47" t="s">
-        <v>266</v>
-      </c>
-      <c r="N47" t="s">
-        <v>265</v>
+        <v>0.006</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47" t="n">
+        <v>0.015</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="P47" t="s">
         <v>267</v>
       </c>
+      <c r="Q47" t="s">
+        <v>64</v>
+      </c>
+      <c r="R47" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F48" t="n">
         <v>56</v>
@@ -4247,601 +4448,649 @@
       <c r="L48" t="n">
         <v>0.052</v>
       </c>
-      <c r="M48" t="s">
-        <v>270</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" t="n">
+        <v>1867.571</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O48" t="s">
         <v>272</v>
       </c>
-      <c r="O48" t="s">
-        <v>62</v>
-      </c>
       <c r="P48" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>64</v>
+      </c>
+      <c r="R48" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n">
-        <v>8281</v>
+        <v>8794</v>
       </c>
       <c r="H49" t="n">
-        <v>0.152</v>
+        <v>0.162</v>
       </c>
       <c r="I49" t="n">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="J49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K49" t="n">
+        <v>184.667</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M49" t="n">
+        <v>225.571</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.004</v>
       </c>
-      <c r="K49" t="n">
-        <v>224.333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M49" t="s">
-        <v>276</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>278</v>
       </c>
-      <c r="O49" t="s">
-        <v>45</v>
-      </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F50" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" t="n">
-        <v>13098</v>
+        <v>13424</v>
       </c>
       <c r="H50" t="n">
-        <v>0.45</v>
+        <v>0.461</v>
       </c>
       <c r="I50" t="n">
-        <v>521</v>
+        <v>326</v>
       </c>
       <c r="J50" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="K50" t="n">
-        <v>524.667</v>
+        <v>471</v>
       </c>
       <c r="L50" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="M50" t="s">
-        <v>282</v>
-      </c>
-      <c r="N50" t="s">
+        <v>0.016</v>
+      </c>
+      <c r="M50" t="n">
+        <v>499</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O50" t="s">
         <v>284</v>
       </c>
-      <c r="O50" t="s">
-        <v>74</v>
-      </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43951</v>
+        <v>43954</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
-        <v>225899</v>
+        <v>235909</v>
       </c>
       <c r="H51" t="n">
-        <v>13.184</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4057</v>
-      </c>
+        <v>13.768</v>
+      </c>
+      <c r="I51"/>
       <c r="J51" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4519.667</v>
-      </c>
+        <v>0.079</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="M51" t="s">
-        <v>289</v>
-      </c>
-      <c r="N51" t="s">
-        <v>290</v>
+        <v>0.172</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51" t="n">
+        <v>0.218</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R51" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G52" t="n">
-        <v>150223</v>
+        <v>152696</v>
       </c>
       <c r="H52" t="n">
-        <v>31.152</v>
+        <v>31.665</v>
       </c>
       <c r="I52" t="n">
-        <v>4634</v>
+        <v>2473</v>
       </c>
       <c r="J52" t="n">
-        <v>0.961</v>
+        <v>0.513</v>
       </c>
       <c r="K52" t="n">
-        <v>5217.667</v>
+        <v>4266</v>
       </c>
       <c r="L52" t="n">
-        <v>1.082</v>
-      </c>
-      <c r="M52" t="s">
-        <v>294</v>
-      </c>
-      <c r="N52" t="s">
-        <v>293</v>
+        <v>0.885</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4110.857</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.853</v>
       </c>
       <c r="O52" t="s">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="P52" t="s">
         <v>295</v>
       </c>
+      <c r="Q52" t="s">
+        <v>22</v>
+      </c>
+      <c r="R52" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C53" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>16588</v>
+        <v>18536</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
+        <v>0.09</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1948</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.009</v>
+      </c>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" t="s">
-        <v>298</v>
-      </c>
-      <c r="N53" t="s">
-        <v>299</v>
-      </c>
+      <c r="M53"/>
+      <c r="N53"/>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="P53" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>47</v>
+      </c>
+      <c r="R53" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43951</v>
+        <v>43955</v>
       </c>
       <c r="C54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>172586</v>
+        <v>182285</v>
       </c>
       <c r="H54" t="n">
-        <v>31.835</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3462</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2756.667</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="M54" t="s">
-        <v>303</v>
-      </c>
-      <c r="N54" t="s">
-        <v>304</v>
-      </c>
+        <v>33.624</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
       <c r="O54" t="s">
         <v>305</v>
       </c>
       <c r="P54" t="s">
         <v>306</v>
       </c>
+      <c r="Q54" t="s">
+        <v>307</v>
+      </c>
+      <c r="R54" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G55" t="n">
-        <v>203025</v>
+        <v>212511</v>
       </c>
       <c r="H55" t="n">
-        <v>0.919</v>
+        <v>0.962</v>
       </c>
       <c r="I55" t="n">
-        <v>9166</v>
+        <v>9486</v>
       </c>
       <c r="J55" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="K55" t="n">
-        <v>9621.667</v>
+        <v>10126.667</v>
       </c>
       <c r="L55" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="M55" t="s">
-        <v>309</v>
-      </c>
-      <c r="N55" t="s">
-        <v>310</v>
+        <v>0.046</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8822.143</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
       </c>
       <c r="O55" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="P55" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>22</v>
+      </c>
+      <c r="R55" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F56" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G56" t="n">
-        <v>33354</v>
+        <v>34459</v>
       </c>
       <c r="H56" t="n">
-        <v>7.73</v>
+        <v>7.986</v>
       </c>
       <c r="I56" t="n">
-        <v>1459</v>
+        <v>1105</v>
       </c>
       <c r="J56" t="n">
-        <v>0.338</v>
+        <v>0.256</v>
       </c>
       <c r="K56" t="n">
-        <v>1172.333</v>
+        <v>1236.667</v>
       </c>
       <c r="L56" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="M56" t="s">
-        <v>36</v>
-      </c>
-      <c r="N56" t="s">
-        <v>315</v>
+        <v>0.287</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1116.714</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.259</v>
       </c>
       <c r="O56" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="P56" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>105</v>
+      </c>
+      <c r="R56" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E57" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F57" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G57" t="n">
-        <v>10327</v>
+        <v>11091</v>
       </c>
       <c r="H57" t="n">
-        <v>1.448</v>
+        <v>1.555</v>
       </c>
       <c r="I57" t="n">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="J57" t="n">
-        <v>0.062</v>
+        <v>0.048</v>
       </c>
       <c r="K57" t="n">
-        <v>483.667</v>
+        <v>401</v>
       </c>
       <c r="L57" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="M57" t="s">
-        <v>321</v>
-      </c>
-      <c r="N57" t="s">
-        <v>322</v>
+        <v>0.056</v>
+      </c>
+      <c r="M57" t="n">
+        <v>454.429</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.064</v>
       </c>
       <c r="O57" t="s">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="P57" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G58" t="n">
-        <v>355604</v>
+        <v>385492</v>
       </c>
       <c r="H58" t="n">
-        <v>10.785</v>
-      </c>
-      <c r="I58"/>
-      <c r="J58"/>
+        <v>11.692</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10396</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.315</v>
+      </c>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" t="s">
-        <v>326</v>
-      </c>
-      <c r="N58" t="s">
-        <v>327</v>
-      </c>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="O58" t="s">
         <v>328</v>
       </c>
       <c r="P58" t="s">
         <v>329</v>
       </c>
+      <c r="Q58" t="s">
+        <v>330</v>
+      </c>
+      <c r="R58" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>103197</v>
+        <v>113333</v>
       </c>
       <c r="H59" t="n">
-        <v>0.942</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5848</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4776</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="M59" t="s">
-        <v>172</v>
-      </c>
-      <c r="N59" t="s">
-        <v>331</v>
-      </c>
+        <v>1.034</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="P59" t="s">
         <v>333</v>
       </c>
+      <c r="Q59" t="s">
+        <v>76</v>
+      </c>
+      <c r="R59" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C60" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D60" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E60" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F60" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G60" t="n">
-        <v>375948</v>
+        <v>383804</v>
       </c>
       <c r="H60" t="n">
-        <v>9.933</v>
+        <v>10.141</v>
       </c>
       <c r="I60" t="n">
-        <v>9935</v>
+        <v>7856</v>
       </c>
       <c r="J60" t="n">
-        <v>0.263</v>
+        <v>0.208</v>
       </c>
       <c r="K60" t="n">
-        <v>12640.333</v>
+        <v>9725.333</v>
       </c>
       <c r="L60" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="M60" t="s">
-        <v>338</v>
-      </c>
-      <c r="N60" t="s">
-        <v>339</v>
+        <v>0.257</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12277.857</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.325</v>
       </c>
       <c r="O60" t="s">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="P60" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>47</v>
+      </c>
+      <c r="R60" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
@@ -4865,255 +5114,285 @@
       <c r="L61" t="n">
         <v>1.512</v>
       </c>
-      <c r="M61" t="s">
-        <v>343</v>
-      </c>
-      <c r="N61" t="s">
-        <v>342</v>
+      <c r="M61" t="n">
+        <v>13542.143</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.328</v>
       </c>
       <c r="O61" t="s">
+        <v>345</v>
+      </c>
+      <c r="P61" t="s">
         <v>344</v>
       </c>
-      <c r="P61" t="s">
-        <v>345</v>
+      <c r="Q61" t="s">
+        <v>346</v>
+      </c>
+      <c r="R61" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C62" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" t="n">
-        <v>104435</v>
+        <v>106795</v>
       </c>
       <c r="H62" t="n">
-        <v>36.249</v>
+        <v>37.068</v>
       </c>
       <c r="I62" t="n">
-        <v>2707</v>
+        <v>2360</v>
       </c>
       <c r="J62" t="n">
-        <v>0.94</v>
+        <v>0.819</v>
       </c>
       <c r="K62" t="n">
-        <v>3311.667</v>
+        <v>3023</v>
       </c>
       <c r="L62" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M62" t="s">
-        <v>348</v>
-      </c>
-      <c r="N62" t="s">
-        <v>349</v>
+        <v>1.049</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3012.286</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.046</v>
       </c>
       <c r="O62" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="P62" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>76</v>
+      </c>
+      <c r="R62" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E63" t="s">
+        <v>356</v>
+      </c>
+      <c r="F63" t="n">
+        <v>54</v>
+      </c>
+      <c r="G63" t="n">
+        <v>199068</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10.348</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3560</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5126.667</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7890.571</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O63" t="s">
+        <v>355</v>
+      </c>
+      <c r="P63" t="s">
         <v>354</v>
       </c>
-      <c r="F63" t="n">
-        <v>52</v>
-      </c>
-      <c r="G63" t="n">
-        <v>190540</v>
-      </c>
-      <c r="H63" t="n">
-        <v>9.905</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6852</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7849</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="M63" t="s">
-        <v>353</v>
-      </c>
-      <c r="N63" t="s">
-        <v>352</v>
-      </c>
-      <c r="O63" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" t="s">
-        <v>355</v>
+      <c r="Q63" t="s">
+        <v>22</v>
+      </c>
+      <c r="R63" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G64" t="n">
-        <v>4099999</v>
+        <v>4303243</v>
       </c>
       <c r="H64" t="n">
-        <v>28.095</v>
+        <v>29.488</v>
       </c>
       <c r="I64" t="n">
-        <v>154481</v>
+        <v>203244</v>
       </c>
       <c r="J64" t="n">
-        <v>1.059</v>
+        <v>1.393</v>
       </c>
       <c r="K64" t="n">
-        <v>200563.667</v>
+        <v>193145.333</v>
       </c>
       <c r="L64" t="n">
-        <v>1.374</v>
-      </c>
-      <c r="M64" t="s">
-        <v>358</v>
-      </c>
-      <c r="N64" t="s">
-        <v>359</v>
+        <v>1.324</v>
+      </c>
+      <c r="M64" t="n">
+        <v>183401.286</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.257</v>
       </c>
       <c r="O64" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="P64" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R64" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43951</v>
+        <v>43954</v>
       </c>
       <c r="C65" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D65" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G65" t="n">
-        <v>25145</v>
+        <v>28754</v>
       </c>
       <c r="H65" t="n">
-        <v>1.941</v>
+        <v>2.22</v>
       </c>
       <c r="I65" t="n">
-        <v>1140</v>
+        <v>1047</v>
       </c>
       <c r="J65" t="n">
-        <v>0.088</v>
+        <v>0.081</v>
       </c>
       <c r="K65" t="n">
-        <v>1450</v>
+        <v>1203</v>
       </c>
       <c r="L65" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="M65" t="s">
-        <v>363</v>
-      </c>
-      <c r="N65" t="s">
-        <v>364</v>
+        <v>0.093</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1310.429</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.101</v>
       </c>
       <c r="O65" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="P65" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>47</v>
+      </c>
+      <c r="R65" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F66" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G66" t="n">
-        <v>13960</v>
+        <v>15577</v>
       </c>
       <c r="H66" t="n">
-        <v>0.834</v>
+        <v>0.93</v>
       </c>
       <c r="I66" t="n">
-        <v>1190</v>
+        <v>807</v>
       </c>
       <c r="J66" t="n">
-        <v>0.071</v>
+        <v>0.048</v>
       </c>
       <c r="K66" t="n">
-        <v>1084</v>
+        <v>935.667</v>
       </c>
       <c r="L66" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="M66" t="s">
-        <v>370</v>
-      </c>
-      <c r="N66" t="s">
-        <v>371</v>
+        <v>0.056</v>
+      </c>
+      <c r="M66" t="n">
+        <v>934.571</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.056</v>
       </c>
       <c r="O66" t="s">
         <v>372</v>
@@ -5121,69 +5400,81 @@
       <c r="P66" t="s">
         <v>373</v>
       </c>
+      <c r="Q66" t="s">
+        <v>374</v>
+      </c>
+      <c r="R66" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F67" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G67" t="n">
-        <v>96637</v>
+        <v>101911</v>
       </c>
       <c r="H67" t="n">
-        <v>14.202</v>
+        <v>14.977</v>
       </c>
       <c r="I67" t="n">
-        <v>5086</v>
+        <v>5274</v>
       </c>
       <c r="J67" t="n">
-        <v>0.747</v>
+        <v>0.775</v>
       </c>
       <c r="K67" t="n">
-        <v>5898.333</v>
+        <v>5422</v>
       </c>
       <c r="L67" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="M67" t="s">
-        <v>36</v>
-      </c>
-      <c r="N67" t="s">
-        <v>377</v>
+        <v>0.797</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5372.571</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.789</v>
       </c>
       <c r="O67" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="P67" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>76</v>
+      </c>
+      <c r="R67" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
@@ -5199,31 +5490,33 @@
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
-      <c r="M68" t="s">
-        <v>36</v>
-      </c>
-      <c r="N68" t="s">
-        <v>380</v>
-      </c>
+      <c r="M68"/>
+      <c r="N68"/>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="P68" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>76</v>
+      </c>
+      <c r="R68" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>43948</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="n">
@@ -5239,55 +5532,61 @@
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="M69" t="s">
-        <v>36</v>
-      </c>
-      <c r="N69" t="s">
-        <v>380</v>
-      </c>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="O69" t="s">
+        <v>38</v>
+      </c>
+      <c r="P69" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>385</v>
+      </c>
+      <c r="R69" t="s">
         <v>383</v>
-      </c>
-      <c r="P69" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C70" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D70" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" t="n">
-        <v>96220</v>
+        <v>97804</v>
       </c>
       <c r="H70" t="n">
-        <v>17.624</v>
-      </c>
-      <c r="I70"/>
+        <v>17.914</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1584</v>
+      </c>
       <c r="J70" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="K70"/>
+        <v>0.29</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2244</v>
+      </c>
       <c r="L70" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="M70" t="s">
-        <v>387</v>
-      </c>
-      <c r="N70" t="s">
-        <v>388</v>
+        <v>0.411</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3386.429</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.62</v>
       </c>
       <c r="O70" t="s">
         <v>389</v>
@@ -5295,169 +5594,191 @@
       <c r="P70" t="s">
         <v>390</v>
       </c>
+      <c r="Q70" t="s">
+        <v>391</v>
+      </c>
+      <c r="R70" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C71" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G71" t="n">
-        <v>55520</v>
+        <v>56136</v>
       </c>
       <c r="H71" t="n">
-        <v>26.706</v>
+        <v>27.002</v>
       </c>
       <c r="I71" t="n">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="J71" t="n">
-        <v>0.241</v>
+        <v>0.296</v>
       </c>
       <c r="K71" t="n">
-        <v>857.333</v>
+        <v>612</v>
       </c>
       <c r="L71" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="M71" t="s">
-        <v>394</v>
-      </c>
-      <c r="N71" t="s">
-        <v>395</v>
+        <v>0.294</v>
+      </c>
+      <c r="M71" t="n">
+        <v>932.714</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.449</v>
       </c>
       <c r="O71" t="s">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="P71" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>22</v>
+      </c>
+      <c r="R71" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C72" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F72" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G72" t="n">
-        <v>230686</v>
+        <v>245747</v>
       </c>
       <c r="H72" t="n">
-        <v>3.89</v>
+        <v>4.144</v>
       </c>
       <c r="I72" t="n">
-        <v>13164</v>
+        <v>15061</v>
       </c>
       <c r="J72" t="n">
-        <v>0.222</v>
+        <v>0.254</v>
       </c>
       <c r="K72" t="n">
-        <v>11186.333</v>
+        <v>12739</v>
       </c>
       <c r="L72" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="M72" t="s">
-        <v>399</v>
-      </c>
-      <c r="N72" t="s">
+        <v>0.215</v>
+      </c>
+      <c r="M72" t="n">
+        <v>11014.857</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="O72" t="s">
         <v>401</v>
       </c>
-      <c r="O72" t="s">
-        <v>74</v>
-      </c>
       <c r="P72" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>76</v>
+      </c>
+      <c r="R72" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>630973</v>
+        <v>633921</v>
       </c>
       <c r="H73" t="n">
-        <v>12.307</v>
+        <v>12.365</v>
       </c>
       <c r="I73" t="n">
-        <v>3411</v>
+        <v>2948</v>
       </c>
       <c r="J73" t="n">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="K73" t="n">
-        <v>3697.333</v>
+        <v>3617.333</v>
       </c>
       <c r="L73" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="M73" t="s">
-        <v>405</v>
-      </c>
-      <c r="N73" t="s">
-        <v>406</v>
+        <v>0.071</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4608.714</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.09</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="P73" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>64</v>
+      </c>
+      <c r="R73" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>43951</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
-      </c>
-      <c r="E74" t="s">
-        <v>411</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="E74"/>
       <c r="F74" t="n">
         <v>3</v>
       </c>
@@ -5471,31 +5792,33 @@
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="M74" t="s">
-        <v>412</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74" t="s">
         <v>413</v>
-      </c>
-      <c r="O74" t="s">
-        <v>20</v>
       </c>
       <c r="P74" t="s">
         <v>414</v>
       </c>
+      <c r="Q74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R74" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>43947</v>
       </c>
       <c r="C75" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
@@ -5511,597 +5834,669 @@
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="M75" t="s">
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75" t="s">
+        <v>418</v>
+      </c>
+      <c r="P75" t="s">
         <v>417</v>
       </c>
-      <c r="N75" t="s">
-        <v>416</v>
-      </c>
-      <c r="O75" t="s">
-        <v>74</v>
-      </c>
-      <c r="P75" t="s">
-        <v>418</v>
+      <c r="Q75" t="s">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43950</v>
+        <v>43954</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
         <v>97</v>
       </c>
       <c r="G76" t="n">
-        <v>264781</v>
+        <v>282742</v>
       </c>
       <c r="H76" t="n">
-        <v>30.594</v>
+        <v>32.669</v>
       </c>
       <c r="I76"/>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="M76" t="s">
-        <v>422</v>
-      </c>
-      <c r="N76" t="s">
-        <v>420</v>
+        <v>0.29</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76" t="n">
+        <v>0.444</v>
       </c>
       <c r="O76" t="s">
         <v>423</v>
       </c>
       <c r="P76" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q76" t="s">
         <v>424</v>
+      </c>
+      <c r="R76" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C77" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D77" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G77" t="n">
-        <v>64094</v>
+        <v>64436</v>
       </c>
       <c r="H77" t="n">
-        <v>2.691</v>
+        <v>2.705</v>
       </c>
       <c r="I77" t="n">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="J77" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="K77" t="n">
-        <v>416.667</v>
+        <v>365.333</v>
       </c>
       <c r="L77" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="M77" t="s">
-        <v>427</v>
-      </c>
-      <c r="N77" t="s">
+        <v>0.015</v>
+      </c>
+      <c r="M77" t="n">
+        <v>497.143</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O77" t="s">
         <v>428</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>429</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>430</v>
+      </c>
+      <c r="R77" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G78" t="n">
-        <v>75268</v>
+        <v>78768</v>
       </c>
       <c r="H78" t="n">
-        <v>1.078</v>
+        <v>1.128</v>
       </c>
       <c r="I78" t="n">
-        <v>2523</v>
+        <v>3500</v>
       </c>
       <c r="J78" t="n">
-        <v>0.036</v>
+        <v>0.05</v>
       </c>
       <c r="K78" t="n">
-        <v>2965.667</v>
+        <v>2744.333</v>
       </c>
       <c r="L78" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="M78" t="s">
-        <v>434</v>
-      </c>
-      <c r="N78" t="s">
+        <v>0.039</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3326</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="O78" t="s">
         <v>435</v>
-      </c>
-      <c r="O78" t="s">
-        <v>74</v>
       </c>
       <c r="P78" t="s">
         <v>436</v>
       </c>
+      <c r="Q78" t="s">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G79" t="n">
-        <v>24055</v>
+        <v>24406</v>
       </c>
       <c r="H79" t="n">
-        <v>2.035</v>
+        <v>2.065</v>
       </c>
       <c r="I79" t="n">
-        <v>529</v>
+        <v>351</v>
       </c>
       <c r="J79" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="K79" t="n">
-        <v>664.333</v>
+        <v>483</v>
       </c>
       <c r="L79" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="M79" t="s">
-        <v>439</v>
-      </c>
-      <c r="N79" t="s">
+        <v>0.041</v>
+      </c>
+      <c r="M79" t="n">
+        <v>512.571</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O79" t="s">
         <v>440</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>441</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>442</v>
+      </c>
+      <c r="R79" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80" t="n">
-        <v>1111366</v>
+        <v>1171138</v>
       </c>
       <c r="H80" t="n">
-        <v>13.177</v>
-      </c>
-      <c r="I80"/>
-      <c r="J80"/>
+        <v>13.886</v>
+      </c>
+      <c r="I80" t="n">
+        <v>35771</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.424</v>
+      </c>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="M80" t="s">
-        <v>445</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80" t="s">
         <v>446</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>447</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>448</v>
+      </c>
+      <c r="R80" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="C81" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D81" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E81" t="s">
+        <v>453</v>
+      </c>
+      <c r="F81" t="n">
+        <v>27</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39216</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2930</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2622.667</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2414</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O81" t="s">
         <v>452</v>
-      </c>
-      <c r="F81" t="n">
-        <v>25</v>
-      </c>
-      <c r="G81" t="n">
-        <v>33802</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2454</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2175.667</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="M81" t="s">
-        <v>451</v>
-      </c>
-      <c r="N81" t="s">
-        <v>453</v>
-      </c>
-      <c r="O81" t="s">
-        <v>45</v>
       </c>
       <c r="P81" t="s">
         <v>454</v>
       </c>
+      <c r="Q81" t="s">
+        <v>47</v>
+      </c>
+      <c r="R81" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D82" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>129723</v>
+        <v>134592</v>
       </c>
       <c r="H82" t="n">
-        <v>2.966</v>
+        <v>3.078</v>
       </c>
       <c r="I82" t="n">
-        <v>6971</v>
+        <v>4869</v>
       </c>
       <c r="J82" t="n">
-        <v>0.159</v>
+        <v>0.111</v>
       </c>
       <c r="K82" t="n">
-        <v>5954.667</v>
+        <v>5349</v>
       </c>
       <c r="L82" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="M82" t="s">
-        <v>457</v>
-      </c>
-      <c r="N82" t="s">
+        <v>0.122</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5867.571</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="O82" t="s">
         <v>458</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>459</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>460</v>
+      </c>
+      <c r="R82" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C83" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D83" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G83" t="n">
-        <v>825946</v>
+        <v>945299</v>
       </c>
       <c r="H83" t="n">
-        <v>12.167</v>
+        <v>13.925</v>
       </c>
       <c r="I83" t="n">
-        <v>63667</v>
+        <v>62956</v>
       </c>
       <c r="J83" t="n">
-        <v>0.938</v>
+        <v>0.927</v>
       </c>
       <c r="K83" t="n">
-        <v>63811</v>
+        <v>61006.667</v>
       </c>
       <c r="L83" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="M83" t="s">
-        <v>463</v>
-      </c>
-      <c r="N83" t="s">
+        <v>0.899</v>
+      </c>
+      <c r="M83" t="n">
+        <v>53401.714</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="O83" t="s">
         <v>464</v>
-      </c>
-      <c r="O83" t="s">
-        <v>74</v>
       </c>
       <c r="P83" t="s">
         <v>465</v>
       </c>
+      <c r="Q83" t="s">
+        <v>76</v>
+      </c>
+      <c r="R83" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="C84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G84" t="n">
-        <v>1129907</v>
+        <v>1291591</v>
       </c>
       <c r="H84" t="n">
-        <v>16.644</v>
+        <v>19.026</v>
       </c>
       <c r="I84" t="n">
-        <v>105937</v>
+        <v>85186</v>
       </c>
       <c r="J84" t="n">
-        <v>1.561</v>
+        <v>1.255</v>
       </c>
       <c r="K84" t="n">
-        <v>103298.333</v>
+        <v>89206.333</v>
       </c>
       <c r="L84" t="n">
-        <v>1.522</v>
-      </c>
-      <c r="M84" t="s">
-        <v>463</v>
-      </c>
-      <c r="N84" t="s">
+        <v>1.314</v>
+      </c>
+      <c r="M84" t="n">
+        <v>81081.286</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="O84" t="s">
         <v>464</v>
       </c>
-      <c r="O84" t="s">
-        <v>468</v>
-      </c>
       <c r="P84" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q84" t="s">
         <v>469</v>
+      </c>
+      <c r="R84" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C85" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D85" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G85" t="n">
-        <v>6816347</v>
+        <v>7053366</v>
       </c>
       <c r="H85" t="n">
-        <v>20.593</v>
+        <v>21.309</v>
       </c>
       <c r="I85" t="n">
-        <v>264537</v>
+        <v>248125</v>
       </c>
       <c r="J85" t="n">
-        <v>0.799</v>
+        <v>0.75</v>
       </c>
       <c r="K85" t="n">
-        <v>263392.333</v>
+        <v>268891.333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="M85" t="s">
-        <v>472</v>
-      </c>
-      <c r="N85" t="s">
+        <v>0.813</v>
+      </c>
+      <c r="M85" t="n">
+        <v>235759.143</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="O85" t="s">
         <v>473</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>474</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>475</v>
+      </c>
+      <c r="R85" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D86" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G86" t="n">
-        <v>526054</v>
+        <v>551541</v>
       </c>
       <c r="H86" t="n">
-        <v>1.589</v>
+        <v>1.666</v>
       </c>
       <c r="I86" t="n">
-        <v>23835</v>
+        <v>8291</v>
       </c>
       <c r="J86" t="n">
-        <v>0.072</v>
+        <v>0.025</v>
       </c>
       <c r="K86" t="n">
-        <v>22180.333</v>
+        <v>16205.667</v>
       </c>
       <c r="L86" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="M86" t="s">
-        <v>479</v>
-      </c>
-      <c r="N86" t="s">
+        <v>0.049</v>
+      </c>
+      <c r="M86" t="n">
+        <v>17656.857</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O86" t="s">
         <v>480</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>481</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>482</v>
+      </c>
+      <c r="R86" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C87" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87" t="n">
-        <v>21164</v>
+        <v>21939</v>
       </c>
       <c r="H87" t="n">
-        <v>6.093</v>
+        <v>6.316</v>
       </c>
       <c r="I87" t="n">
-        <v>610</v>
+        <v>775</v>
       </c>
       <c r="J87" t="n">
-        <v>0.176</v>
+        <v>0.223</v>
       </c>
       <c r="K87" t="n">
-        <v>716</v>
+        <v>730.667</v>
       </c>
       <c r="L87" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="M87" t="s">
-        <v>101</v>
-      </c>
-      <c r="N87" t="s">
-        <v>485</v>
+        <v>0.21</v>
+      </c>
+      <c r="M87" t="n">
+        <v>696.571</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.2</v>
       </c>
       <c r="O87" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="P87" t="s">
         <v>486</v>
       </c>
+      <c r="Q87" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="C88" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="n">
@@ -6117,65 +6512,73 @@
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
-      <c r="M88" t="s">
-        <v>489</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88" t="s">
         <v>490</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>491</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>492</v>
+      </c>
+      <c r="R88" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43951</v>
+        <v>43954</v>
       </c>
       <c r="C89" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>8314</v>
+        <v>11647</v>
       </c>
       <c r="H89" t="n">
-        <v>0.559</v>
+        <v>0.784</v>
       </c>
       <c r="I89" t="n">
-        <v>672</v>
+        <v>920</v>
       </c>
       <c r="J89" t="n">
-        <v>0.045</v>
+        <v>0.062</v>
       </c>
       <c r="K89" t="n">
-        <v>493.333</v>
+        <v>1111</v>
       </c>
       <c r="L89" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="M89" t="s">
-        <v>495</v>
-      </c>
-      <c r="N89" t="s">
+        <v>0.075</v>
+      </c>
+      <c r="M89" t="n">
+        <v>750.286</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O89" t="s">
         <v>496</v>
-      </c>
-      <c r="O89" t="s">
-        <v>20</v>
       </c>
       <c r="P89" t="s">
         <v>497</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>22</v>
+      </c>
+      <c r="R89" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
+  <si>
+    <t xml:space="preserve">ISO code</t>
+  </si>
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -68,6 +71,9 @@
     <t xml:space="preserve">Detailed description</t>
   </si>
   <si>
+    <t xml:space="preserve">ARG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
@@ -86,10 +92,13 @@
     <t xml:space="preserve">Two reports are published daily by the government of Argentina. Since 8th April the morning report gives the cumulative total of "tests carried out" in the country. No information is given on the geographical scope and number of labs included.</t>
   </si>
   <si>
+    <t xml:space="preserve">AUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-4-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-5-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -103,10 +112,13 @@
 The daily health alerts have provided testing figures since April 5th 2020, whereas the weekly epidemiological reports have provided testing figures since March 22nd 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. The entire collection of these infographics dating back to April 5th 2020 can be viewed [here](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection).</t>
   </si>
   <si>
+    <t xml:space="preserve">AUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171204/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202231/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -127,10 +139,13 @@
 The same figures are also provided by the Ministry for Health in [this official dashboard](https://info.gesundheitsministerium.at/dashboard_Hosp.html?l=en).</t>
   </si>
   <si>
+    <t xml:space="preserve">BHR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504191152/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202234/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -150,6 +165,9 @@
 These updates are not provided daily – typically every few days, so a daily time-series is not available. However, using web archives we can construct a time-series of tests conducted over time based on these frequent updates. It is not clear when testing first began; data is only available from 5th March where it was reported that 5334 tests had been conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">BGD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangladesh - samples tested</t>
   </si>
   <si>
@@ -167,6 +185,9 @@
   <si>
     <t xml:space="preserve">The Government of Bangladesh provides data on the total number of samples tested ("মোট পরিক্ষাকৃত নমুনার সংখ্যা") to date in [this official dashboard](https://corona.gov.bd/). The full time series of samples tested can be downloaded in the [detailed dashboard](https://covid19.cramstack.com/), which dates back to March 4th 2020.
 It is not clear whether the reported figures include samples in which the test results are pending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLR</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus - tests performed</t>
@@ -186,6 +207,9 @@
 The earliest reported figure that we have been able to find is from March 3rd 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">BEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgium - units unclear</t>
   </si>
   <si>
@@ -202,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">There is some ambiguity as to the units. The testing data are labelled as 'the number of tests performed'. But in the [codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) provided alongside the data the testing series is described as 'the number of tested patients'. The date of is the date of laboratory diagnosis, or when not available, the date of sampling is used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOL</t>
   </si>
   <si>
     <t xml:space="preserve">Bolivia - cases tested</t>
@@ -223,10 +250,13 @@
 Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial Github repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
   </si>
   <si>
+    <t xml:space="preserve">BGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171421/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202238/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -243,10 +273,13 @@
 Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504191158/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202240/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -264,6 +297,9 @@
 We only report data since March 18th 2020 due to a large jump in the time series that occurred between March 17th ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and March 18th ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to March 18th 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">CHL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chile - tests performed</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on Github](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia - samples processed</t>
@@ -302,6 +341,9 @@
 Because of this, our time series does not include samples marked as "S.F." ("Sin Fecha") in the leftmost bar of the graph; these can represent a high number of samples (3867 as of 21 April 2020).</t>
   </si>
   <si>
+    <t xml:space="preserve">CRI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Costa Rica - people tested</t>
   </si>
   <si>
@@ -319,10 +361,13 @@
 Daily reports with figures on testing are only available dating back to 11th March. We therefore do not know the first date of testing, or daily figures prior to this date.</t>
   </si>
   <si>
+    <t xml:space="preserve">HRV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Croatia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171429/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202246/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -339,6 +384,9 @@
 We have found testing data dating back to March 3rd 2020, at which point 247 samples had been tested to date. It is not clear when the first sample was tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">CUB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cuba - tests performed</t>
   </si>
   <si>
@@ -358,6 +406,9 @@
 However the context in which the figures are published suggests that these numbers may actually refer to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.</t>
   </si>
   <si>
+    <t xml:space="preserve">CZE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czech Republic - tests performed</t>
   </si>
   <si>
@@ -370,10 +421,13 @@
     <t xml:space="preserve">The Ministry of Health publishes a data set containing incremental and cumulative daily numbers of COVID-19 tests performed according to laboratory reports. It is updated daily and accessible in CSV and JSON format. No other information about the figures could be found.</t>
   </si>
   <si>
+    <t xml:space="preserve">DNK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark - People tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-04052020-hu28</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-05052020-s0l0</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -394,10 +448,13 @@
 The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport).</t>
   </si>
   <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-03052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -414,6 +471,9 @@
 On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.</t>
   </si>
   <si>
+    <t xml:space="preserve">SLV</t>
+  </si>
+  <si>
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
@@ -423,10 +483,13 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 9:22pm local time on 2020-05-03.</t>
+    <t xml:space="preserve">updated at 9:36pm local time on 2020-05-04.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
   </si>
   <si>
     <t xml:space="preserve">Estonia - tests performed</t>
@@ -451,6 +514,9 @@
 A complete time-series from 25th February is available, and is updated daily.</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
@@ -465,6 +531,9 @@
   <si>
     <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases of the number of tests performed to date. It is not clear whether these figures refer to the number of samples tested or the number of people tested. It is also unclear whether the reported figures include tests for which the results are pending.
 The earliest record we have found is for March 17th 2020, at which point 79 tests had been performed to date. It is unclear when the first test was performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
   </si>
   <si>
     <t xml:space="preserve">Finland - samples tested</t>
@@ -489,6 +558,9 @@
 This data series extends to the 27th February, when test figures were very low (9 tests per day). It is likely this is was the first day, or close to the first day of testing.</t>
   </si>
   <si>
+    <t xml:space="preserve">FRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">France - tests performed</t>
   </si>
   <si>
@@ -506,6 +578,9 @@
   <si>
     <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 24th April, was published on the 23rd April. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
 The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
   </si>
   <si>
     <t xml:space="preserve">Germany - tests performed</t>
@@ -540,6 +615,9 @@
 Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.</t>
   </si>
   <si>
+    <t xml:space="preserve">GHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ghana - units unclear</t>
   </si>
   <si>
@@ -562,6 +640,9 @@
 Using web archives, we reconstruct a time series. Situation updates report the total number of people tested from 28th March, then the total number of samples tested from 18th April. However, the figures given from one period to the other seem to line up correctly, thus we are not certain what the true units are.
 On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data. 
 We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provides a breakdown of the total number of tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC</t>
   </si>
   <si>
     <t xml:space="preserve">Greece - tests performed</t>
@@ -586,6 +667,9 @@
 The official website provides a [list of daily reports](https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). Unfortunately many reports are missing meaning a full daily time-series cannot be constructed. It is unclear how far back testing extends; the earliest available report is on 20th March when 7172 people had been tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">HKG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hong Kong - tests performed</t>
   </si>
   <si>
@@ -606,6 +690,9 @@
 The cumulative total begins from 01/01/2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">HUN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hungary - tests performed</t>
   </si>
   <si>
@@ -628,6 +715,9 @@
 We use these official data as collected by the [visual and data journalism team](https://atlo.team/koronamonitor/) of Budapest-based investigative center Atlatszo, made accessible in a [public spreadsheet](https://docs.google.com/spreadsheets/d/1e4VEZL1xvsALoOIq9V2SQuICeQrT5MtWfBm32ad7i8Q/edit#gid=311133316). We have cross-checked a sample of the figures in this unofficial spreadsheet against official figures.</t>
   </si>
   <si>
+    <t xml:space="preserve">ISL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iceland - samples</t>
   </si>
   <si>
@@ -642,6 +732,9 @@
   <si>
     <t xml:space="preserve">The Icelandic Office of Public Health publishes a complete time-series of daily samples ("Fjöldi sýna"). This time-series is broken down into two labs where these samples are tested. No other information is provided. It is not clear whether these figures include samples that are pending test results.
 The daily time-series data only extends back to 27th February. However, the source shows clearly via annotation on the testing chart that between 1st and 26th February, 41 samples had been tested. We do therefore not know the days across which these samples were taken, only that as of 26th February, the total cumulative number of samples tested was 41.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
   </si>
   <si>
     <t xml:space="preserve">India - people tested</t>
@@ -664,6 +757,9 @@
     <t xml:space="preserve">India - samples tested</t>
   </si>
   <si>
+    <t xml:space="preserve">IDN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indonesia - people tested</t>
   </si>
   <si>
@@ -681,10 +777,13 @@
 We found past values using Internet Archive's Wayback Machine.</t>
   </si>
   <si>
+    <t xml:space="preserve">IRN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/338630</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200505130731/http://irangov.ir/detail/338708</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -697,10 +796,13 @@
 We have found testing data dating back to April 5th 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">IRL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/3006d2-statement-from-the-national-public-health-emergency-team-tuesday-29-/</t>
+    <t xml:space="preserve">https://www.gov.ie/en/press-release/6f789f-statement-from-the-national-public-health-emergency-team-tuesday-5-m/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
@@ -715,6 +817,9 @@
 No other details about what the numbers refer to are known.</t>
   </si>
   <si>
+    <t xml:space="preserve">ISR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
@@ -733,6 +838,9 @@
     <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on Github](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
 On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health.
 No further information on the geographical scope, number of labs, or types of test included are known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA</t>
   </si>
   <si>
     <t xml:space="preserve">Italy - people tested</t>
@@ -768,6 +876,9 @@
 Pietro Monticone and Riccardo Valperga have written a very helpful and detailed description of these data quality issues [here in GitHub](https://pitmonticone.github.io/covid-italy/owid-testing-italy.html).</t>
   </si>
   <si>
+    <t xml:space="preserve">JPN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan - people tested</t>
   </si>
   <si>
@@ -792,7 +903,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627446.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627586.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -803,6 +914,9 @@
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
+    <t xml:space="preserve">KAZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kazakhstan - tests performed</t>
   </si>
   <si>
@@ -817,10 +931,13 @@
 The earliest reported figure is from March 13th 2020, at which point 126 tests had been conducted. It is unclear whether March 13th was the first date on which tests were conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">KEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1256977670937739264</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1257652298802696193</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -837,6 +954,9 @@
 We have found testing data dating back to March 6th 2020, at which point 31 tests had been conducted to date. It is not clear when the first test was conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">LVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Latvia - tests performed</t>
   </si>
   <si>
@@ -852,10 +972,13 @@
     <t xml:space="preserve">The Center for Disease Prevention and Control publishes the number of laboratory tests performed to detect SARS-CoV-2 virus ("Veikto laboratorisko testu skaits, lai noteiktu SARS-CoV-2 vīrusu") on the Latvian Government's Open Data Portal. No information is given on the geographical scope and number of labs included.</t>
   </si>
   <si>
+    <t xml:space="preserve">LTU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171543/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202344/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -865,10 +988,13 @@
 The figures exclude samples that remain untested (i.e. tests pending results).</t>
   </si>
   <si>
+    <t xml:space="preserve">LUX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171547/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202349/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -883,10 +1009,13 @@
 In the FAQs beneath the figures, the website states that "Only a test on respiratory secretions is currently available to detect the presence of the new coronavirus."</t>
   </si>
   <si>
+    <t xml:space="preserve">MYS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171558/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202403/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -901,6 +1030,9 @@
     <t xml:space="preserve">A time series has not yet been released. The figures provided are daily updates to the total number of cases tested. It is not clear the exact date these cumulative figures date back to. The earliest release we have been able to find begins from the 14th February.
 The source provides a breakdown of the number of positive, negative, and still pending tests. We report total tests as the sum of positive and negative tests, excluding pending tests. The title of the table indicates that these figures relate to cases. As far as we are aware, cases are equivalent to individuals tested.
 In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
   </si>
   <si>
     <t xml:space="preserve">Mexico - cases tested</t>
@@ -918,6 +1050,9 @@
 The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector". (via Google translate)</t>
   </si>
   <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
@@ -938,6 +1073,9 @@
 The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
@@ -945,9 +1083,6 @@
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This figure is taken from the live dashboard (updated at 7am local time) and should be updated using the PDF Situation Report once it is available</t>
   </si>
   <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
@@ -955,6 +1090,9 @@
   <si>
     <t xml:space="preserve">The Myanmar Ministry of Health and Sports provides a daily snapshot of the total number of specimens tested to date. These figures include positive and negative test results, but exclude pending results.
 The earliest reported figure that we have been able to find on the ministry website is from April 3rd 2020, at which point 1183 specimens had been tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL</t>
   </si>
   <si>
     <t xml:space="preserve">Nepal - people tested</t>
@@ -977,6 +1115,9 @@
 According to the reports, including the National Public Health Laboratory in Teku, the COVID-19 lab test through PCR is available in 13 institutions across the country with a minimum of one lab in each province.</t>
   </si>
   <si>
+    <t xml:space="preserve">NLD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
@@ -997,6 +1138,9 @@
 The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.</t>
   </si>
   <si>
+    <t xml:space="preserve">NZL</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Zealand - tests performed</t>
   </si>
   <si>
@@ -1010,10 +1154,13 @@
 No further details about the data are available.</t>
   </si>
   <si>
+    <t xml:space="preserve">NGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171634/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202449/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1027,10 +1174,13 @@
 No information is given on the geographical scope and number of labs included. It is also unclear whether the reported figures include tests for which the results are pending.</t>
   </si>
   <si>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.04-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020_05_05_dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1049,10 +1199,13 @@
 The time of day to which the testing figures relate appears to have changed. Earlier daily reports refers to those tested up until 3pm (local time) of the previous day. More recent reports relate to those tested up until midnight (local time) of the previous day.</t>
   </si>
   <si>
+    <t xml:space="preserve">PAK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171652/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202459/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1063,6 +1216,9 @@
   <si>
     <t xml:space="preserve">The government of Pakistan publishes a [dashboard showing up-to-date national data](http://www.covid.gov.pk/).
 The figures sometimes shows important 1-day increases due to the inclusion of more labs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN</t>
   </si>
   <si>
     <t xml:space="preserve">Panama - units unclear</t>
@@ -1080,6 +1236,9 @@
     <t xml:space="preserve">The [Panama Ministry of Health](http://www.minsa.gob.pa) in collaboration with the [Gorgas Memorial Institute for Health Studies](http://www.gorgas.gob.pa) reports the cumulative number of tests performed to date in [this dashboard](http://minsa.gob.pa/coronavirus-covid-19). The reported figures include the total number of positive, negative, and "positive control" test results to date.
 It is unclear whether the total number of tests performed ("pruebas realizadas") refers to the number of people tested or the number of samples tested. The number of reported positive test results is equal to the number of confirmed cases of COVID-19, which suggests that the number of tests performed is equivalent to the number of people tested. However, because the data source does not provide a clear definition, we record the units as "unclear".
 Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial Github repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRY</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay - samples tested</t>
@@ -1106,10 +1265,13 @@
 The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
   </si>
   <si>
+    <t xml:space="preserve">PER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/143693-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-47-372-en-el-peru-comunicado-n-87</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/147296-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-51-189-en-el-peru-comunicado-n-88</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1124,6 +1286,9 @@
     <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positive and negative test results to date, but it is unclear whether the numbers reported reflect "samples tested" or "people tested". Some press releases report testing data using the language "...samples have been processed for ___ people..." (e.g. "Al 08 de abril de 2020 se han procesado muestras para 39 599 personas"), while other press releases report testing data using the language "...___ samples have been processed..." (e.g. "Al 18 de marzo de 2020 se han procesado 3 075 muestras").
 The reference date for the cumulative number of tests is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
 The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHL</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines - people tested</t>
@@ -1141,10 +1306,13 @@
 The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data.</t>
   </si>
   <si>
+    <t xml:space="preserve">POL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.04.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.05.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1164,6 +1332,9 @@
 No other information about the figures is known.</t>
   </si>
   <si>
+    <t xml:space="preserve">PRT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal - samples tested</t>
   </si>
   <si>
@@ -1180,10 +1351,13 @@
 Up until 29 April we had reported a figure of the number of people tested, obtained as the sum of confirmed and unconfirmed cases in the Portugal Ministry of Health (MOH) [daily updates](https://covid19.min-saude.pt/relatorio-de-situacao/). We were alerted by a Technical Advisor within the Cabinet of the Secretary of Health to the fact that these figures only captures people who were reported through the National System of Epidemiological Surveillance which does not include many of the people that get tested but are never entered into the surveillance system (because they do not meet the criteria and go on to test negatively). For this reason we have now switched to the current series. The advisor confirmed to us that this series: includes all the public, private and university labs performing SARS-CoV-2 diagnosis in Portugal; does not include tests pending results; includes only PCR tests.</t>
   </si>
   <si>
+    <t xml:space="preserve">QAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171707/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202512/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1196,6 +1370,9 @@
 The earliest reported figure that we have been able to find is from March 14th 2020, at which point 6,788 tests had been conducted.</t>
   </si>
   <si>
+    <t xml:space="preserve">ROU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
@@ -1212,10 +1389,13 @@
 The main data source is the press office of the Ministry of Internal Affairs, which provides a daily report on most metrics. Data points are also sourced from the Romanian Ministry of Health and the Romanian National Institute of Public Health and occasionally from news outlets.</t>
   </si>
   <si>
+    <t xml:space="preserve">RUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14379</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14381</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1229,6 +1409,9 @@
 Our figures for the cumulative number of tests performed refer to tests performed up until the previous day. E.g. total tests for 17/04 daily report refer to test data up until 16/04.</t>
   </si>
   <si>
+    <t xml:space="preserve">RWA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
@@ -1246,6 +1429,9 @@
 Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the more ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">SEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Senegal - tests performed</t>
   </si>
   <si>
@@ -1271,6 +1457,9 @@
 These daily press releases report the number of tests performed each day, dating back to 17th March. Although daily press releases date further back than this, they do not detail the number of tests performed, only the number of confirmed cases. Our time-series data therefore only exists from 17th March onwards.</t>
   </si>
   <si>
+    <t xml:space="preserve">SRB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serbia - people tested</t>
   </si>
   <si>
@@ -1284,6 +1473,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on Github](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGP</t>
   </si>
   <si>
     <t xml:space="preserve">Singapore - people tested</t>
@@ -1302,10 +1494,13 @@
     <t xml:space="preserve">The number of swabs tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">SVK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171728/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202532/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1326,6 +1521,9 @@
 From the 14th April, we became aware of a [short term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We have used this source to supplement testing data for the 10th April where web archives were not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).</t>
   </si>
   <si>
+    <t xml:space="preserve">SVN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovenia - tests performed</t>
   </si>
   <si>
@@ -1347,6 +1545,9 @@
 The volunteer-led [Sledilnik.org project](https://covid-19.sledilnik.org/#/) also presents the official data in a helpful website.</t>
   </si>
   <si>
+    <t xml:space="preserve">ZAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">South Africa - units unclear</t>
   </si>
   <si>
@@ -1359,18 +1560,21 @@
     <t xml:space="preserve">Made available by the University of Pretoria on Github</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/nicd_sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates and graphics on the number of confirmed cases, deaths and tests conducted nationally and by province. This is published consistently on its offical Twitter account.
-It reports the number of 'tests conducted'. It also reports the number of positive cases, and sometimes the number of 'negative cases'. This is suggestive that 'tests conducted' refers to the number of people tested, but this was unclear from the available documentation up until 18th April. The official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) reports repeat tests for COVID-19 are not counted and that the number 'tests conducted' refers to people tested.
-The NICD began publishing these daily updates on 11th March, allowing us to develop a time-series from this date forward. We do not know the first date of testing, only that as of 11th March, 645 tests had been conducted. No update was published for the 7th April.</t>
+    <t xml:space="preserve">https://www.nicd.ac.za/media/alerts/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its website [here](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
+The NICD reports the number of 'tests conducted' in addition to the number of 'positive cases' (and sometimes the number of 'negative cases'). This is suggestive that 'tests conducted' refers to the number of people tested, but this was unclear from the available documentation until April 18th 2020. On April 18th, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the number 'tests conducted' refers to people tested.
+The NICD began publishing daily updates on 11th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 11th February, 61 people had been tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOR</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367074&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367086&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1382,6 +1586,9 @@
     <t xml:space="preserve">KCDC have provided daily updates in English since 21 January. The figures they provide relate to ‘cases’, where this signifies an individual considered eligible for testing due to their symptoms, travel history or contact history.
 The figures shown below include those cases pending test results. The daily updates show the change each day and the current totals. These form a consistent chain all the way back to 21 January. The daily test figures we provide relate to the daily change in the number of tests with results. As such it includes both the number of tests performed in that day and the change in the stock of tests pending results.
  We are not aware of any significant issues affecting comparisons over time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
   </si>
   <si>
     <t xml:space="preserve">Spain - tests performed</t>
@@ -1407,6 +1614,9 @@
 [CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions). We do not report these figures because their data are not complete: For some autonomous communities, figures are available only irregular intervals. The figures they provide are broadly in-line with those of the Ministry of Health releases, although with somewhat lower figures for some Autonomous Communities. This may be due to the Ministry of Health having access to more recent estimates for these Autonomous Communities.</t>
   </si>
   <si>
+    <t xml:space="preserve">SWE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sweden - people tested</t>
   </si>
   <si>
@@ -1422,6 +1632,9 @@
 A note is provided at the same website indicating that the testing strategy has changed over time: "Initially, people who were living in areas with known spread of covid-19 were sampled. But since mid-March, people with symptoms consistent with covid-19 infection who are in need of inpatient hospital care, healthcare personnel and elderly care, and people who are being tested in sentinel testing are primarily being tested. This means that people with mild symptoms are not asked to contact the health care and therefore do not end up in the statistics of reported cases." (via Google Translate)</t>
   </si>
   <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Switzerland - tests performed</t>
   </si>
   <si>
@@ -1441,10 +1654,13 @@
 The Federal Office of Public Health also publishes a [daily report](https://www.bag.admin.ch/bag/de/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/situation-schweiz-und-international.html#316168418) on the epidemiological situation, in which very similar cumulative figures are provided, but often rounded-off. These reports present the figures as "The number of tests carried out on SARS-CoV-2, the causative agent of COVID-19".</t>
   </si>
   <si>
+    <t xml:space="preserve">TWN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/j67ZbD8CoBNDk4Sv7Qt07A?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/gPjOPovdWU2ucOFvPAkN9Q?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1461,10 +1677,13 @@
 The date from which the total test figures date back to is not known; the CDC dashboard is unavailable in web archives prior to 21st March.</t>
   </si>
   <si>
+    <t xml:space="preserve">THA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171807/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202610/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1479,6 +1698,9 @@
     <t xml:space="preserve">The Thailand Department of Disease Control issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
 We provide the figures reported as 'persons under investigation' (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
 We have received communication from Thailand's Ministry of Health (MOH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. Daily figures are currently being consolidated by the MOH. At the moment, this "non-PUI" group is not reflected in our current figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUN</t>
   </si>
   <si>
     <t xml:space="preserve">Tunisia - units unclear</t>
@@ -1502,10 +1724,13 @@
 The first date in the time series of daily tests is 10th March, for which 28 tests were reported.</t>
   </si>
   <si>
+    <t xml:space="preserve">TUR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504191503/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202616/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1523,10 +1748,13 @@
 No other information concerning the figures is known.</t>
   </si>
   <si>
+    <t xml:space="preserve">UGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257044476373151747</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257586295653761027</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1543,10 +1771,13 @@
 We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day.</t>
   </si>
   <si>
+    <t xml:space="preserve">UKR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504171821/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202619/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1562,10 +1793,13 @@
 The earliest reported figure that we have been able to find is from April 9th 2020, at which point 20,608 cumulative tests were reported.</t>
   </si>
   <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504191508/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202621/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1588,7 +1822,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200504191509/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200505202622/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1605,6 +1839,9 @@
 The Health Service Journal highlighted in [an article published on 1 May 2020](https://www.hsj.co.uk/quality-and-performance/revealed-how-government-changed-the-rules-to-hit-100000-tests-target/7027544.article) that “the Department of Health and Social Care [was] now including tests that have been posted or delivered to people’s homes in its figures. This means tests which are sent to people are counted before the recipient has provided and returned their sample to a laboratory.” No data is made available by the UK government on how many of these mailed tests have been returned and processed, but this could represent a significant number for recent days. As far as we know, the “People tested” figures are not affected by this issue.</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States - inconsistent units (COVID Tracking Project)</t>
   </si>
   <si>
@@ -1653,10 +1890,13 @@
 The CDC documents very well what is and is not included in its published testing figures. See the source linked to above for more details.</t>
   </si>
   <si>
+    <t xml:space="preserve">URY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-14</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-15</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1664,6 +1904,9 @@
   <si>
     <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. [We received confirmation](https://twitter.com/FedericoGanz/status/1252248930118766593) that the figures refer to tests, and not people. The source notes that "there are people who have been tested more than once. This explains why the total number of positive tests does not coincide with that of people with positive tests."
 We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam - units unclear</t>
@@ -1686,10 +1929,13 @@
 Using web archives we can reconstruct a daily time-series of total samples by looking at previous versions of the updated website. These daily updates extend back to 2nd March. We cannot say with certainty when testing began, only that as of 2nd March 1753 samples had been tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">ZWE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257116645996322816</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257529300712128513</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2092,4493 +2338,4794 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>43952</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
+      <c r="F2"/>
       <c r="G2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n">
         <v>58685</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1.298</v>
       </c>
-      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
+      <c r="O2"/>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>664756</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.069</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14542</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17724.333</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19153.857</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>650214</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25.499</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17107</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20448.667</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="M3" t="n">
-        <v>19021.571</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
+      <c r="S3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>68</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>279071</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
-        <v>30.986</v>
+        <v>285883</v>
       </c>
       <c r="I4" t="n">
-        <v>4716</v>
+        <v>31.742</v>
       </c>
       <c r="J4" t="n">
-        <v>0.524</v>
+        <v>6812</v>
       </c>
       <c r="K4" t="n">
-        <v>4997.333</v>
+        <v>0.756</v>
       </c>
       <c r="L4" t="n">
-        <v>0.555</v>
+        <v>5421.333</v>
       </c>
       <c r="M4" t="n">
-        <v>6647.714</v>
+        <v>0.602</v>
       </c>
       <c r="N4" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
+        <v>6615</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.735</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" t="n">
+        <v>155501</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91.386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5915</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5741</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.374</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4827.857</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.837</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="n">
-        <v>149586</v>
-      </c>
-      <c r="H5" t="n">
-        <v>87.91</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5431</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.192</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5168</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4541.286</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.669</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="n">
-        <v>87698</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
-        <v>0.533</v>
+        <v>93403</v>
       </c>
       <c r="I6" t="n">
-        <v>6244</v>
+        <v>0.567</v>
       </c>
       <c r="J6" t="n">
-        <v>0.038</v>
+        <v>5705</v>
       </c>
       <c r="K6" t="n">
-        <v>5819.667</v>
+        <v>0.035</v>
       </c>
       <c r="L6" t="n">
+        <v>5779</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.035</v>
       </c>
-      <c r="M6" t="n">
-        <v>5343</v>
-      </c>
       <c r="N6" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
+        <v>5524.286</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.034</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="n">
         <v>28</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>211369</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>22.369</v>
       </c>
-      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
+      <c r="O7"/>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>43954</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="n">
         <v>63</v>
       </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="n">
-        <v>361573</v>
+        <v>64</v>
       </c>
       <c r="H8" t="n">
-        <v>31.198</v>
+        <v>372654</v>
       </c>
       <c r="I8" t="n">
-        <v>14476</v>
+        <v>32.154</v>
       </c>
       <c r="J8" t="n">
-        <v>1.249</v>
+        <v>11927</v>
       </c>
       <c r="K8" t="n">
-        <v>19117.667</v>
+        <v>1.029</v>
       </c>
       <c r="L8" t="n">
-        <v>1.649</v>
+        <v>16079.333</v>
       </c>
       <c r="M8" t="n">
-        <v>17333.714</v>
+        <v>1.387</v>
       </c>
       <c r="N8" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
+        <v>17350</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.497</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="n">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>7680</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="I9"/>
+        <v>7767</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.665</v>
+      </c>
       <c r="J9" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="K9"/>
+        <v>87</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.007</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M9"/>
+        <v>384.667</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.033</v>
+      </c>
       <c r="N9" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
+        <v>254.143</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.022</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="S9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10"/>
       <c r="G10" t="n">
-        <v>49145</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>7.073</v>
+        <v>50303</v>
       </c>
       <c r="I10" t="n">
-        <v>527</v>
+        <v>7.239</v>
       </c>
       <c r="J10" t="n">
-        <v>0.076</v>
+        <v>1158</v>
       </c>
       <c r="K10" t="n">
-        <v>878.333</v>
+        <v>0.167</v>
       </c>
       <c r="L10" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="M10"/>
+        <v>889</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.128</v>
+      </c>
       <c r="N10"/>
-      <c r="O10" t="s">
-        <v>69</v>
-      </c>
+      <c r="O10"/>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="n">
-        <v>46</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="n">
-        <v>919368</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
-        <v>24.359</v>
+        <v>940567</v>
       </c>
       <c r="I11" t="n">
-        <v>25878</v>
+        <v>24.921</v>
       </c>
       <c r="J11" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="K11"/>
+        <v>21199</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.562</v>
+      </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
+      <c r="O11"/>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="S11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>222095</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.618</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7964</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7565</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7990</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>33</v>
-      </c>
-      <c r="G12" t="n">
-        <v>206218</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10.788</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6818</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8567</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7177.571</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" t="s">
-        <v>83</v>
+      <c r="S12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="n">
-        <v>60</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="n">
-        <v>118801</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>2.335</v>
+        <v>123029</v>
       </c>
       <c r="I13" t="n">
-        <v>4199</v>
+        <v>2.418</v>
       </c>
       <c r="J13" t="n">
+        <v>4228</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.083</v>
       </c>
-      <c r="K13" t="n">
-        <v>4714.667</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.093</v>
+        <v>4693</v>
       </c>
       <c r="M13" t="n">
-        <v>4527.857</v>
+        <v>0.092</v>
       </c>
       <c r="N13" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
+        <v>4590</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.09</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="S13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="n">
-        <v>54</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="n">
-        <v>9713</v>
+        <v>56</v>
       </c>
       <c r="H14" t="n">
-        <v>1.907</v>
+        <v>9892</v>
       </c>
       <c r="I14" t="n">
-        <v>120</v>
+        <v>1.942</v>
       </c>
       <c r="J14" t="n">
-        <v>0.024</v>
+        <v>73</v>
       </c>
       <c r="K14" t="n">
-        <v>126</v>
+        <v>0.014</v>
       </c>
       <c r="L14" t="n">
+        <v>99.667</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>129</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.025</v>
       </c>
-      <c r="M14" t="n">
-        <v>120.143</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O14" t="s">
-        <v>92</v>
-      </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="S14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="n">
-        <v>56</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" t="n">
-        <v>39040</v>
+        <v>57</v>
       </c>
       <c r="H15" t="n">
-        <v>9.51</v>
+        <v>39973</v>
       </c>
       <c r="I15" t="n">
-        <v>956</v>
+        <v>9.737</v>
       </c>
       <c r="J15" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
+        <v>933</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="L15" t="n">
+        <v>805.333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.196</v>
+      </c>
       <c r="N15"/>
-      <c r="O15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O15"/>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="R15" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="S15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43</v>
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
       </c>
       <c r="G16" t="n">
-        <v>55542</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>4.904</v>
+        <v>57711</v>
       </c>
       <c r="I16" t="n">
-        <v>1997</v>
+        <v>5.095</v>
       </c>
       <c r="J16" t="n">
-        <v>0.176</v>
+        <v>2169</v>
       </c>
       <c r="K16" t="n">
-        <v>2044.333</v>
+        <v>0.191</v>
       </c>
       <c r="L16" t="n">
-        <v>0.18</v>
+        <v>2068.333</v>
       </c>
       <c r="M16" t="n">
-        <v>1984.429</v>
+        <v>0.182</v>
       </c>
       <c r="N16" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="O16" t="s">
-        <v>103</v>
+        <v>2029</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.179</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>121</v>
+      </c>
+      <c r="S16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="n">
-        <v>92</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17"/>
       <c r="G17" t="n">
-        <v>261548</v>
+        <v>93</v>
       </c>
       <c r="H17" t="n">
-        <v>24.423</v>
+        <v>269093</v>
       </c>
       <c r="I17" t="n">
-        <v>3667</v>
+        <v>25.128</v>
       </c>
       <c r="J17" t="n">
-        <v>0.342</v>
+        <v>7535</v>
       </c>
       <c r="K17" t="n">
-        <v>3968</v>
+        <v>0.704</v>
       </c>
       <c r="L17" t="n">
-        <v>0.371</v>
+        <v>5035.333</v>
       </c>
       <c r="M17" t="n">
-        <v>6137.143</v>
+        <v>0.47</v>
       </c>
       <c r="N17" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
+        <v>6110.429</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.571</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="S17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="n">
-        <v>46</v>
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
       </c>
       <c r="G18" t="n">
-        <v>244791</v>
+        <v>47</v>
       </c>
       <c r="H18" t="n">
-        <v>42.262</v>
+        <v>257738</v>
       </c>
       <c r="I18" t="n">
-        <v>10992</v>
+        <v>44.497</v>
       </c>
       <c r="J18" t="n">
-        <v>1.898</v>
+        <v>12947</v>
       </c>
       <c r="K18" t="n">
-        <v>12738.333</v>
+        <v>2.235</v>
       </c>
       <c r="L18" t="n">
-        <v>2.199</v>
-      </c>
-      <c r="M18"/>
+        <v>11942</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.062</v>
+      </c>
       <c r="N18"/>
-      <c r="O18" t="s">
-        <v>115</v>
-      </c>
+      <c r="O18"/>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="S18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" t="n">
-        <v>44</v>
+        <v>139</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
       </c>
       <c r="G19" t="n">
-        <v>62437</v>
+        <v>45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.539</v>
+        <v>66160</v>
       </c>
       <c r="I19" t="n">
-        <v>23513</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.333</v>
-      </c>
+        <v>3.75</v>
+      </c>
+      <c r="J19"/>
       <c r="K19" t="n">
-        <v>9363.333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="M19"/>
+        <v>0.211</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="n">
+        <v>0.55</v>
+      </c>
       <c r="N19"/>
-      <c r="O19" t="s">
-        <v>120</v>
+      <c r="O19" t="n">
+        <v>0.284</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="Q19" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="R19" t="s">
-        <v>123</v>
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>30387</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>4.685</v>
+        <v>32030</v>
       </c>
       <c r="I20" t="n">
-        <v>1791</v>
+        <v>4.938</v>
       </c>
       <c r="J20" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+        <v>1643</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2179.333</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.336</v>
+      </c>
       <c r="N20"/>
-      <c r="O20" t="s">
-        <v>126</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="R20" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="S20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="n">
-        <v>69</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21"/>
       <c r="G21" t="n">
-        <v>55784</v>
+        <v>70</v>
       </c>
       <c r="H21" t="n">
-        <v>42.052</v>
+        <v>57423</v>
       </c>
       <c r="I21" t="n">
-        <v>580</v>
+        <v>43.288</v>
       </c>
       <c r="J21" t="n">
-        <v>0.437</v>
+        <v>1659</v>
       </c>
       <c r="K21" t="n">
-        <v>672.667</v>
+        <v>1.251</v>
       </c>
       <c r="L21" t="n">
-        <v>0.507</v>
+        <v>990</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.571</v>
+        <v>0.746</v>
       </c>
       <c r="N21" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="O21" t="s">
-        <v>132</v>
+        <v>1131.857</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.853</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="Q21" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="R21" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="S21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
       <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" t="n">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="n">
         <v>26</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>24088</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0.21</v>
       </c>
-      <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="s">
-        <v>138</v>
-      </c>
+      <c r="O22"/>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="Q22" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C23" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" t="n">
-        <v>66</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="n">
-        <v>103445</v>
+        <v>67</v>
       </c>
       <c r="H23" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="M23"/>
-      <c r="N23" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="O23" t="s">
-        <v>144</v>
+        <v>106272</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="n">
+        <v>0.413</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
+        <v>53</v>
+      </c>
+      <c r="S23" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>43949</v>
       </c>
-      <c r="C24" t="s">
-        <v>147</v>
-      </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" t="n">
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="n">
         <v>23</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>724574</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>11.101</v>
       </c>
-      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24" t="s">
-        <v>148</v>
-      </c>
+      <c r="O24"/>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="Q24" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="R24" t="s">
-        <v>151</v>
+        <v>24</v>
+      </c>
+      <c r="S24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>43947</v>
       </c>
-      <c r="C25" t="s">
-        <v>153</v>
-      </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="n">
+        <v>179</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>2547052</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>30.4</v>
       </c>
-      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="s">
-        <v>154</v>
-      </c>
+      <c r="O25"/>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="Q25" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="R25" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+      <c r="S25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>43952</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>43953</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="n">
-        <v>12</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>117049</v>
+        <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>3.767</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+        <v>129461</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12412</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.399</v>
+      </c>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26" t="s">
-        <v>162</v>
-      </c>
+      <c r="O26"/>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="R26" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="S26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
       <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="n">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" t="n">
         <v>44</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>80951</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>7.767</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>1619</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.155</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>1233.333</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.118</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>2122.429</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.204</v>
       </c>
-      <c r="O27" t="s">
-        <v>169</v>
-      </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="Q27" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="R27" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="S27" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="C28" t="s">
-        <v>173</v>
-      </c>
       <c r="D28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="n">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>154989</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>20.674</v>
       </c>
-      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28" t="s">
-        <v>175</v>
-      </c>
+      <c r="O28"/>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="R28" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="S28" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C29" t="s">
-        <v>179</v>
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="n">
-        <v>60</v>
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
       </c>
       <c r="G29" t="n">
-        <v>83958</v>
+        <v>61</v>
       </c>
       <c r="H29" t="n">
-        <v>8.691</v>
+        <v>85557</v>
       </c>
       <c r="I29" t="n">
-        <v>1948</v>
+        <v>8.857</v>
       </c>
       <c r="J29" t="n">
-        <v>0.202</v>
+        <v>1599</v>
       </c>
       <c r="K29" t="n">
-        <v>2542.333</v>
+        <v>0.166</v>
       </c>
       <c r="L29" t="n">
-        <v>0.263</v>
+        <v>2002</v>
       </c>
       <c r="M29" t="n">
-        <v>2619</v>
+        <v>0.208</v>
       </c>
       <c r="N29" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="O29" t="s">
-        <v>180</v>
+        <v>2626.429</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.272</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="Q29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="R29" t="s">
-        <v>184</v>
+        <v>212</v>
+      </c>
+      <c r="S29" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C30" t="s">
-        <v>186</v>
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="n">
-        <v>67</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>50436</v>
+        <v>68</v>
       </c>
       <c r="H30" t="n">
-        <v>147.798</v>
-      </c>
-      <c r="I30"/>
+        <v>51304</v>
+      </c>
+      <c r="I30" t="n">
+        <v>150.341</v>
+      </c>
       <c r="J30" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="K30"/>
+        <v>868</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.544</v>
+      </c>
       <c r="L30" t="n">
-        <v>1.311</v>
-      </c>
-      <c r="M30"/>
+        <v>447.667</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.312</v>
+      </c>
       <c r="N30" t="n">
-        <v>1.717</v>
-      </c>
-      <c r="O30" t="s">
-        <v>187</v>
+        <v>611.429</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.792</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="Q30" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="R30" t="s">
-        <v>189</v>
+        <v>218</v>
+      </c>
+      <c r="S30" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>43945</v>
       </c>
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" t="n">
+        <v>223</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="n">
         <v>24</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>525667</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.381</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>40495</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.029</v>
       </c>
-      <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31" t="s">
-        <v>192</v>
-      </c>
+      <c r="O31"/>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="Q31" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="R31" t="s">
-        <v>194</v>
+        <v>87</v>
+      </c>
+      <c r="S31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C32" t="s">
-        <v>191</v>
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" t="n">
-        <v>40</v>
+        <v>223</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
       </c>
       <c r="G32" t="n">
-        <v>1046450</v>
+        <v>42</v>
       </c>
       <c r="H32" t="n">
-        <v>0.758</v>
+        <v>1191946</v>
       </c>
       <c r="I32" t="n">
-        <v>70087</v>
+        <v>0.864</v>
       </c>
       <c r="J32" t="n">
-        <v>0.051</v>
+        <v>84713</v>
       </c>
       <c r="K32" t="n">
-        <v>72083</v>
+        <v>0.061</v>
       </c>
       <c r="L32" t="n">
+        <v>71861</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.052</v>
       </c>
-      <c r="M32" t="n">
-        <v>60163</v>
-      </c>
       <c r="N32" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="O32" t="s">
-        <v>192</v>
+        <v>67887.571</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.049</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="R32" t="s">
-        <v>194</v>
+        <v>53</v>
+      </c>
+      <c r="S32" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C33" t="s">
-        <v>197</v>
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33" t="n">
-        <v>45</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" t="n">
-        <v>86061</v>
+        <v>46</v>
       </c>
       <c r="H33" t="n">
-        <v>0.315</v>
+        <v>88924</v>
       </c>
       <c r="I33" t="n">
-        <v>3049</v>
+        <v>0.325</v>
       </c>
       <c r="J33" t="n">
+        <v>2863</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3018.667</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.011</v>
       </c>
-      <c r="K33" t="n">
-        <v>3174.333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3807.429</v>
-      </c>
       <c r="N33" t="n">
+        <v>3768.571</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.014</v>
       </c>
-      <c r="O33" t="s">
-        <v>198</v>
-      </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="Q33" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="R33" t="s">
-        <v>200</v>
+        <v>73</v>
+      </c>
+      <c r="S33" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" t="n">
-        <v>25</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>508288</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>6.052</v>
+        <v>519543</v>
       </c>
       <c r="I34" t="n">
-        <v>12015</v>
+        <v>6.186</v>
       </c>
       <c r="J34" t="n">
-        <v>0.143</v>
+        <v>11255</v>
       </c>
       <c r="K34" t="n">
-        <v>11088.333</v>
+        <v>0.134</v>
       </c>
       <c r="L34" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="M34"/>
+        <v>11667.333</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.139</v>
+      </c>
       <c r="N34"/>
-      <c r="O34" t="s">
-        <v>203</v>
-      </c>
+      <c r="O34"/>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="R34" t="s">
-        <v>205</v>
+        <v>24</v>
+      </c>
+      <c r="S34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>43949</v>
-      </c>
-      <c r="C35" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" t="n">
-        <v>8</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35"/>
       <c r="G35" t="n">
-        <v>153054</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
-        <v>30.996</v>
-      </c>
-      <c r="I35"/>
+        <v>214761</v>
+      </c>
+      <c r="I35" t="n">
+        <v>43.493</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" t="s">
-        <v>174</v>
-      </c>
+      <c r="O35"/>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q35" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="R35" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="S35" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C36" t="s">
-        <v>212</v>
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" t="n">
-        <v>74</v>
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
       </c>
       <c r="G36" t="n">
-        <v>403408</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
-        <v>46.607</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="M36"/>
-      <c r="N36" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="O36" t="s">
-        <v>38</v>
+        <v>413517</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47.775</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36" t="n">
+        <v>0.968</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="R36" t="s">
-        <v>216</v>
+        <v>24</v>
+      </c>
+      <c r="S36" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" t="n">
-        <v>16</v>
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>1479910</v>
+        <v>17</v>
       </c>
       <c r="H37" t="n">
-        <v>24.477</v>
+        <v>1512121</v>
       </c>
       <c r="I37" t="n">
-        <v>22999</v>
+        <v>25.01</v>
       </c>
       <c r="J37" t="n">
-        <v>0.38</v>
+        <v>32211</v>
       </c>
       <c r="K37" t="n">
-        <v>27092.333</v>
+        <v>0.533</v>
       </c>
       <c r="L37" t="n">
-        <v>0.448</v>
+        <v>27419</v>
       </c>
       <c r="M37" t="n">
-        <v>34656.143</v>
+        <v>0.453</v>
       </c>
       <c r="N37" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="O37" t="s">
-        <v>221</v>
+        <v>33892.857</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.56</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="Q37" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="R37" t="s">
-        <v>223</v>
+        <v>87</v>
+      </c>
+      <c r="S37" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" t="n">
-        <v>71</v>
+        <v>255</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
       </c>
       <c r="G38" t="n">
-        <v>2191403</v>
+        <v>72</v>
       </c>
       <c r="H38" t="n">
-        <v>36.244</v>
+        <v>2246666</v>
       </c>
       <c r="I38" t="n">
-        <v>37631</v>
+        <v>37.158</v>
       </c>
       <c r="J38" t="n">
-        <v>0.622</v>
+        <v>55263</v>
       </c>
       <c r="K38" t="n">
-        <v>45992.667</v>
+        <v>0.914</v>
       </c>
       <c r="L38" t="n">
+        <v>45943</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.76</v>
       </c>
-      <c r="M38" t="n">
-        <v>57391.571</v>
-      </c>
       <c r="N38" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="O38" t="s">
-        <v>221</v>
+        <v>57104.571</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.944</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="R38" t="s">
-        <v>225</v>
+        <v>24</v>
+      </c>
+      <c r="S38" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C39" t="s">
-        <v>227</v>
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" t="n">
-        <v>68</v>
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
       </c>
       <c r="G39" t="n">
-        <v>184586</v>
+        <v>69</v>
       </c>
       <c r="H39" t="n">
-        <v>1.459</v>
-      </c>
-      <c r="I39"/>
+        <v>186343</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.473</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39" t="s">
-        <v>228</v>
-      </c>
+      <c r="O39"/>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="R39" t="s">
-        <v>231</v>
+        <v>87</v>
+      </c>
+      <c r="S39" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>43951</v>
-      </c>
-      <c r="C40" t="s">
-        <v>233</v>
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>43954</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" t="n">
-        <v>73</v>
+        <v>265</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
       </c>
       <c r="G40" t="n">
-        <v>273854</v>
+        <v>76</v>
       </c>
       <c r="H40" t="n">
-        <v>2.165</v>
+        <v>283306</v>
       </c>
       <c r="I40" t="n">
-        <v>6636</v>
+        <v>2.24</v>
       </c>
       <c r="J40" t="n">
-        <v>0.052</v>
+        <v>2550</v>
       </c>
       <c r="K40" t="n">
-        <v>7305</v>
+        <v>0.02</v>
       </c>
       <c r="L40" t="n">
-        <v>0.058</v>
+        <v>3150.667</v>
       </c>
       <c r="M40" t="n">
-        <v>6755.286</v>
+        <v>0.025</v>
       </c>
       <c r="N40" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="O40" t="s">
-        <v>228</v>
+        <v>5455.429</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.043</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="R40" t="s">
-        <v>235</v>
+        <v>24</v>
+      </c>
+      <c r="S40" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
+        <v>273</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41" t="n">
-        <v>53</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="n">
-        <v>306861</v>
+        <v>54</v>
       </c>
       <c r="H41" t="n">
-        <v>16.343</v>
+        <v>320411</v>
       </c>
       <c r="I41" t="n">
-        <v>10725</v>
+        <v>17.064</v>
       </c>
       <c r="J41" t="n">
-        <v>0.571</v>
+        <v>13550</v>
       </c>
       <c r="K41" t="n">
-        <v>12775.667</v>
+        <v>0.722</v>
       </c>
       <c r="L41" t="n">
-        <v>0.68</v>
+        <v>12516.333</v>
       </c>
       <c r="M41" t="n">
-        <v>14471.571</v>
+        <v>0.667</v>
       </c>
       <c r="N41" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="O41" t="s">
-        <v>238</v>
+        <v>14876.429</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.792</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="Q41" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="R41" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="S41" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C42" t="s">
-        <v>241</v>
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42" t="n">
-        <v>40</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E42" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="n">
-        <v>23780</v>
+        <v>39</v>
       </c>
       <c r="H42" t="n">
-        <v>0.442</v>
+        <v>25869</v>
       </c>
       <c r="I42" t="n">
-        <v>883</v>
+        <v>0.481</v>
       </c>
       <c r="J42" t="n">
-        <v>0.016</v>
+        <v>1077</v>
       </c>
       <c r="K42" t="n">
-        <v>1170.667</v>
+        <v>0.02</v>
       </c>
       <c r="L42" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="M42"/>
+        <v>990.667</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.018</v>
+      </c>
       <c r="N42"/>
-      <c r="O42" t="s">
-        <v>38</v>
-      </c>
+      <c r="O42"/>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="Q42" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="R42" t="s">
-        <v>245</v>
+        <v>283</v>
+      </c>
+      <c r="S42" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" t="n">
-        <v>66</v>
+        <v>288</v>
+      </c>
+      <c r="F43" t="s">
+        <v>289</v>
       </c>
       <c r="G43" t="n">
-        <v>65464</v>
+        <v>67</v>
       </c>
       <c r="H43" t="n">
-        <v>34.707</v>
+        <v>66150</v>
       </c>
       <c r="I43" t="n">
-        <v>1219</v>
+        <v>35.07</v>
       </c>
       <c r="J43" t="n">
-        <v>0.646</v>
+        <v>686</v>
       </c>
       <c r="K43" t="n">
-        <v>1448</v>
+        <v>0.364</v>
       </c>
       <c r="L43" t="n">
-        <v>0.768</v>
+        <v>1016</v>
       </c>
       <c r="M43" t="n">
-        <v>2326.143</v>
+        <v>0.539</v>
       </c>
       <c r="N43" t="n">
-        <v>1.233</v>
-      </c>
-      <c r="O43" t="s">
-        <v>248</v>
+        <v>2084.143</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.105</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="Q43" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="R43" t="s">
-        <v>250</v>
+        <v>24</v>
+      </c>
+      <c r="S43" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>251</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C44" t="s">
-        <v>252</v>
+        <v>291</v>
+      </c>
+      <c r="B44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" t="n">
-        <v>44</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44"/>
       <c r="G44" t="n">
-        <v>144029</v>
+        <v>45</v>
       </c>
       <c r="H44" t="n">
-        <v>52.907</v>
+        <v>149106</v>
       </c>
       <c r="I44" t="n">
-        <v>2351</v>
+        <v>54.772</v>
       </c>
       <c r="J44" t="n">
-        <v>0.864</v>
+        <v>5077</v>
       </c>
       <c r="K44" t="n">
-        <v>3753.667</v>
+        <v>1.865</v>
       </c>
       <c r="L44" t="n">
-        <v>1.379</v>
+        <v>3612</v>
       </c>
       <c r="M44" t="n">
-        <v>5322</v>
+        <v>1.327</v>
       </c>
       <c r="N44" t="n">
-        <v>1.955</v>
-      </c>
-      <c r="O44" t="s">
-        <v>38</v>
+        <v>5328.143</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.957</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="Q44" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="R44" t="s">
-        <v>254</v>
+        <v>53</v>
+      </c>
+      <c r="S44" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>255</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C45" t="s">
-        <v>256</v>
+        <v>296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45" t="n">
-        <v>29</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="n">
-        <v>48339</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>77.222</v>
-      </c>
-      <c r="I45"/>
+        <v>49299</v>
+      </c>
+      <c r="I45" t="n">
+        <v>78.755</v>
+      </c>
       <c r="J45" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="K45"/>
+        <v>960</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.534</v>
+      </c>
       <c r="L45" t="n">
-        <v>1.834</v>
-      </c>
-      <c r="M45"/>
+        <v>613</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.979</v>
+      </c>
       <c r="N45" t="n">
-        <v>2.108</v>
-      </c>
-      <c r="O45" t="s">
-        <v>257</v>
+        <v>1365.429</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.181</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="Q45" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="R45" t="s">
-        <v>259</v>
+        <v>24</v>
+      </c>
+      <c r="S45" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C46" t="s">
-        <v>261</v>
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="n">
-        <v>61</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="n">
-        <v>205598</v>
+        <v>62</v>
       </c>
       <c r="H46" t="n">
-        <v>6.352</v>
+        <v>213220</v>
       </c>
       <c r="I46" t="n">
-        <v>9765</v>
+        <v>6.588</v>
       </c>
       <c r="J46" t="n">
-        <v>0.302</v>
+        <v>7622</v>
       </c>
       <c r="K46" t="n">
-        <v>12271.333</v>
+        <v>0.235</v>
       </c>
       <c r="L46" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="M46"/>
+        <v>9669</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.299</v>
+      </c>
       <c r="N46"/>
-      <c r="O46" t="s">
-        <v>262</v>
-      </c>
+      <c r="O46"/>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Q46" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="R46" t="s">
-        <v>265</v>
+        <v>307</v>
+      </c>
+      <c r="S46" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>266</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="C47" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="B47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="n">
-        <v>123</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>83175</v>
+        <v>125</v>
       </c>
       <c r="H47" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="I47"/>
-      <c r="J47" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="M47"/>
-      <c r="N47" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="O47" t="s">
-        <v>268</v>
+        <v>86898</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47" t="n">
+        <v>0.013</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="Q47" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="R47" t="s">
-        <v>269</v>
+        <v>73</v>
+      </c>
+      <c r="S47" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B48" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>43952</v>
       </c>
-      <c r="C48" t="s">
-        <v>271</v>
-      </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" t="n">
+        <v>317</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="n">
         <v>56</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>37006</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>1.003</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>2165</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.059</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>1918.667</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.052</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1867.571</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.051</v>
       </c>
-      <c r="O48" t="s">
-        <v>272</v>
-      </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="Q48" t="s">
-        <v>64</v>
+        <v>319</v>
       </c>
       <c r="R48" t="s">
-        <v>275</v>
+        <v>73</v>
+      </c>
+      <c r="S48" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="C49" t="s">
-        <v>277</v>
-      </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
-      </c>
-      <c r="F49" t="n">
+        <v>324</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49" t="n">
         <v>29</v>
       </c>
-      <c r="G49" t="n">
-        <v>8794</v>
-      </c>
       <c r="H49" t="n">
-        <v>0.162</v>
+        <v>9038</v>
       </c>
       <c r="I49" t="n">
-        <v>91</v>
+        <v>0.166</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002</v>
+        <v>244</v>
       </c>
       <c r="K49" t="n">
-        <v>184.667</v>
+        <v>0.004</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003</v>
+        <v>266</v>
       </c>
       <c r="M49" t="n">
-        <v>225.571</v>
+        <v>0.005</v>
       </c>
       <c r="N49" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O49" t="s">
-        <v>278</v>
+        <v>260.429</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.005</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="R49" t="s">
-        <v>281</v>
+        <v>53</v>
+      </c>
+      <c r="S49" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C50" t="s">
-        <v>283</v>
+        <v>327</v>
+      </c>
+      <c r="B50" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F50" t="n">
-        <v>73</v>
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
       </c>
       <c r="G50" t="n">
-        <v>13424</v>
+        <v>74</v>
       </c>
       <c r="H50" t="n">
-        <v>0.461</v>
+        <v>13640</v>
       </c>
       <c r="I50" t="n">
-        <v>326</v>
+        <v>0.468</v>
       </c>
       <c r="J50" t="n">
-        <v>0.011</v>
+        <v>216</v>
       </c>
       <c r="K50" t="n">
-        <v>471</v>
+        <v>0.007</v>
       </c>
       <c r="L50" t="n">
+        <v>354.333</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N50" t="n">
+        <v>452.714</v>
+      </c>
+      <c r="O50" t="n">
         <v>0.016</v>
       </c>
-      <c r="M50" t="n">
-        <v>499</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="O50" t="s">
-        <v>284</v>
-      </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Q50" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="R50" t="s">
-        <v>287</v>
+        <v>87</v>
+      </c>
+      <c r="S50" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B51" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>43954</v>
       </c>
-      <c r="C51" t="s">
-        <v>289</v>
-      </c>
       <c r="D51" t="s">
-        <v>290</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="n">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" t="n">
         <v>14</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>235909</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>13.768</v>
       </c>
-      <c r="I51"/>
-      <c r="J51" t="n">
+      <c r="J51"/>
+      <c r="K51" t="n">
         <v>0.079</v>
       </c>
-      <c r="K51"/>
-      <c r="L51" t="n">
+      <c r="L51"/>
+      <c r="M51" t="n">
         <v>0.172</v>
       </c>
-      <c r="M51"/>
-      <c r="N51" t="n">
+      <c r="N51"/>
+      <c r="O51" t="n">
         <v>0.218</v>
       </c>
-      <c r="O51" t="s">
-        <v>291</v>
-      </c>
       <c r="P51" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="Q51" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="R51" t="s">
-        <v>293</v>
+        <v>87</v>
+      </c>
+      <c r="S51" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C52" t="s">
-        <v>295</v>
+        <v>341</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="n">
-        <v>56</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>152696</v>
+        <v>57</v>
       </c>
       <c r="H52" t="n">
-        <v>31.665</v>
+        <v>155928</v>
       </c>
       <c r="I52" t="n">
-        <v>2473</v>
+        <v>32.335</v>
       </c>
       <c r="J52" t="n">
-        <v>0.513</v>
+        <v>3232</v>
       </c>
       <c r="K52" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3446.333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="N52" t="n">
         <v>4266</v>
       </c>
-      <c r="L52" t="n">
+      <c r="O52" t="n">
         <v>0.885</v>
       </c>
-      <c r="M52" t="n">
-        <v>4110.857</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="O52" t="s">
-        <v>296</v>
-      </c>
       <c r="P52" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="Q52" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="R52" t="s">
-        <v>297</v>
+        <v>24</v>
+      </c>
+      <c r="S52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>298</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C53" t="s">
-        <v>299</v>
+        <v>346</v>
+      </c>
+      <c r="B53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="n">
-        <v>10</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E53" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>18536</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09</v>
+        <v>19512</v>
       </c>
       <c r="I53" t="n">
-        <v>1948</v>
+        <v>0.095</v>
       </c>
       <c r="J53" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="K53"/>
+        <v>976</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.005</v>
+      </c>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" t="s">
-        <v>300</v>
-      </c>
+      <c r="O53"/>
       <c r="P53" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="Q53" t="s">
-        <v>47</v>
+        <v>350</v>
       </c>
       <c r="R53" t="s">
-        <v>302</v>
+        <v>53</v>
+      </c>
+      <c r="S53" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C54" t="s">
-        <v>304</v>
+        <v>352</v>
+      </c>
+      <c r="B54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="n">
-        <v>45</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="E54" t="s">
+        <v>355</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" t="n">
-        <v>182285</v>
+        <v>46</v>
       </c>
       <c r="H54" t="n">
-        <v>33.624</v>
-      </c>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
+        <v>189657</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34.984</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7372</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.36</v>
+      </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="s">
-        <v>305</v>
-      </c>
+      <c r="O54"/>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="Q54" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="R54" t="s">
-        <v>308</v>
+        <v>357</v>
+      </c>
+      <c r="S54" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C55" t="s">
-        <v>310</v>
+        <v>359</v>
+      </c>
+      <c r="B55" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D55" t="s">
-        <v>311</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="E55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55"/>
       <c r="G55" t="n">
-        <v>212511</v>
+        <v>55</v>
       </c>
       <c r="H55" t="n">
-        <v>0.962</v>
+        <v>222404</v>
       </c>
       <c r="I55" t="n">
-        <v>9486</v>
+        <v>1.007</v>
       </c>
       <c r="J55" t="n">
+        <v>9893</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9515</v>
+      </c>
+      <c r="M55" t="n">
         <v>0.043</v>
       </c>
-      <c r="K55" t="n">
-        <v>10126.667</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="M55" t="n">
-        <v>8822.143</v>
-      </c>
       <c r="N55" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O55" t="s">
-        <v>311</v>
+        <v>9311.571</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.042</v>
       </c>
       <c r="P55" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="Q55" t="s">
-        <v>22</v>
+        <v>363</v>
       </c>
       <c r="R55" t="s">
-        <v>313</v>
+        <v>24</v>
+      </c>
+      <c r="S55" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>314</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C56" t="s">
-        <v>315</v>
+        <v>365</v>
+      </c>
+      <c r="B56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F56" t="n">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>368</v>
       </c>
       <c r="G56" t="n">
-        <v>34459</v>
+        <v>57</v>
       </c>
       <c r="H56" t="n">
-        <v>7.986</v>
+        <v>35556</v>
       </c>
       <c r="I56" t="n">
-        <v>1105</v>
+        <v>8.241</v>
       </c>
       <c r="J56" t="n">
+        <v>1097</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1220.333</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1103.143</v>
+      </c>
+      <c r="O56" t="n">
         <v>0.256</v>
       </c>
-      <c r="K56" t="n">
-        <v>1236.667</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1116.714</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="O56" t="s">
-        <v>38</v>
-      </c>
       <c r="P56" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="Q56" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="R56" t="s">
-        <v>318</v>
+        <v>121</v>
+      </c>
+      <c r="S56" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>319</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C57" t="s">
-        <v>320</v>
+        <v>371</v>
+      </c>
+      <c r="B57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D57" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
-      </c>
-      <c r="F57" t="n">
-        <v>55</v>
+        <v>374</v>
+      </c>
+      <c r="F57" t="s">
+        <v>375</v>
       </c>
       <c r="G57" t="n">
-        <v>11091</v>
+        <v>57</v>
       </c>
       <c r="H57" t="n">
-        <v>1.555</v>
+        <v>11898</v>
       </c>
       <c r="I57" t="n">
-        <v>340</v>
+        <v>1.668</v>
       </c>
       <c r="J57" t="n">
-        <v>0.048</v>
+        <v>458</v>
       </c>
       <c r="K57" t="n">
-        <v>401</v>
+        <v>0.064</v>
       </c>
       <c r="L57" t="n">
-        <v>0.056</v>
+        <v>382.333</v>
       </c>
       <c r="M57" t="n">
-        <v>454.429</v>
+        <v>0.054</v>
       </c>
       <c r="N57" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="O57" t="s">
-        <v>323</v>
+        <v>431.714</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.061</v>
       </c>
       <c r="P57" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="R57" t="s">
-        <v>325</v>
+        <v>53</v>
+      </c>
+      <c r="S57" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>326</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C58" t="s">
-        <v>327</v>
+        <v>379</v>
+      </c>
+      <c r="B58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58" t="n">
-        <v>56</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>385492</v>
+        <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>11.692</v>
+        <v>406579</v>
       </c>
       <c r="I58" t="n">
-        <v>10396</v>
+        <v>12.331</v>
       </c>
       <c r="J58" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="K58"/>
+        <v>21087</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.64</v>
+      </c>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" t="s">
-        <v>328</v>
-      </c>
+      <c r="O58"/>
       <c r="P58" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="Q58" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="R58" t="s">
-        <v>331</v>
+        <v>384</v>
+      </c>
+      <c r="S58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>332</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C59" t="s">
-        <v>333</v>
+        <v>386</v>
+      </c>
+      <c r="B59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59" t="n">
-        <v>16</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="n">
-        <v>113333</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>1.034</v>
-      </c>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
+        <v>119512</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6179</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.056</v>
+      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
-      <c r="O59" t="s">
-        <v>174</v>
-      </c>
+      <c r="O59"/>
       <c r="P59" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="Q59" t="s">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="R59" t="s">
-        <v>335</v>
+        <v>87</v>
+      </c>
+      <c r="S59" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>336</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C60" t="s">
-        <v>337</v>
+        <v>391</v>
+      </c>
+      <c r="B60" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D60" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
-      </c>
-      <c r="F60" t="n">
-        <v>61</v>
+        <v>394</v>
+      </c>
+      <c r="F60" t="s">
+        <v>395</v>
       </c>
       <c r="G60" t="n">
-        <v>383804</v>
+        <v>62</v>
       </c>
       <c r="H60" t="n">
-        <v>10.141</v>
+        <v>394270</v>
       </c>
       <c r="I60" t="n">
-        <v>7856</v>
+        <v>10.418</v>
       </c>
       <c r="J60" t="n">
-        <v>0.208</v>
+        <v>10466</v>
       </c>
       <c r="K60" t="n">
-        <v>9725.333</v>
+        <v>0.277</v>
       </c>
       <c r="L60" t="n">
-        <v>0.257</v>
+        <v>9419</v>
       </c>
       <c r="M60" t="n">
-        <v>12277.857</v>
+        <v>0.249</v>
       </c>
       <c r="N60" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="O60" t="s">
-        <v>340</v>
+        <v>11932.286</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.316</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="Q60" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="R60" t="s">
-        <v>342</v>
+        <v>53</v>
+      </c>
+      <c r="S60" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>43951</v>
-      </c>
-      <c r="C61" t="s">
-        <v>344</v>
+        <v>399</v>
+      </c>
+      <c r="B61" t="s">
+        <v>400</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>43954</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" t="n">
-        <v>61</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61"/>
       <c r="G61" t="n">
-        <v>426836</v>
+        <v>64</v>
       </c>
       <c r="H61" t="n">
-        <v>41.86</v>
+        <v>458553</v>
       </c>
       <c r="I61" t="n">
-        <v>16061</v>
+        <v>44.971</v>
       </c>
       <c r="J61" t="n">
-        <v>1.575</v>
+        <v>8416</v>
       </c>
       <c r="K61" t="n">
-        <v>15421.333</v>
+        <v>0.825</v>
       </c>
       <c r="L61" t="n">
-        <v>1.512</v>
+        <v>10479.333</v>
       </c>
       <c r="M61" t="n">
-        <v>13542.143</v>
+        <v>1.028</v>
       </c>
       <c r="N61" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="O61" t="s">
-        <v>345</v>
+        <v>12875</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.263</v>
       </c>
       <c r="P61" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="Q61" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="R61" t="s">
-        <v>347</v>
+        <v>403</v>
+      </c>
+      <c r="S61" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C62" t="s">
-        <v>349</v>
+        <v>405</v>
+      </c>
+      <c r="B62" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62" t="n">
-        <v>47</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="E62" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62"/>
       <c r="G62" t="n">
-        <v>106795</v>
+        <v>48</v>
       </c>
       <c r="H62" t="n">
-        <v>37.068</v>
+        <v>109762</v>
       </c>
       <c r="I62" t="n">
-        <v>2360</v>
+        <v>38.098</v>
       </c>
       <c r="J62" t="n">
-        <v>0.819</v>
+        <v>2967</v>
       </c>
       <c r="K62" t="n">
-        <v>3023</v>
+        <v>1.03</v>
       </c>
       <c r="L62" t="n">
+        <v>2678</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3022.143</v>
+      </c>
+      <c r="O62" t="n">
         <v>1.049</v>
       </c>
-      <c r="M62" t="n">
-        <v>3012.286</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.046</v>
-      </c>
-      <c r="O62" t="s">
-        <v>350</v>
-      </c>
       <c r="P62" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="Q62" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="R62" t="s">
-        <v>352</v>
+        <v>87</v>
+      </c>
+      <c r="S62" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>353</v>
-      </c>
-      <c r="B63" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B63" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="C63" t="s">
-        <v>354</v>
-      </c>
       <c r="D63" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
-      </c>
-      <c r="F63" t="n">
+        <v>414</v>
+      </c>
+      <c r="F63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" t="n">
         <v>54</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>199068</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>10.348</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>3560</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>0.185</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>5126.667</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0.266</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>7890.571</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.41</v>
       </c>
-      <c r="O63" t="s">
-        <v>355</v>
-      </c>
       <c r="P63" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="Q63" t="s">
-        <v>22</v>
+        <v>413</v>
       </c>
       <c r="R63" t="s">
-        <v>357</v>
+        <v>24</v>
+      </c>
+      <c r="S63" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>358</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C64" t="s">
-        <v>359</v>
+        <v>417</v>
+      </c>
+      <c r="B64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D64" t="s">
-        <v>360</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" t="n">
-        <v>58</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E64" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64"/>
       <c r="G64" t="n">
-        <v>4303243</v>
+        <v>59</v>
       </c>
       <c r="H64" t="n">
-        <v>29.488</v>
+        <v>4460357</v>
       </c>
       <c r="I64" t="n">
-        <v>203244</v>
+        <v>30.564</v>
       </c>
       <c r="J64" t="n">
-        <v>1.393</v>
+        <v>157114</v>
       </c>
       <c r="K64" t="n">
-        <v>193145.333</v>
+        <v>1.077</v>
       </c>
       <c r="L64" t="n">
-        <v>1.324</v>
+        <v>171613</v>
       </c>
       <c r="M64" t="n">
-        <v>183401.286</v>
+        <v>1.176</v>
       </c>
       <c r="N64" t="n">
-        <v>1.257</v>
-      </c>
-      <c r="O64" t="s">
-        <v>360</v>
+        <v>188728.429</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.293</v>
       </c>
       <c r="P64" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="Q64" t="s">
-        <v>22</v>
+        <v>421</v>
       </c>
       <c r="R64" t="s">
-        <v>362</v>
+        <v>24</v>
+      </c>
+      <c r="S64" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B65" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="1" t="n">
         <v>43954</v>
       </c>
-      <c r="C65" t="s">
-        <v>364</v>
-      </c>
       <c r="D65" t="s">
-        <v>365</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65" t="n">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="n">
         <v>28</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>28754</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>2.22</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>1047</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>0.081</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>1203</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>0.093</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1310.429</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.101</v>
       </c>
-      <c r="O65" t="s">
-        <v>365</v>
-      </c>
       <c r="P65" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="Q65" t="s">
-        <v>47</v>
+        <v>427</v>
       </c>
       <c r="R65" t="s">
-        <v>367</v>
+        <v>53</v>
+      </c>
+      <c r="S65" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>368</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C66" t="s">
-        <v>369</v>
+        <v>429</v>
+      </c>
+      <c r="B66" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D66" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="E66" t="s">
-        <v>371</v>
-      </c>
-      <c r="F66" t="n">
-        <v>63</v>
+        <v>432</v>
+      </c>
+      <c r="F66" t="s">
+        <v>433</v>
       </c>
       <c r="G66" t="n">
-        <v>15577</v>
+        <v>64</v>
       </c>
       <c r="H66" t="n">
-        <v>0.93</v>
+        <v>16279</v>
       </c>
       <c r="I66" t="n">
-        <v>807</v>
+        <v>0.972</v>
       </c>
       <c r="J66" t="n">
-        <v>0.048</v>
+        <v>702</v>
       </c>
       <c r="K66" t="n">
-        <v>935.667</v>
+        <v>0.042</v>
       </c>
       <c r="L66" t="n">
-        <v>0.056</v>
+        <v>773</v>
       </c>
       <c r="M66" t="n">
-        <v>934.571</v>
+        <v>0.046</v>
       </c>
       <c r="N66" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="O66" t="s">
-        <v>372</v>
+        <v>910.143</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.054</v>
       </c>
       <c r="P66" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="Q66" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="R66" t="s">
-        <v>375</v>
+        <v>436</v>
+      </c>
+      <c r="S66" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>376</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C67" t="s">
-        <v>377</v>
+        <v>438</v>
+      </c>
+      <c r="B67" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
-      </c>
-      <c r="F67" t="n">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>441</v>
       </c>
       <c r="G67" t="n">
-        <v>101911</v>
+        <v>69</v>
       </c>
       <c r="H67" t="n">
-        <v>14.977</v>
+        <v>111278</v>
       </c>
       <c r="I67" t="n">
-        <v>5274</v>
+        <v>16.353</v>
       </c>
       <c r="J67" t="n">
-        <v>0.775</v>
+        <v>4817</v>
       </c>
       <c r="K67" t="n">
-        <v>5422</v>
+        <v>0.708</v>
       </c>
       <c r="L67" t="n">
-        <v>0.797</v>
+        <v>4880.333</v>
       </c>
       <c r="M67" t="n">
-        <v>5372.571</v>
+        <v>0.717</v>
       </c>
       <c r="N67" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="O67" t="s">
-        <v>38</v>
+        <v>5416.429</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.796</v>
       </c>
       <c r="P67" t="s">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="Q67" t="s">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="R67" t="s">
-        <v>380</v>
+        <v>87</v>
+      </c>
+      <c r="S67" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>381</v>
-      </c>
-      <c r="B68" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B68" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="C68" t="s">
-        <v>382</v>
-      </c>
       <c r="D68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68" t="n">
+        <v>446</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="n">
         <v>4</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>99929</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>17.081</v>
       </c>
-      <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
-      <c r="O68" t="s">
-        <v>38</v>
-      </c>
+      <c r="O68"/>
       <c r="P68" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="Q68" t="s">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="R68" t="s">
-        <v>383</v>
+        <v>87</v>
+      </c>
+      <c r="S68" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>384</v>
-      </c>
-      <c r="B69" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="C69" t="s">
-        <v>382</v>
-      </c>
       <c r="D69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69" t="n">
+        <v>446</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" t="n">
         <v>4</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>143919</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>24.6</v>
       </c>
-      <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" t="s">
-        <v>38</v>
-      </c>
+      <c r="O69"/>
       <c r="P69" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="Q69" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="R69" t="s">
-        <v>383</v>
+        <v>449</v>
+      </c>
+      <c r="S69" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>386</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C70" t="s">
-        <v>387</v>
+        <v>450</v>
+      </c>
+      <c r="B70" t="s">
+        <v>451</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D70" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" t="n">
-        <v>39</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="E70" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70"/>
       <c r="G70" t="n">
-        <v>97804</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
-        <v>17.914</v>
+        <v>99864</v>
       </c>
       <c r="I70" t="n">
-        <v>1584</v>
+        <v>18.291</v>
       </c>
       <c r="J70" t="n">
-        <v>0.29</v>
+        <v>2060</v>
       </c>
       <c r="K70" t="n">
-        <v>2244</v>
+        <v>0.377</v>
       </c>
       <c r="L70" t="n">
-        <v>0.411</v>
+        <v>1698</v>
       </c>
       <c r="M70" t="n">
-        <v>3386.429</v>
+        <v>0.311</v>
       </c>
       <c r="N70" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O70" t="s">
-        <v>389</v>
+        <v>3428.286</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.628</v>
       </c>
       <c r="P70" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="Q70" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="R70" t="s">
-        <v>392</v>
+        <v>456</v>
+      </c>
+      <c r="S70" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>393</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C71" t="s">
-        <v>394</v>
+        <v>458</v>
+      </c>
+      <c r="B71" t="s">
+        <v>459</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D71" t="s">
-        <v>395</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71" t="n">
-        <v>53</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="E71" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" t="n">
-        <v>56136</v>
+        <v>54</v>
       </c>
       <c r="H71" t="n">
-        <v>27.002</v>
+        <v>57474</v>
       </c>
       <c r="I71" t="n">
-        <v>616</v>
+        <v>27.646</v>
       </c>
       <c r="J71" t="n">
-        <v>0.296</v>
+        <v>1338</v>
       </c>
       <c r="K71" t="n">
-        <v>612</v>
+        <v>0.644</v>
       </c>
       <c r="L71" t="n">
-        <v>0.294</v>
+        <v>818</v>
       </c>
       <c r="M71" t="n">
-        <v>932.714</v>
+        <v>0.394</v>
       </c>
       <c r="N71" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="O71" t="s">
-        <v>396</v>
+        <v>1026.286</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.494</v>
       </c>
       <c r="P71" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="Q71" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="R71" t="s">
-        <v>398</v>
+        <v>24</v>
+      </c>
+      <c r="S71" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>399</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C72" t="s">
-        <v>400</v>
+        <v>465</v>
+      </c>
+      <c r="B72" t="s">
+        <v>466</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
-      </c>
-      <c r="F72" t="n">
-        <v>63</v>
+        <v>468</v>
+      </c>
+      <c r="F72" t="s">
+        <v>469</v>
       </c>
       <c r="G72" t="n">
-        <v>245747</v>
+        <v>65</v>
       </c>
       <c r="H72" t="n">
-        <v>4.144</v>
+        <v>257541</v>
       </c>
       <c r="I72" t="n">
-        <v>15061</v>
+        <v>4.342</v>
       </c>
       <c r="J72" t="n">
-        <v>0.254</v>
+        <v>11794</v>
       </c>
       <c r="K72" t="n">
-        <v>12739</v>
+        <v>0.199</v>
       </c>
       <c r="L72" t="n">
-        <v>0.215</v>
+        <v>13339.667</v>
       </c>
       <c r="M72" t="n">
-        <v>11014.857</v>
+        <v>0.225</v>
       </c>
       <c r="N72" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="O72" t="s">
-        <v>401</v>
+        <v>11295.857</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.19</v>
       </c>
       <c r="P72" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="Q72" t="s">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="R72" t="s">
-        <v>404</v>
+        <v>87</v>
+      </c>
+      <c r="S72" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>405</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C73" t="s">
-        <v>406</v>
+        <v>472</v>
+      </c>
+      <c r="B73" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="n">
-        <v>100</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="E73" t="s">
+        <v>475</v>
+      </c>
+      <c r="F73"/>
       <c r="G73" t="n">
-        <v>633921</v>
+        <v>101</v>
       </c>
       <c r="H73" t="n">
-        <v>12.365</v>
+        <v>640237</v>
       </c>
       <c r="I73" t="n">
-        <v>2948</v>
+        <v>12.488</v>
       </c>
       <c r="J73" t="n">
-        <v>0.058</v>
+        <v>6316</v>
       </c>
       <c r="K73" t="n">
-        <v>3617.333</v>
+        <v>0.123</v>
       </c>
       <c r="L73" t="n">
-        <v>0.071</v>
+        <v>4225</v>
       </c>
       <c r="M73" t="n">
-        <v>4608.714</v>
+        <v>0.083</v>
       </c>
       <c r="N73" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O73" t="s">
-        <v>407</v>
+        <v>4531.857</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.089</v>
       </c>
       <c r="P73" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="Q73" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="R73" t="s">
-        <v>409</v>
+        <v>73</v>
+      </c>
+      <c r="S73" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B74" t="s">
+        <v>479</v>
+      </c>
+      <c r="C74" s="1" t="n">
         <v>43951</v>
       </c>
-      <c r="C74" t="s">
-        <v>411</v>
-      </c>
       <c r="D74" t="s">
-        <v>412</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74" t="n">
+        <v>480</v>
+      </c>
+      <c r="E74" t="s">
+        <v>481</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="n">
         <v>3</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>1351130</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>28.898</v>
       </c>
-      <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" t="s">
-        <v>413</v>
-      </c>
+      <c r="O74"/>
       <c r="P74" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="Q74" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="R74" t="s">
-        <v>415</v>
+        <v>24</v>
+      </c>
+      <c r="S74" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>43947</v>
-      </c>
-      <c r="C75" t="s">
-        <v>417</v>
+        <v>485</v>
+      </c>
+      <c r="B75" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>43954</v>
       </c>
       <c r="D75" t="s">
-        <v>418</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75" t="n">
-        <v>9</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="E75" t="s">
+        <v>488</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" t="n">
-        <v>119200</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>11.803</v>
-      </c>
-      <c r="I75"/>
+        <v>148500</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14.704</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75"/>
-      <c r="O75" t="s">
-        <v>418</v>
-      </c>
+      <c r="O75"/>
       <c r="P75" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="Q75" t="s">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="R75" t="s">
-        <v>419</v>
+        <v>87</v>
+      </c>
+      <c r="S75" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>420</v>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C76" t="s">
-        <v>421</v>
+        <v>490</v>
+      </c>
+      <c r="B76" t="s">
+        <v>491</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D76" t="s">
-        <v>422</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76" t="n">
-        <v>97</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="E76" t="s">
+        <v>493</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="n">
-        <v>282742</v>
+        <v>98</v>
       </c>
       <c r="H76" t="n">
-        <v>32.669</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="K76"/>
-      <c r="L76" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M76"/>
-      <c r="N76" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="O76" t="s">
-        <v>423</v>
+        <v>286403</v>
+      </c>
+      <c r="I76" t="n">
+        <v>33.093</v>
+      </c>
+      <c r="J76"/>
+      <c r="K76" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76" t="n">
+        <v>0.436</v>
       </c>
       <c r="P76" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="Q76" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="R76" t="s">
-        <v>425</v>
+        <v>495</v>
+      </c>
+      <c r="S76" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>426</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C77" t="s">
-        <v>427</v>
+        <v>497</v>
+      </c>
+      <c r="B77" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D77" t="s">
-        <v>428</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77" t="n">
-        <v>59</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="E77" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>64436</v>
+        <v>60</v>
       </c>
       <c r="H77" t="n">
-        <v>2.705</v>
+        <v>64958</v>
       </c>
       <c r="I77" t="n">
-        <v>342</v>
+        <v>2.727</v>
       </c>
       <c r="J77" t="n">
-        <v>0.014</v>
+        <v>522</v>
       </c>
       <c r="K77" t="n">
-        <v>365.333</v>
+        <v>0.022</v>
       </c>
       <c r="L77" t="n">
-        <v>0.015</v>
+        <v>415</v>
       </c>
       <c r="M77" t="n">
-        <v>497.143</v>
+        <v>0.017</v>
       </c>
       <c r="N77" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="O77" t="s">
-        <v>428</v>
+        <v>467.714</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.02</v>
       </c>
       <c r="P77" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="Q77" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="R77" t="s">
-        <v>431</v>
+        <v>502</v>
+      </c>
+      <c r="S77" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>432</v>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C78" t="s">
-        <v>433</v>
+        <v>504</v>
+      </c>
+      <c r="B78" t="s">
+        <v>505</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D78" t="s">
-        <v>434</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="n">
-        <v>56</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="E78" t="s">
+        <v>507</v>
+      </c>
+      <c r="F78"/>
       <c r="G78" t="n">
-        <v>78768</v>
+        <v>57</v>
       </c>
       <c r="H78" t="n">
-        <v>1.128</v>
+        <v>82627</v>
       </c>
       <c r="I78" t="n">
-        <v>3500</v>
+        <v>1.184</v>
       </c>
       <c r="J78" t="n">
-        <v>0.05</v>
+        <v>3859</v>
       </c>
       <c r="K78" t="n">
-        <v>2744.333</v>
+        <v>0.055</v>
       </c>
       <c r="L78" t="n">
-        <v>0.039</v>
+        <v>3294</v>
       </c>
       <c r="M78" t="n">
-        <v>3326</v>
+        <v>0.047</v>
       </c>
       <c r="N78" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="O78" t="s">
-        <v>435</v>
+        <v>3529.286</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.051</v>
       </c>
       <c r="P78" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="Q78" t="s">
-        <v>76</v>
+        <v>509</v>
       </c>
       <c r="R78" t="s">
-        <v>437</v>
+        <v>87</v>
+      </c>
+      <c r="S78" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>438</v>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="C79" t="s">
-        <v>439</v>
+        <v>511</v>
+      </c>
+      <c r="B79" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>43954</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="n">
-        <v>54</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="E79" t="s">
+        <v>514</v>
+      </c>
+      <c r="F79"/>
       <c r="G79" t="n">
-        <v>24406</v>
+        <v>55</v>
       </c>
       <c r="H79" t="n">
-        <v>2.065</v>
+        <v>24853</v>
       </c>
       <c r="I79" t="n">
-        <v>351</v>
+        <v>2.103</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03</v>
+        <v>447</v>
       </c>
       <c r="K79" t="n">
-        <v>483</v>
+        <v>0.038</v>
       </c>
       <c r="L79" t="n">
-        <v>0.041</v>
+        <v>442.333</v>
       </c>
       <c r="M79" t="n">
-        <v>512.571</v>
+        <v>0.038</v>
       </c>
       <c r="N79" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="O79" t="s">
-        <v>440</v>
+        <v>538.857</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.046</v>
       </c>
       <c r="P79" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="Q79" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="R79" t="s">
-        <v>443</v>
+        <v>516</v>
+      </c>
+      <c r="S79" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>444</v>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C80" t="s">
-        <v>445</v>
+        <v>518</v>
+      </c>
+      <c r="B80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D80" t="s">
-        <v>446</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80" t="n">
-        <v>47</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="E80" t="s">
+        <v>521</v>
+      </c>
+      <c r="F80"/>
       <c r="G80" t="n">
-        <v>1171138</v>
+        <v>48</v>
       </c>
       <c r="H80" t="n">
-        <v>13.886</v>
+        <v>1204421</v>
       </c>
       <c r="I80" t="n">
-        <v>35771</v>
+        <v>14.281</v>
       </c>
       <c r="J80" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="K80"/>
+        <v>33283</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.395</v>
+      </c>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
-      <c r="O80" t="s">
-        <v>446</v>
-      </c>
+      <c r="O80"/>
       <c r="P80" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="Q80" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="R80" t="s">
-        <v>449</v>
+        <v>523</v>
+      </c>
+      <c r="S80" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>450</v>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C81" t="s">
-        <v>451</v>
+        <v>525</v>
+      </c>
+      <c r="B81" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="E81" t="s">
-        <v>453</v>
-      </c>
-      <c r="F81" t="n">
-        <v>27</v>
+        <v>528</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
       </c>
       <c r="G81" t="n">
-        <v>39216</v>
+        <v>28</v>
       </c>
       <c r="H81" t="n">
-        <v>0.857</v>
+        <v>41462</v>
       </c>
       <c r="I81" t="n">
-        <v>2930</v>
+        <v>0.906</v>
       </c>
       <c r="J81" t="n">
-        <v>0.064</v>
+        <v>2246</v>
       </c>
       <c r="K81" t="n">
-        <v>2622.667</v>
+        <v>0.049</v>
       </c>
       <c r="L81" t="n">
-        <v>0.057</v>
+        <v>2553.333</v>
       </c>
       <c r="M81" t="n">
-        <v>2414</v>
+        <v>0.056</v>
       </c>
       <c r="N81" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="O81" t="s">
-        <v>452</v>
+        <v>2369.571</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.052</v>
       </c>
       <c r="P81" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="Q81" t="s">
-        <v>47</v>
+        <v>530</v>
       </c>
       <c r="R81" t="s">
-        <v>455</v>
+        <v>53</v>
+      </c>
+      <c r="S81" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>456</v>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C82" t="s">
-        <v>457</v>
+        <v>532</v>
+      </c>
+      <c r="B82" t="s">
+        <v>533</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D82" t="s">
-        <v>458</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82" t="n">
-        <v>16</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="E82" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82"/>
       <c r="G82" t="n">
-        <v>134592</v>
+        <v>17</v>
       </c>
       <c r="H82" t="n">
-        <v>3.078</v>
+        <v>139759</v>
       </c>
       <c r="I82" t="n">
-        <v>4869</v>
+        <v>3.196</v>
       </c>
       <c r="J82" t="n">
-        <v>0.111</v>
+        <v>5167</v>
       </c>
       <c r="K82" t="n">
-        <v>5349</v>
+        <v>0.118</v>
       </c>
       <c r="L82" t="n">
-        <v>0.122</v>
+        <v>5669</v>
       </c>
       <c r="M82" t="n">
-        <v>5867.571</v>
+        <v>0.129</v>
       </c>
       <c r="N82" t="n">
+        <v>5862.857</v>
+      </c>
+      <c r="O82" t="n">
         <v>0.134</v>
       </c>
-      <c r="O82" t="s">
-        <v>458</v>
-      </c>
       <c r="P82" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="Q82" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="R82" t="s">
-        <v>461</v>
+        <v>537</v>
+      </c>
+      <c r="S82" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C83" t="s">
-        <v>463</v>
+        <v>539</v>
+      </c>
+      <c r="B83" t="s">
+        <v>540</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D83" t="s">
-        <v>464</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="n">
-        <v>101</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="E83" t="s">
+        <v>542</v>
+      </c>
+      <c r="F83"/>
       <c r="G83" t="n">
-        <v>945299</v>
+        <v>102</v>
       </c>
       <c r="H83" t="n">
-        <v>13.925</v>
+        <v>1015138</v>
       </c>
       <c r="I83" t="n">
-        <v>62956</v>
+        <v>14.954</v>
       </c>
       <c r="J83" t="n">
-        <v>0.927</v>
+        <v>69839</v>
       </c>
       <c r="K83" t="n">
-        <v>61006.667</v>
+        <v>1.029</v>
       </c>
       <c r="L83" t="n">
-        <v>0.899</v>
+        <v>63064</v>
       </c>
       <c r="M83" t="n">
-        <v>53401.714</v>
+        <v>0.929</v>
       </c>
       <c r="N83" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="O83" t="s">
-        <v>464</v>
+        <v>59154.286</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.871</v>
       </c>
       <c r="P83" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="Q83" t="s">
-        <v>76</v>
+        <v>543</v>
       </c>
       <c r="R83" t="s">
-        <v>466</v>
+        <v>87</v>
+      </c>
+      <c r="S83" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>467</v>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C84" t="s">
-        <v>468</v>
+        <v>539</v>
+      </c>
+      <c r="B84" t="s">
+        <v>545</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
-      </c>
-      <c r="E84"/>
-      <c r="F84" t="n">
-        <v>29</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="E84" t="s">
+        <v>542</v>
+      </c>
+      <c r="F84"/>
       <c r="G84" t="n">
-        <v>1291591</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>19.026</v>
+        <v>1383842</v>
       </c>
       <c r="I84" t="n">
-        <v>85186</v>
+        <v>20.385</v>
       </c>
       <c r="J84" t="n">
-        <v>1.255</v>
+        <v>84806</v>
       </c>
       <c r="K84" t="n">
-        <v>89206.333</v>
+        <v>1.249</v>
       </c>
       <c r="L84" t="n">
-        <v>1.314</v>
+        <v>82162.667</v>
       </c>
       <c r="M84" t="n">
-        <v>81081.286</v>
+        <v>1.21</v>
       </c>
       <c r="N84" t="n">
-        <v>1.194</v>
-      </c>
-      <c r="O84" t="s">
-        <v>464</v>
+        <v>86973.143</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.281</v>
       </c>
       <c r="P84" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="Q84" t="s">
-        <v>469</v>
+        <v>543</v>
       </c>
       <c r="R84" t="s">
-        <v>470</v>
+        <v>547</v>
+      </c>
+      <c r="S84" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>471</v>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C85" t="s">
-        <v>472</v>
+        <v>549</v>
+      </c>
+      <c r="B85" t="s">
+        <v>550</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D85" t="s">
-        <v>473</v>
-      </c>
-      <c r="E85"/>
-      <c r="F85" t="n">
-        <v>58</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="E85" t="s">
+        <v>552</v>
+      </c>
+      <c r="F85"/>
       <c r="G85" t="n">
-        <v>7053366</v>
+        <v>59</v>
       </c>
       <c r="H85" t="n">
-        <v>21.309</v>
+        <v>7285178</v>
       </c>
       <c r="I85" t="n">
-        <v>248125</v>
+        <v>22.009</v>
       </c>
       <c r="J85" t="n">
-        <v>0.75</v>
+        <v>231812</v>
       </c>
       <c r="K85" t="n">
-        <v>268891.333</v>
+        <v>0.7</v>
       </c>
       <c r="L85" t="n">
-        <v>0.813</v>
+        <v>244456</v>
       </c>
       <c r="M85" t="n">
-        <v>235759.143</v>
+        <v>0.739</v>
       </c>
       <c r="N85" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="O85" t="s">
-        <v>473</v>
+        <v>241579.571</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.73</v>
       </c>
       <c r="P85" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="Q85" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="R85" t="s">
-        <v>476</v>
+        <v>554</v>
+      </c>
+      <c r="S85" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>477</v>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>43947</v>
-      </c>
-      <c r="C86" t="s">
-        <v>478</v>
+        <v>549</v>
+      </c>
+      <c r="B86" t="s">
+        <v>556</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43948</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
-      </c>
-      <c r="E86"/>
-      <c r="F86" t="n">
-        <v>99</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="E86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86"/>
       <c r="G86" t="n">
-        <v>551541</v>
+        <v>100</v>
       </c>
       <c r="H86" t="n">
-        <v>1.666</v>
+        <v>582512</v>
       </c>
       <c r="I86" t="n">
-        <v>8291</v>
+        <v>1.76</v>
       </c>
       <c r="J86" t="n">
-        <v>0.025</v>
+        <v>22612</v>
       </c>
       <c r="K86" t="n">
-        <v>16205.667</v>
+        <v>0.068</v>
       </c>
       <c r="L86" t="n">
-        <v>0.049</v>
+        <v>15735.667</v>
       </c>
       <c r="M86" t="n">
-        <v>17656.857</v>
+        <v>0.048</v>
       </c>
       <c r="N86" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="O86" t="s">
-        <v>480</v>
+        <v>18752.429</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.057</v>
       </c>
       <c r="P86" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="Q86" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="R86" t="s">
-        <v>483</v>
+        <v>561</v>
+      </c>
+      <c r="S86" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>484</v>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="C87" t="s">
-        <v>485</v>
+        <v>563</v>
+      </c>
+      <c r="B87" t="s">
+        <v>564</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>43956</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87" t="n">
-        <v>37</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="E87" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87"/>
       <c r="G87" t="n">
-        <v>21939</v>
+        <v>38</v>
       </c>
       <c r="H87" t="n">
-        <v>6.316</v>
+        <v>22805</v>
       </c>
       <c r="I87" t="n">
-        <v>775</v>
+        <v>6.565</v>
       </c>
       <c r="J87" t="n">
-        <v>0.223</v>
+        <v>866</v>
       </c>
       <c r="K87" t="n">
-        <v>730.667</v>
+        <v>0.249</v>
       </c>
       <c r="L87" t="n">
-        <v>0.21</v>
+        <v>750.333</v>
       </c>
       <c r="M87" t="n">
-        <v>696.571</v>
+        <v>0.216</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O87" t="s">
-        <v>103</v>
+        <v>757.143</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.218</v>
       </c>
       <c r="P87" t="s">
-        <v>486</v>
+        <v>119</v>
       </c>
       <c r="Q87" t="s">
-        <v>22</v>
+        <v>566</v>
       </c>
       <c r="R87" t="s">
-        <v>487</v>
+        <v>24</v>
+      </c>
+      <c r="S87" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>488</v>
-      </c>
-      <c r="B88" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B88" t="s">
+        <v>569</v>
+      </c>
+      <c r="C88" s="1" t="n">
         <v>43950</v>
       </c>
-      <c r="C88" t="s">
-        <v>489</v>
-      </c>
       <c r="D88" t="s">
-        <v>490</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88" t="n">
+        <v>570</v>
+      </c>
+      <c r="E88" t="s">
+        <v>571</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" t="n">
         <v>37</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>261004</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>2.681</v>
       </c>
-      <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
-      <c r="O88" t="s">
-        <v>490</v>
-      </c>
+      <c r="O88"/>
       <c r="P88" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="Q88" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="R88" t="s">
-        <v>493</v>
+        <v>573</v>
+      </c>
+      <c r="S88" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>494</v>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="C89" t="s">
-        <v>495</v>
+        <v>575</v>
+      </c>
+      <c r="B89" t="s">
+        <v>576</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>43955</v>
       </c>
       <c r="D89" t="s">
-        <v>496</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89" t="n">
-        <v>40</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E89" t="s">
+        <v>578</v>
+      </c>
+      <c r="F89"/>
       <c r="G89" t="n">
-        <v>11647</v>
+        <v>41</v>
       </c>
       <c r="H89" t="n">
-        <v>0.784</v>
+        <v>13329</v>
       </c>
       <c r="I89" t="n">
-        <v>920</v>
+        <v>0.897</v>
       </c>
       <c r="J89" t="n">
+        <v>1682</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1346</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="N89" t="n">
+        <v>927.857</v>
+      </c>
+      <c r="O89" t="n">
         <v>0.062</v>
       </c>
-      <c r="K89" t="n">
-        <v>1111</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M89" t="n">
-        <v>750.286</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O89" t="s">
-        <v>496</v>
-      </c>
       <c r="P89" t="s">
-        <v>497</v>
+        <v>578</v>
       </c>
       <c r="Q89" t="s">
-        <v>22</v>
+        <v>579</v>
       </c>
       <c r="R89" t="s">
-        <v>498</v>
+        <v>24</v>
+      </c>
+      <c r="S89" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-5-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-6-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202231/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175135/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202234/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175139/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -250,13 +250,34 @@
 Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial Github repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
   </si>
   <si>
+    <t xml:space="preserve">BRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health press release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGR</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202238/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175144/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -279,7 +300,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202240/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175147/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -364,10 +385,10 @@
     <t xml:space="preserve">HRV</t>
   </si>
   <si>
-    <t xml:space="preserve">Croatia - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202246/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">Croatia - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175452/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -376,11 +397,11 @@
     <t xml:space="preserve">https://vlada.gov.hr</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing figures were reported as "samples tested" prior to March 24th 2020, but have been reported as "tests performed" since.</t>
+    <t xml:space="preserve">Testing figures were reported as "samples tested" prior to 24 March 2020, then as "tests performed", then as "people tested" from 6 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Croatia provides daily updates of confirmed cases, deaths, and testing figures [here](https://www.koronavirus.hr). It is unclear whether the reported figures include tests for which the results are pending.
-Data from March 24th 2020 onwards may not be comparable to figures from prior dates. Prior to March 24th, testing figures were reported in terms of "samples tested" (e.g. "Ukupno je 317 testiranih uzoraka..."). From March 24th onwards, testing figures have been reported in terms of "tests performed" (e.g. "Dosad je obavljeno ukupno 3.159 testiranja"). It is unclear whether this change in wording reflects an actual change in which figures are reported.
+Data may not be fully comparable over time. Prior to March 24th, testing figures were reported in terms of "samples tested" (e.g. "Ukupno je 317 testiranih uzoraka..."). From March 24th to May 6th, testing figures were reported in terms of "tests performed" (e.g. "Dosad je obavljeno ukupno 3.159 testiranja"). Since May 6th they have been reported in terms of "people tested" (e.g. "Dosad je testirano ukupno 41.053 osoba") It is unclear whether this change in wording reflects an actual change in which figures are reported.
 We have found testing data dating back to March 3rd 2020, at which point 247 samples had been tested to date. It is not clear when the first sample was tested.</t>
   </si>
   <si>
@@ -427,7 +448,7 @@
     <t xml:space="preserve">Denmark - People tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-05052020-s0l0</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-06052020-pp5f</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -483,7 +504,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 9:36pm local time on 2020-05-04.</t>
+    <t xml:space="preserve">updated at 12:10am local time on 2020-05-06.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -520,7 +541,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release_May-4_-ENG-v2.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-6_-ENG-V4-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -586,13 +607,13 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-04-29-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-06-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested</t>
+    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested. When the test numbers for week 17 were collected, more tests (467,137) and positive tests (25,222) were originally accidentally counted (management report dated April 29, 2020). The numbers were corrected on 4.5.2020</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.rki.de/SiteGlobals/Forms/Suche/serviceSucheForm.html?nn=2725444&amp;input_=2375194&amp;gts=2725442_list%253DdateOfIssue_dt%252Bdesc&amp;resourceId=2390936&amp;submit.x=0&amp;submit.y=0&amp;searchEngineQueryString=T%C3%A4glicher+Lagebericht+des+RKI+zur+Coronavirus-Krankheit-2019&amp;pageLocale=de</t>
@@ -648,7 +669,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200504/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200506/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -783,7 +804,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200505130731/http://irangov.ir/detail/338708</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200506141329/http://irangov.ir/detail/338787</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -903,7 +924,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627586.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627634.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -937,7 +958,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1257652298802696193</t>
+    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-05-2020-15.48.16.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -978,7 +999,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202344/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175614/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -994,7 +1015,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202349/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175621/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1015,7 +1036,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202403/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175630/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1085,6 +1106,9 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
+    <t xml:space="preserve">This figure is taken from the live dashboard and should be updated using the PDF Situation Report once it is available</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
@@ -1121,10 +1145,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200504_1052_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 4 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200506_1112.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 6 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1160,7 +1184,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202449/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506175710/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1180,7 +1204,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020_05_05_dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.06-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1205,7 +1229,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202459/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180000/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1312,7 +1336,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.05.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.06.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1357,7 +1381,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202512/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180008/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1395,7 +1419,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14381</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14386</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1415,7 +1439,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1257005201896230913</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1257748545744113665</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1424,9 +1448,25 @@
     <t xml:space="preserve">https://www.moh.gov.rw/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rwanda Ministry of Health ([@RwandaHealth](https://twitter.com/RwandaHealth)) tweets press releases in English, French, and Kinyarwanda that report the number of samples tested each day. Press releases prior to April 7th 2020 did not report the number of samples tested. For this reason, the time series that we construct represents the cumulative number of samples tested since April 7th. We do not know how many samples were tested prior to this date.
+    <t xml:space="preserve">The Rwanda Ministry of Health ([@RwandaHealth](https://twitter.com/RwandaHealth)) tweets press releases in English, French, and Kinyarwanda that report the number of samples tested each day. 
+The earliest press release we have found containing testing figures is from April 7th 2020. Between April 7th 2020 and May 1st 2020 (inclusive), the press releases reported the number of samples tested today, but not the cumulative number of samples tested to date. Since May 2nd 2020, the press releases have reported the cumulative number of samples tested to date as well as the number of samples tested today. We construct a daily time series since April 6th 2020 of the cumulative number of samples tested to date by subtracting daily tests between April 7th - May 2nd from the May 2nd 2020 cumulative total.
+As of April 6th 2020, 5,701 samples had been tested to date. It is unclear when the first samples were tested.
 It is unclear whether the reported figures include tests for which the results are pending.
-Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the more ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.</t>
+Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Saudi Arabian Ministry of Health provides a dashboard detailing the total number of tests. Whether units refer to people or tests conducted is unclear.
+The exact date these cumulative figures date back to is also unknown.
+There is no explicit mention of whether the figures include only PCR tests or other kinds of test.</t>
   </si>
   <si>
     <t xml:space="preserve">SEN</t>
@@ -1453,8 +1493,8 @@
     <t xml:space="preserve">The figures are labelled as the number of 'tests performed'. Note that from other countries, we see that such a label can be consistent with figures relating to the number of individuals tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publish daily press releases which detail the number of tests performed, and the number of positive confirmed cases. It is not totally clear whether the number of tests performed is equivalent to the number of people tested.
-These daily press releases report the number of tests performed each day, dating back to 17th March. Although daily press releases date further back than this, they do not detail the number of tests performed, only the number of confirmed cases. Our time-series data therefore only exists from 17th March onwards.</t>
+    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publishes daily press releases detailing the number of tests performed and the number of positive confirmed cases. It is not totally clear whether the number of tests performed is equivalent to the number of people tested. It is also unclear whether the reported figures include pending test results.
+The daily press releases date back to February 28th 2020. We construct a daily time series of the number of tests performed using data contained in [this unofficial github repository](https://github.com/senegalouvert/COVID-19), which we have cross-checked against official data for a sample of dates.</t>
   </si>
   <si>
     <t xml:space="preserve">SRB</t>
@@ -1479,6 +1519,9 @@
   </si>
   <si>
     <t xml:space="preserve">Singapore - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180155/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
@@ -1491,6 +1534,9 @@
     <t xml:space="preserve">Singapore - swabs tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180157/https://www.moh.gov.sg/covid-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">The number of swabs tested.</t>
   </si>
   <si>
@@ -1500,7 +1546,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202532/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180204/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1563,9 +1609,9 @@
     <t xml:space="preserve">https://www.nicd.ac.za/media/alerts/</t>
   </si>
   <si>
-    <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its website [here](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
+    <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its [website](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
 The NICD reports the number of 'tests conducted' in addition to the number of 'positive cases' (and sometimes the number of 'negative cases'). This is suggestive that 'tests conducted' refers to the number of people tested, but this was unclear from the available documentation until April 18th 2020. On April 18th, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the number 'tests conducted' refers to people tested.
-The NICD began publishing daily updates on 11th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 11th February, 61 people had been tested.</t>
+The NICD began publishing daily updates on 7th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7th February, 42 people had been tested.</t>
   </si>
   <si>
     <t xml:space="preserve">KOR</t>
@@ -1574,7 +1620,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367086&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367092&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1660,7 +1706,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/gPjOPovdWU2ucOFvPAkN9Q?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/DZSBM654J3t3R35Rsh8KJA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1683,7 +1729,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202610/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180226/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1730,7 +1776,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202616/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180231/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1754,7 +1800,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257586295653761027</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257775905147105280</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1777,7 +1823,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202619/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180233/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1799,7 +1845,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202621/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180236/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1822,7 +1868,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200505202622/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200506180240/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1896,7 +1942,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-15</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-16</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1935,7 +1981,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257529300712128513</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257805665143226377</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2395,7 +2441,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2405,31 +2451,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>664756</v>
+        <v>688656</v>
       </c>
       <c r="I3" t="n">
-        <v>26.069</v>
+        <v>27.006</v>
       </c>
       <c r="J3" t="n">
-        <v>14542</v>
+        <v>23900</v>
       </c>
       <c r="K3" t="n">
-        <v>0.57</v>
+        <v>0.937</v>
       </c>
       <c r="L3" t="n">
-        <v>17724.333</v>
+        <v>18516.333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.695</v>
+        <v>0.726</v>
       </c>
       <c r="N3" t="n">
-        <v>19153.857</v>
+        <v>20606.571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.751</v>
+        <v>0.808</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2452,7 +2498,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2462,31 +2508,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>285883</v>
+        <v>292254</v>
       </c>
       <c r="I4" t="n">
-        <v>31.742</v>
+        <v>32.45</v>
       </c>
       <c r="J4" t="n">
-        <v>6812</v>
+        <v>6371</v>
       </c>
       <c r="K4" t="n">
-        <v>0.756</v>
+        <v>0.707</v>
       </c>
       <c r="L4" t="n">
-        <v>5421.333</v>
+        <v>5966.333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.602</v>
+        <v>0.662</v>
       </c>
       <c r="N4" t="n">
-        <v>6615</v>
+        <v>6357.143</v>
       </c>
       <c r="O4" t="n">
-        <v>0.735</v>
+        <v>0.706</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2509,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2519,31 +2565,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
-        <v>155501</v>
+        <v>160341</v>
       </c>
       <c r="I5" t="n">
-        <v>91.386</v>
+        <v>94.23</v>
       </c>
       <c r="J5" t="n">
-        <v>5915</v>
+        <v>4840</v>
       </c>
       <c r="K5" t="n">
-        <v>3.476</v>
+        <v>2.844</v>
       </c>
       <c r="L5" t="n">
-        <v>5741</v>
+        <v>5395.333</v>
       </c>
       <c r="M5" t="n">
-        <v>3.374</v>
+        <v>3.171</v>
       </c>
       <c r="N5" t="n">
-        <v>4827.857</v>
+        <v>4776.571</v>
       </c>
       <c r="O5" t="n">
-        <v>2.837</v>
+        <v>2.807</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2566,7 +2612,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2576,31 +2622,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
-        <v>93403</v>
+        <v>99644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.567</v>
+        <v>0.605</v>
       </c>
       <c r="J6" t="n">
-        <v>5705</v>
+        <v>6241</v>
       </c>
       <c r="K6" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6063.333</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5706.143</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.035</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5779</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5524.286</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.034</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2668,7 +2714,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2678,31 +2724,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>372654</v>
+        <v>391314</v>
       </c>
       <c r="I8" t="n">
-        <v>32.154</v>
+        <v>33.764</v>
       </c>
       <c r="J8" t="n">
-        <v>11927</v>
+        <v>19721</v>
       </c>
       <c r="K8" t="n">
-        <v>1.029</v>
+        <v>1.702</v>
       </c>
       <c r="L8" t="n">
-        <v>16079.333</v>
+        <v>15552.667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.387</v>
+        <v>1.342</v>
       </c>
       <c r="N8" t="n">
-        <v>17350</v>
+        <v>18086.286</v>
       </c>
       <c r="O8" t="n">
-        <v>1.497</v>
+        <v>1.561</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2725,7 +2771,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2737,28 +2783,28 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
-        <v>7767</v>
+        <v>7888</v>
       </c>
       <c r="I9" t="n">
-        <v>0.665</v>
+        <v>0.676</v>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="L9" t="n">
-        <v>384.667</v>
+        <v>110.667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.033</v>
+        <v>0.009</v>
       </c>
       <c r="N9" t="n">
-        <v>254.143</v>
+        <v>252.429</v>
       </c>
       <c r="O9" t="n">
         <v>0.022</v>
@@ -2784,7 +2830,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
@@ -2794,26 +2840,18 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>50303</v>
+        <v>132467</v>
       </c>
       <c r="I10" t="n">
-        <v>7.239</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1158</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="L10" t="n">
-        <v>889</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.128</v>
-      </c>
+        <v>0.623</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" t="s">
@@ -2837,7 +2875,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2847,32 +2885,36 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>940567</v>
+        <v>51768</v>
       </c>
       <c r="I11" t="n">
-        <v>24.921</v>
+        <v>7.45</v>
       </c>
       <c r="J11" t="n">
-        <v>21199</v>
+        <v>1465</v>
       </c>
       <c r="K11" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="L11"/>
-      <c r="M11"/>
+        <v>0.211</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1050</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.151</v>
+      </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
         <v>88</v>
@@ -2886,52 +2928,42 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
         <v>92</v>
       </c>
+      <c r="F12"/>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H12" t="n">
-        <v>222095</v>
+        <v>942526</v>
       </c>
       <c r="I12" t="n">
-        <v>11.618</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7964</v>
-      </c>
+        <v>24.973</v>
+      </c>
+      <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7565</v>
-      </c>
+        <v>0.052</v>
+      </c>
+      <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7990</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.418</v>
-      </c>
+        <v>0.433</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
         <v>93</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>94</v>
-      </c>
-      <c r="R12" t="s">
-        <v>38</v>
       </c>
       <c r="S12" t="s">
         <v>95</v>
@@ -2945,50 +2977,52 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
       </c>
       <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
-        <v>123029</v>
+        <v>232108</v>
       </c>
       <c r="I13" t="n">
-        <v>2.418</v>
+        <v>12.142</v>
       </c>
       <c r="J13" t="n">
-        <v>4228</v>
+        <v>10013</v>
       </c>
       <c r="K13" t="n">
-        <v>0.083</v>
+        <v>0.524</v>
       </c>
       <c r="L13" t="n">
-        <v>4693</v>
+        <v>8630</v>
       </c>
       <c r="M13" t="n">
-        <v>0.092</v>
+        <v>0.452</v>
       </c>
       <c r="N13" t="n">
-        <v>4590</v>
+        <v>8498.429</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09</v>
+        <v>0.445</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s">
         <v>102</v>
@@ -3008,35 +3042,35 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H14" t="n">
-        <v>9892</v>
+        <v>127105</v>
       </c>
       <c r="I14" t="n">
-        <v>1.942</v>
+        <v>2.498</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>4076</v>
       </c>
       <c r="K14" t="n">
-        <v>0.014</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="n">
-        <v>99.667</v>
+        <v>4167.667</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02</v>
+        <v>0.082</v>
       </c>
       <c r="N14" t="n">
-        <v>129</v>
+        <v>4574.286</v>
       </c>
       <c r="O14" t="n">
-        <v>0.025</v>
+        <v>0.09</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3045,60 +3079,64 @@
         <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" t="n">
-        <v>39973</v>
+        <v>9892</v>
       </c>
       <c r="I15" t="n">
-        <v>9.737</v>
+        <v>1.942</v>
       </c>
       <c r="J15" t="n">
-        <v>933</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>0.227</v>
+        <v>0.014</v>
       </c>
       <c r="L15" t="n">
-        <v>805.333</v>
+        <v>99.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>0.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>129</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.025</v>
+      </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="S15" t="s">
         <v>115</v>
@@ -3112,7 +3150,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3120,41 +3158,35 @@
       <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
+      <c r="F16"/>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H16" t="n">
-        <v>57711</v>
+        <v>41053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.095</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>2169</v>
+        <v>1080</v>
       </c>
       <c r="K16" t="n">
-        <v>0.191</v>
+        <v>0.263</v>
       </c>
       <c r="L16" t="n">
-        <v>2068.333</v>
+        <v>989.667</v>
       </c>
       <c r="M16" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2029</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.179</v>
-      </c>
+        <v>0.241</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R16" t="s">
         <v>121</v>
@@ -3171,158 +3203,168 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17"/>
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
       <c r="G17" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H17" t="n">
-        <v>269093</v>
+        <v>59648</v>
       </c>
       <c r="I17" t="n">
-        <v>25.128</v>
+        <v>5.266</v>
       </c>
       <c r="J17" t="n">
-        <v>7535</v>
+        <v>1937</v>
       </c>
       <c r="K17" t="n">
-        <v>0.704</v>
+        <v>0.171</v>
       </c>
       <c r="L17" t="n">
-        <v>5035.333</v>
+        <v>2034.333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.47</v>
+        <v>0.179</v>
       </c>
       <c r="N17" t="n">
-        <v>6110.429</v>
+        <v>2043.429</v>
       </c>
       <c r="O17" t="n">
-        <v>0.571</v>
+        <v>0.18</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F18"/>
       <c r="G18" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
-        <v>257738</v>
+        <v>278519</v>
       </c>
       <c r="I18" t="n">
-        <v>44.497</v>
+        <v>26.008</v>
       </c>
       <c r="J18" t="n">
-        <v>12947</v>
+        <v>9416</v>
       </c>
       <c r="K18" t="n">
-        <v>2.235</v>
+        <v>0.879</v>
       </c>
       <c r="L18" t="n">
-        <v>11942</v>
+        <v>6879.333</v>
       </c>
       <c r="M18" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>0.642</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6207.714</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.58</v>
+      </c>
       <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
         <v>134</v>
-      </c>
-      <c r="R18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
         <v>136</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D19" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>138</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>139</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="n">
+        <v>48</v>
+      </c>
+      <c r="H19" t="n">
+        <v>270680</v>
+      </c>
+      <c r="I19" t="n">
+        <v>46.732</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12942</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12293.667</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12945.429</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="P19" t="s">
         <v>140</v>
-      </c>
-      <c r="G19" t="n">
-        <v>45</v>
-      </c>
-      <c r="H19" t="n">
-        <v>66160</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="L19"/>
-      <c r="M19" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="P19" t="s">
-        <v>139</v>
       </c>
       <c r="Q19" t="s">
         <v>141</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="S19" t="s">
         <v>142</v>
@@ -3348,130 +3390,138 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
-        <v>32030</v>
+        <v>66160</v>
       </c>
       <c r="I20" t="n">
-        <v>4.938</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1643</v>
-      </c>
+        <v>3.75</v>
+      </c>
+      <c r="J20"/>
       <c r="K20" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2179.333</v>
-      </c>
+        <v>0.211</v>
+      </c>
+      <c r="L20"/>
       <c r="M20" t="n">
-        <v>0.336</v>
+        <v>0.55</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
+      <c r="O20" t="n">
+        <v>0.284</v>
+      </c>
       <c r="P20" t="s">
         <v>146</v>
       </c>
       <c r="Q20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21"/>
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
       <c r="G21" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>57423</v>
+        <v>33628</v>
       </c>
       <c r="I21" t="n">
-        <v>43.288</v>
+        <v>5.185</v>
       </c>
       <c r="J21" t="n">
-        <v>1659</v>
+        <v>1598</v>
       </c>
       <c r="K21" t="n">
-        <v>1.251</v>
+        <v>0.246</v>
       </c>
       <c r="L21" t="n">
-        <v>990</v>
+        <v>1677.333</v>
       </c>
       <c r="M21" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1131.857</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.853</v>
-      </c>
+        <v>0.258</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
       <c r="P21" t="s">
         <v>153</v>
       </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
         <v>155</v>
-      </c>
-      <c r="S21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
         <v>157</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D22" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H22" t="n">
-        <v>24088</v>
+        <v>58955</v>
       </c>
       <c r="I22" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
+        <v>44.443</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1541</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1256.667</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1112.143</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.838</v>
+      </c>
       <c r="P22" t="s">
         <v>160</v>
       </c>
@@ -3479,105 +3529,103 @@
         <v>161</v>
       </c>
       <c r="R22" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="S22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H23" t="n">
-        <v>106272</v>
+        <v>26517</v>
       </c>
       <c r="I23" t="n">
-        <v>19.18</v>
+        <v>0.231</v>
       </c>
       <c r="J23"/>
-      <c r="K23" t="n">
-        <v>0.053</v>
-      </c>
+      <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="M23"/>
       <c r="N23"/>
-      <c r="O23" t="n">
-        <v>0.413</v>
-      </c>
+      <c r="O23"/>
       <c r="P23" t="s">
         <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="R23" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43949</v>
+        <v>43956</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" t="n">
+        <v>68</v>
+      </c>
+      <c r="H24" t="n">
+        <v>108112</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.512</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P24" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" t="s">
         <v>172</v>
       </c>
-      <c r="F24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" t="n">
-        <v>23</v>
-      </c>
-      <c r="H24" t="n">
-        <v>724574</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11.101</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>174</v>
-      </c>
       <c r="R24" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="S24" t="s">
         <v>175</v>
@@ -3591,7 +3639,7 @@
         <v>177</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="D25" t="s">
         <v>178</v>
@@ -3603,13 +3651,13 @@
         <v>180</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H25" t="n">
-        <v>2547052</v>
+        <v>724574</v>
       </c>
       <c r="I25" t="n">
-        <v>30.4</v>
+        <v>11.101</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -3624,113 +3672,103 @@
         <v>181</v>
       </c>
       <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" t="s">
         <v>182</v>
-      </c>
-      <c r="S25" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
         <v>184</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="D26" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>43953</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>186</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>187</v>
       </c>
-      <c r="F26"/>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>129461</v>
+        <v>2755770</v>
       </c>
       <c r="I26" t="n">
-        <v>4.166</v>
-      </c>
-      <c r="J26" t="n">
-        <v>12412</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.399</v>
-      </c>
+        <v>32.891</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" t="s">
         <v>188</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>189</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>190</v>
-      </c>
-      <c r="S26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
         <v>192</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="D27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>194</v>
-      </c>
-      <c r="E27" t="s">
-        <v>195</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>80951</v>
+        <v>129461</v>
       </c>
       <c r="I27" t="n">
-        <v>7.767</v>
+        <v>4.166</v>
       </c>
       <c r="J27" t="n">
-        <v>1619</v>
+        <v>12412</v>
       </c>
       <c r="K27" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1233.333</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2122.429</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.204</v>
-      </c>
+        <v>0.399</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q27" t="s">
         <v>196</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>197</v>
-      </c>
-      <c r="R27" t="s">
-        <v>87</v>
       </c>
       <c r="S27" t="s">
         <v>198</v>
@@ -3744,7 +3782,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43948</v>
+        <v>43957</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3754,13 +3792,13 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H28" t="n">
-        <v>154989</v>
+        <v>87052</v>
       </c>
       <c r="I28" t="n">
-        <v>20.674</v>
+        <v>8.352</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3775,7 +3813,7 @@
         <v>204</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S28" t="s">
         <v>205</v>
@@ -3789,7 +3827,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43956</v>
+        <v>43948</v>
       </c>
       <c r="D29" t="s">
         <v>208</v>
@@ -3797,214 +3835,194 @@
       <c r="E29" t="s">
         <v>209</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29"/>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>154989</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20.674</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29" t="s">
         <v>210</v>
-      </c>
-      <c r="G29" t="n">
-        <v>61</v>
-      </c>
-      <c r="H29" t="n">
-        <v>85557</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.857</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1599</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2002</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2626.429</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="P29" t="s">
-        <v>209</v>
       </c>
       <c r="Q29" t="s">
         <v>211</v>
       </c>
       <c r="R29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" t="s">
         <v>212</v>
-      </c>
-      <c r="S29" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
         <v>214</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>216</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="F30"/>
       <c r="G30" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H30" t="n">
-        <v>51304</v>
+        <v>86743</v>
       </c>
       <c r="I30" t="n">
-        <v>150.341</v>
+        <v>8.979</v>
       </c>
       <c r="J30" t="n">
-        <v>868</v>
+        <v>1186</v>
       </c>
       <c r="K30" t="n">
-        <v>2.544</v>
+        <v>0.123</v>
       </c>
       <c r="L30" t="n">
-        <v>447.667</v>
+        <v>1577.667</v>
       </c>
       <c r="M30" t="n">
-        <v>1.312</v>
+        <v>0.164</v>
       </c>
       <c r="N30" t="n">
-        <v>611.429</v>
+        <v>2349</v>
       </c>
       <c r="O30" t="n">
-        <v>1.792</v>
+        <v>0.243</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43945</v>
+        <v>43956</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="n">
+        <v>69</v>
+      </c>
+      <c r="H31" t="n">
+        <v>51622</v>
+      </c>
+      <c r="I31" t="n">
+        <v>151.273</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="P31" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q31" t="s">
         <v>223</v>
       </c>
-      <c r="F31" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" t="n">
-        <v>24</v>
-      </c>
-      <c r="H31" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J31" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>222</v>
-      </c>
       <c r="R31" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="S31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43956</v>
+        <v>43945</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G32" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H32" t="n">
-        <v>1191946</v>
+        <v>525667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.864</v>
+        <v>0.381</v>
       </c>
       <c r="J32" t="n">
-        <v>84713</v>
+        <v>40495</v>
       </c>
       <c r="K32" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="L32" t="n">
-        <v>71861</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N32" t="n">
-        <v>67887.571</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.049</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q32" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="S32" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
@@ -4012,10 +4030,10 @@
         <v>227</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4023,42 +4041,44 @@
       <c r="E33" t="s">
         <v>230</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
       <c r="G33" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H33" t="n">
-        <v>88924</v>
+        <v>1276781</v>
       </c>
       <c r="I33" t="n">
-        <v>0.325</v>
+        <v>0.925</v>
       </c>
       <c r="J33" t="n">
-        <v>2863</v>
+        <v>84835</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01</v>
+        <v>0.061</v>
       </c>
       <c r="L33" t="n">
-        <v>3018.667</v>
+        <v>76777</v>
       </c>
       <c r="M33" t="n">
-        <v>0.011</v>
+        <v>0.055</v>
       </c>
       <c r="N33" t="n">
-        <v>3768.571</v>
+        <v>72288.143</v>
       </c>
       <c r="O33" t="n">
-        <v>0.014</v>
+        <v>0.052</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
       </c>
       <c r="Q33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R33" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
         <v>232</v>
@@ -4066,150 +4086,158 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H34" t="n">
-        <v>519543</v>
+        <v>92976</v>
       </c>
       <c r="I34" t="n">
-        <v>6.186</v>
+        <v>0.34</v>
       </c>
       <c r="J34" t="n">
-        <v>11255</v>
+        <v>4052</v>
       </c>
       <c r="K34" t="n">
-        <v>0.134</v>
+        <v>0.015</v>
       </c>
       <c r="L34" t="n">
-        <v>11667.333</v>
+        <v>3321.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="N34"/>
-      <c r="O34"/>
+        <v>0.012</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3598.857</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.013</v>
+      </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R34" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H35" t="n">
-        <v>214761</v>
+        <v>531275</v>
       </c>
       <c r="I35" t="n">
-        <v>43.493</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>6.325</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11732</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>11667.333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11127</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.133</v>
+      </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="Q35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R35" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="S35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>214761</v>
+      </c>
+      <c r="I36" t="n">
+        <v>43.493</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q36" t="s">
         <v>249</v>
       </c>
-      <c r="G36" t="n">
-        <v>75</v>
-      </c>
-      <c r="H36" t="n">
-        <v>413517</v>
-      </c>
-      <c r="I36" t="n">
-        <v>47.775</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="P36" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>250</v>
-      </c>
-      <c r="R36" t="s">
-        <v>24</v>
       </c>
       <c r="S36" t="s">
         <v>251</v>
@@ -4235,146 +4263,152 @@
         <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H37" t="n">
-        <v>1512121</v>
+        <v>413517</v>
       </c>
       <c r="I37" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J37" t="n">
-        <v>32211</v>
-      </c>
+        <v>47.775</v>
+      </c>
+      <c r="J37"/>
       <c r="K37" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27419</v>
-      </c>
+        <v>0.302</v>
+      </c>
+      <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="N37" t="n">
-        <v>33892.857</v>
-      </c>
+        <v>0.803</v>
+      </c>
+      <c r="N37"/>
       <c r="O37" t="n">
-        <v>0.56</v>
+        <v>0.968</v>
       </c>
       <c r="P37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" t="s">
         <v>257</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" t="s">
         <v>258</v>
-      </c>
-      <c r="R37" t="s">
-        <v>87</v>
-      </c>
-      <c r="S37" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H38" t="n">
-        <v>2246666</v>
+        <v>1549892</v>
       </c>
       <c r="I38" t="n">
-        <v>37.158</v>
+        <v>25.634</v>
       </c>
       <c r="J38" t="n">
-        <v>55263</v>
+        <v>37771</v>
       </c>
       <c r="K38" t="n">
-        <v>0.914</v>
+        <v>0.625</v>
       </c>
       <c r="L38" t="n">
-        <v>45943</v>
+        <v>30993.667</v>
       </c>
       <c r="M38" t="n">
-        <v>0.76</v>
+        <v>0.513</v>
       </c>
       <c r="N38" t="n">
-        <v>57104.571</v>
+        <v>33776</v>
       </c>
       <c r="O38" t="n">
-        <v>0.944</v>
+        <v>0.559</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q38" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="R38" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" t="s">
         <v>262</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G39" t="n">
+        <v>73</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2310929</v>
+      </c>
+      <c r="I39" t="n">
+        <v>38.221</v>
+      </c>
+      <c r="J39" t="n">
+        <v>64263</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="L39" t="n">
+        <v>52385.667</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="N39" t="n">
+        <v>57166.857</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="P39" t="s">
         <v>264</v>
       </c>
-      <c r="E39" t="s">
+      <c r="Q39" t="s">
         <v>265</v>
       </c>
-      <c r="F39" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" t="n">
-        <v>69</v>
-      </c>
-      <c r="H39" t="n">
-        <v>186343</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.473</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>267</v>
-      </c>
       <c r="R39" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="S39" t="s">
         <v>268</v>
@@ -4382,168 +4416,162 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43954</v>
+        <v>43957</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H40" t="n">
-        <v>283306</v>
+        <v>188927</v>
       </c>
       <c r="I40" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2550</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3150.667</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5455.429</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.043</v>
-      </c>
+        <v>1.494</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="P40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q40" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="R40" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="n">
+        <v>77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>285356</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2602.667</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4773.857</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="P41" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q41" t="s">
         <v>274</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D41" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" t="s">
-        <v>276</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41" t="n">
-        <v>54</v>
-      </c>
-      <c r="H41" t="n">
-        <v>320411</v>
-      </c>
-      <c r="I41" t="n">
-        <v>17.064</v>
-      </c>
-      <c r="J41" t="n">
-        <v>13550</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12516.333</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N41" t="n">
-        <v>14876.429</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="P41" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>275</v>
       </c>
       <c r="R41" t="s">
         <v>24</v>
       </c>
       <c r="S41" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H42" t="n">
-        <v>25869</v>
+        <v>336480</v>
       </c>
       <c r="I42" t="n">
-        <v>0.481</v>
+        <v>17.92</v>
       </c>
       <c r="J42" t="n">
-        <v>1077</v>
+        <v>16069</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02</v>
+        <v>0.856</v>
       </c>
       <c r="L42" t="n">
-        <v>990.667</v>
+        <v>13448</v>
       </c>
       <c r="M42" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
+        <v>0.716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>14866.429</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.792</v>
+      </c>
       <c r="P42" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="Q42" t="s">
         <v>282</v>
       </c>
       <c r="R42" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="S42" t="s">
         <v>284</v>
@@ -4565,211 +4593,211 @@
       <c r="E43" t="s">
         <v>288</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43"/>
+      <c r="G43" t="n">
+        <v>39</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25869</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1077</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L43" t="n">
+        <v>990.667</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q43" t="s">
         <v>289</v>
       </c>
-      <c r="G43" t="n">
-        <v>67</v>
-      </c>
-      <c r="H43" t="n">
-        <v>66150</v>
-      </c>
-      <c r="I43" t="n">
-        <v>35.07</v>
-      </c>
-      <c r="J43" t="n">
-        <v>686</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1016</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2084.143</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.105</v>
-      </c>
-      <c r="P43" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>287</v>
-      </c>
       <c r="R43" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="S43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44"/>
+        <v>295</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
       <c r="G44" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H44" t="n">
-        <v>149106</v>
+        <v>68627</v>
       </c>
       <c r="I44" t="n">
-        <v>54.772</v>
+        <v>36.384</v>
       </c>
       <c r="J44" t="n">
-        <v>5077</v>
+        <v>2477</v>
       </c>
       <c r="K44" t="n">
-        <v>1.865</v>
+        <v>1.313</v>
       </c>
       <c r="L44" t="n">
-        <v>3612</v>
+        <v>1460.667</v>
       </c>
       <c r="M44" t="n">
-        <v>1.327</v>
+        <v>0.774</v>
       </c>
       <c r="N44" t="n">
-        <v>5328.143</v>
+        <v>1973.714</v>
       </c>
       <c r="O44" t="n">
-        <v>1.957</v>
+        <v>1.046</v>
       </c>
       <c r="P44" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="Q44" t="s">
         <v>294</v>
       </c>
       <c r="R44" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="S44" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H45" t="n">
-        <v>49299</v>
+        <v>156493</v>
       </c>
       <c r="I45" t="n">
-        <v>78.755</v>
+        <v>57.486</v>
       </c>
       <c r="J45" t="n">
-        <v>960</v>
+        <v>7387</v>
       </c>
       <c r="K45" t="n">
-        <v>1.534</v>
+        <v>2.714</v>
       </c>
       <c r="L45" t="n">
-        <v>613</v>
+        <v>4938.333</v>
       </c>
       <c r="M45" t="n">
-        <v>0.979</v>
+        <v>1.814</v>
       </c>
       <c r="N45" t="n">
-        <v>1365.429</v>
+        <v>5470.286</v>
       </c>
       <c r="O45" t="n">
-        <v>2.181</v>
+        <v>2.01</v>
       </c>
       <c r="P45" t="s">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="Q45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R45" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="S45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H46" t="n">
-        <v>213220</v>
+        <v>50533</v>
       </c>
       <c r="I46" t="n">
-        <v>6.588</v>
+        <v>80.727</v>
       </c>
       <c r="J46" t="n">
-        <v>7622</v>
+        <v>1234</v>
       </c>
       <c r="K46" t="n">
-        <v>0.235</v>
+        <v>1.971</v>
       </c>
       <c r="L46" t="n">
-        <v>9669</v>
+        <v>805</v>
       </c>
       <c r="M46" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>1.286</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1253.571</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.003</v>
+      </c>
       <c r="P46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R46" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="S46" t="s">
         <v>308</v>
@@ -4783,7 +4811,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4793,90 +4821,84 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="H47" t="n">
-        <v>86898</v>
+        <v>222150</v>
       </c>
       <c r="I47" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="J47"/>
+        <v>6.864</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8930</v>
+      </c>
       <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47"/>
+        <v>0.276</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8772.333</v>
+      </c>
       <c r="M47" t="n">
-        <v>0.002</v>
+        <v>0.271</v>
       </c>
       <c r="N47"/>
-      <c r="O47" t="n">
-        <v>0.013</v>
-      </c>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>312</v>
       </c>
       <c r="Q47" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R47" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="S47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43952</v>
+        <v>43956</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
-      </c>
-      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48" t="n">
+        <v>126</v>
+      </c>
+      <c r="H48" t="n">
+        <v>89565</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="P48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q48" t="s">
         <v>318</v>
-      </c>
-      <c r="G48" t="n">
-        <v>56</v>
-      </c>
-      <c r="H48" t="n">
-        <v>37006</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2165</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1918.667</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1867.571</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="P48" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>319</v>
       </c>
       <c r="R48" t="s">
         <v>73</v>
@@ -4893,7 +4915,7 @@
         <v>322</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="D49" t="s">
         <v>323</v>
@@ -4901,482 +4923,470 @@
       <c r="E49" t="s">
         <v>324</v>
       </c>
-      <c r="F49"/>
+      <c r="F49" t="s">
+        <v>325</v>
+      </c>
       <c r="G49" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H49" t="n">
-        <v>9038</v>
+        <v>37006</v>
       </c>
       <c r="I49" t="n">
-        <v>0.166</v>
+        <v>1.003</v>
       </c>
       <c r="J49" t="n">
-        <v>244</v>
+        <v>2165</v>
       </c>
       <c r="K49" t="n">
-        <v>0.004</v>
+        <v>0.059</v>
       </c>
       <c r="L49" t="n">
-        <v>266</v>
+        <v>1918.667</v>
       </c>
       <c r="M49" t="n">
-        <v>0.005</v>
+        <v>0.052</v>
       </c>
       <c r="N49" t="n">
-        <v>260.429</v>
+        <v>1867.571</v>
       </c>
       <c r="O49" t="n">
-        <v>0.005</v>
+        <v>0.051</v>
       </c>
       <c r="P49" t="s">
         <v>324</v>
       </c>
       <c r="Q49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R49" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9295</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="s">
         <v>331</v>
       </c>
-      <c r="G50" t="n">
-        <v>74</v>
-      </c>
-      <c r="H50" t="n">
-        <v>13640</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="J50" t="n">
-        <v>216</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="L50" t="n">
-        <v>354.333</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N50" t="n">
-        <v>452.714</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="P50" t="s">
-        <v>330</v>
-      </c>
       <c r="Q50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R50" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="S50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51"/>
+        <v>338</v>
+      </c>
+      <c r="F51" t="s">
+        <v>339</v>
+      </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H51" t="n">
-        <v>235909</v>
+        <v>13850</v>
       </c>
       <c r="I51" t="n">
-        <v>13.768</v>
-      </c>
-      <c r="J51"/>
+        <v>0.475</v>
+      </c>
+      <c r="J51" t="n">
+        <v>210</v>
+      </c>
       <c r="K51" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="L51"/>
+        <v>0.007</v>
+      </c>
+      <c r="L51" t="n">
+        <v>250.667</v>
+      </c>
       <c r="M51" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="N51"/>
+        <v>0.008</v>
+      </c>
+      <c r="N51" t="n">
+        <v>434.714</v>
+      </c>
       <c r="O51" t="n">
-        <v>0.218</v>
+        <v>0.015</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
       </c>
       <c r="Q51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>155928</v>
+        <v>243277</v>
       </c>
       <c r="I52" t="n">
-        <v>32.335</v>
+        <v>14.198</v>
       </c>
       <c r="J52" t="n">
-        <v>3232</v>
+        <v>2717</v>
       </c>
       <c r="K52" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3446.333</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4266</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.885</v>
-      </c>
+        <v>0.159</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
       <c r="P52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q52" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="R52" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H53" t="n">
-        <v>19512</v>
+        <v>160700</v>
       </c>
       <c r="I53" t="n">
-        <v>0.095</v>
+        <v>33.325</v>
       </c>
       <c r="J53" t="n">
-        <v>976</v>
+        <v>4772</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>0.99</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3492.333</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4571</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.948</v>
+      </c>
       <c r="P53" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R53" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="S53" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>189657</v>
+        <v>21208</v>
       </c>
       <c r="I54" t="n">
-        <v>34.984</v>
+        <v>0.103</v>
       </c>
       <c r="J54" t="n">
-        <v>7372</v>
+        <v>1696</v>
       </c>
       <c r="K54" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L54"/>
-      <c r="M54"/>
+        <v>0.008</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1540</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.007</v>
+      </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q54" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R54" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H55" t="n">
-        <v>222404</v>
+        <v>188236</v>
       </c>
       <c r="I55" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>9893</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9515</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9311.571</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.042</v>
-      </c>
+        <v>34.722</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R55" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="S55" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="F56"/>
       <c r="G56" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56" t="n">
-        <v>35556</v>
+        <v>232582</v>
       </c>
       <c r="I56" t="n">
-        <v>8.241</v>
+        <v>1.053</v>
       </c>
       <c r="J56" t="n">
-        <v>1097</v>
+        <v>10178</v>
       </c>
       <c r="K56" t="n">
-        <v>0.254</v>
+        <v>0.046</v>
       </c>
       <c r="L56" t="n">
-        <v>1220.333</v>
+        <v>9852.333</v>
       </c>
       <c r="M56" t="n">
-        <v>0.283</v>
+        <v>0.045</v>
       </c>
       <c r="N56" t="n">
-        <v>1103.143</v>
+        <v>9524.429</v>
       </c>
       <c r="O56" t="n">
-        <v>0.256</v>
+        <v>0.043</v>
       </c>
       <c r="P56" t="s">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="Q56" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="R56" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>374</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H57" t="n">
-        <v>11898</v>
+        <v>36483</v>
       </c>
       <c r="I57" t="n">
-        <v>1.668</v>
+        <v>8.455</v>
       </c>
       <c r="J57" t="n">
-        <v>458</v>
+        <v>927</v>
       </c>
       <c r="K57" t="n">
-        <v>0.064</v>
+        <v>0.215</v>
       </c>
       <c r="L57" t="n">
-        <v>382.333</v>
+        <v>1043</v>
       </c>
       <c r="M57" t="n">
-        <v>0.054</v>
+        <v>0.242</v>
       </c>
       <c r="N57" t="n">
-        <v>431.714</v>
+        <v>1098.286</v>
       </c>
       <c r="O57" t="n">
-        <v>0.061</v>
+        <v>0.254</v>
       </c>
       <c r="P57" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="Q57" t="s">
         <v>377</v>
       </c>
       <c r="R57" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="S57" t="s">
         <v>378</v>
@@ -5396,144 +5406,144 @@
         <v>381</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58"/>
+        <v>382</v>
+      </c>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>406579</v>
+        <v>11898</v>
       </c>
       <c r="I58" t="n">
-        <v>12.331</v>
+        <v>1.668</v>
       </c>
       <c r="J58" t="n">
-        <v>21087</v>
+        <v>458</v>
       </c>
       <c r="K58" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
+        <v>0.064</v>
+      </c>
+      <c r="L58" t="n">
+        <v>382.333</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N58" t="n">
+        <v>431.714</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.061</v>
+      </c>
       <c r="P58" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q58" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R58" t="s">
-        <v>384</v>
+        <v>53</v>
       </c>
       <c r="S58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H59" t="n">
-        <v>119512</v>
+        <v>406579</v>
       </c>
       <c r="I59" t="n">
-        <v>1.091</v>
+        <v>12.331</v>
       </c>
       <c r="J59" t="n">
-        <v>6179</v>
+        <v>21087</v>
       </c>
       <c r="K59" t="n">
-        <v>0.056</v>
+        <v>0.64</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="Q59" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="R59" t="s">
-        <v>87</v>
+        <v>392</v>
       </c>
       <c r="S59" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="D60" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E60" t="s">
-        <v>394</v>
-      </c>
-      <c r="F60" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>394270</v>
+        <v>119512</v>
       </c>
       <c r="I60" t="n">
-        <v>10.418</v>
+        <v>1.091</v>
       </c>
       <c r="J60" t="n">
-        <v>10466</v>
+        <v>6179</v>
       </c>
       <c r="K60" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9419</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="N60" t="n">
-        <v>11932.286</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.316</v>
-      </c>
+        <v>0.056</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q60" t="s">
         <v>396</v>
       </c>
-      <c r="Q60" t="s">
-        <v>397</v>
-      </c>
       <c r="R60" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="S60" t="s">
         <v>398</v>
@@ -5547,217 +5557,219 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43954</v>
+        <v>43957</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61"/>
+        <v>402</v>
+      </c>
+      <c r="F61" t="s">
+        <v>403</v>
+      </c>
       <c r="G61" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" t="n">
-        <v>458553</v>
+        <v>410468</v>
       </c>
       <c r="I61" t="n">
-        <v>44.971</v>
+        <v>10.846</v>
       </c>
       <c r="J61" t="n">
-        <v>8416</v>
+        <v>16198</v>
       </c>
       <c r="K61" t="n">
-        <v>0.825</v>
+        <v>0.428</v>
       </c>
       <c r="L61" t="n">
-        <v>10479.333</v>
+        <v>11506.667</v>
       </c>
       <c r="M61" t="n">
-        <v>1.028</v>
+        <v>0.304</v>
       </c>
       <c r="N61" t="n">
-        <v>12875</v>
+        <v>12277.286</v>
       </c>
       <c r="O61" t="n">
-        <v>1.263</v>
+        <v>0.325</v>
       </c>
       <c r="P61" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q61" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R61" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
       <c r="S61" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E62" t="s">
-        <v>408</v>
+        <v>43</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H62" t="n">
-        <v>109762</v>
+        <v>470234</v>
       </c>
       <c r="I62" t="n">
-        <v>38.098</v>
+        <v>46.116</v>
       </c>
       <c r="J62" t="n">
-        <v>2967</v>
+        <v>11532</v>
       </c>
       <c r="K62" t="n">
-        <v>1.03</v>
+        <v>1.131</v>
       </c>
       <c r="L62" t="n">
-        <v>2678</v>
+        <v>10172.333</v>
       </c>
       <c r="M62" t="n">
-        <v>0.93</v>
+        <v>0.997</v>
       </c>
       <c r="N62" t="n">
-        <v>3022.143</v>
+        <v>12808.857</v>
       </c>
       <c r="O62" t="n">
-        <v>1.049</v>
+        <v>1.256</v>
       </c>
       <c r="P62" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q62" t="s">
         <v>409</v>
       </c>
       <c r="R62" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="S62" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E63" t="s">
-        <v>414</v>
-      </c>
-      <c r="F63" t="s">
-        <v>415</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H63" t="n">
-        <v>199068</v>
+        <v>112963</v>
       </c>
       <c r="I63" t="n">
-        <v>10.348</v>
+        <v>39.209</v>
       </c>
       <c r="J63" t="n">
-        <v>3560</v>
+        <v>3201</v>
       </c>
       <c r="K63" t="n">
-        <v>0.185</v>
+        <v>1.111</v>
       </c>
       <c r="L63" t="n">
-        <v>5126.667</v>
+        <v>2842.667</v>
       </c>
       <c r="M63" t="n">
-        <v>0.266</v>
+        <v>0.987</v>
       </c>
       <c r="N63" t="n">
-        <v>7890.571</v>
+        <v>3078.286</v>
       </c>
       <c r="O63" t="n">
-        <v>0.41</v>
+        <v>1.069</v>
       </c>
       <c r="P63" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q63" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="R63" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S63" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E64" t="s">
-        <v>420</v>
-      </c>
-      <c r="F64"/>
+        <v>422</v>
+      </c>
+      <c r="F64" t="s">
+        <v>423</v>
+      </c>
       <c r="G64" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H64" t="n">
-        <v>4460357</v>
+        <v>217139</v>
       </c>
       <c r="I64" t="n">
-        <v>30.564</v>
+        <v>11.287</v>
       </c>
       <c r="J64" t="n">
-        <v>157114</v>
+        <v>11297</v>
       </c>
       <c r="K64" t="n">
-        <v>1.077</v>
+        <v>0.587</v>
       </c>
       <c r="L64" t="n">
-        <v>171613</v>
+        <v>7210.333</v>
       </c>
       <c r="M64" t="n">
-        <v>1.176</v>
+        <v>0.375</v>
       </c>
       <c r="N64" t="n">
-        <v>188728.429</v>
+        <v>7163.714</v>
       </c>
       <c r="O64" t="n">
-        <v>1.293</v>
+        <v>0.372</v>
       </c>
       <c r="P64" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q64" t="s">
         <v>421</v>
@@ -5766,111 +5778,109 @@
         <v>24</v>
       </c>
       <c r="S64" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43954</v>
+        <v>43957</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H65" t="n">
-        <v>28754</v>
+        <v>4633731</v>
       </c>
       <c r="I65" t="n">
-        <v>2.22</v>
+        <v>31.752</v>
       </c>
       <c r="J65" t="n">
-        <v>1047</v>
+        <v>173374</v>
       </c>
       <c r="K65" t="n">
-        <v>0.081</v>
+        <v>1.188</v>
       </c>
       <c r="L65" t="n">
-        <v>1203</v>
+        <v>177910.667</v>
       </c>
       <c r="M65" t="n">
-        <v>0.093</v>
+        <v>1.219</v>
       </c>
       <c r="N65" t="n">
-        <v>1310.429</v>
+        <v>190002</v>
       </c>
       <c r="O65" t="n">
-        <v>0.101</v>
+        <v>1.302</v>
       </c>
       <c r="P65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="R65" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D66" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E66" t="s">
-        <v>432</v>
-      </c>
-      <c r="F66" t="s">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H66" t="n">
-        <v>16279</v>
+        <v>35992</v>
       </c>
       <c r="I66" t="n">
-        <v>0.972</v>
+        <v>2.779</v>
       </c>
       <c r="J66" t="n">
-        <v>702</v>
+        <v>896</v>
       </c>
       <c r="K66" t="n">
-        <v>0.042</v>
+        <v>0.069</v>
       </c>
       <c r="L66" t="n">
-        <v>773</v>
+        <v>896.333</v>
       </c>
       <c r="M66" t="n">
-        <v>0.046</v>
+        <v>0.069</v>
       </c>
       <c r="N66" t="n">
-        <v>910.143</v>
+        <v>1156.571</v>
       </c>
       <c r="O66" t="n">
-        <v>0.054</v>
+        <v>0.089</v>
       </c>
       <c r="P66" t="s">
         <v>434</v>
@@ -5879,329 +5889,317 @@
         <v>435</v>
       </c>
       <c r="R66" t="s">
+        <v>53</v>
+      </c>
+      <c r="S66" t="s">
         <v>436</v>
-      </c>
-      <c r="S66" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" t="s">
         <v>438</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D67" t="s">
         <v>439</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D67" t="s">
-        <v>440</v>
       </c>
       <c r="E67" t="s">
         <v>43</v>
       </c>
-      <c r="F67" t="s">
-        <v>441</v>
-      </c>
+      <c r="F67"/>
       <c r="G67" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>111278</v>
+        <v>389659</v>
       </c>
       <c r="I67" t="n">
-        <v>16.353</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4817</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4880.333</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5416.429</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.796</v>
-      </c>
+        <v>11.193</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" t="s">
         <v>43</v>
       </c>
       <c r="Q67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R67" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="S67" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" t="s">
+        <v>442</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E68" t="s">
         <v>444</v>
       </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
         <v>445</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>43948</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="n">
+        <v>65</v>
+      </c>
+      <c r="H68" t="n">
+        <v>17461</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1182</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="L68" t="n">
+        <v>897</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N68" t="n">
+        <v>964.714</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="P68" t="s">
         <v>446</v>
       </c>
-      <c r="E68" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68" t="n">
-        <v>4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>99929</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17.081</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68" t="s">
-        <v>43</v>
-      </c>
       <c r="Q68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R68" t="s">
-        <v>87</v>
+        <v>448</v>
       </c>
       <c r="S68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43948</v>
+        <v>43957</v>
       </c>
       <c r="D69" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E69" t="s">
         <v>43</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" t="s">
+        <v>453</v>
+      </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H69" t="n">
-        <v>143919</v>
+        <v>117474</v>
       </c>
       <c r="I69" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
+        <v>17.264</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6196</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5187.667</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5504.571</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.809</v>
+      </c>
       <c r="P69" t="s">
         <v>43</v>
       </c>
       <c r="Q69" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="R69" t="s">
-        <v>449</v>
+        <v>94</v>
       </c>
       <c r="S69" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="D70" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E70" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>99864</v>
+        <v>123525</v>
       </c>
       <c r="I70" t="n">
-        <v>18.291</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2060</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1698</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3428.286</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.628</v>
-      </c>
+        <v>21.114</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="Q70" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="R70" t="s">
-        <v>456</v>
+        <v>94</v>
       </c>
       <c r="S70" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E71" t="s">
-        <v>461</v>
+        <v>43</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>57474</v>
+        <v>175604</v>
       </c>
       <c r="I71" t="n">
-        <v>27.646</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1338</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="L71" t="n">
-        <v>818</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1026.286</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.494</v>
-      </c>
+        <v>30.016</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
-        <v>462</v>
+        <v>43</v>
       </c>
       <c r="Q71" t="s">
+        <v>459</v>
+      </c>
+      <c r="R71" t="s">
         <v>463</v>
       </c>
-      <c r="R71" t="s">
-        <v>24</v>
-      </c>
       <c r="S71" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" t="s">
         <v>465</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D72" t="s">
         <v>466</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>467</v>
       </c>
-      <c r="E72" t="s">
-        <v>468</v>
-      </c>
-      <c r="F72" t="s">
-        <v>469</v>
-      </c>
+      <c r="F72"/>
       <c r="G72" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H72" t="n">
-        <v>257541</v>
+        <v>104606</v>
       </c>
       <c r="I72" t="n">
-        <v>4.342</v>
+        <v>19.16</v>
       </c>
       <c r="J72" t="n">
-        <v>11794</v>
+        <v>4742</v>
       </c>
       <c r="K72" t="n">
-        <v>0.199</v>
+        <v>0.869</v>
       </c>
       <c r="L72" t="n">
-        <v>13339.667</v>
+        <v>2795.333</v>
       </c>
       <c r="M72" t="n">
-        <v>0.225</v>
+        <v>0.512</v>
       </c>
       <c r="N72" t="n">
-        <v>11295.857</v>
+        <v>3324</v>
       </c>
       <c r="O72" t="n">
-        <v>0.19</v>
+        <v>0.609</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
       </c>
       <c r="Q72" t="s">
+        <v>469</v>
+      </c>
+      <c r="R72" t="s">
         <v>470</v>
-      </c>
-      <c r="R72" t="s">
-        <v>87</v>
       </c>
       <c r="S72" t="s">
         <v>471</v>
@@ -6225,238 +6223,240 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="H73" t="n">
-        <v>640237</v>
+        <v>58923</v>
       </c>
       <c r="I73" t="n">
-        <v>12.488</v>
+        <v>28.343</v>
       </c>
       <c r="J73" t="n">
-        <v>6316</v>
+        <v>1449</v>
       </c>
       <c r="K73" t="n">
-        <v>0.123</v>
+        <v>0.697</v>
       </c>
       <c r="L73" t="n">
-        <v>4225</v>
+        <v>1134.333</v>
       </c>
       <c r="M73" t="n">
-        <v>0.083</v>
+        <v>0.546</v>
       </c>
       <c r="N73" t="n">
-        <v>4531.857</v>
+        <v>1045.143</v>
       </c>
       <c r="O73" t="n">
-        <v>0.089</v>
+        <v>0.503</v>
       </c>
       <c r="P73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q73" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="R73" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="S73" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43951</v>
+        <v>43956</v>
       </c>
       <c r="D74" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E74" t="s">
-        <v>481</v>
-      </c>
-      <c r="F74"/>
+        <v>482</v>
+      </c>
+      <c r="F74" t="s">
+        <v>483</v>
+      </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H74" t="n">
-        <v>1351130</v>
+        <v>268064</v>
       </c>
       <c r="I74" t="n">
-        <v>28.898</v>
-      </c>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
+        <v>4.52</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10523</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="L74" t="n">
+        <v>12459.333</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N74" t="n">
+        <v>11795.286</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.199</v>
+      </c>
       <c r="P74" t="s">
         <v>482</v>
       </c>
       <c r="Q74" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="R74" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43954</v>
+        <v>43957</v>
       </c>
       <c r="D75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="H75" t="n">
-        <v>148500</v>
+        <v>643095</v>
       </c>
       <c r="I75" t="n">
-        <v>14.704</v>
+        <v>12.544</v>
       </c>
       <c r="J75"/>
-      <c r="K75"/>
+      <c r="K75" t="n">
+        <v>0.056</v>
+      </c>
       <c r="L75"/>
-      <c r="M75"/>
+      <c r="M75" t="n">
+        <v>0.079</v>
+      </c>
       <c r="N75"/>
-      <c r="O75"/>
+      <c r="O75" t="n">
+        <v>0.081</v>
+      </c>
       <c r="P75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q75" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="R75" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S75" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B76" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43955</v>
+        <v>43951</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E76" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>286403</v>
+        <v>1351130</v>
       </c>
       <c r="I76" t="n">
-        <v>33.093</v>
+        <v>28.898</v>
       </c>
       <c r="J76"/>
-      <c r="K76" t="n">
-        <v>0.077</v>
-      </c>
+      <c r="K76"/>
       <c r="L76"/>
-      <c r="M76" t="n">
-        <v>0.221</v>
-      </c>
+      <c r="M76"/>
       <c r="N76"/>
-      <c r="O76" t="n">
-        <v>0.436</v>
-      </c>
+      <c r="O76"/>
       <c r="P76" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q76" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="R76" t="s">
-        <v>495</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="D77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E77" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>64958</v>
+        <v>148500</v>
       </c>
       <c r="I77" t="n">
-        <v>2.727</v>
-      </c>
-      <c r="J77" t="n">
-        <v>522</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="L77" t="n">
-        <v>415</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="N77" t="n">
-        <v>467.714</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.02</v>
-      </c>
+        <v>14.704</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
       <c r="P77" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q77" t="s">
         <v>501</v>
       </c>
       <c r="R77" t="s">
-        <v>502</v>
+        <v>94</v>
       </c>
       <c r="S77" t="s">
         <v>503</v>
@@ -6480,40 +6480,34 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H78" t="n">
-        <v>82627</v>
+        <v>290365</v>
       </c>
       <c r="I78" t="n">
-        <v>1.184</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3859</v>
-      </c>
+        <v>33.55</v>
+      </c>
+      <c r="J78"/>
       <c r="K78" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3294</v>
-      </c>
+        <v>0.153</v>
+      </c>
+      <c r="L78"/>
       <c r="M78" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3529.286</v>
-      </c>
+        <v>0.272</v>
+      </c>
+      <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.051</v>
+        <v>0.419</v>
       </c>
       <c r="P78" t="s">
         <v>508</v>
       </c>
       <c r="Q78" t="s">
+        <v>506</v>
+      </c>
+      <c r="R78" t="s">
         <v>509</v>
-      </c>
-      <c r="R78" t="s">
-        <v>87</v>
       </c>
       <c r="S78" t="s">
         <v>510</v>
@@ -6527,7 +6521,7 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="D79" t="s">
         <v>513</v>
@@ -6537,31 +6531,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H79" t="n">
-        <v>24853</v>
+        <v>65589</v>
       </c>
       <c r="I79" t="n">
-        <v>2.103</v>
+        <v>2.754</v>
       </c>
       <c r="J79" t="n">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="K79" t="n">
-        <v>0.038</v>
+        <v>0.026</v>
       </c>
       <c r="L79" t="n">
-        <v>442.333</v>
+        <v>498.333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.038</v>
+        <v>0.021</v>
       </c>
       <c r="N79" t="n">
-        <v>538.857</v>
+        <v>460.143</v>
       </c>
       <c r="O79" t="n">
-        <v>0.046</v>
+        <v>0.019</v>
       </c>
       <c r="P79" t="s">
         <v>514</v>
@@ -6584,7 +6578,7 @@
         <v>519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D80" t="s">
         <v>520</v>
@@ -6594,32 +6588,40 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H80" t="n">
-        <v>1204421</v>
+        <v>86320</v>
       </c>
       <c r="I80" t="n">
-        <v>14.281</v>
+        <v>1.237</v>
       </c>
       <c r="J80" t="n">
-        <v>33283</v>
+        <v>3693</v>
       </c>
       <c r="K80" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.053</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3684</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3471.714</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.05</v>
+      </c>
       <c r="P80" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q80" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R80" t="s">
-        <v>523</v>
+        <v>94</v>
       </c>
       <c r="S80" t="s">
         <v>524</v>
@@ -6641,44 +6643,42 @@
       <c r="E81" t="s">
         <v>528</v>
       </c>
-      <c r="F81" t="s">
-        <v>529</v>
-      </c>
+      <c r="F81"/>
       <c r="G81" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H81" t="n">
-        <v>41462</v>
+        <v>25165</v>
       </c>
       <c r="I81" t="n">
-        <v>0.906</v>
+        <v>2.129</v>
       </c>
       <c r="J81" t="n">
-        <v>2246</v>
+        <v>312</v>
       </c>
       <c r="K81" t="n">
-        <v>0.049</v>
+        <v>0.026</v>
       </c>
       <c r="L81" t="n">
-        <v>2553.333</v>
+        <v>370</v>
       </c>
       <c r="M81" t="n">
-        <v>0.056</v>
+        <v>0.031</v>
       </c>
       <c r="N81" t="n">
-        <v>2369.571</v>
+        <v>526.857</v>
       </c>
       <c r="O81" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
       <c r="P81" t="s">
         <v>528</v>
       </c>
       <c r="Q81" t="s">
+        <v>529</v>
+      </c>
+      <c r="R81" t="s">
         <v>530</v>
-      </c>
-      <c r="R81" t="s">
-        <v>53</v>
       </c>
       <c r="S81" t="s">
         <v>531</v>
@@ -6692,7 +6692,7 @@
         <v>533</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D82" t="s">
         <v>534</v>
@@ -6702,32 +6702,28 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H82" t="n">
-        <v>139759</v>
+        <v>1234724</v>
       </c>
       <c r="I82" t="n">
-        <v>3.196</v>
+        <v>14.64</v>
       </c>
       <c r="J82" t="n">
-        <v>5167</v>
+        <v>30303</v>
       </c>
       <c r="K82" t="n">
-        <v>0.118</v>
+        <v>0.359</v>
       </c>
       <c r="L82" t="n">
-        <v>5669</v>
+        <v>33119</v>
       </c>
       <c r="M82" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5862.857</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.134</v>
-      </c>
+        <v>0.393</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
         <v>535</v>
       </c>
@@ -6757,210 +6753,212 @@
       <c r="E83" t="s">
         <v>542</v>
       </c>
-      <c r="F83"/>
+      <c r="F83" t="s">
+        <v>543</v>
+      </c>
       <c r="G83" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H83" t="n">
-        <v>1015138</v>
+        <v>44094</v>
       </c>
       <c r="I83" t="n">
-        <v>14.954</v>
+        <v>0.964</v>
       </c>
       <c r="J83" t="n">
-        <v>69839</v>
+        <v>2632</v>
       </c>
       <c r="K83" t="n">
-        <v>1.029</v>
+        <v>0.058</v>
       </c>
       <c r="L83" t="n">
-        <v>63064</v>
+        <v>2602.667</v>
       </c>
       <c r="M83" t="n">
-        <v>0.929</v>
+        <v>0.057</v>
       </c>
       <c r="N83" t="n">
-        <v>59154.286</v>
+        <v>2402.714</v>
       </c>
       <c r="O83" t="n">
-        <v>0.871</v>
+        <v>0.053</v>
       </c>
       <c r="P83" t="s">
         <v>542</v>
       </c>
       <c r="Q83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="R83" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="S83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D84" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E84" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H84" t="n">
-        <v>1383842</v>
+        <v>144283</v>
       </c>
       <c r="I84" t="n">
-        <v>20.385</v>
+        <v>3.299</v>
       </c>
       <c r="J84" t="n">
-        <v>84806</v>
+        <v>4524</v>
       </c>
       <c r="K84" t="n">
-        <v>1.249</v>
+        <v>0.103</v>
       </c>
       <c r="L84" t="n">
-        <v>82162.667</v>
+        <v>4853.333</v>
       </c>
       <c r="M84" t="n">
-        <v>1.21</v>
+        <v>0.111</v>
       </c>
       <c r="N84" t="n">
-        <v>86973.143</v>
+        <v>5677</v>
       </c>
       <c r="O84" t="n">
-        <v>1.281</v>
+        <v>0.13</v>
       </c>
       <c r="P84" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="Q84" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R84" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="S84" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D85" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H85" t="n">
-        <v>7285178</v>
+        <v>1072144</v>
       </c>
       <c r="I85" t="n">
-        <v>22.009</v>
+        <v>15.793</v>
       </c>
       <c r="J85" t="n">
-        <v>231812</v>
+        <v>57006</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="L85" t="n">
-        <v>244456</v>
+        <v>63267</v>
       </c>
       <c r="M85" t="n">
-        <v>0.739</v>
+        <v>0.932</v>
       </c>
       <c r="N85" t="n">
-        <v>241579.571</v>
+        <v>62518.714</v>
       </c>
       <c r="O85" t="n">
-        <v>0.73</v>
+        <v>0.921</v>
       </c>
       <c r="P85" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Q85" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="R85" t="s">
-        <v>554</v>
+        <v>94</v>
       </c>
       <c r="S85" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s">
+        <v>559</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D86" t="s">
+        <v>560</v>
+      </c>
+      <c r="E86" t="s">
         <v>556</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>43948</v>
-      </c>
-      <c r="D86" t="s">
-        <v>557</v>
-      </c>
-      <c r="E86" t="s">
-        <v>558</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
-        <v>582512</v>
+        <v>1448010</v>
       </c>
       <c r="I86" t="n">
-        <v>1.76</v>
+        <v>21.33</v>
       </c>
       <c r="J86" t="n">
-        <v>22612</v>
+        <v>69463</v>
       </c>
       <c r="K86" t="n">
-        <v>0.068</v>
+        <v>1.023</v>
       </c>
       <c r="L86" t="n">
-        <v>15735.667</v>
+        <v>79818.333</v>
       </c>
       <c r="M86" t="n">
-        <v>0.048</v>
+        <v>1.176</v>
       </c>
       <c r="N86" t="n">
-        <v>18752.429</v>
+        <v>89406.571</v>
       </c>
       <c r="O86" t="n">
-        <v>0.057</v>
+        <v>1.317</v>
       </c>
       <c r="P86" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q86" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="R86" t="s">
         <v>561</v>
@@ -6983,149 +6981,263 @@
         <v>565</v>
       </c>
       <c r="E87" t="s">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H87" t="n">
-        <v>22805</v>
+        <v>7544328</v>
       </c>
       <c r="I87" t="n">
-        <v>6.565</v>
+        <v>22.792</v>
       </c>
       <c r="J87" t="n">
-        <v>866</v>
+        <v>258954</v>
       </c>
       <c r="K87" t="n">
-        <v>0.249</v>
+        <v>0.782</v>
       </c>
       <c r="L87" t="n">
-        <v>750.333</v>
+        <v>246362.333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.216</v>
+        <v>0.744</v>
       </c>
       <c r="N87" t="n">
-        <v>757.143</v>
+        <v>249771.857</v>
       </c>
       <c r="O87" t="n">
-        <v>0.218</v>
+        <v>0.755</v>
       </c>
       <c r="P87" t="s">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="Q87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="R87" t="s">
-        <v>24</v>
+        <v>568</v>
       </c>
       <c r="S87" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="H88" t="n">
-        <v>261004</v>
+        <v>606361</v>
       </c>
       <c r="I88" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
+        <v>1.832</v>
+      </c>
+      <c r="J88" t="n">
+        <v>23063</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L88" t="n">
+        <v>18202.667</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N88" t="n">
+        <v>19781.714</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.06</v>
+      </c>
       <c r="P88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q88" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="R88" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="S88" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B89" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D89" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E89" t="s">
-        <v>578</v>
+        <v>126</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89" t="n">
-        <v>13329</v>
+        <v>23811</v>
       </c>
       <c r="I89" t="n">
-        <v>0.897</v>
+        <v>6.855</v>
       </c>
       <c r="J89" t="n">
-        <v>1682</v>
+        <v>1006</v>
       </c>
       <c r="K89" t="n">
-        <v>0.113</v>
+        <v>0.29</v>
       </c>
       <c r="L89" t="n">
-        <v>1346</v>
+        <v>882.333</v>
       </c>
       <c r="M89" t="n">
-        <v>0.091</v>
+        <v>0.254</v>
       </c>
       <c r="N89" t="n">
-        <v>927.857</v>
+        <v>810.143</v>
       </c>
       <c r="O89" t="n">
-        <v>0.062</v>
+        <v>0.233</v>
       </c>
       <c r="P89" t="s">
-        <v>578</v>
+        <v>126</v>
       </c>
       <c r="Q89" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
       </c>
       <c r="S89" t="s">
-        <v>580</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>582</v>
+      </c>
+      <c r="B90" t="s">
+        <v>583</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D90" t="s">
+        <v>584</v>
+      </c>
+      <c r="E90" t="s">
+        <v>585</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" t="n">
+        <v>37</v>
+      </c>
+      <c r="H90" t="n">
+        <v>261004</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>586</v>
+      </c>
+      <c r="R90" t="s">
+        <v>587</v>
+      </c>
+      <c r="S90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>589</v>
+      </c>
+      <c r="B91" t="s">
+        <v>590</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D91" t="s">
+        <v>591</v>
+      </c>
+      <c r="E91" t="s">
+        <v>592</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91" t="n">
+        <v>42</v>
+      </c>
+      <c r="H91" t="n">
+        <v>14821</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1492</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1364.667</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1076.286</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="P91" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>593</v>
+      </c>
+      <c r="R91" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-6-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-7-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175135/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085522/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175139/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508130052/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-4-maya-vyzdoroveli-i-vypisany-3259-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-7-maya-vyzdoroveli-i-vypisany-5067-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -247,7 +247,7 @@
   </si>
   <si>
     <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in [this dashboard](https://www.boliviasegura.gob.bo/datos-oficiales), which provides a breakdown of the cumulative number of confirmed, suspected, and discarded cases to date along with the number of deaths and recoveries. We assume that the number of discarded cases ("casos descartados") refers to the number of cases with negative test results. Under this assumption, we measure the total number of cases tested to date as the sum of the number of confirmed and discarded cases.
-Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial Github repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
+Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
   </si>
   <si>
     <t xml:space="preserve">BRA</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175144/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085527/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175147/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085529/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -336,7 +336,7 @@
     <t xml:space="preserve">https://www.gob.cl/coronavirus/cifrasoficiales/#reportes</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on Github](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
+    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on GitHub](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175452/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508130102/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">Denmark - People tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-06052020-pp5f</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-07052020-8t4k</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-69-COE-NACIONAL-06052020-08h00-2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -504,7 +504,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:10am local time on 2020-05-06.</t>
+    <t xml:space="preserve">updated at 10:35pm local time on 2020-05-06.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-6_-ENG-V4-1.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-8_-ENG-V5.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -585,7 +585,7 @@
     <t xml:space="preserve">France - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/249184/2589560</t>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
   </si>
   <si>
     <t xml:space="preserve">Agence nationale de santé publique</t>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200506/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200507/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -771,7 +771,7 @@
   </si>
   <si>
     <t xml:space="preserve">The ICMR reports separate figures for both “samples tested” and “people tested” at press conferences and in press releases (shown separately in the charts above). No other details are provided.
-The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [Github repository](https://github.com/datameet/covid19).
+The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [GitHub repository](https://github.com/datameet/covid19).
 On some occasions there appear to have been more than one update released per day. Where we are aware of multiple observations for the day, we show the number for the earlier release.</t>
   </si>
   <si>
@@ -804,7 +804,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200506141329/http://irangov.ir/detail/338787</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200507141927/http://irangov.ir/detail/338841</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -856,7 +856,7 @@
     <t xml:space="preserve">https://t.me/s/MOHreport</t>
   </si>
   <si>
-    <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on Github](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
+    <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
 On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health.
 No further information on the geographical scope, number of labs, or types of test included are known.</t>
   </si>
@@ -924,7 +924,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627634.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628517.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -999,7 +999,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175614/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085626/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175621/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200507200422/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1036,7 +1036,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175630/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508130208/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200506_1112.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 6 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200507_1337_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 7 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175710/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200507200512/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.06-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.08-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180000/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085712/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1259,7 +1259,7 @@
   <si>
     <t xml:space="preserve">The [Panama Ministry of Health](http://www.minsa.gob.pa) in collaboration with the [Gorgas Memorial Institute for Health Studies](http://www.gorgas.gob.pa) reports the cumulative number of tests performed to date in [this dashboard](http://minsa.gob.pa/coronavirus-covid-19). The reported figures include the total number of positive, negative, and "positive control" test results to date.
 It is unclear whether the total number of tests performed ("pruebas realizadas") refers to the number of people tested or the number of samples tested. The number of reported positive test results is equal to the number of confirmed cases of COVID-19, which suggests that the number of tests performed is equivalent to the number of people tested. However, because the data source does not provide a clear definition, we record the units as "unclear".
-Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial Github repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
+Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial GitHub repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
   </si>
   <si>
     <t xml:space="preserve">PRY</t>
@@ -1284,7 +1284,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare provides press releases of the daily number of samples tested, alongside the number of these samples that tested positive. It is unclear whether these figures include samples for which the results are still pending.
-We construct a time series of the daily number of samples tested using the data stored in [this unofficial Github repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
+We construct a time series of the daily number of samples tested using the data stored in [this unofficial GitHub repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
 It is possible that the figures are equivalent to the number of people tested, since the number of positive samples reported tend to be equal to the daily number of confirmed cases that the ministry reports. However, since the ministry uses the language "samples taken" ("muestras tomadas") in its press releases, we interpret the units as "sample tested" rather than "people tested".
 The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
   </si>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/147296-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-51-189-en-el-peru-comunicado-n-88</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151042-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-58-526-en-el-peru-comunicado-n-90</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.06.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.08.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180008/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508130300/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">Made available by Adrian-Tudor Panescu on Github</t>
   </si>
   <si>
-    <t xml:space="preserve">Data is collected and made available [on Github](https://github.com/adrianp/covid19romania). It includes a cumulative total of tests performed. No information is given on the geographical scope and number of labs included.
+    <t xml:space="preserve">Data is collected and made available [on GitHub](https://github.com/adrianp/covid19romania). It includes a cumulative total of tests performed. No information is given on the geographical scope and number of labs included.
 The main data source is the press office of the Ministry of Internal Affairs, which provides a daily report on most metrics. Data points are also sourced from the Romanian Ministry of Health and the Romanian National Institute of Public Health and occasionally from news outlets.</t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14386</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14413</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1257748545744113665</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1258101550322536448</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1512,7 +1512,7 @@
     <t xml:space="preserve">https://www.zdravlje.gov.rs/sekcija/345852/covid-19.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on Github](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
+    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on GitHub](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
   </si>
   <si>
     <t xml:space="preserve">SGP</t>
@@ -1546,7 +1546,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180204/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085745/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1620,7 +1620,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367092&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367177&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/sanidadgob/status/1256993737340747782</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -1687,9 +1687,6 @@
     <t xml:space="preserve">https://covid-19-schweiz.bagapps.ch/de-3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">BAG dashboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
   </si>
   <si>
@@ -1706,7 +1703,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/DZSBM654J3t3R35Rsh8KJA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/KxbDDNIQs2ZzZcFaecfm7g?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1729,7 +1726,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180226/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085818/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1776,7 +1773,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180231/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200507200232/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1800,7 +1797,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257775905147105280</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1258126714259099655</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1823,7 +1820,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180233/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508085824/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1845,7 +1842,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180236/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200507200236/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1868,7 +1865,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180240/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200507200237/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1942,7 +1939,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-16</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-18</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1981,7 +1978,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257805665143226377</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258247862527438848</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -1991,7 +1988,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results. It is not clear how many people have been tested, since the reported figures refer only to the number of tests conducted rather than the number of people tested.
-The earliest reported figure that we have been able to find is from March 15th 2020, at which point 14 tests had been conducted.</t>
+The press release for May 6th 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
+Prior to May 6th 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on May 6th 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2451,31 +2449,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>688656</v>
+        <v>722549</v>
       </c>
       <c r="I3" t="n">
-        <v>27.006</v>
+        <v>28.335</v>
       </c>
       <c r="J3" t="n">
-        <v>23900</v>
+        <v>33893</v>
       </c>
       <c r="K3" t="n">
-        <v>0.937</v>
+        <v>1.329</v>
       </c>
       <c r="L3" t="n">
-        <v>18516.333</v>
+        <v>24111.667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.726</v>
+        <v>0.945</v>
       </c>
       <c r="N3" t="n">
-        <v>20606.571</v>
+        <v>22701.143</v>
       </c>
       <c r="O3" t="n">
-        <v>0.808</v>
+        <v>0.89</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2498,7 +2496,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2508,31 +2506,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="n">
-        <v>292254</v>
+        <v>304069</v>
       </c>
       <c r="I4" t="n">
-        <v>32.45</v>
+        <v>33.761</v>
       </c>
       <c r="J4" t="n">
-        <v>6371</v>
+        <v>6175</v>
       </c>
       <c r="K4" t="n">
-        <v>0.707</v>
+        <v>0.686</v>
       </c>
       <c r="L4" t="n">
-        <v>5966.333</v>
+        <v>6062</v>
       </c>
       <c r="M4" t="n">
-        <v>0.662</v>
+        <v>0.673</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.143</v>
+        <v>5712.857</v>
       </c>
       <c r="O4" t="n">
-        <v>0.706</v>
+        <v>0.634</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2555,7 +2553,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2565,31 +2563,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>160341</v>
+        <v>170719</v>
       </c>
       <c r="I5" t="n">
-        <v>94.23</v>
+        <v>100.33</v>
       </c>
       <c r="J5" t="n">
-        <v>4840</v>
+        <v>4341</v>
       </c>
       <c r="K5" t="n">
-        <v>2.844</v>
+        <v>2.551</v>
       </c>
       <c r="L5" t="n">
-        <v>5395.333</v>
+        <v>5072.667</v>
       </c>
       <c r="M5" t="n">
-        <v>3.171</v>
+        <v>2.981</v>
       </c>
       <c r="N5" t="n">
-        <v>4776.571</v>
+        <v>5233.857</v>
       </c>
       <c r="O5" t="n">
-        <v>2.807</v>
+        <v>3.076</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2612,7 +2610,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2622,31 +2620,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" t="n">
-        <v>99644</v>
+        <v>105511</v>
       </c>
       <c r="I6" t="n">
-        <v>0.605</v>
+        <v>0.641</v>
       </c>
       <c r="J6" t="n">
-        <v>6241</v>
+        <v>5867</v>
       </c>
       <c r="K6" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="L6" t="n">
-        <v>6063.333</v>
+        <v>5937.667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="N6" t="n">
-        <v>5706.143</v>
+        <v>5835</v>
       </c>
       <c r="O6" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2669,7 +2667,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2679,13 +2677,13 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>211369</v>
+        <v>229466</v>
       </c>
       <c r="I7" t="n">
-        <v>22.369</v>
+        <v>24.284</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -2714,7 +2712,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2724,31 +2722,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>391314</v>
+        <v>424448</v>
       </c>
       <c r="I8" t="n">
-        <v>33.764</v>
+        <v>36.623</v>
       </c>
       <c r="J8" t="n">
-        <v>19721</v>
+        <v>16598</v>
       </c>
       <c r="K8" t="n">
-        <v>1.702</v>
+        <v>1.432</v>
       </c>
       <c r="L8" t="n">
-        <v>15552.667</v>
+        <v>18301</v>
       </c>
       <c r="M8" t="n">
-        <v>1.342</v>
+        <v>1.579</v>
       </c>
       <c r="N8" t="n">
-        <v>18086.286</v>
+        <v>17898.571</v>
       </c>
       <c r="O8" t="n">
-        <v>1.561</v>
+        <v>1.544</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2771,7 +2769,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2783,31 +2781,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="n">
-        <v>7888</v>
+        <v>8167</v>
       </c>
       <c r="I9" t="n">
-        <v>0.676</v>
+        <v>0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="L9" t="n">
-        <v>110.667</v>
+        <v>133.333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="N9" t="n">
-        <v>252.429</v>
+        <v>230.857</v>
       </c>
       <c r="O9" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2875,7 +2873,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2885,28 +2883,32 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>51768</v>
+        <v>54328</v>
       </c>
       <c r="I11" t="n">
-        <v>7.45</v>
+        <v>7.819</v>
       </c>
       <c r="J11" t="n">
-        <v>1465</v>
+        <v>1397</v>
       </c>
       <c r="K11" t="n">
-        <v>0.211</v>
+        <v>0.201</v>
       </c>
       <c r="L11" t="n">
-        <v>1050</v>
+        <v>1341.667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>0.193</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1116.857</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.161</v>
+      </c>
       <c r="P11" t="s">
         <v>86</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2938,21 +2940,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>942526</v>
+        <v>1005218</v>
       </c>
       <c r="I12" t="n">
-        <v>24.973</v>
+        <v>26.634</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.052</v>
+        <v>0.088</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.433</v>
+        <v>0.571</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -2977,7 +2979,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -2989,31 +2991,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>232108</v>
+        <v>244226</v>
       </c>
       <c r="I13" t="n">
-        <v>12.142</v>
+        <v>12.776</v>
       </c>
       <c r="J13" t="n">
-        <v>10013</v>
+        <v>12118</v>
       </c>
       <c r="K13" t="n">
-        <v>0.524</v>
+        <v>0.634</v>
       </c>
       <c r="L13" t="n">
-        <v>8630</v>
+        <v>10031.667</v>
       </c>
       <c r="M13" t="n">
-        <v>0.452</v>
+        <v>0.525</v>
       </c>
       <c r="N13" t="n">
-        <v>8498.429</v>
+        <v>9101.286</v>
       </c>
       <c r="O13" t="n">
-        <v>0.445</v>
+        <v>0.476</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3036,7 +3038,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3046,31 +3048,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" t="n">
-        <v>127105</v>
+        <v>135352</v>
       </c>
       <c r="I14" t="n">
-        <v>2.498</v>
+        <v>2.66</v>
       </c>
       <c r="J14" t="n">
-        <v>4076</v>
+        <v>4242</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="L14" t="n">
-        <v>4167.667</v>
+        <v>4107.667</v>
       </c>
       <c r="M14" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="N14" t="n">
-        <v>4574.286</v>
+        <v>4385</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09</v>
+        <v>0.086</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3093,7 +3095,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3103,31 +3105,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" t="n">
-        <v>9892</v>
+        <v>10375</v>
       </c>
       <c r="I15" t="n">
-        <v>1.942</v>
+        <v>2.037</v>
       </c>
       <c r="J15" t="n">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="K15" t="n">
-        <v>0.014</v>
+        <v>0.054</v>
       </c>
       <c r="L15" t="n">
-        <v>99.667</v>
+        <v>185.333</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02</v>
+        <v>0.036</v>
       </c>
       <c r="N15" t="n">
-        <v>129</v>
+        <v>148.571</v>
       </c>
       <c r="O15" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3150,7 +3152,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3160,25 +3162,25 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" t="n">
-        <v>41053</v>
+        <v>43378</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>10.566</v>
       </c>
       <c r="J16" t="n">
-        <v>1080</v>
+        <v>1440</v>
       </c>
       <c r="K16" t="n">
-        <v>0.263</v>
+        <v>0.351</v>
       </c>
       <c r="L16" t="n">
-        <v>989.667</v>
+        <v>1135</v>
       </c>
       <c r="M16" t="n">
-        <v>0.241</v>
+        <v>0.277</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -3203,7 +3205,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3215,28 +3217,28 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="n">
-        <v>59648</v>
+        <v>61613</v>
       </c>
       <c r="I17" t="n">
-        <v>5.266</v>
+        <v>5.44</v>
       </c>
       <c r="J17" t="n">
-        <v>1937</v>
+        <v>1965</v>
       </c>
       <c r="K17" t="n">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="L17" t="n">
-        <v>2034.333</v>
+        <v>2023.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="N17" t="n">
-        <v>2043.429</v>
+        <v>2038</v>
       </c>
       <c r="O17" t="n">
         <v>0.18</v>
@@ -3262,7 +3264,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3272,31 +3274,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" t="n">
-        <v>278519</v>
+        <v>293992</v>
       </c>
       <c r="I18" t="n">
-        <v>26.008</v>
+        <v>27.453</v>
       </c>
       <c r="J18" t="n">
-        <v>9416</v>
+        <v>7071</v>
       </c>
       <c r="K18" t="n">
-        <v>0.879</v>
+        <v>0.66</v>
       </c>
       <c r="L18" t="n">
-        <v>6879.333</v>
+        <v>8296.333</v>
       </c>
       <c r="M18" t="n">
-        <v>0.642</v>
+        <v>0.775</v>
       </c>
       <c r="N18" t="n">
-        <v>6207.714</v>
+        <v>6335.429</v>
       </c>
       <c r="O18" t="n">
-        <v>0.58</v>
+        <v>0.592</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3319,7 +3321,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3331,31 +3333,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="n">
-        <v>270680</v>
+        <v>284480</v>
       </c>
       <c r="I19" t="n">
-        <v>46.732</v>
+        <v>49.114</v>
       </c>
       <c r="J19" t="n">
-        <v>12942</v>
+        <v>13800</v>
       </c>
       <c r="K19" t="n">
-        <v>2.234</v>
+        <v>2.383</v>
       </c>
       <c r="L19" t="n">
-        <v>12293.667</v>
+        <v>13229.667</v>
       </c>
       <c r="M19" t="n">
-        <v>2.122</v>
+        <v>2.284</v>
       </c>
       <c r="N19" t="n">
-        <v>12945.429</v>
+        <v>13045</v>
       </c>
       <c r="O19" t="n">
-        <v>2.235</v>
+        <v>2.252</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3378,7 +3380,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3390,26 +3392,20 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="n">
-        <v>66160</v>
+        <v>63300</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.588</v>
       </c>
       <c r="J20"/>
-      <c r="K20" t="n">
-        <v>0.211</v>
-      </c>
+      <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>0.284</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" t="s">
         <v>146</v>
       </c>
@@ -3431,7 +3427,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
@@ -3443,22 +3439,22 @@
         <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="n">
-        <v>33628</v>
+        <v>35411</v>
       </c>
       <c r="I21" t="n">
-        <v>5.185</v>
+        <v>5.459</v>
       </c>
       <c r="J21" t="n">
-        <v>1598</v>
+        <v>1783</v>
       </c>
       <c r="K21" t="n">
-        <v>0.246</v>
+        <v>0.275</v>
       </c>
       <c r="L21" t="n">
-        <v>1677.333</v>
+        <v>1674.667</v>
       </c>
       <c r="M21" t="n">
         <v>0.258</v>
@@ -3486,7 +3482,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3496,31 +3492,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" t="n">
-        <v>58955</v>
+        <v>61767</v>
       </c>
       <c r="I22" t="n">
-        <v>44.443</v>
+        <v>46.563</v>
       </c>
       <c r="J22" t="n">
-        <v>1541</v>
+        <v>1279</v>
       </c>
       <c r="K22" t="n">
-        <v>1.162</v>
+        <v>0.964</v>
       </c>
       <c r="L22" t="n">
-        <v>1256.667</v>
+        <v>1454.667</v>
       </c>
       <c r="M22" t="n">
-        <v>0.947</v>
+        <v>1.096</v>
       </c>
       <c r="N22" t="n">
-        <v>1112.143</v>
+        <v>1145.429</v>
       </c>
       <c r="O22" t="n">
-        <v>0.838</v>
+        <v>0.863</v>
       </c>
       <c r="P22" t="s">
         <v>160</v>
@@ -3543,7 +3539,7 @@
         <v>165</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
@@ -3553,16 +3549,20 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>26517</v>
+        <v>30306</v>
       </c>
       <c r="I23" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>0.264</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.017</v>
+      </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -3588,7 +3588,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -3598,25 +3598,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" t="n">
-        <v>108112</v>
+        <v>111983</v>
       </c>
       <c r="I24" t="n">
-        <v>19.512</v>
+        <v>20.211</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.098</v>
+        <v>0.147</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.184</v>
+        <v>0.319</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="P24" t="s">
         <v>174</v>
@@ -3639,7 +3639,7 @@
         <v>177</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43949</v>
+        <v>43956</v>
       </c>
       <c r="D25" t="s">
         <v>178</v>
@@ -3651,13 +3651,13 @@
         <v>180</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>724574</v>
+        <v>831174</v>
       </c>
       <c r="I25" t="n">
-        <v>11.101</v>
+        <v>12.734</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -3733,7 +3733,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -3743,20 +3743,16 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>129461</v>
+        <v>135902</v>
       </c>
       <c r="I27" t="n">
-        <v>4.166</v>
-      </c>
-      <c r="J27" t="n">
-        <v>12412</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.399</v>
-      </c>
+        <v>4.374</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -3782,7 +3778,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3792,16 +3788,20 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="n">
-        <v>87052</v>
+        <v>90043</v>
       </c>
       <c r="I28" t="n">
-        <v>8.352</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
+        <v>8.639</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2991</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.287</v>
+      </c>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -3827,7 +3827,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43948</v>
+        <v>43956</v>
       </c>
       <c r="D29" t="s">
         <v>208</v>
@@ -3837,13 +3837,13 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>154989</v>
+        <v>168291</v>
       </c>
       <c r="I29" t="n">
-        <v>20.674</v>
+        <v>22.448</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3872,7 +3872,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -3884,31 +3884,31 @@
         <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H30" t="n">
-        <v>86743</v>
+        <v>99058</v>
       </c>
       <c r="I30" t="n">
-        <v>8.979</v>
+        <v>10.254</v>
       </c>
       <c r="J30" t="n">
-        <v>1186</v>
+        <v>5022</v>
       </c>
       <c r="K30" t="n">
-        <v>0.123</v>
+        <v>0.52</v>
       </c>
       <c r="L30" t="n">
-        <v>1577.667</v>
+        <v>4500.333</v>
       </c>
       <c r="M30" t="n">
-        <v>0.164</v>
+        <v>0.466</v>
       </c>
       <c r="N30" t="n">
-        <v>2349</v>
+        <v>3246.714</v>
       </c>
       <c r="O30" t="n">
-        <v>0.243</v>
+        <v>0.336</v>
       </c>
       <c r="P30" t="s">
         <v>216</v>
@@ -3931,7 +3931,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
@@ -3941,25 +3941,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" t="n">
-        <v>51622</v>
+        <v>52704</v>
       </c>
       <c r="I31" t="n">
-        <v>151.273</v>
-      </c>
-      <c r="J31"/>
+        <v>154.444</v>
+      </c>
+      <c r="J31" t="n">
+        <v>462</v>
+      </c>
       <c r="K31" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="L31"/>
+        <v>1.354</v>
+      </c>
+      <c r="L31" t="n">
+        <v>466.667</v>
+      </c>
       <c r="M31" t="n">
-        <v>1.228</v>
-      </c>
-      <c r="N31"/>
+        <v>1.368</v>
+      </c>
+      <c r="N31" t="n">
+        <v>515.714</v>
+      </c>
       <c r="O31" t="n">
-        <v>1.712</v>
+        <v>1.511</v>
       </c>
       <c r="P31" t="s">
         <v>224</v>
@@ -4033,7 +4039,7 @@
         <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4045,31 +4051,31 @@
         <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33" t="n">
-        <v>1276781</v>
+        <v>1437788</v>
       </c>
       <c r="I33" t="n">
-        <v>0.925</v>
+        <v>1.042</v>
       </c>
       <c r="J33" t="n">
-        <v>84835</v>
+        <v>80375</v>
       </c>
       <c r="K33" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="L33" t="n">
-        <v>76777</v>
+        <v>81947.333</v>
       </c>
       <c r="M33" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="N33" t="n">
+        <v>76447.714</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.055</v>
-      </c>
-      <c r="N33" t="n">
-        <v>72288.143</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.052</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
@@ -4092,7 +4098,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D34" t="s">
         <v>236</v>
@@ -4102,31 +4108,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H34" t="n">
-        <v>92976</v>
+        <v>103361</v>
       </c>
       <c r="I34" t="n">
-        <v>0.34</v>
+        <v>0.378</v>
       </c>
       <c r="J34" t="n">
-        <v>4052</v>
+        <v>6644</v>
       </c>
       <c r="K34" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
       <c r="L34" t="n">
-        <v>3321.333</v>
+        <v>4812.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="N34" t="n">
-        <v>3598.857</v>
+        <v>3831.857</v>
       </c>
       <c r="O34" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="P34" t="s">
         <v>237</v>
@@ -4149,7 +4155,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D35" t="s">
         <v>242</v>
@@ -4159,31 +4165,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35" t="n">
-        <v>531275</v>
+        <v>544792</v>
       </c>
       <c r="I35" t="n">
-        <v>6.325</v>
+        <v>6.486</v>
       </c>
       <c r="J35" t="n">
-        <v>11732</v>
+        <v>13517</v>
       </c>
       <c r="K35" t="n">
-        <v>0.14</v>
+        <v>0.161</v>
       </c>
       <c r="L35" t="n">
-        <v>11667.333</v>
+        <v>12168</v>
       </c>
       <c r="M35" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11642.429</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.139</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11127</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.133</v>
       </c>
       <c r="P35" t="s">
         <v>243</v>
@@ -4251,7 +4257,7 @@
         <v>253</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D37" t="s">
         <v>254</v>
@@ -4263,25 +4269,31 @@
         <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H37" t="n">
-        <v>413517</v>
+        <v>435790</v>
       </c>
       <c r="I37" t="n">
-        <v>47.775</v>
-      </c>
-      <c r="J37"/>
+        <v>50.348</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8876</v>
+      </c>
       <c r="K37" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="L37"/>
+        <v>1.025</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9003.333</v>
+      </c>
       <c r="M37" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="N37"/>
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8844</v>
+      </c>
       <c r="O37" t="n">
-        <v>0.968</v>
+        <v>1.022</v>
       </c>
       <c r="P37" t="s">
         <v>43</v>
@@ -4304,7 +4316,7 @@
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D38" t="s">
         <v>261</v>
@@ -4316,31 +4328,25 @@
         <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="n">
-        <v>1549892</v>
+        <v>1563557</v>
       </c>
       <c r="I38" t="n">
-        <v>25.634</v>
-      </c>
-      <c r="J38" t="n">
-        <v>37771</v>
-      </c>
+        <v>25.86</v>
+      </c>
+      <c r="J38"/>
       <c r="K38" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L38" t="n">
-        <v>30993.667</v>
-      </c>
+        <v>0.226</v>
+      </c>
+      <c r="L38"/>
       <c r="M38" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="N38" t="n">
-        <v>33776</v>
-      </c>
+        <v>0.461</v>
+      </c>
+      <c r="N38"/>
       <c r="O38" t="n">
-        <v>0.559</v>
+        <v>0.493</v>
       </c>
       <c r="P38" t="s">
         <v>264</v>
@@ -4363,7 +4369,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D39" t="s">
         <v>261</v>
@@ -4375,31 +4381,31 @@
         <v>263</v>
       </c>
       <c r="G39" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="n">
-        <v>2310929</v>
+        <v>2381288</v>
       </c>
       <c r="I39" t="n">
-        <v>38.221</v>
+        <v>39.385</v>
       </c>
       <c r="J39" t="n">
-        <v>64263</v>
+        <v>70359</v>
       </c>
       <c r="K39" t="n">
-        <v>1.063</v>
+        <v>1.164</v>
       </c>
       <c r="L39" t="n">
-        <v>52385.667</v>
+        <v>63295</v>
       </c>
       <c r="M39" t="n">
-        <v>0.866</v>
+        <v>1.047</v>
       </c>
       <c r="N39" t="n">
-        <v>57166.857</v>
+        <v>57438.714</v>
       </c>
       <c r="O39" t="n">
-        <v>0.945</v>
+        <v>0.95</v>
       </c>
       <c r="P39" t="s">
         <v>264</v>
@@ -4422,7 +4428,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -4434,13 +4440,13 @@
         <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" t="n">
-        <v>188927</v>
+        <v>190030</v>
       </c>
       <c r="I40" t="n">
-        <v>1.494</v>
+        <v>1.502</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4469,7 +4475,7 @@
         <v>276</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
@@ -4481,31 +4487,31 @@
         <v>278</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H41" t="n">
-        <v>285356</v>
+        <v>306231</v>
       </c>
       <c r="I41" t="n">
-        <v>2.256</v>
+        <v>2.421</v>
       </c>
       <c r="J41" t="n">
-        <v>2049</v>
+        <v>4281</v>
       </c>
       <c r="K41" t="n">
-        <v>0.016</v>
+        <v>0.034</v>
       </c>
       <c r="L41" t="n">
-        <v>2602.667</v>
+        <v>4110</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02</v>
+        <v>0.032</v>
       </c>
       <c r="N41" t="n">
-        <v>4773.857</v>
+        <v>5450.286</v>
       </c>
       <c r="O41" t="n">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
       <c r="P41" t="s">
         <v>272</v>
@@ -4528,7 +4534,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D42" t="s">
         <v>282</v>
@@ -4538,31 +4544,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H42" t="n">
-        <v>336480</v>
+        <v>353843</v>
       </c>
       <c r="I42" t="n">
-        <v>17.92</v>
+        <v>18.845</v>
       </c>
       <c r="J42" t="n">
-        <v>16069</v>
+        <v>17363</v>
       </c>
       <c r="K42" t="n">
-        <v>0.856</v>
+        <v>0.925</v>
       </c>
       <c r="L42" t="n">
-        <v>13448</v>
+        <v>15660.667</v>
       </c>
       <c r="M42" t="n">
-        <v>0.716</v>
+        <v>0.834</v>
       </c>
       <c r="N42" t="n">
-        <v>14866.429</v>
+        <v>14902.286</v>
       </c>
       <c r="O42" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="P42" t="s">
         <v>283</v>
@@ -4638,7 +4644,7 @@
         <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D44" t="s">
         <v>294</v>
@@ -4650,31 +4656,31 @@
         <v>296</v>
       </c>
       <c r="G44" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H44" t="n">
-        <v>68627</v>
+        <v>73016</v>
       </c>
       <c r="I44" t="n">
-        <v>36.384</v>
+        <v>38.711</v>
       </c>
       <c r="J44" t="n">
-        <v>2477</v>
+        <v>1947</v>
       </c>
       <c r="K44" t="n">
-        <v>1.313</v>
+        <v>1.032</v>
       </c>
       <c r="L44" t="n">
-        <v>1460.667</v>
+        <v>2288.667</v>
       </c>
       <c r="M44" t="n">
-        <v>0.774</v>
+        <v>1.213</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.714</v>
+        <v>1699.429</v>
       </c>
       <c r="O44" t="n">
-        <v>1.046</v>
+        <v>0.901</v>
       </c>
       <c r="P44" t="s">
         <v>295</v>
@@ -4697,7 +4703,7 @@
         <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D45" t="s">
         <v>300</v>
@@ -4707,31 +4713,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H45" t="n">
-        <v>156493</v>
+        <v>172191</v>
       </c>
       <c r="I45" t="n">
-        <v>57.486</v>
+        <v>63.252</v>
       </c>
       <c r="J45" t="n">
-        <v>7387</v>
+        <v>8103</v>
       </c>
       <c r="K45" t="n">
-        <v>2.714</v>
+        <v>2.977</v>
       </c>
       <c r="L45" t="n">
-        <v>4938.333</v>
+        <v>7695</v>
       </c>
       <c r="M45" t="n">
-        <v>1.814</v>
+        <v>2.827</v>
       </c>
       <c r="N45" t="n">
-        <v>5470.286</v>
+        <v>5631.857</v>
       </c>
       <c r="O45" t="n">
-        <v>2.01</v>
+        <v>2.069</v>
       </c>
       <c r="P45" t="s">
         <v>43</v>
@@ -4754,7 +4760,7 @@
         <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D46" t="s">
         <v>305</v>
@@ -4764,31 +4770,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>50533</v>
+        <v>51883</v>
       </c>
       <c r="I46" t="n">
-        <v>80.727</v>
+        <v>82.883</v>
       </c>
       <c r="J46" t="n">
-        <v>1234</v>
+        <v>1350</v>
       </c>
       <c r="K46" t="n">
-        <v>1.971</v>
+        <v>2.157</v>
       </c>
       <c r="L46" t="n">
-        <v>805</v>
+        <v>1181.333</v>
       </c>
       <c r="M46" t="n">
-        <v>1.286</v>
+        <v>1.887</v>
       </c>
       <c r="N46" t="n">
-        <v>1253.571</v>
+        <v>1320</v>
       </c>
       <c r="O46" t="n">
-        <v>2.003</v>
+        <v>2.109</v>
       </c>
       <c r="P46" t="s">
         <v>306</v>
@@ -4811,7 +4817,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4821,28 +4827,32 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H47" t="n">
-        <v>222150</v>
+        <v>239628</v>
       </c>
       <c r="I47" t="n">
-        <v>6.864</v>
+        <v>7.404</v>
       </c>
       <c r="J47" t="n">
-        <v>8930</v>
+        <v>8609</v>
       </c>
       <c r="K47" t="n">
-        <v>0.276</v>
+        <v>0.266</v>
       </c>
       <c r="L47" t="n">
-        <v>8772.333</v>
+        <v>8802.667</v>
       </c>
       <c r="M47" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="N47"/>
-      <c r="O47"/>
+        <v>0.272</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10120.571</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.313</v>
+      </c>
       <c r="P47" t="s">
         <v>312</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D48" t="s">
         <v>318</v>
@@ -4874,13 +4884,13 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H48" t="n">
-        <v>89565</v>
+        <v>98399</v>
       </c>
       <c r="I48" t="n">
-        <v>0.695</v>
+        <v>0.763</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
@@ -4888,11 +4898,11 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="P48" t="s">
         <v>319</v>
@@ -4974,7 +4984,7 @@
         <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -4986,13 +4996,13 @@
         <v>332</v>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50" t="n">
-        <v>9295</v>
+        <v>10227</v>
       </c>
       <c r="I50" t="n">
-        <v>0.171</v>
+        <v>0.188</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -5021,7 +5031,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D51" t="s">
         <v>337</v>
@@ -5033,31 +5043,31 @@
         <v>339</v>
       </c>
       <c r="G51" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" t="n">
-        <v>13850</v>
+        <v>14511</v>
       </c>
       <c r="I51" t="n">
-        <v>0.475</v>
+        <v>0.498</v>
       </c>
       <c r="J51" t="n">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="K51" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="L51" t="n">
-        <v>250.667</v>
+        <v>290.333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="N51" t="n">
-        <v>434.714</v>
+        <v>357.143</v>
       </c>
       <c r="O51" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
@@ -5080,7 +5090,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>
@@ -5090,22 +5100,26 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>243277</v>
+        <v>249655</v>
       </c>
       <c r="I52" t="n">
-        <v>14.198</v>
+        <v>14.57</v>
       </c>
       <c r="J52" t="n">
-        <v>2717</v>
+        <v>3488</v>
       </c>
       <c r="K52" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="L52"/>
-      <c r="M52"/>
+        <v>0.204</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3713.333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.217</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52" t="s">
@@ -5129,7 +5143,7 @@
         <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D53" t="s">
         <v>351</v>
@@ -5139,31 +5153,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H53" t="n">
-        <v>160700</v>
+        <v>175835</v>
       </c>
       <c r="I53" t="n">
-        <v>33.325</v>
+        <v>36.463</v>
       </c>
       <c r="J53" t="n">
-        <v>4772</v>
+        <v>7812</v>
       </c>
       <c r="K53" t="n">
-        <v>0.99</v>
+        <v>1.62</v>
       </c>
       <c r="L53" t="n">
-        <v>3492.333</v>
+        <v>6635.667</v>
       </c>
       <c r="M53" t="n">
-        <v>0.724</v>
+        <v>1.376</v>
       </c>
       <c r="N53" t="n">
-        <v>4571</v>
+        <v>5133.857</v>
       </c>
       <c r="O53" t="n">
-        <v>0.948</v>
+        <v>1.065</v>
       </c>
       <c r="P53" t="s">
         <v>352</v>
@@ -5186,7 +5200,7 @@
         <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D54" t="s">
         <v>356</v>
@@ -5196,25 +5210,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>21208</v>
+        <v>22492</v>
       </c>
       <c r="I54" t="n">
-        <v>0.103</v>
+        <v>0.109</v>
       </c>
       <c r="J54" t="n">
-        <v>1696</v>
+        <v>1284</v>
       </c>
       <c r="K54" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="L54" t="n">
-        <v>1540</v>
+        <v>1318.667</v>
       </c>
       <c r="M54" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -5239,7 +5253,7 @@
         <v>361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D55" t="s">
         <v>362</v>
@@ -5249,16 +5263,20 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H55" t="n">
-        <v>188236</v>
+        <v>195921</v>
       </c>
       <c r="I55" t="n">
-        <v>34.722</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
+        <v>36.14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3975</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.733</v>
+      </c>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -5284,7 +5302,7 @@
         <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D56" t="s">
         <v>369</v>
@@ -5294,31 +5312,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H56" t="n">
-        <v>232582</v>
+        <v>257247</v>
       </c>
       <c r="I56" t="n">
-        <v>1.053</v>
+        <v>1.165</v>
       </c>
       <c r="J56" t="n">
-        <v>10178</v>
+        <v>12469</v>
       </c>
       <c r="K56" t="n">
-        <v>0.046</v>
+        <v>0.056</v>
       </c>
       <c r="L56" t="n">
-        <v>9852.333</v>
+        <v>11614.333</v>
       </c>
       <c r="M56" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="N56" t="n">
-        <v>9524.429</v>
+        <v>10730.857</v>
       </c>
       <c r="O56" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="P56" t="s">
         <v>370</v>
@@ -5341,7 +5359,7 @@
         <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D57" t="s">
         <v>375</v>
@@ -5353,31 +5371,31 @@
         <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H57" t="n">
-        <v>36483</v>
+        <v>39093</v>
       </c>
       <c r="I57" t="n">
-        <v>8.455</v>
+        <v>9.06</v>
       </c>
       <c r="J57" t="n">
-        <v>927</v>
+        <v>1079</v>
       </c>
       <c r="K57" t="n">
-        <v>0.215</v>
+        <v>0.25</v>
       </c>
       <c r="L57" t="n">
-        <v>1043</v>
+        <v>1179</v>
       </c>
       <c r="M57" t="n">
-        <v>0.242</v>
+        <v>0.273</v>
       </c>
       <c r="N57" t="n">
-        <v>1098.286</v>
+        <v>1192</v>
       </c>
       <c r="O57" t="n">
-        <v>0.254</v>
+        <v>0.276</v>
       </c>
       <c r="P57" t="s">
         <v>43</v>
@@ -5400,7 +5418,7 @@
         <v>380</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D58" t="s">
         <v>381</v>
@@ -5412,31 +5430,31 @@
         <v>383</v>
       </c>
       <c r="G58" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H58" t="n">
-        <v>11898</v>
+        <v>13096</v>
       </c>
       <c r="I58" t="n">
-        <v>1.668</v>
+        <v>1.836</v>
       </c>
       <c r="J58" t="n">
-        <v>458</v>
+        <v>599</v>
       </c>
       <c r="K58" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="L58" t="n">
+        <v>547</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="N58" t="n">
+        <v>456.143</v>
+      </c>
+      <c r="O58" t="n">
         <v>0.064</v>
-      </c>
-      <c r="L58" t="n">
-        <v>382.333</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N58" t="n">
-        <v>431.714</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.061</v>
       </c>
       <c r="P58" t="s">
         <v>384</v>
@@ -5459,7 +5477,7 @@
         <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D59" t="s">
         <v>389</v>
@@ -5469,20 +5487,16 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>406579</v>
+        <v>448020</v>
       </c>
       <c r="I59" t="n">
-        <v>12.331</v>
-      </c>
-      <c r="J59" t="n">
-        <v>21087</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.64</v>
-      </c>
+        <v>13.588</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -5508,7 +5522,7 @@
         <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D60" t="s">
         <v>396</v>
@@ -5518,19 +5532,19 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>119512</v>
+        <v>126387</v>
       </c>
       <c r="I60" t="n">
-        <v>1.091</v>
+        <v>1.153</v>
       </c>
       <c r="J60" t="n">
-        <v>6179</v>
+        <v>6875</v>
       </c>
       <c r="K60" t="n">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -5557,7 +5571,7 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -5569,31 +5583,31 @@
         <v>403</v>
       </c>
       <c r="G61" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H61" t="n">
-        <v>410468</v>
+        <v>443506</v>
       </c>
       <c r="I61" t="n">
-        <v>10.846</v>
+        <v>11.719</v>
       </c>
       <c r="J61" t="n">
-        <v>16198</v>
+        <v>17512</v>
       </c>
       <c r="K61" t="n">
-        <v>0.428</v>
+        <v>0.463</v>
       </c>
       <c r="L61" t="n">
-        <v>11506.667</v>
+        <v>16412</v>
       </c>
       <c r="M61" t="n">
-        <v>0.304</v>
+        <v>0.434</v>
       </c>
       <c r="N61" t="n">
-        <v>12277.286</v>
+        <v>12696.857</v>
       </c>
       <c r="O61" t="n">
-        <v>0.325</v>
+        <v>0.336</v>
       </c>
       <c r="P61" t="s">
         <v>404</v>
@@ -5616,7 +5630,7 @@
         <v>408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D62" t="s">
         <v>409</v>
@@ -5626,31 +5640,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62" t="n">
-        <v>470234</v>
+        <v>485925</v>
       </c>
       <c r="I62" t="n">
-        <v>46.116</v>
+        <v>47.655</v>
       </c>
       <c r="J62" t="n">
-        <v>11532</v>
+        <v>15556</v>
       </c>
       <c r="K62" t="n">
-        <v>1.131</v>
+        <v>1.526</v>
       </c>
       <c r="L62" t="n">
-        <v>10172.333</v>
+        <v>11893.667</v>
       </c>
       <c r="M62" t="n">
-        <v>0.997</v>
+        <v>1.166</v>
       </c>
       <c r="N62" t="n">
-        <v>12808.857</v>
+        <v>12837.714</v>
       </c>
       <c r="O62" t="n">
-        <v>1.256</v>
+        <v>1.259</v>
       </c>
       <c r="P62" t="s">
         <v>410</v>
@@ -5673,7 +5687,7 @@
         <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D63" t="s">
         <v>415</v>
@@ -5683,31 +5697,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H63" t="n">
-        <v>112963</v>
+        <v>120458</v>
       </c>
       <c r="I63" t="n">
-        <v>39.209</v>
+        <v>41.81</v>
       </c>
       <c r="J63" t="n">
-        <v>3201</v>
+        <v>3963</v>
       </c>
       <c r="K63" t="n">
-        <v>1.111</v>
+        <v>1.376</v>
       </c>
       <c r="L63" t="n">
-        <v>2842.667</v>
+        <v>3565.333</v>
       </c>
       <c r="M63" t="n">
-        <v>0.987</v>
+        <v>1.238</v>
       </c>
       <c r="N63" t="n">
-        <v>3078.286</v>
+        <v>3247.429</v>
       </c>
       <c r="O63" t="n">
-        <v>1.069</v>
+        <v>1.127</v>
       </c>
       <c r="P63" t="s">
         <v>416</v>
@@ -5730,7 +5744,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D64" t="s">
         <v>421</v>
@@ -5742,31 +5756,31 @@
         <v>423</v>
       </c>
       <c r="G64" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H64" t="n">
-        <v>217139</v>
+        <v>237280</v>
       </c>
       <c r="I64" t="n">
-        <v>11.287</v>
+        <v>12.334</v>
       </c>
       <c r="J64" t="n">
-        <v>11297</v>
+        <v>10667</v>
       </c>
       <c r="K64" t="n">
-        <v>0.587</v>
+        <v>0.554</v>
       </c>
       <c r="L64" t="n">
-        <v>7210.333</v>
+        <v>10479.333</v>
       </c>
       <c r="M64" t="n">
-        <v>0.375</v>
+        <v>0.544</v>
       </c>
       <c r="N64" t="n">
-        <v>7163.714</v>
+        <v>7656</v>
       </c>
       <c r="O64" t="n">
-        <v>0.372</v>
+        <v>0.398</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
@@ -5789,7 +5803,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D65" t="s">
         <v>427</v>
@@ -5799,31 +5813,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H65" t="n">
-        <v>4633731</v>
+        <v>4987468</v>
       </c>
       <c r="I65" t="n">
-        <v>31.752</v>
+        <v>34.176</v>
       </c>
       <c r="J65" t="n">
-        <v>173374</v>
+        <v>184276</v>
       </c>
       <c r="K65" t="n">
-        <v>1.188</v>
+        <v>1.263</v>
       </c>
       <c r="L65" t="n">
-        <v>177910.667</v>
+        <v>175703.667</v>
       </c>
       <c r="M65" t="n">
-        <v>1.219</v>
+        <v>1.204</v>
       </c>
       <c r="N65" t="n">
-        <v>190002</v>
+        <v>180523</v>
       </c>
       <c r="O65" t="n">
-        <v>1.302</v>
+        <v>1.237</v>
       </c>
       <c r="P65" t="s">
         <v>428</v>
@@ -5846,7 +5860,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D66" t="s">
         <v>433</v>
@@ -5856,31 +5870,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H66" t="n">
-        <v>35992</v>
+        <v>37315</v>
       </c>
       <c r="I66" t="n">
-        <v>2.779</v>
+        <v>2.881</v>
       </c>
       <c r="J66" t="n">
-        <v>896</v>
+        <v>1323</v>
       </c>
       <c r="K66" t="n">
-        <v>0.069</v>
+        <v>0.102</v>
       </c>
       <c r="L66" t="n">
-        <v>896.333</v>
+        <v>988.333</v>
       </c>
       <c r="M66" t="n">
-        <v>0.069</v>
+        <v>0.076</v>
       </c>
       <c r="N66" t="n">
-        <v>1156.571</v>
+        <v>1102</v>
       </c>
       <c r="O66" t="n">
-        <v>0.089</v>
+        <v>0.085</v>
       </c>
       <c r="P66" t="s">
         <v>434</v>
@@ -5903,7 +5917,7 @@
         <v>438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D67" t="s">
         <v>439</v>
@@ -5913,16 +5927,20 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>389659</v>
+        <v>405685</v>
       </c>
       <c r="I67" t="n">
-        <v>11.193</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>11.653</v>
+      </c>
+      <c r="J67" t="n">
+        <v>16026</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.46</v>
+      </c>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
@@ -5948,7 +5966,7 @@
         <v>442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D68" t="s">
         <v>443</v>
@@ -5960,31 +5978,31 @@
         <v>445</v>
       </c>
       <c r="G68" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>17461</v>
+        <v>19369</v>
       </c>
       <c r="I68" t="n">
-        <v>1.043</v>
+        <v>1.157</v>
       </c>
       <c r="J68" t="n">
-        <v>1182</v>
+        <v>872</v>
       </c>
       <c r="K68" t="n">
-        <v>0.071</v>
+        <v>0.052</v>
       </c>
       <c r="L68" t="n">
-        <v>897</v>
+        <v>1027</v>
       </c>
       <c r="M68" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="N68" t="n">
-        <v>964.714</v>
+        <v>941.429</v>
       </c>
       <c r="O68" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="P68" t="s">
         <v>446</v>
@@ -6007,7 +6025,7 @@
         <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D69" t="s">
         <v>452</v>
@@ -6019,31 +6037,31 @@
         <v>453</v>
       </c>
       <c r="G69" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H69" t="n">
-        <v>117474</v>
+        <v>122995</v>
       </c>
       <c r="I69" t="n">
-        <v>17.264</v>
+        <v>18.075</v>
       </c>
       <c r="J69" t="n">
-        <v>6196</v>
+        <v>5521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.911</v>
+        <v>0.811</v>
       </c>
       <c r="L69" t="n">
-        <v>5187.667</v>
+        <v>5511.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.763</v>
+        <v>0.81</v>
       </c>
       <c r="N69" t="n">
-        <v>5504.571</v>
+        <v>5335.714</v>
       </c>
       <c r="O69" t="n">
-        <v>0.809</v>
+        <v>0.784</v>
       </c>
       <c r="P69" t="s">
         <v>43</v>
@@ -6156,7 +6174,7 @@
         <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D72" t="s">
         <v>466</v>
@@ -6166,31 +6184,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H72" t="n">
-        <v>104606</v>
+        <v>114461</v>
       </c>
       <c r="I72" t="n">
-        <v>19.16</v>
+        <v>20.965</v>
       </c>
       <c r="J72" t="n">
-        <v>4742</v>
+        <v>4694</v>
       </c>
       <c r="K72" t="n">
-        <v>0.869</v>
+        <v>0.86</v>
       </c>
       <c r="L72" t="n">
-        <v>2795.333</v>
+        <v>4865.667</v>
       </c>
       <c r="M72" t="n">
-        <v>0.512</v>
+        <v>0.891</v>
       </c>
       <c r="N72" t="n">
-        <v>3324</v>
+        <v>3341.286</v>
       </c>
       <c r="O72" t="n">
-        <v>0.609</v>
+        <v>0.612</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
@@ -6213,7 +6231,7 @@
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
@@ -6223,31 +6241,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H73" t="n">
-        <v>58923</v>
+        <v>61027</v>
       </c>
       <c r="I73" t="n">
-        <v>28.343</v>
+        <v>29.355</v>
       </c>
       <c r="J73" t="n">
-        <v>1449</v>
+        <v>1049</v>
       </c>
       <c r="K73" t="n">
-        <v>0.697</v>
+        <v>0.505</v>
       </c>
       <c r="L73" t="n">
-        <v>1134.333</v>
+        <v>1184.333</v>
       </c>
       <c r="M73" t="n">
-        <v>0.546</v>
+        <v>0.57</v>
       </c>
       <c r="N73" t="n">
-        <v>1045.143</v>
+        <v>961</v>
       </c>
       <c r="O73" t="n">
-        <v>0.503</v>
+        <v>0.462</v>
       </c>
       <c r="P73" t="s">
         <v>476</v>
@@ -6270,7 +6288,7 @@
         <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D74" t="s">
         <v>481</v>
@@ -6282,31 +6300,31 @@
         <v>483</v>
       </c>
       <c r="G74" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H74" t="n">
-        <v>268064</v>
+        <v>292153</v>
       </c>
       <c r="I74" t="n">
-        <v>4.52</v>
+        <v>4.926</v>
       </c>
       <c r="J74" t="n">
-        <v>10523</v>
+        <v>12774</v>
       </c>
       <c r="K74" t="n">
-        <v>0.177</v>
+        <v>0.215</v>
       </c>
       <c r="L74" t="n">
-        <v>12459.333</v>
+        <v>11537.333</v>
       </c>
       <c r="M74" t="n">
-        <v>0.21</v>
+        <v>0.194</v>
       </c>
       <c r="N74" t="n">
-        <v>11795.286</v>
+        <v>12089</v>
       </c>
       <c r="O74" t="n">
-        <v>0.199</v>
+        <v>0.204</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
@@ -6329,7 +6347,7 @@
         <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D75" t="s">
         <v>488</v>
@@ -6339,25 +6357,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H75" t="n">
-        <v>643095</v>
+        <v>654863</v>
       </c>
       <c r="I75" t="n">
-        <v>12.544</v>
-      </c>
-      <c r="J75"/>
+        <v>12.773</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5475</v>
+      </c>
       <c r="K75" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L75"/>
+        <v>0.107</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4875.333</v>
+      </c>
       <c r="M75" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N75"/>
+        <v>0.095</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4542</v>
+      </c>
       <c r="O75" t="n">
-        <v>0.081</v>
+        <v>0.089</v>
       </c>
       <c r="P75" t="s">
         <v>489</v>
@@ -6470,7 +6494,7 @@
         <v>505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D78" t="s">
         <v>506</v>
@@ -6480,679 +6504,673 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H78" t="n">
-        <v>290365</v>
+        <v>301675</v>
       </c>
       <c r="I78" t="n">
-        <v>33.55</v>
+        <v>34.857</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>0.153</v>
+        <v>0.131</v>
       </c>
       <c r="L78"/>
       <c r="M78" t="n">
-        <v>0.272</v>
+        <v>0.468</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="P78" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q78" t="s">
         <v>506</v>
       </c>
       <c r="R78" t="s">
+        <v>508</v>
+      </c>
+      <c r="S78" t="s">
         <v>509</v>
-      </c>
-      <c r="S78" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>510</v>
+      </c>
+      <c r="B79" t="s">
         <v>511</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D79" t="s">
         <v>512</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>513</v>
-      </c>
-      <c r="E79" t="s">
-        <v>514</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H79" t="n">
-        <v>65589</v>
+        <v>66460</v>
       </c>
       <c r="I79" t="n">
-        <v>2.754</v>
+        <v>2.79</v>
       </c>
       <c r="J79" t="n">
-        <v>631</v>
+        <v>414</v>
       </c>
       <c r="K79" t="n">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
       <c r="L79" t="n">
-        <v>498.333</v>
+        <v>500.667</v>
       </c>
       <c r="M79" t="n">
         <v>0.021</v>
       </c>
       <c r="N79" t="n">
-        <v>460.143</v>
+        <v>445.714</v>
       </c>
       <c r="O79" t="n">
         <v>0.019</v>
       </c>
       <c r="P79" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q79" t="s">
         <v>514</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>515</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>516</v>
-      </c>
-      <c r="S79" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>517</v>
+      </c>
+      <c r="B80" t="s">
         <v>518</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D80" t="s">
         <v>519</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>520</v>
-      </c>
-      <c r="E80" t="s">
-        <v>521</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H80" t="n">
-        <v>86320</v>
+        <v>90016</v>
       </c>
       <c r="I80" t="n">
-        <v>1.237</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3693</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="J80"/>
       <c r="K80" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3684</v>
-      </c>
+        <v>0.003</v>
+      </c>
+      <c r="L80"/>
       <c r="M80" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3471.714</v>
-      </c>
+        <v>0.035</v>
+      </c>
+      <c r="N80"/>
       <c r="O80" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P80" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q80" t="s">
         <v>522</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>523</v>
       </c>
       <c r="R80" t="s">
         <v>94</v>
       </c>
       <c r="S80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>524</v>
+      </c>
+      <c r="B81" t="s">
         <v>525</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D81" t="s">
         <v>526</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>527</v>
-      </c>
-      <c r="E81" t="s">
-        <v>528</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H81" t="n">
-        <v>25165</v>
+        <v>25555</v>
       </c>
       <c r="I81" t="n">
-        <v>2.129</v>
+        <v>2.162</v>
       </c>
       <c r="J81" t="n">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="K81" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="L81" t="n">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M81" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="N81" t="n">
-        <v>526.857</v>
+        <v>499</v>
       </c>
       <c r="O81" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="P81" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q81" t="s">
         <v>528</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>529</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>530</v>
-      </c>
-      <c r="S81" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" t="s">
         <v>532</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D82" t="s">
         <v>533</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>534</v>
-      </c>
-      <c r="E82" t="s">
-        <v>535</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H82" t="n">
-        <v>1234724</v>
+        <v>1265119</v>
       </c>
       <c r="I82" t="n">
-        <v>14.64</v>
+        <v>15</v>
       </c>
       <c r="J82" t="n">
-        <v>30303</v>
+        <v>30395</v>
       </c>
       <c r="K82" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="L82" t="n">
-        <v>33119</v>
+        <v>31327</v>
       </c>
       <c r="M82" t="n">
-        <v>0.393</v>
+        <v>0.371</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q82" t="s">
         <v>535</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>536</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>537</v>
-      </c>
-      <c r="S82" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>538</v>
+      </c>
+      <c r="B83" t="s">
         <v>539</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D83" t="s">
         <v>540</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>541</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>542</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="n">
+        <v>30</v>
+      </c>
+      <c r="H83" t="n">
+        <v>47603</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3509</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2795.667</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2618</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="P83" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q83" t="s">
         <v>543</v>
-      </c>
-      <c r="G83" t="n">
-        <v>29</v>
-      </c>
-      <c r="H83" t="n">
-        <v>44094</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2632</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2602.667</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2402.714</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="P83" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>544</v>
       </c>
       <c r="R83" t="s">
         <v>53</v>
       </c>
       <c r="S83" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>545</v>
+      </c>
+      <c r="B84" t="s">
         <v>546</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D84" t="s">
         <v>547</v>
       </c>
-      <c r="C84" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>548</v>
-      </c>
-      <c r="E84" t="s">
-        <v>549</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>144283</v>
+        <v>159155</v>
       </c>
       <c r="I84" t="n">
-        <v>3.299</v>
+        <v>3.639</v>
       </c>
       <c r="J84" t="n">
-        <v>4524</v>
+        <v>7586</v>
       </c>
       <c r="K84" t="n">
-        <v>0.103</v>
+        <v>0.173</v>
       </c>
       <c r="L84" t="n">
-        <v>4853.333</v>
+        <v>6465.333</v>
       </c>
       <c r="M84" t="n">
-        <v>0.111</v>
+        <v>0.148</v>
       </c>
       <c r="N84" t="n">
-        <v>5677</v>
+        <v>5801.429</v>
       </c>
       <c r="O84" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="P84" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q84" t="s">
         <v>549</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>550</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>551</v>
-      </c>
-      <c r="S84" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" t="s">
         <v>553</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D85" t="s">
         <v>554</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>555</v>
-      </c>
-      <c r="E85" t="s">
-        <v>556</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H85" t="n">
-        <v>1072144</v>
+        <v>1139626</v>
       </c>
       <c r="I85" t="n">
-        <v>15.793</v>
+        <v>16.787</v>
       </c>
       <c r="J85" t="n">
-        <v>57006</v>
+        <v>65092</v>
       </c>
       <c r="K85" t="n">
-        <v>0.84</v>
+        <v>0.959</v>
       </c>
       <c r="L85" t="n">
-        <v>63267</v>
+        <v>63979</v>
       </c>
       <c r="M85" t="n">
-        <v>0.932</v>
+        <v>0.943</v>
       </c>
       <c r="N85" t="n">
-        <v>62518.714</v>
+        <v>64021.143</v>
       </c>
       <c r="O85" t="n">
-        <v>0.921</v>
+        <v>0.943</v>
       </c>
       <c r="P85" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q85" t="s">
         <v>556</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>557</v>
       </c>
       <c r="R85" t="s">
         <v>94</v>
       </c>
       <c r="S85" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D86" t="s">
         <v>559</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D86" t="s">
-        <v>560</v>
-      </c>
       <c r="E86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86" t="n">
-        <v>1448010</v>
+        <v>1534533</v>
       </c>
       <c r="I86" t="n">
-        <v>21.33</v>
+        <v>22.605</v>
       </c>
       <c r="J86" t="n">
-        <v>69463</v>
+        <v>86583</v>
       </c>
       <c r="K86" t="n">
-        <v>1.023</v>
+        <v>1.275</v>
       </c>
       <c r="L86" t="n">
-        <v>79818.333</v>
+        <v>80284</v>
       </c>
       <c r="M86" t="n">
-        <v>1.176</v>
+        <v>1.182</v>
       </c>
       <c r="N86" t="n">
-        <v>89406.571</v>
+        <v>90116.857</v>
       </c>
       <c r="O86" t="n">
-        <v>1.317</v>
+        <v>1.327</v>
       </c>
       <c r="P86" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q86" t="s">
         <v>556</v>
       </c>
-      <c r="Q86" t="s">
-        <v>557</v>
-      </c>
       <c r="R86" t="s">
+        <v>560</v>
+      </c>
+      <c r="S86" t="s">
         <v>561</v>
-      </c>
-      <c r="S86" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>562</v>
+      </c>
+      <c r="B87" t="s">
         <v>563</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D87" t="s">
         <v>564</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>565</v>
-      </c>
-      <c r="E87" t="s">
-        <v>566</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H87" t="n">
-        <v>7544328</v>
+        <v>8105513</v>
       </c>
       <c r="I87" t="n">
-        <v>22.792</v>
+        <v>24.488</v>
       </c>
       <c r="J87" t="n">
-        <v>258954</v>
+        <v>318720</v>
       </c>
       <c r="K87" t="n">
-        <v>0.782</v>
+        <v>0.963</v>
       </c>
       <c r="L87" t="n">
-        <v>246362.333</v>
+        <v>273379.667</v>
       </c>
       <c r="M87" t="n">
-        <v>0.744</v>
+        <v>0.826</v>
       </c>
       <c r="N87" t="n">
-        <v>249771.857</v>
+        <v>264249.143</v>
       </c>
       <c r="O87" t="n">
-        <v>0.755</v>
+        <v>0.798</v>
       </c>
       <c r="P87" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q87" t="s">
         <v>566</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>567</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>568</v>
-      </c>
-      <c r="S87" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s">
+        <v>569</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D88" t="s">
         <v>570</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>43949</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>571</v>
-      </c>
-      <c r="E88" t="s">
-        <v>572</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H88" t="n">
-        <v>606361</v>
+        <v>629731</v>
       </c>
       <c r="I88" t="n">
-        <v>1.832</v>
+        <v>1.902</v>
       </c>
       <c r="J88" t="n">
-        <v>23063</v>
+        <v>23081</v>
       </c>
       <c r="K88" t="n">
         <v>0.07</v>
       </c>
       <c r="L88" t="n">
-        <v>18202.667</v>
+        <v>23107</v>
       </c>
       <c r="M88" t="n">
-        <v>0.055</v>
+        <v>0.07</v>
       </c>
       <c r="N88" t="n">
-        <v>19781.714</v>
+        <v>20113.714</v>
       </c>
       <c r="O88" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="P88" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q88" t="s">
         <v>573</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>574</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>575</v>
-      </c>
-      <c r="S88" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>576</v>
+      </c>
+      <c r="B89" t="s">
         <v>577</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D89" t="s">
         <v>578</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>43957</v>
-      </c>
-      <c r="D89" t="s">
-        <v>579</v>
       </c>
       <c r="E89" t="s">
         <v>126</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H89" t="n">
-        <v>23811</v>
+        <v>25698</v>
       </c>
       <c r="I89" t="n">
-        <v>6.855</v>
+        <v>7.398</v>
       </c>
       <c r="J89" t="n">
-        <v>1006</v>
+        <v>1042</v>
       </c>
       <c r="K89" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="L89" t="n">
-        <v>882.333</v>
+        <v>964.333</v>
       </c>
       <c r="M89" t="n">
-        <v>0.254</v>
+        <v>0.278</v>
       </c>
       <c r="N89" t="n">
-        <v>810.143</v>
+        <v>850.143</v>
       </c>
       <c r="O89" t="n">
-        <v>0.233</v>
+        <v>0.245</v>
       </c>
       <c r="P89" t="s">
         <v>126</v>
       </c>
       <c r="Q89" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
       </c>
       <c r="S89" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>581</v>
+      </c>
+      <c r="B90" t="s">
         <v>582</v>
-      </c>
-      <c r="B90" t="s">
-        <v>583</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D90" t="s">
+        <v>583</v>
+      </c>
+      <c r="E90" t="s">
         <v>584</v>
-      </c>
-      <c r="E90" t="s">
-        <v>585</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -7171,73 +7189,61 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q90" t="s">
         <v>585</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>586</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>587</v>
-      </c>
-      <c r="S90" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>588</v>
+      </c>
+      <c r="B91" t="s">
         <v>589</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="D91" t="s">
         <v>590</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>591</v>
-      </c>
-      <c r="E91" t="s">
-        <v>592</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>14821</v>
+        <v>7808</v>
       </c>
       <c r="I91" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1492</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1364.667</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1076.286</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.072</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
       <c r="P91" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q91" t="s">
         <v>592</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>593</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
       </c>
       <c r="S91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/30-04-20_reporte_matutino_covid_19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/09-05-20_reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-7-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-9-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085522/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104642/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508130052/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509192849/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-7-maya-vyzdoroveli-i-vypisany-5067-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-8-maya-vyzdoroveli-i-vypisany-5-tys-484-patsienta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085527/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104647/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085529/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104649/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">COL</t>
   </si>
   <si>
-    <t xml:space="preserve">Colombia - samples processed</t>
+    <t xml:space="preserve">Colombia - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ins.gov.co/Noticias/Paginas/Coronavirus.aspx#muestras</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508130102/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164031/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -445,10 +445,10 @@
     <t xml:space="preserve">DNK</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark - People tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-07052020-8t4k</t>
+    <t xml:space="preserve">Denmark - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-09052020-hu51</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-69-COE-NACIONAL-06052020-08h00-2.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08052020-08h0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -504,7 +504,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 10:35pm local time on 2020-05-06.</t>
+    <t xml:space="preserve">updated at 12:50pm local time on 2020-05-09.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200507/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200509/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">ISL</t>
   </si>
   <si>
-    <t xml:space="preserve">Iceland - samples</t>
+    <t xml:space="preserve">Iceland - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid.is/tolulegar-upplysingar</t>
@@ -804,7 +804,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200507141927/http://irangov.ir/detail/338841</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200509000642/http://irangov.ir/detail/338857</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -924,7 +924,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628517.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628672.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -958,7 +958,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-05-2020-15.48.16.pdf</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1259109013435940866</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -999,7 +999,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085626/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104952/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200507200422/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164113/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1036,7 +1036,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508130208/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105003/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200507_1337_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 7 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200509_1018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 9 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200507200512/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508200455/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085712/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105025/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151042-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-58-526-en-el-peru-comunicado-n-90</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151163-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-65-015-en-el-peru-comunicado-n-95</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.08.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.09.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508130300/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105040/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1419,7 +1419,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14413</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14424</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1258101550322536448</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259173285348204546</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1546,7 +1546,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085745/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105056/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1620,7 +1620,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367177&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367186&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1640,10 +1640,13 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_07_05_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding press release: https://www.mscbs.gob.es/gabinete/notasPrensa.do?id=4910</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1703,7 +1706,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/KxbDDNIQs2ZzZcFaecfm7g?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EKvIxtZ0OwCUzeHXum1VBA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1726,7 +1729,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085818/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105142/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1773,7 +1776,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200507200232/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164243/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1797,7 +1800,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1258126714259099655</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259006502502834181</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1820,7 +1823,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508085824/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105147/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1842,7 +1845,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200507200236/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164248/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1865,7 +1868,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200507200237/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164249/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1939,7 +1942,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-18</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-20</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1978,7 +1981,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258247862527438848</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258995561090502657</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2394,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43952</v>
+        <v>43960</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2404,20 +2407,32 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>58685</v>
+        <v>80729</v>
       </c>
       <c r="I2" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>1.786</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2828</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2804.667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2409</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.053</v>
+      </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2449,31 +2464,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>722549</v>
+        <v>795456</v>
       </c>
       <c r="I3" t="n">
-        <v>28.335</v>
+        <v>31.194</v>
       </c>
       <c r="J3" t="n">
-        <v>33893</v>
+        <v>38206</v>
       </c>
       <c r="K3" t="n">
-        <v>1.329</v>
+        <v>1.498</v>
       </c>
       <c r="L3" t="n">
-        <v>24111.667</v>
+        <v>35600</v>
       </c>
       <c r="M3" t="n">
-        <v>0.945</v>
+        <v>1.396</v>
       </c>
       <c r="N3" t="n">
-        <v>22701.143</v>
+        <v>26267.571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2496,7 +2511,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2506,31 +2521,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" t="n">
-        <v>304069</v>
+        <v>316508</v>
       </c>
       <c r="I4" t="n">
-        <v>33.761</v>
+        <v>35.143</v>
       </c>
       <c r="J4" t="n">
-        <v>6175</v>
+        <v>4818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.686</v>
+        <v>0.535</v>
       </c>
       <c r="L4" t="n">
-        <v>6062</v>
+        <v>6204.667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.673</v>
+        <v>0.689</v>
       </c>
       <c r="N4" t="n">
-        <v>5712.857</v>
+        <v>6021.857</v>
       </c>
       <c r="O4" t="n">
-        <v>0.634</v>
+        <v>0.669</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2553,7 +2568,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2563,31 +2578,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>170719</v>
+        <v>178353</v>
       </c>
       <c r="I5" t="n">
-        <v>100.33</v>
+        <v>104.816</v>
       </c>
       <c r="J5" t="n">
-        <v>4341</v>
+        <v>6195</v>
       </c>
       <c r="K5" t="n">
-        <v>2.551</v>
+        <v>3.641</v>
       </c>
       <c r="L5" t="n">
-        <v>5072.667</v>
+        <v>6004</v>
       </c>
       <c r="M5" t="n">
-        <v>2.981</v>
+        <v>3.529</v>
       </c>
       <c r="N5" t="n">
-        <v>5233.857</v>
+        <v>5725</v>
       </c>
       <c r="O5" t="n">
-        <v>3.076</v>
+        <v>3.365</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2610,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2620,28 +2635,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6" t="n">
-        <v>105511</v>
+        <v>116919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.641</v>
+        <v>0.71</v>
       </c>
       <c r="J6" t="n">
-        <v>5867</v>
+        <v>5465</v>
       </c>
       <c r="K6" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="L6" t="n">
-        <v>5937.667</v>
+        <v>5758.333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="N6" t="n">
-        <v>5835</v>
+        <v>5836.143</v>
       </c>
       <c r="O6" t="n">
         <v>0.036</v>
@@ -2667,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2677,16 +2692,20 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>229466</v>
+        <v>240146</v>
       </c>
       <c r="I7" t="n">
-        <v>24.284</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>25.414</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10680</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.13</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -2712,7 +2731,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2722,31 +2741,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>424448</v>
+        <v>461303</v>
       </c>
       <c r="I8" t="n">
-        <v>36.623</v>
+        <v>39.803</v>
       </c>
       <c r="J8" t="n">
-        <v>16598</v>
+        <v>21311</v>
       </c>
       <c r="K8" t="n">
-        <v>1.432</v>
+        <v>1.839</v>
       </c>
       <c r="L8" t="n">
-        <v>18301</v>
+        <v>18816.667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.579</v>
+        <v>1.624</v>
       </c>
       <c r="N8" t="n">
-        <v>17898.571</v>
+        <v>17504.143</v>
       </c>
       <c r="O8" t="n">
-        <v>1.544</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2769,7 +2788,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2781,31 +2800,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>8167</v>
+        <v>8523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="J9" t="n">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="K9" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="L9" t="n">
-        <v>133.333</v>
+        <v>183.667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="N9" t="n">
-        <v>230.857</v>
+        <v>138.143</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2873,7 +2892,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2883,31 +2902,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>54328</v>
+        <v>57231</v>
       </c>
       <c r="I11" t="n">
-        <v>7.819</v>
+        <v>8.237</v>
       </c>
       <c r="J11" t="n">
-        <v>1397</v>
+        <v>1126</v>
       </c>
       <c r="K11" t="n">
-        <v>0.201</v>
+        <v>0.162</v>
       </c>
       <c r="L11" t="n">
-        <v>1341.667</v>
+        <v>1433.333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.193</v>
+        <v>0.206</v>
       </c>
       <c r="N11" t="n">
-        <v>1116.857</v>
+        <v>1230.429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.161</v>
+        <v>0.177</v>
       </c>
       <c r="P11" t="s">
         <v>86</v>
@@ -2930,7 +2949,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2940,24 +2959,26 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="n">
-        <v>1005218</v>
+        <v>1071379</v>
       </c>
       <c r="I12" t="n">
-        <v>26.634</v>
+        <v>28.387</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.088</v>
+        <v>0.1</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.571</v>
+        <v>0.614</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
+      <c r="O12" t="n">
+        <v>0.673</v>
+      </c>
       <c r="P12" t="s">
         <v>92</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -2991,31 +3012,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>244226</v>
+        <v>267904</v>
       </c>
       <c r="I13" t="n">
-        <v>12.776</v>
+        <v>14.014</v>
       </c>
       <c r="J13" t="n">
-        <v>12118</v>
+        <v>11943</v>
       </c>
       <c r="K13" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="L13" t="n">
-        <v>10031.667</v>
+        <v>11932</v>
       </c>
       <c r="M13" t="n">
-        <v>0.525</v>
+        <v>0.624</v>
       </c>
       <c r="N13" t="n">
-        <v>9101.286</v>
+        <v>9786.286</v>
       </c>
       <c r="O13" t="n">
-        <v>0.476</v>
+        <v>0.512</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3038,7 +3059,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3048,31 +3069,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" t="n">
-        <v>135352</v>
+        <v>144912</v>
       </c>
       <c r="I14" t="n">
-        <v>2.66</v>
+        <v>2.848</v>
       </c>
       <c r="J14" t="n">
-        <v>4242</v>
+        <v>5173</v>
       </c>
       <c r="K14" t="n">
-        <v>0.083</v>
+        <v>0.102</v>
       </c>
       <c r="L14" t="n">
-        <v>4107.667</v>
+        <v>4600.667</v>
       </c>
       <c r="M14" t="n">
-        <v>0.081</v>
+        <v>0.09</v>
       </c>
       <c r="N14" t="n">
-        <v>4385</v>
+        <v>4330</v>
       </c>
       <c r="O14" t="n">
-        <v>0.086</v>
+        <v>0.085</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3095,7 +3116,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3105,31 +3126,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>10375</v>
+        <v>11276</v>
       </c>
       <c r="I15" t="n">
-        <v>2.037</v>
+        <v>2.214</v>
       </c>
       <c r="J15" t="n">
-        <v>274</v>
+        <v>449</v>
       </c>
       <c r="K15" t="n">
-        <v>0.054</v>
+        <v>0.088</v>
       </c>
       <c r="L15" t="n">
-        <v>185.333</v>
+        <v>391.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.036</v>
+        <v>0.077</v>
       </c>
       <c r="N15" t="n">
-        <v>148.571</v>
+        <v>240.429</v>
       </c>
       <c r="O15" t="n">
-        <v>0.029</v>
+        <v>0.047</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3152,7 +3173,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3162,28 +3183,32 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>43378</v>
+        <v>44218</v>
       </c>
       <c r="I16" t="n">
-        <v>10.566</v>
+        <v>10.771</v>
       </c>
       <c r="J16" t="n">
-        <v>1440</v>
+        <v>840</v>
       </c>
       <c r="K16" t="n">
-        <v>0.351</v>
+        <v>0.205</v>
       </c>
       <c r="L16" t="n">
-        <v>1135</v>
+        <v>1055</v>
       </c>
       <c r="M16" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>0.257</v>
+      </c>
+      <c r="N16" t="n">
+        <v>951.571</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.232</v>
+      </c>
       <c r="P16" t="s">
         <v>119</v>
       </c>
@@ -3205,7 +3230,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3217,31 +3242,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" t="n">
-        <v>61613</v>
+        <v>65509</v>
       </c>
       <c r="I17" t="n">
-        <v>5.44</v>
+        <v>5.784</v>
       </c>
       <c r="J17" t="n">
-        <v>1965</v>
+        <v>1949</v>
       </c>
       <c r="K17" t="n">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="L17" t="n">
-        <v>2023.667</v>
+        <v>1953.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.178</v>
+        <v>0.172</v>
       </c>
       <c r="N17" t="n">
-        <v>2038</v>
+        <v>2000.429</v>
       </c>
       <c r="O17" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3264,7 +3289,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3274,31 +3299,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" t="n">
-        <v>293992</v>
+        <v>302493</v>
       </c>
       <c r="I18" t="n">
-        <v>27.453</v>
+        <v>28.247</v>
       </c>
       <c r="J18" t="n">
-        <v>7071</v>
+        <v>3717</v>
       </c>
       <c r="K18" t="n">
-        <v>0.66</v>
+        <v>0.347</v>
       </c>
       <c r="L18" t="n">
-        <v>8296.333</v>
+        <v>5193.333</v>
       </c>
       <c r="M18" t="n">
-        <v>0.775</v>
+        <v>0.485</v>
       </c>
       <c r="N18" t="n">
-        <v>6335.429</v>
+        <v>6373.143</v>
       </c>
       <c r="O18" t="n">
-        <v>0.592</v>
+        <v>0.595</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3321,7 +3346,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3333,31 +3358,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H19" t="n">
-        <v>284480</v>
+        <v>308984</v>
       </c>
       <c r="I19" t="n">
-        <v>49.114</v>
+        <v>53.345</v>
       </c>
       <c r="J19" t="n">
-        <v>13800</v>
+        <v>10496</v>
       </c>
       <c r="K19" t="n">
-        <v>2.383</v>
+        <v>1.812</v>
       </c>
       <c r="L19" t="n">
-        <v>13229.667</v>
+        <v>12768</v>
       </c>
       <c r="M19" t="n">
-        <v>2.284</v>
+        <v>2.204</v>
       </c>
       <c r="N19" t="n">
-        <v>13045</v>
+        <v>12438.857</v>
       </c>
       <c r="O19" t="n">
-        <v>2.252</v>
+        <v>2.147</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3380,7 +3405,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3392,16 +3417,18 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>63300</v>
+        <v>40630</v>
       </c>
       <c r="I20" t="n">
-        <v>3.588</v>
+        <v>2.303</v>
       </c>
       <c r="J20"/>
-      <c r="K20"/>
+      <c r="K20" t="n">
+        <v>-0.212</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -3427,7 +3454,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
@@ -3439,26 +3466,22 @@
         <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" t="n">
-        <v>35411</v>
+        <v>39079</v>
       </c>
       <c r="I21" t="n">
-        <v>5.459</v>
+        <v>6.025</v>
       </c>
       <c r="J21" t="n">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="K21" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1674.667</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.258</v>
-      </c>
+        <v>0.273</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
@@ -3482,7 +3505,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3492,31 +3515,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>61767</v>
+        <v>63372</v>
       </c>
       <c r="I22" t="n">
-        <v>46.563</v>
+        <v>47.772</v>
       </c>
       <c r="J22" t="n">
-        <v>1279</v>
+        <v>654</v>
       </c>
       <c r="K22" t="n">
-        <v>0.964</v>
+        <v>0.493</v>
       </c>
       <c r="L22" t="n">
-        <v>1454.667</v>
+        <v>961.333</v>
       </c>
       <c r="M22" t="n">
-        <v>1.096</v>
+        <v>0.725</v>
       </c>
       <c r="N22" t="n">
-        <v>1145.429</v>
+        <v>1170.714</v>
       </c>
       <c r="O22" t="n">
-        <v>0.863</v>
+        <v>0.882</v>
       </c>
       <c r="P22" t="s">
         <v>160</v>
@@ -3588,7 +3611,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -3598,25 +3621,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" t="n">
-        <v>111983</v>
+        <v>119054</v>
       </c>
       <c r="I24" t="n">
-        <v>20.211</v>
+        <v>21.487</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.147</v>
+        <v>0.116</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.319</v>
+        <v>0.433</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.374</v>
+        <v>0.388</v>
       </c>
       <c r="P24" t="s">
         <v>174</v>
@@ -3733,7 +3756,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -3743,13 +3766,13 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>135902</v>
+        <v>149948</v>
       </c>
       <c r="I27" t="n">
-        <v>4.374</v>
+        <v>4.826</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -3778,7 +3801,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3788,22 +3811,26 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" t="n">
-        <v>90043</v>
+        <v>97384</v>
       </c>
       <c r="I28" t="n">
-        <v>8.639</v>
+        <v>9.343</v>
       </c>
       <c r="J28" t="n">
-        <v>2991</v>
+        <v>3093</v>
       </c>
       <c r="K28" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28"/>
+        <v>0.297</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3444</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.331</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
@@ -3872,7 +3899,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -3884,31 +3911,31 @@
         <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H30" t="n">
-        <v>99058</v>
+        <v>108257</v>
       </c>
       <c r="I30" t="n">
-        <v>10.254</v>
+        <v>11.206</v>
       </c>
       <c r="J30" t="n">
-        <v>5022</v>
+        <v>4999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.52</v>
+        <v>0.517</v>
       </c>
       <c r="L30" t="n">
-        <v>4500.333</v>
+        <v>4740.333</v>
       </c>
       <c r="M30" t="n">
-        <v>0.466</v>
+        <v>0.491</v>
       </c>
       <c r="N30" t="n">
-        <v>3246.714</v>
+        <v>3749.571</v>
       </c>
       <c r="O30" t="n">
-        <v>0.336</v>
+        <v>0.388</v>
       </c>
       <c r="P30" t="s">
         <v>216</v>
@@ -3931,7 +3958,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
@@ -3941,31 +3968,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" t="n">
-        <v>52704</v>
+        <v>53219</v>
       </c>
       <c r="I31" t="n">
-        <v>154.444</v>
+        <v>155.953</v>
       </c>
       <c r="J31" t="n">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="K31" t="n">
-        <v>1.354</v>
+        <v>1.509</v>
       </c>
       <c r="L31" t="n">
-        <v>466.667</v>
+        <v>532.333</v>
       </c>
       <c r="M31" t="n">
-        <v>1.368</v>
+        <v>1.56</v>
       </c>
       <c r="N31" t="n">
-        <v>515.714</v>
+        <v>465.429</v>
       </c>
       <c r="O31" t="n">
-        <v>1.511</v>
+        <v>1.364</v>
       </c>
       <c r="P31" t="s">
         <v>224</v>
@@ -4039,7 +4066,7 @@
         <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4051,31 +4078,31 @@
         <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H33" t="n">
-        <v>1437788</v>
+        <v>1609037</v>
       </c>
       <c r="I33" t="n">
-        <v>1.042</v>
+        <v>1.166</v>
       </c>
       <c r="J33" t="n">
-        <v>80375</v>
+        <v>85824</v>
       </c>
       <c r="K33" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L33" t="n">
+        <v>83874.667</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N33" t="n">
+        <v>80369.571</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.058</v>
-      </c>
-      <c r="L33" t="n">
-        <v>81947.333</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="N33" t="n">
-        <v>76447.714</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.055</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
@@ -4098,7 +4125,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D34" t="s">
         <v>236</v>
@@ -4108,31 +4135,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H34" t="n">
-        <v>103361</v>
+        <v>113452</v>
       </c>
       <c r="I34" t="n">
-        <v>0.378</v>
+        <v>0.415</v>
       </c>
       <c r="J34" t="n">
-        <v>6644</v>
+        <v>4753</v>
       </c>
       <c r="K34" t="n">
-        <v>0.024</v>
+        <v>0.017</v>
       </c>
       <c r="L34" t="n">
-        <v>4812.333</v>
+        <v>5578.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="N34" t="n">
-        <v>3831.857</v>
+        <v>4348.571</v>
       </c>
       <c r="O34" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="P34" t="s">
         <v>237</v>
@@ -4155,7 +4182,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D35" t="s">
         <v>242</v>
@@ -4165,31 +4192,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>544792</v>
+        <v>558899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.486</v>
+        <v>6.654</v>
       </c>
       <c r="J35" t="n">
-        <v>13517</v>
+        <v>14107</v>
       </c>
       <c r="K35" t="n">
-        <v>0.161</v>
+        <v>0.168</v>
       </c>
       <c r="L35" t="n">
-        <v>12168</v>
+        <v>13118.667</v>
       </c>
       <c r="M35" t="n">
-        <v>0.145</v>
+        <v>0.156</v>
       </c>
       <c r="N35" t="n">
-        <v>11642.429</v>
+        <v>11982.286</v>
       </c>
       <c r="O35" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="P35" t="s">
         <v>243</v>
@@ -4316,7 +4343,7 @@
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D38" t="s">
         <v>261</v>
@@ -4328,25 +4355,31 @@
         <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>1563557</v>
+        <v>1645076</v>
       </c>
       <c r="I38" t="n">
-        <v>25.86</v>
-      </c>
-      <c r="J38"/>
+        <v>27.209</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36091</v>
+      </c>
       <c r="K38" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="L38"/>
+        <v>0.597</v>
+      </c>
+      <c r="L38" t="n">
+        <v>31728</v>
+      </c>
       <c r="M38" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="N38"/>
+        <v>0.525</v>
+      </c>
+      <c r="N38" t="n">
+        <v>30744.571</v>
+      </c>
       <c r="O38" t="n">
-        <v>0.493</v>
+        <v>0.508</v>
       </c>
       <c r="P38" t="s">
         <v>264</v>
@@ -4369,7 +4402,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D39" t="s">
         <v>261</v>
@@ -4381,31 +4414,31 @@
         <v>263</v>
       </c>
       <c r="G39" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H39" t="n">
-        <v>2381288</v>
+        <v>2514234</v>
       </c>
       <c r="I39" t="n">
-        <v>39.385</v>
+        <v>41.584</v>
       </c>
       <c r="J39" t="n">
-        <v>70359</v>
+        <v>69171</v>
       </c>
       <c r="K39" t="n">
-        <v>1.164</v>
+        <v>1.144</v>
       </c>
       <c r="L39" t="n">
-        <v>63295</v>
+        <v>67768.333</v>
       </c>
       <c r="M39" t="n">
-        <v>1.047</v>
+        <v>1.121</v>
       </c>
       <c r="N39" t="n">
-        <v>57438.714</v>
+        <v>57913.857</v>
       </c>
       <c r="O39" t="n">
-        <v>0.95</v>
+        <v>0.958</v>
       </c>
       <c r="P39" t="s">
         <v>264</v>
@@ -4428,7 +4461,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -4440,13 +4473,13 @@
         <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H40" t="n">
-        <v>190030</v>
+        <v>211997</v>
       </c>
       <c r="I40" t="n">
-        <v>1.502</v>
+        <v>1.676</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4475,7 +4508,7 @@
         <v>276</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
@@ -4487,31 +4520,31 @@
         <v>278</v>
       </c>
       <c r="G41" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
-        <v>306231</v>
+        <v>312728</v>
       </c>
       <c r="I41" t="n">
-        <v>2.421</v>
+        <v>2.473</v>
       </c>
       <c r="J41" t="n">
-        <v>4281</v>
+        <v>6061</v>
       </c>
       <c r="K41" t="n">
-        <v>0.034</v>
+        <v>0.048</v>
       </c>
       <c r="L41" t="n">
-        <v>4110</v>
+        <v>4768.667</v>
       </c>
       <c r="M41" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="N41" t="n">
-        <v>5450.286</v>
+        <v>5210.143</v>
       </c>
       <c r="O41" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="P41" t="s">
         <v>272</v>
@@ -4534,7 +4567,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D42" t="s">
         <v>282</v>
@@ -4544,31 +4577,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H42" t="n">
-        <v>353843</v>
+        <v>385104</v>
       </c>
       <c r="I42" t="n">
-        <v>18.845</v>
+        <v>20.51</v>
       </c>
       <c r="J42" t="n">
-        <v>17363</v>
+        <v>13978</v>
       </c>
       <c r="K42" t="n">
-        <v>0.925</v>
+        <v>0.744</v>
       </c>
       <c r="L42" t="n">
-        <v>15660.667</v>
+        <v>16208</v>
       </c>
       <c r="M42" t="n">
-        <v>0.834</v>
+        <v>0.863</v>
       </c>
       <c r="N42" t="n">
-        <v>14902.286</v>
+        <v>14606</v>
       </c>
       <c r="O42" t="n">
-        <v>0.794</v>
+        <v>0.778</v>
       </c>
       <c r="P42" t="s">
         <v>283</v>
@@ -4591,7 +4624,7 @@
         <v>286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D43" t="s">
         <v>287</v>
@@ -4601,26 +4634,22 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H43" t="n">
-        <v>25869</v>
+        <v>31041</v>
       </c>
       <c r="I43" t="n">
-        <v>0.481</v>
+        <v>0.577</v>
       </c>
       <c r="J43" t="n">
-        <v>1077</v>
+        <v>1611</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L43" t="n">
-        <v>990.667</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.018</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="s">
@@ -4644,7 +4673,7 @@
         <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D44" t="s">
         <v>294</v>
@@ -4656,31 +4685,25 @@
         <v>296</v>
       </c>
       <c r="G44" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" t="n">
-        <v>73016</v>
+        <v>76592</v>
       </c>
       <c r="I44" t="n">
-        <v>38.711</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1947</v>
-      </c>
+        <v>40.606</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>1.032</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2288.667</v>
-      </c>
+        <v>0.541</v>
+      </c>
+      <c r="L44"/>
       <c r="M44" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1699.429</v>
-      </c>
+        <v>0.976</v>
+      </c>
+      <c r="N44"/>
       <c r="O44" t="n">
-        <v>0.901</v>
+        <v>0.935</v>
       </c>
       <c r="P44" t="s">
         <v>295</v>
@@ -4703,7 +4726,7 @@
         <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D45" t="s">
         <v>300</v>
@@ -4713,31 +4736,25 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>172191</v>
+        <v>183913</v>
       </c>
       <c r="I45" t="n">
-        <v>63.252</v>
-      </c>
-      <c r="J45" t="n">
-        <v>8103</v>
-      </c>
+        <v>67.558</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>2.977</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7695</v>
-      </c>
+        <v>1.315</v>
+      </c>
+      <c r="L45"/>
       <c r="M45" t="n">
-        <v>2.827</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5631.857</v>
-      </c>
+        <v>2.427</v>
+      </c>
+      <c r="N45"/>
       <c r="O45" t="n">
-        <v>2.069</v>
+        <v>2.216</v>
       </c>
       <c r="P45" t="s">
         <v>43</v>
@@ -4760,7 +4777,7 @@
         <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D46" t="s">
         <v>305</v>
@@ -4770,31 +4787,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>51883</v>
+        <v>54463</v>
       </c>
       <c r="I46" t="n">
-        <v>82.883</v>
+        <v>87.005</v>
       </c>
       <c r="J46" t="n">
-        <v>1350</v>
+        <v>1206</v>
       </c>
       <c r="K46" t="n">
-        <v>2.157</v>
+        <v>1.927</v>
       </c>
       <c r="L46" t="n">
-        <v>1181.333</v>
+        <v>1310</v>
       </c>
       <c r="M46" t="n">
-        <v>1.887</v>
+        <v>2.093</v>
       </c>
       <c r="N46" t="n">
-        <v>1320</v>
+        <v>1000.429</v>
       </c>
       <c r="O46" t="n">
-        <v>2.109</v>
+        <v>1.598</v>
       </c>
       <c r="P46" t="s">
         <v>306</v>
@@ -4817,7 +4834,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4827,32 +4844,20 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>239628</v>
+        <v>256937</v>
       </c>
       <c r="I47" t="n">
-        <v>7.404</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8609</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="L47" t="n">
-        <v>8802.667</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="N47" t="n">
-        <v>10120.571</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.313</v>
-      </c>
+        <v>7.938</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>312</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D48" t="s">
         <v>318</v>
@@ -4884,13 +4889,13 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H48" t="n">
-        <v>98399</v>
+        <v>107261</v>
       </c>
       <c r="I48" t="n">
-        <v>0.763</v>
+        <v>0.832</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
@@ -4902,7 +4907,7 @@
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="P48" t="s">
         <v>319</v>
@@ -4984,7 +4989,7 @@
         <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -4996,20 +5001,32 @@
         <v>332</v>
       </c>
       <c r="G50" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>10227</v>
+        <v>10848</v>
       </c>
       <c r="I50" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>0.199</v>
+      </c>
+      <c r="J50" t="n">
+        <v>582</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L50" t="n">
+        <v>517.667</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>372.571</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.007</v>
+      </c>
       <c r="P50" t="s">
         <v>331</v>
       </c>
@@ -5031,7 +5048,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D51" t="s">
         <v>337</v>
@@ -5043,31 +5060,31 @@
         <v>339</v>
       </c>
       <c r="G51" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H51" t="n">
-        <v>14511</v>
+        <v>16309</v>
       </c>
       <c r="I51" t="n">
-        <v>0.498</v>
+        <v>0.56</v>
       </c>
       <c r="J51" t="n">
-        <v>415</v>
+        <v>817</v>
       </c>
       <c r="K51" t="n">
-        <v>0.014</v>
+        <v>0.028</v>
       </c>
       <c r="L51" t="n">
-        <v>290.333</v>
+        <v>737.667</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="N51" t="n">
-        <v>357.143</v>
+        <v>458.714</v>
       </c>
       <c r="O51" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
@@ -5090,7 +5107,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>
@@ -5100,25 +5117,25 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>249655</v>
+        <v>254456</v>
       </c>
       <c r="I52" t="n">
-        <v>14.57</v>
+        <v>14.85</v>
       </c>
       <c r="J52" t="n">
-        <v>3488</v>
+        <v>4442</v>
       </c>
       <c r="K52" t="n">
-        <v>0.204</v>
+        <v>0.259</v>
       </c>
       <c r="L52" t="n">
-        <v>3713.333</v>
+        <v>4035.667</v>
       </c>
       <c r="M52" t="n">
-        <v>0.217</v>
+        <v>0.235</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
@@ -5143,7 +5160,7 @@
         <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D53" t="s">
         <v>351</v>
@@ -5153,31 +5170,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>175835</v>
+        <v>190326</v>
       </c>
       <c r="I53" t="n">
-        <v>36.463</v>
+        <v>39.468</v>
       </c>
       <c r="J53" t="n">
-        <v>7812</v>
+        <v>7287</v>
       </c>
       <c r="K53" t="n">
-        <v>1.62</v>
+        <v>1.511</v>
       </c>
       <c r="L53" t="n">
-        <v>6635.667</v>
+        <v>7434.333</v>
       </c>
       <c r="M53" t="n">
-        <v>1.376</v>
+        <v>1.542</v>
       </c>
       <c r="N53" t="n">
-        <v>5133.857</v>
+        <v>5729</v>
       </c>
       <c r="O53" t="n">
-        <v>1.065</v>
+        <v>1.188</v>
       </c>
       <c r="P53" t="s">
         <v>352</v>
@@ -5200,7 +5217,7 @@
         <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D54" t="s">
         <v>356</v>
@@ -5210,25 +5227,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>22492</v>
+        <v>23835</v>
       </c>
       <c r="I54" t="n">
-        <v>0.109</v>
+        <v>0.116</v>
       </c>
       <c r="J54" t="n">
-        <v>1284</v>
+        <v>1343</v>
       </c>
       <c r="K54" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="L54" t="n">
-        <v>1318.667</v>
+        <v>1441</v>
       </c>
       <c r="M54" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -5302,7 +5319,7 @@
         <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D56" t="s">
         <v>369</v>
@@ -5312,31 +5329,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H56" t="n">
-        <v>257247</v>
+        <v>283517</v>
       </c>
       <c r="I56" t="n">
-        <v>1.165</v>
+        <v>1.284</v>
       </c>
       <c r="J56" t="n">
-        <v>12469</v>
+        <v>13492</v>
       </c>
       <c r="K56" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="L56" t="n">
-        <v>11614.333</v>
+        <v>12913</v>
       </c>
       <c r="M56" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N56" t="n">
+        <v>11498.857</v>
+      </c>
+      <c r="O56" t="n">
         <v>0.052</v>
-      </c>
-      <c r="N56" t="n">
-        <v>10730.857</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.048</v>
       </c>
       <c r="P56" t="s">
         <v>370</v>
@@ -5359,7 +5376,7 @@
         <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D57" t="s">
         <v>375</v>
@@ -5371,31 +5388,31 @@
         <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H57" t="n">
-        <v>39093</v>
+        <v>41649</v>
       </c>
       <c r="I57" t="n">
-        <v>9.06</v>
+        <v>9.653</v>
       </c>
       <c r="J57" t="n">
-        <v>1079</v>
+        <v>1293</v>
       </c>
       <c r="K57" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L57" t="n">
-        <v>1179</v>
+        <v>1211.667</v>
       </c>
       <c r="M57" t="n">
-        <v>0.273</v>
+        <v>0.281</v>
       </c>
       <c r="N57" t="n">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="O57" t="n">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
       <c r="P57" t="s">
         <v>43</v>
@@ -5418,7 +5435,7 @@
         <v>380</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D58" t="s">
         <v>381</v>
@@ -5430,31 +5447,31 @@
         <v>383</v>
       </c>
       <c r="G58" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H58" t="n">
-        <v>13096</v>
+        <v>14646</v>
       </c>
       <c r="I58" t="n">
-        <v>1.836</v>
+        <v>2.053</v>
       </c>
       <c r="J58" t="n">
-        <v>599</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>0.084</v>
+        <v>0.112</v>
       </c>
       <c r="L58" t="n">
-        <v>547</v>
+        <v>716.333</v>
       </c>
       <c r="M58" t="n">
-        <v>0.077</v>
+        <v>0.1</v>
       </c>
       <c r="N58" t="n">
-        <v>456.143</v>
+        <v>554.286</v>
       </c>
       <c r="O58" t="n">
-        <v>0.064</v>
+        <v>0.078</v>
       </c>
       <c r="P58" t="s">
         <v>384</v>
@@ -5477,7 +5494,7 @@
         <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D59" t="s">
         <v>389</v>
@@ -5487,13 +5504,13 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>448020</v>
+        <v>494250</v>
       </c>
       <c r="I59" t="n">
-        <v>13.588</v>
+        <v>14.99</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -5522,7 +5539,7 @@
         <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D60" t="s">
         <v>396</v>
@@ -5532,22 +5549,26 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="n">
-        <v>126387</v>
+        <v>136706</v>
       </c>
       <c r="I60" t="n">
-        <v>1.153</v>
+        <v>1.248</v>
       </c>
       <c r="J60" t="n">
-        <v>6875</v>
+        <v>5216</v>
       </c>
       <c r="K60" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="L60"/>
-      <c r="M60"/>
+        <v>0.048</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5731.333</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.053</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
@@ -5571,7 +5592,7 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -5583,31 +5604,31 @@
         <v>403</v>
       </c>
       <c r="G61" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H61" t="n">
-        <v>443506</v>
+        <v>460686</v>
       </c>
       <c r="I61" t="n">
-        <v>11.719</v>
+        <v>12.172</v>
       </c>
       <c r="J61" t="n">
-        <v>17512</v>
+        <v>17180</v>
       </c>
       <c r="K61" t="n">
-        <v>0.463</v>
+        <v>0.454</v>
       </c>
       <c r="L61" t="n">
-        <v>16412</v>
+        <v>16739.333</v>
       </c>
       <c r="M61" t="n">
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="N61" t="n">
-        <v>12696.857</v>
+        <v>13524.714</v>
       </c>
       <c r="O61" t="n">
-        <v>0.336</v>
+        <v>0.358</v>
       </c>
       <c r="P61" t="s">
         <v>404</v>
@@ -5687,7 +5708,7 @@
         <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D63" t="s">
         <v>415</v>
@@ -5697,31 +5718,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H63" t="n">
-        <v>120458</v>
+        <v>127769</v>
       </c>
       <c r="I63" t="n">
-        <v>41.81</v>
+        <v>44.348</v>
       </c>
       <c r="J63" t="n">
-        <v>3963</v>
+        <v>3215</v>
       </c>
       <c r="K63" t="n">
-        <v>1.376</v>
+        <v>1.116</v>
       </c>
       <c r="L63" t="n">
-        <v>3565.333</v>
+        <v>3758</v>
       </c>
       <c r="M63" t="n">
-        <v>1.238</v>
+        <v>1.305</v>
       </c>
       <c r="N63" t="n">
-        <v>3247.429</v>
+        <v>3333.429</v>
       </c>
       <c r="O63" t="n">
-        <v>1.127</v>
+        <v>1.157</v>
       </c>
       <c r="P63" t="s">
         <v>416</v>
@@ -5744,7 +5765,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D64" t="s">
         <v>421</v>
@@ -5756,31 +5777,31 @@
         <v>423</v>
       </c>
       <c r="G64" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H64" t="n">
-        <v>237280</v>
+        <v>248056</v>
       </c>
       <c r="I64" t="n">
-        <v>12.334</v>
+        <v>12.894</v>
       </c>
       <c r="J64" t="n">
-        <v>10667</v>
+        <v>10776</v>
       </c>
       <c r="K64" t="n">
-        <v>0.554</v>
+        <v>0.56</v>
       </c>
       <c r="L64" t="n">
-        <v>10479.333</v>
+        <v>10305.667</v>
       </c>
       <c r="M64" t="n">
-        <v>0.544</v>
+        <v>0.535</v>
       </c>
       <c r="N64" t="n">
-        <v>7656</v>
+        <v>8216.571</v>
       </c>
       <c r="O64" t="n">
-        <v>0.398</v>
+        <v>0.427</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
@@ -5803,7 +5824,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D65" t="s">
         <v>427</v>
@@ -5813,31 +5834,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>4987468</v>
+        <v>5448463</v>
       </c>
       <c r="I65" t="n">
-        <v>34.176</v>
+        <v>37.335</v>
       </c>
       <c r="J65" t="n">
-        <v>184276</v>
+        <v>226499</v>
       </c>
       <c r="K65" t="n">
-        <v>1.263</v>
+        <v>1.552</v>
       </c>
       <c r="L65" t="n">
-        <v>175703.667</v>
+        <v>215090.333</v>
       </c>
       <c r="M65" t="n">
-        <v>1.204</v>
+        <v>1.474</v>
       </c>
       <c r="N65" t="n">
-        <v>180523</v>
+        <v>192637.714</v>
       </c>
       <c r="O65" t="n">
-        <v>1.237</v>
+        <v>1.32</v>
       </c>
       <c r="P65" t="s">
         <v>428</v>
@@ -5860,7 +5881,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D66" t="s">
         <v>433</v>
@@ -5870,31 +5891,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H66" t="n">
-        <v>37315</v>
+        <v>41385</v>
       </c>
       <c r="I66" t="n">
-        <v>2.881</v>
+        <v>3.195</v>
       </c>
       <c r="J66" t="n">
-        <v>1323</v>
+        <v>1198</v>
       </c>
       <c r="K66" t="n">
-        <v>0.102</v>
+        <v>0.092</v>
       </c>
       <c r="L66" t="n">
-        <v>988.333</v>
+        <v>1356.667</v>
       </c>
       <c r="M66" t="n">
-        <v>0.076</v>
+        <v>0.104</v>
       </c>
       <c r="N66" t="n">
-        <v>1102</v>
+        <v>1154.571</v>
       </c>
       <c r="O66" t="n">
-        <v>0.085</v>
+        <v>0.089</v>
       </c>
       <c r="P66" t="s">
         <v>434</v>
@@ -5917,7 +5938,7 @@
         <v>438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D67" t="s">
         <v>439</v>
@@ -5927,22 +5948,26 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>405685</v>
+        <v>433500</v>
       </c>
       <c r="I67" t="n">
-        <v>11.653</v>
+        <v>12.452</v>
       </c>
       <c r="J67" t="n">
-        <v>16026</v>
+        <v>14778</v>
       </c>
       <c r="K67" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L67"/>
-      <c r="M67"/>
+        <v>0.424</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14613.667</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.419</v>
+      </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="s">
@@ -5966,7 +5991,7 @@
         <v>442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D68" t="s">
         <v>443</v>
@@ -5978,31 +6003,31 @@
         <v>445</v>
       </c>
       <c r="G68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H68" t="n">
-        <v>19369</v>
+        <v>20217</v>
       </c>
       <c r="I68" t="n">
-        <v>1.157</v>
+        <v>1.207</v>
       </c>
       <c r="J68" t="n">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="K68" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="L68" t="n">
-        <v>1027</v>
+        <v>915.667</v>
       </c>
       <c r="M68" t="n">
-        <v>0.061</v>
+        <v>0.055</v>
       </c>
       <c r="N68" t="n">
-        <v>941.429</v>
+        <v>892.571</v>
       </c>
       <c r="O68" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="P68" t="s">
         <v>446</v>
@@ -6025,7 +6050,7 @@
         <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D69" t="s">
         <v>452</v>
@@ -6037,31 +6062,31 @@
         <v>453</v>
       </c>
       <c r="G69" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H69" t="n">
-        <v>122995</v>
+        <v>134533</v>
       </c>
       <c r="I69" t="n">
-        <v>18.075</v>
+        <v>19.771</v>
       </c>
       <c r="J69" t="n">
-        <v>5521</v>
+        <v>5728</v>
       </c>
       <c r="K69" t="n">
-        <v>0.811</v>
+        <v>0.842</v>
       </c>
       <c r="L69" t="n">
-        <v>5511.333</v>
+        <v>5686.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.81</v>
+        <v>0.836</v>
       </c>
       <c r="N69" t="n">
-        <v>5335.714</v>
+        <v>5413.714</v>
       </c>
       <c r="O69" t="n">
-        <v>0.784</v>
+        <v>0.796</v>
       </c>
       <c r="P69" t="s">
         <v>43</v>
@@ -6174,7 +6199,7 @@
         <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D72" t="s">
         <v>466</v>
@@ -6184,31 +6209,25 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H72" t="n">
-        <v>114461</v>
+        <v>119859</v>
       </c>
       <c r="I72" t="n">
-        <v>20.965</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4694</v>
-      </c>
+        <v>21.954</v>
+      </c>
+      <c r="J72"/>
       <c r="K72" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4865.667</v>
-      </c>
+        <v>0.273</v>
+      </c>
+      <c r="L72"/>
       <c r="M72" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3341.286</v>
-      </c>
+        <v>0.616</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" t="n">
-        <v>0.612</v>
+        <v>0.619</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
@@ -6231,7 +6250,7 @@
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
@@ -6241,31 +6260,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H73" t="n">
-        <v>61027</v>
+        <v>62828</v>
       </c>
       <c r="I73" t="n">
-        <v>29.355</v>
+        <v>30.221</v>
       </c>
       <c r="J73" t="n">
-        <v>1049</v>
+        <v>625</v>
       </c>
       <c r="K73" t="n">
-        <v>0.505</v>
+        <v>0.301</v>
       </c>
       <c r="L73" t="n">
-        <v>1184.333</v>
+        <v>950</v>
       </c>
       <c r="M73" t="n">
-        <v>0.57</v>
+        <v>0.457</v>
       </c>
       <c r="N73" t="n">
-        <v>961</v>
+        <v>1044</v>
       </c>
       <c r="O73" t="n">
-        <v>0.462</v>
+        <v>0.502</v>
       </c>
       <c r="P73" t="s">
         <v>476</v>
@@ -6288,7 +6307,7 @@
         <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D74" t="s">
         <v>481</v>
@@ -6300,31 +6319,31 @@
         <v>483</v>
       </c>
       <c r="G74" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H74" t="n">
-        <v>292153</v>
+        <v>324079</v>
       </c>
       <c r="I74" t="n">
-        <v>4.926</v>
+        <v>5.464</v>
       </c>
       <c r="J74" t="n">
-        <v>12774</v>
+        <v>16327</v>
       </c>
       <c r="K74" t="n">
-        <v>0.215</v>
+        <v>0.275</v>
       </c>
       <c r="L74" t="n">
-        <v>11537.333</v>
+        <v>14900</v>
       </c>
       <c r="M74" t="n">
-        <v>0.194</v>
+        <v>0.251</v>
       </c>
       <c r="N74" t="n">
-        <v>12089</v>
+        <v>13341.857</v>
       </c>
       <c r="O74" t="n">
-        <v>0.204</v>
+        <v>0.225</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
@@ -6347,7 +6366,7 @@
         <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D75" t="s">
         <v>488</v>
@@ -6357,31 +6376,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H75" t="n">
-        <v>654863</v>
+        <v>663886</v>
       </c>
       <c r="I75" t="n">
-        <v>12.773</v>
+        <v>12.949</v>
       </c>
       <c r="J75" t="n">
-        <v>5475</v>
+        <v>3856</v>
       </c>
       <c r="K75" t="n">
-        <v>0.107</v>
+        <v>0.075</v>
       </c>
       <c r="L75" t="n">
-        <v>4875.333</v>
+        <v>4832.667</v>
       </c>
       <c r="M75" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="N75" t="n">
-        <v>4542</v>
+        <v>4701.857</v>
       </c>
       <c r="O75" t="n">
-        <v>0.089</v>
+        <v>0.092</v>
       </c>
       <c r="P75" t="s">
         <v>489</v>
@@ -6404,7 +6423,7 @@
         <v>493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="D76" t="s">
         <v>494</v>
@@ -6412,15 +6431,17 @@
       <c r="E76" t="s">
         <v>495</v>
       </c>
-      <c r="F76"/>
+      <c r="F76" t="s">
+        <v>496</v>
+      </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>1351130</v>
+        <v>1625211</v>
       </c>
       <c r="I76" t="n">
-        <v>28.898</v>
+        <v>34.76</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -6429,33 +6450,33 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R76" t="s">
         <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>43954</v>
       </c>
       <c r="D77" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
@@ -6474,151 +6495,151 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q77" t="s">
         <v>502</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>501</v>
       </c>
       <c r="R77" t="s">
         <v>94</v>
       </c>
       <c r="S77" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D78" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E78" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H78" t="n">
-        <v>301675</v>
+        <v>309595</v>
       </c>
       <c r="I78" t="n">
-        <v>34.857</v>
+        <v>35.772</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>0.131</v>
+        <v>0.045</v>
       </c>
       <c r="L78"/>
       <c r="M78" t="n">
-        <v>0.468</v>
+        <v>0.336</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="P78" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q78" t="s">
         <v>507</v>
       </c>
-      <c r="Q78" t="s">
-        <v>506</v>
-      </c>
       <c r="R78" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S78" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H79" t="n">
-        <v>66460</v>
+        <v>67133</v>
       </c>
       <c r="I79" t="n">
-        <v>2.79</v>
+        <v>2.819</v>
       </c>
       <c r="J79" t="n">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="K79" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="L79" t="n">
-        <v>500.667</v>
+        <v>362.333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="N79" t="n">
-        <v>445.714</v>
+        <v>434.143</v>
       </c>
       <c r="O79" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="P79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q79" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="R79" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="S79" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H80" t="n">
-        <v>90016</v>
+        <v>97177</v>
       </c>
       <c r="I80" t="n">
-        <v>1.29</v>
+        <v>1.392</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
@@ -6630,547 +6651,535 @@
       </c>
       <c r="N80"/>
       <c r="O80" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="P80" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q80" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R80" t="s">
         <v>94</v>
       </c>
       <c r="S80" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D81" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E81" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H81" t="n">
-        <v>25555</v>
+        <v>27420</v>
       </c>
       <c r="I81" t="n">
-        <v>2.162</v>
-      </c>
-      <c r="J81" t="n">
-        <v>390</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="L81" t="n">
-        <v>383</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="N81" t="n">
-        <v>499</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.042</v>
-      </c>
+        <v>2.32</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q81" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="R81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="S81" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D82" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E82" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H82" t="n">
-        <v>1265119</v>
+        <v>1334411</v>
       </c>
       <c r="I82" t="n">
-        <v>15</v>
+        <v>15.822</v>
       </c>
       <c r="J82" t="n">
-        <v>30395</v>
+        <v>35605</v>
       </c>
       <c r="K82" t="n">
-        <v>0.36</v>
+        <v>0.422</v>
       </c>
       <c r="L82" t="n">
-        <v>31327</v>
+        <v>33229</v>
       </c>
       <c r="M82" t="n">
-        <v>0.371</v>
+        <v>0.394</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R82" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S82" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D83" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E83" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F83" t="s">
+        <v>543</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32</v>
+      </c>
+      <c r="H83" t="n">
+        <v>55203</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3161</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3493</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2967.286</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="P83" t="s">
         <v>542</v>
       </c>
-      <c r="G83" t="n">
-        <v>30</v>
-      </c>
-      <c r="H83" t="n">
-        <v>47603</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.041</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3509</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2795.667</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2618</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="P83" t="s">
-        <v>541</v>
-      </c>
       <c r="Q83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="R83" t="s">
         <v>53</v>
       </c>
       <c r="S83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D84" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>159155</v>
+        <v>176403</v>
       </c>
       <c r="I84" t="n">
-        <v>3.639</v>
+        <v>4.034</v>
       </c>
       <c r="J84" t="n">
-        <v>7586</v>
+        <v>9296</v>
       </c>
       <c r="K84" t="n">
-        <v>0.173</v>
+        <v>0.213</v>
       </c>
       <c r="L84" t="n">
-        <v>6465.333</v>
+        <v>8278</v>
       </c>
       <c r="M84" t="n">
-        <v>0.148</v>
+        <v>0.189</v>
       </c>
       <c r="N84" t="n">
-        <v>5801.429</v>
+        <v>6668.571</v>
       </c>
       <c r="O84" t="n">
-        <v>0.132</v>
+        <v>0.152</v>
       </c>
       <c r="P84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q84" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="R84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S84" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D85" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H85" t="n">
-        <v>1139626</v>
+        <v>1270408</v>
       </c>
       <c r="I85" t="n">
-        <v>16.787</v>
+        <v>18.714</v>
       </c>
       <c r="J85" t="n">
-        <v>65092</v>
+        <v>63339</v>
       </c>
       <c r="K85" t="n">
-        <v>0.959</v>
+        <v>0.933</v>
       </c>
       <c r="L85" t="n">
-        <v>63979</v>
+        <v>65291.333</v>
       </c>
       <c r="M85" t="n">
-        <v>0.943</v>
+        <v>0.962</v>
       </c>
       <c r="N85" t="n">
-        <v>64021.143</v>
+        <v>63153.143</v>
       </c>
       <c r="O85" t="n">
-        <v>0.943</v>
+        <v>0.93</v>
       </c>
       <c r="P85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q85" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R85" t="s">
         <v>94</v>
       </c>
       <c r="S85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D86" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E86" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86" t="n">
-        <v>1534533</v>
+        <v>1728443</v>
       </c>
       <c r="I86" t="n">
-        <v>22.605</v>
+        <v>25.461</v>
       </c>
       <c r="J86" t="n">
-        <v>86583</v>
+        <v>96878</v>
       </c>
       <c r="K86" t="n">
-        <v>1.275</v>
+        <v>1.427</v>
       </c>
       <c r="L86" t="n">
-        <v>80284</v>
+        <v>93496.667</v>
       </c>
       <c r="M86" t="n">
-        <v>1.182</v>
+        <v>1.377</v>
       </c>
       <c r="N86" t="n">
-        <v>90116.857</v>
+        <v>85205.857</v>
       </c>
       <c r="O86" t="n">
-        <v>1.327</v>
+        <v>1.255</v>
       </c>
       <c r="P86" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q86" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B87" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E87" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H87" t="n">
-        <v>8105513</v>
+        <v>8709630</v>
       </c>
       <c r="I87" t="n">
-        <v>24.488</v>
+        <v>26.313</v>
       </c>
       <c r="J87" t="n">
-        <v>318720</v>
+        <v>300842</v>
       </c>
       <c r="K87" t="n">
-        <v>0.963</v>
+        <v>0.909</v>
       </c>
       <c r="L87" t="n">
-        <v>273379.667</v>
+        <v>307612.333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.826</v>
+        <v>0.929</v>
       </c>
       <c r="N87" t="n">
-        <v>264249.143</v>
+        <v>272055.571</v>
       </c>
       <c r="O87" t="n">
-        <v>0.798</v>
+        <v>0.822</v>
       </c>
       <c r="P87" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="R87" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H88" t="n">
-        <v>629731</v>
+        <v>695283</v>
       </c>
       <c r="I88" t="n">
-        <v>1.902</v>
+        <v>2.101</v>
       </c>
       <c r="J88" t="n">
-        <v>23081</v>
+        <v>23633</v>
       </c>
       <c r="K88" t="n">
-        <v>0.07</v>
+        <v>0.071</v>
       </c>
       <c r="L88" t="n">
-        <v>23107</v>
+        <v>24423.333</v>
       </c>
       <c r="M88" t="n">
-        <v>0.07</v>
+        <v>0.074</v>
       </c>
       <c r="N88" t="n">
-        <v>20113.714</v>
+        <v>21015.714</v>
       </c>
       <c r="O88" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="P88" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q88" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="R88" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S88" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E89" t="s">
         <v>126</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H89" t="n">
-        <v>25698</v>
+        <v>27461</v>
       </c>
       <c r="I89" t="n">
-        <v>7.398</v>
+        <v>7.905</v>
       </c>
       <c r="J89" t="n">
-        <v>1042</v>
+        <v>623</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3</v>
+        <v>0.179</v>
       </c>
       <c r="L89" t="n">
-        <v>964.333</v>
+        <v>935</v>
       </c>
       <c r="M89" t="n">
-        <v>0.278</v>
+        <v>0.269</v>
       </c>
       <c r="N89" t="n">
-        <v>850.143</v>
+        <v>899.571</v>
       </c>
       <c r="O89" t="n">
-        <v>0.245</v>
+        <v>0.259</v>
       </c>
       <c r="P89" t="s">
         <v>126</v>
       </c>
       <c r="Q89" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
       </c>
       <c r="S89" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B90" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -7189,61 +7198,65 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q90" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R90" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B91" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D91" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E91" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
-        <v>7808</v>
+        <v>8741</v>
       </c>
       <c r="I91" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>0.588</v>
+      </c>
+      <c r="J91" t="n">
+        <v>600</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.04</v>
+      </c>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
       </c>
       <c r="S91" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/09-05-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/12-05-20-reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-9-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-12-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104642/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512173912/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509192849/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512173915/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-8-maya-vyzdoroveli-i-vypisany-5-tys-484-patsienta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-6-tys-974-patsienta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -225,7 +225,12 @@
     <t xml:space="preserve">The data is described both as the number of tests performed and as the number of tested patients.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is some ambiguity as to the units. The testing data are labelled as 'the number of tests performed'. But in the [codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) provided alongside the data the testing series is described as 'the number of tested patients'. The date of is the date of laboratory diagnosis, or when not available, the date of sampling is used.</t>
+    <t xml:space="preserve">Sciensano provides a daily time series of the number of tests conducted per day, which is updated retrospectively as new data becomes available each day.
+According to the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf), dates for new testing figures correspond to the date of laboratory diagnosis (or when not available, date of sampling). 
+It appears that the reported testing figures represent the number of people tested, but this is not entirely clear. The official website describes the testing dataset as the "Dataset of total number of tests performed by date", yet the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) defines the "tests" variable as the "number of tested patients".
+It is also unclear whether the testing figures include antigen tests in addition to PCR tests. In a communication on April 3rd 2020, Sciensano indicates that antigen tests made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
+Official figures reported in Sciensano's daily epidemiological bulletins do not help to clarify these ambiguities. For example, as of May 10th 2020, the [official time series dataset](https://epistat.sciensano.be/covid/covid19_historicaldata.html) reported a cumulative total of 465,201 tests performed between March 1st and May 9th. However, the epidemiological bulletin for [May 10th 2020](https://covid-19.sciensano.be/sites/default/files/Covid19/COVID-19_Daily%20report_20200510%20-%20FR.pdf) states that 325,796 cumulative tests had been performed by laboratories between the beginning of March and May 9th, while an additional 240,305 tests had been performed through the national testing platform (566,101 total tests).
+The bulletin indicates that these figures include both PCR and antigen tests, suggesting that the large discrepancy between the 465,201 figure and the 566,101 figure may be solely due to the fact that the official time series data only includes PCR tests, whereas the official bulletin figures include both PCR and antigen tests. However, it is also possible that the discrepancy is due solely to the fact that the official time series data is reported in terms of "people tested", whereas the bulletin figures represent "tests performed". We have been unable to find official documentation from Sciensano that resolves these ambiguities.</t>
   </si>
   <si>
     <t xml:space="preserve">BOL</t>
@@ -277,7 +282,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104647/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191641/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -300,7 +305,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104649/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191644/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -388,7 +393,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164031/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191650/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -448,7 +453,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-09052020-hu51</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-12052020-2-8ft5</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -475,7 +480,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08052020-08h0.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -504,7 +509,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:50pm local time on 2020-05-09.</t>
+    <t xml:space="preserve">updated at 11:38pm local time on 2020-05-11.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -541,7 +546,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-8_-ENG-V5.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release-May-12--ENG-V1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -669,7 +674,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200509/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200512/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -804,7 +809,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200509000642/http://irangov.ir/detail/338857</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200512153002/http://irangov.ir/detail/339131</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -823,7 +828,7 @@
     <t xml:space="preserve">Ireland - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/6f789f-statement-from-the-national-public-health-emergency-team-tuesday-5-m/</t>
+    <t xml:space="preserve">https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
@@ -924,7 +929,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628672.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000629555.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -958,7 +963,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1259109013435940866</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260187015213187073</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -999,7 +1004,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104952/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191746/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1015,7 +1020,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164113/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191747/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1036,7 +1041,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105003/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200511162631/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1091,7 +1096,8 @@
   <si>
     <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco). 
 The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. We have cross-checked a sample of the figures reported in the unofficial source against data reported on the Ministry of Health website.
-The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.</t>
+The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.
+Since 1 May 2020, the [government website dedicated to COVID-19](http://www.covidmaroc.ma/Pages/AccueilAR.aspx) has been down, making it impossible to update our time series.</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
@@ -1145,10 +1151,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200509_1018.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 9 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200512_1143.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 12 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1184,7 +1190,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508200455/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191905/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1204,7 +1210,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.08-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.12-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1229,7 +1235,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105025/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191910/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1295,7 +1301,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151163-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-65-015-en-el-peru-comunicado-n-95</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/152809-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-72-059-en-el-peru-comunicado-n-98</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1336,7 +1342,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.09.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.12.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1381,7 +1387,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105040/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191924/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1419,7 +1425,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14424</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14429</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1439,7 +1445,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259173285348204546</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259905287420608513</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1546,7 +1552,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105056/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191932/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1620,7 +1626,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367186&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367200&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1706,7 +1712,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EKvIxtZ0OwCUzeHXum1VBA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/jTbxMFGoCtXzAWcjhfQtaA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1729,7 +1735,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105142/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200511162830/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1776,7 +1782,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164243/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192345/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1800,13 +1806,13 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259006502502834181</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259934362721804290</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
+    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today. Samples tested today at the Uganda Virus Research Institute. (UVRI)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
@@ -1823,7 +1829,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105147/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192348/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1845,7 +1851,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164248/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192350/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1868,7 +1874,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164249/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192351/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1942,7 +1948,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-20</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-22</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1981,7 +1987,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258995561090502657</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260066306474356741</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2397,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2407,31 +2413,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>80729</v>
+        <v>87547</v>
       </c>
       <c r="I2" t="n">
-        <v>1.786</v>
+        <v>1.937</v>
       </c>
       <c r="J2" t="n">
-        <v>2828</v>
+        <v>2389</v>
       </c>
       <c r="K2" t="n">
-        <v>0.063</v>
+        <v>0.053</v>
       </c>
       <c r="L2" t="n">
-        <v>2804.667</v>
+        <v>2272.667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.062</v>
+        <v>0.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2409</v>
+        <v>2547</v>
       </c>
       <c r="O2" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2454,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2464,31 +2470,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>795456</v>
+        <v>877927</v>
       </c>
       <c r="I3" t="n">
-        <v>31.194</v>
+        <v>34.429</v>
       </c>
       <c r="J3" t="n">
-        <v>38206</v>
+        <v>22808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.498</v>
+        <v>0.894</v>
       </c>
       <c r="L3" t="n">
-        <v>35600</v>
+        <v>27490.333</v>
       </c>
       <c r="M3" t="n">
-        <v>1.396</v>
+        <v>1.078</v>
       </c>
       <c r="N3" t="n">
-        <v>26267.571</v>
+        <v>30453</v>
       </c>
       <c r="O3" t="n">
-        <v>1.03</v>
+        <v>1.194</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2511,7 +2517,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2521,31 +2527,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n">
-        <v>316508</v>
+        <v>329314</v>
       </c>
       <c r="I4" t="n">
-        <v>35.143</v>
+        <v>36.564</v>
       </c>
       <c r="J4" t="n">
-        <v>4818</v>
+        <v>9830</v>
       </c>
       <c r="K4" t="n">
-        <v>0.535</v>
+        <v>1.091</v>
       </c>
       <c r="L4" t="n">
-        <v>6204.667</v>
+        <v>5874.667</v>
       </c>
       <c r="M4" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6204.429</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.689</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6021.857</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.669</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2568,7 +2574,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2578,31 +2584,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
-        <v>178353</v>
+        <v>197898</v>
       </c>
       <c r="I5" t="n">
-        <v>104.816</v>
+        <v>116.302</v>
       </c>
       <c r="J5" t="n">
-        <v>6195</v>
+        <v>7118</v>
       </c>
       <c r="K5" t="n">
-        <v>3.641</v>
+        <v>4.183</v>
       </c>
       <c r="L5" t="n">
-        <v>6004</v>
+        <v>6515</v>
       </c>
       <c r="M5" t="n">
-        <v>3.529</v>
+        <v>3.829</v>
       </c>
       <c r="N5" t="n">
-        <v>5725</v>
+        <v>6056.714</v>
       </c>
       <c r="O5" t="n">
-        <v>3.365</v>
+        <v>3.559</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2625,7 +2631,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2635,31 +2641,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>116919</v>
+        <v>136638</v>
       </c>
       <c r="I6" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="J6" t="n">
-        <v>5465</v>
+        <v>6773</v>
       </c>
       <c r="K6" t="n">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
       <c r="L6" t="n">
-        <v>5758.333</v>
+        <v>6573</v>
       </c>
       <c r="M6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5836.143</v>
+        <v>6176.429</v>
       </c>
       <c r="O6" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2682,7 +2688,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2692,22 +2698,26 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>240146</v>
+        <v>284445</v>
       </c>
       <c r="I7" t="n">
-        <v>25.414</v>
+        <v>30.102</v>
       </c>
       <c r="J7" t="n">
-        <v>10680</v>
+        <v>10385</v>
       </c>
       <c r="K7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7"/>
+        <v>1.099</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10891.333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.153</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7" t="s">
@@ -2731,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2741,31 +2751,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>461303</v>
+        <v>487863</v>
       </c>
       <c r="I8" t="n">
-        <v>39.803</v>
+        <v>42.095</v>
       </c>
       <c r="J8" t="n">
-        <v>21311</v>
+        <v>10044</v>
       </c>
       <c r="K8" t="n">
-        <v>1.839</v>
+        <v>0.867</v>
       </c>
       <c r="L8" t="n">
-        <v>18816.667</v>
+        <v>16559.667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.624</v>
+        <v>1.429</v>
       </c>
       <c r="N8" t="n">
-        <v>17504.143</v>
+        <v>17648.143</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.523</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2788,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2800,31 +2810,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>8523</v>
+        <v>8917</v>
       </c>
       <c r="I9" t="n">
-        <v>0.73</v>
+        <v>0.764</v>
       </c>
       <c r="J9" t="n">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
       <c r="L9" t="n">
-        <v>183.667</v>
+        <v>188.333</v>
       </c>
       <c r="M9" t="n">
         <v>0.016</v>
       </c>
       <c r="N9" t="n">
-        <v>138.143</v>
+        <v>164.286</v>
       </c>
       <c r="O9" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2892,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2902,31 +2912,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>57231</v>
+        <v>58713</v>
       </c>
       <c r="I11" t="n">
-        <v>8.237</v>
+        <v>8.45</v>
       </c>
       <c r="J11" t="n">
-        <v>1126</v>
+        <v>1079</v>
       </c>
       <c r="K11" t="n">
-        <v>0.162</v>
+        <v>0.155</v>
       </c>
       <c r="L11" t="n">
-        <v>1433.333</v>
+        <v>869.333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.206</v>
+        <v>0.125</v>
       </c>
       <c r="N11" t="n">
-        <v>1230.429</v>
+        <v>1201.429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="P11" t="s">
         <v>86</v>
@@ -2949,7 +2959,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2959,25 +2969,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>1071379</v>
+        <v>1145683</v>
       </c>
       <c r="I12" t="n">
-        <v>28.387</v>
-      </c>
-      <c r="J12"/>
+        <v>30.356</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26733</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L12"/>
+        <v>0.708</v>
+      </c>
+      <c r="L12" t="n">
+        <v>26029.333</v>
+      </c>
       <c r="M12" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="N12"/>
+        <v>0.69</v>
+      </c>
+      <c r="N12" t="n">
+        <v>29302.286</v>
+      </c>
       <c r="O12" t="n">
-        <v>0.673</v>
+        <v>0.776</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3000,7 +3016,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3012,31 +3028,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H13" t="n">
-        <v>267904</v>
+        <v>303340</v>
       </c>
       <c r="I13" t="n">
-        <v>14.014</v>
+        <v>15.868</v>
       </c>
       <c r="J13" t="n">
-        <v>11943</v>
+        <v>9283</v>
       </c>
       <c r="K13" t="n">
-        <v>0.625</v>
+        <v>0.486</v>
       </c>
       <c r="L13" t="n">
-        <v>11932</v>
+        <v>11812</v>
       </c>
       <c r="M13" t="n">
-        <v>0.624</v>
+        <v>0.618</v>
       </c>
       <c r="N13" t="n">
-        <v>9786.286</v>
+        <v>11606.429</v>
       </c>
       <c r="O13" t="n">
-        <v>0.512</v>
+        <v>0.607</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3059,7 +3075,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3069,31 +3085,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" t="n">
-        <v>144912</v>
+        <v>158933</v>
       </c>
       <c r="I14" t="n">
-        <v>2.848</v>
+        <v>3.124</v>
       </c>
       <c r="J14" t="n">
-        <v>5173</v>
+        <v>7537</v>
       </c>
       <c r="K14" t="n">
-        <v>0.102</v>
+        <v>0.148</v>
       </c>
       <c r="L14" t="n">
-        <v>4600.667</v>
+        <v>6398</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09</v>
+        <v>0.126</v>
       </c>
       <c r="N14" t="n">
-        <v>4330</v>
+        <v>5129.143</v>
       </c>
       <c r="O14" t="n">
-        <v>0.085</v>
+        <v>0.101</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3116,7 +3132,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3126,31 +3142,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H15" t="n">
-        <v>11276</v>
+        <v>12061</v>
       </c>
       <c r="I15" t="n">
-        <v>2.214</v>
+        <v>2.368</v>
       </c>
       <c r="J15" t="n">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>0.088</v>
+        <v>0.014</v>
       </c>
       <c r="L15" t="n">
-        <v>391.667</v>
+        <v>261.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.077</v>
+        <v>0.051</v>
       </c>
       <c r="N15" t="n">
-        <v>240.429</v>
+        <v>309.857</v>
       </c>
       <c r="O15" t="n">
-        <v>0.047</v>
+        <v>0.061</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3173,7 +3189,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3183,31 +3199,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" t="n">
-        <v>44218</v>
+        <v>47480</v>
       </c>
       <c r="I16" t="n">
-        <v>10.771</v>
+        <v>11.566</v>
       </c>
       <c r="J16" t="n">
-        <v>840</v>
+        <v>1409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.205</v>
+        <v>0.343</v>
       </c>
       <c r="L16" t="n">
-        <v>1055</v>
+        <v>1087.333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.257</v>
+        <v>0.265</v>
       </c>
       <c r="N16" t="n">
-        <v>951.571</v>
+        <v>1072.429</v>
       </c>
       <c r="O16" t="n">
-        <v>0.232</v>
+        <v>0.261</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3230,7 +3246,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3242,31 +3258,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H17" t="n">
-        <v>65509</v>
+        <v>71157</v>
       </c>
       <c r="I17" t="n">
-        <v>5.784</v>
+        <v>6.282</v>
       </c>
       <c r="J17" t="n">
-        <v>1949</v>
+        <v>1975</v>
       </c>
       <c r="K17" t="n">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
       <c r="L17" t="n">
-        <v>1953.667</v>
+        <v>1882.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.172</v>
+        <v>0.166</v>
       </c>
       <c r="N17" t="n">
-        <v>2000.429</v>
+        <v>1920.857</v>
       </c>
       <c r="O17" t="n">
-        <v>0.176</v>
+        <v>0.169</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3289,7 +3305,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3299,31 +3315,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>302493</v>
+        <v>314138</v>
       </c>
       <c r="I18" t="n">
-        <v>28.247</v>
+        <v>29.334</v>
       </c>
       <c r="J18" t="n">
-        <v>3717</v>
+        <v>7537</v>
       </c>
       <c r="K18" t="n">
-        <v>0.347</v>
+        <v>0.704</v>
       </c>
       <c r="L18" t="n">
-        <v>5193.333</v>
+        <v>5120.667</v>
       </c>
       <c r="M18" t="n">
-        <v>0.485</v>
+        <v>0.478</v>
       </c>
       <c r="N18" t="n">
-        <v>6373.143</v>
+        <v>6433.571</v>
       </c>
       <c r="O18" t="n">
-        <v>0.595</v>
+        <v>0.601</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3346,7 +3362,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3358,31 +3374,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H19" t="n">
-        <v>308984</v>
+        <v>334260</v>
       </c>
       <c r="I19" t="n">
-        <v>53.345</v>
+        <v>57.709</v>
       </c>
       <c r="J19" t="n">
-        <v>10496</v>
+        <v>7700</v>
       </c>
       <c r="K19" t="n">
-        <v>1.812</v>
+        <v>1.329</v>
       </c>
       <c r="L19" t="n">
-        <v>12768</v>
+        <v>8425.333</v>
       </c>
       <c r="M19" t="n">
-        <v>2.204</v>
+        <v>1.455</v>
       </c>
       <c r="N19" t="n">
-        <v>12438.857</v>
+        <v>10931.714</v>
       </c>
       <c r="O19" t="n">
-        <v>2.147</v>
+        <v>1.887</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3405,7 +3421,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3417,22 +3433,32 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
-        <v>40630</v>
+        <v>46260</v>
       </c>
       <c r="I20" t="n">
-        <v>2.303</v>
-      </c>
-      <c r="J20"/>
+        <v>2.622</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2533</v>
+      </c>
       <c r="K20" t="n">
-        <v>-0.212</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+        <v>0.144</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3066.333</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2160.857</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.123</v>
+      </c>
       <c r="P20" t="s">
         <v>146</v>
       </c>
@@ -3454,7 +3480,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
@@ -3466,22 +3492,22 @@
         <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>39079</v>
+        <v>44926</v>
       </c>
       <c r="I21" t="n">
-        <v>6.025</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1773</v>
-      </c>
+        <v>6.926</v>
+      </c>
+      <c r="J21"/>
       <c r="K21" t="n">
-        <v>0.273</v>
+        <v>0.29</v>
       </c>
       <c r="L21"/>
-      <c r="M21"/>
+      <c r="M21" t="n">
+        <v>0.391</v>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
@@ -3505,7 +3531,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3515,31 +3541,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
-        <v>63372</v>
+        <v>64975</v>
       </c>
       <c r="I22" t="n">
-        <v>47.772</v>
+        <v>48.981</v>
       </c>
       <c r="J22" t="n">
-        <v>654</v>
+        <v>1018</v>
       </c>
       <c r="K22" t="n">
-        <v>0.493</v>
+        <v>0.767</v>
       </c>
       <c r="L22" t="n">
-        <v>961.333</v>
+        <v>753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.725</v>
+        <v>0.567</v>
       </c>
       <c r="N22" t="n">
-        <v>1170.714</v>
+        <v>1081.714</v>
       </c>
       <c r="O22" t="n">
-        <v>0.882</v>
+        <v>0.815</v>
       </c>
       <c r="P22" t="s">
         <v>160</v>
@@ -3562,7 +3588,7 @@
         <v>165</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
@@ -3572,19 +3598,19 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>30306</v>
+        <v>39048</v>
       </c>
       <c r="I23" t="n">
-        <v>0.264</v>
+        <v>0.34</v>
       </c>
       <c r="J23" t="n">
-        <v>1946</v>
+        <v>2424</v>
       </c>
       <c r="K23" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -3611,7 +3637,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -3621,25 +3647,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>119054</v>
+        <v>126327</v>
       </c>
       <c r="I24" t="n">
-        <v>21.487</v>
+        <v>22.8</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.116</v>
+        <v>0.069</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.433</v>
+        <v>0.243</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.388</v>
+        <v>0.432</v>
       </c>
       <c r="P24" t="s">
         <v>174</v>
@@ -3756,7 +3782,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -3766,16 +3792,20 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>149948</v>
+        <v>162184</v>
       </c>
       <c r="I27" t="n">
-        <v>4.826</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
+        <v>5.219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1683</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.054</v>
+      </c>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -3801,7 +3831,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3811,25 +3841,25 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" t="n">
-        <v>97384</v>
+        <v>106054</v>
       </c>
       <c r="I28" t="n">
-        <v>9.343</v>
+        <v>10.175</v>
       </c>
       <c r="J28" t="n">
-        <v>3093</v>
+        <v>6691</v>
       </c>
       <c r="K28" t="n">
-        <v>0.297</v>
+        <v>0.642</v>
       </c>
       <c r="L28" t="n">
-        <v>3444</v>
+        <v>2890</v>
       </c>
       <c r="M28" t="n">
-        <v>0.331</v>
+        <v>0.277</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -3899,7 +3929,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -3911,31 +3941,31 @@
         <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" t="n">
-        <v>108257</v>
+        <v>114719</v>
       </c>
       <c r="I30" t="n">
-        <v>11.206</v>
+        <v>11.875</v>
       </c>
       <c r="J30" t="n">
-        <v>4999</v>
+        <v>2554</v>
       </c>
       <c r="K30" t="n">
-        <v>0.517</v>
+        <v>0.264</v>
       </c>
       <c r="L30" t="n">
-        <v>4740.333</v>
+        <v>3820.333</v>
       </c>
       <c r="M30" t="n">
-        <v>0.491</v>
+        <v>0.395</v>
       </c>
       <c r="N30" t="n">
-        <v>3749.571</v>
+        <v>4166</v>
       </c>
       <c r="O30" t="n">
-        <v>0.388</v>
+        <v>0.431</v>
       </c>
       <c r="P30" t="s">
         <v>216</v>
@@ -3958,7 +3988,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
@@ -3968,31 +3998,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31" t="n">
-        <v>53219</v>
+        <v>54750</v>
       </c>
       <c r="I31" t="n">
-        <v>155.953</v>
+        <v>160.44</v>
       </c>
       <c r="J31" t="n">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="K31" t="n">
-        <v>1.509</v>
+        <v>1.694</v>
       </c>
       <c r="L31" t="n">
-        <v>532.333</v>
+        <v>510.333</v>
       </c>
       <c r="M31" t="n">
-        <v>1.56</v>
+        <v>1.496</v>
       </c>
       <c r="N31" t="n">
-        <v>465.429</v>
+        <v>492.286</v>
       </c>
       <c r="O31" t="n">
-        <v>1.364</v>
+        <v>1.443</v>
       </c>
       <c r="P31" t="s">
         <v>224</v>
@@ -4066,7 +4096,7 @@
         <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4078,31 +4108,31 @@
         <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H33" t="n">
-        <v>1609037</v>
+        <v>1759579</v>
       </c>
       <c r="I33" t="n">
-        <v>1.166</v>
+        <v>1.275</v>
       </c>
       <c r="J33" t="n">
-        <v>85824</v>
+        <v>85891</v>
       </c>
       <c r="K33" t="n">
         <v>0.062</v>
       </c>
       <c r="L33" t="n">
-        <v>83874.667</v>
+        <v>78788.667</v>
       </c>
       <c r="M33" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="N33" t="n">
-        <v>80369.571</v>
+        <v>81090.429</v>
       </c>
       <c r="O33" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
@@ -4125,7 +4155,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D34" t="s">
         <v>236</v>
@@ -4135,28 +4165,28 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H34" t="n">
-        <v>113452</v>
+        <v>119728</v>
       </c>
       <c r="I34" t="n">
-        <v>0.415</v>
+        <v>0.438</v>
       </c>
       <c r="J34" t="n">
-        <v>4753</v>
+        <v>3370</v>
       </c>
       <c r="K34" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="L34" t="n">
-        <v>5578.333</v>
+        <v>3676.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="N34" t="n">
-        <v>4348.571</v>
+        <v>4400.571</v>
       </c>
       <c r="O34" t="n">
         <v>0.016</v>
@@ -4182,7 +4212,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D35" t="s">
         <v>242</v>
@@ -4192,32 +4222,20 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n">
-        <v>558899</v>
+        <v>615477</v>
       </c>
       <c r="I35" t="n">
-        <v>6.654</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14107</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="L35" t="n">
-        <v>13118.667</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11982.286</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.143</v>
-      </c>
+        <v>7.328</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>243</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>247</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="D36" t="s">
         <v>248</v>
@@ -4249,13 +4267,13 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>214761</v>
+        <v>258808</v>
       </c>
       <c r="I36" t="n">
-        <v>43.493</v>
+        <v>52.414</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -4284,7 +4302,7 @@
         <v>253</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D37" t="s">
         <v>254</v>
@@ -4296,31 +4314,31 @@
         <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
-        <v>435790</v>
+        <v>462580</v>
       </c>
       <c r="I37" t="n">
-        <v>50.348</v>
+        <v>53.443</v>
       </c>
       <c r="J37" t="n">
-        <v>8876</v>
+        <v>8291</v>
       </c>
       <c r="K37" t="n">
-        <v>1.025</v>
+        <v>0.958</v>
       </c>
       <c r="L37" t="n">
-        <v>9003.333</v>
+        <v>5704</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>0.659</v>
       </c>
       <c r="N37" t="n">
-        <v>8844</v>
+        <v>7685.714</v>
       </c>
       <c r="O37" t="n">
-        <v>1.022</v>
+        <v>0.888</v>
       </c>
       <c r="P37" t="s">
         <v>43</v>
@@ -4343,7 +4361,7 @@
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D38" t="s">
         <v>261</v>
@@ -4355,31 +4373,31 @@
         <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H38" t="n">
-        <v>1645076</v>
+        <v>1741903</v>
       </c>
       <c r="I38" t="n">
-        <v>27.209</v>
+        <v>28.81</v>
       </c>
       <c r="J38" t="n">
-        <v>36091</v>
+        <v>39620</v>
       </c>
       <c r="K38" t="n">
-        <v>0.597</v>
+        <v>0.655</v>
       </c>
       <c r="L38" t="n">
-        <v>31728</v>
+        <v>32275.667</v>
       </c>
       <c r="M38" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="N38" t="n">
-        <v>30744.571</v>
+        <v>32826</v>
       </c>
       <c r="O38" t="n">
-        <v>0.508</v>
+        <v>0.543</v>
       </c>
       <c r="P38" t="s">
         <v>264</v>
@@ -4402,7 +4420,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D39" t="s">
         <v>261</v>
@@ -4414,31 +4432,31 @@
         <v>263</v>
       </c>
       <c r="G39" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H39" t="n">
-        <v>2514234</v>
+        <v>2673655</v>
       </c>
       <c r="I39" t="n">
-        <v>41.584</v>
+        <v>44.221</v>
       </c>
       <c r="J39" t="n">
-        <v>69171</v>
+        <v>67003</v>
       </c>
       <c r="K39" t="n">
-        <v>1.144</v>
+        <v>1.108</v>
       </c>
       <c r="L39" t="n">
-        <v>67768.333</v>
+        <v>53140.333</v>
       </c>
       <c r="M39" t="n">
-        <v>1.121</v>
+        <v>0.879</v>
       </c>
       <c r="N39" t="n">
-        <v>57913.857</v>
+        <v>60998.429</v>
       </c>
       <c r="O39" t="n">
-        <v>0.958</v>
+        <v>1.009</v>
       </c>
       <c r="P39" t="s">
         <v>264</v>
@@ -4461,7 +4479,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -4473,13 +4491,13 @@
         <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H40" t="n">
-        <v>211997</v>
+        <v>223649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.676</v>
+        <v>1.768</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4508,7 +4526,7 @@
         <v>276</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
@@ -4520,31 +4538,25 @@
         <v>278</v>
       </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H41" t="n">
-        <v>312728</v>
+        <v>333910</v>
       </c>
       <c r="I41" t="n">
-        <v>2.473</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6061</v>
-      </c>
+        <v>2.64</v>
+      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4768.667</v>
-      </c>
+        <v>0.026</v>
+      </c>
+      <c r="L41"/>
       <c r="M41" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5210.143</v>
-      </c>
+        <v>0.049</v>
+      </c>
+      <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="P41" t="s">
         <v>272</v>
@@ -4567,7 +4579,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D42" t="s">
         <v>282</v>
@@ -4577,31 +4589,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H42" t="n">
-        <v>385104</v>
+        <v>422011</v>
       </c>
       <c r="I42" t="n">
-        <v>20.51</v>
+        <v>22.475</v>
       </c>
       <c r="J42" t="n">
-        <v>13978</v>
+        <v>13298</v>
       </c>
       <c r="K42" t="n">
-        <v>0.744</v>
+        <v>0.708</v>
       </c>
       <c r="L42" t="n">
-        <v>16208</v>
+        <v>12302.333</v>
       </c>
       <c r="M42" t="n">
-        <v>0.863</v>
+        <v>0.655</v>
       </c>
       <c r="N42" t="n">
-        <v>14606</v>
+        <v>14514.286</v>
       </c>
       <c r="O42" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="P42" t="s">
         <v>283</v>
@@ -4624,7 +4636,7 @@
         <v>286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D43" t="s">
         <v>287</v>
@@ -4634,22 +4646,26 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43" t="n">
-        <v>31041</v>
+        <v>33916</v>
       </c>
       <c r="I43" t="n">
-        <v>0.577</v>
+        <v>0.631</v>
       </c>
       <c r="J43" t="n">
-        <v>1611</v>
+        <v>978</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L43"/>
-      <c r="M43"/>
+        <v>0.018</v>
+      </c>
+      <c r="L43" t="n">
+        <v>958.333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.018</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="s">
@@ -4673,7 +4689,7 @@
         <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D44" t="s">
         <v>294</v>
@@ -4685,25 +4701,31 @@
         <v>296</v>
       </c>
       <c r="G44" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" t="n">
-        <v>76592</v>
+        <v>79047</v>
       </c>
       <c r="I44" t="n">
-        <v>40.606</v>
-      </c>
-      <c r="J44"/>
+        <v>41.908</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1900</v>
+      </c>
       <c r="K44" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="L44"/>
+        <v>1.007</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1158.667</v>
+      </c>
       <c r="M44" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="N44"/>
+        <v>0.614</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1842.429</v>
+      </c>
       <c r="O44" t="n">
-        <v>0.935</v>
+        <v>0.977</v>
       </c>
       <c r="P44" t="s">
         <v>295</v>
@@ -4726,7 +4748,7 @@
         <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D45" t="s">
         <v>300</v>
@@ -4736,25 +4758,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H45" t="n">
-        <v>183913</v>
+        <v>192386</v>
       </c>
       <c r="I45" t="n">
-        <v>67.558</v>
-      </c>
-      <c r="J45"/>
+        <v>70.671</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5821</v>
+      </c>
       <c r="K45" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="L45"/>
+        <v>2.138</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4018</v>
+      </c>
       <c r="M45" t="n">
-        <v>2.427</v>
-      </c>
-      <c r="N45"/>
+        <v>1.476</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6182.857</v>
+      </c>
       <c r="O45" t="n">
-        <v>2.216</v>
+        <v>2.271</v>
       </c>
       <c r="P45" t="s">
         <v>43</v>
@@ -4777,7 +4805,7 @@
         <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D46" t="s">
         <v>305</v>
@@ -4787,31 +4815,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46" t="n">
-        <v>54463</v>
+        <v>56394</v>
       </c>
       <c r="I46" t="n">
-        <v>87.005</v>
+        <v>90.09</v>
       </c>
       <c r="J46" t="n">
-        <v>1206</v>
+        <v>979</v>
       </c>
       <c r="K46" t="n">
-        <v>1.927</v>
+        <v>1.564</v>
       </c>
       <c r="L46" t="n">
-        <v>1310</v>
+        <v>643.667</v>
       </c>
       <c r="M46" t="n">
-        <v>2.093</v>
+        <v>1.028</v>
       </c>
       <c r="N46" t="n">
-        <v>1000.429</v>
+        <v>1013.571</v>
       </c>
       <c r="O46" t="n">
-        <v>1.598</v>
+        <v>1.619</v>
       </c>
       <c r="P46" t="s">
         <v>306</v>
@@ -4834,7 +4862,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4844,16 +4872,20 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" t="n">
-        <v>256937</v>
+        <v>266048</v>
       </c>
       <c r="I47" t="n">
-        <v>7.938</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>8.22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9111</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.281</v>
+      </c>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -4879,7 +4911,7 @@
         <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D48" t="s">
         <v>318</v>
@@ -4889,13 +4921,13 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H48" t="n">
-        <v>107261</v>
+        <v>114125</v>
       </c>
       <c r="I48" t="n">
-        <v>0.832</v>
+        <v>0.885</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
@@ -4903,11 +4935,11 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="P48" t="s">
         <v>319</v>
@@ -4989,7 +5021,7 @@
         <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -5001,32 +5033,24 @@
         <v>332</v>
       </c>
       <c r="G50" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>10848</v>
+        <v>11822</v>
       </c>
       <c r="I50" t="n">
-        <v>0.199</v>
+        <v>0.217</v>
       </c>
       <c r="J50" t="n">
-        <v>582</v>
+        <v>340</v>
       </c>
       <c r="K50" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="L50" t="n">
-        <v>517.667</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N50" t="n">
-        <v>372.571</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.007</v>
-      </c>
+        <v>0.006</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
         <v>331</v>
       </c>
@@ -5048,7 +5072,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D51" t="s">
         <v>337</v>
@@ -5060,31 +5084,31 @@
         <v>339</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>16309</v>
+        <v>17809</v>
       </c>
       <c r="I51" t="n">
-        <v>0.56</v>
+        <v>0.611</v>
       </c>
       <c r="J51" t="n">
-        <v>817</v>
+        <v>911</v>
       </c>
       <c r="K51" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="L51" t="n">
-        <v>737.667</v>
+        <v>772.333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="N51" t="n">
-        <v>458.714</v>
+        <v>595.571</v>
       </c>
       <c r="O51" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
@@ -5107,7 +5131,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>
@@ -5117,26 +5141,22 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>254456</v>
+        <v>270351</v>
       </c>
       <c r="I52" t="n">
-        <v>14.85</v>
+        <v>15.778</v>
       </c>
       <c r="J52" t="n">
-        <v>4442</v>
+        <v>3192</v>
       </c>
       <c r="K52" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4035.667</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.235</v>
-      </c>
+        <v>0.186</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52" t="s">
@@ -5160,7 +5180,7 @@
         <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D53" t="s">
         <v>351</v>
@@ -5170,31 +5190,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H53" t="n">
-        <v>190326</v>
+        <v>197084</v>
       </c>
       <c r="I53" t="n">
-        <v>39.468</v>
+        <v>40.87</v>
       </c>
       <c r="J53" t="n">
-        <v>7287</v>
+        <v>2893</v>
       </c>
       <c r="K53" t="n">
-        <v>1.511</v>
+        <v>0.6</v>
       </c>
       <c r="L53" t="n">
-        <v>7434.333</v>
+        <v>4681.667</v>
       </c>
       <c r="M53" t="n">
-        <v>1.542</v>
+        <v>0.971</v>
       </c>
       <c r="N53" t="n">
-        <v>5729</v>
+        <v>5879.429</v>
       </c>
       <c r="O53" t="n">
-        <v>1.188</v>
+        <v>1.219</v>
       </c>
       <c r="P53" t="s">
         <v>352</v>
@@ -5217,7 +5237,7 @@
         <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D54" t="s">
         <v>356</v>
@@ -5227,26 +5247,22 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>23835</v>
+        <v>28418</v>
       </c>
       <c r="I54" t="n">
-        <v>0.116</v>
+        <v>0.138</v>
       </c>
       <c r="J54" t="n">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="K54" t="n">
         <v>0.007</v>
       </c>
-      <c r="L54" t="n">
-        <v>1441</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="L54"/>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
@@ -5270,7 +5286,7 @@
         <v>361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D55" t="s">
         <v>362</v>
@@ -5280,19 +5296,19 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
-        <v>195921</v>
+        <v>205239</v>
       </c>
       <c r="I55" t="n">
-        <v>36.14</v>
+        <v>37.858</v>
       </c>
       <c r="J55" t="n">
-        <v>3975</v>
+        <v>2488</v>
       </c>
       <c r="K55" t="n">
-        <v>0.733</v>
+        <v>0.459</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -5319,7 +5335,7 @@
         <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D56" t="s">
         <v>369</v>
@@ -5329,31 +5345,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H56" t="n">
-        <v>283517</v>
+        <v>305851</v>
       </c>
       <c r="I56" t="n">
-        <v>1.284</v>
+        <v>1.385</v>
       </c>
       <c r="J56" t="n">
-        <v>13492</v>
+        <v>10957</v>
       </c>
       <c r="K56" t="n">
-        <v>0.061</v>
+        <v>0.05</v>
       </c>
       <c r="L56" t="n">
-        <v>12913</v>
+        <v>11942</v>
       </c>
       <c r="M56" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="N56" t="n">
-        <v>11498.857</v>
+        <v>11921</v>
       </c>
       <c r="O56" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="P56" t="s">
         <v>370</v>
@@ -5376,7 +5392,7 @@
         <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="D57" t="s">
         <v>375</v>
@@ -5388,31 +5404,31 @@
         <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>41649</v>
+        <v>42657</v>
       </c>
       <c r="I57" t="n">
-        <v>9.653</v>
+        <v>9.886</v>
       </c>
       <c r="J57" t="n">
-        <v>1293</v>
+        <v>1008</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3</v>
+        <v>0.234</v>
       </c>
       <c r="L57" t="n">
-        <v>1211.667</v>
+        <v>1188</v>
       </c>
       <c r="M57" t="n">
-        <v>0.281</v>
+        <v>0.276</v>
       </c>
       <c r="N57" t="n">
-        <v>1185</v>
+        <v>1171.143</v>
       </c>
       <c r="O57" t="n">
-        <v>0.275</v>
+        <v>0.272</v>
       </c>
       <c r="P57" t="s">
         <v>43</v>
@@ -5494,7 +5510,7 @@
         <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D59" t="s">
         <v>389</v>
@@ -5504,16 +5520,20 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H59" t="n">
-        <v>494250</v>
+        <v>532169</v>
       </c>
       <c r="I59" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59"/>
+        <v>16.14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19300</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.585</v>
+      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -5539,7 +5559,7 @@
         <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D60" t="s">
         <v>396</v>
@@ -5549,26 +5569,18 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>136706</v>
+        <v>157850</v>
       </c>
       <c r="I60" t="n">
-        <v>1.248</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5216</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5731.333</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.053</v>
-      </c>
+        <v>1.44</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
@@ -5592,7 +5604,7 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -5604,31 +5616,31 @@
         <v>403</v>
       </c>
       <c r="G61" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H61" t="n">
-        <v>460686</v>
+        <v>507778</v>
       </c>
       <c r="I61" t="n">
-        <v>12.172</v>
+        <v>13.417</v>
       </c>
       <c r="J61" t="n">
-        <v>17180</v>
+        <v>16562</v>
       </c>
       <c r="K61" t="n">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="L61" t="n">
-        <v>16739.333</v>
+        <v>15697.333</v>
       </c>
       <c r="M61" t="n">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="N61" t="n">
-        <v>13524.714</v>
+        <v>16215.429</v>
       </c>
       <c r="O61" t="n">
-        <v>0.358</v>
+        <v>0.429</v>
       </c>
       <c r="P61" t="s">
         <v>404</v>
@@ -5651,7 +5663,7 @@
         <v>408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="D62" t="s">
         <v>409</v>
@@ -5661,31 +5673,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H62" t="n">
-        <v>485925</v>
+        <v>553855</v>
       </c>
       <c r="I62" t="n">
-        <v>47.655</v>
+        <v>54.317</v>
       </c>
       <c r="J62" t="n">
-        <v>15556</v>
+        <v>7472</v>
       </c>
       <c r="K62" t="n">
-        <v>1.526</v>
+        <v>0.733</v>
       </c>
       <c r="L62" t="n">
-        <v>11893.667</v>
+        <v>12041.667</v>
       </c>
       <c r="M62" t="n">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="N62" t="n">
-        <v>12837.714</v>
+        <v>13602</v>
       </c>
       <c r="O62" t="n">
-        <v>1.259</v>
+        <v>1.334</v>
       </c>
       <c r="P62" t="s">
         <v>410</v>
@@ -5708,7 +5720,7 @@
         <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D63" t="s">
         <v>415</v>
@@ -5718,31 +5730,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H63" t="n">
-        <v>127769</v>
+        <v>135294</v>
       </c>
       <c r="I63" t="n">
-        <v>44.348</v>
+        <v>46.96</v>
       </c>
       <c r="J63" t="n">
-        <v>3215</v>
+        <v>4250</v>
       </c>
       <c r="K63" t="n">
-        <v>1.116</v>
+        <v>1.475</v>
       </c>
       <c r="L63" t="n">
-        <v>3758</v>
+        <v>3580</v>
       </c>
       <c r="M63" t="n">
-        <v>1.305</v>
+        <v>1.243</v>
       </c>
       <c r="N63" t="n">
-        <v>3333.429</v>
+        <v>3647.429</v>
       </c>
       <c r="O63" t="n">
-        <v>1.157</v>
+        <v>1.266</v>
       </c>
       <c r="P63" t="s">
         <v>416</v>
@@ -5765,7 +5777,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D64" t="s">
         <v>421</v>
@@ -5777,31 +5789,31 @@
         <v>423</v>
       </c>
       <c r="G64" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H64" t="n">
-        <v>248056</v>
+        <v>269183</v>
       </c>
       <c r="I64" t="n">
-        <v>12.894</v>
+        <v>13.992</v>
       </c>
       <c r="J64" t="n">
-        <v>10776</v>
+        <v>6964</v>
       </c>
       <c r="K64" t="n">
-        <v>0.56</v>
+        <v>0.362</v>
       </c>
       <c r="L64" t="n">
-        <v>10305.667</v>
+        <v>7042.333</v>
       </c>
       <c r="M64" t="n">
-        <v>0.535</v>
+        <v>0.366</v>
       </c>
       <c r="N64" t="n">
-        <v>8216.571</v>
+        <v>9048.714</v>
       </c>
       <c r="O64" t="n">
-        <v>0.427</v>
+        <v>0.47</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
@@ -5824,7 +5836,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D65" t="s">
         <v>427</v>
@@ -5834,31 +5846,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H65" t="n">
-        <v>5448463</v>
+        <v>5805404</v>
       </c>
       <c r="I65" t="n">
-        <v>37.335</v>
+        <v>39.781</v>
       </c>
       <c r="J65" t="n">
-        <v>226499</v>
+        <v>168641</v>
       </c>
       <c r="K65" t="n">
-        <v>1.552</v>
+        <v>1.156</v>
       </c>
       <c r="L65" t="n">
-        <v>215090.333</v>
+        <v>194480</v>
       </c>
       <c r="M65" t="n">
-        <v>1.474</v>
+        <v>1.333</v>
       </c>
       <c r="N65" t="n">
-        <v>192637.714</v>
+        <v>192149.571</v>
       </c>
       <c r="O65" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="P65" t="s">
         <v>428</v>
@@ -5881,7 +5893,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D66" t="s">
         <v>433</v>
@@ -5891,31 +5903,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>41385</v>
+        <v>42805</v>
       </c>
       <c r="I66" t="n">
-        <v>3.195</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1198</v>
-      </c>
+        <v>3.305</v>
+      </c>
+      <c r="J66"/>
       <c r="K66" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1356.667</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="L66"/>
       <c r="M66" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1154.571</v>
-      </c>
+        <v>0.067</v>
+      </c>
+      <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.089</v>
+        <v>0.085</v>
       </c>
       <c r="P66" t="s">
         <v>434</v>
@@ -5938,7 +5944,7 @@
         <v>438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D67" t="s">
         <v>439</v>
@@ -5948,25 +5954,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>433500</v>
+        <v>482374</v>
       </c>
       <c r="I67" t="n">
-        <v>12.452</v>
+        <v>13.856</v>
       </c>
       <c r="J67" t="n">
-        <v>14778</v>
+        <v>15005</v>
       </c>
       <c r="K67" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="L67" t="n">
-        <v>14613.667</v>
+        <v>16291.333</v>
       </c>
       <c r="M67" t="n">
-        <v>0.419</v>
+        <v>0.468</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -5991,7 +5997,7 @@
         <v>442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D68" t="s">
         <v>443</v>
@@ -6003,31 +6009,31 @@
         <v>445</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H68" t="n">
-        <v>20217</v>
+        <v>23589</v>
       </c>
       <c r="I68" t="n">
-        <v>1.207</v>
+        <v>1.409</v>
       </c>
       <c r="J68" t="n">
-        <v>848</v>
+        <v>1099</v>
       </c>
       <c r="K68" t="n">
-        <v>0.051</v>
+        <v>0.066</v>
       </c>
       <c r="L68" t="n">
-        <v>915.667</v>
+        <v>1124</v>
       </c>
       <c r="M68" t="n">
-        <v>0.055</v>
+        <v>0.067</v>
       </c>
       <c r="N68" t="n">
-        <v>892.571</v>
+        <v>1043</v>
       </c>
       <c r="O68" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="P68" t="s">
         <v>446</v>
@@ -6050,7 +6056,7 @@
         <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D69" t="s">
         <v>452</v>
@@ -6062,31 +6068,31 @@
         <v>453</v>
       </c>
       <c r="G69" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H69" t="n">
-        <v>134533</v>
+        <v>151304</v>
       </c>
       <c r="I69" t="n">
-        <v>19.771</v>
+        <v>22.236</v>
       </c>
       <c r="J69" t="n">
-        <v>5728</v>
+        <v>5700</v>
       </c>
       <c r="K69" t="n">
-        <v>0.842</v>
+        <v>0.838</v>
       </c>
       <c r="L69" t="n">
-        <v>5686.333</v>
+        <v>5590.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.836</v>
+        <v>0.822</v>
       </c>
       <c r="N69" t="n">
-        <v>5413.714</v>
+        <v>5718</v>
       </c>
       <c r="O69" t="n">
-        <v>0.796</v>
+        <v>0.84</v>
       </c>
       <c r="P69" t="s">
         <v>43</v>
@@ -6199,7 +6205,7 @@
         <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D72" t="s">
         <v>466</v>
@@ -6209,25 +6215,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H72" t="n">
-        <v>119859</v>
+        <v>122708</v>
       </c>
       <c r="I72" t="n">
-        <v>21.954</v>
-      </c>
-      <c r="J72"/>
+        <v>22.475</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2063</v>
+      </c>
       <c r="K72" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="L72"/>
+        <v>0.378</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1445.667</v>
+      </c>
       <c r="M72" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="N72"/>
+        <v>0.265</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3263.429</v>
+      </c>
       <c r="O72" t="n">
-        <v>0.619</v>
+        <v>0.598</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
@@ -6250,7 +6262,7 @@
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
@@ -6260,31 +6272,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H73" t="n">
-        <v>62828</v>
+        <v>64547</v>
       </c>
       <c r="I73" t="n">
-        <v>30.221</v>
+        <v>31.048</v>
       </c>
       <c r="J73" t="n">
-        <v>625</v>
+        <v>1182</v>
       </c>
       <c r="K73" t="n">
-        <v>0.301</v>
+        <v>0.569</v>
       </c>
       <c r="L73" t="n">
-        <v>950</v>
+        <v>781.333</v>
       </c>
       <c r="M73" t="n">
-        <v>0.457</v>
+        <v>0.376</v>
       </c>
       <c r="N73" t="n">
-        <v>1044</v>
+        <v>1010.429</v>
       </c>
       <c r="O73" t="n">
-        <v>0.502</v>
+        <v>0.486</v>
       </c>
       <c r="P73" t="s">
         <v>476</v>
@@ -6307,7 +6319,7 @@
         <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D74" t="s">
         <v>481</v>
@@ -6319,31 +6331,31 @@
         <v>483</v>
       </c>
       <c r="G74" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>324079</v>
+        <v>369697</v>
       </c>
       <c r="I74" t="n">
-        <v>5.464</v>
+        <v>6.233</v>
       </c>
       <c r="J74" t="n">
-        <v>16327</v>
+        <v>13630</v>
       </c>
       <c r="K74" t="n">
-        <v>0.275</v>
+        <v>0.23</v>
       </c>
       <c r="L74" t="n">
-        <v>14900</v>
+        <v>15206</v>
       </c>
       <c r="M74" t="n">
-        <v>0.251</v>
+        <v>0.256</v>
       </c>
       <c r="N74" t="n">
-        <v>13341.857</v>
+        <v>14519</v>
       </c>
       <c r="O74" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
@@ -6366,7 +6378,7 @@
         <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D75" t="s">
         <v>488</v>
@@ -6376,31 +6388,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H75" t="n">
-        <v>663886</v>
+        <v>680890</v>
       </c>
       <c r="I75" t="n">
-        <v>12.949</v>
+        <v>13.281</v>
       </c>
       <c r="J75" t="n">
-        <v>3856</v>
+        <v>12398</v>
       </c>
       <c r="K75" t="n">
-        <v>0.075</v>
+        <v>0.242</v>
       </c>
       <c r="L75" t="n">
-        <v>4832.667</v>
+        <v>6953.333</v>
       </c>
       <c r="M75" t="n">
-        <v>0.094</v>
+        <v>0.136</v>
       </c>
       <c r="N75" t="n">
-        <v>4701.857</v>
+        <v>5807.571</v>
       </c>
       <c r="O75" t="n">
-        <v>0.092</v>
+        <v>0.113</v>
       </c>
       <c r="P75" t="s">
         <v>489</v>
@@ -6470,7 +6482,7 @@
         <v>501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="D77" t="s">
         <v>502</v>
@@ -6480,13 +6492,13 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" t="n">
-        <v>148500</v>
+        <v>177500</v>
       </c>
       <c r="I77" t="n">
-        <v>14.704</v>
+        <v>17.576</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -6515,7 +6527,7 @@
         <v>506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D78" t="s">
         <v>507</v>
@@ -6525,25 +6537,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H78" t="n">
-        <v>309595</v>
+        <v>316851</v>
       </c>
       <c r="I78" t="n">
-        <v>35.772</v>
-      </c>
-      <c r="J78"/>
+        <v>36.611</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2501</v>
+      </c>
       <c r="K78" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="L78"/>
+        <v>0.289</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2350.333</v>
+      </c>
       <c r="M78" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="N78"/>
+        <v>0.272</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3884.143</v>
+      </c>
       <c r="O78" t="n">
-        <v>0.434</v>
+        <v>0.449</v>
       </c>
       <c r="P78" t="s">
         <v>508</v>
@@ -6566,7 +6584,7 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D79" t="s">
         <v>513</v>
@@ -6576,31 +6594,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H79" t="n">
-        <v>67133</v>
+        <v>67758</v>
       </c>
       <c r="I79" t="n">
-        <v>2.819</v>
+        <v>2.845</v>
       </c>
       <c r="J79" t="n">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="K79" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="L79" t="n">
-        <v>362.333</v>
+        <v>299</v>
       </c>
       <c r="M79" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="N79" t="n">
-        <v>434.143</v>
+        <v>400</v>
       </c>
       <c r="O79" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="P79" t="s">
         <v>514</v>
@@ -6623,7 +6641,7 @@
         <v>519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D80" t="s">
         <v>520</v>
@@ -6633,25 +6651,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H80" t="n">
-        <v>97177</v>
+        <v>103858</v>
       </c>
       <c r="I80" t="n">
-        <v>1.392</v>
-      </c>
-      <c r="J80"/>
+        <v>1.488</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3454</v>
+      </c>
       <c r="K80" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="L80"/>
+        <v>0.049</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3404.667</v>
+      </c>
       <c r="M80" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="N80"/>
+        <v>0.049</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3584.286</v>
+      </c>
       <c r="O80" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="P80" t="s">
         <v>522</v>
@@ -6674,7 +6698,7 @@
         <v>526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D81" t="s">
         <v>527</v>
@@ -6684,18 +6708,22 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H81" t="n">
-        <v>27420</v>
+        <v>33266</v>
       </c>
       <c r="I81" t="n">
-        <v>2.32</v>
+        <v>2.815</v>
       </c>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" t="n">
+        <v>0.038</v>
+      </c>
       <c r="L81"/>
-      <c r="M81"/>
+      <c r="M81" t="n">
+        <v>0.165</v>
+      </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
@@ -6719,7 +6747,7 @@
         <v>533</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D82" t="s">
         <v>534</v>
@@ -6729,28 +6757,32 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H82" t="n">
-        <v>1334411</v>
+        <v>1440671</v>
       </c>
       <c r="I82" t="n">
-        <v>15.822</v>
+        <v>17.082</v>
       </c>
       <c r="J82" t="n">
-        <v>35605</v>
+        <v>37351</v>
       </c>
       <c r="K82" t="n">
-        <v>0.422</v>
+        <v>0.443</v>
       </c>
       <c r="L82" t="n">
-        <v>33229</v>
+        <v>35420</v>
       </c>
       <c r="M82" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>0.42</v>
+      </c>
+      <c r="N82" t="n">
+        <v>33750</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P82" t="s">
         <v>535</v>
       </c>
@@ -6772,7 +6804,7 @@
         <v>540</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D83" t="s">
         <v>541</v>
@@ -6784,31 +6816,31 @@
         <v>543</v>
       </c>
       <c r="G83" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H83" t="n">
-        <v>55203</v>
+        <v>62461</v>
       </c>
       <c r="I83" t="n">
-        <v>1.207</v>
+        <v>1.366</v>
       </c>
       <c r="J83" t="n">
-        <v>3161</v>
+        <v>2854</v>
       </c>
       <c r="K83" t="n">
-        <v>0.069</v>
+        <v>0.062</v>
       </c>
       <c r="L83" t="n">
-        <v>3493</v>
+        <v>2419.333</v>
       </c>
       <c r="M83" t="n">
-        <v>0.076</v>
+        <v>0.053</v>
       </c>
       <c r="N83" t="n">
-        <v>2967.286</v>
+        <v>2909.857</v>
       </c>
       <c r="O83" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="P83" t="s">
         <v>542</v>
@@ -6831,7 +6863,7 @@
         <v>547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D84" t="s">
         <v>548</v>
@@ -6841,31 +6873,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H84" t="n">
-        <v>176403</v>
+        <v>187307</v>
       </c>
       <c r="I84" t="n">
-        <v>4.034</v>
+        <v>4.283</v>
       </c>
       <c r="J84" t="n">
-        <v>9296</v>
+        <v>5755</v>
       </c>
       <c r="K84" t="n">
-        <v>0.213</v>
+        <v>0.132</v>
       </c>
       <c r="L84" t="n">
-        <v>8278</v>
+        <v>6733.333</v>
       </c>
       <c r="M84" t="n">
-        <v>0.189</v>
+        <v>0.154</v>
       </c>
       <c r="N84" t="n">
-        <v>6668.571</v>
+        <v>6792.571</v>
       </c>
       <c r="O84" t="n">
-        <v>0.152</v>
+        <v>0.155</v>
       </c>
       <c r="P84" t="s">
         <v>549</v>
@@ -6888,7 +6920,7 @@
         <v>554</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D85" t="s">
         <v>555</v>
@@ -6898,31 +6930,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H85" t="n">
-        <v>1270408</v>
+        <v>1460517</v>
       </c>
       <c r="I85" t="n">
-        <v>18.714</v>
+        <v>21.514</v>
       </c>
       <c r="J85" t="n">
-        <v>63339</v>
+        <v>60410</v>
       </c>
       <c r="K85" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L85" t="n">
+        <v>63369.667</v>
+      </c>
+      <c r="M85" t="n">
         <v>0.933</v>
       </c>
-      <c r="L85" t="n">
-        <v>65291.333</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.962</v>
-      </c>
       <c r="N85" t="n">
-        <v>63153.143</v>
+        <v>63284.143</v>
       </c>
       <c r="O85" t="n">
-        <v>0.93</v>
+        <v>0.932</v>
       </c>
       <c r="P85" t="s">
         <v>556</v>
@@ -6945,7 +6977,7 @@
         <v>559</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D86" t="s">
         <v>560</v>
@@ -6955,31 +6987,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H86" t="n">
-        <v>1728443</v>
+        <v>2007146</v>
       </c>
       <c r="I86" t="n">
-        <v>25.461</v>
+        <v>29.566</v>
       </c>
       <c r="J86" t="n">
-        <v>96878</v>
+        <v>85293</v>
       </c>
       <c r="K86" t="n">
-        <v>1.427</v>
+        <v>1.256</v>
       </c>
       <c r="L86" t="n">
-        <v>93496.667</v>
+        <v>92873.333</v>
       </c>
       <c r="M86" t="n">
-        <v>1.377</v>
+        <v>1.368</v>
       </c>
       <c r="N86" t="n">
-        <v>85205.857</v>
+        <v>89796.143</v>
       </c>
       <c r="O86" t="n">
-        <v>1.255</v>
+        <v>1.323</v>
       </c>
       <c r="P86" t="s">
         <v>556</v>
@@ -7002,7 +7034,7 @@
         <v>564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D87" t="s">
         <v>565</v>
@@ -7012,31 +7044,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H87" t="n">
-        <v>8709630</v>
+        <v>9348458</v>
       </c>
       <c r="I87" t="n">
-        <v>26.313</v>
+        <v>28.243</v>
       </c>
       <c r="J87" t="n">
-        <v>300842</v>
+        <v>388296</v>
       </c>
       <c r="K87" t="n">
-        <v>0.909</v>
+        <v>1.173</v>
       </c>
       <c r="L87" t="n">
-        <v>307612.333</v>
+        <v>319484</v>
       </c>
       <c r="M87" t="n">
-        <v>0.929</v>
+        <v>0.965</v>
       </c>
       <c r="N87" t="n">
-        <v>272055.571</v>
+        <v>294726.286</v>
       </c>
       <c r="O87" t="n">
-        <v>0.822</v>
+        <v>0.891</v>
       </c>
       <c r="P87" t="s">
         <v>566</v>
@@ -7059,7 +7091,7 @@
         <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43952</v>
+        <v>43962</v>
       </c>
       <c r="D88" t="s">
         <v>571</v>
@@ -7069,31 +7101,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H88" t="n">
-        <v>695283</v>
+        <v>824957</v>
       </c>
       <c r="I88" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>23633</v>
-      </c>
+        <v>2.492</v>
+      </c>
+      <c r="J88"/>
       <c r="K88" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="L88" t="n">
-        <v>24423.333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L88"/>
       <c r="M88" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="N88" t="n">
-        <v>21015.714</v>
-      </c>
+        <v>0.004</v>
+      </c>
+      <c r="N88"/>
       <c r="O88" t="n">
-        <v>0.063</v>
+        <v>0.036</v>
       </c>
       <c r="P88" t="s">
         <v>573</v>
@@ -7116,7 +7142,7 @@
         <v>578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D89" t="s">
         <v>579</v>
@@ -7126,31 +7152,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89" t="n">
-        <v>27461</v>
+        <v>28697</v>
       </c>
       <c r="I89" t="n">
-        <v>7.905</v>
+        <v>8.261</v>
       </c>
       <c r="J89" t="n">
-        <v>623</v>
+        <v>1236</v>
       </c>
       <c r="K89" t="n">
-        <v>0.179</v>
+        <v>0.356</v>
       </c>
       <c r="L89" t="n">
-        <v>935</v>
+        <v>999.667</v>
       </c>
       <c r="M89" t="n">
-        <v>0.269</v>
+        <v>0.288</v>
       </c>
       <c r="N89" t="n">
-        <v>899.571</v>
+        <v>965.429</v>
       </c>
       <c r="O89" t="n">
-        <v>0.259</v>
+        <v>0.278</v>
       </c>
       <c r="P89" t="s">
         <v>126</v>
@@ -7218,7 +7244,7 @@
         <v>590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D91" t="s">
         <v>591</v>
@@ -7228,22 +7254,26 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>8741</v>
+        <v>10598</v>
       </c>
       <c r="I91" t="n">
-        <v>0.588</v>
+        <v>0.713</v>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L91"/>
-      <c r="M91"/>
+        <v>0.049</v>
+      </c>
+      <c r="L91" t="n">
+        <v>619</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.042</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/12-05-20-reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/14-05-20_reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-12-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-14-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512173912/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114502/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512173915/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195100/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-6-tys-974-patsienta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-13-maya-vyzdoroveli-i-vypisany-7711-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191641/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114507/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191644/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114509/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191650/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195110/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-12052020-2-8ft5</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-13052020-xrpt</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -477,10 +477,10 @@
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecuador - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
+    <t xml:space="preserve">Ecuador - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-13052020-08h00-2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -490,11 +490,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/informes-de-situacion-covid-19-desde-el-13-de-marzo-del-2020/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units unclear.</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18th March; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29th February.
 The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.
-On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.</t>
+On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.
+On 11 May 2020, the Government of Ecuador published a [report](https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/BP-VARIACIONES-INFOGRAFIA-No.-074-11052020.pdf) detailing "a reclassification of the records by identity card of the persons and not by the number of tests that have been carried out" (via google translate). This suggests the government is moving towards reporting figures on the number of people tested, where previously they reported the number of cases tested. The reclassification partially explains the fall in the cumulative total after 4 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">SLV</t>
@@ -509,7 +513,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 11:38pm local time on 2020-05-11.</t>
+    <t xml:space="preserve">updated at 11:55pm local time on 2020-05-13.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -546,7 +550,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release-May-12--ENG-V1.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release-May-14--ENG-V2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -612,13 +616,13 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-06-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-13-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested. When the test numbers for week 17 were collected, more tests (467,137) and positive tests (25,222) were originally accidentally counted (management report dated April 29, 2020). The numbers were corrected on 4.5.2020</t>
+    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.rki.de/SiteGlobals/Forms/Suche/serviceSucheForm.html?nn=2725444&amp;input_=2375194&amp;gts=2725442_list%253DdateOfIssue_dt%252Bdesc&amp;resourceId=2390936&amp;submit.x=0&amp;submit.y=0&amp;searchEngineQueryString=T%C3%A4glicher+Lagebericht+des+RKI+zur+Coronavirus-Krankheit-2019&amp;pageLocale=de</t>
@@ -628,14 +632,17 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 22 April states that “from the beginning of the collection up to and including calendar week 16/2020”:
-– The cumulative total of samples tested was 2,072,669;
-- For calendar week 16 (which ends on 19 April), 161 labs reported 323,449 samples tested;
-- For calendar week 15 (which ends on 12 April), 160 labs reported 378,881 samples tested;
-– For calendar week 14 (which ends on 5 April), 152 labs reported 408,173 samples tested;
-– For calendar week 13 (which ends on 29 March), 150 labs reported 361,374 samples tested;
-– For calendar week 12 (which ends on 22 March), 152 labs reported 348619 samples tested;
-– For calendar week 11 (which ends on 15 March), 114 labs reported 127457 samples tested.
+The report published on 13 May states that “from the beginning of the collection up to and including calendar week 19/2020”:
+– The cumulative total of samples tested was 3,147,771;
+- For calendar week 19 (which ends 10 May), 173 labs reported 382,154 samples tested;
+- For calendar week 18 (which ends on 3 May), 174 labs reported 325,259 samples tested;
+- For calendar week 17 (which ends on 26 April), 176 labs reported 360,443 samples tested;
+- For calendar week 16 (which ends on 19 April), 167 labs reported 330,027 samples tested;
+- For calendar week 15 (which ends on 12 April), 163 labs reported 379,233 samples tested;
+– For calendar week 14 (which ends on 5 April), 154 labs reported 408,348 samples tested;
+– For calendar week 13 (which ends on 29 March), 151 labs reported 361,515 samples tested;
+– For calendar week 12 (which ends on 22 March), 152 labs reported 348,619 samples tested;
+– For calendar week 11 (which ends on 15 March), 114 labs reported 127,457 samples tested.
 – Up to and including calendar week 10 (which ends on 8 March), 90 labs reported 124,716 samples tested.
 By subtracting each weekly change from the cumulative total, we retrospectively work out the cumulative totals by the end of each week.
 Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.</t>
@@ -644,7 +651,7 @@
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghana - units unclear</t>
+    <t xml:space="preserve">Ghana - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/archive.php</t>
@@ -653,6 +660,9 @@
     <t xml:space="preserve">Outbreak Response Management Situation Update</t>
   </si>
   <si>
+    <t xml:space="preserve">persons tested</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outbreak Response Management</t>
   </si>
   <si>
@@ -662,10 +672,15 @@
     <t xml:space="preserve">The units are unclear. Some press releases mention "people tested", while others give figures for "samples tested".</t>
   </si>
   <si>
-    <t xml:space="preserve">Outbreak Response Management provides daily situation updates on the total number of people or total samples tested for the coronavirus.
-Using web archives, we reconstruct a time series. Situation updates report the total number of people tested from 28th March, then the total number of samples tested from 18th April. However, the figures given from one period to the other seem to line up correctly, thus we are not certain what the true units are.
-On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data. 
-We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provides a breakdown of the total number of tests.</t>
+    <t xml:space="preserve">Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of people *or* total samples tested for the coronavirus.
+Using web archives, we reconstruct a time series. From 17 March 2020 to 8 May 2020, situation updates sometimes reported the total number of people tested, and other times the total number of samples tested. We are not certain what the true units were during that period.
+From 10 May 2020, the total number of tests and total persons tested figures are reported separately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of tests</t>
   </si>
   <si>
     <t xml:space="preserve">GRC</t>
@@ -674,7 +689,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200512/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200514/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -809,7 +824,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200512153002/http://irangov.ir/detail/339131</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200514153044/http://irangov.ir/detail/339254</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -929,13 +944,13 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000629555.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000630536.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
   </si>
   <si>
-    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy.
+    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
@@ -963,7 +978,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260187015213187073</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260910471336558593</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1004,7 +1019,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191746/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114607/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1020,7 +1035,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191747/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195210/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1151,10 +1166,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200512_1143.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 12 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200514_1017.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 14 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1190,7 +1205,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191905/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195322/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1210,7 +1225,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.12-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/globalassets/dokumenterfiler/2020.05.14-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1235,7 +1250,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191910/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114643/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1301,7 +1316,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/152809-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-72-059-en-el-peru-comunicado-n-98</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/154047-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-76-306-en-el-peru-comunicado-n-99</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1328,6 +1343,9 @@
   </si>
   <si>
     <t xml:space="preserve">Department of Health (DOH) Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total individuals tested does not sum to positive + negative + equivocal + invalid individuals, as in past figures of the series.</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health (MOH) provides a daily snapshot of testing capacity detailing the total number of individuals tested and the total number of tests conducted. 
@@ -1342,7 +1360,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.12.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.14.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1387,7 +1405,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191924/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114650/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1425,7 +1443,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14429</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14453</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1445,7 +1463,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259905287420608513</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1260629955991474176</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1527,7 +1545,7 @@
     <t xml:space="preserve">Singapore - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180155/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200513190204/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
@@ -1540,7 +1558,7 @@
     <t xml:space="preserve">Singapore - swabs tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180157/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200513190206/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">The number of swabs tested.</t>
@@ -1552,7 +1570,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191932/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114707/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1626,7 +1644,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367200&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367212&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1712,7 +1730,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/jTbxMFGoCtXzAWcjhfQtaA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/OvDC54yxv84UUOCVHJsS7A?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1735,7 +1753,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200511162830/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195427/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1747,9 +1765,29 @@
     <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/eng/situation.php</t>
   </si>
   <si>
-    <t xml:space="preserve">The Thailand Department of Disease Control issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
-We provide the figures reported as 'persons under investigation' (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
-We have received communication from Thailand's Ministry of Health (MOH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. Daily figures are currently being consolidated by the MOH. At the moment, this "non-PUI" group is not reflected in our current figures.</t>
+    <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
+We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
+We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
+The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) also reports COVID-19 testing figures in daily situation reports. These figures are substantially larger than the DDC figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-05-12-tha-sitrep-79-covid-19-final.pdf?sfvrsn=31ce1b98_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization Country Office for Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.who.int/thailand/emergencies/novel-coronavirus-2019/situation-reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) provides daily COVID-19 situation reports that periodically report the cumulative number of samples tested to date.
+The reported figures include PCR tests only. It is unclear whether pending test results are included. 
+The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) are drawn from only 121 of 142 public and private laboratories certified for PCR testing.
+The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative since sometime in January or February 2020, but the situation reports do not state an exact date.
+The [Thailand Department of Disease Control (DDC)](https://ddc.moph.go.th/viralpneumonia/eng/situation.php) also reports COVID-19 testing figures in daily situation reports, which are reflected in the reported number of "persons under investigation" (PUI). These figures are substantially smaller than the WHO Thailand figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, we have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who do not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand and is not included in the DDC figures. In contrast, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
   </si>
   <si>
     <t xml:space="preserve">TUN</t>
@@ -1782,7 +1820,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192345/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195432/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1806,7 +1844,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259934362721804290</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1260676203427618821</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1819,8 +1857,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Office of the Director General publishes a daily press release detailing the cumulative number of samples tested to date, on the [MOH official twitter account](https://twitter.com/MinofHealthUG). The earliest press release that lists the cumulative total is 6th April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin. 
-After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals.
-We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day.</t>
+After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. 
+For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals. From the 5th May, we rely on the figures reported by the MOH official twitter account and check figures against press releases where they have been made available by the MOH.  
+We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day. However, the cumulative totals diverge from the 29th April.</t>
   </si>
   <si>
     <t xml:space="preserve">UKR</t>
@@ -1829,7 +1868,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192348/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114802/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1851,7 +1890,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192350/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195434/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1874,7 +1913,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192351/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200514195436/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1918,28 +1957,22 @@
 The Project documents their work in lots of detail. See the link provided above for full details.</t>
   </si>
   <si>
-    <t xml:space="preserve">United States - specimens tested (CDC)</t>
+    <t xml:space="preserve">United States - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200514114805/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States CDC</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
   </si>
   <si>
-    <t xml:space="preserve">United States CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Ftesting-in-us.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of specimens tested in public labs only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to CDCs labs, the figures include specimens tested at public health labs in 49 states, New York City, Puerto Rico, USAF, and 15 California Counties.
-As such the figures do not include private lab tests, which are occurring in significant numbers.2
-Daily figures are provided since 18 January. CDC suggest that figures within 7 days of the update “are incomplete because of the lag in time between when specimens are accessioned, testing is performed, and results are reported”. As such we only provide figures after this 7 day cut off.
-The CDC documents very well what is and is not included in its published testing figures. See the source linked to above for more details.</t>
+    <t xml:space="preserve">On 13 May 2020, the United States CDC's viral testing data was modified to include viral tests performed by commercial, hospital, public health, and CDC laboratories. This new data is available on the [Viral Testing Data in the US](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) page and [CDC COVID Data Tracker](https://www.cdc.gov/covid-data-tracker/index.html).
+No time series is published for this new version of the data. We therefore started collecting on 13 May 2020 the cumulative total of viral tests reported, which is updated daily.
+The CDC makes it clear that "data are provisional and subject to change. The data presented are aggregate data reported to CDC from state health departments and territorial jurisdictions and might not represent the most current counts for the most recent 3 days due the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites) and therefore reflect the majority, but not all, of COVID-19 testing being conducted in the United States. If a state did not report laboratory data for a specific day, or if data reported by states are incomplete, data presented reflect what is reported on the state health department website or laboratory testing data reported to the Department of Health and Human Services."
+The CDC previously published a time series that only covered public health labs and did not include private lab tests, which were occurring in significant numbers. Daily figures were provided since 18 January. This data is still visible on [this page of the CDC website](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/previous-testing-in-us.html).</t>
   </si>
   <si>
     <t xml:space="preserve">URY</t>
@@ -1948,7 +1981,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-22</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-24</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1987,7 +2020,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260066306474356741</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260794875378794496</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2403,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2413,31 +2446,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>87547</v>
+        <v>93673</v>
       </c>
       <c r="I2" t="n">
-        <v>1.937</v>
+        <v>2.073</v>
       </c>
       <c r="J2" t="n">
-        <v>2389</v>
+        <v>3199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.053</v>
+        <v>0.071</v>
       </c>
       <c r="L2" t="n">
-        <v>2272.667</v>
+        <v>2838.333</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05</v>
+        <v>0.063</v>
       </c>
       <c r="N2" t="n">
-        <v>2547</v>
+        <v>2639.286</v>
       </c>
       <c r="O2" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2460,7 +2493,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2470,31 +2503,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>877927</v>
+        <v>943480</v>
       </c>
       <c r="I3" t="n">
-        <v>34.429</v>
+        <v>36.999</v>
       </c>
       <c r="J3" t="n">
-        <v>22808</v>
+        <v>34455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.894</v>
+        <v>1.351</v>
       </c>
       <c r="L3" t="n">
-        <v>27490.333</v>
+        <v>29453.667</v>
       </c>
       <c r="M3" t="n">
-        <v>1.078</v>
+        <v>1.155</v>
       </c>
       <c r="N3" t="n">
-        <v>30453</v>
+        <v>31561.571</v>
       </c>
       <c r="O3" t="n">
-        <v>1.194</v>
+        <v>1.238</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2517,7 +2550,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2527,31 +2560,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>329314</v>
+        <v>344606</v>
       </c>
       <c r="I4" t="n">
-        <v>36.564</v>
+        <v>38.262</v>
       </c>
       <c r="J4" t="n">
-        <v>9830</v>
+        <v>8354</v>
       </c>
       <c r="K4" t="n">
-        <v>1.091</v>
+        <v>0.928</v>
       </c>
       <c r="L4" t="n">
-        <v>5874.667</v>
+        <v>8374</v>
       </c>
       <c r="M4" t="n">
-        <v>0.652</v>
+        <v>0.93</v>
       </c>
       <c r="N4" t="n">
-        <v>6204.429</v>
+        <v>6673.143</v>
       </c>
       <c r="O4" t="n">
-        <v>0.689</v>
+        <v>0.741</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2574,7 +2607,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2584,31 +2617,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>197898</v>
+        <v>211127</v>
       </c>
       <c r="I5" t="n">
-        <v>116.302</v>
+        <v>124.077</v>
       </c>
       <c r="J5" t="n">
-        <v>7118</v>
+        <v>5557</v>
       </c>
       <c r="K5" t="n">
-        <v>4.183</v>
+        <v>3.266</v>
       </c>
       <c r="L5" t="n">
-        <v>6515</v>
+        <v>6782.333</v>
       </c>
       <c r="M5" t="n">
-        <v>3.829</v>
+        <v>3.986</v>
       </c>
       <c r="N5" t="n">
-        <v>6056.714</v>
+        <v>6392.714</v>
       </c>
       <c r="O5" t="n">
-        <v>3.559</v>
+        <v>3.757</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2631,7 +2664,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2641,31 +2674,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
-        <v>136638</v>
+        <v>151930</v>
       </c>
       <c r="I6" t="n">
-        <v>0.83</v>
+        <v>0.923</v>
       </c>
       <c r="J6" t="n">
-        <v>6773</v>
+        <v>7392</v>
       </c>
       <c r="K6" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="L6" t="n">
-        <v>6573</v>
+        <v>7355</v>
       </c>
       <c r="M6" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6631.286</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6176.429</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.038</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2688,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2701,22 +2734,22 @@
         <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>284445</v>
+        <v>296380</v>
       </c>
       <c r="I7" t="n">
-        <v>30.102</v>
+        <v>31.365</v>
       </c>
       <c r="J7" t="n">
-        <v>10385</v>
+        <v>11935</v>
       </c>
       <c r="K7" t="n">
-        <v>1.099</v>
+        <v>1.263</v>
       </c>
       <c r="L7" t="n">
-        <v>10891.333</v>
+        <v>10945.667</v>
       </c>
       <c r="M7" t="n">
-        <v>1.153</v>
+        <v>1.158</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -2741,7 +2774,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2751,31 +2784,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
-        <v>487863</v>
+        <v>508697</v>
       </c>
       <c r="I8" t="n">
-        <v>42.095</v>
+        <v>43.892</v>
       </c>
       <c r="J8" t="n">
-        <v>10044</v>
+        <v>13937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.867</v>
+        <v>1.203</v>
       </c>
       <c r="L8" t="n">
-        <v>16559.667</v>
+        <v>10658.333</v>
       </c>
       <c r="M8" t="n">
-        <v>1.429</v>
+        <v>0.92</v>
       </c>
       <c r="N8" t="n">
-        <v>17648.143</v>
+        <v>15352.286</v>
       </c>
       <c r="O8" t="n">
-        <v>1.523</v>
+        <v>1.325</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2798,7 +2831,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2810,31 +2843,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
-        <v>8917</v>
+        <v>9234</v>
       </c>
       <c r="I9" t="n">
-        <v>0.764</v>
+        <v>0.791</v>
       </c>
       <c r="J9" t="n">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="K9" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="L9" t="n">
-        <v>188.333</v>
+        <v>197.333</v>
       </c>
       <c r="M9" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>180.286</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.016</v>
-      </c>
-      <c r="N9" t="n">
-        <v>164.286</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.014</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2902,7 +2935,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2912,31 +2945,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>58713</v>
+        <v>61711</v>
       </c>
       <c r="I11" t="n">
-        <v>8.45</v>
+        <v>8.881</v>
       </c>
       <c r="J11" t="n">
-        <v>1079</v>
+        <v>1611</v>
       </c>
       <c r="K11" t="n">
-        <v>0.155</v>
+        <v>0.232</v>
       </c>
       <c r="L11" t="n">
-        <v>869.333</v>
+        <v>1359</v>
       </c>
       <c r="M11" t="n">
-        <v>0.125</v>
+        <v>0.196</v>
       </c>
       <c r="N11" t="n">
-        <v>1201.429</v>
+        <v>1254.286</v>
       </c>
       <c r="O11" t="n">
-        <v>0.173</v>
+        <v>0.181</v>
       </c>
       <c r="P11" t="s">
         <v>86</v>
@@ -2959,7 +2992,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2969,31 +3002,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" t="n">
-        <v>1145683</v>
+        <v>1172796</v>
       </c>
       <c r="I12" t="n">
-        <v>30.356</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26733</v>
-      </c>
+        <v>31.074</v>
+      </c>
+      <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26029.333</v>
-      </c>
+        <v>0.091</v>
+      </c>
+      <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="N12" t="n">
-        <v>29302.286</v>
-      </c>
+        <v>0.476</v>
+      </c>
+      <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.776</v>
+        <v>0.647</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3016,7 +3043,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3028,28 +3055,28 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" t="n">
-        <v>303340</v>
+        <v>325417</v>
       </c>
       <c r="I13" t="n">
-        <v>15.868</v>
+        <v>17.023</v>
       </c>
       <c r="J13" t="n">
-        <v>9283</v>
+        <v>11667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.486</v>
+        <v>0.61</v>
       </c>
       <c r="L13" t="n">
-        <v>11812</v>
+        <v>10453.333</v>
       </c>
       <c r="M13" t="n">
-        <v>0.618</v>
+        <v>0.547</v>
       </c>
       <c r="N13" t="n">
-        <v>11606.429</v>
+        <v>11598.714</v>
       </c>
       <c r="O13" t="n">
         <v>0.607</v>
@@ -3075,7 +3102,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3085,31 +3112,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" t="n">
-        <v>158933</v>
+        <v>171799</v>
       </c>
       <c r="I14" t="n">
-        <v>3.124</v>
+        <v>3.376</v>
       </c>
       <c r="J14" t="n">
-        <v>7537</v>
+        <v>6061</v>
       </c>
       <c r="K14" t="n">
-        <v>0.148</v>
+        <v>0.119</v>
       </c>
       <c r="L14" t="n">
-        <v>6398</v>
+        <v>6801</v>
       </c>
       <c r="M14" t="n">
-        <v>0.126</v>
+        <v>0.134</v>
       </c>
       <c r="N14" t="n">
-        <v>5129.143</v>
+        <v>5812.714</v>
       </c>
       <c r="O14" t="n">
-        <v>0.101</v>
+        <v>0.114</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3132,7 +3159,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3142,31 +3169,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" t="n">
-        <v>12061</v>
+        <v>12822</v>
       </c>
       <c r="I15" t="n">
-        <v>2.368</v>
+        <v>2.517</v>
       </c>
       <c r="J15" t="n">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>0.014</v>
+        <v>0.062</v>
       </c>
       <c r="L15" t="n">
-        <v>261.667</v>
+        <v>278</v>
       </c>
       <c r="M15" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="N15" t="n">
-        <v>309.857</v>
+        <v>349.571</v>
       </c>
       <c r="O15" t="n">
-        <v>0.061</v>
+        <v>0.069</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3189,7 +3216,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3199,31 +3226,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
-        <v>47480</v>
+        <v>50340</v>
       </c>
       <c r="I16" t="n">
-        <v>11.566</v>
+        <v>12.262</v>
       </c>
       <c r="J16" t="n">
-        <v>1409</v>
+        <v>1603</v>
       </c>
       <c r="K16" t="n">
-        <v>0.343</v>
+        <v>0.39</v>
       </c>
       <c r="L16" t="n">
-        <v>1087.333</v>
+        <v>1423</v>
       </c>
       <c r="M16" t="n">
-        <v>0.265</v>
+        <v>0.346</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.429</v>
+        <v>1200.286</v>
       </c>
       <c r="O16" t="n">
-        <v>0.261</v>
+        <v>0.292</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3246,7 +3273,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3258,31 +3285,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" t="n">
-        <v>71157</v>
+        <v>75142</v>
       </c>
       <c r="I17" t="n">
-        <v>6.282</v>
+        <v>6.634</v>
       </c>
       <c r="J17" t="n">
-        <v>1975</v>
+        <v>2013</v>
       </c>
       <c r="K17" t="n">
-        <v>0.174</v>
+        <v>0.178</v>
       </c>
       <c r="L17" t="n">
-        <v>1882.667</v>
+        <v>1986.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
       <c r="N17" t="n">
-        <v>1920.857</v>
+        <v>1932.714</v>
       </c>
       <c r="O17" t="n">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3305,7 +3332,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3315,31 +3342,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" t="n">
-        <v>314138</v>
+        <v>334714</v>
       </c>
       <c r="I18" t="n">
-        <v>29.334</v>
+        <v>31.255</v>
       </c>
       <c r="J18" t="n">
-        <v>7537</v>
+        <v>7360</v>
       </c>
       <c r="K18" t="n">
-        <v>0.704</v>
+        <v>0.687</v>
       </c>
       <c r="L18" t="n">
-        <v>5120.667</v>
+        <v>7948</v>
       </c>
       <c r="M18" t="n">
-        <v>0.478</v>
+        <v>0.742</v>
       </c>
       <c r="N18" t="n">
-        <v>6433.571</v>
+        <v>6225.429</v>
       </c>
       <c r="O18" t="n">
-        <v>0.601</v>
+        <v>0.581</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3362,7 +3389,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3374,31 +3401,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" t="n">
-        <v>334260</v>
+        <v>345712</v>
       </c>
       <c r="I19" t="n">
-        <v>57.709</v>
+        <v>59.686</v>
       </c>
       <c r="J19" t="n">
-        <v>7700</v>
+        <v>11452</v>
       </c>
       <c r="K19" t="n">
-        <v>1.329</v>
+        <v>1.977</v>
       </c>
       <c r="L19" t="n">
-        <v>8425.333</v>
+        <v>9292.667</v>
       </c>
       <c r="M19" t="n">
-        <v>1.455</v>
+        <v>1.604</v>
       </c>
       <c r="N19" t="n">
-        <v>10931.714</v>
+        <v>10718.857</v>
       </c>
       <c r="O19" t="n">
-        <v>1.887</v>
+        <v>1.851</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3421,7 +3448,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43955</v>
+        <v>43964</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3433,32 +3460,20 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H20" t="n">
-        <v>46260</v>
+        <v>44285</v>
       </c>
       <c r="I20" t="n">
-        <v>2.622</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3066.333</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2160.857</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.123</v>
-      </c>
+        <v>2.51</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
       <c r="P20" t="s">
         <v>146</v>
       </c>
@@ -3466,238 +3481,246 @@
         <v>148</v>
       </c>
       <c r="R20" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="S20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>44926</v>
+        <v>48913</v>
       </c>
       <c r="I21" t="n">
-        <v>6.926</v>
-      </c>
-      <c r="J21"/>
+        <v>7.541</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2082</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L21"/>
+        <v>0.321</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1956.667</v>
+      </c>
       <c r="M21" t="n">
-        <v>0.391</v>
+        <v>0.302</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" t="s">
         <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>152</v>
       </c>
       <c r="R21" t="s">
         <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" t="n">
-        <v>64975</v>
+        <v>67130</v>
       </c>
       <c r="I22" t="n">
-        <v>48.981</v>
+        <v>50.605</v>
       </c>
       <c r="J22" t="n">
-        <v>1018</v>
+        <v>1044</v>
       </c>
       <c r="K22" t="n">
-        <v>0.767</v>
+        <v>0.787</v>
       </c>
       <c r="L22" t="n">
-        <v>753</v>
+        <v>1061.333</v>
       </c>
       <c r="M22" t="n">
-        <v>0.567</v>
+        <v>0.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1081.714</v>
+        <v>950.143</v>
       </c>
       <c r="O22" t="n">
-        <v>0.815</v>
+        <v>0.716</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>39048</v>
+        <v>45278</v>
       </c>
       <c r="I23" t="n">
-        <v>0.34</v>
+        <v>0.394</v>
       </c>
       <c r="J23" t="n">
-        <v>2424</v>
+        <v>3589</v>
       </c>
       <c r="K23" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23"/>
+        <v>0.031</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2884.667</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.025</v>
+      </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R23" t="s">
         <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" t="n">
-        <v>126327</v>
+        <v>136878</v>
       </c>
       <c r="I24" t="n">
-        <v>22.8</v>
+        <v>24.704</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.069</v>
+        <v>0.215</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.243</v>
+        <v>0.42</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.432</v>
+        <v>0.471</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R24" t="s">
         <v>53</v>
       </c>
       <c r="S24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3715,45 +3738,45 @@
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R25" t="s">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>2755770</v>
+        <v>3147771</v>
       </c>
       <c r="I26" t="n">
-        <v>32.891</v>
+        <v>37.57</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3762,810 +3785,818 @@
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27"/>
+        <v>195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>162184</v>
+        <v>164452</v>
       </c>
       <c r="I27" t="n">
-        <v>5.219</v>
+        <v>5.292</v>
       </c>
       <c r="J27" t="n">
-        <v>1683</v>
+        <v>3249</v>
       </c>
       <c r="K27" t="n">
-        <v>0.054</v>
+        <v>0.105</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
         <v>202</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>106054</v>
+        <v>165433</v>
       </c>
       <c r="I28" t="n">
-        <v>10.175</v>
+        <v>5.324</v>
       </c>
       <c r="J28" t="n">
-        <v>6691</v>
+        <v>3249</v>
       </c>
       <c r="K28" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2890</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.277</v>
-      </c>
+        <v>0.105</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q28" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R28" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="S28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
         <v>206</v>
-      </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" t="s">
-        <v>209</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H29" t="n">
-        <v>168291</v>
+        <v>116233</v>
       </c>
       <c r="I29" t="n">
-        <v>22.448</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
+        <v>11.152</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4191</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5623.333</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3741.429</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.359</v>
+      </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>183491</v>
+      </c>
+      <c r="I30" t="n">
+        <v>24.475</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" t="s">
         <v>215</v>
       </c>
-      <c r="E30" t="s">
+      <c r="R30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" t="s">
         <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" t="n">
-        <v>68</v>
-      </c>
-      <c r="H30" t="n">
-        <v>114719</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.875</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2554</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3820.333</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4166</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="P30" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>218</v>
-      </c>
-      <c r="R30" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" t="s">
         <v>221</v>
       </c>
-      <c r="B31" t="s">
+      <c r="G31" t="n">
+        <v>70</v>
+      </c>
+      <c r="H31" t="n">
+        <v>123258</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12.759</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4758</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3697.667</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4174.571</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="P31" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="R31" t="s">
         <v>223</v>
       </c>
-      <c r="E31" t="s">
+      <c r="S31" t="s">
         <v>224</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" t="n">
-        <v>75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>54750</v>
-      </c>
-      <c r="I31" t="n">
-        <v>160.44</v>
-      </c>
-      <c r="J31" t="n">
-        <v>578</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.694</v>
-      </c>
-      <c r="L31" t="n">
-        <v>510.333</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="N31" t="n">
-        <v>492.286</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="P31" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>223</v>
-      </c>
-      <c r="R31" t="s">
-        <v>225</v>
-      </c>
-      <c r="S31" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D32" t="s">
         <v>227</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32"/>
+      <c r="G32" t="n">
+        <v>77</v>
+      </c>
+      <c r="H32" t="n">
+        <v>55585</v>
+      </c>
+      <c r="I32" t="n">
+        <v>162.886</v>
+      </c>
+      <c r="J32" t="n">
+        <v>551</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="L32" t="n">
+        <v>471</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N32" t="n">
+        <v>477.571</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>227</v>
+      </c>
+      <c r="R32" t="s">
         <v>229</v>
       </c>
-      <c r="E32" t="s">
+      <c r="S32" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" t="n">
-        <v>24</v>
-      </c>
-      <c r="H32" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J32" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>229</v>
-      </c>
-      <c r="R32" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>43945</v>
+      </c>
+      <c r="D33" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D33" t="s">
-        <v>229</v>
-      </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
-        <v>1759579</v>
+        <v>525667</v>
       </c>
       <c r="I33" t="n">
-        <v>1.275</v>
+        <v>0.381</v>
       </c>
       <c r="J33" t="n">
-        <v>85891</v>
+        <v>40495</v>
       </c>
       <c r="K33" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="L33" t="n">
-        <v>78788.667</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="N33" t="n">
-        <v>81090.429</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.059</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q33" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="S33" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" t="s">
         <v>234</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G34" t="n">
+        <v>51</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1947041</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="J34" t="n">
+        <v>92791</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="L34" t="n">
+        <v>91117.667</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="N34" t="n">
+        <v>84232.571</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="P34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>233</v>
+      </c>
+      <c r="R34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" t="s">
         <v>236</v>
-      </c>
-      <c r="E34" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" t="n">
-        <v>53</v>
-      </c>
-      <c r="H34" t="n">
-        <v>119728</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3370</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3676.333</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4400.571</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="P34" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>238</v>
-      </c>
-      <c r="R34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S34" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D35" t="s">
         <v>240</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>241</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D35" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" t="s">
-        <v>243</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H35" t="n">
-        <v>615477</v>
+        <v>127813</v>
       </c>
       <c r="I35" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>0.467</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4241</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3818.333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4442.286</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.016</v>
+      </c>
       <c r="P35" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>242</v>
+      </c>
+      <c r="R35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s">
         <v>243</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>244</v>
-      </c>
-      <c r="R35" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D36" t="s">
         <v>246</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>247</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D36" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" t="s">
-        <v>209</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>258808</v>
+        <v>643772</v>
       </c>
       <c r="I36" t="n">
-        <v>52.414</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>7.665</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14238</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.17</v>
+      </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="Q36" t="s">
+        <v>248</v>
+      </c>
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" t="s">
         <v>249</v>
-      </c>
-      <c r="R36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D37" t="s">
         <v>252</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>258808</v>
+      </c>
+      <c r="I37" t="n">
+        <v>52.414</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="R37" t="s">
         <v>254</v>
       </c>
-      <c r="E37" t="s">
+      <c r="S37" t="s">
         <v>255</v>
-      </c>
-      <c r="F37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" t="n">
-        <v>81</v>
-      </c>
-      <c r="H37" t="n">
-        <v>462580</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53.443</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8291</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5704</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7685.714</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="P37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>257</v>
-      </c>
-      <c r="R37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
         <v>259</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="n">
+        <v>83</v>
+      </c>
+      <c r="H38" t="n">
+        <v>478106</v>
+      </c>
+      <c r="I38" t="n">
+        <v>55.237</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7130</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7935</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7273.857</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="P38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" t="s">
         <v>261</v>
       </c>
-      <c r="E38" t="s">
+      <c r="R38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" t="s">
         <v>262</v>
-      </c>
-      <c r="F38" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" t="n">
-        <v>24</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1741903</v>
-      </c>
-      <c r="I38" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="J38" t="n">
-        <v>39620</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="L38" t="n">
-        <v>32275.667</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="N38" t="n">
-        <v>32826</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="P38" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>265</v>
-      </c>
-      <c r="R38" t="s">
-        <v>94</v>
-      </c>
-      <c r="S38" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" t="s">
-        <v>263</v>
-      </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H39" t="n">
-        <v>2673655</v>
+        <v>1820083</v>
       </c>
       <c r="I39" t="n">
-        <v>44.221</v>
+        <v>30.103</v>
       </c>
       <c r="J39" t="n">
-        <v>67003</v>
+        <v>41131</v>
       </c>
       <c r="K39" t="n">
-        <v>1.108</v>
+        <v>0.68</v>
       </c>
       <c r="L39" t="n">
-        <v>53140.333</v>
+        <v>39266.667</v>
       </c>
       <c r="M39" t="n">
-        <v>0.879</v>
+        <v>0.649</v>
       </c>
       <c r="N39" t="n">
-        <v>60998.429</v>
+        <v>36646.571</v>
       </c>
       <c r="O39" t="n">
-        <v>1.009</v>
+        <v>0.606</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q39" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="R39" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" t="n">
+        <v>81</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2807504</v>
+      </c>
+      <c r="I40" t="n">
+        <v>46.434</v>
+      </c>
+      <c r="J40" t="n">
+        <v>71876</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.189</v>
+      </c>
+      <c r="L40" t="n">
+        <v>66950.667</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="N40" t="n">
+        <v>60888</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="P40" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q40" t="s">
         <v>269</v>
       </c>
-      <c r="B40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" t="s">
         <v>272</v>
-      </c>
-      <c r="F40" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" t="n">
-        <v>76</v>
-      </c>
-      <c r="H40" t="n">
-        <v>223649</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>274</v>
-      </c>
-      <c r="R40" t="s">
-        <v>94</v>
-      </c>
-      <c r="S40" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>277</v>
       </c>
-      <c r="E41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="n">
+        <v>77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>223667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" t="s">
         <v>278</v>
       </c>
-      <c r="G41" t="n">
-        <v>83</v>
-      </c>
-      <c r="H41" t="n">
-        <v>333910</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="L41"/>
-      <c r="M41" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N41"/>
-      <c r="O41" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="P41" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>274</v>
-      </c>
       <c r="R41" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S41" t="s">
         <v>279</v>
@@ -4573,1572 +4604,1614 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" t="s">
         <v>280</v>
-      </c>
-      <c r="B42" t="s">
-        <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" t="s">
         <v>282</v>
       </c>
-      <c r="E42" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42"/>
       <c r="G42" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H42" t="n">
-        <v>422011</v>
+        <v>345916</v>
       </c>
       <c r="I42" t="n">
-        <v>22.475</v>
+        <v>2.735</v>
       </c>
       <c r="J42" t="n">
-        <v>13298</v>
+        <v>6843</v>
       </c>
       <c r="K42" t="n">
-        <v>0.708</v>
+        <v>0.054</v>
       </c>
       <c r="L42" t="n">
-        <v>12302.333</v>
+        <v>5106.667</v>
       </c>
       <c r="M42" t="n">
-        <v>0.655</v>
+        <v>0.04</v>
       </c>
       <c r="N42" t="n">
-        <v>14514.286</v>
+        <v>6075.429</v>
       </c>
       <c r="O42" t="n">
-        <v>0.773</v>
+        <v>0.048</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q42" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="R42" t="s">
         <v>24</v>
       </c>
       <c r="S42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s">
         <v>285</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D43" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>287</v>
-      </c>
-      <c r="E43" t="s">
-        <v>288</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H43" t="n">
-        <v>33916</v>
+        <v>459736</v>
       </c>
       <c r="I43" t="n">
-        <v>0.631</v>
+        <v>24.484</v>
       </c>
       <c r="J43" t="n">
-        <v>978</v>
+        <v>20241</v>
       </c>
       <c r="K43" t="n">
-        <v>0.018</v>
+        <v>1.078</v>
       </c>
       <c r="L43" t="n">
-        <v>958.333</v>
+        <v>17007.667</v>
       </c>
       <c r="M43" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
+        <v>0.906</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15127.571</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.806</v>
+      </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="Q43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R43" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="S43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" t="s">
         <v>292</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44"/>
+      <c r="G44" t="n">
+        <v>46</v>
+      </c>
+      <c r="H44" t="n">
+        <v>36918</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1486</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1326.667</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="R44" t="s">
         <v>294</v>
       </c>
-      <c r="E44" t="s">
+      <c r="S44" t="s">
         <v>295</v>
-      </c>
-      <c r="F44" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" t="n">
-        <v>74</v>
-      </c>
-      <c r="H44" t="n">
-        <v>79047</v>
-      </c>
-      <c r="I44" t="n">
-        <v>41.908</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1900</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1158.667</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1842.429</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="P44" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>294</v>
-      </c>
-      <c r="R44" t="s">
-        <v>24</v>
-      </c>
-      <c r="S44" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D45" t="s">
         <v>298</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>299</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>300</v>
       </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45"/>
       <c r="G45" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H45" t="n">
-        <v>192386</v>
+        <v>83275</v>
       </c>
       <c r="I45" t="n">
-        <v>70.671</v>
+        <v>44.15</v>
       </c>
       <c r="J45" t="n">
-        <v>5821</v>
+        <v>2029</v>
       </c>
       <c r="K45" t="n">
-        <v>2.138</v>
+        <v>1.076</v>
       </c>
       <c r="L45" t="n">
-        <v>4018</v>
+        <v>2042.667</v>
       </c>
       <c r="M45" t="n">
-        <v>1.476</v>
+        <v>1.083</v>
       </c>
       <c r="N45" t="n">
-        <v>6182.857</v>
+        <v>1743.714</v>
       </c>
       <c r="O45" t="n">
-        <v>2.271</v>
+        <v>0.924</v>
       </c>
       <c r="P45" t="s">
-        <v>43</v>
+        <v>299</v>
       </c>
       <c r="Q45" t="s">
+        <v>298</v>
+      </c>
+      <c r="R45" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" t="s">
         <v>301</v>
-      </c>
-      <c r="R45" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D46" t="s">
         <v>304</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D46" t="s">
-        <v>305</v>
-      </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H46" t="n">
-        <v>56394</v>
+        <v>208253</v>
       </c>
       <c r="I46" t="n">
-        <v>90.09</v>
+        <v>76.499</v>
       </c>
       <c r="J46" t="n">
-        <v>979</v>
+        <v>7989</v>
       </c>
       <c r="K46" t="n">
-        <v>1.564</v>
+        <v>2.935</v>
       </c>
       <c r="L46" t="n">
-        <v>643.667</v>
+        <v>7229.333</v>
       </c>
       <c r="M46" t="n">
-        <v>1.028</v>
+        <v>2.656</v>
       </c>
       <c r="N46" t="n">
-        <v>1013.571</v>
+        <v>6309.286</v>
       </c>
       <c r="O46" t="n">
-        <v>1.619</v>
+        <v>2.318</v>
       </c>
       <c r="P46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>305</v>
+      </c>
+      <c r="R46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S46" t="s">
         <v>306</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>307</v>
-      </c>
-      <c r="R46" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D47" t="s">
         <v>309</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>310</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D47" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" t="s">
-        <v>312</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H47" t="n">
-        <v>266048</v>
+        <v>58727</v>
       </c>
       <c r="I47" t="n">
-        <v>8.22</v>
+        <v>93.817</v>
       </c>
       <c r="J47" t="n">
-        <v>9111</v>
+        <v>1040</v>
       </c>
       <c r="K47" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
+        <v>1.661</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1104</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="N47" t="n">
+        <v>977.714</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.562</v>
+      </c>
       <c r="P47" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>311</v>
+      </c>
+      <c r="R47" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" t="s">
         <v>312</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>313</v>
-      </c>
-      <c r="R47" t="s">
-        <v>314</v>
-      </c>
-      <c r="S47" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>43962</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="H48" t="n">
-        <v>114125</v>
+        <v>266048</v>
       </c>
       <c r="I48" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="J48"/>
+        <v>8.22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9111</v>
+      </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="L48"/>
-      <c r="M48" t="n">
-        <v>0.002</v>
-      </c>
+      <c r="M48"/>
       <c r="N48"/>
-      <c r="O48" t="n">
-        <v>0.013</v>
-      </c>
+      <c r="O48"/>
       <c r="P48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>317</v>
+      </c>
+      <c r="R48" t="s">
+        <v>318</v>
+      </c>
+      <c r="S48" t="s">
         <v>319</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>318</v>
-      </c>
-      <c r="R48" t="s">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="s">
         <v>321</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D49" t="s">
         <v>322</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>43952</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>323</v>
       </c>
-      <c r="E49" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" t="s">
-        <v>325</v>
-      </c>
+      <c r="F49"/>
       <c r="G49" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="H49" t="n">
-        <v>37006</v>
+        <v>123641</v>
       </c>
       <c r="I49" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2165</v>
-      </c>
+        <v>0.959</v>
+      </c>
+      <c r="J49"/>
       <c r="K49" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1918.667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1867.571</v>
-      </c>
+        <v>0.006</v>
+      </c>
+      <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R49" t="s">
         <v>73</v>
       </c>
       <c r="S49" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>43952</v>
+      </c>
+      <c r="D50" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" t="s">
         <v>328</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="n">
+        <v>56</v>
+      </c>
+      <c r="H50" t="n">
+        <v>37006</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2165</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1918.667</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1867.571</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="P50" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q50" t="s">
         <v>330</v>
       </c>
-      <c r="E50" t="s">
+      <c r="R50" t="s">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s">
         <v>331</v>
-      </c>
-      <c r="F50" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" t="n">
-        <v>36</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11822</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="J50" t="n">
-        <v>340</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>333</v>
-      </c>
-      <c r="R50" t="s">
-        <v>53</v>
-      </c>
-      <c r="S50" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" t="s">
         <v>335</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G51" t="n">
+        <v>38</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12482</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q51" t="s">
         <v>337</v>
       </c>
-      <c r="E51" t="s">
+      <c r="R51" t="s">
+        <v>53</v>
+      </c>
+      <c r="S51" t="s">
         <v>338</v>
-      </c>
-      <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="G51" t="n">
-        <v>81</v>
-      </c>
-      <c r="H51" t="n">
-        <v>17809</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="J51" t="n">
-        <v>911</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="L51" t="n">
-        <v>772.333</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N51" t="n">
-        <v>595.571</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P51" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>340</v>
-      </c>
-      <c r="R51" t="s">
-        <v>94</v>
-      </c>
-      <c r="S51" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D52" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" t="s">
         <v>342</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>343</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G52" t="n">
+        <v>83</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21340</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2376</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1480.667</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1034.857</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="P52" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q52" t="s">
         <v>344</v>
-      </c>
-      <c r="E52" t="s">
-        <v>345</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52" t="n">
-        <v>10</v>
-      </c>
-      <c r="H52" t="n">
-        <v>270351</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15.778</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3192</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>347</v>
       </c>
       <c r="R52" t="s">
         <v>94</v>
       </c>
       <c r="S52" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" t="s">
+        <v>347</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D53" t="s">
+        <v>348</v>
+      </c>
+      <c r="E53" t="s">
         <v>349</v>
-      </c>
-      <c r="B53" t="s">
-        <v>350</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D53" t="s">
-        <v>351</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>197084</v>
+        <v>282776</v>
       </c>
       <c r="I53" t="n">
-        <v>40.87</v>
+        <v>16.503</v>
       </c>
       <c r="J53" t="n">
-        <v>2893</v>
+        <v>5180</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6</v>
+        <v>0.302</v>
       </c>
       <c r="L53" t="n">
-        <v>4681.667</v>
+        <v>5142</v>
       </c>
       <c r="M53" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5879.429</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.219</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="s">
         <v>351</v>
       </c>
       <c r="R53" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="S53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" t="s">
         <v>354</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D54" t="s">
         <v>355</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D54" t="s">
-        <v>356</v>
-      </c>
       <c r="E54" t="s">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="H54" t="n">
-        <v>28418</v>
+        <v>209613</v>
       </c>
       <c r="I54" t="n">
-        <v>0.138</v>
+        <v>43.468</v>
       </c>
       <c r="J54" t="n">
-        <v>1340</v>
+        <v>6568</v>
       </c>
       <c r="K54" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
+        <v>1.362</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5140.667</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5941.429</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.232</v>
+      </c>
       <c r="P54" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>355</v>
+      </c>
+      <c r="R54" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" t="s">
         <v>357</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>358</v>
-      </c>
-      <c r="R54" t="s">
-        <v>53</v>
-      </c>
-      <c r="S54" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" t="s">
+        <v>359</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D55" t="s">
         <v>360</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>361</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D55" t="s">
-        <v>362</v>
-      </c>
-      <c r="E55" t="s">
-        <v>363</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H55" t="n">
-        <v>205239</v>
+        <v>30657</v>
       </c>
       <c r="I55" t="n">
-        <v>37.858</v>
+        <v>0.149</v>
       </c>
       <c r="J55" t="n">
-        <v>2488</v>
+        <v>1249</v>
       </c>
       <c r="K55" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="L55"/>
-      <c r="M55"/>
+        <v>0.006</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1193</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.006</v>
+      </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>362</v>
+      </c>
+      <c r="R55" t="s">
+        <v>53</v>
+      </c>
+      <c r="S55" t="s">
         <v>363</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>364</v>
-      </c>
-      <c r="R55" t="s">
-        <v>365</v>
-      </c>
-      <c r="S55" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" t="s">
         <v>367</v>
-      </c>
-      <c r="B56" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D56" t="s">
-        <v>369</v>
-      </c>
-      <c r="E56" t="s">
-        <v>370</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H56" t="n">
-        <v>305851</v>
+        <v>212655</v>
       </c>
       <c r="I56" t="n">
-        <v>1.385</v>
+        <v>39.226</v>
       </c>
       <c r="J56" t="n">
-        <v>10957</v>
+        <v>3781</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05</v>
+        <v>0.697</v>
       </c>
       <c r="L56" t="n">
-        <v>11942</v>
+        <v>3301.333</v>
       </c>
       <c r="M56" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N56" t="n">
-        <v>11921</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.054</v>
-      </c>
+        <v>0.609</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>368</v>
+      </c>
+      <c r="R56" t="s">
+        <v>369</v>
+      </c>
+      <c r="S56" t="s">
         <v>370</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>371</v>
-      </c>
-      <c r="R56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S56" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>371</v>
+      </c>
+      <c r="B57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D57" t="s">
         <v>373</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
         <v>374</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57"/>
+      <c r="G57" t="n">
+        <v>64</v>
+      </c>
+      <c r="H57" t="n">
+        <v>330750</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13051</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L57" t="n">
+        <v>11952</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12281.714</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="P57" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q57" t="s">
         <v>375</v>
       </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="R57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S57" t="s">
         <v>376</v>
-      </c>
-      <c r="G57" t="n">
-        <v>63</v>
-      </c>
-      <c r="H57" t="n">
-        <v>42657</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9.886</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1188</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1171.143</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="P57" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>377</v>
-      </c>
-      <c r="R57" t="s">
-        <v>128</v>
-      </c>
-      <c r="S57" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D58" t="s">
         <v>379</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>43960</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="n">
+        <v>66</v>
+      </c>
+      <c r="H58" t="n">
+        <v>45873</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10.632</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1312</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1072</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1122.714</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" t="s">
         <v>381</v>
       </c>
-      <c r="E58" t="s">
+      <c r="R58" t="s">
+        <v>128</v>
+      </c>
+      <c r="S58" t="s">
         <v>382</v>
-      </c>
-      <c r="F58" t="s">
-        <v>383</v>
-      </c>
-      <c r="G58" t="n">
-        <v>62</v>
-      </c>
-      <c r="H58" t="n">
-        <v>14646</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.053</v>
-      </c>
-      <c r="J58" t="n">
-        <v>800</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="L58" t="n">
-        <v>716.333</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>554.286</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="P58" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>385</v>
-      </c>
-      <c r="R58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S58" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F59" t="s">
         <v>387</v>
       </c>
-      <c r="B59" t="s">
-        <v>388</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D59" t="s">
-        <v>389</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59"/>
       <c r="G59" t="n">
         <v>62</v>
       </c>
       <c r="H59" t="n">
-        <v>532169</v>
+        <v>14646</v>
       </c>
       <c r="I59" t="n">
-        <v>16.14</v>
+        <v>2.053</v>
       </c>
       <c r="J59" t="n">
-        <v>19300</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>0.112</v>
+      </c>
+      <c r="L59" t="n">
+        <v>716.333</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>554.286</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.078</v>
+      </c>
       <c r="P59" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>389</v>
+      </c>
+      <c r="R59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S59" t="s">
         <v>390</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>391</v>
-      </c>
-      <c r="R59" t="s">
-        <v>392</v>
-      </c>
-      <c r="S59" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H60" t="n">
-        <v>157850</v>
+        <v>553302</v>
       </c>
       <c r="I60" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+        <v>16.781</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21133</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="L60" t="n">
+        <v>16124</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.489</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="Q60" t="s">
+        <v>395</v>
+      </c>
+      <c r="R60" t="s">
         <v>396</v>
       </c>
-      <c r="R60" t="s">
-        <v>94</v>
-      </c>
       <c r="S60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>398</v>
+      </c>
+      <c r="B61" t="s">
         <v>399</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D61" t="s">
         <v>400</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>401</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>402</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="n">
+        <v>23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>184617</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="J61" t="n">
+        <v>13009</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>400</v>
+      </c>
+      <c r="R61" t="s">
+        <v>94</v>
+      </c>
+      <c r="S61" t="s">
         <v>403</v>
-      </c>
-      <c r="G61" t="n">
-        <v>69</v>
-      </c>
-      <c r="H61" t="n">
-        <v>507778</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13.417</v>
-      </c>
-      <c r="J61" t="n">
-        <v>16562</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="L61" t="n">
-        <v>15697.333</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="N61" t="n">
-        <v>16215.429</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="P61" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>405</v>
-      </c>
-      <c r="R61" t="s">
-        <v>53</v>
-      </c>
-      <c r="S61" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>404</v>
+      </c>
+      <c r="B62" t="s">
+        <v>405</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" t="s">
         <v>407</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
         <v>408</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62"/>
       <c r="G62" t="n">
         <v>71</v>
       </c>
       <c r="H62" t="n">
-        <v>553855</v>
+        <v>554357</v>
       </c>
       <c r="I62" t="n">
-        <v>54.317</v>
+        <v>14.647</v>
       </c>
       <c r="J62" t="n">
-        <v>7472</v>
+        <v>26235</v>
       </c>
       <c r="K62" t="n">
-        <v>0.733</v>
+        <v>0.693</v>
       </c>
       <c r="L62" t="n">
-        <v>12041.667</v>
+        <v>21047</v>
       </c>
       <c r="M62" t="n">
-        <v>1.181</v>
+        <v>0.556</v>
       </c>
       <c r="N62" t="n">
-        <v>13602</v>
+        <v>18337.571</v>
       </c>
       <c r="O62" t="n">
-        <v>1.334</v>
+        <v>0.485</v>
       </c>
       <c r="P62" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q62" t="s">
         <v>410</v>
       </c>
-      <c r="Q62" t="s">
-        <v>409</v>
-      </c>
       <c r="R62" t="s">
+        <v>53</v>
+      </c>
+      <c r="S62" t="s">
         <v>411</v>
-      </c>
-      <c r="S62" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B63" t="s">
         <v>413</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D63" t="s">
         <v>414</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D63" t="s">
-        <v>415</v>
-      </c>
       <c r="E63" t="s">
-        <v>416</v>
+        <v>43</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H63" t="n">
-        <v>135294</v>
+        <v>582341</v>
       </c>
       <c r="I63" t="n">
-        <v>46.96</v>
+        <v>57.111</v>
       </c>
       <c r="J63" t="n">
-        <v>4250</v>
+        <v>16017</v>
       </c>
       <c r="K63" t="n">
-        <v>1.475</v>
+        <v>1.571</v>
       </c>
       <c r="L63" t="n">
-        <v>3580</v>
+        <v>11972.333</v>
       </c>
       <c r="M63" t="n">
-        <v>1.243</v>
+        <v>1.174</v>
       </c>
       <c r="N63" t="n">
-        <v>3647.429</v>
+        <v>13704.571</v>
       </c>
       <c r="O63" t="n">
-        <v>1.266</v>
+        <v>1.344</v>
       </c>
       <c r="P63" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>414</v>
+      </c>
+      <c r="R63" t="s">
         <v>416</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>417</v>
-      </c>
-      <c r="R63" t="s">
-        <v>94</v>
-      </c>
-      <c r="S63" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" t="s">
         <v>419</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D64" t="s">
         <v>420</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>421</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64"/>
+      <c r="G64" t="n">
+        <v>57</v>
+      </c>
+      <c r="H64" t="n">
+        <v>143938</v>
+      </c>
+      <c r="I64" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4811</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4298</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3920.429</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="P64" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q64" t="s">
         <v>422</v>
       </c>
-      <c r="F64" t="s">
+      <c r="R64" t="s">
+        <v>94</v>
+      </c>
+      <c r="S64" t="s">
         <v>423</v>
-      </c>
-      <c r="G64" t="n">
-        <v>62</v>
-      </c>
-      <c r="H64" t="n">
-        <v>269183</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13.992</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6964</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7042.333</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9048.714</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P64" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>421</v>
-      </c>
-      <c r="R64" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" t="s">
         <v>425</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D65" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>427</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>428</v>
       </c>
-      <c r="F65"/>
       <c r="G65" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>5805404</v>
+        <v>286217</v>
       </c>
       <c r="I65" t="n">
-        <v>39.781</v>
+        <v>14.878</v>
       </c>
       <c r="J65" t="n">
-        <v>168641</v>
+        <v>8413</v>
       </c>
       <c r="K65" t="n">
-        <v>1.156</v>
+        <v>0.437</v>
       </c>
       <c r="L65" t="n">
-        <v>194480</v>
+        <v>7999.333</v>
       </c>
       <c r="M65" t="n">
-        <v>1.333</v>
+        <v>0.416</v>
       </c>
       <c r="N65" t="n">
-        <v>192149.571</v>
+        <v>8514.857</v>
       </c>
       <c r="O65" t="n">
-        <v>1.317</v>
+        <v>0.442</v>
       </c>
       <c r="P65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="R65" t="s">
         <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s">
         <v>431</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D66" t="s">
         <v>432</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>433</v>
-      </c>
-      <c r="E66" t="s">
-        <v>434</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H66" t="n">
-        <v>42805</v>
+        <v>6188102</v>
       </c>
       <c r="I66" t="n">
-        <v>3.305</v>
-      </c>
-      <c r="J66"/>
+        <v>42.403</v>
+      </c>
+      <c r="J66" t="n">
+        <v>205544</v>
+      </c>
       <c r="K66" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L66"/>
+        <v>1.408</v>
+      </c>
+      <c r="L66" t="n">
+        <v>183779.667</v>
+      </c>
       <c r="M66" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N66"/>
+        <v>1.259</v>
+      </c>
+      <c r="N66" t="n">
+        <v>197844.286</v>
+      </c>
       <c r="O66" t="n">
-        <v>0.085</v>
+        <v>1.356</v>
       </c>
       <c r="P66" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q66" t="s">
         <v>434</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" t="s">
         <v>435</v>
-      </c>
-      <c r="R66" t="s">
-        <v>53</v>
-      </c>
-      <c r="S66" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" t="s">
         <v>437</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D67" t="s">
         <v>438</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>439</v>
-      </c>
-      <c r="E67" t="s">
-        <v>43</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H67" t="n">
-        <v>482374</v>
+        <v>44245</v>
       </c>
       <c r="I67" t="n">
-        <v>13.856</v>
+        <v>3.416</v>
       </c>
       <c r="J67" t="n">
-        <v>15005</v>
+        <v>866</v>
       </c>
       <c r="K67" t="n">
-        <v>0.431</v>
+        <v>0.067</v>
       </c>
       <c r="L67" t="n">
-        <v>16291.333</v>
+        <v>606.667</v>
       </c>
       <c r="M67" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>0.047</v>
+      </c>
+      <c r="N67" t="n">
+        <v>990</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.076</v>
+      </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="Q67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R67" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="S67" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>513587</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.752</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16639</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="L68" t="n">
+        <v>15406</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="N68" t="n">
+        <v>15414.571</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="P68" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q68" t="s">
         <v>444</v>
       </c>
-      <c r="F68" t="s">
+      <c r="R68" t="s">
+        <v>128</v>
+      </c>
+      <c r="S68" t="s">
         <v>445</v>
-      </c>
-      <c r="G68" t="n">
-        <v>71</v>
-      </c>
-      <c r="H68" t="n">
-        <v>23589</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.409</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1099</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1124</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1043</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="P68" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>447</v>
-      </c>
-      <c r="R68" t="s">
-        <v>448</v>
-      </c>
-      <c r="S68" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D69" t="s">
+        <v>448</v>
+      </c>
+      <c r="E69" t="s">
+        <v>449</v>
+      </c>
+      <c r="F69" t="s">
         <v>450</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="n">
+        <v>73</v>
+      </c>
+      <c r="H69" t="n">
+        <v>25501</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="J69" t="n">
+        <v>992</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1003.667</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1000.571</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P69" t="s">
         <v>451</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="Q69" t="s">
         <v>452</v>
       </c>
-      <c r="E69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="R69" t="s">
         <v>453</v>
       </c>
-      <c r="G69" t="n">
-        <v>76</v>
-      </c>
-      <c r="H69" t="n">
-        <v>151304</v>
-      </c>
-      <c r="I69" t="n">
-        <v>22.236</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5700</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5590.333</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5718</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P69" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="S69" t="s">
         <v>454</v>
-      </c>
-      <c r="R69" t="s">
-        <v>94</v>
-      </c>
-      <c r="S69" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70" t="s">
         <v>456</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D70" t="s">
         <v>457</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D70" t="s">
-        <v>458</v>
       </c>
       <c r="E70" t="s">
         <v>43</v>
       </c>
-      <c r="F70"/>
+      <c r="F70" t="s">
+        <v>458</v>
+      </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="H70" t="n">
-        <v>123525</v>
+        <v>156603</v>
       </c>
       <c r="I70" t="n">
-        <v>21.114</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
+        <v>23.014</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5299</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5337</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5589.857</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.822</v>
+      </c>
       <c r="P70" t="s">
         <v>43</v>
       </c>
@@ -6154,29 +6227,29 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43955</v>
+        <v>43961</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E71" t="s">
         <v>43</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>175604</v>
+        <v>216102</v>
       </c>
       <c r="I71" t="n">
-        <v>30.016</v>
+        <v>36.938</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
@@ -6188,317 +6261,317 @@
         <v>43</v>
       </c>
       <c r="Q71" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="R71" t="s">
-        <v>463</v>
+        <v>94</v>
       </c>
       <c r="S71" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>43</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>122708</v>
+        <v>224262</v>
       </c>
       <c r="I72" t="n">
-        <v>22.475</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2063</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1445.667</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3263.429</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.598</v>
-      </c>
+        <v>38.333</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
       <c r="P72" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>464</v>
+      </c>
+      <c r="R72" t="s">
         <v>468</v>
       </c>
-      <c r="Q72" t="s">
-        <v>469</v>
-      </c>
-      <c r="R72" t="s">
-        <v>470</v>
-      </c>
       <c r="S72" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B73" t="s">
+        <v>470</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" t="s">
         <v>472</v>
-      </c>
-      <c r="B73" t="s">
-        <v>473</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D73" t="s">
-        <v>474</v>
-      </c>
-      <c r="E73" t="s">
-        <v>475</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H73" t="n">
-        <v>64547</v>
+        <v>131910</v>
       </c>
       <c r="I73" t="n">
-        <v>31.048</v>
+        <v>24.161</v>
       </c>
       <c r="J73" t="n">
-        <v>1182</v>
+        <v>4876</v>
       </c>
       <c r="K73" t="n">
-        <v>0.569</v>
+        <v>0.893</v>
       </c>
       <c r="L73" t="n">
-        <v>781.333</v>
+        <v>3755</v>
       </c>
       <c r="M73" t="n">
-        <v>0.376</v>
+        <v>0.688</v>
       </c>
       <c r="N73" t="n">
-        <v>1010.429</v>
+        <v>3163.286</v>
       </c>
       <c r="O73" t="n">
-        <v>0.486</v>
+        <v>0.579</v>
       </c>
       <c r="P73" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>474</v>
+      </c>
+      <c r="R73" t="s">
+        <v>475</v>
+      </c>
+      <c r="S73" t="s">
         <v>476</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>477</v>
-      </c>
-      <c r="R73" t="s">
-        <v>24</v>
-      </c>
-      <c r="S73" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D74" t="s">
         <v>479</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>480</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="F74"/>
+      <c r="G74" t="n">
+        <v>63</v>
+      </c>
+      <c r="H74" t="n">
+        <v>66678</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32.073</v>
+      </c>
+      <c r="J74" t="n">
+        <v>984</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1104.333</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="N74" t="n">
+        <v>957.143</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="P74" t="s">
         <v>481</v>
       </c>
-      <c r="E74" t="s">
+      <c r="Q74" t="s">
         <v>482</v>
       </c>
-      <c r="F74" t="s">
+      <c r="R74" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" t="s">
         <v>483</v>
-      </c>
-      <c r="G74" t="n">
-        <v>73</v>
-      </c>
-      <c r="H74" t="n">
-        <v>369697</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.233</v>
-      </c>
-      <c r="J74" t="n">
-        <v>13630</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15206</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="N74" t="n">
-        <v>14519</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="P74" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>484</v>
-      </c>
-      <c r="R74" t="s">
-        <v>94</v>
-      </c>
-      <c r="S74" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D75" t="s">
         <v>486</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>487</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>488</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="n">
+        <v>75</v>
+      </c>
+      <c r="H75" t="n">
+        <v>403018</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.795</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16666</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L75" t="n">
+        <v>15650.333</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15837.857</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="P75" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q75" t="s">
         <v>489</v>
       </c>
-      <c r="F75"/>
-      <c r="G75" t="n">
-        <v>108</v>
-      </c>
-      <c r="H75" t="n">
-        <v>680890</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13.281</v>
-      </c>
-      <c r="J75" t="n">
-        <v>12398</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6953.333</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5807.571</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="P75" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
+        <v>94</v>
+      </c>
+      <c r="S75" t="s">
         <v>490</v>
-      </c>
-      <c r="R75" t="s">
-        <v>73</v>
-      </c>
-      <c r="S75" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76" t="s">
         <v>492</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D76" t="s">
         <v>493</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>43958</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>494</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76"/>
+      <c r="G76" t="n">
+        <v>110</v>
+      </c>
+      <c r="H76" t="n">
+        <v>711484</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13.877</v>
+      </c>
+      <c r="J76" t="n">
+        <v>15564</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14330.667</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8870.857</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="P76" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q76" t="s">
         <v>495</v>
       </c>
-      <c r="F76" t="s">
+      <c r="R76" t="s">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s">
         <v>496</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1625211</v>
-      </c>
-      <c r="I76" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>498</v>
-      </c>
-      <c r="R76" t="s">
-        <v>24</v>
-      </c>
-      <c r="S76" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>497</v>
+      </c>
+      <c r="B77" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="D77" t="s">
+        <v>499</v>
+      </c>
+      <c r="E77" t="s">
         <v>500</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D77" t="s">
-        <v>502</v>
-      </c>
-      <c r="E77" t="s">
-        <v>503</v>
-      </c>
-      <c r="F77"/>
       <c r="G77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>177500</v>
+        <v>1625211</v>
       </c>
       <c r="I77" t="n">
-        <v>17.576</v>
+        <v>34.76</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -6507,13 +6580,13 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q77" t="s">
         <v>503</v>
       </c>
-      <c r="Q77" t="s">
-        <v>502</v>
-      </c>
       <c r="R77" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="S77" t="s">
         <v>504</v>
@@ -6527,7 +6600,7 @@
         <v>506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="D78" t="s">
         <v>507</v>
@@ -6537,32 +6610,20 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="H78" t="n">
-        <v>316851</v>
+        <v>177200</v>
       </c>
       <c r="I78" t="n">
-        <v>36.611</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2501</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2350.333</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3884.143</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.449</v>
-      </c>
+        <v>17.546</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
       <c r="P78" t="s">
         <v>508</v>
       </c>
@@ -6570,454 +6631,438 @@
         <v>507</v>
       </c>
       <c r="R78" t="s">
+        <v>94</v>
+      </c>
+      <c r="S78" t="s">
         <v>509</v>
-      </c>
-      <c r="S78" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>510</v>
+      </c>
+      <c r="B79" t="s">
         <v>511</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D79" t="s">
         <v>512</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>513</v>
-      </c>
-      <c r="E79" t="s">
-        <v>514</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H79" t="n">
-        <v>67758</v>
+        <v>328155</v>
       </c>
       <c r="I79" t="n">
-        <v>2.845</v>
+        <v>37.917</v>
       </c>
       <c r="J79" t="n">
-        <v>358</v>
+        <v>3704</v>
       </c>
       <c r="K79" t="n">
-        <v>0.015</v>
+        <v>0.428</v>
       </c>
       <c r="L79" t="n">
-        <v>299</v>
+        <v>4583.667</v>
       </c>
       <c r="M79" t="n">
-        <v>0.012</v>
+        <v>0.53</v>
       </c>
       <c r="N79" t="n">
-        <v>400</v>
+        <v>3897.571</v>
       </c>
       <c r="O79" t="n">
-        <v>0.017</v>
+        <v>0.45</v>
       </c>
       <c r="P79" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>512</v>
+      </c>
+      <c r="R79" t="s">
         <v>514</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>515</v>
-      </c>
-      <c r="R79" t="s">
-        <v>516</v>
-      </c>
-      <c r="S79" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D80" t="s">
         <v>518</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>519</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D80" t="s">
-        <v>520</v>
-      </c>
-      <c r="E80" t="s">
-        <v>521</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H80" t="n">
-        <v>103858</v>
+        <v>68335</v>
       </c>
       <c r="I80" t="n">
-        <v>1.488</v>
+        <v>2.869</v>
       </c>
       <c r="J80" t="n">
-        <v>3454</v>
+        <v>228</v>
       </c>
       <c r="K80" t="n">
-        <v>0.049</v>
+        <v>0.01</v>
       </c>
       <c r="L80" t="n">
-        <v>3404.667</v>
+        <v>311.667</v>
       </c>
       <c r="M80" t="n">
-        <v>0.049</v>
+        <v>0.013</v>
       </c>
       <c r="N80" t="n">
-        <v>3584.286</v>
+        <v>327</v>
       </c>
       <c r="O80" t="n">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="P80" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>520</v>
+      </c>
+      <c r="R80" t="s">
+        <v>521</v>
+      </c>
+      <c r="S80" t="s">
         <v>522</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>523</v>
-      </c>
-      <c r="R80" t="s">
-        <v>94</v>
-      </c>
-      <c r="S80" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D81" t="s">
         <v>525</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>526</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D81" t="s">
-        <v>527</v>
-      </c>
-      <c r="E81" t="s">
-        <v>528</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H81" t="n">
-        <v>33266</v>
+        <v>114405</v>
       </c>
       <c r="I81" t="n">
-        <v>2.815</v>
-      </c>
-      <c r="J81"/>
+        <v>1.639</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3117</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="L81"/>
-      <c r="M81" t="n">
-        <v>0.165</v>
-      </c>
+      <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q81" t="s">
         <v>528</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
+        <v>94</v>
+      </c>
+      <c r="S81" t="s">
         <v>529</v>
-      </c>
-      <c r="R81" t="s">
-        <v>530</v>
-      </c>
-      <c r="S81" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>523</v>
+      </c>
+      <c r="B82" t="s">
+        <v>530</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D82" t="s">
+        <v>531</v>
+      </c>
+      <c r="E82" t="s">
         <v>532</v>
-      </c>
-      <c r="B82" t="s">
-        <v>533</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D82" t="s">
-        <v>534</v>
-      </c>
-      <c r="E82" t="s">
-        <v>535</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>1440671</v>
+        <v>286008</v>
       </c>
       <c r="I82" t="n">
-        <v>17.082</v>
-      </c>
-      <c r="J82" t="n">
-        <v>37351</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="L82" t="n">
-        <v>35420</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N82" t="n">
-        <v>33750</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.4</v>
-      </c>
+        <v>4.098</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
       <c r="P82" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q82" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="R82" t="s">
-        <v>537</v>
+        <v>53</v>
       </c>
       <c r="S82" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>535</v>
+      </c>
+      <c r="B83" t="s">
+        <v>536</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D83" t="s">
+        <v>537</v>
+      </c>
+      <c r="E83" t="s">
+        <v>538</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>63</v>
+      </c>
+      <c r="H83" t="n">
+        <v>34323</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.904</v>
+      </c>
+      <c r="J83" t="n">
+        <v>443</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L83" t="n">
+        <v>501.667</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q83" t="s">
         <v>539</v>
       </c>
-      <c r="B83" t="s">
+      <c r="R83" t="s">
         <v>540</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="S83" t="s">
         <v>541</v>
-      </c>
-      <c r="E83" t="s">
-        <v>542</v>
-      </c>
-      <c r="F83" t="s">
-        <v>543</v>
-      </c>
-      <c r="G83" t="n">
-        <v>35</v>
-      </c>
-      <c r="H83" t="n">
-        <v>62461</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2419.333</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2909.857</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="P83" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>544</v>
-      </c>
-      <c r="R83" t="s">
-        <v>53</v>
-      </c>
-      <c r="S83" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D84" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E84" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="H84" t="n">
-        <v>187307</v>
+        <v>1508824</v>
       </c>
       <c r="I84" t="n">
-        <v>4.283</v>
+        <v>17.89</v>
       </c>
       <c r="J84" t="n">
-        <v>5755</v>
+        <v>34821</v>
       </c>
       <c r="K84" t="n">
-        <v>0.132</v>
+        <v>0.413</v>
       </c>
       <c r="L84" t="n">
-        <v>6733.333</v>
+        <v>35168</v>
       </c>
       <c r="M84" t="n">
-        <v>0.154</v>
+        <v>0.417</v>
       </c>
       <c r="N84" t="n">
-        <v>6792.571</v>
+        <v>34815</v>
       </c>
       <c r="O84" t="n">
-        <v>0.155</v>
+        <v>0.413</v>
       </c>
       <c r="P84" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q84" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R84" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="S84" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>549</v>
+      </c>
+      <c r="B85" t="s">
+        <v>550</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D85" t="s">
+        <v>551</v>
+      </c>
+      <c r="E85" t="s">
+        <v>552</v>
+      </c>
+      <c r="F85" t="s">
         <v>553</v>
       </c>
-      <c r="B85" t="s">
+      <c r="G85" t="n">
+        <v>37</v>
+      </c>
+      <c r="H85" t="n">
+        <v>66276</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2104</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2223</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2577.571</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="P85" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q85" t="s">
         <v>554</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="R85" t="s">
+        <v>53</v>
+      </c>
+      <c r="S85" t="s">
         <v>555</v>
-      </c>
-      <c r="E85" t="s">
-        <v>556</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85" t="n">
-        <v>109</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1460517</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21.514</v>
-      </c>
-      <c r="J85" t="n">
-        <v>60410</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L85" t="n">
-        <v>63369.667</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="N85" t="n">
-        <v>63284.143</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="P85" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>557</v>
-      </c>
-      <c r="R85" t="s">
-        <v>94</v>
-      </c>
-      <c r="S85" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s">
+        <v>557</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D86" t="s">
+        <v>558</v>
+      </c>
+      <c r="E86" t="s">
         <v>559</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D86" t="s">
-        <v>560</v>
-      </c>
-      <c r="E86" t="s">
-        <v>556</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H86" t="n">
-        <v>2007146</v>
+        <v>202495</v>
       </c>
       <c r="I86" t="n">
-        <v>29.566</v>
+        <v>4.63</v>
       </c>
       <c r="J86" t="n">
-        <v>85293</v>
+        <v>10248</v>
       </c>
       <c r="K86" t="n">
-        <v>1.256</v>
+        <v>0.234</v>
       </c>
       <c r="L86" t="n">
-        <v>92873.333</v>
+        <v>6981</v>
       </c>
       <c r="M86" t="n">
-        <v>1.368</v>
+        <v>0.16</v>
       </c>
       <c r="N86" t="n">
-        <v>89796.143</v>
+        <v>7275.143</v>
       </c>
       <c r="O86" t="n">
-        <v>1.323</v>
+        <v>0.166</v>
       </c>
       <c r="P86" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q86" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="R86" t="s">
         <v>561</v>
@@ -7034,7 +7079,7 @@
         <v>564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43962</v>
+        <v>43965</v>
       </c>
       <c r="D87" t="s">
         <v>565</v>
@@ -7044,31 +7089,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="H87" t="n">
-        <v>9348458</v>
+        <v>1593902</v>
       </c>
       <c r="I87" t="n">
-        <v>28.243</v>
+        <v>23.479</v>
       </c>
       <c r="J87" t="n">
-        <v>388296</v>
+        <v>71644</v>
       </c>
       <c r="K87" t="n">
-        <v>1.173</v>
+        <v>1.055</v>
       </c>
       <c r="L87" t="n">
-        <v>319484</v>
+        <v>64598.333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.965</v>
+        <v>0.951</v>
       </c>
       <c r="N87" t="n">
-        <v>294726.286</v>
+        <v>64896.571</v>
       </c>
       <c r="O87" t="n">
-        <v>0.891</v>
+        <v>0.956</v>
       </c>
       <c r="P87" t="s">
         <v>566</v>
@@ -7077,10 +7122,10 @@
         <v>567</v>
       </c>
       <c r="R87" t="s">
+        <v>94</v>
+      </c>
+      <c r="S87" t="s">
         <v>568</v>
-      </c>
-      <c r="S87" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="88">
@@ -7088,205 +7133,307 @@
         <v>563</v>
       </c>
       <c r="B88" t="s">
+        <v>569</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D88" t="s">
         <v>570</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D88" t="s">
-        <v>571</v>
-      </c>
       <c r="E88" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H88" t="n">
-        <v>824957</v>
+        <v>2219281</v>
       </c>
       <c r="I88" t="n">
-        <v>2.492</v>
-      </c>
-      <c r="J88"/>
+        <v>32.691</v>
+      </c>
+      <c r="J88" t="n">
+        <v>126064</v>
+      </c>
       <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88"/>
+        <v>1.857</v>
+      </c>
+      <c r="L88" t="n">
+        <v>99473.333</v>
+      </c>
       <c r="M88" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N88"/>
+        <v>1.465</v>
+      </c>
+      <c r="N88" t="n">
+        <v>97950.571</v>
+      </c>
       <c r="O88" t="n">
-        <v>0.036</v>
+        <v>1.443</v>
       </c>
       <c r="P88" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="Q88" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="R88" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="S88" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="D89" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>576</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H89" t="n">
-        <v>28697</v>
+        <v>9974831</v>
       </c>
       <c r="I89" t="n">
-        <v>8.261</v>
+        <v>30.135</v>
       </c>
       <c r="J89" t="n">
-        <v>1236</v>
+        <v>324426</v>
       </c>
       <c r="K89" t="n">
-        <v>0.356</v>
+        <v>0.98</v>
       </c>
       <c r="L89" t="n">
-        <v>999.667</v>
+        <v>338223</v>
       </c>
       <c r="M89" t="n">
-        <v>0.288</v>
+        <v>1.022</v>
       </c>
       <c r="N89" t="n">
-        <v>965.429</v>
+        <v>312576.857</v>
       </c>
       <c r="O89" t="n">
-        <v>0.278</v>
+        <v>0.944</v>
       </c>
       <c r="P89" t="s">
-        <v>126</v>
+        <v>576</v>
       </c>
       <c r="Q89" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="R89" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="S89" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>573</v>
+      </c>
+      <c r="B90" t="s">
+        <v>580</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D90" t="s">
+        <v>581</v>
+      </c>
+      <c r="E90" t="s">
         <v>582</v>
-      </c>
-      <c r="B90" t="s">
-        <v>583</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>43950</v>
-      </c>
-      <c r="D90" t="s">
-        <v>584</v>
-      </c>
-      <c r="E90" t="s">
-        <v>585</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>261004</v>
+        <v>10217573</v>
       </c>
       <c r="I90" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
+        <v>30.869</v>
+      </c>
+      <c r="J90" t="n">
+        <v>492694</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.488</v>
+      </c>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Q90" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="R90" t="s">
-        <v>587</v>
+        <v>24</v>
       </c>
       <c r="S90" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B91" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43962</v>
+        <v>43965</v>
       </c>
       <c r="D91" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E91" t="s">
-        <v>592</v>
+        <v>126</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H91" t="n">
-        <v>10598</v>
+        <v>30209</v>
       </c>
       <c r="I91" t="n">
-        <v>0.713</v>
+        <v>8.696</v>
       </c>
       <c r="J91" t="n">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="K91" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="L91" t="n">
-        <v>619</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.042</v>
-      </c>
+        <v>0.204</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
-        <v>592</v>
+        <v>126</v>
       </c>
       <c r="Q91" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
       </c>
       <c r="S91" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>590</v>
+      </c>
+      <c r="B92" t="s">
+        <v>591</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D92" t="s">
+        <v>592</v>
+      </c>
+      <c r="E92" t="s">
+        <v>593</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" t="n">
+        <v>37</v>
+      </c>
+      <c r="H92" t="n">
+        <v>261004</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q92" t="s">
         <v>594</v>
+      </c>
+      <c r="R92" t="s">
+        <v>595</v>
+      </c>
+      <c r="S92" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>597</v>
+      </c>
+      <c r="B93" t="s">
+        <v>598</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D93" t="s">
+        <v>599</v>
+      </c>
+      <c r="E93" t="s">
+        <v>600</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" t="n">
+        <v>8</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11191</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="P93" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>601</v>
+      </c>
+      <c r="R93" t="s">
+        <v>24</v>
+      </c>
+      <c r="S93" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/14-05-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/16-05-20_reporte_matutino_covid_19.docx.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-14-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-15-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114502/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516115929/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195100/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516115932/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-13-maya-vyzdoroveli-i-vypisany-7711-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-14-maya-vyzdoroveli-i-vypisany-8-tys-168-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114507/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516115939/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114509/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516115941/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195110/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200515124712/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-13052020-xrpt</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-15052020-fgg8</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -468,10 +468,13 @@
     <t xml:space="preserve">https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport</t>
   </si>
   <si>
-    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each.
-It provides daily statistics on the number of people tested for COVID-19, and the number and share of people that tested positive.
-The most recent epidemiological status reports provides the daily data for the previous two weeks with a cumulative figure from 13 Jan given prior to that. We construct a longer time series by referring to earlier versions of this table, accessed via web archive.
-The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport).</t>
+    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each. 
+It provides daily statistics on the number of people tested for COVID-19, and the number and share of people that tested positive. 
+The most recent epidemiological status reports provides the daily data for the previous two weeks.
+We construct a longer time series by referring to earlier versions of this table, accessed via web archive. Note the cumulative total start date differs at various points in the time series. From 17/03-03/04 the cumulative total begins from 27 Jan; 04/04-20/04 from 7 Jan; and 21/04-today from 13 Jan. 
+The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport). From 15 May, the Danish Statum Serum Institute provides figures on both people and samples tested.
+There is no explicit mention of whether the figures include only PCR tests or other kinds of test.
+Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
     <t xml:space="preserve">ECU</t>
@@ -480,7 +483,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-13052020-08h00-2.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-15052020-08h001.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -513,7 +516,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 11:55pm local time on 2020-05-13.</t>
+    <t xml:space="preserve">updated at 16:45pm local time on 2020-05-15.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -606,7 +609,7 @@
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
   </si>
   <si>
-    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 24th April, was published on the 23rd April. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
+    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 15th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
 The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
   </si>
   <si>
@@ -689,7 +692,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200514/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200515/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -824,7 +827,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200514153044/http://irangov.ir/detail/339254</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200516003830/http://irangov.ir/detail/339275</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -944,7 +947,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000630536.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000630894.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -978,7 +981,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260910471336558593</t>
+    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-15-2020-15.47.33.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1019,7 +1022,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114607/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120038/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1035,7 +1038,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195210/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200515225730/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1056,7 +1059,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200511162631/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120044/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1127,9 +1130,6 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
-    <t xml:space="preserve">This figure is taken from the live dashboard and should be updated using the PDF Situation Report once it is available</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200514_1017.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 14 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200515_%201021.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 15 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195322/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120106/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1225,7 +1225,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/globalassets/dokumenterfiler/2020.05.14-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.15-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114643/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120110/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/154047-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-76-306-en-el-peru-comunicado-n-99</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/154736-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-84-495-en-el-peru-comunicado-n-101</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1351,7 +1351,8 @@
     <t xml:space="preserve">The Ministry of Health (MOH) provides a daily snapshot of testing capacity detailing the total number of individuals tested and the total number of tests conducted. 
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
-The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data.</t>
+The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
+No newly submitted reports as of 14 May. Latest testing data available is from 13 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1360,7 +1361,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.14.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.16.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1405,7 +1406,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114650/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120125/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1443,7 +1444,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14453</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14473</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1463,7 +1464,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1260629955991474176</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1261348536970391552</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1545,7 +1546,7 @@
     <t xml:space="preserve">Singapore - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200513190204/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120255/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
@@ -1558,7 +1559,7 @@
     <t xml:space="preserve">Singapore - swabs tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200513190206/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120257/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">The number of swabs tested.</t>
@@ -1570,7 +1571,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114707/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120321/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1644,7 +1645,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367212&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367241&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1664,13 +1665,10 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_07_05_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_14_05_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding press release: https://www.mscbs.gob.es/gabinete/notasPrensa.do?id=4910</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1730,7 +1728,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/OvDC54yxv84UUOCVHJsS7A?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/3afBq9x3b5v-P9zj1FMx-w?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1753,7 +1751,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195427/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120425/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1820,7 +1818,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195432/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200515225910/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1844,7 +1842,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1260676203427618821</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261025109332185089</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1868,7 +1866,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114802/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516120430/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1890,7 +1888,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195434/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200515225915/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1913,7 +1911,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514195436/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200515225916/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1981,7 +1979,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-24</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-26</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2020,10 +2018,13 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260794875378794496</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1261357055560073221</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The press release reports both the cumulative number of tests to date and number of tests conducted today. These figures are no consistent with one another. We use the cumulative number of reported tests as the ground truth.</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.mohcc.gov.zw</t>
@@ -2436,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2446,31 +2447,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>93673</v>
+        <v>100362</v>
       </c>
       <c r="I2" t="n">
-        <v>2.073</v>
+        <v>2.221</v>
       </c>
       <c r="J2" t="n">
-        <v>3199</v>
+        <v>3469</v>
       </c>
       <c r="K2" t="n">
-        <v>0.071</v>
+        <v>0.077</v>
       </c>
       <c r="L2" t="n">
-        <v>2838.333</v>
+        <v>3296</v>
       </c>
       <c r="M2" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="N2" t="n">
-        <v>2639.286</v>
+        <v>2804.714</v>
       </c>
       <c r="O2" t="n">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2493,7 +2494,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2503,31 +2504,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>943480</v>
+        <v>983816</v>
       </c>
       <c r="I3" t="n">
-        <v>36.999</v>
+        <v>38.581</v>
       </c>
       <c r="J3" t="n">
-        <v>34455</v>
+        <v>40336</v>
       </c>
       <c r="K3" t="n">
-        <v>1.351</v>
+        <v>1.582</v>
       </c>
       <c r="L3" t="n">
-        <v>29453.667</v>
+        <v>35296.333</v>
       </c>
       <c r="M3" t="n">
-        <v>1.155</v>
+        <v>1.384</v>
       </c>
       <c r="N3" t="n">
-        <v>31561.571</v>
+        <v>32366.571</v>
       </c>
       <c r="O3" t="n">
-        <v>1.238</v>
+        <v>1.269</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2550,7 +2551,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2560,31 +2561,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>344606</v>
+        <v>357393</v>
       </c>
       <c r="I4" t="n">
-        <v>38.262</v>
+        <v>39.682</v>
       </c>
       <c r="J4" t="n">
-        <v>8354</v>
+        <v>6042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.928</v>
+        <v>0.671</v>
       </c>
       <c r="L4" t="n">
-        <v>8374</v>
+        <v>7047</v>
       </c>
       <c r="M4" t="n">
-        <v>0.93</v>
+        <v>0.783</v>
       </c>
       <c r="N4" t="n">
-        <v>6673.143</v>
+        <v>6529</v>
       </c>
       <c r="O4" t="n">
-        <v>0.741</v>
+        <v>0.725</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2607,7 +2608,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2617,31 +2618,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>211127</v>
+        <v>228573</v>
       </c>
       <c r="I5" t="n">
-        <v>124.077</v>
+        <v>134.33</v>
       </c>
       <c r="J5" t="n">
-        <v>5557</v>
+        <v>6031</v>
       </c>
       <c r="K5" t="n">
-        <v>3.266</v>
+        <v>3.544</v>
       </c>
       <c r="L5" t="n">
-        <v>6782.333</v>
+        <v>7667.667</v>
       </c>
       <c r="M5" t="n">
-        <v>3.986</v>
+        <v>4.506</v>
       </c>
       <c r="N5" t="n">
-        <v>6392.714</v>
+        <v>7174.286</v>
       </c>
       <c r="O5" t="n">
-        <v>3.757</v>
+        <v>4.216</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2664,7 +2665,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2674,31 +2675,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="n">
-        <v>151930</v>
+        <v>160512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.923</v>
+        <v>0.975</v>
       </c>
       <c r="J6" t="n">
-        <v>7392</v>
+        <v>8582</v>
       </c>
       <c r="K6" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="L6" t="n">
-        <v>7355</v>
+        <v>7958</v>
       </c>
       <c r="M6" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="N6" t="n">
-        <v>6631.286</v>
+        <v>7008.286</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2721,7 +2722,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2731,28 +2732,32 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>296380</v>
+        <v>308156</v>
       </c>
       <c r="I7" t="n">
-        <v>31.365</v>
+        <v>32.611</v>
       </c>
       <c r="J7" t="n">
-        <v>11935</v>
+        <v>11776</v>
       </c>
       <c r="K7" t="n">
-        <v>1.263</v>
+        <v>1.246</v>
       </c>
       <c r="L7" t="n">
-        <v>10945.667</v>
+        <v>11365.333</v>
       </c>
       <c r="M7" t="n">
-        <v>1.158</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
+        <v>1.203</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11241.429</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
       <c r="P7" t="s">
         <v>58</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2784,31 +2789,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
-        <v>508697</v>
+        <v>543535</v>
       </c>
       <c r="I8" t="n">
-        <v>43.892</v>
+        <v>46.898</v>
       </c>
       <c r="J8" t="n">
-        <v>13937</v>
+        <v>15037</v>
       </c>
       <c r="K8" t="n">
-        <v>1.203</v>
+        <v>1.297</v>
       </c>
       <c r="L8" t="n">
-        <v>10658.333</v>
+        <v>16596</v>
       </c>
       <c r="M8" t="n">
-        <v>0.92</v>
+        <v>1.432</v>
       </c>
       <c r="N8" t="n">
-        <v>15352.286</v>
+        <v>15453.286</v>
       </c>
       <c r="O8" t="n">
-        <v>1.325</v>
+        <v>1.333</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2831,7 +2836,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2843,28 +2848,28 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>9234</v>
+        <v>9663</v>
       </c>
       <c r="I9" t="n">
-        <v>0.791</v>
+        <v>0.828</v>
       </c>
       <c r="J9" t="n">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K9" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L9" t="n">
-        <v>197.333</v>
+        <v>204.333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="N9" t="n">
-        <v>180.286</v>
+        <v>187.286</v>
       </c>
       <c r="O9" t="n">
         <v>0.016</v>
@@ -2935,7 +2940,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2945,31 +2950,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>61711</v>
+        <v>64480</v>
       </c>
       <c r="I11" t="n">
-        <v>8.881</v>
+        <v>9.28</v>
       </c>
       <c r="J11" t="n">
-        <v>1611</v>
+        <v>1161</v>
       </c>
       <c r="K11" t="n">
-        <v>0.232</v>
+        <v>0.167</v>
       </c>
       <c r="L11" t="n">
-        <v>1359</v>
+        <v>1460</v>
       </c>
       <c r="M11" t="n">
-        <v>0.196</v>
+        <v>0.21</v>
       </c>
       <c r="N11" t="n">
-        <v>1254.286</v>
+        <v>1196.429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.181</v>
+        <v>0.172</v>
       </c>
       <c r="P11" t="s">
         <v>86</v>
@@ -2992,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -3002,25 +3007,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" t="n">
-        <v>1172796</v>
+        <v>1236670</v>
       </c>
       <c r="I12" t="n">
-        <v>31.074</v>
+        <v>32.766</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.476</v>
+        <v>0.595</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="n">
-        <v>0.647</v>
+        <v>0.64</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3043,7 +3048,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3055,31 +3060,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>325417</v>
+        <v>341512</v>
       </c>
       <c r="I13" t="n">
-        <v>17.023</v>
+        <v>17.865</v>
       </c>
       <c r="J13" t="n">
-        <v>11667</v>
+        <v>16095</v>
       </c>
       <c r="K13" t="n">
-        <v>0.61</v>
+        <v>0.842</v>
       </c>
       <c r="L13" t="n">
-        <v>10453.333</v>
+        <v>12724</v>
       </c>
       <c r="M13" t="n">
-        <v>0.547</v>
+        <v>0.666</v>
       </c>
       <c r="N13" t="n">
-        <v>11598.714</v>
+        <v>12221.571</v>
       </c>
       <c r="O13" t="n">
-        <v>0.607</v>
+        <v>0.64</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3102,7 +3107,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3112,31 +3117,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" t="n">
-        <v>171799</v>
+        <v>183112</v>
       </c>
       <c r="I14" t="n">
-        <v>3.376</v>
+        <v>3.599</v>
       </c>
       <c r="J14" t="n">
-        <v>6061</v>
+        <v>6062</v>
       </c>
       <c r="K14" t="n">
         <v>0.119</v>
       </c>
       <c r="L14" t="n">
-        <v>6801</v>
+        <v>5791.333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.134</v>
+        <v>0.114</v>
       </c>
       <c r="N14" t="n">
-        <v>5812.714</v>
+        <v>6196.143</v>
       </c>
       <c r="O14" t="n">
-        <v>0.114</v>
+        <v>0.122</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3159,7 +3164,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3169,31 +3174,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>12822</v>
+        <v>13031</v>
       </c>
       <c r="I15" t="n">
-        <v>2.517</v>
+        <v>2.558</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="K15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L15" t="n">
+        <v>323.333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="N15" t="n">
+        <v>314.857</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.062</v>
-      </c>
-      <c r="L15" t="n">
-        <v>278</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="N15" t="n">
-        <v>349.571</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.069</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3216,7 +3221,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3226,31 +3231,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" t="n">
-        <v>50340</v>
+        <v>51568</v>
       </c>
       <c r="I16" t="n">
-        <v>12.262</v>
+        <v>12.561</v>
       </c>
       <c r="J16" t="n">
-        <v>1603</v>
+        <v>1228</v>
       </c>
       <c r="K16" t="n">
-        <v>0.39</v>
+        <v>0.299</v>
       </c>
       <c r="L16" t="n">
-        <v>1423</v>
+        <v>1362.667</v>
       </c>
       <c r="M16" t="n">
-        <v>0.346</v>
+        <v>0.332</v>
       </c>
       <c r="N16" t="n">
-        <v>1200.286</v>
+        <v>1170</v>
       </c>
       <c r="O16" t="n">
-        <v>0.292</v>
+        <v>0.285</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3273,7 +3278,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3285,31 +3290,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="n">
-        <v>75142</v>
+        <v>77374</v>
       </c>
       <c r="I17" t="n">
-        <v>6.634</v>
+        <v>6.831</v>
       </c>
       <c r="J17" t="n">
-        <v>2013</v>
+        <v>2232</v>
       </c>
       <c r="K17" t="n">
-        <v>0.178</v>
+        <v>0.197</v>
       </c>
       <c r="L17" t="n">
-        <v>1986.667</v>
+        <v>2072.333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.175</v>
+        <v>0.183</v>
       </c>
       <c r="N17" t="n">
-        <v>1932.714</v>
+        <v>1973.429</v>
       </c>
       <c r="O17" t="n">
-        <v>0.171</v>
+        <v>0.174</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3332,7 +3337,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3342,31 +3347,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" t="n">
-        <v>334714</v>
+        <v>348849</v>
       </c>
       <c r="I18" t="n">
-        <v>31.255</v>
+        <v>32.575</v>
       </c>
       <c r="J18" t="n">
-        <v>7360</v>
+        <v>6601</v>
       </c>
       <c r="K18" t="n">
-        <v>0.687</v>
+        <v>0.616</v>
       </c>
       <c r="L18" t="n">
-        <v>7948</v>
+        <v>7053.667</v>
       </c>
       <c r="M18" t="n">
-        <v>0.742</v>
+        <v>0.658</v>
       </c>
       <c r="N18" t="n">
-        <v>6225.429</v>
+        <v>6501.143</v>
       </c>
       <c r="O18" t="n">
-        <v>0.581</v>
+        <v>0.607</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3389,7 +3394,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3401,31 +3406,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
-        <v>345712</v>
+        <v>368889</v>
       </c>
       <c r="I19" t="n">
-        <v>59.686</v>
+        <v>63.687</v>
       </c>
       <c r="J19" t="n">
-        <v>11452</v>
+        <v>10903</v>
       </c>
       <c r="K19" t="n">
-        <v>1.977</v>
+        <v>1.882</v>
       </c>
       <c r="L19" t="n">
-        <v>9292.667</v>
+        <v>11543</v>
       </c>
       <c r="M19" t="n">
-        <v>1.604</v>
+        <v>1.993</v>
       </c>
       <c r="N19" t="n">
-        <v>10718.857</v>
+        <v>10057.286</v>
       </c>
       <c r="O19" t="n">
-        <v>1.851</v>
+        <v>1.736</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3448,7 +3453,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3460,13 +3465,13 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" t="n">
-        <v>44285</v>
+        <v>47881</v>
       </c>
       <c r="I20" t="n">
-        <v>2.51</v>
+        <v>2.714</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -3495,7 +3500,7 @@
         <v>152</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
@@ -3507,26 +3512,18 @@
         <v>155</v>
       </c>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21" t="n">
-        <v>48913</v>
+        <v>51142</v>
       </c>
       <c r="I21" t="n">
-        <v>7.541</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2082</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1956.667</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.302</v>
-      </c>
+        <v>7.885</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
@@ -3550,7 +3547,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D22" t="s">
         <v>159</v>
@@ -3560,31 +3557,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" t="n">
-        <v>67130</v>
+        <v>68840</v>
       </c>
       <c r="I22" t="n">
-        <v>50.605</v>
+        <v>51.894</v>
       </c>
       <c r="J22" t="n">
-        <v>1044</v>
+        <v>752</v>
       </c>
       <c r="K22" t="n">
-        <v>0.787</v>
+        <v>0.567</v>
       </c>
       <c r="L22" t="n">
-        <v>1061.333</v>
+        <v>920</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>0.694</v>
       </c>
       <c r="N22" t="n">
-        <v>950.143</v>
+        <v>876.857</v>
       </c>
       <c r="O22" t="n">
-        <v>0.716</v>
+        <v>0.661</v>
       </c>
       <c r="P22" t="s">
         <v>161</v>
@@ -3805,7 +3802,7 @@
         <v>193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -3817,22 +3814,26 @@
         <v>196</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>164452</v>
+        <v>167704</v>
       </c>
       <c r="I27" t="n">
-        <v>5.292</v>
+        <v>5.397</v>
       </c>
       <c r="J27" t="n">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="K27" t="n">
         <v>0.105</v>
       </c>
-      <c r="L27"/>
-      <c r="M27"/>
+      <c r="L27" t="n">
+        <v>2728</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.088</v>
+      </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="s">
@@ -3856,7 +3857,7 @@
         <v>201</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D28" t="s">
         <v>194</v>
@@ -3868,22 +3869,26 @@
         <v>202</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>165433</v>
+        <v>168685</v>
       </c>
       <c r="I28" t="n">
-        <v>5.324</v>
+        <v>5.429</v>
       </c>
       <c r="J28" t="n">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="K28" t="n">
         <v>0.105</v>
       </c>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="L28" t="n">
+        <v>2728</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.088</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
@@ -3907,7 +3912,7 @@
         <v>204</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -3917,31 +3922,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29" t="n">
-        <v>116233</v>
+        <v>120015</v>
       </c>
       <c r="I29" t="n">
-        <v>11.152</v>
+        <v>11.514</v>
       </c>
       <c r="J29" t="n">
-        <v>4191</v>
+        <v>3782</v>
       </c>
       <c r="K29" t="n">
-        <v>0.402</v>
+        <v>0.363</v>
       </c>
       <c r="L29" t="n">
-        <v>5623.333</v>
+        <v>4653.667</v>
       </c>
       <c r="M29" t="n">
-        <v>0.539</v>
+        <v>0.446</v>
       </c>
       <c r="N29" t="n">
-        <v>3741.429</v>
+        <v>3674.857</v>
       </c>
       <c r="O29" t="n">
-        <v>0.359</v>
+        <v>0.353</v>
       </c>
       <c r="P29" t="s">
         <v>207</v>
@@ -4009,7 +4014,7 @@
         <v>218</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
@@ -4021,31 +4026,31 @@
         <v>221</v>
       </c>
       <c r="G31" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" t="n">
-        <v>123258</v>
+        <v>131429</v>
       </c>
       <c r="I31" t="n">
-        <v>12.759</v>
+        <v>13.605</v>
       </c>
       <c r="J31" t="n">
-        <v>4758</v>
+        <v>4192</v>
       </c>
       <c r="K31" t="n">
-        <v>0.493</v>
+        <v>0.434</v>
       </c>
       <c r="L31" t="n">
-        <v>3697.667</v>
+        <v>4309.667</v>
       </c>
       <c r="M31" t="n">
-        <v>0.383</v>
+        <v>0.446</v>
       </c>
       <c r="N31" t="n">
-        <v>4174.571</v>
+        <v>4024.429</v>
       </c>
       <c r="O31" t="n">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="P31" t="s">
         <v>220</v>
@@ -4068,7 +4073,7 @@
         <v>226</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D32" t="s">
         <v>227</v>
@@ -4078,31 +4083,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="n">
-        <v>55585</v>
+        <v>56178</v>
       </c>
       <c r="I32" t="n">
-        <v>162.886</v>
+        <v>164.624</v>
       </c>
       <c r="J32" t="n">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K32" t="n">
-        <v>1.615</v>
+        <v>1.738</v>
       </c>
       <c r="L32" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M32" t="n">
-        <v>1.38</v>
+        <v>1.395</v>
       </c>
       <c r="N32" t="n">
-        <v>477.571</v>
+        <v>496.286</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.454</v>
       </c>
       <c r="P32" t="s">
         <v>228</v>
@@ -4176,7 +4181,7 @@
         <v>237</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D34" t="s">
         <v>233</v>
@@ -4188,31 +4193,31 @@
         <v>235</v>
       </c>
       <c r="G34" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H34" t="n">
-        <v>1947041</v>
+        <v>2134277</v>
       </c>
       <c r="I34" t="n">
-        <v>1.411</v>
+        <v>1.547</v>
       </c>
       <c r="J34" t="n">
-        <v>92791</v>
+        <v>94325</v>
       </c>
       <c r="K34" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="L34" t="n">
+        <v>93342.333</v>
+      </c>
+      <c r="M34" t="n">
         <v>0.067</v>
       </c>
-      <c r="L34" t="n">
-        <v>91117.667</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.066</v>
-      </c>
       <c r="N34" t="n">
-        <v>84232.571</v>
+        <v>87294.857</v>
       </c>
       <c r="O34" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="P34" t="s">
         <v>234</v>
@@ -4235,7 +4240,7 @@
         <v>239</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D35" t="s">
         <v>240</v>
@@ -4245,31 +4250,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H35" t="n">
-        <v>127813</v>
+        <v>135726</v>
       </c>
       <c r="I35" t="n">
-        <v>0.467</v>
+        <v>0.496</v>
       </c>
       <c r="J35" t="n">
-        <v>4241</v>
+        <v>3666</v>
       </c>
       <c r="K35" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="L35" t="n">
-        <v>3818.333</v>
+        <v>4051.333</v>
       </c>
       <c r="M35" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3861</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.014</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4442.286</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.016</v>
       </c>
       <c r="P35" t="s">
         <v>241</v>
@@ -4292,7 +4297,7 @@
         <v>245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D36" t="s">
         <v>246</v>
@@ -4302,22 +4307,26 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>643772</v>
+        <v>658604</v>
       </c>
       <c r="I36" t="n">
-        <v>7.665</v>
+        <v>7.841</v>
       </c>
       <c r="J36" t="n">
-        <v>14238</v>
+        <v>14832</v>
       </c>
       <c r="K36" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36"/>
+        <v>0.177</v>
+      </c>
+      <c r="L36" t="n">
+        <v>14375.667</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.171</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="s">
@@ -4445,7 +4454,7 @@
         <v>264</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D39" t="s">
         <v>265</v>
@@ -4457,31 +4466,31 @@
         <v>267</v>
       </c>
       <c r="G39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H39" t="n">
-        <v>1820083</v>
+        <v>1859110</v>
       </c>
       <c r="I39" t="n">
-        <v>30.103</v>
+        <v>30.748</v>
       </c>
       <c r="J39" t="n">
-        <v>41131</v>
+        <v>39027</v>
       </c>
       <c r="K39" t="n">
-        <v>0.68</v>
+        <v>0.645</v>
       </c>
       <c r="L39" t="n">
-        <v>39266.667</v>
+        <v>39069</v>
       </c>
       <c r="M39" t="n">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
       <c r="N39" t="n">
-        <v>36646.571</v>
+        <v>35732.143</v>
       </c>
       <c r="O39" t="n">
-        <v>0.606</v>
+        <v>0.591</v>
       </c>
       <c r="P39" t="s">
         <v>268</v>
@@ -4504,7 +4513,7 @@
         <v>271</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D40" t="s">
         <v>265</v>
@@ -4516,31 +4525,31 @@
         <v>267</v>
       </c>
       <c r="G40" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="n">
-        <v>2807504</v>
+        <v>2875680</v>
       </c>
       <c r="I40" t="n">
-        <v>46.434</v>
+        <v>47.562</v>
       </c>
       <c r="J40" t="n">
-        <v>71876</v>
+        <v>68176</v>
       </c>
       <c r="K40" t="n">
-        <v>1.189</v>
+        <v>1.128</v>
       </c>
       <c r="L40" t="n">
-        <v>66950.667</v>
+        <v>67341.667</v>
       </c>
       <c r="M40" t="n">
-        <v>1.107</v>
+        <v>1.114</v>
       </c>
       <c r="N40" t="n">
-        <v>60888</v>
+        <v>61516.714</v>
       </c>
       <c r="O40" t="n">
-        <v>1.007</v>
+        <v>1.018</v>
       </c>
       <c r="P40" t="s">
         <v>268</v>
@@ -4563,7 +4572,7 @@
         <v>274</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D41" t="s">
         <v>275</v>
@@ -4575,13 +4584,13 @@
         <v>277</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H41" t="n">
-        <v>223667</v>
+        <v>230882</v>
       </c>
       <c r="I41" t="n">
-        <v>1.768</v>
+        <v>1.825</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -4610,7 +4619,7 @@
         <v>280</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D42" t="s">
         <v>281</v>
@@ -4622,31 +4631,31 @@
         <v>282</v>
       </c>
       <c r="G42" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="n">
-        <v>345916</v>
+        <v>357626</v>
       </c>
       <c r="I42" t="n">
-        <v>2.735</v>
+        <v>2.828</v>
       </c>
       <c r="J42" t="n">
-        <v>6843</v>
+        <v>8190</v>
       </c>
       <c r="K42" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="L42" t="n">
-        <v>5106.667</v>
+        <v>7755.333</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04</v>
+        <v>0.061</v>
       </c>
       <c r="N42" t="n">
-        <v>6075.429</v>
+        <v>7078.857</v>
       </c>
       <c r="O42" t="n">
-        <v>0.048</v>
+        <v>0.056</v>
       </c>
       <c r="P42" t="s">
         <v>276</v>
@@ -4669,7 +4678,7 @@
         <v>285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D43" t="s">
         <v>286</v>
@@ -4679,31 +4688,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H43" t="n">
-        <v>459736</v>
+        <v>483236</v>
       </c>
       <c r="I43" t="n">
-        <v>24.484</v>
+        <v>25.736</v>
       </c>
       <c r="J43" t="n">
-        <v>20241</v>
+        <v>23500</v>
       </c>
       <c r="K43" t="n">
-        <v>1.078</v>
+        <v>1.252</v>
       </c>
       <c r="L43" t="n">
-        <v>17007.667</v>
+        <v>20408.333</v>
       </c>
       <c r="M43" t="n">
-        <v>0.906</v>
+        <v>1.087</v>
       </c>
       <c r="N43" t="n">
-        <v>15127.571</v>
+        <v>16015.714</v>
       </c>
       <c r="O43" t="n">
-        <v>0.806</v>
+        <v>0.853</v>
       </c>
       <c r="P43" t="s">
         <v>287</v>
@@ -4726,7 +4735,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D44" t="s">
         <v>291</v>
@@ -4736,28 +4745,32 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="n">
-        <v>36918</v>
+        <v>39018</v>
       </c>
       <c r="I44" t="n">
-        <v>0.687</v>
+        <v>0.726</v>
       </c>
       <c r="J44" t="n">
-        <v>1486</v>
+        <v>2100</v>
       </c>
       <c r="K44" t="n">
-        <v>0.028</v>
+        <v>0.039</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.667</v>
+        <v>1700.667</v>
       </c>
       <c r="M44" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
+        <v>0.032</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1369.714</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.026</v>
+      </c>
       <c r="P44" t="s">
         <v>43</v>
       </c>
@@ -4779,7 +4792,7 @@
         <v>297</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D45" t="s">
         <v>298</v>
@@ -4791,31 +4804,31 @@
         <v>300</v>
       </c>
       <c r="G45" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H45" t="n">
-        <v>83275</v>
+        <v>87377</v>
       </c>
       <c r="I45" t="n">
-        <v>44.15</v>
+        <v>46.324</v>
       </c>
       <c r="J45" t="n">
-        <v>2029</v>
+        <v>1946</v>
       </c>
       <c r="K45" t="n">
-        <v>1.076</v>
+        <v>1.032</v>
       </c>
       <c r="L45" t="n">
-        <v>2042.667</v>
+        <v>2043.667</v>
       </c>
       <c r="M45" t="n">
-        <v>1.083</v>
+        <v>1.084</v>
       </c>
       <c r="N45" t="n">
-        <v>1743.714</v>
+        <v>1686.571</v>
       </c>
       <c r="O45" t="n">
-        <v>0.924</v>
+        <v>0.894</v>
       </c>
       <c r="P45" t="s">
         <v>299</v>
@@ -4838,7 +4851,7 @@
         <v>303</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D46" t="s">
         <v>304</v>
@@ -4848,31 +4861,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H46" t="n">
-        <v>208253</v>
+        <v>224040</v>
       </c>
       <c r="I46" t="n">
-        <v>76.499</v>
+        <v>82.298</v>
       </c>
       <c r="J46" t="n">
-        <v>7989</v>
+        <v>7793</v>
       </c>
       <c r="K46" t="n">
-        <v>2.935</v>
+        <v>2.863</v>
       </c>
       <c r="L46" t="n">
-        <v>7229.333</v>
+        <v>7925.333</v>
       </c>
       <c r="M46" t="n">
-        <v>2.656</v>
+        <v>2.911</v>
       </c>
       <c r="N46" t="n">
-        <v>6309.286</v>
+        <v>6244</v>
       </c>
       <c r="O46" t="n">
-        <v>2.318</v>
+        <v>2.294</v>
       </c>
       <c r="P46" t="s">
         <v>43</v>
@@ -4895,7 +4908,7 @@
         <v>308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D47" t="s">
         <v>309</v>
@@ -4905,31 +4918,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47" t="n">
-        <v>58727</v>
+        <v>59987</v>
       </c>
       <c r="I47" t="n">
-        <v>93.817</v>
+        <v>95.83</v>
       </c>
       <c r="J47" t="n">
-        <v>1040</v>
+        <v>1260</v>
       </c>
       <c r="K47" t="n">
-        <v>1.661</v>
+        <v>2.013</v>
       </c>
       <c r="L47" t="n">
-        <v>1104</v>
+        <v>1197.667</v>
       </c>
       <c r="M47" t="n">
-        <v>1.764</v>
+        <v>1.913</v>
       </c>
       <c r="N47" t="n">
-        <v>977.714</v>
+        <v>961.429</v>
       </c>
       <c r="O47" t="n">
-        <v>1.562</v>
+        <v>1.536</v>
       </c>
       <c r="P47" t="s">
         <v>310</v>
@@ -4952,7 +4965,7 @@
         <v>314</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43962</v>
+        <v>43967</v>
       </c>
       <c r="D48" t="s">
         <v>315</v>
@@ -4962,20 +4975,16 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48" t="n">
-        <v>266048</v>
+        <v>434136</v>
       </c>
       <c r="I48" t="n">
-        <v>8.22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9111</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.281</v>
-      </c>
+        <v>13.413</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -5001,7 +5010,7 @@
         <v>321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D49" t="s">
         <v>322</v>
@@ -5011,13 +5020,13 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H49" t="n">
-        <v>123641</v>
+        <v>134663</v>
       </c>
       <c r="I49" t="n">
-        <v>0.959</v>
+        <v>1.044</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
@@ -5029,7 +5038,7 @@
       </c>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="P49" t="s">
         <v>323</v>
@@ -5119,446 +5128,448 @@
       <c r="E51" t="s">
         <v>335</v>
       </c>
-      <c r="F51" t="s">
-        <v>336</v>
-      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
         <v>38</v>
       </c>
       <c r="H51" t="n">
-        <v>12482</v>
+        <v>12995</v>
       </c>
       <c r="I51" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
+        <v>0.239</v>
+      </c>
+      <c r="J51" t="n">
+        <v>513</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L51" t="n">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N51" t="n">
+        <v>389.857</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.007</v>
+      </c>
       <c r="P51" t="s">
         <v>335</v>
       </c>
       <c r="Q51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R51" t="s">
         <v>53</v>
       </c>
       <c r="S51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
         <v>339</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D52" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>341</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>342</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="n">
+        <v>85</v>
+      </c>
+      <c r="H52" t="n">
+        <v>23914</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1650</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1203.143</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="P52" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q52" t="s">
         <v>343</v>
-      </c>
-      <c r="G52" t="n">
-        <v>83</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21340</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2376</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1480.667</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1034.857</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="P52" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>344</v>
       </c>
       <c r="R52" t="s">
         <v>94</v>
       </c>
       <c r="S52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
         <v>346</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D53" t="s">
         <v>347</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>348</v>
-      </c>
-      <c r="E53" t="s">
-        <v>349</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>282776</v>
+        <v>287943</v>
       </c>
       <c r="I53" t="n">
-        <v>16.503</v>
+        <v>16.805</v>
       </c>
       <c r="J53" t="n">
-        <v>5180</v>
+        <v>4013</v>
       </c>
       <c r="K53" t="n">
-        <v>0.302</v>
+        <v>0.234</v>
       </c>
       <c r="L53" t="n">
-        <v>5142</v>
+        <v>5499.333</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3</v>
+        <v>0.321</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q53" t="s">
         <v>350</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>351</v>
       </c>
       <c r="R53" t="s">
         <v>94</v>
       </c>
       <c r="S53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" t="s">
         <v>353</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D54" t="s">
         <v>354</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D54" t="s">
-        <v>355</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H54" t="n">
-        <v>209613</v>
+        <v>223937</v>
       </c>
       <c r="I54" t="n">
-        <v>43.468</v>
+        <v>46.438</v>
       </c>
       <c r="J54" t="n">
-        <v>6568</v>
+        <v>7150</v>
       </c>
       <c r="K54" t="n">
-        <v>1.362</v>
+        <v>1.483</v>
       </c>
       <c r="L54" t="n">
-        <v>5140.667</v>
+        <v>6964</v>
       </c>
       <c r="M54" t="n">
-        <v>1.066</v>
+        <v>1.444</v>
       </c>
       <c r="N54" t="n">
-        <v>5941.429</v>
+        <v>5842.571</v>
       </c>
       <c r="O54" t="n">
-        <v>1.232</v>
+        <v>1.212</v>
       </c>
       <c r="P54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" t="s">
         <v>358</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D55" t="s">
         <v>359</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>360</v>
-      </c>
-      <c r="E55" t="s">
-        <v>361</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>30657</v>
+        <v>32942</v>
       </c>
       <c r="I55" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1249</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1193</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.006</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q55" t="s">
         <v>361</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>362</v>
       </c>
       <c r="R55" t="s">
         <v>53</v>
       </c>
       <c r="S55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56" t="s">
         <v>364</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D56" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>366</v>
-      </c>
-      <c r="E56" t="s">
-        <v>367</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H56" t="n">
-        <v>212655</v>
+        <v>216350</v>
       </c>
       <c r="I56" t="n">
-        <v>39.226</v>
+        <v>39.908</v>
       </c>
       <c r="J56" t="n">
-        <v>3781</v>
+        <v>3695</v>
       </c>
       <c r="K56" t="n">
-        <v>0.697</v>
+        <v>0.682</v>
       </c>
       <c r="L56" t="n">
-        <v>3301.333</v>
+        <v>3703.667</v>
       </c>
       <c r="M56" t="n">
-        <v>0.609</v>
+        <v>0.683</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q56" t="s">
         <v>367</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>368</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>369</v>
-      </c>
-      <c r="S56" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s">
         <v>371</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D57" t="s">
         <v>372</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>373</v>
-      </c>
-      <c r="E57" t="s">
-        <v>374</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H57" t="n">
-        <v>330750</v>
+        <v>359264</v>
       </c>
       <c r="I57" t="n">
-        <v>1.497</v>
+        <v>1.626</v>
       </c>
       <c r="J57" t="n">
-        <v>13051</v>
+        <v>14814</v>
       </c>
       <c r="K57" t="n">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="L57" t="n">
-        <v>11952</v>
+        <v>13855</v>
       </c>
       <c r="M57" t="n">
-        <v>0.054</v>
+        <v>0.063</v>
       </c>
       <c r="N57" t="n">
-        <v>12281.714</v>
+        <v>12748.429</v>
       </c>
       <c r="O57" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="P57" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q57" t="s">
         <v>374</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>375</v>
       </c>
       <c r="R57" t="s">
         <v>24</v>
       </c>
       <c r="S57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" t="s">
         <v>377</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D58" t="s">
         <v>378</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D58" t="s">
-        <v>379</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G58" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H58" t="n">
-        <v>45873</v>
+        <v>47768</v>
       </c>
       <c r="I58" t="n">
-        <v>10.632</v>
+        <v>11.071</v>
       </c>
       <c r="J58" t="n">
-        <v>1312</v>
+        <v>870</v>
       </c>
       <c r="K58" t="n">
-        <v>0.304</v>
+        <v>0.202</v>
       </c>
       <c r="L58" t="n">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="M58" t="n">
         <v>0.248</v>
       </c>
       <c r="N58" t="n">
-        <v>1122.714</v>
+        <v>1058.857</v>
       </c>
       <c r="O58" t="n">
-        <v>0.26</v>
+        <v>0.246</v>
       </c>
       <c r="P58" t="s">
         <v>43</v>
       </c>
       <c r="Q58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R58" t="s">
         <v>128</v>
       </c>
       <c r="S58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" t="s">
         <v>383</v>
-      </c>
-      <c r="B59" t="s">
-        <v>384</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>43960</v>
       </c>
       <c r="D59" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" t="s">
         <v>385</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>386</v>
-      </c>
-      <c r="F59" t="s">
-        <v>387</v>
       </c>
       <c r="G59" t="n">
         <v>62</v>
@@ -5588,89 +5599,81 @@
         <v>0.078</v>
       </c>
       <c r="P59" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q59" t="s">
         <v>388</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>389</v>
       </c>
       <c r="R59" t="s">
         <v>53</v>
       </c>
       <c r="S59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" t="s">
         <v>391</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D60" t="s">
         <v>392</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D60" t="s">
-        <v>393</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H60" t="n">
-        <v>553302</v>
+        <v>605383</v>
       </c>
       <c r="I60" t="n">
-        <v>16.781</v>
-      </c>
-      <c r="J60" t="n">
-        <v>21133</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="L60" t="n">
-        <v>16124</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.489</v>
-      </c>
+        <v>18.361</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q60" t="s">
         <v>394</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>395</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>396</v>
-      </c>
-      <c r="S60" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" t="s">
         <v>398</v>
-      </c>
-      <c r="B61" t="s">
-        <v>399</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D61" t="s">
+        <v>399</v>
+      </c>
+      <c r="E61" t="s">
         <v>400</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>401</v>
-      </c>
-      <c r="F61" t="s">
-        <v>402</v>
       </c>
       <c r="G61" t="n">
         <v>23</v>
@@ -5695,206 +5698,206 @@
         <v>213</v>
       </c>
       <c r="Q61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R61" t="s">
         <v>94</v>
       </c>
       <c r="S61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62" t="s">
         <v>404</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D62" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>406</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>407</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="n">
+        <v>72</v>
+      </c>
+      <c r="H62" t="n">
+        <v>576276</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15.227</v>
+      </c>
+      <c r="J62" t="n">
+        <v>21919</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="L62" t="n">
+        <v>22832.667</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="N62" t="n">
+        <v>18967.143</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="P62" t="s">
         <v>408</v>
       </c>
-      <c r="G62" t="n">
-        <v>71</v>
-      </c>
-      <c r="H62" t="n">
-        <v>554357</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.647</v>
-      </c>
-      <c r="J62" t="n">
-        <v>26235</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>21047</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="N62" t="n">
-        <v>18337.571</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>409</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>410</v>
       </c>
       <c r="R62" t="s">
         <v>53</v>
       </c>
       <c r="S62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63" t="s">
         <v>412</v>
-      </c>
-      <c r="B63" t="s">
-        <v>413</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H63" t="n">
-        <v>582341</v>
+        <v>600061</v>
       </c>
       <c r="I63" t="n">
-        <v>57.111</v>
+        <v>58.849</v>
       </c>
       <c r="J63" t="n">
-        <v>16017</v>
+        <v>17463</v>
       </c>
       <c r="K63" t="n">
-        <v>1.571</v>
+        <v>1.713</v>
       </c>
       <c r="L63" t="n">
-        <v>11972.333</v>
+        <v>15385</v>
       </c>
       <c r="M63" t="n">
-        <v>1.174</v>
+        <v>1.509</v>
       </c>
       <c r="N63" t="n">
-        <v>13704.571</v>
+        <v>14025</v>
       </c>
       <c r="O63" t="n">
-        <v>1.344</v>
+        <v>1.376</v>
       </c>
       <c r="P63" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>413</v>
+      </c>
+      <c r="R63" t="s">
         <v>415</v>
       </c>
-      <c r="Q63" t="s">
-        <v>414</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>416</v>
-      </c>
-      <c r="S63" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>417</v>
+      </c>
+      <c r="B64" t="s">
         <v>418</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D64" t="s">
         <v>419</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>420</v>
-      </c>
-      <c r="E64" t="s">
-        <v>421</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H64" t="n">
-        <v>143938</v>
+        <v>152704</v>
       </c>
       <c r="I64" t="n">
-        <v>49.96</v>
+        <v>53.003</v>
       </c>
       <c r="J64" t="n">
-        <v>4811</v>
+        <v>4531</v>
       </c>
       <c r="K64" t="n">
-        <v>1.67</v>
+        <v>1.573</v>
       </c>
       <c r="L64" t="n">
-        <v>4298</v>
+        <v>4525.667</v>
       </c>
       <c r="M64" t="n">
-        <v>1.492</v>
+        <v>1.571</v>
       </c>
       <c r="N64" t="n">
-        <v>3920.429</v>
+        <v>4021.429</v>
       </c>
       <c r="O64" t="n">
-        <v>1.361</v>
+        <v>1.396</v>
       </c>
       <c r="P64" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q64" t="s">
         <v>421</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>422</v>
       </c>
       <c r="R64" t="s">
         <v>94</v>
       </c>
       <c r="S64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" t="s">
         <v>424</v>
-      </c>
-      <c r="B65" t="s">
-        <v>425</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
         <v>426</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>427</v>
-      </c>
-      <c r="F65" t="s">
-        <v>428</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
@@ -5924,319 +5927,319 @@
         <v>0.442</v>
       </c>
       <c r="P65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R65" t="s">
         <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" t="s">
         <v>430</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D66" t="s">
         <v>431</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>432</v>
-      </c>
-      <c r="E66" t="s">
-        <v>433</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H66" t="n">
-        <v>6188102</v>
+        <v>6656340</v>
       </c>
       <c r="I66" t="n">
-        <v>42.403</v>
+        <v>45.612</v>
       </c>
       <c r="J66" t="n">
-        <v>205544</v>
+        <v>242392</v>
       </c>
       <c r="K66" t="n">
-        <v>1.408</v>
+        <v>1.661</v>
       </c>
       <c r="L66" t="n">
-        <v>183779.667</v>
+        <v>224594</v>
       </c>
       <c r="M66" t="n">
-        <v>1.259</v>
+        <v>1.539</v>
       </c>
       <c r="N66" t="n">
-        <v>197844.286</v>
+        <v>204910.857</v>
       </c>
       <c r="O66" t="n">
-        <v>1.356</v>
+        <v>1.404</v>
       </c>
       <c r="P66" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q66" t="s">
         <v>433</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>434</v>
       </c>
       <c r="R66" t="s">
         <v>24</v>
       </c>
       <c r="S66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" t="s">
         <v>436</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D67" t="s">
         <v>437</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>438</v>
-      </c>
-      <c r="E67" t="s">
-        <v>439</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H67" t="n">
-        <v>44245</v>
+        <v>46198</v>
       </c>
       <c r="I67" t="n">
-        <v>3.416</v>
+        <v>3.567</v>
       </c>
       <c r="J67" t="n">
-        <v>866</v>
+        <v>1058</v>
       </c>
       <c r="K67" t="n">
-        <v>0.067</v>
+        <v>0.082</v>
       </c>
       <c r="L67" t="n">
-        <v>606.667</v>
+        <v>939.667</v>
       </c>
       <c r="M67" t="n">
-        <v>0.047</v>
+        <v>0.073</v>
       </c>
       <c r="N67" t="n">
-        <v>990</v>
+        <v>858.714</v>
       </c>
       <c r="O67" t="n">
-        <v>0.076</v>
+        <v>0.066</v>
       </c>
       <c r="P67" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q67" t="s">
         <v>439</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>440</v>
       </c>
       <c r="R67" t="s">
         <v>53</v>
       </c>
       <c r="S67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" t="s">
         <v>442</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D68" t="s">
         <v>443</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D68" t="s">
-        <v>444</v>
       </c>
       <c r="E68" t="s">
         <v>43</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>513587</v>
+        <v>530265</v>
       </c>
       <c r="I68" t="n">
-        <v>14.752</v>
+        <v>15.231</v>
       </c>
       <c r="J68" t="n">
-        <v>16639</v>
+        <v>16678</v>
       </c>
       <c r="K68" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L68" t="n">
-        <v>15406</v>
+        <v>15963.667</v>
       </c>
       <c r="M68" t="n">
-        <v>0.443</v>
+        <v>0.459</v>
       </c>
       <c r="N68" t="n">
-        <v>15414.571</v>
+        <v>15934.714</v>
       </c>
       <c r="O68" t="n">
-        <v>0.443</v>
+        <v>0.458</v>
       </c>
       <c r="P68" t="s">
         <v>43</v>
       </c>
       <c r="Q68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R68" t="s">
         <v>128</v>
       </c>
       <c r="S68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" t="s">
         <v>446</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D69" t="s">
         <v>447</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>448</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>449</v>
       </c>
-      <c r="F69" t="s">
-        <v>450</v>
-      </c>
       <c r="G69" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H69" t="n">
-        <v>25501</v>
+        <v>27618</v>
       </c>
       <c r="I69" t="n">
-        <v>1.523</v>
+        <v>1.649</v>
       </c>
       <c r="J69" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K69" t="n">
         <v>0.059</v>
       </c>
       <c r="L69" t="n">
-        <v>1003.667</v>
+        <v>1036.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="N69" t="n">
-        <v>1000.571</v>
+        <v>1057.286</v>
       </c>
       <c r="O69" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="P69" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q69" t="s">
         <v>451</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>452</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>453</v>
-      </c>
-      <c r="S69" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>454</v>
+      </c>
+      <c r="B70" t="s">
         <v>455</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D70" t="s">
         <v>456</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D70" t="s">
-        <v>457</v>
       </c>
       <c r="E70" t="s">
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G70" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H70" t="n">
-        <v>156603</v>
+        <v>168670</v>
       </c>
       <c r="I70" t="n">
-        <v>23.014</v>
+        <v>24.788</v>
       </c>
       <c r="J70" t="n">
-        <v>5299</v>
+        <v>5873</v>
       </c>
       <c r="K70" t="n">
-        <v>0.779</v>
+        <v>0.863</v>
       </c>
       <c r="L70" t="n">
-        <v>5337</v>
+        <v>5788.667</v>
       </c>
       <c r="M70" t="n">
-        <v>0.785</v>
+        <v>0.851</v>
       </c>
       <c r="N70" t="n">
-        <v>5589.857</v>
+        <v>5695</v>
       </c>
       <c r="O70" t="n">
-        <v>0.822</v>
+        <v>0.837</v>
       </c>
       <c r="P70" t="s">
         <v>43</v>
       </c>
       <c r="Q70" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R70" t="s">
         <v>94</v>
       </c>
       <c r="S70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s">
         <v>461</v>
-      </c>
-      <c r="B71" t="s">
-        <v>462</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" t="s">
         <v>43</v>
@@ -6246,10 +6249,10 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>216102</v>
+        <v>186183</v>
       </c>
       <c r="I71" t="n">
-        <v>36.938</v>
+        <v>31.824</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
@@ -6261,27 +6264,27 @@
         <v>43</v>
       </c>
       <c r="Q71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R71" t="s">
         <v>94</v>
       </c>
       <c r="S71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E72" t="s">
         <v>43</v>
@@ -6291,10 +6294,10 @@
         <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>224262</v>
+        <v>246254</v>
       </c>
       <c r="I72" t="n">
-        <v>38.333</v>
+        <v>42.092</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -6306,272 +6309,270 @@
         <v>43</v>
       </c>
       <c r="Q72" t="s">
+        <v>463</v>
+      </c>
+      <c r="R72" t="s">
+        <v>467</v>
+      </c>
+      <c r="S72" t="s">
         <v>464</v>
-      </c>
-      <c r="R72" t="s">
-        <v>468</v>
-      </c>
-      <c r="S72" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" t="s">
         <v>469</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D73" t="s">
         <v>470</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>471</v>
-      </c>
-      <c r="E73" t="s">
-        <v>472</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H73" t="n">
-        <v>131910</v>
+        <v>139986</v>
       </c>
       <c r="I73" t="n">
-        <v>24.161</v>
+        <v>25.64</v>
       </c>
       <c r="J73" t="n">
-        <v>4876</v>
+        <v>4084</v>
       </c>
       <c r="K73" t="n">
-        <v>0.893</v>
+        <v>0.748</v>
       </c>
       <c r="L73" t="n">
-        <v>3755</v>
+        <v>4317.333</v>
       </c>
       <c r="M73" t="n">
-        <v>0.688</v>
+        <v>0.791</v>
       </c>
       <c r="N73" t="n">
-        <v>3163.286</v>
+        <v>3087.857</v>
       </c>
       <c r="O73" t="n">
-        <v>0.579</v>
+        <v>0.566</v>
       </c>
       <c r="P73" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q73" t="s">
         <v>473</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>474</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>475</v>
-      </c>
-      <c r="S73" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" t="s">
         <v>477</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D74" t="s">
         <v>478</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>479</v>
-      </c>
-      <c r="E74" t="s">
-        <v>480</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H74" t="n">
-        <v>66678</v>
+        <v>68852</v>
       </c>
       <c r="I74" t="n">
-        <v>32.073</v>
+        <v>33.119</v>
       </c>
       <c r="J74" t="n">
-        <v>984</v>
+        <v>1151</v>
       </c>
       <c r="K74" t="n">
-        <v>0.473</v>
+        <v>0.554</v>
       </c>
       <c r="L74" t="n">
-        <v>1104.333</v>
+        <v>1052.667</v>
       </c>
       <c r="M74" t="n">
-        <v>0.531</v>
+        <v>0.506</v>
       </c>
       <c r="N74" t="n">
-        <v>957.143</v>
+        <v>949.857</v>
       </c>
       <c r="O74" t="n">
-        <v>0.461</v>
+        <v>0.457</v>
       </c>
       <c r="P74" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q74" t="s">
         <v>481</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>482</v>
       </c>
       <c r="R74" t="s">
         <v>24</v>
       </c>
       <c r="S74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>483</v>
+      </c>
+      <c r="B75" t="s">
         <v>484</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D75" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>486</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>487</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="n">
+        <v>76</v>
+      </c>
+      <c r="H75" t="n">
+        <v>421555</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.108</v>
+      </c>
+      <c r="J75" t="n">
+        <v>18537</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="L75" t="n">
+        <v>17286</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="N75" t="n">
+        <v>16257.571</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="P75" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q75" t="s">
         <v>488</v>
-      </c>
-      <c r="G75" t="n">
-        <v>75</v>
-      </c>
-      <c r="H75" t="n">
-        <v>403018</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6.795</v>
-      </c>
-      <c r="J75" t="n">
-        <v>16666</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15650.333</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="N75" t="n">
-        <v>15837.857</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="P75" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>489</v>
       </c>
       <c r="R75" t="s">
         <v>94</v>
       </c>
       <c r="S75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>490</v>
+      </c>
+      <c r="B76" t="s">
         <v>491</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D76" t="s">
         <v>492</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>493</v>
-      </c>
-      <c r="E76" t="s">
-        <v>494</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H76" t="n">
-        <v>711484</v>
+        <v>740645</v>
       </c>
       <c r="I76" t="n">
-        <v>13.877</v>
+        <v>14.446</v>
       </c>
       <c r="J76" t="n">
-        <v>15564</v>
+        <v>13898</v>
       </c>
       <c r="K76" t="n">
-        <v>0.304</v>
+        <v>0.271</v>
       </c>
       <c r="L76" t="n">
-        <v>14330.667</v>
+        <v>14908.333</v>
       </c>
       <c r="M76" t="n">
-        <v>0.28</v>
+        <v>0.291</v>
       </c>
       <c r="N76" t="n">
-        <v>8870.857</v>
+        <v>11516.429</v>
       </c>
       <c r="O76" t="n">
-        <v>0.173</v>
+        <v>0.225</v>
       </c>
       <c r="P76" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q76" t="s">
         <v>494</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>495</v>
       </c>
       <c r="R76" t="s">
         <v>73</v>
       </c>
       <c r="S76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" t="s">
         <v>497</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D77" t="s">
         <v>498</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>43958</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>499</v>
       </c>
-      <c r="E77" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" t="s">
-        <v>501</v>
-      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1625211</v>
+        <v>1919411</v>
       </c>
       <c r="I77" t="n">
-        <v>34.76</v>
+        <v>41.053</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -6580,33 +6581,33 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q77" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="R77" t="s">
         <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E78" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -6625,196 +6626,196 @@
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R78" t="s">
         <v>94</v>
       </c>
       <c r="S78" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>508</v>
+      </c>
+      <c r="B79" t="s">
+        <v>509</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D79" t="s">
         <v>510</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>511</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D79" t="s">
-        <v>512</v>
-      </c>
-      <c r="E79" t="s">
-        <v>513</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H79" t="n">
-        <v>328155</v>
+        <v>339394</v>
       </c>
       <c r="I79" t="n">
-        <v>37.917</v>
+        <v>39.215</v>
       </c>
       <c r="J79" t="n">
-        <v>3704</v>
+        <v>3210</v>
       </c>
       <c r="K79" t="n">
-        <v>0.428</v>
+        <v>0.371</v>
       </c>
       <c r="L79" t="n">
-        <v>4583.667</v>
+        <v>4785</v>
       </c>
       <c r="M79" t="n">
-        <v>0.53</v>
+        <v>0.553</v>
       </c>
       <c r="N79" t="n">
-        <v>3897.571</v>
+        <v>4224.286</v>
       </c>
       <c r="O79" t="n">
-        <v>0.45</v>
+        <v>0.488</v>
       </c>
       <c r="P79" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>510</v>
+      </c>
+      <c r="R79" t="s">
+        <v>512</v>
+      </c>
+      <c r="S79" t="s">
         <v>513</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>512</v>
-      </c>
-      <c r="R79" t="s">
-        <v>514</v>
-      </c>
-      <c r="S79" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" t="s">
+        <v>515</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D80" t="s">
         <v>516</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>517</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D80" t="s">
-        <v>518</v>
-      </c>
-      <c r="E80" t="s">
-        <v>519</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H80" t="n">
-        <v>68335</v>
+        <v>68988</v>
       </c>
       <c r="I80" t="n">
-        <v>2.869</v>
+        <v>2.897</v>
       </c>
       <c r="J80" t="n">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="L80" t="n">
-        <v>311.667</v>
+        <v>293.667</v>
       </c>
       <c r="M80" t="n">
         <v>0.013</v>
       </c>
       <c r="N80" t="n">
-        <v>327</v>
+        <v>303.857</v>
       </c>
       <c r="O80" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="P80" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>518</v>
+      </c>
+      <c r="R80" t="s">
         <v>519</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>520</v>
-      </c>
-      <c r="R80" t="s">
-        <v>521</v>
-      </c>
-      <c r="S80" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>521</v>
+      </c>
+      <c r="B81" t="s">
+        <v>522</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D81" t="s">
         <v>523</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>524</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D81" t="s">
-        <v>525</v>
-      </c>
-      <c r="E81" t="s">
-        <v>526</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H81" t="n">
-        <v>114405</v>
+        <v>118274</v>
       </c>
       <c r="I81" t="n">
-        <v>1.639</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3117</v>
-      </c>
+        <v>1.694</v>
+      </c>
+      <c r="J81"/>
       <c r="K81" t="n">
-        <v>0.045</v>
+        <v>0.003</v>
       </c>
       <c r="L81"/>
-      <c r="M81"/>
+      <c r="M81" t="n">
+        <v>0.033</v>
+      </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q81" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="R81" t="s">
         <v>94</v>
       </c>
       <c r="S81" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="D82" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E82" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -6833,430 +6834,434 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q82" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R82" t="s">
         <v>53</v>
       </c>
       <c r="S82" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" t="s">
+        <v>534</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D83" t="s">
         <v>535</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>536</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E83" t="s">
-        <v>538</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H83" t="n">
-        <v>34323</v>
+        <v>37862</v>
       </c>
       <c r="I83" t="n">
-        <v>2.904</v>
+        <v>3.204</v>
       </c>
       <c r="J83" t="n">
-        <v>443</v>
+        <v>1339</v>
       </c>
       <c r="K83" t="n">
-        <v>0.037</v>
+        <v>0.113</v>
       </c>
       <c r="L83" t="n">
-        <v>501.667</v>
+        <v>1327.333</v>
       </c>
       <c r="M83" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>0.112</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1491.714</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.126</v>
+      </c>
       <c r="P83" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>537</v>
+      </c>
+      <c r="R83" t="s">
         <v>538</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>539</v>
-      </c>
-      <c r="R83" t="s">
-        <v>540</v>
-      </c>
-      <c r="S83" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>540</v>
+      </c>
+      <c r="B84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D84" t="s">
         <v>542</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>543</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D84" t="s">
-        <v>544</v>
-      </c>
-      <c r="E84" t="s">
-        <v>545</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H84" t="n">
-        <v>1508824</v>
+        <v>1547389</v>
       </c>
       <c r="I84" t="n">
-        <v>17.89</v>
+        <v>18.347</v>
       </c>
       <c r="J84" t="n">
-        <v>34821</v>
+        <v>38565</v>
       </c>
       <c r="K84" t="n">
-        <v>0.413</v>
+        <v>0.457</v>
       </c>
       <c r="L84" t="n">
-        <v>35168</v>
+        <v>35572.667</v>
       </c>
       <c r="M84" t="n">
-        <v>0.417</v>
+        <v>0.422</v>
       </c>
       <c r="N84" t="n">
-        <v>34815</v>
+        <v>35511.857</v>
       </c>
       <c r="O84" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="P84" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>544</v>
+      </c>
+      <c r="R84" t="s">
         <v>545</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="S84" t="s">
         <v>546</v>
-      </c>
-      <c r="R84" t="s">
-        <v>547</v>
-      </c>
-      <c r="S84" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>547</v>
+      </c>
+      <c r="B85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D85" t="s">
         <v>549</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>550</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>551</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="n">
+        <v>38</v>
+      </c>
+      <c r="H85" t="n">
+        <v>68172</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1896</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1903.667</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2304.286</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P85" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q85" t="s">
         <v>552</v>
-      </c>
-      <c r="F85" t="s">
-        <v>553</v>
-      </c>
-      <c r="G85" t="n">
-        <v>37</v>
-      </c>
-      <c r="H85" t="n">
-        <v>66276</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.449</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2104</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2223</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2577.571</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="P85" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>554</v>
       </c>
       <c r="R85" t="s">
         <v>53</v>
       </c>
       <c r="S85" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" t="s">
+        <v>555</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D86" t="s">
         <v>556</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>557</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D86" t="s">
-        <v>558</v>
-      </c>
-      <c r="E86" t="s">
-        <v>559</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H86" t="n">
-        <v>202495</v>
+        <v>220638</v>
       </c>
       <c r="I86" t="n">
-        <v>4.63</v>
+        <v>5.045</v>
       </c>
       <c r="J86" t="n">
-        <v>10248</v>
+        <v>9024</v>
       </c>
       <c r="K86" t="n">
-        <v>0.234</v>
+        <v>0.206</v>
       </c>
       <c r="L86" t="n">
-        <v>6981</v>
+        <v>9463.667</v>
       </c>
       <c r="M86" t="n">
-        <v>0.16</v>
+        <v>0.216</v>
       </c>
       <c r="N86" t="n">
-        <v>7275.143</v>
+        <v>7647.286</v>
       </c>
       <c r="O86" t="n">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
       <c r="P86" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>558</v>
+      </c>
+      <c r="R86" t="s">
         <v>559</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>560</v>
-      </c>
-      <c r="R86" t="s">
-        <v>561</v>
-      </c>
-      <c r="S86" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>561</v>
+      </c>
+      <c r="B87" t="s">
+        <v>562</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D87" t="s">
         <v>563</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>564</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D87" t="s">
-        <v>565</v>
-      </c>
-      <c r="E87" t="s">
-        <v>566</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H87" t="n">
-        <v>1593902</v>
+        <v>1663492</v>
       </c>
       <c r="I87" t="n">
-        <v>23.479</v>
+        <v>24.504</v>
       </c>
       <c r="J87" t="n">
-        <v>71644</v>
+        <v>69590</v>
       </c>
       <c r="K87" t="n">
-        <v>1.055</v>
+        <v>1.025</v>
       </c>
       <c r="L87" t="n">
-        <v>64598.333</v>
+        <v>67658.333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.951</v>
+        <v>0.996</v>
       </c>
       <c r="N87" t="n">
-        <v>64896.571</v>
+        <v>65203.286</v>
       </c>
       <c r="O87" t="n">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
       <c r="P87" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q87" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R87" t="s">
         <v>94</v>
       </c>
       <c r="S87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B88" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E88" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H88" t="n">
-        <v>2219281</v>
+        <v>2353078</v>
       </c>
       <c r="I88" t="n">
-        <v>32.691</v>
+        <v>34.662</v>
       </c>
       <c r="J88" t="n">
-        <v>126064</v>
+        <v>133784</v>
       </c>
       <c r="K88" t="n">
-        <v>1.857</v>
+        <v>1.971</v>
       </c>
       <c r="L88" t="n">
-        <v>99473.333</v>
+        <v>115637</v>
       </c>
       <c r="M88" t="n">
-        <v>1.465</v>
+        <v>1.703</v>
       </c>
       <c r="N88" t="n">
-        <v>97950.571</v>
+        <v>103201.286</v>
       </c>
       <c r="O88" t="n">
-        <v>1.443</v>
+        <v>1.52</v>
       </c>
       <c r="P88" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q88" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R88" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S88" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>571</v>
+      </c>
+      <c r="B89" t="s">
+        <v>572</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D89" t="s">
         <v>573</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>574</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D89" t="s">
-        <v>575</v>
-      </c>
-      <c r="E89" t="s">
-        <v>576</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H89" t="n">
-        <v>9974831</v>
+        <v>10720185</v>
       </c>
       <c r="I89" t="n">
-        <v>30.135</v>
+        <v>32.387</v>
       </c>
       <c r="J89" t="n">
-        <v>324426</v>
+        <v>378410</v>
       </c>
       <c r="K89" t="n">
-        <v>0.98</v>
+        <v>1.143</v>
       </c>
       <c r="L89" t="n">
-        <v>338223</v>
+        <v>356593.333</v>
       </c>
       <c r="M89" t="n">
-        <v>1.022</v>
+        <v>1.077</v>
       </c>
       <c r="N89" t="n">
-        <v>312576.857</v>
+        <v>332882.714</v>
       </c>
       <c r="O89" t="n">
-        <v>0.944</v>
+        <v>1.006</v>
       </c>
       <c r="P89" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>575</v>
+      </c>
+      <c r="R89" t="s">
         <v>576</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="S89" t="s">
         <v>577</v>
-      </c>
-      <c r="R89" t="s">
-        <v>578</v>
-      </c>
-      <c r="S89" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D90" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E90" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -7279,82 +7284,86 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Q90" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="R90" t="s">
         <v>24</v>
       </c>
       <c r="S90" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>583</v>
+      </c>
+      <c r="B91" t="s">
+        <v>584</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D91" t="s">
         <v>585</v>
-      </c>
-      <c r="B91" t="s">
-        <v>586</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D91" t="s">
-        <v>587</v>
       </c>
       <c r="E91" t="s">
         <v>126</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H91" t="n">
-        <v>30209</v>
+        <v>32225</v>
       </c>
       <c r="I91" t="n">
-        <v>8.696</v>
+        <v>9.277</v>
       </c>
       <c r="J91" t="n">
-        <v>709</v>
+        <v>1016</v>
       </c>
       <c r="K91" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="L91"/>
-      <c r="M91"/>
+        <v>0.292</v>
+      </c>
+      <c r="L91" t="n">
+        <v>908.333</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.261</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">
         <v>126</v>
       </c>
       <c r="Q91" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
       </c>
       <c r="S91" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D92" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E92" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7373,67 +7382,63 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>592</v>
+      </c>
+      <c r="R92" t="s">
         <v>593</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
         <v>594</v>
-      </c>
-      <c r="R92" t="s">
-        <v>595</v>
-      </c>
-      <c r="S92" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>595</v>
+      </c>
+      <c r="B93" t="s">
+        <v>596</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D93" t="s">
         <v>597</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
         <v>598</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>599</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="n">
+        <v>9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11401</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q93" t="s">
         <v>600</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93" t="n">
-        <v>8</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11191</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="L93"/>
-      <c r="M93" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="P93" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>601</v>
       </c>
       <c r="R93" t="s">
         <v>24</v>
       </c>
       <c r="S93" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-15-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-16-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516115932/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192434/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516115941/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192440/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200515124712/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192446/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-15052020-fgg8</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-16052020-12345</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 16:45pm local time on 2020-05-15.</t>
+    <t xml:space="preserve">updated at 12:45pm local time on 2020-05-16.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -609,7 +609,7 @@
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
   </si>
   <si>
-    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 15th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
+    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update with testing figures, as of 16th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate. The most recent epidemiological report, dated 14th May, does not provide the number of laboratory and hospital tests performed.
 The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200515/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200516/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200516003830/http://irangov.ir/detail/339275</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200516191022/http://irangov.ir/detail/339329</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000630894.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000631066.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -1038,7 +1038,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200515225730/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192544/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This figure is taken from the interactive dashboard and should be updated once the daily PDF situation report becomes available</t>
   </si>
   <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
@@ -1316,7 +1319,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/154736-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-84-495-en-el-peru-comunicado-n-101</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/156940-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-88-541-en-el-peru-comunicado-n-102</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1352,7 +1355,7 @@
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
 The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
-No newly submitted reports as of 14 May. Latest testing data available is from 13 May 2020.</t>
+No newly submitted reports as of 16 May. Latest testing data available is from 13 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1464,7 +1467,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1261348536970391552</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1261712778756329480</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1751,7 +1754,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120425/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192735/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1818,7 +1821,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200515225910/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192739/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1842,13 +1845,13 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261025109332185089</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261413937863553025</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today. Samples tested today at the Uganda Virus Research Institute. (UVRI)</t>
+    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
@@ -1857,7 +1860,7 @@
     <t xml:space="preserve">The Office of the Director General publishes a daily press release detailing the cumulative number of samples tested to date, on the [MOH official twitter account](https://twitter.com/MinofHealthUG). The earliest press release that lists the cumulative total is 6th April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin. 
 After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. 
 For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals. From the 5th May, we rely on the figures reported by the MOH official twitter account and check figures against press releases where they have been made available by the MOH.  
-We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day. However, the cumulative totals diverge from the 29th April.</t>
+We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day. However, the cumulative totals calculated via the daily press releases and the MOH information portal diverge from the 29th April.</t>
   </si>
   <si>
     <t xml:space="preserve">UKR</t>
@@ -1888,7 +1891,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200515225915/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192745/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1911,7 +1914,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200515225916/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200516192746/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -2494,7 +2497,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2504,31 +2507,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>983816</v>
+        <v>1015652</v>
       </c>
       <c r="I3" t="n">
-        <v>38.581</v>
+        <v>39.83</v>
       </c>
       <c r="J3" t="n">
-        <v>40336</v>
+        <v>31836</v>
       </c>
       <c r="K3" t="n">
-        <v>1.582</v>
+        <v>1.248</v>
       </c>
       <c r="L3" t="n">
-        <v>35296.333</v>
+        <v>35542.333</v>
       </c>
       <c r="M3" t="n">
-        <v>1.384</v>
+        <v>1.394</v>
       </c>
       <c r="N3" t="n">
-        <v>32366.571</v>
+        <v>31456.571</v>
       </c>
       <c r="O3" t="n">
-        <v>1.269</v>
+        <v>1.234</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2621,28 +2624,28 @@
         <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>228573</v>
+        <v>230188</v>
       </c>
       <c r="I5" t="n">
-        <v>134.33</v>
+        <v>135.279</v>
       </c>
       <c r="J5" t="n">
-        <v>6031</v>
+        <v>7646</v>
       </c>
       <c r="K5" t="n">
-        <v>3.544</v>
+        <v>4.493</v>
       </c>
       <c r="L5" t="n">
-        <v>7667.667</v>
+        <v>8206</v>
       </c>
       <c r="M5" t="n">
-        <v>4.506</v>
+        <v>4.822</v>
       </c>
       <c r="N5" t="n">
-        <v>7174.286</v>
+        <v>7405</v>
       </c>
       <c r="O5" t="n">
-        <v>4.216</v>
+        <v>4.352</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2665,7 +2668,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2675,31 +2678,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>160512</v>
+        <v>167294</v>
       </c>
       <c r="I6" t="n">
-        <v>0.975</v>
+        <v>1.016</v>
       </c>
       <c r="J6" t="n">
-        <v>8582</v>
+        <v>6782</v>
       </c>
       <c r="K6" t="n">
-        <v>0.052</v>
+        <v>0.041</v>
       </c>
       <c r="L6" t="n">
-        <v>7958</v>
+        <v>7585.333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="N6" t="n">
-        <v>7008.286</v>
+        <v>7196.429</v>
       </c>
       <c r="O6" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -3010,22 +3013,28 @@
         <v>58</v>
       </c>
       <c r="H12" t="n">
-        <v>1236670</v>
+        <v>1265502</v>
       </c>
       <c r="I12" t="n">
-        <v>32.766</v>
-      </c>
-      <c r="J12"/>
+        <v>33.53</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32590</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L12"/>
+        <v>0.863</v>
+      </c>
+      <c r="L12" t="n">
+        <v>32040.667</v>
+      </c>
       <c r="M12" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="N12"/>
+        <v>0.849</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28272.429</v>
+      </c>
       <c r="O12" t="n">
-        <v>0.64</v>
+        <v>0.749</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3048,7 +3057,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3060,31 +3069,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="n">
-        <v>341512</v>
+        <v>350325</v>
       </c>
       <c r="I13" t="n">
-        <v>17.865</v>
+        <v>18.326</v>
       </c>
       <c r="J13" t="n">
-        <v>16095</v>
+        <v>8813</v>
       </c>
       <c r="K13" t="n">
-        <v>0.842</v>
+        <v>0.461</v>
       </c>
       <c r="L13" t="n">
-        <v>12724</v>
+        <v>12191.667</v>
       </c>
       <c r="M13" t="n">
-        <v>0.666</v>
+        <v>0.638</v>
       </c>
       <c r="N13" t="n">
-        <v>12221.571</v>
+        <v>11774.429</v>
       </c>
       <c r="O13" t="n">
-        <v>0.64</v>
+        <v>0.616</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3164,7 +3173,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3174,31 +3183,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="n">
-        <v>13031</v>
+        <v>13696</v>
       </c>
       <c r="I15" t="n">
-        <v>2.558</v>
+        <v>2.689</v>
       </c>
       <c r="J15" t="n">
-        <v>209</v>
+        <v>665</v>
       </c>
       <c r="K15" t="n">
-        <v>0.041</v>
+        <v>0.131</v>
       </c>
       <c r="L15" t="n">
-        <v>323.333</v>
+        <v>396.333</v>
       </c>
       <c r="M15" t="n">
-        <v>0.064</v>
+        <v>0.078</v>
       </c>
       <c r="N15" t="n">
-        <v>314.857</v>
+        <v>345.714</v>
       </c>
       <c r="O15" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3221,7 +3230,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3231,31 +3240,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" t="n">
-        <v>51568</v>
+        <v>52425</v>
       </c>
       <c r="I16" t="n">
-        <v>12.561</v>
+        <v>12.77</v>
       </c>
       <c r="J16" t="n">
-        <v>1228</v>
+        <v>857</v>
       </c>
       <c r="K16" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1229.333</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.299</v>
       </c>
-      <c r="L16" t="n">
-        <v>1362.667</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.332</v>
-      </c>
       <c r="N16" t="n">
-        <v>1170</v>
+        <v>1172.429</v>
       </c>
       <c r="O16" t="n">
-        <v>0.285</v>
+        <v>0.286</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3278,7 +3287,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3290,31 +3299,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="n">
-        <v>77374</v>
+        <v>79834</v>
       </c>
       <c r="I17" t="n">
-        <v>6.831</v>
+        <v>7.048</v>
       </c>
       <c r="J17" t="n">
-        <v>2232</v>
+        <v>2460</v>
       </c>
       <c r="K17" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2235</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.197</v>
       </c>
-      <c r="L17" t="n">
-        <v>2072.333</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.183</v>
-      </c>
       <c r="N17" t="n">
-        <v>1973.429</v>
+        <v>2046.429</v>
       </c>
       <c r="O17" t="n">
-        <v>0.174</v>
+        <v>0.181</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3394,7 +3403,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3406,31 +3415,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" t="n">
-        <v>368889</v>
+        <v>379482</v>
       </c>
       <c r="I19" t="n">
-        <v>63.687</v>
+        <v>65.516</v>
       </c>
       <c r="J19" t="n">
-        <v>10903</v>
+        <v>10593</v>
       </c>
       <c r="K19" t="n">
-        <v>1.882</v>
+        <v>1.829</v>
       </c>
       <c r="L19" t="n">
-        <v>11543</v>
+        <v>11256.667</v>
       </c>
       <c r="M19" t="n">
-        <v>1.993</v>
+        <v>1.943</v>
       </c>
       <c r="N19" t="n">
-        <v>10057.286</v>
+        <v>10071.143</v>
       </c>
       <c r="O19" t="n">
-        <v>1.736</v>
+        <v>1.739</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3500,7 +3509,7 @@
         <v>152</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
@@ -3512,16 +3521,20 @@
         <v>155</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>51142</v>
+        <v>53412</v>
       </c>
       <c r="I21" t="n">
-        <v>7.885</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
+        <v>8.235</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2270</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.35</v>
+      </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -3657,7 +3670,7 @@
         <v>172</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D24" t="s">
         <v>173</v>
@@ -3667,25 +3680,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" t="n">
-        <v>136878</v>
+        <v>143805</v>
       </c>
       <c r="I24" t="n">
-        <v>24.704</v>
+        <v>25.954</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.215</v>
+        <v>0.123</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.42</v>
+        <v>0.472</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="P24" t="s">
         <v>175</v>
@@ -3802,7 +3815,7 @@
         <v>193</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -3814,25 +3827,25 @@
         <v>196</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>167704</v>
+        <v>171642</v>
       </c>
       <c r="I27" t="n">
-        <v>5.397</v>
+        <v>5.524</v>
       </c>
       <c r="J27" t="n">
-        <v>3252</v>
+        <v>3938</v>
       </c>
       <c r="K27" t="n">
-        <v>0.105</v>
+        <v>0.127</v>
       </c>
       <c r="L27" t="n">
-        <v>2728</v>
+        <v>3479.667</v>
       </c>
       <c r="M27" t="n">
-        <v>0.088</v>
+        <v>0.112</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -3857,7 +3870,7 @@
         <v>201</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D28" t="s">
         <v>194</v>
@@ -3869,25 +3882,25 @@
         <v>202</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>168685</v>
+        <v>172623</v>
       </c>
       <c r="I28" t="n">
-        <v>5.429</v>
+        <v>5.555</v>
       </c>
       <c r="J28" t="n">
-        <v>3252</v>
+        <v>3938</v>
       </c>
       <c r="K28" t="n">
-        <v>0.105</v>
+        <v>0.127</v>
       </c>
       <c r="L28" t="n">
-        <v>2728</v>
+        <v>3479.667</v>
       </c>
       <c r="M28" t="n">
-        <v>0.088</v>
+        <v>0.112</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -3912,7 +3925,7 @@
         <v>204</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D29" t="s">
         <v>205</v>
@@ -3922,31 +3935,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H29" t="n">
-        <v>120015</v>
+        <v>126283</v>
       </c>
       <c r="I29" t="n">
-        <v>11.514</v>
+        <v>12.116</v>
       </c>
       <c r="J29" t="n">
-        <v>3782</v>
+        <v>6268</v>
       </c>
       <c r="K29" t="n">
-        <v>0.363</v>
+        <v>0.601</v>
       </c>
       <c r="L29" t="n">
-        <v>4653.667</v>
+        <v>4747</v>
       </c>
       <c r="M29" t="n">
-        <v>0.446</v>
+        <v>0.455</v>
       </c>
       <c r="N29" t="n">
-        <v>3674.857</v>
+        <v>4128.429</v>
       </c>
       <c r="O29" t="n">
-        <v>0.353</v>
+        <v>0.396</v>
       </c>
       <c r="P29" t="s">
         <v>207</v>
@@ -4073,7 +4086,7 @@
         <v>226</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D32" t="s">
         <v>227</v>
@@ -4083,31 +4096,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="n">
-        <v>56178</v>
+        <v>56701</v>
       </c>
       <c r="I32" t="n">
-        <v>164.624</v>
+        <v>166.157</v>
       </c>
       <c r="J32" t="n">
-        <v>593</v>
+        <v>523</v>
       </c>
       <c r="K32" t="n">
-        <v>1.738</v>
+        <v>1.533</v>
       </c>
       <c r="L32" t="n">
-        <v>476</v>
+        <v>555.667</v>
       </c>
       <c r="M32" t="n">
-        <v>1.395</v>
+        <v>1.629</v>
       </c>
       <c r="N32" t="n">
-        <v>496.286</v>
+        <v>497.429</v>
       </c>
       <c r="O32" t="n">
-        <v>1.454</v>
+        <v>1.458</v>
       </c>
       <c r="P32" t="s">
         <v>228</v>
@@ -4297,7 +4310,7 @@
         <v>245</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D36" t="s">
         <v>246</v>
@@ -4307,25 +4320,25 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>658604</v>
+        <v>672679</v>
       </c>
       <c r="I36" t="n">
-        <v>7.841</v>
+        <v>8.009</v>
       </c>
       <c r="J36" t="n">
-        <v>14832</v>
+        <v>14075</v>
       </c>
       <c r="K36" t="n">
-        <v>0.177</v>
+        <v>0.168</v>
       </c>
       <c r="L36" t="n">
-        <v>14375.667</v>
+        <v>14381.667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -4454,7 +4467,7 @@
         <v>264</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D39" t="s">
         <v>265</v>
@@ -4466,31 +4479,31 @@
         <v>267</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H39" t="n">
-        <v>1859110</v>
+        <v>1899767</v>
       </c>
       <c r="I39" t="n">
-        <v>30.748</v>
+        <v>31.421</v>
       </c>
       <c r="J39" t="n">
-        <v>39027</v>
+        <v>40657</v>
       </c>
       <c r="K39" t="n">
-        <v>0.645</v>
+        <v>0.672</v>
       </c>
       <c r="L39" t="n">
-        <v>39069</v>
+        <v>40271.667</v>
       </c>
       <c r="M39" t="n">
-        <v>0.646</v>
+        <v>0.666</v>
       </c>
       <c r="N39" t="n">
-        <v>35732.143</v>
+        <v>36384.429</v>
       </c>
       <c r="O39" t="n">
-        <v>0.591</v>
+        <v>0.602</v>
       </c>
       <c r="P39" t="s">
         <v>268</v>
@@ -4513,7 +4526,7 @@
         <v>271</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D40" t="s">
         <v>265</v>
@@ -4525,28 +4538,28 @@
         <v>267</v>
       </c>
       <c r="G40" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" t="n">
-        <v>2875680</v>
+        <v>2944859</v>
       </c>
       <c r="I40" t="n">
-        <v>47.562</v>
+        <v>48.706</v>
       </c>
       <c r="J40" t="n">
-        <v>68176</v>
+        <v>69179</v>
       </c>
       <c r="K40" t="n">
-        <v>1.128</v>
+        <v>1.144</v>
       </c>
       <c r="L40" t="n">
-        <v>67341.667</v>
+        <v>69743.667</v>
       </c>
       <c r="M40" t="n">
-        <v>1.114</v>
+        <v>1.154</v>
       </c>
       <c r="N40" t="n">
-        <v>61516.714</v>
+        <v>61517.857</v>
       </c>
       <c r="O40" t="n">
         <v>1.018</v>
@@ -4572,7 +4585,7 @@
         <v>274</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D41" t="s">
         <v>275</v>
@@ -4584,13 +4597,13 @@
         <v>277</v>
       </c>
       <c r="G41" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
-        <v>230882</v>
+        <v>240368</v>
       </c>
       <c r="I41" t="n">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -4619,7 +4632,7 @@
         <v>280</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D42" t="s">
         <v>281</v>
@@ -4631,31 +4644,31 @@
         <v>282</v>
       </c>
       <c r="G42" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="n">
-        <v>357626</v>
+        <v>365074</v>
       </c>
       <c r="I42" t="n">
-        <v>2.828</v>
+        <v>2.886</v>
       </c>
       <c r="J42" t="n">
-        <v>8190</v>
+        <v>6745</v>
       </c>
       <c r="K42" t="n">
-        <v>0.065</v>
+        <v>0.053</v>
       </c>
       <c r="L42" t="n">
-        <v>7755.333</v>
+        <v>7761</v>
       </c>
       <c r="M42" t="n">
         <v>0.061</v>
       </c>
       <c r="N42" t="n">
-        <v>7078.857</v>
+        <v>6999</v>
       </c>
       <c r="O42" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="P42" t="s">
         <v>276</v>
@@ -4678,7 +4691,7 @@
         <v>285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D43" t="s">
         <v>286</v>
@@ -4688,31 +4701,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H43" t="n">
-        <v>483236</v>
+        <v>505216</v>
       </c>
       <c r="I43" t="n">
-        <v>25.736</v>
+        <v>26.907</v>
       </c>
       <c r="J43" t="n">
-        <v>23500</v>
+        <v>21980</v>
       </c>
       <c r="K43" t="n">
-        <v>1.252</v>
+        <v>1.171</v>
       </c>
       <c r="L43" t="n">
-        <v>20408.333</v>
+        <v>21907</v>
       </c>
       <c r="M43" t="n">
-        <v>1.087</v>
+        <v>1.167</v>
       </c>
       <c r="N43" t="n">
-        <v>16015.714</v>
+        <v>17158.857</v>
       </c>
       <c r="O43" t="n">
-        <v>0.853</v>
+        <v>0.914</v>
       </c>
       <c r="P43" t="s">
         <v>287</v>
@@ -4908,7 +4921,7 @@
         <v>308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D47" t="s">
         <v>309</v>
@@ -4918,31 +4931,25 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H47" t="n">
-        <v>59987</v>
+        <v>60246</v>
       </c>
       <c r="I47" t="n">
-        <v>95.83</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1260</v>
-      </c>
+        <v>96.243</v>
+      </c>
+      <c r="J47"/>
       <c r="K47" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1197.667</v>
-      </c>
+        <v>0.414</v>
+      </c>
+      <c r="L47"/>
       <c r="M47" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="N47" t="n">
-        <v>961.429</v>
-      </c>
+        <v>1.363</v>
+      </c>
+      <c r="N47"/>
       <c r="O47" t="n">
-        <v>1.536</v>
+        <v>1.32</v>
       </c>
       <c r="P47" t="s">
         <v>310</v>
@@ -5120,7 +5127,7 @@
         <v>333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D51" t="s">
         <v>334</v>
@@ -5128,65 +5135,55 @@
       <c r="E51" t="s">
         <v>335</v>
       </c>
-      <c r="F51"/>
+      <c r="F51" t="s">
+        <v>336</v>
+      </c>
       <c r="G51" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H51" t="n">
-        <v>12995</v>
+        <v>13634</v>
       </c>
       <c r="I51" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="J51" t="n">
-        <v>513</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="L51" t="n">
-        <v>391</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="N51" t="n">
-        <v>389.857</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.007</v>
-      </c>
+        <v>0.251</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" t="s">
         <v>335</v>
       </c>
       <c r="Q51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R51" t="s">
         <v>53</v>
       </c>
       <c r="S51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G52" t="n">
         <v>85</v>
@@ -5216,33 +5213,33 @@
         <v>0.041</v>
       </c>
       <c r="P52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R52" t="s">
         <v>94</v>
       </c>
       <c r="S52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
@@ -5269,30 +5266,30 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R53" t="s">
         <v>94</v>
       </c>
       <c r="S53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -5326,33 +5323,33 @@
         <v>1.212</v>
       </c>
       <c r="P54" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q54" t="s">
         <v>355</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>354</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
@@ -5371,33 +5368,33 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R55" t="s">
         <v>53</v>
       </c>
       <c r="S55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
@@ -5424,33 +5421,33 @@
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
@@ -5481,36 +5478,36 @@
         <v>0.058</v>
       </c>
       <c r="P57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R57" t="s">
         <v>24</v>
       </c>
       <c r="S57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G58" t="n">
         <v>68</v>
@@ -5543,33 +5540,33 @@
         <v>43</v>
       </c>
       <c r="Q58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R58" t="s">
         <v>128</v>
       </c>
       <c r="S58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>43960</v>
       </c>
       <c r="D59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G59" t="n">
         <v>62</v>
@@ -5599,81 +5596,85 @@
         <v>0.078</v>
       </c>
       <c r="P59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R59" t="s">
         <v>53</v>
       </c>
       <c r="S59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60" t="n">
-        <v>605383</v>
+        <v>630482</v>
       </c>
       <c r="I60" t="n">
-        <v>18.361</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
+        <v>19.122</v>
+      </c>
+      <c r="J60" t="n">
+        <v>25099</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.761</v>
+      </c>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G61" t="n">
         <v>23</v>
@@ -5698,33 +5699,33 @@
         <v>213</v>
       </c>
       <c r="Q61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R61" t="s">
         <v>94</v>
       </c>
       <c r="S61" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E62" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G62" t="n">
         <v>72</v>
@@ -5754,30 +5755,30 @@
         <v>0.501</v>
       </c>
       <c r="P62" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q62" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R62" t="s">
         <v>53</v>
       </c>
       <c r="S62" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
@@ -5811,33 +5812,33 @@
         <v>1.376</v>
       </c>
       <c r="P63" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q63" t="s">
         <v>414</v>
       </c>
-      <c r="Q63" t="s">
-        <v>413</v>
-      </c>
       <c r="R63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E64" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
@@ -5868,36 +5869,36 @@
         <v>1.396</v>
       </c>
       <c r="P64" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q64" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R64" t="s">
         <v>94</v>
       </c>
       <c r="S64" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F65" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
@@ -5927,33 +5928,33 @@
         <v>0.442</v>
       </c>
       <c r="P65" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q65" t="s">
         <v>426</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>425</v>
       </c>
       <c r="R65" t="s">
         <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D66" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
@@ -5984,150 +5985,150 @@
         <v>1.404</v>
       </c>
       <c r="P66" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q66" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R66" t="s">
         <v>24</v>
       </c>
       <c r="S66" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H67" t="n">
-        <v>46198</v>
+        <v>48239</v>
       </c>
       <c r="I67" t="n">
-        <v>3.567</v>
+        <v>3.724</v>
       </c>
       <c r="J67" t="n">
-        <v>1058</v>
+        <v>2041</v>
       </c>
       <c r="K67" t="n">
-        <v>0.082</v>
+        <v>0.158</v>
       </c>
       <c r="L67" t="n">
-        <v>939.667</v>
+        <v>1331.333</v>
       </c>
       <c r="M67" t="n">
-        <v>0.073</v>
+        <v>0.103</v>
       </c>
       <c r="N67" t="n">
-        <v>858.714</v>
+        <v>979.143</v>
       </c>
       <c r="O67" t="n">
-        <v>0.066</v>
+        <v>0.076</v>
       </c>
       <c r="P67" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R67" t="s">
         <v>53</v>
       </c>
       <c r="S67" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E68" t="s">
         <v>43</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
-        <v>530265</v>
+        <v>548023</v>
       </c>
       <c r="I68" t="n">
-        <v>15.231</v>
+        <v>15.742</v>
       </c>
       <c r="J68" t="n">
-        <v>16678</v>
+        <v>17758</v>
       </c>
       <c r="K68" t="n">
-        <v>0.479</v>
+        <v>0.51</v>
       </c>
       <c r="L68" t="n">
-        <v>15963.667</v>
+        <v>17025</v>
       </c>
       <c r="M68" t="n">
-        <v>0.459</v>
+        <v>0.489</v>
       </c>
       <c r="N68" t="n">
-        <v>15934.714</v>
+        <v>16360.429</v>
       </c>
       <c r="O68" t="n">
-        <v>0.458</v>
+        <v>0.47</v>
       </c>
       <c r="P68" t="s">
         <v>43</v>
       </c>
       <c r="Q68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R68" t="s">
         <v>128</v>
       </c>
       <c r="S68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G69" t="n">
         <v>75</v>
@@ -6157,89 +6158,89 @@
         <v>0.063</v>
       </c>
       <c r="P69" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S69" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D70" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E70" t="s">
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G70" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H70" t="n">
-        <v>168670</v>
+        <v>174746</v>
       </c>
       <c r="I70" t="n">
-        <v>24.788</v>
+        <v>25.681</v>
       </c>
       <c r="J70" t="n">
-        <v>5873</v>
+        <v>6076</v>
       </c>
       <c r="K70" t="n">
-        <v>0.863</v>
+        <v>0.893</v>
       </c>
       <c r="L70" t="n">
-        <v>5788.667</v>
+        <v>6047.667</v>
       </c>
       <c r="M70" t="n">
-        <v>0.851</v>
+        <v>0.889</v>
       </c>
       <c r="N70" t="n">
-        <v>5695</v>
+        <v>5744.714</v>
       </c>
       <c r="O70" t="n">
-        <v>0.837</v>
+        <v>0.844</v>
       </c>
       <c r="P70" t="s">
         <v>43</v>
       </c>
       <c r="Q70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R70" t="s">
         <v>94</v>
       </c>
       <c r="S70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E71" t="s">
         <v>43</v>
@@ -6264,27 +6265,27 @@
         <v>43</v>
       </c>
       <c r="Q71" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R71" t="s">
         <v>94</v>
       </c>
       <c r="S71" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E72" t="s">
         <v>43</v>
@@ -6309,30 +6310,30 @@
         <v>43</v>
       </c>
       <c r="Q72" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S72" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D73" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E73" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
@@ -6363,33 +6364,33 @@
         <v>0.566</v>
       </c>
       <c r="P73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q73" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R73" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
@@ -6420,36 +6421,36 @@
         <v>0.457</v>
       </c>
       <c r="P74" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q74" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R74" t="s">
         <v>24</v>
       </c>
       <c r="S74" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D75" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G75" t="n">
         <v>76</v>
@@ -6479,33 +6480,33 @@
         <v>0.274</v>
       </c>
       <c r="P75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R75" t="s">
         <v>94</v>
       </c>
       <c r="S75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
@@ -6536,33 +6537,33 @@
         <v>0.225</v>
       </c>
       <c r="P76" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q76" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="R76" t="s">
         <v>73</v>
       </c>
       <c r="S76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D77" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
@@ -6581,33 +6582,33 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q77" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R77" t="s">
         <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D78" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E78" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -6626,90 +6627,90 @@
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q78" t="s">
         <v>506</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>505</v>
       </c>
       <c r="R78" t="s">
         <v>94</v>
       </c>
       <c r="S78" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D79" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E79" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
         <v>109</v>
       </c>
       <c r="H79" t="n">
-        <v>339394</v>
+        <v>339347</v>
       </c>
       <c r="I79" t="n">
-        <v>39.215</v>
+        <v>39.21</v>
       </c>
       <c r="J79" t="n">
-        <v>3210</v>
+        <v>3163</v>
       </c>
       <c r="K79" t="n">
-        <v>0.371</v>
+        <v>0.365</v>
       </c>
       <c r="L79" t="n">
-        <v>4785</v>
+        <v>4769.333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="N79" t="n">
-        <v>4224.286</v>
+        <v>4217.571</v>
       </c>
       <c r="O79" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="P79" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q79" t="s">
         <v>511</v>
       </c>
-      <c r="Q79" t="s">
-        <v>510</v>
-      </c>
       <c r="R79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D80" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
@@ -6740,82 +6741,86 @@
         <v>0.013</v>
       </c>
       <c r="P80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q80" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="R80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="D81" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E81" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H81" t="n">
-        <v>118274</v>
+        <v>120659</v>
       </c>
       <c r="I81" t="n">
-        <v>1.694</v>
-      </c>
-      <c r="J81"/>
+        <v>1.729</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2385</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="L81"/>
+        <v>0.034</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2084.667</v>
+      </c>
       <c r="M81" t="n">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q81" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R81" t="s">
         <v>94</v>
       </c>
       <c r="S81" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="D82" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E82" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -6834,33 +6839,33 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q82" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R82" t="s">
         <v>53</v>
       </c>
       <c r="S82" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B83" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E83" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
@@ -6891,149 +6896,149 @@
         <v>0.126</v>
       </c>
       <c r="P83" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q83" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="S83" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D84" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H84" t="n">
-        <v>1547389</v>
+        <v>1589625</v>
       </c>
       <c r="I84" t="n">
-        <v>18.347</v>
+        <v>18.848</v>
       </c>
       <c r="J84" t="n">
-        <v>38565</v>
+        <v>42236</v>
       </c>
       <c r="K84" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="L84" t="n">
+        <v>38540.667</v>
+      </c>
+      <c r="M84" t="n">
         <v>0.457</v>
       </c>
-      <c r="L84" t="n">
-        <v>35572.667</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.422</v>
-      </c>
       <c r="N84" t="n">
-        <v>35511.857</v>
+        <v>36459.143</v>
       </c>
       <c r="O84" t="n">
-        <v>0.421</v>
+        <v>0.432</v>
       </c>
       <c r="P84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q84" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D85" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F85" t="s">
+        <v>552</v>
+      </c>
+      <c r="G85" t="n">
+        <v>39</v>
+      </c>
+      <c r="H85" t="n">
+        <v>70730</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2558</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2186</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2218.143</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="P85" t="s">
         <v>551</v>
       </c>
-      <c r="G85" t="n">
-        <v>38</v>
-      </c>
-      <c r="H85" t="n">
-        <v>68172</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1896</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1903.667</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2304.286</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P85" t="s">
-        <v>550</v>
-      </c>
       <c r="Q85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R85" t="s">
         <v>53</v>
       </c>
       <c r="S85" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
@@ -7064,151 +7069,151 @@
         <v>0.175</v>
       </c>
       <c r="P86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R86" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D87" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87" t="n">
-        <v>1663492</v>
+        <v>1742028</v>
       </c>
       <c r="I87" t="n">
-        <v>24.504</v>
+        <v>25.661</v>
       </c>
       <c r="J87" t="n">
-        <v>69590</v>
+        <v>78537</v>
       </c>
       <c r="K87" t="n">
-        <v>1.025</v>
+        <v>1.157</v>
       </c>
       <c r="L87" t="n">
-        <v>67658.333</v>
+        <v>73257</v>
       </c>
       <c r="M87" t="n">
-        <v>0.996</v>
+        <v>1.079</v>
       </c>
       <c r="N87" t="n">
-        <v>65203.286</v>
+        <v>67374.429</v>
       </c>
       <c r="O87" t="n">
-        <v>0.96</v>
+        <v>0.992</v>
       </c>
       <c r="P87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q87" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R87" t="s">
         <v>94</v>
       </c>
       <c r="S87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B88" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E88" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H88" t="n">
-        <v>2353078</v>
+        <v>2489563</v>
       </c>
       <c r="I88" t="n">
-        <v>34.662</v>
+        <v>36.673</v>
       </c>
       <c r="J88" t="n">
-        <v>133784</v>
+        <v>136486</v>
       </c>
       <c r="K88" t="n">
-        <v>1.971</v>
+        <v>2.011</v>
       </c>
       <c r="L88" t="n">
-        <v>115637</v>
+        <v>132111.333</v>
       </c>
       <c r="M88" t="n">
-        <v>1.703</v>
+        <v>1.946</v>
       </c>
       <c r="N88" t="n">
-        <v>103201.286</v>
+        <v>108859.571</v>
       </c>
       <c r="O88" t="n">
-        <v>1.52</v>
+        <v>1.604</v>
       </c>
       <c r="P88" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q88" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R88" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S88" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D89" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E89" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H89" t="n">
         <v>10720185</v>
@@ -7216,52 +7221,46 @@
       <c r="I89" t="n">
         <v>32.387</v>
       </c>
-      <c r="J89" t="n">
-        <v>378410</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="L89" t="n">
-        <v>356593.333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L89"/>
       <c r="M89" t="n">
-        <v>1.077</v>
-      </c>
-      <c r="N89" t="n">
-        <v>332882.714</v>
-      </c>
+        <v>0.751</v>
+      </c>
+      <c r="N89"/>
       <c r="O89" t="n">
-        <v>1.006</v>
+        <v>0.878</v>
       </c>
       <c r="P89" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q89" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="R89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="S89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D90" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E90" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -7284,30 +7283,30 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q90" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R90" t="s">
         <v>24</v>
       </c>
       <c r="S90" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B91" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D91" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E91" t="s">
         <v>126</v>
@@ -7340,30 +7339,30 @@
         <v>126</v>
       </c>
       <c r="Q91" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
       </c>
       <c r="S91" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D92" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E92" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7382,36 +7381,36 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R92" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S92" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D93" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E93" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F93" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -7429,16 +7428,16 @@
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q93" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R93" t="s">
         <v>24</v>
       </c>
       <c r="S93" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -47,16 +47,10 @@
     <t xml:space="preserve">Daily change in cumulative total per thousand</t>
   </si>
   <si>
-    <t xml:space="preserve">3-day rolling mean daily change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-day rolling mean daily change per thousand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-day rolling mean daily change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-day rolling mean daily change per thousand</t>
+    <t xml:space="preserve">7-day smoothed daily change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-day smoothed daily change per thousand</t>
   </si>
   <si>
     <t xml:space="preserve">General source label</t>
@@ -77,7 +71,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/16-05-20_reporte_matutino_covid_19.docx.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/18-05-20-reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +92,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-16-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-coronavirus-covid-19-at-a-glance-infographic_16.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +112,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516115929/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +139,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192434/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518181650/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +187,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-14-maya-vyzdoroveli-i-vypisany-8-tys-168-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-17-maya-vyzdoroveli-9-tys-932-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -282,7 +276,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516115939/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200517110936/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -305,7 +299,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192440/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518181658/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -393,7 +387,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192446/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518181704/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -453,7 +447,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-16052020-12345</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-17052020-2-01ui</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -483,7 +477,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-15052020-08h001.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-16052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -516,7 +510,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:45pm local time on 2020-05-16.</t>
+    <t xml:space="preserve">updated at 12:48am local time on 2020-05-18.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -553,7 +547,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release-May-14--ENG-V2.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-18-Eng-V3.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -692,7 +686,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200516/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200518/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -827,7 +821,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200516191022/http://irangov.ir/detail/339329</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200518152946/http://irangov.ir/detail/339482</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -981,7 +975,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-15-2020-15.47.33.pdf</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1262367522122354689</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1022,7 +1016,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120038/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200517111053/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1038,7 +1032,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192544/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200517200217/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1059,7 +1053,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120044/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200517111059/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1169,10 +1163,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200515_%201021.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 15 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200518_1121_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 18 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1208,7 +1202,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120106/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182025/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1228,7 +1222,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.15-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.18-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1253,7 +1247,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120110/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182030/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1319,7 +1313,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/156940-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-88-541-en-el-peru-comunicado-n-102</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/157471-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-92-273-en-el-peru-comunicado-n-103</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1364,7 +1358,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.16.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.18.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1409,7 +1403,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120125/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518181638/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1447,7 +1441,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14473</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14479</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1467,7 +1461,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1261712778756329480</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262071900089528321</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1574,7 +1568,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120321/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200517111139/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1648,7 +1642,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367241&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367251&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1731,7 +1725,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/3afBq9x3b5v-P9zj1FMx-w?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/SXUKk3KipAb5AEMNSwR12w?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1754,7 +1748,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192735/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182134/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1821,7 +1815,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192739/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182138/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1845,7 +1839,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261413937863553025</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261748513538551809</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1869,7 +1863,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120430/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182140/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1891,7 +1885,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192745/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182142/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1914,7 +1908,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516192746/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182145/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1961,7 +1955,7 @@
     <t xml:space="preserve">United States - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200514114805/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182147/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
   </si>
   <si>
     <t xml:space="preserve">United States CDC</t>
@@ -1982,7 +1976,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-26</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-28</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2021,7 +2015,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1261357055560073221</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1261806379716743169</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2425,56 +2419,50 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>100362</v>
+        <v>105829</v>
       </c>
       <c r="I2" t="n">
-        <v>2.221</v>
+        <v>2.342</v>
       </c>
       <c r="J2" t="n">
-        <v>3469</v>
+        <v>2609</v>
       </c>
       <c r="K2" t="n">
-        <v>0.077</v>
+        <v>0.058</v>
       </c>
       <c r="L2" t="n">
-        <v>3296</v>
+        <v>2953</v>
       </c>
       <c r="M2" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2804.714</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2482,113 +2470,101 @@
       <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>1015652</v>
+        <v>1062034</v>
       </c>
       <c r="I3" t="n">
-        <v>39.83</v>
+        <v>41.649</v>
       </c>
       <c r="J3" t="n">
-        <v>31836</v>
+        <v>19908</v>
       </c>
       <c r="K3" t="n">
-        <v>1.248</v>
+        <v>0.781</v>
       </c>
       <c r="L3" t="n">
-        <v>35542.333</v>
+        <v>29559</v>
       </c>
       <c r="M3" t="n">
-        <v>1.394</v>
-      </c>
-      <c r="N3" t="n">
-        <v>31456.571</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.234</v>
+        <v>1.159</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
       <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>357393</v>
+        <v>365873</v>
       </c>
       <c r="I4" t="n">
-        <v>39.682</v>
+        <v>40.624</v>
       </c>
       <c r="J4" t="n">
-        <v>6042</v>
+        <v>3364</v>
       </c>
       <c r="K4" t="n">
-        <v>0.671</v>
+        <v>0.374</v>
       </c>
       <c r="L4" t="n">
-        <v>7047</v>
+        <v>6627</v>
       </c>
       <c r="M4" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6529</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.725</v>
+        <v>0.736</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2596,56 +2572,50 @@
       <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
-        <v>230188</v>
+        <v>241132</v>
       </c>
       <c r="I5" t="n">
-        <v>135.279</v>
+        <v>141.71</v>
       </c>
       <c r="J5" t="n">
-        <v>7646</v>
+        <v>4304</v>
       </c>
       <c r="K5" t="n">
-        <v>4.493</v>
+        <v>2.529</v>
       </c>
       <c r="L5" t="n">
-        <v>8206</v>
+        <v>7193</v>
       </c>
       <c r="M5" t="n">
-        <v>4.822</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7405</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.352</v>
+        <v>4.227</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2653,56 +2623,50 @@
       <c r="Q5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>167294</v>
+        <v>185196</v>
       </c>
       <c r="I6" t="n">
-        <v>1.016</v>
+        <v>1.125</v>
       </c>
       <c r="J6" t="n">
-        <v>6782</v>
+        <v>9788</v>
       </c>
       <c r="K6" t="n">
-        <v>0.041</v>
+        <v>0.059</v>
       </c>
       <c r="L6" t="n">
-        <v>7585.333</v>
+        <v>7904</v>
       </c>
       <c r="M6" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7196.429</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2710,113 +2674,97 @@
       <c r="Q6" t="s">
         <v>52</v>
       </c>
-      <c r="R6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>308156</v>
+        <v>350515</v>
       </c>
       <c r="I7" t="n">
-        <v>32.611</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11776</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.246</v>
-      </c>
+        <v>37.094</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>11365.333</v>
+        <v>12425</v>
       </c>
       <c r="M7" t="n">
-        <v>1.203</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11241.429</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.315</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
       </c>
       <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H8" t="n">
-        <v>543535</v>
+        <v>569443</v>
       </c>
       <c r="I8" t="n">
-        <v>46.898</v>
+        <v>49.134</v>
       </c>
       <c r="J8" t="n">
-        <v>15037</v>
+        <v>10981</v>
       </c>
       <c r="K8" t="n">
-        <v>1.297</v>
+        <v>0.947</v>
       </c>
       <c r="L8" t="n">
-        <v>16596</v>
+        <v>13685</v>
       </c>
       <c r="M8" t="n">
-        <v>1.432</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15453.286</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.333</v>
+        <v>1.181</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2824,87 +2772,75 @@
       <c r="Q8" t="s">
         <v>65</v>
       </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10174</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="J9" t="n">
+        <v>262</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L9" t="n">
+        <v>219</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>56</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9663</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="J9" t="n">
-        <v>205</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="L9" t="n">
-        <v>204.333</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N9" t="n">
-        <v>187.286</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="P9" t="s">
-        <v>43</v>
       </c>
       <c r="Q9" t="s">
         <v>72</v>
       </c>
-      <c r="R9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
@@ -2918,123 +2854,119 @@
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="L10" t="n">
+        <v>5345</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
       <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
         <v>79</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>64480</v>
+        <v>65574</v>
       </c>
       <c r="I11" t="n">
-        <v>9.28</v>
+        <v>9.437</v>
       </c>
       <c r="J11" t="n">
-        <v>1161</v>
+        <v>1094</v>
       </c>
       <c r="K11" t="n">
-        <v>0.167</v>
+        <v>0.157</v>
       </c>
       <c r="L11" t="n">
-        <v>1460</v>
+        <v>1192</v>
       </c>
       <c r="M11" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1196.429</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.172</v>
       </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
       <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
         <v>86</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>1265502</v>
+        <v>1319987</v>
       </c>
       <c r="I12" t="n">
-        <v>33.53</v>
+        <v>34.974</v>
       </c>
       <c r="J12" t="n">
-        <v>32590</v>
+        <v>23292</v>
       </c>
       <c r="K12" t="n">
-        <v>0.863</v>
+        <v>0.617</v>
       </c>
       <c r="L12" t="n">
-        <v>32040.667</v>
+        <v>28720</v>
       </c>
       <c r="M12" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="N12" t="n">
-        <v>28272.429</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.749</v>
+        <v>0.761</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3042,115 +2974,103 @@
       <c r="Q12" t="s">
         <v>93</v>
       </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="n">
+        <v>48</v>
+      </c>
+      <c r="H13" t="n">
+        <v>381011</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.931</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17515</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12422</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="O13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="n">
-        <v>46</v>
-      </c>
-      <c r="H13" t="n">
-        <v>350325</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.326</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8813</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12191.667</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11774.429</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.616</v>
-      </c>
       <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
         <v>100</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>183112</v>
+        <v>196417</v>
       </c>
       <c r="I14" t="n">
-        <v>3.599</v>
+        <v>3.86</v>
       </c>
       <c r="J14" t="n">
-        <v>6062</v>
+        <v>6303</v>
       </c>
       <c r="K14" t="n">
-        <v>0.119</v>
+        <v>0.124</v>
       </c>
       <c r="L14" t="n">
-        <v>5791.333</v>
+        <v>6432</v>
       </c>
       <c r="M14" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6196.143</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.122</v>
+        <v>0.126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3158,113 +3078,101 @@
       <c r="Q14" t="s">
         <v>107</v>
       </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="n">
-        <v>13696</v>
+        <v>14272</v>
       </c>
       <c r="I15" t="n">
-        <v>2.689</v>
+        <v>2.802</v>
       </c>
       <c r="J15" t="n">
-        <v>665</v>
+        <v>576</v>
       </c>
       <c r="K15" t="n">
-        <v>0.131</v>
+        <v>0.113</v>
       </c>
       <c r="L15" t="n">
-        <v>396.333</v>
+        <v>343</v>
       </c>
       <c r="M15" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="N15" t="n">
-        <v>345.714</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.068</v>
+        <v>0.067</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
       </c>
       <c r="P15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" t="s">
         <v>113</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>114</v>
-      </c>
-      <c r="R15" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" t="n">
-        <v>52425</v>
+        <v>54820</v>
       </c>
       <c r="I16" t="n">
-        <v>12.77</v>
+        <v>13.354</v>
       </c>
       <c r="J16" t="n">
-        <v>857</v>
+        <v>943</v>
       </c>
       <c r="K16" t="n">
-        <v>0.209</v>
+        <v>0.23</v>
       </c>
       <c r="L16" t="n">
-        <v>1229.333</v>
+        <v>1250</v>
       </c>
       <c r="M16" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1172.429</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.286</v>
+        <v>0.304</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3272,329 +3180,309 @@
       <c r="Q16" t="s">
         <v>120</v>
       </c>
-      <c r="R16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" t="s">
-        <v>127</v>
-      </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" t="n">
-        <v>79834</v>
+        <v>83868</v>
       </c>
       <c r="I17" t="n">
-        <v>7.048</v>
+        <v>7.405</v>
       </c>
       <c r="J17" t="n">
-        <v>2460</v>
+        <v>1951</v>
       </c>
       <c r="K17" t="n">
-        <v>0.217</v>
+        <v>0.172</v>
       </c>
       <c r="L17" t="n">
-        <v>2235</v>
+        <v>2098</v>
       </c>
       <c r="M17" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2046.429</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.181</v>
+        <v>0.185</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>123</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" t="n">
-        <v>348849</v>
+        <v>356515</v>
       </c>
       <c r="I18" t="n">
-        <v>32.575</v>
+        <v>33.291</v>
       </c>
       <c r="J18" t="n">
-        <v>6601</v>
+        <v>3310</v>
       </c>
       <c r="K18" t="n">
-        <v>0.616</v>
+        <v>0.309</v>
       </c>
       <c r="L18" t="n">
-        <v>7053.667</v>
+        <v>6477</v>
       </c>
       <c r="M18" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6501.143</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.607</v>
+        <v>0.605</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>131</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" t="n">
+        <v>388703</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67.108</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9221</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10124</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="N19" t="s">
         <v>138</v>
       </c>
-      <c r="F19" t="s">
+      <c r="O19" t="s">
         <v>139</v>
       </c>
-      <c r="G19" t="n">
-        <v>59</v>
-      </c>
-      <c r="H19" t="n">
-        <v>379482</v>
-      </c>
-      <c r="I19" t="n">
-        <v>65.516</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10593</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="L19" t="n">
-        <v>11256.667</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.943</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10071.143</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.739</v>
-      </c>
       <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" t="s">
-        <v>94</v>
-      </c>
-      <c r="S19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>145</v>
       </c>
-      <c r="E20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" t="s">
-        <v>147</v>
-      </c>
       <c r="G20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" t="n">
-        <v>47881</v>
+        <v>50020</v>
       </c>
       <c r="I20" t="n">
-        <v>2.714</v>
+        <v>2.835</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="L20" t="n">
+        <v>1217</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>146</v>
+      </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" t="s">
         <v>148</v>
       </c>
-      <c r="R20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S20" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D21" t="s">
         <v>151</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>153</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>57883</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.924</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4471</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2120</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
         <v>154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" t="n">
-        <v>29</v>
-      </c>
-      <c r="H21" t="n">
-        <v>53412</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.235</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2270</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>153</v>
-      </c>
-      <c r="R21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D22" t="s">
         <v>157</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>158</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H22" t="n">
-        <v>68840</v>
+        <v>70189</v>
       </c>
       <c r="I22" t="n">
-        <v>51.894</v>
+        <v>52.911</v>
       </c>
       <c r="J22" t="n">
-        <v>752</v>
+        <v>671</v>
       </c>
       <c r="K22" t="n">
-        <v>0.567</v>
+        <v>0.506</v>
       </c>
       <c r="L22" t="n">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="M22" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="N22" t="n">
-        <v>876.857</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.661</v>
+        <v>0.672</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
       </c>
       <c r="P22" t="s">
         <v>161</v>
@@ -3602,135 +3490,123 @@
       <c r="Q22" t="s">
         <v>162</v>
       </c>
-      <c r="R22" t="s">
-        <v>163</v>
-      </c>
-      <c r="S22" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D23" t="s">
         <v>165</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>166</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23" t="n">
-        <v>45278</v>
+        <v>59029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3589</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.031</v>
-      </c>
+        <v>0.513</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23" t="n">
-        <v>2884.667</v>
+        <v>3201</v>
       </c>
       <c r="M23" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23"/>
+        <v>0.028</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>167</v>
+      </c>
       <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>169</v>
-      </c>
-      <c r="R23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
         <v>78</v>
       </c>
       <c r="H24" t="n">
-        <v>143805</v>
+        <v>145959</v>
       </c>
       <c r="I24" t="n">
-        <v>25.954</v>
-      </c>
-      <c r="J24"/>
+        <v>26.343</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2835</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="L24"/>
+        <v>0.512</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2922</v>
+      </c>
       <c r="M24" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24" t="n">
-        <v>0.472</v>
+        <v>0.527</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
-      </c>
-      <c r="R24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" t="s">
         <v>179</v>
-      </c>
-      <c r="E25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>181</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3743,41 +3619,43 @@
       </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="L25" t="n">
+        <v>15229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>180</v>
+      </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>182</v>
-      </c>
-      <c r="R25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" t="s">
         <v>186</v>
-      </c>
-      <c r="E26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" t="s">
-        <v>188</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -3790,41 +3668,43 @@
       </c>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
+      <c r="L26" t="n">
+        <v>54593</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>187</v>
+      </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="s">
         <v>189</v>
       </c>
-      <c r="R26" t="s">
-        <v>190</v>
-      </c>
-      <c r="S26" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
         <v>194</v>
-      </c>
-      <c r="E27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" t="s">
-        <v>196</v>
       </c>
       <c r="G27" t="n">
         <v>15</v>
@@ -3842,44 +3722,42 @@
         <v>0.127</v>
       </c>
       <c r="L27" t="n">
-        <v>3479.667</v>
+        <v>3099</v>
       </c>
       <c r="M27" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
+        <v>0.1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>196</v>
+      </c>
       <c r="P27" t="s">
         <v>197</v>
       </c>
       <c r="Q27" t="s">
         <v>198</v>
       </c>
-      <c r="R27" t="s">
-        <v>199</v>
-      </c>
-      <c r="S27" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
         <v>9</v>
@@ -3897,98 +3775,86 @@
         <v>0.127</v>
       </c>
       <c r="L28" t="n">
-        <v>3479.667</v>
+        <v>3489</v>
       </c>
       <c r="M28" t="n">
         <v>0.112</v>
       </c>
-      <c r="N28"/>
-      <c r="O28"/>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
       <c r="P28" t="s">
         <v>197</v>
       </c>
       <c r="Q28" t="s">
         <v>198</v>
       </c>
-      <c r="R28" t="s">
-        <v>199</v>
-      </c>
-      <c r="S28" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D29" t="s">
         <v>203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>204</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H29" t="n">
-        <v>126283</v>
+        <v>131684</v>
       </c>
       <c r="I29" t="n">
-        <v>12.116</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6268</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.601</v>
-      </c>
+        <v>12.634</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29" t="n">
-        <v>4747</v>
+        <v>4617</v>
       </c>
       <c r="M29" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4128.429</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.396</v>
+        <v>0.443</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s">
+        <v>206</v>
       </c>
       <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" t="s">
         <v>207</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>208</v>
-      </c>
-      <c r="R29" t="s">
-        <v>94</v>
-      </c>
-      <c r="S29" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -4002,157 +3868,147 @@
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="L30" t="n">
+        <v>1953</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>213</v>
+      </c>
       <c r="P30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="s">
         <v>214</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>215</v>
-      </c>
-      <c r="R30" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D31" t="s">
         <v>217</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>219</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="n">
+        <v>74</v>
+      </c>
+      <c r="H31" t="n">
+        <v>137243</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.207</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2106</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3583</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
         <v>220</v>
       </c>
-      <c r="F31" t="s">
+      <c r="P31" t="s">
         <v>221</v>
-      </c>
-      <c r="G31" t="n">
-        <v>72</v>
-      </c>
-      <c r="H31" t="n">
-        <v>131429</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13.605</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4192</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4309.667</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4024.429</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="P31" t="s">
-        <v>220</v>
       </c>
       <c r="Q31" t="s">
         <v>222</v>
       </c>
-      <c r="R31" t="s">
-        <v>223</v>
-      </c>
-      <c r="S31" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D32" t="s">
         <v>225</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>226</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" t="s">
-        <v>228</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>56701</v>
+        <v>56834</v>
       </c>
       <c r="I32" t="n">
-        <v>166.157</v>
+        <v>166.547</v>
       </c>
       <c r="J32" t="n">
-        <v>523</v>
+        <v>133</v>
       </c>
       <c r="K32" t="n">
-        <v>1.533</v>
+        <v>0.39</v>
       </c>
       <c r="L32" t="n">
-        <v>555.667</v>
+        <v>383</v>
       </c>
       <c r="M32" t="n">
-        <v>1.629</v>
-      </c>
-      <c r="N32" t="n">
-        <v>497.429</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.458</v>
+        <v>1.122</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>225</v>
       </c>
       <c r="P32" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" t="s">
         <v>228</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>227</v>
-      </c>
-      <c r="R32" t="s">
-        <v>229</v>
-      </c>
-      <c r="S32" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
         <v>233</v>
-      </c>
-      <c r="E33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" t="s">
-        <v>235</v>
       </c>
       <c r="G33" t="n">
         <v>24</v>
@@ -4169,207 +4025,195 @@
       <c r="K33" t="n">
         <v>0.029</v>
       </c>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
+      <c r="L33" t="n">
+        <v>29603</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
+        <v>231</v>
+      </c>
       <c r="P33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q33" t="s">
         <v>234</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>233</v>
-      </c>
-      <c r="R33" t="s">
-        <v>94</v>
-      </c>
-      <c r="S33" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D34" t="s">
         <v>231</v>
       </c>
-      <c r="B34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
         <v>233</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="n">
+        <v>55</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2302792</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="J34" t="n">
+        <v>75150</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L34" t="n">
+        <v>89872</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" t="n">
-        <v>53</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2134277</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.547</v>
-      </c>
-      <c r="J34" t="n">
-        <v>94325</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="L34" t="n">
-        <v>93342.333</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N34" t="n">
-        <v>87294.857</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="P34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>233</v>
-      </c>
-      <c r="R34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D35" t="s">
         <v>238</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>239</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" t="s">
-        <v>241</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H35" t="n">
-        <v>135726</v>
+        <v>143035</v>
       </c>
       <c r="I35" t="n">
-        <v>0.496</v>
+        <v>0.523</v>
       </c>
       <c r="J35" t="n">
-        <v>3666</v>
+        <v>2556</v>
       </c>
       <c r="K35" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
       <c r="L35" t="n">
-        <v>4051.333</v>
+        <v>3811</v>
       </c>
       <c r="M35" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3861</v>
-      </c>
-      <c r="O35" t="n">
         <v>0.014</v>
       </c>
+      <c r="N35" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s">
+        <v>240</v>
+      </c>
       <c r="P35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" t="s">
         <v>241</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>242</v>
-      </c>
-      <c r="R35" t="s">
-        <v>73</v>
-      </c>
-      <c r="S35" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D36" t="s">
         <v>244</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>245</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" t="s">
-        <v>247</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H36" t="n">
-        <v>672679</v>
+        <v>701640</v>
       </c>
       <c r="I36" t="n">
-        <v>8.009</v>
+        <v>8.354</v>
       </c>
       <c r="J36" t="n">
-        <v>14075</v>
+        <v>14705</v>
       </c>
       <c r="K36" t="n">
-        <v>0.168</v>
+        <v>0.175</v>
       </c>
       <c r="L36" t="n">
-        <v>14381.667</v>
+        <v>14365</v>
       </c>
       <c r="M36" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>0.171</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>246</v>
+      </c>
       <c r="P36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="s">
         <v>247</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>248</v>
-      </c>
-      <c r="R36" t="s">
-        <v>24</v>
-      </c>
-      <c r="S36" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
@@ -4383,265 +4227,251 @@
       </c>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
+      <c r="L37" t="n">
+        <v>6292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>251</v>
+      </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="Q37" t="s">
         <v>253</v>
       </c>
-      <c r="R37" t="s">
-        <v>254</v>
-      </c>
-      <c r="S37" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D38" t="s">
         <v>256</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>258</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="n">
+        <v>87</v>
+      </c>
+      <c r="H38" t="n">
+        <v>498969</v>
+      </c>
+      <c r="I38" t="n">
+        <v>57.647</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4344</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6381</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="N38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" t="s">
         <v>259</v>
       </c>
-      <c r="F38" t="s">
+      <c r="P38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" t="s">
         <v>260</v>
-      </c>
-      <c r="G38" t="n">
-        <v>83</v>
-      </c>
-      <c r="H38" t="n">
-        <v>478106</v>
-      </c>
-      <c r="I38" t="n">
-        <v>55.237</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7130</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7935</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7273.857</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="P38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>261</v>
-      </c>
-      <c r="R38" t="s">
-        <v>24</v>
-      </c>
-      <c r="S38" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D39" t="s">
         <v>263</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>265</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1959373</v>
+      </c>
+      <c r="I39" t="n">
+        <v>32.407</v>
+      </c>
+      <c r="J39" t="n">
+        <v>26101</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="L39" t="n">
+        <v>36727</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="N39" t="s">
         <v>266</v>
       </c>
-      <c r="F39" t="s">
+      <c r="O39" t="s">
         <v>267</v>
       </c>
-      <c r="G39" t="n">
-        <v>28</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1899767</v>
-      </c>
-      <c r="I39" t="n">
-        <v>31.421</v>
-      </c>
-      <c r="J39" t="n">
-        <v>40657</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.672</v>
-      </c>
-      <c r="L39" t="n">
-        <v>40271.667</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="N39" t="n">
-        <v>36384.429</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.602</v>
-      </c>
       <c r="P39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q39" t="s">
         <v>268</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>269</v>
-      </c>
-      <c r="R39" t="s">
-        <v>94</v>
-      </c>
-      <c r="S39" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D40" t="s">
         <v>263</v>
       </c>
-      <c r="B40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" t="s">
         <v>265</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="n">
+        <v>85</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3041366</v>
+      </c>
+      <c r="I40" t="n">
+        <v>50.302</v>
+      </c>
+      <c r="J40" t="n">
+        <v>36406</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="L40" t="n">
+        <v>62102</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="N40" t="s">
         <v>266</v>
       </c>
-      <c r="F40" t="s">
+      <c r="O40" t="s">
         <v>267</v>
       </c>
-      <c r="G40" t="n">
-        <v>83</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2944859</v>
-      </c>
-      <c r="I40" t="n">
-        <v>48.706</v>
-      </c>
-      <c r="J40" t="n">
-        <v>69179</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.144</v>
-      </c>
-      <c r="L40" t="n">
-        <v>69743.667</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.154</v>
-      </c>
-      <c r="N40" t="n">
-        <v>61517.857</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.018</v>
-      </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>269</v>
-      </c>
-      <c r="R40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D41" t="s">
         <v>273</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>275</v>
       </c>
-      <c r="E41" t="s">
-        <v>276</v>
-      </c>
-      <c r="F41" t="s">
-        <v>277</v>
-      </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H41" t="n">
-        <v>240368</v>
+        <v>250151</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>1.978</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
+      <c r="L41" t="n">
+        <v>5760</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O41" t="s">
+        <v>276</v>
+      </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>278</v>
-      </c>
-      <c r="R41" t="s">
-        <v>94</v>
-      </c>
-      <c r="S41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G42" t="n">
         <v>87</v>
@@ -4659,425 +4489,401 @@
         <v>0.053</v>
       </c>
       <c r="L42" t="n">
-        <v>7761</v>
+        <v>6999</v>
       </c>
       <c r="M42" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6999</v>
-      </c>
-      <c r="O42" t="n">
         <v>0.055</v>
       </c>
+      <c r="N42" t="s">
+        <v>274</v>
+      </c>
+      <c r="O42" t="s">
+        <v>276</v>
+      </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>278</v>
-      </c>
-      <c r="R42" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D43" t="s">
         <v>284</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>285</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D43" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" t="s">
-        <v>287</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H43" t="n">
-        <v>505216</v>
+        <v>540708</v>
       </c>
       <c r="I43" t="n">
-        <v>26.907</v>
+        <v>28.797</v>
       </c>
       <c r="J43" t="n">
-        <v>21980</v>
+        <v>13268</v>
       </c>
       <c r="K43" t="n">
-        <v>1.171</v>
+        <v>0.707</v>
       </c>
       <c r="L43" t="n">
-        <v>21907</v>
+        <v>18856</v>
       </c>
       <c r="M43" t="n">
-        <v>1.167</v>
-      </c>
-      <c r="N43" t="n">
-        <v>17158.857</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.914</v>
+        <v>1.004</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>284</v>
       </c>
       <c r="P43" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="s">
         <v>286</v>
       </c>
-      <c r="R43" t="s">
-        <v>24</v>
-      </c>
-      <c r="S43" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D44" t="s">
         <v>289</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>290</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D44" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" t="s">
-        <v>292</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H44" t="n">
-        <v>39018</v>
+        <v>44851</v>
       </c>
       <c r="I44" t="n">
-        <v>0.726</v>
+        <v>0.834</v>
       </c>
       <c r="J44" t="n">
-        <v>2100</v>
+        <v>1139</v>
       </c>
       <c r="K44" t="n">
-        <v>0.039</v>
+        <v>0.021</v>
       </c>
       <c r="L44" t="n">
-        <v>1700.667</v>
+        <v>1702</v>
       </c>
       <c r="M44" t="n">
         <v>0.032</v>
       </c>
-      <c r="N44" t="n">
-        <v>1369.714</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.026</v>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>291</v>
       </c>
       <c r="P44" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="Q44" t="s">
         <v>293</v>
       </c>
-      <c r="R44" t="s">
-        <v>294</v>
-      </c>
-      <c r="S44" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D45" t="s">
         <v>296</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>297</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>298</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="n">
+        <v>80</v>
+      </c>
+      <c r="H45" t="n">
+        <v>89123</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>718</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1711</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="N45" t="s">
+        <v>297</v>
+      </c>
+      <c r="O45" t="s">
+        <v>296</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" t="s">
         <v>299</v>
-      </c>
-      <c r="F45" t="s">
-        <v>300</v>
-      </c>
-      <c r="G45" t="n">
-        <v>78</v>
-      </c>
-      <c r="H45" t="n">
-        <v>87377</v>
-      </c>
-      <c r="I45" t="n">
-        <v>46.324</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1946</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.032</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2043.667</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.084</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1686.571</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="P45" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>298</v>
-      </c>
-      <c r="R45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S45" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D46" t="s">
         <v>302</v>
       </c>
-      <c r="B46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D46" t="s">
-        <v>304</v>
-      </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H46" t="n">
-        <v>224040</v>
+        <v>228726</v>
       </c>
       <c r="I46" t="n">
-        <v>82.298</v>
+        <v>84.02</v>
       </c>
       <c r="J46" t="n">
-        <v>7793</v>
+        <v>4686</v>
       </c>
       <c r="K46" t="n">
-        <v>2.863</v>
+        <v>1.721</v>
       </c>
       <c r="L46" t="n">
-        <v>7925.333</v>
+        <v>6402</v>
       </c>
       <c r="M46" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6244</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2.294</v>
+        <v>2.352</v>
+      </c>
+      <c r="N46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" t="s">
+        <v>303</v>
       </c>
       <c r="P46" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>305</v>
-      </c>
-      <c r="R46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D47" t="s">
         <v>307</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>308</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D47" t="s">
-        <v>309</v>
-      </c>
-      <c r="E47" t="s">
-        <v>310</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H47" t="n">
-        <v>60246</v>
+        <v>62153</v>
       </c>
       <c r="I47" t="n">
-        <v>96.243</v>
-      </c>
-      <c r="J47"/>
+        <v>99.29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1907</v>
+      </c>
       <c r="K47" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="L47"/>
+        <v>3.046</v>
+      </c>
+      <c r="L47" t="n">
+        <v>986</v>
+      </c>
       <c r="M47" t="n">
-        <v>1.363</v>
-      </c>
-      <c r="N47"/>
-      <c r="O47" t="n">
-        <v>1.32</v>
+        <v>1.575</v>
+      </c>
+      <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>309</v>
       </c>
       <c r="P47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" t="s">
         <v>310</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>311</v>
-      </c>
-      <c r="R47" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D48" t="s">
         <v>313</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>314</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D48" t="s">
-        <v>315</v>
-      </c>
-      <c r="E48" t="s">
-        <v>316</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H48" t="n">
-        <v>434136</v>
+        <v>443263</v>
       </c>
       <c r="I48" t="n">
-        <v>13.413</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>13.695</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9127</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="L48" t="n">
+        <v>26618</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="N48" t="s">
+        <v>314</v>
+      </c>
+      <c r="O48" t="s">
+        <v>315</v>
+      </c>
       <c r="P48" t="s">
         <v>316</v>
       </c>
       <c r="Q48" t="s">
         <v>317</v>
       </c>
-      <c r="R48" t="s">
-        <v>318</v>
-      </c>
-      <c r="S48" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D49" t="s">
         <v>320</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>321</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D49" t="s">
-        <v>322</v>
-      </c>
-      <c r="E49" t="s">
-        <v>323</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H49" t="n">
-        <v>134663</v>
+        <v>144786</v>
       </c>
       <c r="I49" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="J49"/>
+        <v>1.123</v>
+      </c>
+      <c r="J49" t="n">
+        <v>108</v>
+      </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49"/>
+        <v>0.001</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2858</v>
+      </c>
       <c r="M49" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
+      </c>
+      <c r="N49" t="s">
+        <v>321</v>
+      </c>
+      <c r="O49" t="s">
+        <v>320</v>
       </c>
       <c r="P49" t="s">
-        <v>323</v>
+        <v>71</v>
       </c>
       <c r="Q49" t="s">
         <v>322</v>
       </c>
-      <c r="R49" t="s">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="D50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" t="s">
         <v>327</v>
-      </c>
-      <c r="E50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" t="s">
-        <v>329</v>
       </c>
       <c r="G50" t="n">
         <v>56</v>
@@ -5095,478 +4901,448 @@
         <v>0.059</v>
       </c>
       <c r="L50" t="n">
-        <v>1918.667</v>
+        <v>1868</v>
       </c>
       <c r="M50" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1867.571</v>
-      </c>
-      <c r="O50" t="n">
         <v>0.051</v>
       </c>
+      <c r="N50" t="s">
+        <v>326</v>
+      </c>
+      <c r="O50" t="s">
+        <v>328</v>
+      </c>
       <c r="P50" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="Q50" t="s">
-        <v>330</v>
-      </c>
-      <c r="R50" t="s">
-        <v>73</v>
-      </c>
-      <c r="S50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D51" t="s">
         <v>332</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>334</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="n">
+        <v>41</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14561</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="J51" t="n">
+        <v>562</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L51" t="n">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N51" t="s">
+        <v>333</v>
+      </c>
+      <c r="O51" t="s">
         <v>335</v>
       </c>
-      <c r="F51" t="s">
+      <c r="P51" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" t="s">
         <v>336</v>
-      </c>
-      <c r="G51" t="n">
-        <v>39</v>
-      </c>
-      <c r="H51" t="n">
-        <v>13634</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>337</v>
-      </c>
-      <c r="R51" t="s">
-        <v>53</v>
-      </c>
-      <c r="S51" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D52" t="s">
         <v>339</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>341</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="n">
+        <v>87</v>
+      </c>
+      <c r="H52" t="n">
+        <v>28161</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1609</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N52" t="s">
+        <v>340</v>
+      </c>
+      <c r="O52" t="s">
         <v>342</v>
       </c>
-      <c r="F52" t="s">
+      <c r="P52" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q52" t="s">
         <v>343</v>
-      </c>
-      <c r="G52" t="n">
-        <v>85</v>
-      </c>
-      <c r="H52" t="n">
-        <v>23914</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1250</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1650</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1203.143</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="P52" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>344</v>
-      </c>
-      <c r="R52" t="s">
-        <v>94</v>
-      </c>
-      <c r="S52" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D53" t="s">
         <v>346</v>
       </c>
-      <c r="B53" t="s">
+      <c r="E53" t="s">
         <v>347</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D53" t="s">
-        <v>348</v>
-      </c>
-      <c r="E53" t="s">
-        <v>349</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>287943</v>
+        <v>297347</v>
       </c>
       <c r="I53" t="n">
-        <v>16.805</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4013</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.234</v>
-      </c>
+        <v>17.353</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53" t="n">
-        <v>5499.333</v>
+        <v>4285</v>
       </c>
       <c r="M53" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>0.25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" t="s">
+        <v>349</v>
+      </c>
       <c r="P53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q53" t="s">
         <v>350</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>351</v>
-      </c>
-      <c r="R53" t="s">
-        <v>94</v>
-      </c>
-      <c r="S53" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D54" t="s">
         <v>353</v>
       </c>
-      <c r="B54" t="s">
-        <v>354</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D54" t="s">
-        <v>355</v>
-      </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H54" t="n">
-        <v>223937</v>
+        <v>230718</v>
       </c>
       <c r="I54" t="n">
-        <v>46.438</v>
+        <v>47.845</v>
       </c>
       <c r="J54" t="n">
-        <v>7150</v>
+        <v>2570</v>
       </c>
       <c r="K54" t="n">
-        <v>1.483</v>
+        <v>0.533</v>
       </c>
       <c r="L54" t="n">
-        <v>6964</v>
+        <v>5218</v>
       </c>
       <c r="M54" t="n">
-        <v>1.444</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5842.571</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.212</v>
+        <v>1.082</v>
+      </c>
+      <c r="N54" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>353</v>
       </c>
       <c r="P54" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="Q54" t="s">
         <v>355</v>
       </c>
-      <c r="R54" t="s">
-        <v>24</v>
-      </c>
-      <c r="S54" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s">
+        <v>357</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D55" t="s">
         <v>358</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
         <v>359</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D55" t="s">
-        <v>360</v>
-      </c>
-      <c r="E55" t="s">
-        <v>361</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>32942</v>
+        <v>35345</v>
       </c>
       <c r="I55" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>0.171</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1375</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1181</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N55" t="s">
+        <v>359</v>
+      </c>
+      <c r="O55" t="s">
+        <v>360</v>
+      </c>
       <c r="P55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q55" t="s">
         <v>361</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>362</v>
-      </c>
-      <c r="R55" t="s">
-        <v>53</v>
-      </c>
-      <c r="S55" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" t="s">
+        <v>363</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D56" t="s">
         <v>364</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>365</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E56" t="s">
-        <v>367</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H56" t="n">
-        <v>216350</v>
+        <v>218039</v>
       </c>
       <c r="I56" t="n">
-        <v>39.908</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3695</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.682</v>
-      </c>
+        <v>40.219</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>3703.667</v>
+        <v>2184</v>
       </c>
       <c r="M56" t="n">
-        <v>0.683</v>
-      </c>
-      <c r="N56"/>
-      <c r="O56"/>
+        <v>0.403</v>
+      </c>
+      <c r="N56" t="s">
+        <v>365</v>
+      </c>
+      <c r="O56" t="s">
+        <v>366</v>
+      </c>
       <c r="P56" t="s">
         <v>367</v>
       </c>
       <c r="Q56" t="s">
         <v>368</v>
       </c>
-      <c r="R56" t="s">
-        <v>369</v>
-      </c>
-      <c r="S56" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D57" t="s">
         <v>371</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
         <v>372</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D57" t="s">
-        <v>373</v>
-      </c>
-      <c r="E57" t="s">
-        <v>374</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H57" t="n">
-        <v>359264</v>
+        <v>387335</v>
       </c>
       <c r="I57" t="n">
-        <v>1.626</v>
+        <v>1.754</v>
       </c>
       <c r="J57" t="n">
-        <v>14814</v>
+        <v>13925</v>
       </c>
       <c r="K57" t="n">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
       <c r="L57" t="n">
-        <v>13855</v>
+        <v>13206</v>
       </c>
       <c r="M57" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="N57" t="n">
-        <v>12748.429</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
+      </c>
+      <c r="N57" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" t="s">
+        <v>373</v>
       </c>
       <c r="P57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q57" t="s">
         <v>374</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>375</v>
-      </c>
-      <c r="R57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S57" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D58" t="s">
         <v>377</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
         <v>378</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="n">
+        <v>69</v>
+      </c>
+      <c r="H58" t="n">
+        <v>49104</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1336</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1065</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="N58" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" t="s">
         <v>379</v>
       </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="P58" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q58" t="s">
         <v>380</v>
-      </c>
-      <c r="G58" t="n">
-        <v>68</v>
-      </c>
-      <c r="H58" t="n">
-        <v>47768</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.071</v>
-      </c>
-      <c r="J58" t="n">
-        <v>870</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1069</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1058.857</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="P58" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>381</v>
-      </c>
-      <c r="R58" t="s">
-        <v>128</v>
-      </c>
-      <c r="S58" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>43960</v>
       </c>
       <c r="D59" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" t="s">
         <v>385</v>
-      </c>
-      <c r="E59" t="s">
-        <v>386</v>
-      </c>
-      <c r="F59" t="s">
-        <v>387</v>
       </c>
       <c r="G59" t="n">
         <v>62</v>
@@ -5584,97 +5360,93 @@
         <v>0.112</v>
       </c>
       <c r="L59" t="n">
-        <v>716.333</v>
+        <v>554</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N59" t="n">
-        <v>554.286</v>
-      </c>
-      <c r="O59" t="n">
         <v>0.078</v>
       </c>
+      <c r="N59" t="s">
+        <v>386</v>
+      </c>
+      <c r="O59" t="s">
+        <v>387</v>
+      </c>
       <c r="P59" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q59" t="s">
         <v>388</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>389</v>
-      </c>
-      <c r="R59" t="s">
-        <v>53</v>
-      </c>
-      <c r="S59" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D60" t="s">
         <v>391</v>
       </c>
-      <c r="B60" t="s">
-        <v>392</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D60" t="s">
-        <v>393</v>
-      </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>630482</v>
+        <v>650613</v>
       </c>
       <c r="I60" t="n">
-        <v>19.122</v>
+        <v>19.732</v>
       </c>
       <c r="J60" t="n">
-        <v>25099</v>
+        <v>20131</v>
       </c>
       <c r="K60" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
+        <v>0.611</v>
+      </c>
+      <c r="L60" t="n">
+        <v>20812</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="N60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
+        <v>393</v>
+      </c>
       <c r="P60" t="s">
         <v>394</v>
       </c>
       <c r="Q60" t="s">
         <v>395</v>
       </c>
-      <c r="R60" t="s">
-        <v>396</v>
-      </c>
-      <c r="S60" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>43964</v>
       </c>
       <c r="D61" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F61" t="s">
         <v>400</v>
-      </c>
-      <c r="E61" t="s">
-        <v>401</v>
-      </c>
-      <c r="F61" t="s">
-        <v>402</v>
       </c>
       <c r="G61" t="n">
         <v>23</v>
@@ -5691,471 +5463,431 @@
       <c r="K61" t="n">
         <v>0.119</v>
       </c>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
+      <c r="L61" t="n">
+        <v>7590</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="N61" t="s">
+        <v>211</v>
+      </c>
+      <c r="O61" t="s">
+        <v>398</v>
+      </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="Q61" t="s">
-        <v>400</v>
-      </c>
-      <c r="R61" t="s">
-        <v>94</v>
-      </c>
-      <c r="S61" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D62" t="s">
         <v>404</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>406</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="n">
+        <v>75</v>
+      </c>
+      <c r="H62" t="n">
+        <v>636046</v>
+      </c>
+      <c r="I62" t="n">
+        <v>16.806</v>
+      </c>
+      <c r="J62" t="n">
+        <v>15797</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L62" t="n">
+        <v>20690</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="N62" t="s">
         <v>407</v>
       </c>
-      <c r="F62" t="s">
+      <c r="O62" t="s">
         <v>408</v>
       </c>
-      <c r="G62" t="n">
-        <v>72</v>
-      </c>
-      <c r="H62" t="n">
-        <v>576276</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15.227</v>
-      </c>
-      <c r="J62" t="n">
-        <v>21919</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="L62" t="n">
-        <v>22832.667</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="N62" t="n">
-        <v>18967.143</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.501</v>
-      </c>
       <c r="P62" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q62" t="s">
         <v>409</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>410</v>
-      </c>
-      <c r="R62" t="s">
-        <v>53</v>
-      </c>
-      <c r="S62" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" t="s">
+        <v>411</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D63" t="s">
         <v>412</v>
       </c>
-      <c r="B63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D63" t="s">
-        <v>414</v>
-      </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H63" t="n">
-        <v>600061</v>
+        <v>618066</v>
       </c>
       <c r="I63" t="n">
-        <v>58.849</v>
+        <v>60.614</v>
       </c>
       <c r="J63" t="n">
-        <v>17463</v>
+        <v>17742</v>
       </c>
       <c r="K63" t="n">
-        <v>1.713</v>
+        <v>1.74</v>
       </c>
       <c r="L63" t="n">
-        <v>15385</v>
+        <v>14331</v>
       </c>
       <c r="M63" t="n">
-        <v>1.509</v>
-      </c>
-      <c r="N63" t="n">
-        <v>14025</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.376</v>
+        <v>1.405</v>
+      </c>
+      <c r="N63" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63" t="s">
+        <v>412</v>
       </c>
       <c r="P63" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q63" t="s">
         <v>415</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>414</v>
-      </c>
-      <c r="R63" t="s">
-        <v>416</v>
-      </c>
-      <c r="S63" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D64" t="s">
         <v>418</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>419</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D64" t="s">
-        <v>420</v>
-      </c>
-      <c r="E64" t="s">
-        <v>421</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H64" t="n">
-        <v>152704</v>
+        <v>161695</v>
       </c>
       <c r="I64" t="n">
-        <v>53.003</v>
+        <v>56.123</v>
       </c>
       <c r="J64" t="n">
-        <v>4531</v>
+        <v>4125</v>
       </c>
       <c r="K64" t="n">
-        <v>1.573</v>
+        <v>1.432</v>
       </c>
       <c r="L64" t="n">
-        <v>4525.667</v>
+        <v>4379</v>
       </c>
       <c r="M64" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="N64" t="n">
-        <v>4021.429</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.396</v>
+        <v>1.52</v>
+      </c>
+      <c r="N64" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" t="s">
+        <v>420</v>
       </c>
       <c r="P64" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q64" t="s">
         <v>421</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>422</v>
-      </c>
-      <c r="R64" t="s">
-        <v>94</v>
-      </c>
-      <c r="S64" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D65" t="s">
         <v>424</v>
       </c>
-      <c r="B65" t="s">
+      <c r="E65" t="s">
         <v>425</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>426</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="n">
+        <v>67</v>
+      </c>
+      <c r="H65" t="n">
+        <v>310407</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16.135</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6673</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="L65" t="n">
+        <v>7665</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="N65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O65" t="s">
+        <v>424</v>
+      </c>
+      <c r="P65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q65" t="s">
         <v>427</v>
-      </c>
-      <c r="F65" t="s">
-        <v>428</v>
-      </c>
-      <c r="G65" t="n">
-        <v>64</v>
-      </c>
-      <c r="H65" t="n">
-        <v>286217</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14.878</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8413</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7999.333</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="N65" t="n">
-        <v>8514.857</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="P65" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>426</v>
-      </c>
-      <c r="R65" t="s">
-        <v>24</v>
-      </c>
-      <c r="S65" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D66" t="s">
         <v>430</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>431</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D66" t="s">
-        <v>432</v>
-      </c>
-      <c r="E66" t="s">
-        <v>433</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H66" t="n">
-        <v>6656340</v>
+        <v>7147014</v>
       </c>
       <c r="I66" t="n">
-        <v>45.612</v>
+        <v>48.974</v>
       </c>
       <c r="J66" t="n">
-        <v>242392</v>
+        <v>230926</v>
       </c>
       <c r="K66" t="n">
-        <v>1.661</v>
+        <v>1.582</v>
       </c>
       <c r="L66" t="n">
-        <v>224594</v>
+        <v>215750</v>
       </c>
       <c r="M66" t="n">
-        <v>1.539</v>
-      </c>
-      <c r="N66" t="n">
-        <v>204910.857</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.404</v>
+        <v>1.478</v>
+      </c>
+      <c r="N66" t="s">
+        <v>431</v>
+      </c>
+      <c r="O66" t="s">
+        <v>432</v>
       </c>
       <c r="P66" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q66" t="s">
         <v>433</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>434</v>
-      </c>
-      <c r="R66" t="s">
-        <v>24</v>
-      </c>
-      <c r="S66" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D67" t="s">
         <v>436</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>437</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D67" t="s">
-        <v>438</v>
-      </c>
-      <c r="E67" t="s">
-        <v>439</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H67" t="n">
-        <v>48239</v>
+        <v>49374</v>
       </c>
       <c r="I67" t="n">
-        <v>3.724</v>
+        <v>3.812</v>
       </c>
       <c r="J67" t="n">
-        <v>2041</v>
+        <v>1135</v>
       </c>
       <c r="K67" t="n">
-        <v>0.158</v>
+        <v>0.088</v>
       </c>
       <c r="L67" t="n">
-        <v>1331.333</v>
+        <v>993</v>
       </c>
       <c r="M67" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N67" t="n">
-        <v>979.143</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.076</v>
+        <v>0.077</v>
+      </c>
+      <c r="N67" t="s">
+        <v>437</v>
+      </c>
+      <c r="O67" t="s">
+        <v>438</v>
       </c>
       <c r="P67" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q67" t="s">
         <v>439</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>440</v>
-      </c>
-      <c r="R67" t="s">
-        <v>53</v>
-      </c>
-      <c r="S67" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>440</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D68" t="s">
         <v>442</v>
       </c>
-      <c r="B68" t="s">
-        <v>443</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D68" t="s">
-        <v>444</v>
-      </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="n">
-        <v>548023</v>
+        <v>586405</v>
       </c>
       <c r="I68" t="n">
-        <v>15.742</v>
+        <v>16.844</v>
       </c>
       <c r="J68" t="n">
-        <v>17758</v>
+        <v>38382</v>
       </c>
       <c r="K68" t="n">
-        <v>0.51</v>
+        <v>1.102</v>
       </c>
       <c r="L68" t="n">
-        <v>17025</v>
+        <v>19537</v>
       </c>
       <c r="M68" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="N68" t="n">
-        <v>16360.429</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.47</v>
+        <v>0.561</v>
+      </c>
+      <c r="N68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" t="s">
+        <v>442</v>
       </c>
       <c r="P68" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="Q68" t="s">
-        <v>444</v>
-      </c>
-      <c r="R68" t="s">
-        <v>128</v>
-      </c>
-      <c r="S68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>444</v>
+      </c>
+      <c r="B69" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D69" t="s">
         <v>446</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>447</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>448</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="n">
+        <v>77</v>
+      </c>
+      <c r="H69" t="n">
+        <v>29506</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1072</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N69" t="s">
         <v>449</v>
       </c>
-      <c r="F69" t="s">
+      <c r="O69" t="s">
         <v>450</v>
-      </c>
-      <c r="G69" t="n">
-        <v>75</v>
-      </c>
-      <c r="H69" t="n">
-        <v>27618</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.649</v>
-      </c>
-      <c r="J69" t="n">
-        <v>989</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1036.333</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1057.286</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.063</v>
       </c>
       <c r="P69" t="s">
         <v>451</v>
@@ -6163,87 +5895,75 @@
       <c r="Q69" t="s">
         <v>452</v>
       </c>
-      <c r="R69" t="s">
-        <v>453</v>
-      </c>
-      <c r="S69" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D70" t="s">
         <v>455</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>456</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G70" t="n">
+        <v>81</v>
+      </c>
+      <c r="H70" t="n">
+        <v>181272</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6526</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5811</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="N70" t="s">
+        <v>41</v>
+      </c>
+      <c r="O70" t="s">
         <v>457</v>
       </c>
-      <c r="E70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="P70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q70" t="s">
         <v>458</v>
-      </c>
-      <c r="G70" t="n">
-        <v>80</v>
-      </c>
-      <c r="H70" t="n">
-        <v>174746</v>
-      </c>
-      <c r="I70" t="n">
-        <v>25.681</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6076</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6047.667</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5744.714</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="P70" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>459</v>
-      </c>
-      <c r="R70" t="s">
-        <v>94</v>
-      </c>
-      <c r="S70" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
@@ -6257,38 +5977,40 @@
       </c>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
+      <c r="L71" t="n">
+        <v>9433</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="N71" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" t="s">
+        <v>462</v>
+      </c>
       <c r="P71" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>464</v>
-      </c>
-      <c r="R71" t="s">
-        <v>94</v>
-      </c>
-      <c r="S71" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -6302,66 +6024,68 @@
       </c>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
+      <c r="L72" t="n">
+        <v>10739</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="N72" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" t="s">
+        <v>462</v>
+      </c>
       <c r="P72" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Q72" t="s">
-        <v>464</v>
-      </c>
-      <c r="R72" t="s">
-        <v>468</v>
-      </c>
-      <c r="S72" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D73" t="s">
         <v>469</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
         <v>470</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D73" t="s">
-        <v>471</v>
-      </c>
-      <c r="E73" t="s">
-        <v>472</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H73" t="n">
-        <v>139986</v>
+        <v>142462</v>
       </c>
       <c r="I73" t="n">
-        <v>25.64</v>
+        <v>26.094</v>
       </c>
       <c r="J73" t="n">
-        <v>4084</v>
+        <v>2476</v>
       </c>
       <c r="K73" t="n">
-        <v>0.748</v>
+        <v>0.454</v>
       </c>
       <c r="L73" t="n">
-        <v>4317.333</v>
+        <v>3229</v>
       </c>
       <c r="M73" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3087.857</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.566</v>
+        <v>0.591</v>
+      </c>
+      <c r="N73" t="s">
+        <v>471</v>
+      </c>
+      <c r="O73" t="s">
+        <v>472</v>
       </c>
       <c r="P73" t="s">
         <v>473</v>
@@ -6369,201 +6093,177 @@
       <c r="Q73" t="s">
         <v>474</v>
       </c>
-      <c r="R73" t="s">
-        <v>475</v>
-      </c>
-      <c r="S73" t="s">
-        <v>476</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" t="s">
+        <v>476</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D74" t="s">
         <v>477</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>478</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D74" t="s">
-        <v>479</v>
-      </c>
-      <c r="E74" t="s">
-        <v>480</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H74" t="n">
-        <v>68852</v>
+        <v>69842</v>
       </c>
       <c r="I74" t="n">
-        <v>33.119</v>
+        <v>33.595</v>
       </c>
       <c r="J74" t="n">
-        <v>1151</v>
+        <v>479</v>
       </c>
       <c r="K74" t="n">
-        <v>0.554</v>
+        <v>0.23</v>
       </c>
       <c r="L74" t="n">
-        <v>1052.667</v>
+        <v>925</v>
       </c>
       <c r="M74" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="N74" t="n">
-        <v>949.857</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.457</v>
+        <v>0.445</v>
+      </c>
+      <c r="N74" t="s">
+        <v>479</v>
+      </c>
+      <c r="O74" t="s">
+        <v>480</v>
       </c>
       <c r="P74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" t="s">
         <v>481</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>482</v>
-      </c>
-      <c r="R74" t="s">
-        <v>24</v>
-      </c>
-      <c r="S74" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75" t="s">
+        <v>483</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D75" t="s">
         <v>484</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>486</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="n">
+        <v>78</v>
+      </c>
+      <c r="H75" t="n">
+        <v>460873</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.771</v>
+      </c>
+      <c r="J75" t="n">
+        <v>21314</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="L75" t="n">
+        <v>17077</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="N75" t="s">
+        <v>485</v>
+      </c>
+      <c r="O75" t="s">
         <v>487</v>
       </c>
-      <c r="F75" t="s">
+      <c r="P75" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q75" t="s">
         <v>488</v>
-      </c>
-      <c r="G75" t="n">
-        <v>76</v>
-      </c>
-      <c r="H75" t="n">
-        <v>421555</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.108</v>
-      </c>
-      <c r="J75" t="n">
-        <v>18537</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="L75" t="n">
-        <v>17286</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="N75" t="n">
-        <v>16257.571</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="P75" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>489</v>
-      </c>
-      <c r="R75" t="s">
-        <v>94</v>
-      </c>
-      <c r="S75" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D76" t="s">
         <v>491</v>
       </c>
-      <c r="B76" t="s">
+      <c r="E76" t="s">
         <v>492</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D76" t="s">
-        <v>493</v>
-      </c>
-      <c r="E76" t="s">
-        <v>494</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H76" t="n">
-        <v>740645</v>
+        <v>753211</v>
       </c>
       <c r="I76" t="n">
-        <v>14.446</v>
+        <v>14.691</v>
       </c>
       <c r="J76" t="n">
-        <v>13898</v>
+        <v>5558</v>
       </c>
       <c r="K76" t="n">
-        <v>0.271</v>
+        <v>0.108</v>
       </c>
       <c r="L76" t="n">
-        <v>14908.333</v>
+        <v>12103</v>
       </c>
       <c r="M76" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="N76" t="n">
-        <v>11516.429</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.225</v>
+        <v>0.236</v>
+      </c>
+      <c r="N76" t="s">
+        <v>492</v>
+      </c>
+      <c r="O76" t="s">
+        <v>493</v>
       </c>
       <c r="P76" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q76" t="s">
         <v>494</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>495</v>
-      </c>
-      <c r="R76" t="s">
-        <v>73</v>
-      </c>
-      <c r="S76" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="D77" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E77" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
@@ -6577,168 +6277,166 @@
       </c>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
+      <c r="L77" t="n">
+        <v>42029</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="N77" t="s">
+        <v>499</v>
+      </c>
+      <c r="O77" t="s">
+        <v>500</v>
+      </c>
       <c r="P77" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q77" t="s">
         <v>501</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>502</v>
-      </c>
-      <c r="R77" t="s">
-        <v>24</v>
-      </c>
-      <c r="S77" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>502</v>
+      </c>
+      <c r="B78" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D78" t="s">
         <v>504</v>
       </c>
-      <c r="B78" t="s">
+      <c r="E78" t="s">
         <v>505</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D78" t="s">
-        <v>506</v>
-      </c>
-      <c r="E78" t="s">
-        <v>507</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" t="n">
-        <v>177200</v>
+        <v>209900</v>
       </c>
       <c r="I78" t="n">
-        <v>17.546</v>
+        <v>20.784</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
+      <c r="L78" t="n">
+        <v>4671</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="N78" t="s">
+        <v>505</v>
+      </c>
+      <c r="O78" t="s">
+        <v>504</v>
+      </c>
       <c r="P78" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q78" t="s">
         <v>506</v>
       </c>
-      <c r="R78" t="s">
-        <v>94</v>
-      </c>
-      <c r="S78" t="s">
-        <v>508</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>507</v>
+      </c>
+      <c r="B79" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D79" t="s">
         <v>509</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>510</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D79" t="s">
-        <v>511</v>
-      </c>
-      <c r="E79" t="s">
-        <v>512</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H79" t="n">
-        <v>339347</v>
+        <v>344592</v>
       </c>
       <c r="I79" t="n">
-        <v>39.21</v>
+        <v>39.816</v>
       </c>
       <c r="J79" t="n">
-        <v>3163</v>
+        <v>2699</v>
       </c>
       <c r="K79" t="n">
-        <v>0.365</v>
+        <v>0.312</v>
       </c>
       <c r="L79" t="n">
-        <v>4769.333</v>
+        <v>4518</v>
       </c>
       <c r="M79" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="N79" t="n">
-        <v>4217.571</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.487</v>
+        <v>0.522</v>
+      </c>
+      <c r="N79" t="s">
+        <v>510</v>
+      </c>
+      <c r="O79" t="s">
+        <v>509</v>
       </c>
       <c r="P79" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q79" t="s">
         <v>512</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>511</v>
-      </c>
-      <c r="R79" t="s">
-        <v>513</v>
-      </c>
-      <c r="S79" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>513</v>
+      </c>
+      <c r="B80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D80" t="s">
         <v>515</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>516</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D80" t="s">
-        <v>517</v>
-      </c>
-      <c r="E80" t="s">
-        <v>518</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H80" t="n">
-        <v>68988</v>
+        <v>69395</v>
       </c>
       <c r="I80" t="n">
-        <v>2.897</v>
+        <v>2.914</v>
       </c>
       <c r="J80" t="n">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="K80" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="L80" t="n">
-        <v>293.667</v>
+        <v>285</v>
       </c>
       <c r="M80" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="N80" t="n">
-        <v>303.857</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
+      </c>
+      <c r="N80" t="s">
+        <v>516</v>
+      </c>
+      <c r="O80" t="s">
+        <v>517</v>
       </c>
       <c r="P80" t="s">
         <v>518</v>
@@ -6746,81 +6444,73 @@
       <c r="Q80" t="s">
         <v>519</v>
       </c>
-      <c r="R80" t="s">
-        <v>520</v>
-      </c>
-      <c r="S80" t="s">
-        <v>521</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>520</v>
+      </c>
+      <c r="B81" t="s">
+        <v>521</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D81" t="s">
         <v>522</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>523</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D81" t="s">
-        <v>524</v>
-      </c>
-      <c r="E81" t="s">
-        <v>525</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H81" t="n">
-        <v>120659</v>
+        <v>127108</v>
       </c>
       <c r="I81" t="n">
-        <v>1.729</v>
+        <v>1.821</v>
       </c>
       <c r="J81" t="n">
-        <v>2385</v>
+        <v>4016</v>
       </c>
       <c r="K81" t="n">
-        <v>0.034</v>
+        <v>0.058</v>
       </c>
       <c r="L81" t="n">
-        <v>2084.667</v>
+        <v>3321</v>
       </c>
       <c r="M81" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N81"/>
-      <c r="O81"/>
+        <v>0.048</v>
+      </c>
+      <c r="N81" t="s">
+        <v>524</v>
+      </c>
+      <c r="O81" t="s">
+        <v>525</v>
+      </c>
       <c r="P81" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q81" t="s">
         <v>526</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>527</v>
-      </c>
-      <c r="R81" t="s">
-        <v>94</v>
-      </c>
-      <c r="S81" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B82" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>43959</v>
       </c>
       <c r="D82" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E82" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -6834,66 +6524,68 @@
       </c>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
+      <c r="L82" t="n">
+        <v>8307</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="N82" t="s">
+        <v>529</v>
+      </c>
+      <c r="O82" t="s">
+        <v>530</v>
+      </c>
       <c r="P82" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q82" t="s">
         <v>531</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>532</v>
-      </c>
-      <c r="R82" t="s">
-        <v>53</v>
-      </c>
-      <c r="S82" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D83" t="s">
         <v>534</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>535</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D83" t="s">
-        <v>536</v>
-      </c>
-      <c r="E83" t="s">
-        <v>537</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H83" t="n">
-        <v>37862</v>
+        <v>39778</v>
       </c>
       <c r="I83" t="n">
-        <v>3.204</v>
+        <v>3.366</v>
       </c>
       <c r="J83" t="n">
-        <v>1339</v>
+        <v>1916</v>
       </c>
       <c r="K83" t="n">
-        <v>0.113</v>
+        <v>0.162</v>
       </c>
       <c r="L83" t="n">
-        <v>1327.333</v>
+        <v>1497</v>
       </c>
       <c r="M83" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1491.714</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
+      </c>
+      <c r="N83" t="s">
+        <v>535</v>
+      </c>
+      <c r="O83" t="s">
+        <v>536</v>
       </c>
       <c r="P83" t="s">
         <v>537</v>
@@ -6901,56 +6593,50 @@
       <c r="Q83" t="s">
         <v>538</v>
       </c>
-      <c r="R83" t="s">
-        <v>539</v>
-      </c>
-      <c r="S83" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>539</v>
+      </c>
+      <c r="B84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D84" t="s">
         <v>541</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>542</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D84" t="s">
-        <v>543</v>
-      </c>
-      <c r="E84" t="s">
-        <v>544</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H84" t="n">
-        <v>1589625</v>
+        <v>1650135</v>
       </c>
       <c r="I84" t="n">
-        <v>18.848</v>
+        <v>19.565</v>
       </c>
       <c r="J84" t="n">
-        <v>42236</v>
+        <v>25141</v>
       </c>
       <c r="K84" t="n">
-        <v>0.501</v>
+        <v>0.298</v>
       </c>
       <c r="L84" t="n">
-        <v>38540.667</v>
+        <v>35259</v>
       </c>
       <c r="M84" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="N84" t="n">
-        <v>36459.143</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.432</v>
+        <v>0.418</v>
+      </c>
+      <c r="N84" t="s">
+        <v>542</v>
+      </c>
+      <c r="O84" t="s">
+        <v>543</v>
       </c>
       <c r="P84" t="s">
         <v>544</v>
@@ -6958,115 +6644,103 @@
       <c r="Q84" t="s">
         <v>545</v>
       </c>
-      <c r="R84" t="s">
-        <v>546</v>
-      </c>
-      <c r="S84" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>546</v>
+      </c>
+      <c r="B85" t="s">
+        <v>547</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D85" t="s">
         <v>548</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>549</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
         <v>550</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="n">
+        <v>40</v>
+      </c>
+      <c r="H85" t="n">
+        <v>72774</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2044</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2144</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N85" t="s">
+        <v>549</v>
+      </c>
+      <c r="O85" t="s">
         <v>551</v>
       </c>
-      <c r="F85" t="s">
+      <c r="P85" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q85" t="s">
         <v>552</v>
-      </c>
-      <c r="G85" t="n">
-        <v>39</v>
-      </c>
-      <c r="H85" t="n">
-        <v>70730</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.546</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2558</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2186</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2218.143</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="P85" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>553</v>
-      </c>
-      <c r="R85" t="s">
-        <v>53</v>
-      </c>
-      <c r="S85" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>553</v>
+      </c>
+      <c r="B86" t="s">
+        <v>554</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D86" t="s">
         <v>555</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>556</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D86" t="s">
-        <v>557</v>
-      </c>
-      <c r="E86" t="s">
-        <v>558</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H86" t="n">
-        <v>220638</v>
+        <v>232899</v>
       </c>
       <c r="I86" t="n">
-        <v>5.045</v>
+        <v>5.325</v>
       </c>
       <c r="J86" t="n">
-        <v>9024</v>
+        <v>5098</v>
       </c>
       <c r="K86" t="n">
-        <v>0.206</v>
+        <v>0.117</v>
       </c>
       <c r="L86" t="n">
-        <v>9463.667</v>
+        <v>7335</v>
       </c>
       <c r="M86" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="N86" t="n">
-        <v>7647.286</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.175</v>
+        <v>0.168</v>
+      </c>
+      <c r="N86" t="s">
+        <v>556</v>
+      </c>
+      <c r="O86" t="s">
+        <v>557</v>
       </c>
       <c r="P86" t="s">
         <v>558</v>
@@ -7074,164 +6748,152 @@
       <c r="Q86" t="s">
         <v>559</v>
       </c>
-      <c r="R86" t="s">
-        <v>560</v>
-      </c>
-      <c r="S86" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>560</v>
+      </c>
+      <c r="B87" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D87" t="s">
         <v>562</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>563</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D87" t="s">
-        <v>564</v>
-      </c>
-      <c r="E87" t="s">
-        <v>565</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H87" t="n">
-        <v>1742028</v>
+        <v>1887051</v>
       </c>
       <c r="I87" t="n">
-        <v>25.661</v>
+        <v>27.797</v>
       </c>
       <c r="J87" t="n">
-        <v>78537</v>
+        <v>67409</v>
       </c>
       <c r="K87" t="n">
-        <v>1.157</v>
+        <v>0.993</v>
       </c>
       <c r="L87" t="n">
-        <v>73257</v>
+        <v>69563</v>
       </c>
       <c r="M87" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="N87" t="n">
-        <v>67374.429</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.992</v>
+        <v>1.025</v>
+      </c>
+      <c r="N87" t="s">
+        <v>563</v>
+      </c>
+      <c r="O87" t="s">
+        <v>564</v>
       </c>
       <c r="P87" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q87" t="s">
         <v>565</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>566</v>
-      </c>
-      <c r="R87" t="s">
-        <v>94</v>
-      </c>
-      <c r="S87" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B88" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="D88" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E88" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H88" t="n">
-        <v>2489563</v>
+        <v>2682716</v>
       </c>
       <c r="I88" t="n">
-        <v>36.673</v>
+        <v>39.518</v>
       </c>
       <c r="J88" t="n">
-        <v>136486</v>
+        <v>100678</v>
       </c>
       <c r="K88" t="n">
-        <v>2.011</v>
+        <v>1.483</v>
       </c>
       <c r="L88" t="n">
-        <v>132111.333</v>
+        <v>108707</v>
       </c>
       <c r="M88" t="n">
-        <v>1.946</v>
-      </c>
-      <c r="N88" t="n">
-        <v>108859.571</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.604</v>
+        <v>1.601</v>
+      </c>
+      <c r="N88" t="s">
+        <v>563</v>
+      </c>
+      <c r="O88" t="s">
+        <v>564</v>
       </c>
       <c r="P88" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q88" t="s">
-        <v>566</v>
-      </c>
-      <c r="R88" t="s">
-        <v>570</v>
-      </c>
-      <c r="S88" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>570</v>
+      </c>
+      <c r="B89" t="s">
+        <v>571</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D89" t="s">
         <v>572</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>573</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D89" t="s">
-        <v>574</v>
-      </c>
-      <c r="E89" t="s">
-        <v>575</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H89" t="n">
-        <v>10720185</v>
+        <v>11499203</v>
       </c>
       <c r="I89" t="n">
-        <v>32.387</v>
-      </c>
-      <c r="J89"/>
+        <v>34.741</v>
+      </c>
+      <c r="J89" t="n">
+        <v>422024</v>
+      </c>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89"/>
+        <v>1.275</v>
+      </c>
+      <c r="L89" t="n">
+        <v>362720</v>
+      </c>
       <c r="M89" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="N89"/>
-      <c r="O89" t="n">
-        <v>0.878</v>
+        <v>1.096</v>
+      </c>
+      <c r="N89" t="s">
+        <v>573</v>
+      </c>
+      <c r="O89" t="s">
+        <v>574</v>
       </c>
       <c r="P89" t="s">
         <v>575</v>
@@ -7239,130 +6901,116 @@
       <c r="Q89" t="s">
         <v>576</v>
       </c>
-      <c r="R89" t="s">
-        <v>577</v>
-      </c>
-      <c r="S89" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s">
+        <v>577</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D90" t="s">
+        <v>578</v>
+      </c>
+      <c r="E90" t="s">
         <v>579</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>43964</v>
-      </c>
-      <c r="D90" t="s">
-        <v>580</v>
-      </c>
-      <c r="E90" t="s">
-        <v>581</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>10217573</v>
+        <v>10847778</v>
       </c>
       <c r="I90" t="n">
-        <v>30.869</v>
-      </c>
-      <c r="J90" t="n">
-        <v>492694</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.488</v>
-      </c>
+        <v>32.772</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
+      <c r="N90" t="s">
+        <v>579</v>
+      </c>
+      <c r="O90" t="s">
+        <v>580</v>
+      </c>
       <c r="P90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q90" t="s">
         <v>581</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>582</v>
-      </c>
-      <c r="R90" t="s">
-        <v>24</v>
-      </c>
-      <c r="S90" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>582</v>
+      </c>
+      <c r="B91" t="s">
+        <v>583</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D91" t="s">
         <v>584</v>
       </c>
-      <c r="B91" t="s">
-        <v>585</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D91" t="s">
-        <v>586</v>
-      </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H91" t="n">
-        <v>32225</v>
+        <v>33861</v>
       </c>
       <c r="I91" t="n">
-        <v>9.277</v>
+        <v>9.748</v>
       </c>
       <c r="J91" t="n">
-        <v>1016</v>
+        <v>825</v>
       </c>
       <c r="K91" t="n">
-        <v>0.292</v>
+        <v>0.237</v>
       </c>
       <c r="L91" t="n">
-        <v>908.333</v>
+        <v>738</v>
       </c>
       <c r="M91" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>0.212</v>
+      </c>
+      <c r="N91" t="s">
+        <v>124</v>
+      </c>
+      <c r="O91" t="s">
+        <v>585</v>
+      </c>
       <c r="P91" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="Q91" t="s">
-        <v>587</v>
-      </c>
-      <c r="R91" t="s">
-        <v>24</v>
-      </c>
-      <c r="S91" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E92" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7376,68 +7024,76 @@
       </c>
       <c r="J92"/>
       <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
+      <c r="L92" t="n">
+        <v>10906</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="N92" t="s">
+        <v>590</v>
+      </c>
+      <c r="O92" t="s">
+        <v>591</v>
+      </c>
       <c r="P92" t="s">
         <v>592</v>
       </c>
       <c r="Q92" t="s">
         <v>593</v>
       </c>
-      <c r="R92" t="s">
-        <v>594</v>
-      </c>
-      <c r="S92" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>594</v>
+      </c>
+      <c r="B93" t="s">
+        <v>595</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="D93" t="s">
         <v>596</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
         <v>597</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>598</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="n">
+        <v>10</v>
+      </c>
+      <c r="H93" t="n">
+        <v>12275</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="J93" t="n">
+        <v>874</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L93" t="n">
+        <v>383</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="N93" t="s">
+        <v>597</v>
+      </c>
+      <c r="O93" t="s">
         <v>599</v>
       </c>
-      <c r="F93" t="s">
+      <c r="P93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q93" t="s">
         <v>600</v>
-      </c>
-      <c r="G93" t="n">
-        <v>9</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11401</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>601</v>
-      </c>
-      <c r="R93" t="s">
-        <v>24</v>
-      </c>
-      <c r="S93" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-coronavirus-covid-19-at-a-glance-infographic_16.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-19-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519110842/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518181650/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519110846/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -255,10 +255,7 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health press release</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200519195204/https://covid-insumos.saude.gov.br/paineis/insumos/painel.php</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
@@ -267,7 +264,8 @@
     <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.</t>
+    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
+From 6th April, the Ministry of Health intermittently reports the number of PCR and rapid tests separately on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage.</t>
   </si>
   <si>
     <t xml:space="preserve">BGR</t>
@@ -276,7 +274,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200517110936/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519110851/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -299,7 +297,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518181658/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190529/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -387,7 +385,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518181704/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190537/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -447,7 +445,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-17052020-2-01ui</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-19052020-d2l8</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -477,7 +475,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-16052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-19052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -510,7 +508,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:48am local time on 2020-05-18.</t>
+    <t xml:space="preserve">updated at 12:43am local time on 2020-05-19.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -547,7 +545,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-18-Eng-V3.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-19-Eng-V1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -686,7 +684,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200518/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200519/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -821,7 +819,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200518152946/http://irangov.ir/detail/339482</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200519130712/http://irangov.ir/detail/339563</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -840,7 +838,7 @@
     <t xml:space="preserve">Ireland - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
+    <t xml:space="preserve">https://www.gov.ie/en/press-release/41d42e-statement-from-the-national-public-health-emergency-team-tuesday-19-/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
@@ -920,28 +918,31 @@
     <t xml:space="preserve">Japan - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/reustle/covid19japan-data</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11399.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Shane Reustle on Github</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'. Daily change figure provided for this date is not consistent with the cumulative totals for today and the previous day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mhlw.go.jp/stf/houdou/houdou_list_202004.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy. Daily changes in the number of people tested are included in parentheses. For the 3rd April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
+    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd and 21st April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
 This includes two cases where the cumulative number of people tested falls: (1) 19/03 and (2) 25/03. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote.
 It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
-Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
+Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000631066.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000631873.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -975,7 +976,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1262367522122354689</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1262726647104581632</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1016,7 +1017,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200517111053/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190643/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1032,7 +1033,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200517200217/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190646/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1106,10 +1107,8 @@
     <t xml:space="preserve">https://www.sante.gov.ma/Pages/Accueil.aspx</t>
   </si>
   <si>
-    <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco). 
-The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. We have cross-checked a sample of the figures reported in the unofficial source against data reported on the Ministry of Health website.
-The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.
-Since 1 May 2020, the [government website dedicated to COVID-19](http://www.covidmaroc.ma/Pages/AccueilAR.aspx) has been down, making it impossible to update our time series.</t>
+    <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco), supplemented by official updates from the Ministry of Health's twitter page ([@Ministere_Sante](https://twitter.com/Ministere_Sante)). We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health.
+The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. The earliest reported figure is from February 7th 2020, at which point 9 cases had been tested.</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
@@ -1163,10 +1162,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200518_1121_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 18 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200519_1015_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 19 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1202,7 +1201,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182025/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190830/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1222,7 +1221,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.18-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.19-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1247,7 +1246,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182030/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519190834/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1313,7 +1312,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/157471-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-92-273-en-el-peru-comunicado-n-103</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/157559-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-99-483-en-el-peru-comunicado-n-105</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1349,7 +1348,7 @@
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
 The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
-No newly submitted reports as of 16 May. Latest testing data available is from 13 May 2020.</t>
+No newly submitted reports as of 18 May. Latest testing data available is from 15 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1358,7 +1357,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.18.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.19.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1403,7 +1402,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518181638/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200519194531/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1441,7 +1440,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14479</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14485</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1461,7 +1460,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262071900089528321</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262441408436285441</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1568,7 +1567,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200517111139/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519191802/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1642,7 +1641,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367251&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367264&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1725,7 +1724,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/SXUKk3KipAb5AEMNSwR12w?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/c4rwvT--ae8c0wKIWPyTjQ?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1815,7 +1814,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182138/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519191908/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1839,13 +1838,13 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1261748513538551809</t>
+    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-16/</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
+    <t xml:space="preserve">The MOH did not release daily tests results on 17th April. The cumulative total for 18th April thus takes the total figure as of the 16th April and the daily tests conducted on the 18th April.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
@@ -1863,7 +1862,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182140/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519191911/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1908,7 +1907,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182145/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200519192047/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1955,9 +1954,6 @@
     <t xml:space="preserve">United States - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182147/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">United States CDC</t>
   </si>
   <si>
@@ -1976,7 +1972,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-28</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-29</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2015,7 +2011,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1261806379716743169</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262508825690738690</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2479,7 +2475,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2489,25 +2485,25 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="n">
-        <v>1062034</v>
+        <v>1085870</v>
       </c>
       <c r="I3" t="n">
-        <v>41.649</v>
+        <v>42.583</v>
       </c>
       <c r="J3" t="n">
-        <v>19908</v>
+        <v>23836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.781</v>
+        <v>0.935</v>
       </c>
       <c r="L3" t="n">
-        <v>29559</v>
+        <v>29706</v>
       </c>
       <c r="M3" t="n">
-        <v>1.159</v>
+        <v>1.165</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -2530,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2540,25 +2536,25 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="n">
-        <v>365873</v>
+        <v>372435</v>
       </c>
       <c r="I4" t="n">
-        <v>40.624</v>
+        <v>41.352</v>
       </c>
       <c r="J4" t="n">
-        <v>3364</v>
+        <v>6562</v>
       </c>
       <c r="K4" t="n">
-        <v>0.374</v>
+        <v>0.729</v>
       </c>
       <c r="L4" t="n">
-        <v>6627</v>
+        <v>6160</v>
       </c>
       <c r="M4" t="n">
-        <v>0.736</v>
+        <v>0.684</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -2581,7 +2577,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2591,25 +2587,25 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>241132</v>
+        <v>248205</v>
       </c>
       <c r="I5" t="n">
-        <v>141.71</v>
+        <v>145.867</v>
       </c>
       <c r="J5" t="n">
-        <v>4304</v>
+        <v>5174</v>
       </c>
       <c r="K5" t="n">
-        <v>2.529</v>
+        <v>3.041</v>
       </c>
       <c r="L5" t="n">
-        <v>7193</v>
+        <v>7187</v>
       </c>
       <c r="M5" t="n">
-        <v>4.227</v>
+        <v>4.224</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -2632,7 +2628,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2642,25 +2638,25 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>185196</v>
+        <v>193645</v>
       </c>
       <c r="I6" t="n">
-        <v>1.125</v>
+        <v>1.176</v>
       </c>
       <c r="J6" t="n">
-        <v>9788</v>
+        <v>8449</v>
       </c>
       <c r="K6" t="n">
-        <v>0.059</v>
+        <v>0.051</v>
       </c>
       <c r="L6" t="n">
-        <v>7904</v>
+        <v>8144</v>
       </c>
       <c r="M6" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
@@ -2730,7 +2726,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -2740,25 +2736,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>569443</v>
+        <v>578746</v>
       </c>
       <c r="I8" t="n">
-        <v>49.134</v>
+        <v>49.937</v>
       </c>
       <c r="J8" t="n">
-        <v>10981</v>
+        <v>7813</v>
       </c>
       <c r="K8" t="n">
-        <v>0.947</v>
+        <v>0.674</v>
       </c>
       <c r="L8" t="n">
-        <v>13685</v>
+        <v>13535</v>
       </c>
       <c r="M8" t="n">
-        <v>1.181</v>
+        <v>1.168</v>
       </c>
       <c r="N8" t="s">
         <v>62</v>
@@ -2781,7 +2777,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -2793,25 +2789,25 @@
         <v>69</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>10174</v>
+        <v>10349</v>
       </c>
       <c r="I9" t="n">
-        <v>0.872</v>
+        <v>0.887</v>
       </c>
       <c r="J9" t="n">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="K9" t="n">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="L9" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M9" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -2834,215 +2830,215 @@
         <v>74</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>43941</v>
+        <v>43965</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>132467</v>
+        <v>3081480</v>
       </c>
       <c r="I10" t="n">
-        <v>0.623</v>
+        <v>14.497</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>5345</v>
+        <v>295084</v>
       </c>
       <c r="M10" t="n">
-        <v>0.025</v>
+        <v>1.388</v>
       </c>
       <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
         <v>77</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>65574</v>
+        <v>66810</v>
       </c>
       <c r="I11" t="n">
-        <v>9.437</v>
+        <v>9.615</v>
       </c>
       <c r="J11" t="n">
-        <v>1094</v>
+        <v>874</v>
       </c>
       <c r="K11" t="n">
-        <v>0.157</v>
+        <v>0.126</v>
       </c>
       <c r="L11" t="n">
-        <v>1192</v>
+        <v>1157</v>
       </c>
       <c r="M11" t="n">
-        <v>0.172</v>
+        <v>0.167</v>
       </c>
       <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
         <v>84</v>
-      </c>
-      <c r="O11" t="s">
-        <v>85</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
-        <v>1319987</v>
+        <v>1336967</v>
       </c>
       <c r="I12" t="n">
-        <v>34.974</v>
+        <v>35.424</v>
       </c>
       <c r="J12" t="n">
-        <v>23292</v>
+        <v>16980</v>
       </c>
       <c r="K12" t="n">
-        <v>0.617</v>
+        <v>0.45</v>
       </c>
       <c r="L12" t="n">
-        <v>28720</v>
+        <v>27326</v>
       </c>
       <c r="M12" t="n">
-        <v>0.761</v>
+        <v>0.724</v>
       </c>
       <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
         <v>90</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>91</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>92</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="n">
+        <v>49</v>
+      </c>
+      <c r="H13" t="n">
+        <v>397200</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20.778</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16189</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13409</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="N13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" t="n">
-        <v>48</v>
-      </c>
-      <c r="H13" t="n">
-        <v>381011</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19.931</v>
-      </c>
-      <c r="J13" t="n">
-        <v>17515</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12422</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>99</v>
       </c>
       <c r="P13" t="s">
         <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
         <v>103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
@@ -3067,546 +3063,550 @@
         <v>0.126</v>
       </c>
       <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
         <v>104</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>105</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D15" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" t="n">
-        <v>14272</v>
+        <v>14616</v>
       </c>
       <c r="I15" t="n">
-        <v>2.802</v>
+        <v>2.869</v>
       </c>
       <c r="J15" t="n">
-        <v>576</v>
+        <v>138</v>
       </c>
       <c r="K15" t="n">
-        <v>0.113</v>
+        <v>0.027</v>
       </c>
       <c r="L15" t="n">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M15" t="n">
-        <v>0.067</v>
+        <v>0.072</v>
       </c>
       <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
         <v>111</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" t="s">
         <v>112</v>
-      </c>
-      <c r="P15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="n">
-        <v>54820</v>
+        <v>55800</v>
       </c>
       <c r="I16" t="n">
-        <v>13.354</v>
+        <v>13.592</v>
       </c>
       <c r="J16" t="n">
-        <v>943</v>
+        <v>980</v>
       </c>
       <c r="K16" t="n">
-        <v>0.23</v>
+        <v>0.239</v>
       </c>
       <c r="L16" t="n">
-        <v>1250</v>
+        <v>1189</v>
       </c>
       <c r="M16" t="n">
-        <v>0.304</v>
+        <v>0.29</v>
       </c>
       <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
         <v>117</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>118</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>119</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>123</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="n">
+        <v>58</v>
+      </c>
+      <c r="H17" t="n">
+        <v>85556</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.554</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1688</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2057</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="n">
-        <v>57</v>
-      </c>
-      <c r="H17" t="n">
-        <v>83868</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.405</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1951</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2098</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="N17" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>126</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D18" t="s">
         <v>129</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" t="n">
-        <v>356515</v>
+        <v>363963</v>
       </c>
       <c r="I18" t="n">
-        <v>33.291</v>
+        <v>33.987</v>
       </c>
       <c r="J18" t="n">
-        <v>3310</v>
+        <v>7349</v>
       </c>
       <c r="K18" t="n">
-        <v>0.309</v>
+        <v>0.686</v>
       </c>
       <c r="L18" t="n">
-        <v>6477</v>
+        <v>6426</v>
       </c>
       <c r="M18" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P18" t="s">
         <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D19" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>135</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>136</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="n">
+        <v>62</v>
+      </c>
+      <c r="H19" t="n">
+        <v>402194</v>
+      </c>
+      <c r="I19" t="n">
+        <v>69.437</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7800</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9705</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="N19" t="s">
         <v>137</v>
       </c>
-      <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="n">
-        <v>388703</v>
-      </c>
-      <c r="I19" t="n">
-        <v>67.108</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9221</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.592</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10124</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>138</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>144</v>
       </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
       <c r="G20" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H20" t="n">
-        <v>50020</v>
+        <v>53813</v>
       </c>
       <c r="I20" t="n">
-        <v>2.835</v>
+        <v>3.05</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>1217</v>
+        <v>1375</v>
       </c>
       <c r="M20" t="n">
-        <v>0.069</v>
+        <v>0.078</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" t="s">
         <v>146</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D21" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>151</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>152</v>
       </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
-        <v>57883</v>
+        <v>60341</v>
       </c>
       <c r="I21" t="n">
-        <v>8.924</v>
+        <v>9.303</v>
       </c>
       <c r="J21" t="n">
-        <v>4471</v>
+        <v>2458</v>
       </c>
       <c r="K21" t="n">
-        <v>0.689</v>
+        <v>0.379</v>
       </c>
       <c r="L21" t="n">
-        <v>2120</v>
+        <v>2202</v>
       </c>
       <c r="M21" t="n">
-        <v>0.327</v>
+        <v>0.339</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D22" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>158</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="n">
-        <v>70189</v>
+        <v>71441</v>
       </c>
       <c r="I22" t="n">
-        <v>52.911</v>
+        <v>53.855</v>
       </c>
       <c r="J22" t="n">
-        <v>671</v>
+        <v>1258</v>
       </c>
       <c r="K22" t="n">
-        <v>0.506</v>
+        <v>0.948</v>
       </c>
       <c r="L22" t="n">
-        <v>892</v>
+        <v>927</v>
       </c>
       <c r="M22" t="n">
-        <v>0.672</v>
+        <v>0.699</v>
       </c>
       <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
         <v>159</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>160</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>161</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
         <v>163</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>165</v>
-      </c>
-      <c r="E23" t="s">
-        <v>166</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>59029</v>
+        <v>62300</v>
       </c>
       <c r="I23" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>0.542</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3271</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.028</v>
+      </c>
       <c r="L23" t="n">
-        <v>3201</v>
+        <v>3322</v>
       </c>
       <c r="M23" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
         <v>166</v>
-      </c>
-      <c r="O23" t="s">
-        <v>167</v>
       </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D24" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>43966</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>171</v>
-      </c>
-      <c r="E24" t="s">
-        <v>172</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
-        <v>145959</v>
+        <v>151935</v>
       </c>
       <c r="I24" t="n">
-        <v>26.343</v>
+        <v>27.422</v>
       </c>
       <c r="J24" t="n">
-        <v>2835</v>
+        <v>2017</v>
       </c>
       <c r="K24" t="n">
-        <v>0.512</v>
+        <v>0.364</v>
       </c>
       <c r="L24" t="n">
-        <v>2922</v>
+        <v>3136</v>
       </c>
       <c r="M24" t="n">
-        <v>0.527</v>
+        <v>0.566</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P24" t="s">
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>176</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
         <v>177</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>179</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3626,36 +3626,36 @@
         <v>0.233</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
         <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
         <v>184</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>186</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -3675,186 +3675,182 @@
         <v>0.652</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" t="s">
         <v>187</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
         <v>190</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>192</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="n">
+        <v>17</v>
+      </c>
+      <c r="H27" t="n">
+        <v>179586</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.779</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="n">
+        <v>2867</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N27" t="s">
         <v>194</v>
       </c>
-      <c r="G27" t="n">
-        <v>15</v>
-      </c>
-      <c r="H27" t="n">
-        <v>171642</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.524</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3938</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3099</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>195</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>196</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>197</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>43965</v>
-      </c>
-      <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>200</v>
-      </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>172623</v>
+        <v>180567</v>
       </c>
       <c r="I28" t="n">
-        <v>5.555</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3938</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.127</v>
-      </c>
+        <v>5.811</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28" t="n">
-        <v>3489</v>
+        <v>2867</v>
       </c>
       <c r="M28" t="n">
-        <v>0.112</v>
+        <v>0.092</v>
       </c>
       <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
         <v>195</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>196</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>197</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
         <v>201</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D29" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>204</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H29" t="n">
-        <v>131684</v>
+        <v>136001</v>
       </c>
       <c r="I29" t="n">
-        <v>12.634</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
+        <v>13.048</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4317</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.414</v>
+      </c>
       <c r="L29" t="n">
-        <v>4617</v>
+        <v>4278</v>
       </c>
       <c r="M29" t="n">
-        <v>0.443</v>
+        <v>0.41</v>
       </c>
       <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
         <v>205</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" t="s">
         <v>206</v>
-      </c>
-      <c r="P29" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
         <v>208</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s">
         <v>210</v>
-      </c>
-      <c r="E30" t="s">
-        <v>211</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -3875,140 +3871,140 @@
         <v>0.261</v>
       </c>
       <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
         <v>212</v>
-      </c>
-      <c r="O30" t="s">
-        <v>213</v>
       </c>
       <c r="P30" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
         <v>215</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D31" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>217</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>218</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="n">
+        <v>75</v>
+      </c>
+      <c r="H31" t="n">
+        <v>138697</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.357</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1454</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3425</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
         <v>219</v>
       </c>
-      <c r="G31" t="n">
-        <v>74</v>
-      </c>
-      <c r="H31" t="n">
-        <v>137243</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.207</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2106</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3583</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="N31" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>220</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
         <v>223</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D32" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>225</v>
-      </c>
-      <c r="E32" t="s">
-        <v>226</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" t="n">
-        <v>56834</v>
+        <v>57146</v>
       </c>
       <c r="I32" t="n">
-        <v>166.547</v>
+        <v>167.461</v>
       </c>
       <c r="J32" t="n">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="K32" t="n">
-        <v>0.39</v>
+        <v>0.894</v>
       </c>
       <c r="L32" t="n">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="M32" t="n">
-        <v>1.122</v>
+        <v>1.002</v>
       </c>
       <c r="N32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="s">
         <v>226</v>
       </c>
-      <c r="O32" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
         <v>229</v>
-      </c>
-      <c r="B33" t="s">
-        <v>230</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s">
         <v>231</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>232</v>
-      </c>
-      <c r="F33" t="s">
-        <v>233</v>
       </c>
       <c r="G33" t="n">
         <v>24</v>
@@ -4032,36 +4028,36 @@
         <v>0.021</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
         <v>231</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" t="s">
-        <v>233</v>
       </c>
       <c r="G34" t="n">
         <v>55</v>
@@ -4085,185 +4081,185 @@
         <v>0.065</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D35" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>238</v>
-      </c>
-      <c r="E35" t="s">
-        <v>239</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" t="n">
-        <v>143035</v>
+        <v>147799</v>
       </c>
       <c r="I35" t="n">
-        <v>0.523</v>
+        <v>0.54</v>
       </c>
       <c r="J35" t="n">
-        <v>2556</v>
+        <v>4764</v>
       </c>
       <c r="K35" t="n">
-        <v>0.009</v>
+        <v>0.017</v>
       </c>
       <c r="L35" t="n">
-        <v>3811</v>
+        <v>4010</v>
       </c>
       <c r="M35" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="N35" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" t="s">
         <v>239</v>
-      </c>
-      <c r="O35" t="s">
-        <v>240</v>
       </c>
       <c r="P35" t="s">
         <v>71</v>
       </c>
       <c r="Q35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
         <v>242</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D36" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>244</v>
-      </c>
-      <c r="E36" t="s">
-        <v>245</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>701640</v>
+        <v>716176</v>
       </c>
       <c r="I36" t="n">
-        <v>8.354</v>
+        <v>8.527</v>
       </c>
       <c r="J36" t="n">
-        <v>14705</v>
+        <v>14536</v>
       </c>
       <c r="K36" t="n">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
       <c r="L36" t="n">
-        <v>14365</v>
+        <v>14386</v>
       </c>
       <c r="M36" t="n">
         <v>0.171</v>
       </c>
       <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
         <v>245</v>
-      </c>
-      <c r="O36" t="s">
-        <v>246</v>
       </c>
       <c r="P36" t="s">
         <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" t="s">
         <v>248</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D37" t="s">
         <v>249</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D37" t="s">
-        <v>250</v>
-      </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>258808</v>
+        <v>295626</v>
       </c>
       <c r="I37" t="n">
-        <v>52.414</v>
+        <v>59.87</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="n">
-        <v>6292</v>
+        <v>5260</v>
       </c>
       <c r="M37" t="n">
-        <v>1.274</v>
+        <v>1.065</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O37" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" t="s">
         <v>251</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>252</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
         <v>254</v>
-      </c>
-      <c r="B38" t="s">
-        <v>255</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
         <v>256</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>258</v>
       </c>
       <c r="G38" t="n">
         <v>87</v>
@@ -4290,165 +4286,165 @@
         <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P38" t="s">
         <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
         <v>261</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D39" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>263</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>264</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="n">
+        <v>31</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1999599</v>
+      </c>
+      <c r="I39" t="n">
+        <v>33.072</v>
+      </c>
+      <c r="J39" t="n">
+        <v>40226</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="L39" t="n">
+        <v>36814</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="N39" t="s">
         <v>265</v>
       </c>
-      <c r="G39" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1959373</v>
-      </c>
-      <c r="I39" t="n">
-        <v>32.407</v>
-      </c>
-      <c r="J39" t="n">
-        <v>26101</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="L39" t="n">
-        <v>36727</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>266</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q39" t="s">
         <v>267</v>
-      </c>
-      <c r="P39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D40" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" t="s">
         <v>263</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>264</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="n">
+        <v>86</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3104524</v>
+      </c>
+      <c r="I40" t="n">
+        <v>51.347</v>
+      </c>
+      <c r="J40" t="n">
+        <v>63158</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="L40" t="n">
+        <v>61553</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="N40" t="s">
         <v>265</v>
       </c>
-      <c r="G40" t="n">
-        <v>85</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3041366</v>
-      </c>
-      <c r="I40" t="n">
-        <v>50.302</v>
-      </c>
-      <c r="J40" t="n">
-        <v>36406</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="L40" t="n">
-        <v>62102</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.027</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>266</v>
-      </c>
-      <c r="O40" t="s">
-        <v>267</v>
       </c>
       <c r="P40" t="s">
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
         <v>271</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D41" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>273</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>274</v>
       </c>
-      <c r="F41" t="s">
-        <v>275</v>
-      </c>
       <c r="G41" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H41" t="n">
-        <v>250151</v>
+        <v>255675</v>
       </c>
       <c r="I41" t="n">
-        <v>1.978</v>
+        <v>2.022</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>5760</v>
+        <v>4575</v>
       </c>
       <c r="M41" t="n">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
       <c r="N41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s">
         <v>276</v>
       </c>
       <c r="P41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41" t="s">
         <v>277</v>
@@ -4456,46 +4452,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
         <v>278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="D42" t="s">
         <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" t="s">
         <v>280</v>
       </c>
       <c r="G42" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" t="n">
-        <v>365074</v>
+        <v>402476</v>
       </c>
       <c r="I42" t="n">
-        <v>2.886</v>
+        <v>3.182</v>
       </c>
       <c r="J42" t="n">
-        <v>6745</v>
+        <v>6247</v>
       </c>
       <c r="K42" t="n">
-        <v>0.053</v>
+        <v>0.049</v>
       </c>
       <c r="L42" t="n">
-        <v>6999</v>
+        <v>7063</v>
       </c>
       <c r="M42" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="N42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s">
         <v>276</v>
@@ -4515,7 +4511,7 @@
         <v>283</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D43" t="s">
         <v>284</v>
@@ -4525,25 +4521,25 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" t="n">
-        <v>540708</v>
+        <v>553062</v>
       </c>
       <c r="I43" t="n">
-        <v>28.797</v>
+        <v>29.455</v>
       </c>
       <c r="J43" t="n">
-        <v>13268</v>
+        <v>12354</v>
       </c>
       <c r="K43" t="n">
-        <v>0.707</v>
+        <v>0.658</v>
       </c>
       <c r="L43" t="n">
-        <v>18856</v>
+        <v>18722</v>
       </c>
       <c r="M43" t="n">
-        <v>1.004</v>
+        <v>0.997</v>
       </c>
       <c r="N43" t="s">
         <v>285</v>
@@ -4566,7 +4562,7 @@
         <v>288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D44" t="s">
         <v>289</v>
@@ -4576,25 +4572,25 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>44851</v>
+        <v>46784</v>
       </c>
       <c r="I44" t="n">
-        <v>0.834</v>
+        <v>0.87</v>
       </c>
       <c r="J44" t="n">
-        <v>1139</v>
+        <v>1933</v>
       </c>
       <c r="K44" t="n">
-        <v>0.021</v>
+        <v>0.036</v>
       </c>
       <c r="L44" t="n">
-        <v>1702</v>
+        <v>1838</v>
       </c>
       <c r="M44" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="N44" t="s">
         <v>41</v>
@@ -4617,7 +4613,7 @@
         <v>295</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D45" t="s">
         <v>296</v>
@@ -4629,25 +4625,25 @@
         <v>298</v>
       </c>
       <c r="G45" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="n">
-        <v>89123</v>
+        <v>90968</v>
       </c>
       <c r="I45" t="n">
-        <v>47.25</v>
+        <v>48.228</v>
       </c>
       <c r="J45" t="n">
-        <v>718</v>
+        <v>1845</v>
       </c>
       <c r="K45" t="n">
-        <v>0.381</v>
+        <v>0.978</v>
       </c>
       <c r="L45" t="n">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="M45" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="N45" t="s">
         <v>297</v>
@@ -4670,7 +4666,7 @@
         <v>301</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D46" t="s">
         <v>302</v>
@@ -4680,25 +4676,21 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H46" t="n">
-        <v>228726</v>
+        <v>237600</v>
       </c>
       <c r="I46" t="n">
-        <v>84.02</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4686</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.721</v>
-      </c>
+        <v>87.279</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
       <c r="L46" t="n">
-        <v>6402</v>
+        <v>6459</v>
       </c>
       <c r="M46" t="n">
-        <v>2.352</v>
+        <v>2.373</v>
       </c>
       <c r="N46" t="s">
         <v>41</v>
@@ -4721,7 +4713,7 @@
         <v>306</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D47" t="s">
         <v>307</v>
@@ -4731,25 +4723,25 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H47" t="n">
-        <v>62153</v>
+        <v>63011</v>
       </c>
       <c r="I47" t="n">
-        <v>99.29</v>
+        <v>100.66</v>
       </c>
       <c r="J47" t="n">
-        <v>1907</v>
+        <v>751</v>
       </c>
       <c r="K47" t="n">
-        <v>3.046</v>
+        <v>1.2</v>
       </c>
       <c r="L47" t="n">
-        <v>986</v>
+        <v>945</v>
       </c>
       <c r="M47" t="n">
-        <v>1.575</v>
+        <v>1.51</v>
       </c>
       <c r="N47" t="s">
         <v>308</v>
@@ -4823,7 +4815,7 @@
         <v>319</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="D49" t="s">
         <v>320</v>
@@ -4833,25 +4825,25 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H49" t="n">
-        <v>144786</v>
+        <v>150198</v>
       </c>
       <c r="I49" t="n">
-        <v>1.123</v>
+        <v>1.165</v>
       </c>
       <c r="J49" t="n">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="K49" t="n">
         <v>0.001</v>
       </c>
       <c r="L49" t="n">
-        <v>2858</v>
+        <v>3179</v>
       </c>
       <c r="M49" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="N49" t="s">
         <v>321</v>
@@ -4874,7 +4866,7 @@
         <v>324</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43952</v>
+        <v>43969</v>
       </c>
       <c r="D50" t="s">
         <v>325</v>
@@ -4886,25 +4878,25 @@
         <v>327</v>
       </c>
       <c r="G50" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H50" t="n">
-        <v>37006</v>
+        <v>95536</v>
       </c>
       <c r="I50" t="n">
-        <v>1.003</v>
+        <v>2.588</v>
       </c>
       <c r="J50" t="n">
-        <v>2165</v>
+        <v>5579</v>
       </c>
       <c r="K50" t="n">
-        <v>0.059</v>
+        <v>0.151</v>
       </c>
       <c r="L50" t="n">
-        <v>1868</v>
+        <v>3794</v>
       </c>
       <c r="M50" t="n">
-        <v>0.051</v>
+        <v>0.103</v>
       </c>
       <c r="N50" t="s">
         <v>326</v>
@@ -4927,7 +4919,7 @@
         <v>331</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D51" t="s">
         <v>332</v>
@@ -4939,25 +4931,21 @@
         <v>334</v>
       </c>
       <c r="G51" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H51" t="n">
-        <v>14561</v>
+        <v>15137</v>
       </c>
       <c r="I51" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="J51" t="n">
-        <v>562</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.01</v>
-      </c>
+        <v>0.278</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51" t="n">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="N51" t="s">
         <v>333</v>
@@ -4980,7 +4968,7 @@
         <v>338</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D52" t="s">
         <v>339</v>
@@ -4992,25 +4980,25 @@
         <v>341</v>
       </c>
       <c r="G52" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="n">
-        <v>28161</v>
+        <v>30724</v>
       </c>
       <c r="I52" t="n">
-        <v>0.967</v>
+        <v>1.054</v>
       </c>
       <c r="J52" t="n">
-        <v>1470</v>
+        <v>2563</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05</v>
+        <v>0.088</v>
       </c>
       <c r="L52" t="n">
-        <v>1609</v>
+        <v>1845</v>
       </c>
       <c r="M52" t="n">
-        <v>0.055</v>
+        <v>0.063</v>
       </c>
       <c r="N52" t="s">
         <v>340</v>
@@ -5019,7 +5007,7 @@
         <v>342</v>
       </c>
       <c r="P52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q52" t="s">
         <v>343</v>
@@ -5033,7 +5021,7 @@
         <v>345</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D53" t="s">
         <v>346</v>
@@ -5043,21 +5031,25 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>297347</v>
+        <v>302395</v>
       </c>
       <c r="I53" t="n">
-        <v>17.353</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53"/>
+        <v>17.648</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2774</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.162</v>
+      </c>
       <c r="L53" t="n">
-        <v>4285</v>
+        <v>4348</v>
       </c>
       <c r="M53" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="N53" t="s">
         <v>348</v>
@@ -5066,7 +5058,7 @@
         <v>349</v>
       </c>
       <c r="P53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" t="s">
         <v>350</v>
@@ -5080,7 +5072,7 @@
         <v>352</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D54" t="s">
         <v>353</v>
@@ -5090,25 +5082,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H54" t="n">
-        <v>230718</v>
+        <v>233843</v>
       </c>
       <c r="I54" t="n">
-        <v>47.845</v>
+        <v>48.493</v>
       </c>
       <c r="J54" t="n">
-        <v>2570</v>
+        <v>3125</v>
       </c>
       <c r="K54" t="n">
-        <v>0.533</v>
+        <v>0.648</v>
       </c>
       <c r="L54" t="n">
-        <v>5218</v>
+        <v>5251</v>
       </c>
       <c r="M54" t="n">
-        <v>1.082</v>
+        <v>1.089</v>
       </c>
       <c r="N54" t="s">
         <v>354</v>
@@ -5131,7 +5123,7 @@
         <v>357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D55" t="s">
         <v>358</v>
@@ -5141,22 +5133,22 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" t="n">
-        <v>35345</v>
+        <v>36899</v>
       </c>
       <c r="I55" t="n">
-        <v>0.171</v>
+        <v>0.179</v>
       </c>
       <c r="J55" t="n">
-        <v>1375</v>
+        <v>1554</v>
       </c>
       <c r="K55" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="L55" t="n">
-        <v>1181</v>
+        <v>1212</v>
       </c>
       <c r="M55" t="n">
         <v>0.006</v>
@@ -5182,7 +5174,7 @@
         <v>363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D56" t="s">
         <v>364</v>
@@ -5192,21 +5184,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>218039</v>
+        <v>219984</v>
       </c>
       <c r="I56" t="n">
-        <v>40.219</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>40.578</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1945</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.359</v>
+      </c>
       <c r="L56" t="n">
-        <v>2184</v>
+        <v>2106</v>
       </c>
       <c r="M56" t="n">
-        <v>0.403</v>
+        <v>0.388</v>
       </c>
       <c r="N56" t="s">
         <v>365</v>
@@ -5229,7 +5225,7 @@
         <v>370</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D57" t="s">
         <v>371</v>
@@ -5239,25 +5235,25 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H57" t="n">
-        <v>387335</v>
+        <v>400292</v>
       </c>
       <c r="I57" t="n">
-        <v>1.754</v>
+        <v>1.812</v>
       </c>
       <c r="J57" t="n">
-        <v>13925</v>
+        <v>12957</v>
       </c>
       <c r="K57" t="n">
-        <v>0.063</v>
+        <v>0.059</v>
       </c>
       <c r="L57" t="n">
-        <v>13206</v>
+        <v>13492</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="N57" t="s">
         <v>372</v>
@@ -5280,7 +5276,7 @@
         <v>376</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="D58" t="s">
         <v>377</v>
@@ -5292,25 +5288,25 @@
         <v>378</v>
       </c>
       <c r="G58" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H58" t="n">
-        <v>49104</v>
+        <v>51105</v>
       </c>
       <c r="I58" t="n">
-        <v>11.38</v>
+        <v>11.844</v>
       </c>
       <c r="J58" t="n">
-        <v>1336</v>
+        <v>757</v>
       </c>
       <c r="K58" t="n">
-        <v>0.31</v>
+        <v>0.175</v>
       </c>
       <c r="L58" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="M58" t="n">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="N58" t="s">
         <v>41</v>
@@ -5319,7 +5315,7 @@
         <v>379</v>
       </c>
       <c r="P58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q58" t="s">
         <v>380</v>
@@ -5386,7 +5382,7 @@
         <v>390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D60" t="s">
         <v>391</v>
@@ -5396,25 +5392,25 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H60" t="n">
-        <v>650613</v>
+        <v>105627</v>
       </c>
       <c r="I60" t="n">
-        <v>19.732</v>
+        <v>3.204</v>
       </c>
       <c r="J60" t="n">
-        <v>20131</v>
+        <v>2788</v>
       </c>
       <c r="K60" t="n">
-        <v>0.611</v>
+        <v>0.085</v>
       </c>
       <c r="L60" t="n">
-        <v>20812</v>
+        <v>2862</v>
       </c>
       <c r="M60" t="n">
-        <v>0.631</v>
+        <v>0.087</v>
       </c>
       <c r="N60" t="s">
         <v>392</v>
@@ -5437,7 +5433,7 @@
         <v>397</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="D61" t="s">
         <v>398</v>
@@ -5449,34 +5445,30 @@
         <v>400</v>
       </c>
       <c r="G61" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>184617</v>
+        <v>188024</v>
       </c>
       <c r="I61" t="n">
-        <v>1.685</v>
-      </c>
-      <c r="J61" t="n">
-        <v>13009</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.119</v>
-      </c>
+        <v>1.716</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
       <c r="L61" t="n">
-        <v>7590</v>
+        <v>6324</v>
       </c>
       <c r="M61" t="n">
-        <v>0.069</v>
+        <v>0.058</v>
       </c>
       <c r="N61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O61" t="s">
         <v>398</v>
       </c>
       <c r="P61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" t="s">
         <v>401</v>
@@ -5490,7 +5482,7 @@
         <v>403</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D62" t="s">
         <v>404</v>
@@ -5502,25 +5494,25 @@
         <v>406</v>
       </c>
       <c r="G62" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H62" t="n">
-        <v>636046</v>
+        <v>653224</v>
       </c>
       <c r="I62" t="n">
-        <v>16.806</v>
+        <v>17.26</v>
       </c>
       <c r="J62" t="n">
-        <v>15797</v>
+        <v>17178</v>
       </c>
       <c r="K62" t="n">
-        <v>0.417</v>
+        <v>0.454</v>
       </c>
       <c r="L62" t="n">
-        <v>20690</v>
+        <v>20778</v>
       </c>
       <c r="M62" t="n">
-        <v>0.547</v>
+        <v>0.549</v>
       </c>
       <c r="N62" t="s">
         <v>407</v>
@@ -5543,7 +5535,7 @@
         <v>411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43965</v>
+        <v>43968</v>
       </c>
       <c r="D63" t="s">
         <v>412</v>
@@ -5553,25 +5545,25 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H63" t="n">
-        <v>618066</v>
+        <v>662375</v>
       </c>
       <c r="I63" t="n">
-        <v>60.614</v>
+        <v>64.96</v>
       </c>
       <c r="J63" t="n">
-        <v>17742</v>
+        <v>8907</v>
       </c>
       <c r="K63" t="n">
-        <v>1.74</v>
+        <v>0.874</v>
       </c>
       <c r="L63" t="n">
-        <v>14331</v>
+        <v>15496</v>
       </c>
       <c r="M63" t="n">
-        <v>1.405</v>
+        <v>1.52</v>
       </c>
       <c r="N63" t="s">
         <v>413</v>
@@ -5594,7 +5586,7 @@
         <v>417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D64" t="s">
         <v>418</v>
@@ -5604,25 +5596,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H64" t="n">
-        <v>161695</v>
+        <v>166182</v>
       </c>
       <c r="I64" t="n">
-        <v>56.123</v>
+        <v>57.681</v>
       </c>
       <c r="J64" t="n">
-        <v>4125</v>
+        <v>4487</v>
       </c>
       <c r="K64" t="n">
-        <v>1.432</v>
+        <v>1.557</v>
       </c>
       <c r="L64" t="n">
-        <v>4379</v>
+        <v>4413</v>
       </c>
       <c r="M64" t="n">
-        <v>1.52</v>
+        <v>1.532</v>
       </c>
       <c r="N64" t="s">
         <v>419</v>
@@ -5631,7 +5623,7 @@
         <v>420</v>
       </c>
       <c r="P64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q64" t="s">
         <v>421</v>
@@ -5698,7 +5690,7 @@
         <v>429</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D66" t="s">
         <v>430</v>
@@ -5708,25 +5700,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H66" t="n">
-        <v>7147014</v>
+        <v>7352316</v>
       </c>
       <c r="I66" t="n">
-        <v>48.974</v>
+        <v>50.381</v>
       </c>
       <c r="J66" t="n">
-        <v>230926</v>
+        <v>205302</v>
       </c>
       <c r="K66" t="n">
-        <v>1.582</v>
+        <v>1.407</v>
       </c>
       <c r="L66" t="n">
-        <v>215750</v>
+        <v>220987</v>
       </c>
       <c r="M66" t="n">
-        <v>1.478</v>
+        <v>1.514</v>
       </c>
       <c r="N66" t="s">
         <v>431</v>
@@ -5749,7 +5741,7 @@
         <v>435</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D67" t="s">
         <v>436</v>
@@ -5759,25 +5751,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" t="n">
-        <v>49374</v>
+        <v>51118</v>
       </c>
       <c r="I67" t="n">
-        <v>3.812</v>
+        <v>3.947</v>
       </c>
       <c r="J67" t="n">
-        <v>1135</v>
+        <v>1744</v>
       </c>
       <c r="K67" t="n">
-        <v>0.088</v>
+        <v>0.135</v>
       </c>
       <c r="L67" t="n">
-        <v>993</v>
+        <v>1188</v>
       </c>
       <c r="M67" t="n">
-        <v>0.077</v>
+        <v>0.092</v>
       </c>
       <c r="N67" t="s">
         <v>437</v>
@@ -5800,7 +5792,7 @@
         <v>441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D68" t="s">
         <v>442</v>
@@ -5810,25 +5802,25 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>586405</v>
+        <v>618084</v>
       </c>
       <c r="I68" t="n">
-        <v>16.844</v>
+        <v>17.754</v>
       </c>
       <c r="J68" t="n">
-        <v>38382</v>
+        <v>16130</v>
       </c>
       <c r="K68" t="n">
-        <v>1.102</v>
+        <v>0.463</v>
       </c>
       <c r="L68" t="n">
-        <v>19537</v>
+        <v>19387</v>
       </c>
       <c r="M68" t="n">
-        <v>0.561</v>
+        <v>0.557</v>
       </c>
       <c r="N68" t="s">
         <v>41</v>
@@ -5837,7 +5829,7 @@
         <v>442</v>
       </c>
       <c r="P68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q68" t="s">
         <v>443</v>
@@ -5851,7 +5843,7 @@
         <v>445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D69" t="s">
         <v>446</v>
@@ -5863,25 +5855,25 @@
         <v>448</v>
       </c>
       <c r="G69" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H69" t="n">
-        <v>29506</v>
+        <v>30436</v>
       </c>
       <c r="I69" t="n">
-        <v>1.762</v>
+        <v>1.818</v>
       </c>
       <c r="J69" t="n">
-        <v>1072</v>
+        <v>930</v>
       </c>
       <c r="K69" t="n">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="L69" t="n">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="M69" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="N69" t="s">
         <v>449</v>
@@ -5904,7 +5896,7 @@
         <v>454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D70" t="s">
         <v>455</v>
@@ -5916,25 +5908,25 @@
         <v>456</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H70" t="n">
-        <v>181272</v>
+        <v>190683</v>
       </c>
       <c r="I70" t="n">
-        <v>26.64</v>
+        <v>28.023</v>
       </c>
       <c r="J70" t="n">
-        <v>6526</v>
+        <v>5298</v>
       </c>
       <c r="K70" t="n">
-        <v>0.959</v>
+        <v>0.779</v>
       </c>
       <c r="L70" t="n">
-        <v>5811</v>
+        <v>5626</v>
       </c>
       <c r="M70" t="n">
-        <v>0.854</v>
+        <v>0.827</v>
       </c>
       <c r="N70" t="s">
         <v>41</v>
@@ -5943,7 +5935,7 @@
         <v>457</v>
       </c>
       <c r="P70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q70" t="s">
         <v>458</v>
@@ -5990,7 +5982,7 @@
         <v>462</v>
       </c>
       <c r="P71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q71" t="s">
         <v>463</v>
@@ -6051,7 +6043,7 @@
         <v>468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D73" t="s">
         <v>469</v>
@@ -6061,25 +6053,25 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H73" t="n">
-        <v>142462</v>
+        <v>145474</v>
       </c>
       <c r="I73" t="n">
-        <v>26.094</v>
+        <v>26.645</v>
       </c>
       <c r="J73" t="n">
-        <v>2476</v>
+        <v>2041</v>
       </c>
       <c r="K73" t="n">
-        <v>0.454</v>
+        <v>0.374</v>
       </c>
       <c r="L73" t="n">
-        <v>3229</v>
+        <v>3252</v>
       </c>
       <c r="M73" t="n">
-        <v>0.591</v>
+        <v>0.596</v>
       </c>
       <c r="N73" t="s">
         <v>471</v>
@@ -6102,7 +6094,7 @@
         <v>476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D74" t="s">
         <v>477</v>
@@ -6112,25 +6104,25 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H74" t="n">
-        <v>69842</v>
+        <v>70970</v>
       </c>
       <c r="I74" t="n">
-        <v>33.595</v>
+        <v>34.138</v>
       </c>
       <c r="J74" t="n">
-        <v>479</v>
+        <v>1128</v>
       </c>
       <c r="K74" t="n">
-        <v>0.23</v>
+        <v>0.543</v>
       </c>
       <c r="L74" t="n">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="M74" t="n">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
       <c r="N74" t="s">
         <v>479</v>
@@ -6153,7 +6145,7 @@
         <v>483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D75" t="s">
         <v>484</v>
@@ -6165,25 +6157,25 @@
         <v>486</v>
       </c>
       <c r="G75" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H75" t="n">
-        <v>460873</v>
+        <v>475071</v>
       </c>
       <c r="I75" t="n">
-        <v>7.771</v>
+        <v>8.01</v>
       </c>
       <c r="J75" t="n">
-        <v>21314</v>
+        <v>14198</v>
       </c>
       <c r="K75" t="n">
-        <v>0.359</v>
+        <v>0.239</v>
       </c>
       <c r="L75" t="n">
-        <v>17077</v>
+        <v>17001</v>
       </c>
       <c r="M75" t="n">
-        <v>0.288</v>
+        <v>0.287</v>
       </c>
       <c r="N75" t="s">
         <v>485</v>
@@ -6192,7 +6184,7 @@
         <v>487</v>
       </c>
       <c r="P75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q75" t="s">
         <v>488</v>
@@ -6206,7 +6198,7 @@
         <v>490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D76" t="s">
         <v>491</v>
@@ -6216,22 +6208,22 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H76" t="n">
-        <v>753211</v>
+        <v>765574</v>
       </c>
       <c r="I76" t="n">
-        <v>14.691</v>
+        <v>14.932</v>
       </c>
       <c r="J76" t="n">
-        <v>5558</v>
+        <v>12363</v>
       </c>
       <c r="K76" t="n">
-        <v>0.108</v>
+        <v>0.241</v>
       </c>
       <c r="L76" t="n">
-        <v>12103</v>
+        <v>12098</v>
       </c>
       <c r="M76" t="n">
         <v>0.236</v>
@@ -6337,7 +6329,7 @@
         <v>504</v>
       </c>
       <c r="P78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" t="s">
         <v>506</v>
@@ -6351,7 +6343,7 @@
         <v>508</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="D79" t="s">
         <v>509</v>
@@ -6361,25 +6353,25 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H79" t="n">
-        <v>344592</v>
+        <v>350091</v>
       </c>
       <c r="I79" t="n">
-        <v>39.816</v>
+        <v>40.451</v>
       </c>
       <c r="J79" t="n">
-        <v>2699</v>
+        <v>2544</v>
       </c>
       <c r="K79" t="n">
-        <v>0.312</v>
+        <v>0.294</v>
       </c>
       <c r="L79" t="n">
-        <v>4518</v>
+        <v>4374</v>
       </c>
       <c r="M79" t="n">
-        <v>0.522</v>
+        <v>0.505</v>
       </c>
       <c r="N79" t="s">
         <v>510</v>
@@ -6402,7 +6394,7 @@
         <v>514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D80" t="s">
         <v>515</v>
@@ -6412,25 +6404,25 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H80" t="n">
-        <v>69395</v>
+        <v>69657</v>
       </c>
       <c r="I80" t="n">
-        <v>2.914</v>
+        <v>2.925</v>
       </c>
       <c r="J80" t="n">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="K80" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="L80" t="n">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M80" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="N80" t="s">
         <v>516</v>
@@ -6490,7 +6482,7 @@
         <v>525</v>
       </c>
       <c r="P81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q81" t="s">
         <v>526</v>
@@ -6551,7 +6543,7 @@
         <v>533</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="D83" t="s">
         <v>534</v>
@@ -6561,25 +6553,25 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H83" t="n">
-        <v>39778</v>
+        <v>41620</v>
       </c>
       <c r="I83" t="n">
-        <v>3.366</v>
+        <v>3.522</v>
       </c>
       <c r="J83" t="n">
-        <v>1916</v>
+        <v>1061</v>
       </c>
       <c r="K83" t="n">
-        <v>0.162</v>
+        <v>0.09</v>
       </c>
       <c r="L83" t="n">
-        <v>1497</v>
+        <v>1193</v>
       </c>
       <c r="M83" t="n">
-        <v>0.127</v>
+        <v>0.101</v>
       </c>
       <c r="N83" t="s">
         <v>535</v>
@@ -6602,7 +6594,7 @@
         <v>540</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D84" t="s">
         <v>541</v>
@@ -6612,25 +6604,25 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H84" t="n">
-        <v>1650135</v>
+        <v>1675517</v>
       </c>
       <c r="I84" t="n">
-        <v>19.565</v>
+        <v>19.866</v>
       </c>
       <c r="J84" t="n">
-        <v>25141</v>
+        <v>25382</v>
       </c>
       <c r="K84" t="n">
-        <v>0.298</v>
+        <v>0.301</v>
       </c>
       <c r="L84" t="n">
-        <v>35259</v>
+        <v>33549</v>
       </c>
       <c r="M84" t="n">
-        <v>0.418</v>
+        <v>0.398</v>
       </c>
       <c r="N84" t="s">
         <v>542</v>
@@ -6653,7 +6645,7 @@
         <v>547</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="D85" t="s">
         <v>548</v>
@@ -6665,25 +6657,21 @@
         <v>550</v>
       </c>
       <c r="G85" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H85" t="n">
-        <v>72774</v>
+        <v>74098</v>
       </c>
       <c r="I85" t="n">
-        <v>1.591</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2044</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.045</v>
-      </c>
+        <v>1.62</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>2144</v>
+        <v>1662</v>
       </c>
       <c r="M85" t="n">
-        <v>0.047</v>
+        <v>0.036</v>
       </c>
       <c r="N85" t="s">
         <v>549</v>
@@ -6706,7 +6694,7 @@
         <v>554</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D86" t="s">
         <v>555</v>
@@ -6716,25 +6704,25 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
-        <v>232899</v>
+        <v>239961</v>
       </c>
       <c r="I86" t="n">
-        <v>5.325</v>
+        <v>5.487</v>
       </c>
       <c r="J86" t="n">
-        <v>5098</v>
+        <v>7062</v>
       </c>
       <c r="K86" t="n">
-        <v>0.117</v>
+        <v>0.161</v>
       </c>
       <c r="L86" t="n">
-        <v>7335</v>
+        <v>7522</v>
       </c>
       <c r="M86" t="n">
-        <v>0.168</v>
+        <v>0.172</v>
       </c>
       <c r="N86" t="s">
         <v>556</v>
@@ -6794,7 +6782,7 @@
         <v>564</v>
       </c>
       <c r="P87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q87" t="s">
         <v>565</v>
@@ -6808,7 +6796,7 @@
         <v>566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D88" t="s">
         <v>567</v>
@@ -6818,25 +6806,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88" t="n">
-        <v>2682716</v>
+        <v>2772552</v>
       </c>
       <c r="I88" t="n">
-        <v>39.518</v>
+        <v>40.841</v>
       </c>
       <c r="J88" t="n">
-        <v>100678</v>
+        <v>89784</v>
       </c>
       <c r="K88" t="n">
-        <v>1.483</v>
+        <v>1.323</v>
       </c>
       <c r="L88" t="n">
-        <v>108707</v>
+        <v>109344</v>
       </c>
       <c r="M88" t="n">
-        <v>1.601</v>
+        <v>1.611</v>
       </c>
       <c r="N88" t="s">
         <v>563</v>
@@ -6859,7 +6847,7 @@
         <v>571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D89" t="s">
         <v>572</v>
@@ -6869,25 +6857,25 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H89" t="n">
-        <v>11499203</v>
+        <v>11834508</v>
       </c>
       <c r="I89" t="n">
-        <v>34.741</v>
+        <v>35.754</v>
       </c>
       <c r="J89" t="n">
-        <v>422024</v>
+        <v>338020</v>
       </c>
       <c r="K89" t="n">
-        <v>1.275</v>
+        <v>1.021</v>
       </c>
       <c r="L89" t="n">
-        <v>362720</v>
+        <v>352746</v>
       </c>
       <c r="M89" t="n">
-        <v>1.096</v>
+        <v>1.066</v>
       </c>
       <c r="N89" t="s">
         <v>573</v>
@@ -6910,107 +6898,111 @@
         <v>577</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D90" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90" t="s">
         <v>578</v>
-      </c>
-      <c r="E90" t="s">
-        <v>579</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
-        <v>10847778</v>
+        <v>11282781</v>
       </c>
       <c r="I90" t="n">
-        <v>32.772</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
+        <v>34.087</v>
+      </c>
+      <c r="J90" t="n">
+        <v>435003</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.314</v>
+      </c>
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90" t="s">
+        <v>578</v>
+      </c>
+      <c r="O90" t="s">
         <v>579</v>
-      </c>
-      <c r="O90" t="s">
-        <v>580</v>
       </c>
       <c r="P90" t="s">
         <v>22</v>
       </c>
       <c r="Q90" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>581</v>
+      </c>
+      <c r="B91" t="s">
         <v>582</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D91" t="s">
         <v>583</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D91" t="s">
-        <v>584</v>
-      </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H91" t="n">
-        <v>33861</v>
+        <v>34384</v>
       </c>
       <c r="I91" t="n">
-        <v>9.748</v>
+        <v>9.898</v>
       </c>
       <c r="J91" t="n">
-        <v>825</v>
+        <v>523</v>
       </c>
       <c r="K91" t="n">
-        <v>0.237</v>
+        <v>0.151</v>
       </c>
       <c r="L91" t="n">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="M91" t="n">
-        <v>0.212</v>
+        <v>0.217</v>
       </c>
       <c r="N91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O91" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P91" t="s">
         <v>22</v>
       </c>
       <c r="Q91" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>586</v>
+      </c>
+      <c r="B92" t="s">
         <v>587</v>
-      </c>
-      <c r="B92" t="s">
-        <v>588</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>43950</v>
       </c>
       <c r="D92" t="s">
+        <v>588</v>
+      </c>
+      <c r="E92" t="s">
         <v>589</v>
-      </c>
-      <c r="E92" t="s">
-        <v>590</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7031,69 +7023,69 @@
         <v>0.112</v>
       </c>
       <c r="N92" t="s">
+        <v>589</v>
+      </c>
+      <c r="O92" t="s">
         <v>590</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>591</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>592</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>593</v>
+      </c>
+      <c r="B93" t="s">
         <v>594</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D93" t="s">
         <v>595</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>43967</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>596</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>597</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="n">
+        <v>12</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13104</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="J93" t="n">
+        <v>540</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L93" t="n">
+        <v>358</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="N93" t="s">
+        <v>596</v>
+      </c>
+      <c r="O93" t="s">
         <v>598</v>
-      </c>
-      <c r="G93" t="n">
-        <v>10</v>
-      </c>
-      <c r="H93" t="n">
-        <v>12275</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="J93" t="n">
-        <v>874</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L93" t="n">
-        <v>383</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N93" t="s">
-        <v>597</v>
-      </c>
-      <c r="O93" t="s">
-        <v>599</v>
       </c>
       <c r="P93" t="s">
         <v>22</v>
       </c>
       <c r="Q93" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/18-05-20-reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/20-05-20_reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-19-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-20-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519110842/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519110846/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520201058/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-17-maya-vyzdoroveli-9-tys-932-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-20-maya-vypisany-11-tys-415-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia - cases tested</t>
+    <t xml:space="preserve">Bolivia - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/mauforonda/covid19-bolivia/blob/master/data.json</t>
@@ -255,7 +255,10 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200519195204/https://covid-insumos.saude.gov.br/paineis/insumos/painel.php</t>
+    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health press release</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
@@ -265,7 +268,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
-From 6th April, the Ministry of Health intermittently reports the number of PCR and rapid tests separately on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage.</t>
+More recently, the Ministry of Health has begun reporting figures for the number of PCR and 'rapid tests' on a dashboard on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage. However we do not include these figures because they appear to relate to the number of tests distributed, rather than the number of tests performed. This is not made clear from the dashboard itself. However, the figures observed at this dashboard on 11 May correspond to those provided in a Ministry of Health press release on [12 May](https://www.saude.gov.br/noticias/agencia-saude/46868-ministerio-da-saude-ja-distribuiu-6-9-milhoes-de-testes-para-covid-19) which explicitly describes the figure as referring to the number of tests distributed.
+The last press release that we have been able to find a clear estimate for the number of tests performed was made on [22 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) (the figures relate to 20 April). No such figures have been found in subsequent press releases.</t>
   </si>
   <si>
     <t xml:space="preserve">BGR</t>
@@ -274,7 +278,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519110851/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181654/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -297,7 +301,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190529/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181655/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -385,7 +389,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190537/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181701/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -445,25 +449,24 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-19052020-d2l8</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200520152818/https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative total begins from 27 Jan</t>
+    <t xml:space="preserve">The Statens Serum Institut no longer publishes daily epidemiological monitoring reports in pdf format.</t>
   </si>
   <si>
     <t xml:space="preserve">Danish Health Authority</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each. 
-It provides daily statistics on the number of people tested for COVID-19, and the number and share of people that tested positive. 
-The most recent epidemiological status reports provides the daily data for the previous two weeks.
-We construct a longer time series by referring to earlier versions of this table, accessed via web archive. Note the cumulative total start date differs at various points in the time series. From 17/03-03/04 the cumulative total begins from 27 Jan; 04/04-20/04 from 7 Jan; and 21/04-today from 13 Jan. 
+    <t xml:space="preserve">https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each up until 19th May. From 20 May, the Danish Statum Serum Institute reports testing figures via the [Monitoring of COVID-19 page](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning).
+It provides daily statistics on the number of people tested for COVID-19 and the number of samples tested. 
+The most recent epidemiological status reports provided the daily data for the previous two weeks. We construct a longer time series by referring to earlier versions of this table, accessed via web archive. Note the cumulative total start date differs at various points in the time series. From 17/03-03/04 the cumulative total begins from 27 Jan; 04/04-20/04 from 7 Jan; and 21/04-today from 13 Jan. 
 The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport). From 15 May, the Danish Statum Serum Institute provides figures on both people and samples tested.
 There is no explicit mention of whether the figures include only PCR tests or other kinds of test.
 Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
@@ -502,16 +505,17 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/2910958428990329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.gob.sv/</t>
   </si>
   <si>
-    <t xml:space="preserve">Government of El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated at 12:43am local time on 2020-05-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
+    <t xml:space="preserve">The government of El Salvador publishes an online dashboard that reports the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.
+The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to April 10th 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.</t>
   </si>
   <si>
     <t xml:space="preserve">EST</t>
@@ -545,7 +549,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-19-Eng-V1.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-20-Eng-V2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -684,7 +688,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200519/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200520/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -918,13 +922,13 @@
     <t xml:space="preserve">Japan - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11399.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11417.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'. Daily change figure provided for this date is not consistent with the cumulative totals for today and the previous day.</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'.</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
@@ -942,14 +946,15 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000631873.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000632206.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
   </si>
   <si>
     <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
+From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures. The source does not provide additional details about this discrepancy.
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
@@ -976,7 +981,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1262726647104581632</t>
+    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-20-2020-15.32.51.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1017,7 +1022,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190643/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181946/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1033,7 +1038,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190646/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181951/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1051,10 +1056,10 @@
     <t xml:space="preserve">MYS</t>
   </si>
   <si>
-    <t xml:space="preserve">Malaysia - cases tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200517111059/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">Malaysia - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182204/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1071,10 +1076,34 @@
 In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.</t>
   </si>
   <si>
+    <t xml:space="preserve">MDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/561317043971945/videos/717317629028998/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers visible in video at time: 1:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Ministry of Health Official Facebook page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/MinistryOfHealthMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maldives Ministry of Health posts almost-daily video updates (there are some missing days) to their official Facebook page. Toward the end of these videos they report "Laboratory Sample" numbers for positive, negative, pending, and total. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day. We report here the total of positive and negative numbers rather than the reported total numbers, as those inconsistently include pending values and occasionally contain discrepant numbers that do not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16th March where it was reported that 221 tests had been conducted.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexico - cases tested</t>
+    <t xml:space="preserve">Mexico - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://datos.gob.mx/busca/dataset/informacion-referente-a-casos-covid-19-en-mexico</t>
@@ -1123,9 +1152,6 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
-    <t xml:space="preserve">This figure is taken from the interactive dashboard and should be updated once the daily PDF situation report becomes available</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
@@ -1162,10 +1188,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200519_1015_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 19 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200520_1022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 20 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1201,7 +1227,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190830/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182800/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1221,7 +1247,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.19-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.20-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1246,7 +1272,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519190834/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182803/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1312,7 +1338,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/157559-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-99-483-en-el-peru-comunicado-n-105</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/159364-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-104-020-en-el-peru-comunicado-n-106</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1326,7 +1352,7 @@
   <si>
     <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positive and negative test results to date, but it is unclear whether the numbers reported reflect "samples tested" or "people tested". Some press releases report testing data using the language "...samples have been processed for ___ people..." (e.g. "Al 08 de abril de 2020 se han procesado muestras para 39 599 personas"), while other press releases report testing data using the language "...___ samples have been processed..." (e.g. "Al 18 de marzo de 2020 se han procesado 3 075 muestras").
 The reference date for the cumulative number of tests is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
-The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas").</t>
+The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").</t>
   </si>
   <si>
     <t xml:space="preserve">PHL</t>
@@ -1348,7 +1374,7 @@
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
 The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
-No newly submitted reports as of 18 May. Latest testing data available is from 15 May 2020.</t>
+No newly submitted reports as of 19 May. Latest testing data available is from 15 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1357,7 +1383,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.19.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.20.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1402,7 +1428,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200519194531/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200520160417/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1440,7 +1466,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14485</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14493</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1460,7 +1486,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262441408436285441</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262821068852559872</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1482,6 +1508,9 @@
     <t xml:space="preserve">Saudi Arabia - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">http://web.archive.org/web/20200520160733/https://covid19.moh.gov.sa/en/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
   </si>
   <si>
@@ -1542,7 +1571,7 @@
     <t xml:space="preserve">Singapore - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120255/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182818/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
@@ -1555,7 +1584,7 @@
     <t xml:space="preserve">Singapore - swabs tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200516120257/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182819/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">The number of swabs tested.</t>
@@ -1567,7 +1596,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519191802/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182823/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1638,10 +1667,10 @@
     <t xml:space="preserve">KOR</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea - cases tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367264&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">South Korea - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367275&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1724,7 +1753,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/c4rwvT--ae8c0wKIWPyTjQ?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EhkjYaEtGkRUo_mQC0WhPQ?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1814,7 +1843,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519191908/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183008/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1838,13 +1867,13 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-16/</t>
+    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-18/</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">The MOH did not release daily tests results on 17th April. The cumulative total for 18th April thus takes the total figure as of the 16th April and the daily tests conducted on the 18th April.</t>
+    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
@@ -1862,7 +1891,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519191911/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183010/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1884,7 +1913,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182142/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183012/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1907,7 +1936,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200519192047/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183013/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1954,6 +1983,9 @@
     <t xml:space="preserve">United States - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183014/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States CDC</t>
   </si>
   <si>
@@ -1972,7 +2004,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-29</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-30</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2011,7 +2043,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262508825690738690</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262803418894270470</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2424,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2434,25 +2466,21 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>105829</v>
+        <v>112370</v>
       </c>
       <c r="I2" t="n">
-        <v>2.342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.058</v>
-      </c>
+        <v>2.486</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" t="n">
-        <v>2953</v>
+        <v>3128</v>
       </c>
       <c r="M2" t="n">
-        <v>0.065</v>
+        <v>0.069</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -2475,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2485,25 +2513,25 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>1085870</v>
+        <v>1111567</v>
       </c>
       <c r="I3" t="n">
-        <v>42.583</v>
+        <v>43.591</v>
       </c>
       <c r="J3" t="n">
-        <v>23836</v>
+        <v>25697</v>
       </c>
       <c r="K3" t="n">
-        <v>0.935</v>
+        <v>1.008</v>
       </c>
       <c r="L3" t="n">
-        <v>29706</v>
+        <v>28935</v>
       </c>
       <c r="M3" t="n">
-        <v>1.165</v>
+        <v>1.135</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -2526,7 +2554,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2536,25 +2564,25 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
-        <v>372435</v>
+        <v>379592</v>
       </c>
       <c r="I4" t="n">
-        <v>41.352</v>
+        <v>42.147</v>
       </c>
       <c r="J4" t="n">
-        <v>6562</v>
+        <v>7157</v>
       </c>
       <c r="K4" t="n">
-        <v>0.729</v>
+        <v>0.795</v>
       </c>
       <c r="L4" t="n">
-        <v>6160</v>
+        <v>6191</v>
       </c>
       <c r="M4" t="n">
-        <v>0.684</v>
+        <v>0.687</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -2577,7 +2605,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2587,25 +2615,25 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>248205</v>
+        <v>255633</v>
       </c>
       <c r="I5" t="n">
-        <v>145.867</v>
+        <v>150.232</v>
       </c>
       <c r="J5" t="n">
-        <v>5174</v>
+        <v>7428</v>
       </c>
       <c r="K5" t="n">
-        <v>3.041</v>
+        <v>4.365</v>
       </c>
       <c r="L5" t="n">
-        <v>7187</v>
+        <v>7152</v>
       </c>
       <c r="M5" t="n">
-        <v>4.224</v>
+        <v>4.203</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -2679,7 +2707,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -2689,21 +2717,21 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" t="n">
-        <v>350515</v>
+        <v>387673</v>
       </c>
       <c r="I7" t="n">
-        <v>37.094</v>
+        <v>41.027</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>12425</v>
+        <v>13042</v>
       </c>
       <c r="M7" t="n">
-        <v>1.315</v>
+        <v>1.38</v>
       </c>
       <c r="N7" t="s">
         <v>56</v>
@@ -2726,7 +2754,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -2736,25 +2764,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>578746</v>
+        <v>585806</v>
       </c>
       <c r="I8" t="n">
-        <v>49.937</v>
+        <v>50.546</v>
       </c>
       <c r="J8" t="n">
-        <v>7813</v>
+        <v>5853</v>
       </c>
       <c r="K8" t="n">
-        <v>0.674</v>
+        <v>0.505</v>
       </c>
       <c r="L8" t="n">
-        <v>13535</v>
+        <v>13406</v>
       </c>
       <c r="M8" t="n">
-        <v>1.168</v>
+        <v>1.157</v>
       </c>
       <c r="N8" t="s">
         <v>62</v>
@@ -2777,7 +2805,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -2789,25 +2817,25 @@
         <v>69</v>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>10349</v>
+        <v>10567</v>
       </c>
       <c r="I9" t="n">
-        <v>0.887</v>
+        <v>0.905</v>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="K9" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="L9" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M9" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -2830,215 +2858,215 @@
         <v>74</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>43965</v>
+        <v>43941</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3081480</v>
+        <v>132467</v>
       </c>
       <c r="I10" t="n">
-        <v>14.497</v>
+        <v>0.623</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>295084</v>
+        <v>5345</v>
       </c>
       <c r="M10" t="n">
-        <v>1.388</v>
+        <v>0.025</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>66810</v>
+        <v>68243</v>
       </c>
       <c r="I11" t="n">
-        <v>9.615</v>
+        <v>9.821</v>
       </c>
       <c r="J11" t="n">
-        <v>874</v>
+        <v>1433</v>
       </c>
       <c r="K11" t="n">
-        <v>0.126</v>
+        <v>0.206</v>
       </c>
       <c r="L11" t="n">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="M11" t="n">
         <v>0.167</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" t="n">
-        <v>1336967</v>
+        <v>1372929</v>
       </c>
       <c r="I12" t="n">
-        <v>35.424</v>
+        <v>36.377</v>
       </c>
       <c r="J12" t="n">
-        <v>16980</v>
+        <v>35962</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.953</v>
       </c>
       <c r="L12" t="n">
-        <v>27326</v>
+        <v>29078</v>
       </c>
       <c r="M12" t="n">
-        <v>0.724</v>
+        <v>0.77</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>397200</v>
+        <v>409669</v>
       </c>
       <c r="I13" t="n">
-        <v>20.778</v>
+        <v>21.43</v>
       </c>
       <c r="J13" t="n">
-        <v>16189</v>
+        <v>12469</v>
       </c>
       <c r="K13" t="n">
-        <v>0.847</v>
+        <v>0.652</v>
       </c>
       <c r="L13" t="n">
-        <v>13409</v>
+        <v>13703</v>
       </c>
       <c r="M13" t="n">
-        <v>0.701</v>
+        <v>0.717</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
         <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
@@ -3063,295 +3091,295 @@
         <v>0.126</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="n">
-        <v>14616</v>
+        <v>15050</v>
       </c>
       <c r="I15" t="n">
-        <v>2.869</v>
+        <v>2.954</v>
       </c>
       <c r="J15" t="n">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="K15" t="n">
-        <v>0.027</v>
+        <v>0.085</v>
       </c>
       <c r="L15" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M15" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="n">
-        <v>55800</v>
+        <v>57021</v>
       </c>
       <c r="I16" t="n">
-        <v>13.592</v>
+        <v>13.89</v>
       </c>
       <c r="J16" t="n">
-        <v>980</v>
+        <v>1221</v>
       </c>
       <c r="K16" t="n">
-        <v>0.239</v>
+        <v>0.297</v>
       </c>
       <c r="L16" t="n">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="M16" t="n">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>87288</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.706</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1732</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" t="n">
-        <v>58</v>
-      </c>
-      <c r="H17" t="n">
-        <v>85556</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.554</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1688</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2057</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N17" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" t="n">
-        <v>363963</v>
+        <v>372341</v>
       </c>
       <c r="I18" t="n">
-        <v>33.987</v>
+        <v>34.769</v>
       </c>
       <c r="J18" t="n">
-        <v>7349</v>
+        <v>8223</v>
       </c>
       <c r="K18" t="n">
-        <v>0.686</v>
+        <v>0.768</v>
       </c>
       <c r="L18" t="n">
-        <v>6426</v>
+        <v>6379</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" t="s">
         <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" t="n">
-        <v>402194</v>
+        <v>412051</v>
       </c>
       <c r="I19" t="n">
-        <v>69.437</v>
+        <v>71.139</v>
       </c>
       <c r="J19" t="n">
-        <v>7800</v>
+        <v>9857</v>
       </c>
       <c r="K19" t="n">
-        <v>1.347</v>
+        <v>1.702</v>
       </c>
       <c r="L19" t="n">
-        <v>9705</v>
+        <v>9477</v>
       </c>
       <c r="M19" t="n">
-        <v>1.676</v>
+        <v>1.636</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" t="n">
         <v>59</v>
@@ -3371,242 +3399,240 @@
         <v>0.078</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" t="s">
         <v>152</v>
       </c>
+      <c r="F21"/>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
-        <v>60341</v>
+        <v>62838</v>
       </c>
       <c r="I21" t="n">
-        <v>9.303</v>
+        <v>9.688</v>
       </c>
       <c r="J21" t="n">
-        <v>2458</v>
+        <v>2497</v>
       </c>
       <c r="K21" t="n">
-        <v>0.379</v>
+        <v>0.385</v>
       </c>
       <c r="L21" t="n">
-        <v>2202</v>
+        <v>2287</v>
       </c>
       <c r="M21" t="n">
-        <v>0.339</v>
+        <v>0.353</v>
       </c>
       <c r="N21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="n">
-        <v>71441</v>
+        <v>72465</v>
       </c>
       <c r="I22" t="n">
-        <v>53.855</v>
+        <v>54.627</v>
       </c>
       <c r="J22" t="n">
-        <v>1258</v>
+        <v>1028</v>
       </c>
       <c r="K22" t="n">
-        <v>0.948</v>
+        <v>0.775</v>
       </c>
       <c r="L22" t="n">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="M22" t="n">
-        <v>0.699</v>
+        <v>0.688</v>
       </c>
       <c r="N22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>62300</v>
+        <v>65760</v>
       </c>
       <c r="I23" t="n">
-        <v>0.542</v>
+        <v>0.572</v>
       </c>
       <c r="J23" t="n">
-        <v>3271</v>
+        <v>3460</v>
       </c>
       <c r="K23" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="L23" t="n">
-        <v>3322</v>
+        <v>3439</v>
       </c>
       <c r="M23" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H24" t="n">
-        <v>151935</v>
+        <v>156206</v>
       </c>
       <c r="I24" t="n">
-        <v>27.422</v>
+        <v>28.192</v>
       </c>
       <c r="J24" t="n">
-        <v>2017</v>
+        <v>1403</v>
       </c>
       <c r="K24" t="n">
-        <v>0.364</v>
+        <v>0.253</v>
       </c>
       <c r="L24" t="n">
-        <v>3136</v>
+        <v>2877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.566</v>
+        <v>0.519</v>
       </c>
       <c r="N24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" t="s">
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3626,36 +3652,36 @@
         <v>0.233</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -3675,182 +3701,190 @@
         <v>0.652</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>179586</v>
+        <v>183362</v>
       </c>
       <c r="I27" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
+        <v>5.901</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.122</v>
+      </c>
       <c r="L27" t="n">
-        <v>2867</v>
+        <v>3166</v>
       </c>
       <c r="M27" t="n">
-        <v>0.092</v>
+        <v>0.102</v>
       </c>
       <c r="N27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12</v>
+      </c>
+      <c r="H28" t="n">
+        <v>184343</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3776</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3166</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" t="s">
         <v>198</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" t="n">
-        <v>11</v>
-      </c>
-      <c r="H28" t="n">
-        <v>180567</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.811</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28" t="n">
-        <v>2867</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="N28" t="s">
-        <v>194</v>
-      </c>
-      <c r="O28" t="s">
-        <v>195</v>
-      </c>
-      <c r="P28" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H29" t="n">
-        <v>136001</v>
+        <v>139445</v>
       </c>
       <c r="I29" t="n">
-        <v>13.048</v>
+        <v>13.379</v>
       </c>
       <c r="J29" t="n">
-        <v>4317</v>
+        <v>3444</v>
       </c>
       <c r="K29" t="n">
-        <v>0.414</v>
+        <v>0.33</v>
       </c>
       <c r="L29" t="n">
-        <v>4278</v>
+        <v>3915</v>
       </c>
       <c r="M29" t="n">
-        <v>0.41</v>
+        <v>0.376</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -3871,140 +3905,140 @@
         <v>0.261</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P30" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="n">
+        <v>76</v>
+      </c>
+      <c r="H31" t="n">
+        <v>142729</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4032</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3461</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="N31" t="s">
         <v>218</v>
       </c>
-      <c r="G31" t="n">
-        <v>75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>138697</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.357</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1454</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3425</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="N31" t="s">
-        <v>217</v>
-      </c>
       <c r="O31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="n">
-        <v>57146</v>
+        <v>57587</v>
       </c>
       <c r="I32" t="n">
-        <v>167.461</v>
+        <v>168.753</v>
       </c>
       <c r="J32" t="n">
-        <v>305</v>
+        <v>441</v>
       </c>
       <c r="K32" t="n">
-        <v>0.894</v>
+        <v>1.292</v>
       </c>
       <c r="L32" t="n">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="M32" t="n">
-        <v>1.002</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
         <v>225</v>
       </c>
-      <c r="O32" t="s">
-        <v>224</v>
-      </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G33" t="n">
         <v>24</v>
@@ -4028,137 +4062,137 @@
         <v>0.021</v>
       </c>
       <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
         <v>231</v>
       </c>
-      <c r="O33" t="s">
-        <v>230</v>
-      </c>
       <c r="P33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="n">
+        <v>57</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2512388</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="J34" t="n">
+        <v>108121</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="L34" t="n">
+        <v>94020</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
         <v>231</v>
-      </c>
-      <c r="F34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" t="n">
-        <v>55</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2302792</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.669</v>
-      </c>
-      <c r="J34" t="n">
-        <v>75150</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="L34" t="n">
-        <v>89872</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="N34" t="s">
-        <v>231</v>
-      </c>
-      <c r="O34" t="s">
-        <v>230</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H35" t="n">
-        <v>147799</v>
+        <v>154139</v>
       </c>
       <c r="I35" t="n">
-        <v>0.54</v>
+        <v>0.564</v>
       </c>
       <c r="J35" t="n">
-        <v>4764</v>
+        <v>6340</v>
       </c>
       <c r="K35" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="L35" t="n">
-        <v>4010</v>
+        <v>4367</v>
       </c>
       <c r="M35" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="N35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P35" t="s">
         <v>71</v>
       </c>
       <c r="Q35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
@@ -4183,33 +4217,33 @@
         <v>0.171</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P36" t="s">
         <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
@@ -4230,36 +4264,36 @@
         <v>1.065</v>
       </c>
       <c r="N37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" t="n">
         <v>87</v>
@@ -4286,1089 +4320,1091 @@
         <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P38" t="s">
         <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G39" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
-        <v>1999599</v>
+        <v>2038216</v>
       </c>
       <c r="I39" t="n">
-        <v>33.072</v>
+        <v>33.711</v>
       </c>
       <c r="J39" t="n">
-        <v>40226</v>
+        <v>38617</v>
       </c>
       <c r="K39" t="n">
-        <v>0.665</v>
+        <v>0.639</v>
       </c>
       <c r="L39" t="n">
-        <v>36814</v>
+        <v>37038</v>
       </c>
       <c r="M39" t="n">
-        <v>0.609</v>
+        <v>0.613</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G40" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="n">
-        <v>3104524</v>
+        <v>3171719</v>
       </c>
       <c r="I40" t="n">
-        <v>51.347</v>
+        <v>52.458</v>
       </c>
       <c r="J40" t="n">
-        <v>63158</v>
+        <v>67195</v>
       </c>
       <c r="K40" t="n">
-        <v>1.045</v>
+        <v>1.111</v>
       </c>
       <c r="L40" t="n">
-        <v>61553</v>
+        <v>62299</v>
       </c>
       <c r="M40" t="n">
-        <v>1.018</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P40" t="s">
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G41" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H41" t="n">
-        <v>255675</v>
+        <v>258277</v>
       </c>
       <c r="I41" t="n">
-        <v>2.022</v>
+        <v>2.042</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>4575</v>
+        <v>4944</v>
       </c>
       <c r="M41" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G42" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>402476</v>
+        <v>405177</v>
       </c>
       <c r="I42" t="n">
-        <v>3.182</v>
+        <v>3.204</v>
       </c>
       <c r="J42" t="n">
-        <v>6247</v>
+        <v>4467</v>
       </c>
       <c r="K42" t="n">
-        <v>0.049</v>
+        <v>0.035</v>
       </c>
       <c r="L42" t="n">
-        <v>7063</v>
+        <v>6559</v>
       </c>
       <c r="M42" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="N42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P42" t="s">
         <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" t="n">
-        <v>553062</v>
+        <v>571547</v>
       </c>
       <c r="I43" t="n">
-        <v>29.455</v>
+        <v>30.439</v>
       </c>
       <c r="J43" t="n">
-        <v>12354</v>
+        <v>18485</v>
       </c>
       <c r="K43" t="n">
-        <v>0.658</v>
+        <v>0.984</v>
       </c>
       <c r="L43" t="n">
-        <v>18722</v>
+        <v>18865</v>
       </c>
       <c r="M43" t="n">
-        <v>0.997</v>
+        <v>1.005</v>
       </c>
       <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
         <v>285</v>
-      </c>
-      <c r="O43" t="s">
-        <v>284</v>
       </c>
       <c r="P43" t="s">
         <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="n">
-        <v>46784</v>
+        <v>49405</v>
       </c>
       <c r="I44" t="n">
-        <v>0.87</v>
+        <v>0.919</v>
       </c>
       <c r="J44" t="n">
-        <v>1933</v>
+        <v>2621</v>
       </c>
       <c r="K44" t="n">
-        <v>0.036</v>
+        <v>0.049</v>
       </c>
       <c r="L44" t="n">
-        <v>1838</v>
+        <v>1996</v>
       </c>
       <c r="M44" t="n">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="N44" t="s">
         <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" t="n">
+        <v>82</v>
+      </c>
+      <c r="H45" t="n">
+        <v>92751</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49.173</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1783</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1644</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s">
         <v>297</v>
-      </c>
-      <c r="F45" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" t="n">
-        <v>81</v>
-      </c>
-      <c r="H45" t="n">
-        <v>90968</v>
-      </c>
-      <c r="I45" t="n">
-        <v>48.228</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1845</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1703</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="N45" t="s">
-        <v>297</v>
-      </c>
-      <c r="O45" t="s">
-        <v>296</v>
       </c>
       <c r="P45" t="s">
         <v>22</v>
       </c>
       <c r="Q45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H46" t="n">
-        <v>237600</v>
+        <v>245580</v>
       </c>
       <c r="I46" t="n">
-        <v>87.279</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>90.211</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7980</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.931</v>
+      </c>
       <c r="L46" t="n">
-        <v>6459</v>
+        <v>6474</v>
       </c>
       <c r="M46" t="n">
-        <v>2.373</v>
+        <v>2.378</v>
       </c>
       <c r="N46" t="s">
         <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P46" t="s">
         <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47" t="n">
-        <v>63011</v>
+        <v>64018</v>
       </c>
       <c r="I47" t="n">
-        <v>100.66</v>
+        <v>102.269</v>
       </c>
       <c r="J47" t="n">
-        <v>751</v>
+        <v>1007</v>
       </c>
       <c r="K47" t="n">
-        <v>1.2</v>
+        <v>1.609</v>
       </c>
       <c r="L47" t="n">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="M47" t="n">
-        <v>1.51</v>
+        <v>1.444</v>
       </c>
       <c r="N47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P47" t="s">
         <v>22</v>
       </c>
       <c r="Q47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H48" t="n">
-        <v>443263</v>
+        <v>462257</v>
       </c>
       <c r="I48" t="n">
-        <v>13.695</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9127</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.282</v>
-      </c>
+        <v>14.282</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48" t="n">
-        <v>26618</v>
+        <v>18425</v>
       </c>
       <c r="M48" t="n">
-        <v>0.822</v>
+        <v>0.569</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E49" t="s">
-        <v>321</v>
-      </c>
-      <c r="F49"/>
+        <v>322</v>
+      </c>
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
       <c r="G49" t="n">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="H49" t="n">
-        <v>150198</v>
+        <v>15280</v>
       </c>
       <c r="I49" t="n">
-        <v>1.165</v>
+        <v>28.268</v>
       </c>
       <c r="J49" t="n">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001</v>
+        <v>0.788</v>
       </c>
       <c r="L49" t="n">
-        <v>3179</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
-        <v>0.025</v>
+        <v>0.801</v>
       </c>
       <c r="N49" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O49" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Q49" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
-      </c>
-      <c r="F50" t="s">
-        <v>327</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="H50" t="n">
-        <v>95536</v>
+        <v>156320</v>
       </c>
       <c r="I50" t="n">
-        <v>2.588</v>
+        <v>1.212</v>
       </c>
       <c r="J50" t="n">
-        <v>5579</v>
+        <v>314</v>
       </c>
       <c r="K50" t="n">
-        <v>0.151</v>
+        <v>0.002</v>
       </c>
       <c r="L50" t="n">
-        <v>3794</v>
+        <v>3145</v>
       </c>
       <c r="M50" t="n">
-        <v>0.103</v>
+        <v>0.024</v>
       </c>
       <c r="N50" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P50" t="s">
         <v>71</v>
       </c>
       <c r="Q50" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="D51" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E51" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H51" t="n">
-        <v>15137</v>
+        <v>95536</v>
       </c>
       <c r="I51" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
+        <v>2.588</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5579</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.151</v>
+      </c>
       <c r="L51" t="n">
-        <v>439</v>
+        <v>3794</v>
       </c>
       <c r="M51" t="n">
-        <v>0.008</v>
+        <v>0.103</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D52" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" t="s">
-        <v>341</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H52" t="n">
-        <v>30724</v>
+        <v>15838</v>
       </c>
       <c r="I52" t="n">
-        <v>1.054</v>
+        <v>0.291</v>
       </c>
       <c r="J52" t="n">
-        <v>2563</v>
+        <v>701</v>
       </c>
       <c r="K52" t="n">
-        <v>0.088</v>
+        <v>0.013</v>
       </c>
       <c r="L52" t="n">
-        <v>1845</v>
+        <v>539</v>
       </c>
       <c r="M52" t="n">
-        <v>0.063</v>
+        <v>0.01</v>
       </c>
       <c r="N52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P52" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Q52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D53" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
-      </c>
-      <c r="F53"/>
+        <v>348</v>
+      </c>
+      <c r="F53" t="s">
+        <v>349</v>
+      </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H53" t="n">
-        <v>302395</v>
+        <v>33006</v>
       </c>
       <c r="I53" t="n">
-        <v>17.648</v>
+        <v>1.133</v>
       </c>
       <c r="J53" t="n">
-        <v>2774</v>
+        <v>2282</v>
       </c>
       <c r="K53" t="n">
-        <v>0.162</v>
+        <v>0.078</v>
       </c>
       <c r="L53" t="n">
-        <v>4348</v>
+        <v>2006</v>
       </c>
       <c r="M53" t="n">
-        <v>0.254</v>
+        <v>0.069</v>
       </c>
       <c r="N53" t="s">
         <v>348</v>
       </c>
       <c r="O53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>233843</v>
+        <v>306460</v>
       </c>
       <c r="I54" t="n">
-        <v>48.493</v>
+        <v>17.885</v>
       </c>
       <c r="J54" t="n">
-        <v>3125</v>
+        <v>3688</v>
       </c>
       <c r="K54" t="n">
-        <v>0.648</v>
+        <v>0.215</v>
       </c>
       <c r="L54" t="n">
-        <v>5251</v>
+        <v>4270</v>
       </c>
       <c r="M54" t="n">
-        <v>1.089</v>
+        <v>0.249</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P54" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="Q54" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
+        <v>72</v>
+      </c>
+      <c r="H55" t="n">
+        <v>238745</v>
+      </c>
+      <c r="I55" t="n">
+        <v>49.509</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4902</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="N55" t="s">
+        <v>362</v>
+      </c>
+      <c r="O55" t="s">
+        <v>361</v>
+      </c>
+      <c r="P55" t="s">
         <v>22</v>
       </c>
-      <c r="H55" t="n">
-        <v>36899</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1554</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1212</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N55" t="s">
-        <v>359</v>
-      </c>
-      <c r="O55" t="s">
-        <v>360</v>
-      </c>
-      <c r="P55" t="s">
-        <v>51</v>
-      </c>
       <c r="Q55" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D56" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H56" t="n">
-        <v>219984</v>
+        <v>38231</v>
       </c>
       <c r="I56" t="n">
-        <v>40.578</v>
+        <v>0.185</v>
       </c>
       <c r="J56" t="n">
-        <v>1945</v>
+        <v>1332</v>
       </c>
       <c r="K56" t="n">
-        <v>0.359</v>
+        <v>0.006</v>
       </c>
       <c r="L56" t="n">
-        <v>2106</v>
+        <v>1260</v>
       </c>
       <c r="M56" t="n">
-        <v>0.388</v>
+        <v>0.006</v>
       </c>
       <c r="N56" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O56" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P56" t="s">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="Q56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>400292</v>
+        <v>223045</v>
       </c>
       <c r="I57" t="n">
-        <v>1.812</v>
+        <v>41.143</v>
       </c>
       <c r="J57" t="n">
-        <v>12957</v>
+        <v>3061</v>
       </c>
       <c r="K57" t="n">
-        <v>0.059</v>
+        <v>0.565</v>
       </c>
       <c r="L57" t="n">
-        <v>13492</v>
+        <v>2024</v>
       </c>
       <c r="M57" t="n">
-        <v>0.061</v>
+        <v>0.373</v>
       </c>
       <c r="N57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P57" t="s">
-        <v>22</v>
+        <v>375</v>
       </c>
       <c r="Q57" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s">
-        <v>378</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H58" t="n">
-        <v>51105</v>
+        <v>414254</v>
       </c>
       <c r="I58" t="n">
-        <v>11.844</v>
+        <v>1.875</v>
       </c>
       <c r="J58" t="n">
-        <v>757</v>
+        <v>13962</v>
       </c>
       <c r="K58" t="n">
-        <v>0.175</v>
+        <v>0.063</v>
       </c>
       <c r="L58" t="n">
-        <v>1063</v>
+        <v>13794</v>
       </c>
       <c r="M58" t="n">
-        <v>0.246</v>
+        <v>0.062</v>
       </c>
       <c r="N58" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P58" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="Q58" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43960</v>
+        <v>43969</v>
       </c>
       <c r="D59" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E59" t="s">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G59" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H59" t="n">
-        <v>14646</v>
+        <v>51105</v>
       </c>
       <c r="I59" t="n">
-        <v>2.053</v>
+        <v>11.844</v>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="K59" t="n">
-        <v>0.112</v>
+        <v>0.175</v>
       </c>
       <c r="L59" t="n">
-        <v>554</v>
+        <v>1063</v>
       </c>
       <c r="M59" t="n">
-        <v>0.078</v>
+        <v>0.246</v>
       </c>
       <c r="N59" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="O59" t="s">
         <v>387</v>
       </c>
       <c r="P59" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="Q59" t="s">
         <v>388</v>
@@ -5382,146 +5418,146 @@
         <v>390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43970</v>
+        <v>43960</v>
       </c>
       <c r="D60" t="s">
         <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60"/>
+        <v>392</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
       <c r="G60" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H60" t="n">
-        <v>105627</v>
+        <v>14646</v>
       </c>
       <c r="I60" t="n">
-        <v>3.204</v>
+        <v>2.053</v>
       </c>
       <c r="J60" t="n">
-        <v>2788</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>0.085</v>
+        <v>0.112</v>
       </c>
       <c r="L60" t="n">
-        <v>2862</v>
+        <v>554</v>
       </c>
       <c r="M60" t="n">
-        <v>0.087</v>
+        <v>0.078</v>
       </c>
       <c r="N60" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P60" t="s">
-        <v>394</v>
+        <v>51</v>
       </c>
       <c r="Q60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43966</v>
+        <v>43971</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s">
-        <v>399</v>
-      </c>
-      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="n">
+        <v>69</v>
+      </c>
+      <c r="H61" t="n">
+        <v>108481</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2854</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2956</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N61" t="s">
         <v>400</v>
       </c>
-      <c r="G61" t="n">
-        <v>24</v>
-      </c>
-      <c r="H61" t="n">
-        <v>188024</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.716</v>
-      </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61" t="n">
-        <v>6324</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="N61" t="s">
-        <v>210</v>
-      </c>
       <c r="O61" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P61" t="s">
-        <v>91</v>
+        <v>402</v>
       </c>
       <c r="Q61" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43970</v>
+        <v>43966</v>
       </c>
       <c r="D62" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E62" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F62" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" t="n">
+        <v>24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>188024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62" t="n">
+        <v>6324</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N62" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" t="s">
         <v>406</v>
       </c>
-      <c r="G62" t="n">
-        <v>76</v>
-      </c>
-      <c r="H62" t="n">
-        <v>653224</v>
-      </c>
-      <c r="I62" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="J62" t="n">
-        <v>17178</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="L62" t="n">
-        <v>20778</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="N62" t="s">
-        <v>407</v>
-      </c>
-      <c r="O62" t="s">
-        <v>408</v>
-      </c>
       <c r="P62" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="Q62" t="s">
         <v>409</v>
@@ -5535,193 +5571,195 @@
         <v>411</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="D63" t="s">
         <v>412</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63"/>
+        <v>413</v>
+      </c>
+      <c r="F63" t="s">
+        <v>414</v>
+      </c>
       <c r="G63" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63" t="n">
-        <v>662375</v>
+        <v>674861</v>
       </c>
       <c r="I63" t="n">
-        <v>64.96</v>
+        <v>17.831</v>
       </c>
       <c r="J63" t="n">
-        <v>8907</v>
+        <v>21637</v>
       </c>
       <c r="K63" t="n">
-        <v>0.874</v>
+        <v>0.572</v>
       </c>
       <c r="L63" t="n">
-        <v>15496</v>
+        <v>20963</v>
       </c>
       <c r="M63" t="n">
-        <v>1.52</v>
+        <v>0.554</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O63" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P63" t="s">
-        <v>414</v>
+        <v>51</v>
       </c>
       <c r="Q63" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="D64" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E64" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="H64" t="n">
-        <v>166182</v>
+        <v>674001</v>
       </c>
       <c r="I64" t="n">
-        <v>57.681</v>
+        <v>66.1</v>
       </c>
       <c r="J64" t="n">
-        <v>4487</v>
+        <v>11621</v>
       </c>
       <c r="K64" t="n">
-        <v>1.557</v>
+        <v>1.14</v>
       </c>
       <c r="L64" t="n">
-        <v>4413</v>
+        <v>15375</v>
       </c>
       <c r="M64" t="n">
-        <v>1.532</v>
+        <v>1.508</v>
       </c>
       <c r="N64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O64" t="s">
         <v>420</v>
       </c>
       <c r="P64" t="s">
-        <v>91</v>
+        <v>422</v>
       </c>
       <c r="Q64" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E65" t="s">
-        <v>425</v>
-      </c>
-      <c r="F65" t="s">
-        <v>426</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="F65"/>
       <c r="G65" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H65" t="n">
-        <v>310407</v>
+        <v>170437</v>
       </c>
       <c r="I65" t="n">
-        <v>16.135</v>
+        <v>59.158</v>
       </c>
       <c r="J65" t="n">
-        <v>6673</v>
+        <v>4255</v>
       </c>
       <c r="K65" t="n">
-        <v>0.347</v>
+        <v>1.477</v>
       </c>
       <c r="L65" t="n">
-        <v>7665</v>
+        <v>4473</v>
       </c>
       <c r="M65" t="n">
-        <v>0.398</v>
+        <v>1.553</v>
       </c>
       <c r="N65" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O65" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P65" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="Q65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D66" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
-      </c>
-      <c r="F66"/>
+        <v>433</v>
+      </c>
+      <c r="F66" t="s">
+        <v>434</v>
+      </c>
       <c r="G66" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H66" t="n">
-        <v>7352316</v>
+        <v>332487</v>
       </c>
       <c r="I66" t="n">
-        <v>50.381</v>
+        <v>17.283</v>
       </c>
       <c r="J66" t="n">
-        <v>205302</v>
+        <v>10413</v>
       </c>
       <c r="K66" t="n">
-        <v>1.407</v>
+        <v>0.541</v>
       </c>
       <c r="L66" t="n">
-        <v>220987</v>
+        <v>7812</v>
       </c>
       <c r="M66" t="n">
-        <v>1.514</v>
+        <v>0.406</v>
       </c>
       <c r="N66" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O66" t="s">
         <v>432</v>
@@ -5730,159 +5768,157 @@
         <v>22</v>
       </c>
       <c r="Q66" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E67" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H67" t="n">
-        <v>51118</v>
+        <v>7578029</v>
       </c>
       <c r="I67" t="n">
-        <v>3.947</v>
+        <v>51.928</v>
       </c>
       <c r="J67" t="n">
-        <v>1744</v>
+        <v>225713</v>
       </c>
       <c r="K67" t="n">
-        <v>0.135</v>
+        <v>1.547</v>
       </c>
       <c r="L67" t="n">
-        <v>1188</v>
+        <v>227924</v>
       </c>
       <c r="M67" t="n">
-        <v>0.092</v>
+        <v>1.562</v>
       </c>
       <c r="N67" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O67" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P67" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q67" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D68" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H68" t="n">
-        <v>618084</v>
+        <v>52335</v>
       </c>
       <c r="I68" t="n">
-        <v>17.754</v>
+        <v>4.041</v>
       </c>
       <c r="J68" t="n">
-        <v>16130</v>
+        <v>1217</v>
       </c>
       <c r="K68" t="n">
-        <v>0.463</v>
+        <v>0.094</v>
       </c>
       <c r="L68" t="n">
-        <v>19387</v>
+        <v>1279</v>
       </c>
       <c r="M68" t="n">
-        <v>0.557</v>
+        <v>0.099</v>
       </c>
       <c r="N68" t="s">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="O68" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P68" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="Q68" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D69" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
-      </c>
-      <c r="F69" t="s">
-        <v>448</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F69"/>
       <c r="G69" t="n">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H69" t="n">
-        <v>30436</v>
+        <v>618084</v>
       </c>
       <c r="I69" t="n">
-        <v>1.818</v>
+        <v>17.754</v>
       </c>
       <c r="J69" t="n">
-        <v>930</v>
+        <v>16130</v>
       </c>
       <c r="K69" t="n">
-        <v>0.056</v>
+        <v>0.463</v>
       </c>
       <c r="L69" t="n">
-        <v>978</v>
+        <v>19387</v>
       </c>
       <c r="M69" t="n">
-        <v>0.058</v>
+        <v>0.557</v>
       </c>
       <c r="N69" t="s">
-        <v>449</v>
+        <v>41</v>
       </c>
       <c r="O69" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P69" t="s">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="Q69" t="s">
         <v>452</v>
@@ -5896,1196 +5932,1257 @@
         <v>454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D70" t="s">
         <v>455</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G70" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H70" t="n">
-        <v>190683</v>
+        <v>31478</v>
       </c>
       <c r="I70" t="n">
-        <v>28.023</v>
+        <v>1.88</v>
       </c>
       <c r="J70" t="n">
-        <v>5298</v>
+        <v>1042</v>
       </c>
       <c r="K70" t="n">
-        <v>0.779</v>
+        <v>0.062</v>
       </c>
       <c r="L70" t="n">
-        <v>5626</v>
+        <v>996</v>
       </c>
       <c r="M70" t="n">
-        <v>0.827</v>
+        <v>0.059</v>
       </c>
       <c r="N70" t="s">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="O70" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P70" t="s">
-        <v>91</v>
+        <v>460</v>
       </c>
       <c r="Q70" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43961</v>
+        <v>43971</v>
       </c>
       <c r="D71" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
       </c>
-      <c r="F71"/>
+      <c r="F71" t="s">
+        <v>465</v>
+      </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H71" t="n">
-        <v>186183</v>
+        <v>196881</v>
       </c>
       <c r="I71" t="n">
-        <v>31.824</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
+        <v>28.934</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6198</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.911</v>
+      </c>
       <c r="L71" t="n">
-        <v>9433</v>
+        <v>5754</v>
       </c>
       <c r="M71" t="n">
-        <v>1.612</v>
+        <v>0.846</v>
       </c>
       <c r="N71" t="s">
         <v>41</v>
       </c>
       <c r="O71" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43961</v>
+        <v>43969</v>
       </c>
       <c r="D72" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E72" t="s">
         <v>41</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H72" t="n">
-        <v>246254</v>
+        <v>191260</v>
       </c>
       <c r="I72" t="n">
-        <v>42.092</v>
+        <v>32.692</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>10739</v>
+        <v>635</v>
       </c>
       <c r="M72" t="n">
-        <v>1.836</v>
+        <v>0.109</v>
       </c>
       <c r="N72" t="s">
         <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="P72" t="s">
-        <v>466</v>
+        <v>92</v>
       </c>
       <c r="Q72" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="D73" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E73" t="s">
-        <v>470</v>
+        <v>41</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>145474</v>
+        <v>294414</v>
       </c>
       <c r="I73" t="n">
-        <v>26.645</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.374</v>
-      </c>
+        <v>50.324</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73" t="n">
-        <v>3252</v>
+        <v>6020</v>
       </c>
       <c r="M73" t="n">
-        <v>0.596</v>
+        <v>1.029</v>
       </c>
       <c r="N73" t="s">
+        <v>41</v>
+      </c>
+      <c r="O73" t="s">
         <v>471</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q73" t="s">
         <v>472</v>
-      </c>
-      <c r="P73" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H74" t="n">
-        <v>70970</v>
+        <v>148845</v>
       </c>
       <c r="I74" t="n">
-        <v>34.138</v>
+        <v>27.263</v>
       </c>
       <c r="J74" t="n">
-        <v>1128</v>
+        <v>3371</v>
       </c>
       <c r="K74" t="n">
-        <v>0.543</v>
+        <v>0.617</v>
       </c>
       <c r="L74" t="n">
-        <v>918</v>
+        <v>3116</v>
       </c>
       <c r="M74" t="n">
-        <v>0.442</v>
+        <v>0.571</v>
       </c>
       <c r="N74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O74" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P74" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="Q74" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D75" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E75" t="s">
-        <v>485</v>
-      </c>
-      <c r="F75" t="s">
-        <v>486</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H75" t="n">
-        <v>475071</v>
+        <v>71951</v>
       </c>
       <c r="I75" t="n">
-        <v>8.01</v>
+        <v>34.61</v>
       </c>
       <c r="J75" t="n">
-        <v>14198</v>
+        <v>981</v>
       </c>
       <c r="K75" t="n">
-        <v>0.239</v>
+        <v>0.472</v>
       </c>
       <c r="L75" t="n">
-        <v>17001</v>
+        <v>894</v>
       </c>
       <c r="M75" t="n">
-        <v>0.287</v>
+        <v>0.43</v>
       </c>
       <c r="N75" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="O75" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P75" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q75" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E76" t="s">
-        <v>492</v>
-      </c>
-      <c r="F76"/>
+        <v>494</v>
+      </c>
+      <c r="F76" t="s">
+        <v>495</v>
+      </c>
       <c r="G76" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H76" t="n">
-        <v>765574</v>
+        <v>488609</v>
       </c>
       <c r="I76" t="n">
-        <v>14.932</v>
+        <v>8.238</v>
       </c>
       <c r="J76" t="n">
-        <v>12363</v>
+        <v>13538</v>
       </c>
       <c r="K76" t="n">
-        <v>0.241</v>
+        <v>0.228</v>
       </c>
       <c r="L76" t="n">
-        <v>12098</v>
+        <v>16987</v>
       </c>
       <c r="M76" t="n">
-        <v>0.236</v>
+        <v>0.286</v>
       </c>
       <c r="N76" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O76" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P76" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q76" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43965</v>
+        <v>43971</v>
       </c>
       <c r="D77" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E77" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="H77" t="n">
-        <v>1919411</v>
+        <v>776433</v>
       </c>
       <c r="I77" t="n">
-        <v>41.053</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
+        <v>15.144</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10859</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.212</v>
+      </c>
       <c r="L77" t="n">
-        <v>42029</v>
+        <v>11502</v>
       </c>
       <c r="M77" t="n">
-        <v>0.899</v>
+        <v>0.224</v>
       </c>
       <c r="N77" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O77" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P77" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="Q77" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="D78" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E78" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>209900</v>
+        <v>1919411</v>
       </c>
       <c r="I78" t="n">
-        <v>20.784</v>
+        <v>41.053</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>4671</v>
+        <v>42029</v>
       </c>
       <c r="M78" t="n">
-        <v>0.463</v>
+        <v>0.899</v>
       </c>
       <c r="N78" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="O78" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P78" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q78" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="D79" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E79" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>350091</v>
+        <v>209900</v>
       </c>
       <c r="I79" t="n">
-        <v>40.451</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2544</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.294</v>
-      </c>
+        <v>20.784</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79"/>
       <c r="L79" t="n">
-        <v>4374</v>
+        <v>4671</v>
       </c>
       <c r="M79" t="n">
-        <v>0.505</v>
+        <v>0.463</v>
       </c>
       <c r="N79" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O79" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P79" t="s">
-        <v>511</v>
+        <v>92</v>
       </c>
       <c r="Q79" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D80" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E80" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H80" t="n">
-        <v>69657</v>
+        <v>355386</v>
       </c>
       <c r="I80" t="n">
-        <v>2.925</v>
+        <v>41.063</v>
       </c>
       <c r="J80" t="n">
-        <v>262</v>
+        <v>3721</v>
       </c>
       <c r="K80" t="n">
-        <v>0.011</v>
+        <v>0.43</v>
       </c>
       <c r="L80" t="n">
-        <v>271</v>
+        <v>4334</v>
       </c>
       <c r="M80" t="n">
-        <v>0.011</v>
+        <v>0.501</v>
       </c>
       <c r="N80" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P80" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q80" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D81" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E81" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H81" t="n">
-        <v>127108</v>
+        <v>69876</v>
       </c>
       <c r="I81" t="n">
-        <v>1.821</v>
+        <v>2.934</v>
       </c>
       <c r="J81" t="n">
-        <v>4016</v>
+        <v>219</v>
       </c>
       <c r="K81" t="n">
-        <v>0.058</v>
+        <v>0.009</v>
       </c>
       <c r="L81" t="n">
-        <v>3321</v>
+        <v>253</v>
       </c>
       <c r="M81" t="n">
-        <v>0.048</v>
+        <v>0.011</v>
       </c>
       <c r="N81" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O81" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P81" t="s">
-        <v>91</v>
+        <v>527</v>
       </c>
       <c r="Q81" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="D82" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E82" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H82" t="n">
-        <v>286008</v>
+        <v>127108</v>
       </c>
       <c r="I82" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="J82"/>
-      <c r="K82"/>
+        <v>1.821</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4016</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.058</v>
+      </c>
       <c r="L82" t="n">
-        <v>8307</v>
+        <v>3321</v>
       </c>
       <c r="M82" t="n">
-        <v>0.119</v>
+        <v>0.048</v>
       </c>
       <c r="N82" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="O82" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P82" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="Q82" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43968</v>
+        <v>43959</v>
       </c>
       <c r="D83" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E83" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>41620</v>
+        <v>286008</v>
       </c>
       <c r="I83" t="n">
-        <v>3.522</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1061</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.09</v>
-      </c>
+        <v>4.098</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
       <c r="L83" t="n">
-        <v>1193</v>
+        <v>8307</v>
       </c>
       <c r="M83" t="n">
-        <v>0.101</v>
+        <v>0.119</v>
       </c>
       <c r="N83" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="O83" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P83" t="s">
-        <v>537</v>
+        <v>51</v>
       </c>
       <c r="Q83" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="D84" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E84" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H84" t="n">
-        <v>1675517</v>
+        <v>42489</v>
       </c>
       <c r="I84" t="n">
-        <v>19.866</v>
+        <v>3.595</v>
       </c>
       <c r="J84" t="n">
-        <v>25382</v>
+        <v>869</v>
       </c>
       <c r="K84" t="n">
-        <v>0.301</v>
+        <v>0.074</v>
       </c>
       <c r="L84" t="n">
-        <v>33549</v>
+        <v>1230</v>
       </c>
       <c r="M84" t="n">
-        <v>0.398</v>
+        <v>0.104</v>
       </c>
       <c r="N84" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O84" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="P84" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Q84" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D85" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
-        <v>549</v>
-      </c>
-      <c r="F85" t="s">
-        <v>550</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="F85"/>
       <c r="G85" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H85" t="n">
-        <v>74098</v>
+        <v>1696355</v>
       </c>
       <c r="I85" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>20.114</v>
+      </c>
+      <c r="J85" t="n">
+        <v>20838</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.247</v>
+      </c>
       <c r="L85" t="n">
-        <v>1662</v>
+        <v>31765</v>
       </c>
       <c r="M85" t="n">
-        <v>0.036</v>
+        <v>0.377</v>
       </c>
       <c r="N85" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O85" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P85" t="s">
-        <v>51</v>
+        <v>553</v>
       </c>
       <c r="Q85" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D86" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E86" t="s">
-        <v>556</v>
-      </c>
-      <c r="F86"/>
+        <v>558</v>
+      </c>
+      <c r="F86" t="s">
+        <v>559</v>
+      </c>
       <c r="G86" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H86" t="n">
-        <v>239961</v>
+        <v>76326</v>
       </c>
       <c r="I86" t="n">
-        <v>5.487</v>
+        <v>1.669</v>
       </c>
       <c r="J86" t="n">
-        <v>7062</v>
+        <v>2228</v>
       </c>
       <c r="K86" t="n">
-        <v>0.161</v>
+        <v>0.049</v>
       </c>
       <c r="L86" t="n">
-        <v>7522</v>
+        <v>1736</v>
       </c>
       <c r="M86" t="n">
-        <v>0.172</v>
+        <v>0.038</v>
       </c>
       <c r="N86" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="O86" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P86" t="s">
-        <v>558</v>
+        <v>51</v>
       </c>
       <c r="Q86" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D87" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E87" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H87" t="n">
-        <v>1887051</v>
+        <v>248529</v>
       </c>
       <c r="I87" t="n">
-        <v>27.797</v>
+        <v>5.683</v>
       </c>
       <c r="J87" t="n">
-        <v>67409</v>
+        <v>8568</v>
       </c>
       <c r="K87" t="n">
-        <v>0.993</v>
+        <v>0.196</v>
       </c>
       <c r="L87" t="n">
-        <v>69563</v>
+        <v>8040</v>
       </c>
       <c r="M87" t="n">
-        <v>1.025</v>
+        <v>0.184</v>
       </c>
       <c r="N87" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O87" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P87" t="s">
-        <v>91</v>
+        <v>567</v>
       </c>
       <c r="Q87" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D88" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E88" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="H88" t="n">
-        <v>2772552</v>
+        <v>1996648</v>
       </c>
       <c r="I88" t="n">
-        <v>40.841</v>
+        <v>29.412</v>
       </c>
       <c r="J88" t="n">
-        <v>89784</v>
+        <v>60744</v>
       </c>
       <c r="K88" t="n">
-        <v>1.323</v>
+        <v>0.895</v>
       </c>
       <c r="L88" t="n">
-        <v>109344</v>
+        <v>67770</v>
       </c>
       <c r="M88" t="n">
-        <v>1.611</v>
+        <v>0.998</v>
       </c>
       <c r="N88" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="O88" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P88" t="s">
-        <v>568</v>
+        <v>92</v>
       </c>
       <c r="Q88" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D89" t="s">
+        <v>576</v>
+      </c>
+      <c r="E89" t="s">
         <v>572</v>
-      </c>
-      <c r="E89" t="s">
-        <v>573</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H89" t="n">
-        <v>11834508</v>
+        <v>2962227</v>
       </c>
       <c r="I89" t="n">
-        <v>35.754</v>
+        <v>43.635</v>
       </c>
       <c r="J89" t="n">
-        <v>338020</v>
+        <v>177216</v>
       </c>
       <c r="K89" t="n">
-        <v>1.021</v>
+        <v>2.61</v>
       </c>
       <c r="L89" t="n">
-        <v>352746</v>
+        <v>124003</v>
       </c>
       <c r="M89" t="n">
-        <v>1.066</v>
+        <v>1.827</v>
       </c>
       <c r="N89" t="s">
+        <v>572</v>
+      </c>
+      <c r="O89" t="s">
         <v>573</v>
       </c>
-      <c r="O89" t="s">
-        <v>574</v>
-      </c>
       <c r="P89" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q89" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B90" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="E90" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="H90" t="n">
-        <v>11282781</v>
+        <v>12233987</v>
       </c>
       <c r="I90" t="n">
-        <v>34.087</v>
+        <v>36.96</v>
       </c>
       <c r="J90" t="n">
-        <v>435003</v>
+        <v>399479</v>
       </c>
       <c r="K90" t="n">
-        <v>1.314</v>
-      </c>
-      <c r="L90"/>
-      <c r="M90"/>
+        <v>1.207</v>
+      </c>
+      <c r="L90" t="n">
+        <v>366278</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.107</v>
+      </c>
       <c r="N90" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O90" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P90" t="s">
-        <v>22</v>
+        <v>584</v>
       </c>
       <c r="Q90" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D91" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E91" t="s">
-        <v>123</v>
+        <v>588</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>34384</v>
+        <v>12601143</v>
       </c>
       <c r="I91" t="n">
-        <v>9.898</v>
+        <v>38.07</v>
       </c>
       <c r="J91" t="n">
-        <v>523</v>
+        <v>1318362</v>
       </c>
       <c r="K91" t="n">
-        <v>0.151</v>
+        <v>3.983</v>
       </c>
       <c r="L91" t="n">
-        <v>755</v>
+        <v>410895</v>
       </c>
       <c r="M91" t="n">
-        <v>0.217</v>
+        <v>1.241</v>
       </c>
       <c r="N91" t="s">
-        <v>123</v>
+        <v>588</v>
       </c>
       <c r="O91" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P91" t="s">
         <v>22</v>
       </c>
       <c r="Q91" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B92" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>43950</v>
+        <v>43971</v>
       </c>
       <c r="D92" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E92" t="s">
-        <v>589</v>
+        <v>124</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H92" t="n">
-        <v>261004</v>
+        <v>34794</v>
       </c>
       <c r="I92" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>10.016</v>
+      </c>
+      <c r="J92" t="n">
+        <v>410</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.118</v>
+      </c>
       <c r="L92" t="n">
-        <v>10906</v>
+        <v>756</v>
       </c>
       <c r="M92" t="n">
-        <v>0.112</v>
+        <v>0.218</v>
       </c>
       <c r="N92" t="s">
-        <v>589</v>
+        <v>124</v>
       </c>
       <c r="O92" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P92" t="s">
-        <v>591</v>
+        <v>22</v>
       </c>
       <c r="Q92" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B93" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>43969</v>
+        <v>43950</v>
       </c>
       <c r="D93" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E93" t="s">
-        <v>596</v>
-      </c>
-      <c r="F93" t="s">
-        <v>597</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="F93"/>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H93" t="n">
-        <v>13104</v>
+        <v>261004</v>
       </c>
       <c r="I93" t="n">
-        <v>0.882</v>
-      </c>
-      <c r="J93" t="n">
-        <v>540</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.036</v>
-      </c>
+        <v>2.681</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
       <c r="L93" t="n">
-        <v>358</v>
+        <v>10906</v>
       </c>
       <c r="M93" t="n">
-        <v>0.024</v>
+        <v>0.112</v>
       </c>
       <c r="N93" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="O93" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P93" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>603</v>
+      </c>
+      <c r="B94" t="s">
+        <v>604</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D94" t="s">
+        <v>605</v>
+      </c>
+      <c r="E94" t="s">
+        <v>606</v>
+      </c>
+      <c r="F94" t="s">
+        <v>607</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13</v>
+      </c>
+      <c r="H94" t="n">
+        <v>14175</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1071</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L94" t="n">
+        <v>445</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N94" t="s">
+        <v>606</v>
+      </c>
+      <c r="O94" t="s">
+        <v>608</v>
+      </c>
+      <c r="P94" t="s">
         <v>22</v>
       </c>
-      <c r="Q93" t="s">
-        <v>599</v>
+      <c r="Q94" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/20-05-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/22-05-20_reporte_matutino_covid_19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-20-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-22-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522161914/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520201058/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522192126/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-20-maya-vypisany-11-tys-415-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-22-maya-vyzdoroveli-i-vypisany-12-tys-833-patsienta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181654/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522161923/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181655/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522161925/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181701/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522161941/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -449,13 +449,10 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520152818/https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200522171325/https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Statens Serum Institut no longer publishes daily epidemiological monitoring reports in pdf format.</t>
   </si>
   <si>
     <t xml:space="preserve">Danish Health Authority</t>
@@ -478,7 +475,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-19052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-22052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -505,7 +502,7 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/2910958428990329</t>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/2915690758517096</t>
   </si>
   <si>
     <t xml:space="preserve">Government of El Salvador</t>
@@ -549,7 +546,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-20-Eng-V2.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-22-Eng-V1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -605,7 +602,7 @@
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
   </si>
   <si>
-    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update with testing figures, as of 16th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate. The most recent epidemiological report, dated 14th May, does not provide the number of laboratory and hospital tests performed.
+    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update with testing figures, as of 16th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate. The epidemiological report, dated 14th May, does not provide the number of laboratory and hospital tests performed. The most recent report, [dated 21st May](https://www.santepubliquefrance.fr/content/download/254170/2609369), specifies a new screening information system (SI-DEP) has been deployed from week 20 (11-17 May) and that epidemiological trends and test positivity rates will be available from 28th May.  
 The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
   </si>
   <si>
@@ -688,7 +685,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200520/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200521/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -823,7 +820,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200519130712/http://irangov.ir/detail/339563</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200522183815/http://irangov.ir/detail/339710</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -922,13 +919,13 @@
     <t xml:space="preserve">Japan - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11417.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11462.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'.</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'. Daily change figure provided for this date is not consistent with the cumulative totals for today and the previous day.</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
@@ -946,15 +943,15 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000632206.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000632897.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release now matches the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
   </si>
   <si>
     <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
-From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures. The source does not provide additional details about this discrepancy.
+From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. The cumulative total reported in the press releases for 20/21 May did not sum to the cumulative total calculated from the weekly and daily figures. The source does not provide additional details about this discrepancy. From 22nd May, the cumulative total reported in the press release matches the cumulative total calculated from weekly and daily figures.
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
@@ -981,7 +978,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-20-2020-15.32.51.pdf</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1263806811481800704</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1022,7 +1019,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181946/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162056/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1038,7 +1035,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181951/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162059/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1082,13 +1079,13 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/561317043971945/videos/717317629028998/</t>
+    <t xml:space="preserve">https://www.facebook.com/561317043971945/videos/663407067832877/</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Numbers visible in video at time: 1:47</t>
+    <t xml:space="preserve">Numbers visible in video at time: 1:40</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Ministry of Health Official Facebook page</t>
@@ -1152,6 +1149,9 @@
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
+    <t xml:space="preserve">This figure is taken from the interactive dashboard and should be updated once the daily PDF situation report becomes available</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
@@ -1188,10 +1188,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200520_1022.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 20 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200522_1041.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 22 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1227,7 +1227,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182800/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162640/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.20-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.22-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1272,7 +1272,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182803/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162646/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1311,13 +1311,7 @@
     <t xml:space="preserve">Paraguay - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/torresmateo/covidpy-rest/blob/master/data/covidpy.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Public Health and Social Welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available on Github by Mateo Torres</t>
+    <t xml:space="preserve">https://www.mspbs.gov.py/reporte-covid19.html</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1327,8 +1321,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare provides press releases of the daily number of samples tested, alongside the number of these samples that tested positive. It is unclear whether these figures include samples for which the results are still pending.
-We construct a time series of the daily number of samples tested using the data stored in [this unofficial GitHub repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
-It is possible that the figures are equivalent to the number of people tested, since the number of positive samples reported tend to be equal to the daily number of confirmed cases that the ministry reports. However, since the ministry uses the language "samples taken" ("muestras tomadas") in its press releases, we interpret the units as "sample tested" rather than "people tested".
 The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
   </si>
   <si>
@@ -1338,7 +1330,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/159364-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-104-020-en-el-peru-comunicado-n-106</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/162379-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-108-769-en-el-peru-comunicado-n-107</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1374,7 +1366,7 @@
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
 The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
-No newly submitted reports as of 19 May. Latest testing data available is from 15 May 2020.</t>
+No newly submitted reports as of 21 May. Latest testing data available is from 15 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1383,7 +1375,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.20.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.22.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1428,7 +1420,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520160417/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200522174802/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1466,7 +1458,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14493</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14517</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1486,7 +1478,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262821068852559872</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1263886723282546690</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1508,10 +1500,10 @@
     <t xml:space="preserve">Saudi Arabia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520160733/https://covid19.moh.gov.sa/en/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was no update of Saudi Arabia's testing figures on 21st May</t>
   </si>
   <si>
     <t xml:space="preserve">The Saudi Arabian Ministry of Health provides a dashboard detailing the total number of tests. Whether units refer to people or tests conducted is unclear.
@@ -1596,7 +1588,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182823/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162657/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1670,7 +1662,7 @@
     <t xml:space="preserve">South Korea - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367275&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367309&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1753,7 +1745,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EhkjYaEtGkRUo_mQC0WhPQ?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/_JH3cztOCLyrjf4oMVCvdw?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1776,7 +1768,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182134/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162756/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1797,7 +1789,7 @@
     <t xml:space="preserve">Thailand - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-05-12-tha-sitrep-79-covid-19-final.pdf?sfvrsn=31ce1b98_0</t>
+    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-05-20-tha-sitrep-83-covid19-final.pdf?sfvrsn=d0d17a9d_0</t>
   </si>
   <si>
     <t xml:space="preserve">World Health Organization Country Office for Thailand</t>
@@ -1843,7 +1835,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183008/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522192516/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1867,7 +1859,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-18/</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1263561752576434178</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1891,7 +1883,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183010/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162804/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1913,7 +1905,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183012/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162805/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1936,7 +1928,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183013/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200522162807/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -2004,7 +1996,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-30</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-32</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2043,7 +2035,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262803418894270470</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1263530167055630344</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2456,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2466,21 +2458,21 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>112370</v>
+        <v>121278</v>
       </c>
       <c r="I2" t="n">
-        <v>2.486</v>
+        <v>2.683</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>3128</v>
+        <v>3484</v>
       </c>
       <c r="M2" t="n">
-        <v>0.069</v>
+        <v>0.077</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -2503,7 +2495,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2513,25 +2505,25 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>1111567</v>
+        <v>1170682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.591</v>
+        <v>45.909</v>
       </c>
       <c r="J3" t="n">
-        <v>25697</v>
+        <v>32998</v>
       </c>
       <c r="K3" t="n">
-        <v>1.008</v>
+        <v>1.294</v>
       </c>
       <c r="L3" t="n">
-        <v>28935</v>
+        <v>26695</v>
       </c>
       <c r="M3" t="n">
-        <v>1.135</v>
+        <v>1.047</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -2554,7 +2546,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2564,25 +2556,21 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>379592</v>
+        <v>390488</v>
       </c>
       <c r="I4" t="n">
-        <v>42.147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7157</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.795</v>
-      </c>
+        <v>43.357</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4" t="n">
-        <v>6191</v>
+        <v>5591</v>
       </c>
       <c r="M4" t="n">
-        <v>0.687</v>
+        <v>0.621</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -2605,7 +2593,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -2615,25 +2603,21 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" t="n">
-        <v>255633</v>
+        <v>269179</v>
       </c>
       <c r="I5" t="n">
-        <v>150.232</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7428</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.365</v>
-      </c>
+        <v>158.193</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="n">
-        <v>7152</v>
+        <v>6662</v>
       </c>
       <c r="M5" t="n">
-        <v>4.203</v>
+        <v>3.915</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -2656,7 +2640,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43970</v>
+        <v>43973</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -2666,25 +2650,25 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
-        <v>193645</v>
+        <v>223841</v>
       </c>
       <c r="I6" t="n">
-        <v>1.176</v>
+        <v>1.359</v>
       </c>
       <c r="J6" t="n">
-        <v>8449</v>
+        <v>9727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.051</v>
+        <v>0.059</v>
       </c>
       <c r="L6" t="n">
-        <v>8144</v>
+        <v>9047</v>
       </c>
       <c r="M6" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
@@ -2707,7 +2691,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -2717,21 +2701,21 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>387673</v>
+        <v>419004</v>
       </c>
       <c r="I7" t="n">
-        <v>41.027</v>
+        <v>44.342</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>13042</v>
+        <v>13818</v>
       </c>
       <c r="M7" t="n">
-        <v>1.38</v>
+        <v>1.462</v>
       </c>
       <c r="N7" t="s">
         <v>56</v>
@@ -2754,7 +2738,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -2764,25 +2748,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>585806</v>
+        <v>611701</v>
       </c>
       <c r="I8" t="n">
-        <v>50.546</v>
+        <v>52.78</v>
       </c>
       <c r="J8" t="n">
-        <v>5853</v>
+        <v>12782</v>
       </c>
       <c r="K8" t="n">
-        <v>0.505</v>
+        <v>1.103</v>
       </c>
       <c r="L8" t="n">
-        <v>13406</v>
+        <v>12134</v>
       </c>
       <c r="M8" t="n">
-        <v>1.157</v>
+        <v>1.047</v>
       </c>
       <c r="N8" t="s">
         <v>62</v>
@@ -2805,7 +2789,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -2817,25 +2801,25 @@
         <v>69</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H9" t="n">
-        <v>10567</v>
+        <v>11273</v>
       </c>
       <c r="I9" t="n">
-        <v>0.905</v>
+        <v>0.966</v>
       </c>
       <c r="J9" t="n">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="K9" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="L9" t="n">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="N9" t="s">
         <v>41</v>
@@ -2905,7 +2889,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D11" t="s">
         <v>82</v>
@@ -2915,25 +2899,21 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>68243</v>
+        <v>71605</v>
       </c>
       <c r="I11" t="n">
-        <v>9.821</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1433</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.206</v>
-      </c>
+        <v>10.305</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>1163</v>
+        <v>1184</v>
       </c>
       <c r="M11" t="n">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="N11" t="s">
         <v>84</v>
@@ -2956,7 +2936,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
@@ -2966,25 +2946,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="n">
-        <v>1372929</v>
+        <v>1401564</v>
       </c>
       <c r="I12" t="n">
-        <v>36.377</v>
+        <v>37.135</v>
       </c>
       <c r="J12" t="n">
-        <v>35962</v>
+        <v>26514</v>
       </c>
       <c r="K12" t="n">
-        <v>0.953</v>
+        <v>0.703</v>
       </c>
       <c r="L12" t="n">
-        <v>29078</v>
+        <v>24093</v>
       </c>
       <c r="M12" t="n">
-        <v>0.77</v>
+        <v>0.638</v>
       </c>
       <c r="N12" t="s">
         <v>90</v>
@@ -3007,7 +2987,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D13" t="s">
         <v>96</v>
@@ -3019,25 +2999,25 @@
         <v>97</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="n">
-        <v>409669</v>
+        <v>442093</v>
       </c>
       <c r="I13" t="n">
-        <v>21.43</v>
+        <v>23.127</v>
       </c>
       <c r="J13" t="n">
-        <v>12469</v>
+        <v>16090</v>
       </c>
       <c r="K13" t="n">
-        <v>0.652</v>
+        <v>0.842</v>
       </c>
       <c r="L13" t="n">
-        <v>13703</v>
+        <v>14369</v>
       </c>
       <c r="M13" t="n">
-        <v>0.717</v>
+        <v>0.752</v>
       </c>
       <c r="N13" t="s">
         <v>98</v>
@@ -3060,7 +3040,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43968</v>
+        <v>43972</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -3070,25 +3050,25 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" t="n">
-        <v>196417</v>
+        <v>222210</v>
       </c>
       <c r="I14" t="n">
-        <v>3.86</v>
+        <v>4.367</v>
       </c>
       <c r="J14" t="n">
-        <v>6303</v>
+        <v>7674</v>
       </c>
       <c r="K14" t="n">
-        <v>0.124</v>
+        <v>0.151</v>
       </c>
       <c r="L14" t="n">
-        <v>6432</v>
+        <v>6451</v>
       </c>
       <c r="M14" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="N14" t="s">
         <v>104</v>
@@ -3111,7 +3091,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -3121,25 +3101,25 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" t="n">
-        <v>15050</v>
+        <v>15704</v>
       </c>
       <c r="I15" t="n">
-        <v>2.954</v>
+        <v>3.083</v>
       </c>
       <c r="J15" t="n">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="K15" t="n">
-        <v>0.085</v>
+        <v>0.095</v>
       </c>
       <c r="L15" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="M15" t="n">
-        <v>0.071</v>
+        <v>0.075</v>
       </c>
       <c r="N15" t="s">
         <v>111</v>
@@ -3162,7 +3142,7 @@
         <v>115</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D16" t="s">
         <v>116</v>
@@ -3172,25 +3152,21 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="n">
-        <v>57021</v>
+        <v>59911</v>
       </c>
       <c r="I16" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1221</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.297</v>
-      </c>
+        <v>14.594</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
       <c r="L16" t="n">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="M16" t="n">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
       <c r="N16" t="s">
         <v>117</v>
@@ -3213,7 +3189,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
@@ -3225,25 +3201,25 @@
         <v>125</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" t="n">
-        <v>87288</v>
+        <v>90911</v>
       </c>
       <c r="I17" t="n">
-        <v>7.706</v>
+        <v>8.026</v>
       </c>
       <c r="J17" t="n">
-        <v>1732</v>
+        <v>1880</v>
       </c>
       <c r="K17" t="n">
-        <v>0.153</v>
+        <v>0.166</v>
       </c>
       <c r="L17" t="n">
-        <v>2023</v>
+        <v>1934</v>
       </c>
       <c r="M17" t="n">
-        <v>0.179</v>
+        <v>0.171</v>
       </c>
       <c r="N17" t="s">
         <v>124</v>
@@ -3266,7 +3242,7 @@
         <v>129</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="D18" t="s">
         <v>130</v>
@@ -3276,25 +3252,25 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
-        <v>372341</v>
+        <v>387127</v>
       </c>
       <c r="I18" t="n">
-        <v>34.769</v>
+        <v>36.15</v>
       </c>
       <c r="J18" t="n">
-        <v>8223</v>
+        <v>7149</v>
       </c>
       <c r="K18" t="n">
-        <v>0.768</v>
+        <v>0.668</v>
       </c>
       <c r="L18" t="n">
-        <v>6379</v>
+        <v>6409</v>
       </c>
       <c r="M18" t="n">
-        <v>0.596</v>
+        <v>0.598</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
@@ -3317,7 +3293,7 @@
         <v>134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D19" t="s">
         <v>135</v>
@@ -3325,314 +3301,308 @@
       <c r="E19" t="s">
         <v>136</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>65</v>
+      </c>
+      <c r="H19" t="n">
+        <v>433971</v>
+      </c>
+      <c r="I19" t="n">
+        <v>74.923</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8870</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9297</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="N19" t="s">
         <v>137</v>
       </c>
-      <c r="G19" t="n">
-        <v>63</v>
-      </c>
-      <c r="H19" t="n">
-        <v>412051</v>
-      </c>
-      <c r="I19" t="n">
-        <v>71.139</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9857</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.702</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9477</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.636</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>138</v>
-      </c>
-      <c r="O19" t="s">
-        <v>139</v>
       </c>
       <c r="P19" t="s">
         <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>144</v>
       </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
       <c r="G20" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H20" t="n">
-        <v>53813</v>
+        <v>59535</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.374</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>1375</v>
+        <v>1665</v>
       </c>
       <c r="M20" t="n">
-        <v>0.078</v>
+        <v>0.094</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" t="s">
         <v>146</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D21" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>151</v>
-      </c>
-      <c r="E21" t="s">
-        <v>152</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" t="n">
-        <v>62838</v>
+        <v>67663</v>
       </c>
       <c r="I21" t="n">
-        <v>9.688</v>
+        <v>10.432</v>
       </c>
       <c r="J21" t="n">
-        <v>2497</v>
+        <v>2437</v>
       </c>
       <c r="K21" t="n">
-        <v>0.385</v>
+        <v>0.376</v>
       </c>
       <c r="L21" t="n">
-        <v>2287</v>
+        <v>2360</v>
       </c>
       <c r="M21" t="n">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="N21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
         <v>152</v>
-      </c>
-      <c r="O21" t="s">
-        <v>153</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D22" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>158</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" t="n">
-        <v>72465</v>
+        <v>74605</v>
       </c>
       <c r="I22" t="n">
-        <v>54.627</v>
+        <v>56.24</v>
       </c>
       <c r="J22" t="n">
-        <v>1028</v>
+        <v>881</v>
       </c>
       <c r="K22" t="n">
-        <v>0.775</v>
+        <v>0.664</v>
       </c>
       <c r="L22" t="n">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="M22" t="n">
-        <v>0.688</v>
+        <v>0.703</v>
       </c>
       <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
         <v>159</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>160</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>161</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
         <v>163</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>165</v>
-      </c>
-      <c r="E23" t="s">
-        <v>166</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" t="n">
-        <v>65760</v>
+        <v>73164</v>
       </c>
       <c r="I23" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3460</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.03</v>
-      </c>
+        <v>0.636</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23" t="n">
-        <v>3439</v>
+        <v>3493</v>
       </c>
       <c r="M23" t="n">
         <v>0.03</v>
       </c>
       <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
         <v>166</v>
-      </c>
-      <c r="O23" t="s">
-        <v>167</v>
       </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D24" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>171</v>
-      </c>
-      <c r="E24" t="s">
-        <v>172</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>156206</v>
+        <v>162217</v>
       </c>
       <c r="I24" t="n">
-        <v>28.192</v>
+        <v>29.277</v>
       </c>
       <c r="J24" t="n">
-        <v>1403</v>
+        <v>2996</v>
       </c>
       <c r="K24" t="n">
-        <v>0.253</v>
+        <v>0.541</v>
       </c>
       <c r="L24" t="n">
-        <v>2877</v>
+        <v>3197</v>
       </c>
       <c r="M24" t="n">
-        <v>0.519</v>
+        <v>0.577</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P24" t="s">
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>176</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
         <v>177</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>179</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3652,36 +3622,36 @@
         <v>0.233</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
         <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>43961</v>
       </c>
       <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
         <v>184</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>186</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -3701,344 +3671,340 @@
         <v>0.652</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" t="s">
         <v>187</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
         <v>190</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>192</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" t="n">
+        <v>191213</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.154</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4265</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3358</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N27" t="s">
         <v>194</v>
       </c>
-      <c r="G27" t="n">
-        <v>18</v>
-      </c>
-      <c r="H27" t="n">
-        <v>183362</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3166</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>195</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>196</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>197</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>200</v>
-      </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>184343</v>
+        <v>192194</v>
       </c>
       <c r="I28" t="n">
-        <v>5.933</v>
+        <v>6.185</v>
       </c>
       <c r="J28" t="n">
-        <v>3776</v>
+        <v>4265</v>
       </c>
       <c r="K28" t="n">
-        <v>0.122</v>
+        <v>0.137</v>
       </c>
       <c r="L28" t="n">
-        <v>3166</v>
+        <v>3358</v>
       </c>
       <c r="M28" t="n">
-        <v>0.102</v>
+        <v>0.108</v>
       </c>
       <c r="N28" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s">
         <v>195</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>196</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>197</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
         <v>201</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D29" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>204</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" t="n">
-        <v>139445</v>
+        <v>144078</v>
       </c>
       <c r="I29" t="n">
-        <v>13.379</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3444</v>
-      </c>
-      <c r="K29" t="n">
+        <v>13.823</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="n">
+        <v>3438</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.33</v>
       </c>
-      <c r="L29" t="n">
-        <v>3915</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.376</v>
-      </c>
       <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
         <v>205</v>
-      </c>
-      <c r="O29" t="s">
-        <v>206</v>
       </c>
       <c r="P29" t="s">
         <v>92</v>
       </c>
       <c r="Q29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
         <v>208</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D30" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>210</v>
-      </c>
-      <c r="E30" t="s">
-        <v>211</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
         <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>183491</v>
+        <v>202930</v>
       </c>
       <c r="I30" t="n">
-        <v>24.475</v>
+        <v>27.068</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>1953</v>
+        <v>2257</v>
       </c>
       <c r="M30" t="n">
-        <v>0.261</v>
+        <v>0.301</v>
       </c>
       <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
         <v>212</v>
-      </c>
-      <c r="O30" t="s">
-        <v>213</v>
       </c>
       <c r="P30" t="s">
         <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
         <v>215</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D31" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>217</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>218</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="n">
+        <v>78</v>
+      </c>
+      <c r="H31" t="n">
+        <v>155801</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16.128</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8290</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4081</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
         <v>219</v>
       </c>
-      <c r="G31" t="n">
-        <v>76</v>
-      </c>
-      <c r="H31" t="n">
-        <v>142729</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.775</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4032</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3461</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="N31" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>220</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" t="s">
         <v>223</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D32" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>225</v>
-      </c>
-      <c r="E32" t="s">
-        <v>226</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="n">
-        <v>57587</v>
+        <v>58184</v>
       </c>
       <c r="I32" t="n">
-        <v>168.753</v>
+        <v>170.503</v>
       </c>
       <c r="J32" t="n">
-        <v>441</v>
+        <v>597</v>
       </c>
       <c r="K32" t="n">
-        <v>1.292</v>
+        <v>1.749</v>
       </c>
       <c r="L32" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.087</v>
       </c>
       <c r="N32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="s">
         <v>226</v>
       </c>
-      <c r="O32" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
         <v>229</v>
-      </c>
-      <c r="B33" t="s">
-        <v>230</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s">
         <v>231</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>232</v>
-      </c>
-      <c r="F33" t="s">
-        <v>233</v>
       </c>
       <c r="G33" t="n">
         <v>24</v>
@@ -4062,188 +4028,184 @@
         <v>0.021</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P33" t="s">
         <v>92</v>
       </c>
       <c r="Q33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
         <v>231</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>232</v>
       </c>
-      <c r="F34" t="s">
-        <v>233</v>
-      </c>
       <c r="G34" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" t="n">
-        <v>2512388</v>
+        <v>2615920</v>
       </c>
       <c r="I34" t="n">
-        <v>1.821</v>
+        <v>1.896</v>
       </c>
       <c r="J34" t="n">
-        <v>108121</v>
+        <v>103532</v>
       </c>
       <c r="K34" t="n">
-        <v>0.078</v>
+        <v>0.075</v>
       </c>
       <c r="L34" t="n">
-        <v>94020</v>
+        <v>95554</v>
       </c>
       <c r="M34" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D35" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>238</v>
-      </c>
-      <c r="E35" t="s">
-        <v>239</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H35" t="n">
-        <v>154139</v>
+        <v>168969</v>
       </c>
       <c r="I35" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.023</v>
-      </c>
+        <v>0.618</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35" t="n">
-        <v>4367</v>
+        <v>5273</v>
       </c>
       <c r="M35" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="N35" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" t="s">
         <v>239</v>
-      </c>
-      <c r="O35" t="s">
-        <v>240</v>
       </c>
       <c r="P35" t="s">
         <v>71</v>
       </c>
       <c r="Q35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
         <v>242</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D36" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>244</v>
-      </c>
-      <c r="E36" t="s">
-        <v>245</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H36" t="n">
-        <v>716176</v>
+        <v>763913</v>
       </c>
       <c r="I36" t="n">
-        <v>8.527</v>
+        <v>9.095</v>
       </c>
       <c r="J36" t="n">
-        <v>14536</v>
+        <v>17868</v>
       </c>
       <c r="K36" t="n">
-        <v>0.173</v>
+        <v>0.213</v>
       </c>
       <c r="L36" t="n">
-        <v>14386</v>
+        <v>15044</v>
       </c>
       <c r="M36" t="n">
-        <v>0.171</v>
+        <v>0.179</v>
       </c>
       <c r="N36" t="s">
+        <v>244</v>
+      </c>
+      <c r="O36" t="s">
         <v>245</v>
-      </c>
-      <c r="O36" t="s">
-        <v>246</v>
       </c>
       <c r="P36" t="s">
         <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" t="s">
         <v>248</v>
-      </c>
-      <c r="B37" t="s">
-        <v>249</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>43970</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
@@ -4264,36 +4226,36 @@
         <v>1.065</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O37" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" t="s">
         <v>251</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>252</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
         <v>254</v>
-      </c>
-      <c r="B38" t="s">
-        <v>255</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
         <v>256</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>258</v>
       </c>
       <c r="G38" t="n">
         <v>87</v>
@@ -4320,495 +4282,487 @@
         <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P38" t="s">
         <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
         <v>261</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D39" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>263</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>264</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="n">
+        <v>34</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2121847</v>
+      </c>
+      <c r="I39" t="n">
+        <v>35.094</v>
+      </c>
+      <c r="J39" t="n">
+        <v>42987</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37534</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="N39" t="s">
         <v>265</v>
       </c>
-      <c r="G39" t="n">
-        <v>32</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2038216</v>
-      </c>
-      <c r="I39" t="n">
-        <v>33.711</v>
-      </c>
-      <c r="J39" t="n">
-        <v>38617</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="L39" t="n">
-        <v>37038</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>266</v>
-      </c>
-      <c r="O39" t="s">
-        <v>267</v>
       </c>
       <c r="P39" t="s">
         <v>92</v>
       </c>
       <c r="Q39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D40" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" t="s">
         <v>263</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>264</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="n">
+        <v>89</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3318778</v>
+      </c>
+      <c r="I40" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="J40" t="n">
+        <v>75380</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="L40" t="n">
+        <v>63300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="N40" t="s">
         <v>265</v>
       </c>
-      <c r="G40" t="n">
-        <v>87</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3171719</v>
-      </c>
-      <c r="I40" t="n">
-        <v>52.458</v>
-      </c>
-      <c r="J40" t="n">
-        <v>67195</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.111</v>
-      </c>
-      <c r="L40" t="n">
-        <v>62299</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>266</v>
-      </c>
-      <c r="O40" t="s">
-        <v>267</v>
       </c>
       <c r="P40" t="s">
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
         <v>271</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D41" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>273</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>274</v>
       </c>
-      <c r="F41" t="s">
-        <v>275</v>
-      </c>
       <c r="G41" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H41" t="n">
-        <v>258277</v>
+        <v>265502</v>
       </c>
       <c r="I41" t="n">
-        <v>2.042</v>
+        <v>2.099</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="M41" t="n">
         <v>0.039</v>
       </c>
       <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41" t="s">
         <v>276</v>
-      </c>
-      <c r="O41" t="s">
-        <v>277</v>
       </c>
       <c r="P41" t="s">
         <v>92</v>
       </c>
       <c r="Q41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D42" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" t="s">
         <v>280</v>
       </c>
-      <c r="E42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" t="s">
-        <v>281</v>
-      </c>
       <c r="G42" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42" t="n">
-        <v>405177</v>
+        <v>425481</v>
       </c>
       <c r="I42" t="n">
-        <v>3.204</v>
+        <v>3.364</v>
       </c>
       <c r="J42" t="n">
-        <v>4467</v>
+        <v>6135</v>
       </c>
       <c r="K42" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="L42" t="n">
-        <v>6559</v>
+        <v>6244</v>
       </c>
       <c r="M42" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
         <v>276</v>
-      </c>
-      <c r="O42" t="s">
-        <v>277</v>
       </c>
       <c r="P42" t="s">
         <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" t="s">
         <v>283</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D43" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>285</v>
-      </c>
-      <c r="E43" t="s">
-        <v>286</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H43" t="n">
-        <v>571547</v>
+        <v>612997</v>
       </c>
       <c r="I43" t="n">
-        <v>30.439</v>
+        <v>32.647</v>
       </c>
       <c r="J43" t="n">
-        <v>18485</v>
+        <v>21495</v>
       </c>
       <c r="K43" t="n">
-        <v>0.984</v>
+        <v>1.145</v>
       </c>
       <c r="L43" t="n">
-        <v>18865</v>
+        <v>18537</v>
       </c>
       <c r="M43" t="n">
-        <v>1.005</v>
+        <v>0.987</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P43" t="s">
         <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" t="s">
         <v>288</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D44" t="s">
         <v>289</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>290</v>
-      </c>
-      <c r="E44" t="s">
-        <v>291</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H44" t="n">
-        <v>49405</v>
+        <v>55074</v>
       </c>
       <c r="I44" t="n">
-        <v>0.919</v>
+        <v>1.024</v>
       </c>
       <c r="J44" t="n">
-        <v>2621</v>
+        <v>2567</v>
       </c>
       <c r="K44" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="L44" t="n">
-        <v>1996</v>
+        <v>2294</v>
       </c>
       <c r="M44" t="n">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="N44" t="s">
         <v>41</v>
       </c>
       <c r="O44" t="s">
+        <v>291</v>
+      </c>
+      <c r="P44" t="s">
         <v>292</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>293</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" t="s">
         <v>295</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D45" t="s">
         <v>296</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>297</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>298</v>
       </c>
-      <c r="F45" t="s">
-        <v>299</v>
-      </c>
       <c r="G45" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" t="n">
-        <v>92751</v>
+        <v>96366</v>
       </c>
       <c r="I45" t="n">
-        <v>49.173</v>
+        <v>51.09</v>
       </c>
       <c r="J45" t="n">
-        <v>1783</v>
+        <v>1745</v>
       </c>
       <c r="K45" t="n">
-        <v>0.945</v>
+        <v>0.925</v>
       </c>
       <c r="L45" t="n">
-        <v>1644</v>
+        <v>1562</v>
       </c>
       <c r="M45" t="n">
-        <v>0.872</v>
+        <v>0.828</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P45" t="s">
         <v>22</v>
       </c>
       <c r="Q45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" t="s">
         <v>301</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D46" t="s">
         <v>302</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D46" t="s">
-        <v>303</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H46" t="n">
-        <v>245580</v>
+        <v>259043</v>
       </c>
       <c r="I46" t="n">
-        <v>90.211</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7980</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.931</v>
-      </c>
+        <v>95.156</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
       <c r="L46" t="n">
-        <v>6474</v>
+        <v>6114</v>
       </c>
       <c r="M46" t="n">
-        <v>2.378</v>
+        <v>2.246</v>
       </c>
       <c r="N46" t="s">
         <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P46" t="s">
         <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" t="s">
         <v>306</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D47" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>308</v>
-      </c>
-      <c r="E47" t="s">
-        <v>309</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>64018</v>
+        <v>65724</v>
       </c>
       <c r="I47" t="n">
-        <v>102.269</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1007</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.609</v>
-      </c>
+        <v>104.994</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="M47" t="n">
-        <v>1.444</v>
+        <v>1.31</v>
       </c>
       <c r="N47" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
         <v>309</v>
-      </c>
-      <c r="O47" t="s">
-        <v>310</v>
       </c>
       <c r="P47" t="s">
         <v>22</v>
       </c>
       <c r="Q47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
         <v>312</v>
-      </c>
-      <c r="B48" t="s">
-        <v>313</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>43971</v>
       </c>
       <c r="D48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48" t="s">
         <v>314</v>
-      </c>
-      <c r="E48" t="s">
-        <v>315</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
@@ -4829,140 +4783,140 @@
         <v>0.569</v>
       </c>
       <c r="N48" t="s">
+        <v>314</v>
+      </c>
+      <c r="O48" t="s">
         <v>315</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>316</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>317</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" t="s">
         <v>319</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D49" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>321</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>322</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="n">
+        <v>53</v>
+      </c>
+      <c r="H49" t="n">
+        <v>16846</v>
+      </c>
+      <c r="I49" t="n">
+        <v>31.165</v>
+      </c>
+      <c r="J49" t="n">
+        <v>495</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="L49" t="n">
+        <v>508</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="N49" t="s">
         <v>323</v>
       </c>
-      <c r="G49" t="n">
-        <v>51</v>
-      </c>
-      <c r="H49" t="n">
-        <v>15280</v>
-      </c>
-      <c r="I49" t="n">
-        <v>28.268</v>
-      </c>
-      <c r="J49" t="n">
-        <v>426</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="L49" t="n">
-        <v>433</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>324</v>
-      </c>
-      <c r="O49" t="s">
-        <v>325</v>
       </c>
       <c r="P49" t="s">
         <v>51</v>
       </c>
       <c r="Q49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" t="s">
         <v>327</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D50" t="s">
         <v>328</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>329</v>
-      </c>
-      <c r="E50" t="s">
-        <v>330</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H50" t="n">
-        <v>156320</v>
+        <v>168539</v>
       </c>
       <c r="I50" t="n">
-        <v>1.212</v>
+        <v>1.307</v>
       </c>
       <c r="J50" t="n">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="K50" t="n">
         <v>0.002</v>
       </c>
       <c r="L50" t="n">
-        <v>3145</v>
+        <v>3079</v>
       </c>
       <c r="M50" t="n">
         <v>0.024</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P50" t="s">
         <v>71</v>
       </c>
       <c r="Q50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" t="s">
         <v>332</v>
-      </c>
-      <c r="B51" t="s">
-        <v>333</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" t="s">
         <v>334</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>335</v>
-      </c>
-      <c r="F51" t="s">
-        <v>336</v>
       </c>
       <c r="G51" t="n">
         <v>87</v>
@@ -4986,58 +4940,56 @@
         <v>0.103</v>
       </c>
       <c r="N51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P51" t="s">
         <v>71</v>
       </c>
       <c r="Q51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
         <v>339</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D52" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>341</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>342</v>
       </c>
-      <c r="F52"/>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H52" t="n">
-        <v>15838</v>
+        <v>17152</v>
       </c>
       <c r="I52" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="J52" t="n">
-        <v>701</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.013</v>
-      </c>
+        <v>0.315</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="N52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O52" t="s">
         <v>343</v>
@@ -5057,7 +5009,7 @@
         <v>346</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="D53" t="s">
         <v>347</v>
@@ -5069,25 +5021,25 @@
         <v>349</v>
       </c>
       <c r="G53" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H53" t="n">
-        <v>33006</v>
+        <v>38737</v>
       </c>
       <c r="I53" t="n">
-        <v>1.133</v>
+        <v>1.329</v>
       </c>
       <c r="J53" t="n">
-        <v>2282</v>
+        <v>3243</v>
       </c>
       <c r="K53" t="n">
-        <v>0.078</v>
+        <v>0.111</v>
       </c>
       <c r="L53" t="n">
-        <v>2006</v>
+        <v>2296</v>
       </c>
       <c r="M53" t="n">
-        <v>0.069</v>
+        <v>0.079</v>
       </c>
       <c r="N53" t="s">
         <v>348</v>
@@ -5110,7 +5062,7 @@
         <v>353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D54" t="s">
         <v>354</v>
@@ -5120,25 +5072,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>306460</v>
+        <v>311943</v>
       </c>
       <c r="I54" t="n">
-        <v>17.885</v>
+        <v>18.205</v>
       </c>
       <c r="J54" t="n">
-        <v>3688</v>
+        <v>3705</v>
       </c>
       <c r="K54" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="L54" t="n">
-        <v>4270</v>
+        <v>4390</v>
       </c>
       <c r="M54" t="n">
-        <v>0.249</v>
+        <v>0.256</v>
       </c>
       <c r="N54" t="s">
         <v>356</v>
@@ -5161,7 +5113,7 @@
         <v>360</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="D55" t="s">
         <v>361</v>
@@ -5171,25 +5123,25 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H55" t="n">
-        <v>238745</v>
+        <v>250246</v>
       </c>
       <c r="I55" t="n">
-        <v>49.509</v>
+        <v>51.894</v>
       </c>
       <c r="J55" t="n">
-        <v>4902</v>
+        <v>5408</v>
       </c>
       <c r="K55" t="n">
-        <v>1.017</v>
+        <v>1.121</v>
       </c>
       <c r="L55" t="n">
-        <v>5100</v>
+        <v>4780</v>
       </c>
       <c r="M55" t="n">
-        <v>1.058</v>
+        <v>0.991</v>
       </c>
       <c r="N55" t="s">
         <v>362</v>
@@ -5212,7 +5164,7 @@
         <v>365</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D56" t="s">
         <v>366</v>
@@ -5222,25 +5174,21 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H56" t="n">
-        <v>38231</v>
+        <v>41907</v>
       </c>
       <c r="I56" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1332</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.006</v>
-      </c>
+        <v>0.203</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>1260</v>
+        <v>1444</v>
       </c>
       <c r="M56" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="N56" t="s">
         <v>367</v>
@@ -5263,7 +5211,7 @@
         <v>371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D57" t="s">
         <v>372</v>
@@ -5273,25 +5221,21 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H57" t="n">
-        <v>223045</v>
+        <v>229769</v>
       </c>
       <c r="I57" t="n">
-        <v>41.143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3061</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.565</v>
-      </c>
+        <v>42.383</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57" t="n">
-        <v>2024</v>
+        <v>1917</v>
       </c>
       <c r="M57" t="n">
-        <v>0.373</v>
+        <v>0.354</v>
       </c>
       <c r="N57" t="s">
         <v>373</v>
@@ -5314,7 +5258,7 @@
         <v>378</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="D58" t="s">
         <v>379</v>
@@ -5324,25 +5268,25 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H58" t="n">
-        <v>414254</v>
+        <v>445987</v>
       </c>
       <c r="I58" t="n">
-        <v>1.875</v>
+        <v>2.019</v>
       </c>
       <c r="J58" t="n">
-        <v>13962</v>
+        <v>16387</v>
       </c>
       <c r="K58" t="n">
-        <v>0.063</v>
+        <v>0.074</v>
       </c>
       <c r="L58" t="n">
-        <v>13794</v>
+        <v>14505</v>
       </c>
       <c r="M58" t="n">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="N58" t="s">
         <v>380</v>
@@ -5365,7 +5309,7 @@
         <v>384</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="D59" t="s">
         <v>385</v>
@@ -5377,25 +5321,25 @@
         <v>386</v>
       </c>
       <c r="G59" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H59" t="n">
-        <v>51105</v>
+        <v>52641</v>
       </c>
       <c r="I59" t="n">
-        <v>11.844</v>
+        <v>12.2</v>
       </c>
       <c r="J59" t="n">
-        <v>757</v>
+        <v>826</v>
       </c>
       <c r="K59" t="n">
-        <v>0.175</v>
+        <v>0.191</v>
       </c>
       <c r="L59" t="n">
-        <v>1063</v>
+        <v>967</v>
       </c>
       <c r="M59" t="n">
-        <v>0.246</v>
+        <v>0.224</v>
       </c>
       <c r="N59" t="s">
         <v>41</v>
@@ -5418,7 +5362,7 @@
         <v>390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43960</v>
+        <v>43973</v>
       </c>
       <c r="D60" t="s">
         <v>391</v>
@@ -5426,112 +5370,106 @@
       <c r="E60" t="s">
         <v>392</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60"/>
+      <c r="G60" t="n">
+        <v>75</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22868</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="J60" t="n">
+        <v>881</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="L60" t="n">
+        <v>573</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
         <v>393</v>
-      </c>
-      <c r="G60" t="n">
-        <v>62</v>
-      </c>
-      <c r="H60" t="n">
-        <v>14646</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.053</v>
-      </c>
-      <c r="J60" t="n">
-        <v>800</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="L60" t="n">
-        <v>554</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="N60" t="s">
-        <v>394</v>
-      </c>
-      <c r="O60" t="s">
-        <v>395</v>
       </c>
       <c r="P60" t="s">
         <v>51</v>
       </c>
       <c r="Q60" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D61" t="s">
         <v>397</v>
-      </c>
-      <c r="B61" t="s">
-        <v>398</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D61" t="s">
-        <v>399</v>
       </c>
       <c r="E61" t="s">
         <v>41</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H61" t="n">
-        <v>108481</v>
+        <v>112353</v>
       </c>
       <c r="I61" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.087</v>
-      </c>
+        <v>3.408</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
       <c r="L61" t="n">
-        <v>2956</v>
+        <v>2804</v>
       </c>
       <c r="M61" t="n">
-        <v>0.09</v>
+        <v>0.085</v>
       </c>
       <c r="N61" t="s">
+        <v>398</v>
+      </c>
+      <c r="O61" t="s">
+        <v>399</v>
+      </c>
+      <c r="P61" t="s">
         <v>400</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>401</v>
-      </c>
-      <c r="P61" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>43966</v>
       </c>
       <c r="D62" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" t="s">
         <v>406</v>
-      </c>
-      <c r="E62" t="s">
-        <v>407</v>
-      </c>
-      <c r="F62" t="s">
-        <v>408</v>
       </c>
       <c r="G62" t="n">
         <v>24</v>
@@ -5551,497 +5489,491 @@
         <v>0.058</v>
       </c>
       <c r="N62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P62" t="s">
         <v>92</v>
       </c>
       <c r="Q62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>408</v>
+      </c>
+      <c r="B63" t="s">
+        <v>409</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D63" t="s">
         <v>410</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E63" t="s">
         <v>411</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>412</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="n">
+        <v>79</v>
+      </c>
+      <c r="H63" t="n">
+        <v>719571</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19.013</v>
+      </c>
+      <c r="J63" t="n">
+        <v>22341</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L63" t="n">
+        <v>20471</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="N63" t="s">
         <v>413</v>
       </c>
-      <c r="F63" t="s">
+      <c r="O63" t="s">
         <v>414</v>
-      </c>
-      <c r="G63" t="n">
-        <v>77</v>
-      </c>
-      <c r="H63" t="n">
-        <v>674861</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17.831</v>
-      </c>
-      <c r="J63" t="n">
-        <v>21637</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="L63" t="n">
-        <v>20963</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="N63" t="s">
-        <v>415</v>
-      </c>
-      <c r="O63" t="s">
-        <v>416</v>
       </c>
       <c r="P63" t="s">
         <v>51</v>
       </c>
       <c r="Q63" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D64" t="s">
         <v>418</v>
-      </c>
-      <c r="B64" t="s">
-        <v>419</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D64" t="s">
-        <v>420</v>
       </c>
       <c r="E64" t="s">
         <v>41</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H64" t="n">
-        <v>674001</v>
+        <v>689705</v>
       </c>
       <c r="I64" t="n">
-        <v>66.1</v>
+        <v>67.64</v>
       </c>
       <c r="J64" t="n">
-        <v>11621</v>
+        <v>15584</v>
       </c>
       <c r="K64" t="n">
-        <v>1.14</v>
+        <v>1.528</v>
       </c>
       <c r="L64" t="n">
-        <v>15375</v>
+        <v>15286</v>
       </c>
       <c r="M64" t="n">
-        <v>1.508</v>
+        <v>1.499</v>
       </c>
       <c r="N64" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" t="s">
+        <v>418</v>
+      </c>
+      <c r="P64" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q64" t="s">
         <v>421</v>
-      </c>
-      <c r="O64" t="s">
-        <v>420</v>
-      </c>
-      <c r="P64" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B65" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D65" t="s">
         <v>424</v>
       </c>
-      <c r="B65" t="s">
+      <c r="E65" t="s">
         <v>425</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D65" t="s">
-        <v>426</v>
-      </c>
-      <c r="E65" t="s">
-        <v>427</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H65" t="n">
-        <v>170437</v>
+        <v>180642</v>
       </c>
       <c r="I65" t="n">
-        <v>59.158</v>
+        <v>62.7</v>
       </c>
       <c r="J65" t="n">
-        <v>4255</v>
+        <v>5160</v>
       </c>
       <c r="K65" t="n">
-        <v>1.477</v>
+        <v>1.791</v>
       </c>
       <c r="L65" t="n">
-        <v>4473</v>
+        <v>4638</v>
       </c>
       <c r="M65" t="n">
-        <v>1.553</v>
+        <v>1.61</v>
       </c>
       <c r="N65" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P65" t="s">
         <v>92</v>
       </c>
       <c r="Q65" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D66" t="s">
         <v>430</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
         <v>431</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>432</v>
       </c>
-      <c r="E66" t="s">
-        <v>433</v>
-      </c>
-      <c r="F66" t="s">
-        <v>434</v>
-      </c>
       <c r="G66" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H66" t="n">
-        <v>332487</v>
+        <v>342466</v>
       </c>
       <c r="I66" t="n">
-        <v>17.283</v>
+        <v>17.802</v>
       </c>
       <c r="J66" t="n">
-        <v>10413</v>
+        <v>9979</v>
       </c>
       <c r="K66" t="n">
-        <v>0.541</v>
+        <v>0.519</v>
       </c>
       <c r="L66" t="n">
-        <v>7812</v>
+        <v>8036</v>
       </c>
       <c r="M66" t="n">
-        <v>0.406</v>
+        <v>0.418</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P66" t="s">
         <v>22</v>
       </c>
       <c r="Q66" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D67" t="s">
         <v>436</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>437</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D67" t="s">
-        <v>438</v>
-      </c>
-      <c r="E67" t="s">
-        <v>439</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H67" t="n">
-        <v>7578029</v>
+        <v>8126626</v>
       </c>
       <c r="I67" t="n">
-        <v>51.928</v>
-      </c>
-      <c r="J67" t="n">
-        <v>225713</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1.547</v>
-      </c>
+        <v>55.687</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67"/>
       <c r="L67" t="n">
-        <v>227924</v>
+        <v>244668</v>
       </c>
       <c r="M67" t="n">
-        <v>1.562</v>
+        <v>1.677</v>
       </c>
       <c r="N67" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O67" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P67" t="s">
         <v>22</v>
       </c>
       <c r="Q67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>440</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D68" t="s">
         <v>442</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E68" t="s">
         <v>443</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D68" t="s">
-        <v>444</v>
-      </c>
-      <c r="E68" t="s">
-        <v>445</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H68" t="n">
-        <v>52335</v>
+        <v>55968</v>
       </c>
       <c r="I68" t="n">
-        <v>4.041</v>
+        <v>4.321</v>
       </c>
       <c r="J68" t="n">
-        <v>1217</v>
+        <v>1568</v>
       </c>
       <c r="K68" t="n">
-        <v>0.094</v>
+        <v>0.121</v>
       </c>
       <c r="L68" t="n">
-        <v>1279</v>
+        <v>1396</v>
       </c>
       <c r="M68" t="n">
-        <v>0.099</v>
+        <v>0.108</v>
       </c>
       <c r="N68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P68" t="s">
         <v>51</v>
       </c>
       <c r="Q68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D69" t="s">
         <v>448</v>
-      </c>
-      <c r="B69" t="s">
-        <v>449</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D69" t="s">
-        <v>450</v>
       </c>
       <c r="E69" t="s">
         <v>41</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" t="s">
+        <v>449</v>
+      </c>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H69" t="n">
-        <v>618084</v>
+        <v>667057</v>
       </c>
       <c r="I69" t="n">
-        <v>17.754</v>
-      </c>
-      <c r="J69" t="n">
-        <v>16130</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.463</v>
-      </c>
+        <v>19.161</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="n">
-        <v>19387</v>
+        <v>19542</v>
       </c>
       <c r="M69" t="n">
-        <v>0.557</v>
+        <v>0.561</v>
       </c>
       <c r="N69" t="s">
         <v>41</v>
       </c>
       <c r="O69" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P69" t="s">
         <v>126</v>
       </c>
       <c r="Q69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" t="s">
+        <v>452</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D70" t="s">
         <v>453</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>454</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>455</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="n">
+        <v>81</v>
+      </c>
+      <c r="H70" t="n">
+        <v>33892</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1199</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1038</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="N70" t="s">
         <v>456</v>
       </c>
-      <c r="F70" t="s">
+      <c r="O70" t="s">
         <v>457</v>
       </c>
-      <c r="G70" t="n">
-        <v>79</v>
-      </c>
-      <c r="H70" t="n">
-        <v>31478</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1042</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="L70" t="n">
-        <v>996</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>458</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>459</v>
-      </c>
-      <c r="P70" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D71" t="s">
         <v>462</v>
-      </c>
-      <c r="B71" t="s">
-        <v>463</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D71" t="s">
-        <v>464</v>
       </c>
       <c r="E71" t="s">
         <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G71" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="n">
-        <v>196881</v>
+        <v>203799</v>
       </c>
       <c r="I71" t="n">
-        <v>28.934</v>
+        <v>29.95</v>
       </c>
       <c r="J71" t="n">
-        <v>6198</v>
+        <v>6918</v>
       </c>
       <c r="K71" t="n">
-        <v>0.911</v>
+        <v>1.017</v>
       </c>
       <c r="L71" t="n">
-        <v>5754</v>
+        <v>5857</v>
       </c>
       <c r="M71" t="n">
-        <v>0.846</v>
+        <v>0.861</v>
       </c>
       <c r="N71" t="s">
         <v>41</v>
       </c>
       <c r="O71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P71" t="s">
         <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="D72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E72" t="s">
         <v>41</v>
@@ -6068,27 +6000,27 @@
         <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P72" t="s">
         <v>92</v>
       </c>
       <c r="Q72" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>43969</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E73" t="s">
         <v>41</v>
@@ -6115,236 +6047,228 @@
         <v>41</v>
       </c>
       <c r="O73" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q73" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D74" t="s">
         <v>476</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>477</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D74" t="s">
-        <v>478</v>
-      </c>
-      <c r="E74" t="s">
-        <v>479</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H74" t="n">
-        <v>148845</v>
+        <v>154529</v>
       </c>
       <c r="I74" t="n">
-        <v>27.263</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3371</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.617</v>
-      </c>
+        <v>28.304</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74"/>
       <c r="L74" t="n">
-        <v>3116</v>
+        <v>2661</v>
       </c>
       <c r="M74" t="n">
-        <v>0.571</v>
+        <v>0.487</v>
       </c>
       <c r="N74" t="s">
+        <v>478</v>
+      </c>
+      <c r="O74" t="s">
+        <v>479</v>
+      </c>
+      <c r="P74" t="s">
         <v>480</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
         <v>481</v>
-      </c>
-      <c r="P74" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75" t="s">
+        <v>483</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D75" t="s">
         <v>484</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>485</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D75" t="s">
-        <v>486</v>
-      </c>
-      <c r="E75" t="s">
-        <v>487</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H75" t="n">
-        <v>71951</v>
+        <v>73742</v>
       </c>
       <c r="I75" t="n">
-        <v>34.61</v>
+        <v>35.471</v>
       </c>
       <c r="J75" t="n">
-        <v>981</v>
+        <v>882</v>
       </c>
       <c r="K75" t="n">
-        <v>0.472</v>
+        <v>0.424</v>
       </c>
       <c r="L75" t="n">
-        <v>894</v>
+        <v>863</v>
       </c>
       <c r="M75" t="n">
-        <v>0.43</v>
+        <v>0.415</v>
       </c>
       <c r="N75" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O75" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="P75" t="s">
         <v>22</v>
       </c>
       <c r="Q75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="D76" t="s">
         <v>491</v>
       </c>
-      <c r="B76" t="s">
+      <c r="E76" t="s">
         <v>492</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>493</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="n">
+        <v>83</v>
+      </c>
+      <c r="H76" t="n">
+        <v>543032</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.156</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17599</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="L76" t="n">
+        <v>17354</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="N76" t="s">
+        <v>492</v>
+      </c>
+      <c r="O76" t="s">
         <v>494</v>
-      </c>
-      <c r="F76" t="s">
-        <v>495</v>
-      </c>
-      <c r="G76" t="n">
-        <v>80</v>
-      </c>
-      <c r="H76" t="n">
-        <v>488609</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8.238</v>
-      </c>
-      <c r="J76" t="n">
-        <v>13538</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="L76" t="n">
-        <v>16987</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="N76" t="s">
-        <v>494</v>
-      </c>
-      <c r="O76" t="s">
-        <v>496</v>
       </c>
       <c r="